--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,6 +1607,3558 @@
         <v>450</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>15</v>
+      </c>
+      <c r="D74" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+      <c r="C75" t="n">
+        <v>25</v>
+      </c>
+      <c r="D75" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
+      </c>
+      <c r="C76" t="n">
+        <v>50</v>
+      </c>
+      <c r="D76" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>9</v>
+      </c>
+      <c r="C77" t="n">
+        <v>15</v>
+      </c>
+      <c r="D77" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C78" t="n">
+        <v>25</v>
+      </c>
+      <c r="D78" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>50</v>
+      </c>
+      <c r="D79" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
+      </c>
+      <c r="C80" t="n">
+        <v>15</v>
+      </c>
+      <c r="D80" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6</v>
+      </c>
+      <c r="C81" t="n">
+        <v>25</v>
+      </c>
+      <c r="D81" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>9</v>
+      </c>
+      <c r="C82" t="n">
+        <v>50</v>
+      </c>
+      <c r="D82" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C83" t="n">
+        <v>15</v>
+      </c>
+      <c r="D83" t="n">
+        <v>14.99999999999994</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>25</v>
+      </c>
+      <c r="D84" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>4</v>
+      </c>
+      <c r="C85" t="n">
+        <v>50</v>
+      </c>
+      <c r="D85" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+      <c r="C86" t="n">
+        <v>15</v>
+      </c>
+      <c r="D86" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>9</v>
+      </c>
+      <c r="C87" t="n">
+        <v>25</v>
+      </c>
+      <c r="D87" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C88" t="n">
+        <v>50</v>
+      </c>
+      <c r="D88" t="n">
+        <v>49.9999999999998</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>15</v>
+      </c>
+      <c r="D89" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>4</v>
+      </c>
+      <c r="C90" t="n">
+        <v>25</v>
+      </c>
+      <c r="D90" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+      <c r="C91" t="n">
+        <v>50</v>
+      </c>
+      <c r="D91" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>9</v>
+      </c>
+      <c r="C92" t="n">
+        <v>15</v>
+      </c>
+      <c r="D92" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C93" t="n">
+        <v>25</v>
+      </c>
+      <c r="D93" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>50</v>
+      </c>
+      <c r="D94" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>4</v>
+      </c>
+      <c r="C95" t="n">
+        <v>15</v>
+      </c>
+      <c r="D95" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6</v>
+      </c>
+      <c r="C96" t="n">
+        <v>25</v>
+      </c>
+      <c r="D96" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>9</v>
+      </c>
+      <c r="C97" t="n">
+        <v>50</v>
+      </c>
+      <c r="D97" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>7.00000000000001</v>
+      </c>
+      <c r="C98" t="n">
+        <v>33</v>
+      </c>
+      <c r="D98" t="n">
+        <v>231.0000000000003</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>7.50909090909091</v>
+      </c>
+      <c r="C99" t="n">
+        <v>33.1818181818182</v>
+      </c>
+      <c r="D99" t="n">
+        <v>249.1652892561985</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>8.018181818181819</v>
+      </c>
+      <c r="C100" t="n">
+        <v>33.3636363636364</v>
+      </c>
+      <c r="D100" t="n">
+        <v>267.5157024793392</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>8.527272727272729</v>
+      </c>
+      <c r="C101" t="n">
+        <v>33.5454545454545</v>
+      </c>
+      <c r="D101" t="n">
+        <v>286.0512396694211</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>9.036363636363641</v>
+      </c>
+      <c r="C102" t="n">
+        <v>33.7272727272727</v>
+      </c>
+      <c r="D102" t="n">
+        <v>304.7719008264461</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>9.54545454545455</v>
+      </c>
+      <c r="C103" t="n">
+        <v>33.9090909090909</v>
+      </c>
+      <c r="D103" t="n">
+        <v>323.6776859504133</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>10.0545454545455</v>
+      </c>
+      <c r="C104" t="n">
+        <v>34.0909090909091</v>
+      </c>
+      <c r="D104" t="n">
+        <v>342.768595041324</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>10.5636363636364</v>
+      </c>
+      <c r="C105" t="n">
+        <v>34.2727272727273</v>
+      </c>
+      <c r="D105" t="n">
+        <v>362.0446280991751</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>11.0727272727273</v>
+      </c>
+      <c r="C106" t="n">
+        <v>34.4545454545455</v>
+      </c>
+      <c r="D106" t="n">
+        <v>381.5057851239685</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>11.5818181818182</v>
+      </c>
+      <c r="C107" t="n">
+        <v>34.6363636363636</v>
+      </c>
+      <c r="D107" t="n">
+        <v>401.1520661157027</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>12.0909090909091</v>
+      </c>
+      <c r="C108" t="n">
+        <v>34.8181818181818</v>
+      </c>
+      <c r="D108" t="n">
+        <v>420.9834710743802</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C109" t="n">
+        <v>35</v>
+      </c>
+      <c r="D109" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>13.1090909090909</v>
+      </c>
+      <c r="C110" t="n">
+        <v>35.1818181818182</v>
+      </c>
+      <c r="D110" t="n">
+        <v>461.2016528925619</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>15</v>
+      </c>
+      <c r="D111" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>4</v>
+      </c>
+      <c r="C112" t="n">
+        <v>25</v>
+      </c>
+      <c r="D112" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>6</v>
+      </c>
+      <c r="C113" t="n">
+        <v>50</v>
+      </c>
+      <c r="D113" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>9</v>
+      </c>
+      <c r="C114" t="n">
+        <v>15</v>
+      </c>
+      <c r="D114" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C115" t="n">
+        <v>25</v>
+      </c>
+      <c r="D115" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>50</v>
+      </c>
+      <c r="D116" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>4</v>
+      </c>
+      <c r="C117" t="n">
+        <v>15</v>
+      </c>
+      <c r="D117" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>6</v>
+      </c>
+      <c r="C118" t="n">
+        <v>25</v>
+      </c>
+      <c r="D118" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>9</v>
+      </c>
+      <c r="C119" t="n">
+        <v>50</v>
+      </c>
+      <c r="D119" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C120" t="n">
+        <v>15</v>
+      </c>
+      <c r="D120" t="n">
+        <v>14.99999999999994</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>25</v>
+      </c>
+      <c r="D121" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>4</v>
+      </c>
+      <c r="C122" t="n">
+        <v>50</v>
+      </c>
+      <c r="D122" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>6</v>
+      </c>
+      <c r="C123" t="n">
+        <v>15</v>
+      </c>
+      <c r="D123" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>9</v>
+      </c>
+      <c r="C124" t="n">
+        <v>25</v>
+      </c>
+      <c r="D124" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C125" t="n">
+        <v>50</v>
+      </c>
+      <c r="D125" t="n">
+        <v>49.9999999999998</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>15</v>
+      </c>
+      <c r="D126" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>25</v>
+      </c>
+      <c r="D127" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>6</v>
+      </c>
+      <c r="C128" t="n">
+        <v>50</v>
+      </c>
+      <c r="D128" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>15</v>
+      </c>
+      <c r="D129" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C130" t="n">
+        <v>25</v>
+      </c>
+      <c r="D130" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>50</v>
+      </c>
+      <c r="D131" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+      <c r="C132" t="n">
+        <v>15</v>
+      </c>
+      <c r="D132" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>25</v>
+      </c>
+      <c r="D133" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>9</v>
+      </c>
+      <c r="C134" t="n">
+        <v>50</v>
+      </c>
+      <c r="D134" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>7.00000000000001</v>
+      </c>
+      <c r="C135" t="n">
+        <v>33</v>
+      </c>
+      <c r="D135" t="n">
+        <v>231.0000000000003</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>7.50909090909091</v>
+      </c>
+      <c r="C136" t="n">
+        <v>33.1818181818182</v>
+      </c>
+      <c r="D136" t="n">
+        <v>249.1652892561985</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>8.018181818181819</v>
+      </c>
+      <c r="C137" t="n">
+        <v>33.3636363636364</v>
+      </c>
+      <c r="D137" t="n">
+        <v>267.5157024793392</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>8.527272727272729</v>
+      </c>
+      <c r="C138" t="n">
+        <v>33.5454545454545</v>
+      </c>
+      <c r="D138" t="n">
+        <v>286.0512396694211</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>9.036363636363641</v>
+      </c>
+      <c r="C139" t="n">
+        <v>33.7272727272727</v>
+      </c>
+      <c r="D139" t="n">
+        <v>304.7719008264461</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>9.54545454545455</v>
+      </c>
+      <c r="C140" t="n">
+        <v>33.9090909090909</v>
+      </c>
+      <c r="D140" t="n">
+        <v>323.6776859504133</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>10.0545454545455</v>
+      </c>
+      <c r="C141" t="n">
+        <v>34.0909090909091</v>
+      </c>
+      <c r="D141" t="n">
+        <v>342.768595041324</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>10.5636363636364</v>
+      </c>
+      <c r="C142" t="n">
+        <v>34.2727272727273</v>
+      </c>
+      <c r="D142" t="n">
+        <v>362.0446280991751</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>11.0727272727273</v>
+      </c>
+      <c r="C143" t="n">
+        <v>34.4545454545455</v>
+      </c>
+      <c r="D143" t="n">
+        <v>381.5057851239685</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>11.5818181818182</v>
+      </c>
+      <c r="C144" t="n">
+        <v>34.6363636363636</v>
+      </c>
+      <c r="D144" t="n">
+        <v>401.1520661157027</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>12.0909090909091</v>
+      </c>
+      <c r="C145" t="n">
+        <v>34.8181818181818</v>
+      </c>
+      <c r="D145" t="n">
+        <v>420.9834710743802</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>35</v>
+      </c>
+      <c r="D146" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>13.1090909090909</v>
+      </c>
+      <c r="C147" t="n">
+        <v>35.1818181818182</v>
+      </c>
+      <c r="D147" t="n">
+        <v>461.2016528925619</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>4</v>
+      </c>
+      <c r="C149" t="n">
+        <v>25</v>
+      </c>
+      <c r="D149" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>50</v>
+      </c>
+      <c r="D150" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>9</v>
+      </c>
+      <c r="C151" t="n">
+        <v>15</v>
+      </c>
+      <c r="D151" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C152" t="n">
+        <v>25</v>
+      </c>
+      <c r="D152" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>50</v>
+      </c>
+      <c r="D153" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>4</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15</v>
+      </c>
+      <c r="D154" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>25</v>
+      </c>
+      <c r="D155" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>9</v>
+      </c>
+      <c r="C156" t="n">
+        <v>50</v>
+      </c>
+      <c r="D156" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C157" t="n">
+        <v>15</v>
+      </c>
+      <c r="D157" t="n">
+        <v>14.99999999999994</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>25</v>
+      </c>
+      <c r="D158" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>4</v>
+      </c>
+      <c r="C159" t="n">
+        <v>50</v>
+      </c>
+      <c r="D159" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>6</v>
+      </c>
+      <c r="C160" t="n">
+        <v>15</v>
+      </c>
+      <c r="D160" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>25</v>
+      </c>
+      <c r="D161" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C162" t="n">
+        <v>50</v>
+      </c>
+      <c r="D162" t="n">
+        <v>49.9999999999998</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>15</v>
+      </c>
+      <c r="D163" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>4</v>
+      </c>
+      <c r="C164" t="n">
+        <v>25</v>
+      </c>
+      <c r="D164" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>6</v>
+      </c>
+      <c r="C165" t="n">
+        <v>50</v>
+      </c>
+      <c r="D165" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>9</v>
+      </c>
+      <c r="C166" t="n">
+        <v>15</v>
+      </c>
+      <c r="D166" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C167" t="n">
+        <v>25</v>
+      </c>
+      <c r="D167" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>50</v>
+      </c>
+      <c r="D168" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>15</v>
+      </c>
+      <c r="D169" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>6</v>
+      </c>
+      <c r="C170" t="n">
+        <v>25</v>
+      </c>
+      <c r="D170" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>50</v>
+      </c>
+      <c r="D171" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>7.00000000000001</v>
+      </c>
+      <c r="C172" t="n">
+        <v>33</v>
+      </c>
+      <c r="D172" t="n">
+        <v>231.0000000000003</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>7.50909090909091</v>
+      </c>
+      <c r="C173" t="n">
+        <v>33.1818181818182</v>
+      </c>
+      <c r="D173" t="n">
+        <v>249.1652892561985</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>8.018181818181819</v>
+      </c>
+      <c r="C174" t="n">
+        <v>33.3636363636364</v>
+      </c>
+      <c r="D174" t="n">
+        <v>267.5157024793392</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>8.527272727272729</v>
+      </c>
+      <c r="C175" t="n">
+        <v>33.5454545454545</v>
+      </c>
+      <c r="D175" t="n">
+        <v>286.0512396694211</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>9.036363636363641</v>
+      </c>
+      <c r="C176" t="n">
+        <v>33.7272727272727</v>
+      </c>
+      <c r="D176" t="n">
+        <v>304.7719008264461</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>9.54545454545455</v>
+      </c>
+      <c r="C177" t="n">
+        <v>33.9090909090909</v>
+      </c>
+      <c r="D177" t="n">
+        <v>323.6776859504133</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>10.0545454545455</v>
+      </c>
+      <c r="C178" t="n">
+        <v>34.0909090909091</v>
+      </c>
+      <c r="D178" t="n">
+        <v>342.768595041324</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>10.5636363636364</v>
+      </c>
+      <c r="C179" t="n">
+        <v>34.2727272727273</v>
+      </c>
+      <c r="D179" t="n">
+        <v>362.0446280991751</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>11.0727272727273</v>
+      </c>
+      <c r="C180" t="n">
+        <v>34.4545454545455</v>
+      </c>
+      <c r="D180" t="n">
+        <v>381.5057851239685</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>11.5818181818182</v>
+      </c>
+      <c r="C181" t="n">
+        <v>34.6363636363636</v>
+      </c>
+      <c r="D181" t="n">
+        <v>401.1520661157027</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>12.0909090909091</v>
+      </c>
+      <c r="C182" t="n">
+        <v>34.8181818181818</v>
+      </c>
+      <c r="D182" t="n">
+        <v>420.9834710743802</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C183" t="n">
+        <v>35</v>
+      </c>
+      <c r="D183" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>13.1090909090909</v>
+      </c>
+      <c r="C184" t="n">
+        <v>35.1818181818182</v>
+      </c>
+      <c r="D184" t="n">
+        <v>461.2016528925619</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>15</v>
+      </c>
+      <c r="D185" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>4</v>
+      </c>
+      <c r="C186" t="n">
+        <v>25</v>
+      </c>
+      <c r="D186" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>50</v>
+      </c>
+      <c r="D187" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>9</v>
+      </c>
+      <c r="C188" t="n">
+        <v>15</v>
+      </c>
+      <c r="D188" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C189" t="n">
+        <v>25</v>
+      </c>
+      <c r="D189" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>50</v>
+      </c>
+      <c r="D190" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>4</v>
+      </c>
+      <c r="C191" t="n">
+        <v>15</v>
+      </c>
+      <c r="D191" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>6</v>
+      </c>
+      <c r="C192" t="n">
+        <v>25</v>
+      </c>
+      <c r="D192" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>9</v>
+      </c>
+      <c r="C193" t="n">
+        <v>50</v>
+      </c>
+      <c r="D193" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C194" t="n">
+        <v>15</v>
+      </c>
+      <c r="D194" t="n">
+        <v>14.99999999999994</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="n">
+        <v>25</v>
+      </c>
+      <c r="D195" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>4</v>
+      </c>
+      <c r="C196" t="n">
+        <v>50</v>
+      </c>
+      <c r="D196" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>6</v>
+      </c>
+      <c r="C197" t="n">
+        <v>15</v>
+      </c>
+      <c r="D197" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>9</v>
+      </c>
+      <c r="C198" t="n">
+        <v>25</v>
+      </c>
+      <c r="D198" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C199" t="n">
+        <v>50</v>
+      </c>
+      <c r="D199" t="n">
+        <v>49.9999999999998</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>15</v>
+      </c>
+      <c r="D200" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>4</v>
+      </c>
+      <c r="C201" t="n">
+        <v>25</v>
+      </c>
+      <c r="D201" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>6</v>
+      </c>
+      <c r="C202" t="n">
+        <v>50</v>
+      </c>
+      <c r="D202" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>9</v>
+      </c>
+      <c r="C203" t="n">
+        <v>15</v>
+      </c>
+      <c r="D203" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C204" t="n">
+        <v>25</v>
+      </c>
+      <c r="D204" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>50</v>
+      </c>
+      <c r="D205" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>4</v>
+      </c>
+      <c r="C206" t="n">
+        <v>15</v>
+      </c>
+      <c r="D206" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>6</v>
+      </c>
+      <c r="C207" t="n">
+        <v>25</v>
+      </c>
+      <c r="D207" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>9</v>
+      </c>
+      <c r="C208" t="n">
+        <v>50</v>
+      </c>
+      <c r="D208" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>7.00000000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>33</v>
+      </c>
+      <c r="D209" t="n">
+        <v>231.0000000000003</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>7.50909090909091</v>
+      </c>
+      <c r="C210" t="n">
+        <v>33.1818181818182</v>
+      </c>
+      <c r="D210" t="n">
+        <v>249.1652892561985</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>8.018181818181819</v>
+      </c>
+      <c r="C211" t="n">
+        <v>33.3636363636364</v>
+      </c>
+      <c r="D211" t="n">
+        <v>267.5157024793392</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>8.527272727272729</v>
+      </c>
+      <c r="C212" t="n">
+        <v>33.5454545454545</v>
+      </c>
+      <c r="D212" t="n">
+        <v>286.0512396694211</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>9.036363636363641</v>
+      </c>
+      <c r="C213" t="n">
+        <v>33.7272727272727</v>
+      </c>
+      <c r="D213" t="n">
+        <v>304.7719008264461</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>9.54545454545455</v>
+      </c>
+      <c r="C214" t="n">
+        <v>33.9090909090909</v>
+      </c>
+      <c r="D214" t="n">
+        <v>323.6776859504133</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>10.0545454545455</v>
+      </c>
+      <c r="C215" t="n">
+        <v>34.0909090909091</v>
+      </c>
+      <c r="D215" t="n">
+        <v>342.768595041324</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>10.5636363636364</v>
+      </c>
+      <c r="C216" t="n">
+        <v>34.2727272727273</v>
+      </c>
+      <c r="D216" t="n">
+        <v>362.0446280991751</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>11.0727272727273</v>
+      </c>
+      <c r="C217" t="n">
+        <v>34.4545454545455</v>
+      </c>
+      <c r="D217" t="n">
+        <v>381.5057851239685</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>11.5818181818182</v>
+      </c>
+      <c r="C218" t="n">
+        <v>34.6363636363636</v>
+      </c>
+      <c r="D218" t="n">
+        <v>401.1520661157027</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>12.0909090909091</v>
+      </c>
+      <c r="C219" t="n">
+        <v>34.8181818181818</v>
+      </c>
+      <c r="D219" t="n">
+        <v>420.9834710743802</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C220" t="n">
+        <v>35</v>
+      </c>
+      <c r="D220" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>13.1090909090909</v>
+      </c>
+      <c r="C221" t="n">
+        <v>35.1818181818182</v>
+      </c>
+      <c r="D221" t="n">
+        <v>461.2016528925619</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>15</v>
+      </c>
+      <c r="D222" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>4</v>
+      </c>
+      <c r="C223" t="n">
+        <v>25</v>
+      </c>
+      <c r="D223" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>6</v>
+      </c>
+      <c r="C224" t="n">
+        <v>50</v>
+      </c>
+      <c r="D224" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>9</v>
+      </c>
+      <c r="C225" t="n">
+        <v>15</v>
+      </c>
+      <c r="D225" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C226" t="n">
+        <v>25</v>
+      </c>
+      <c r="D226" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>50</v>
+      </c>
+      <c r="D227" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>4</v>
+      </c>
+      <c r="C228" t="n">
+        <v>15</v>
+      </c>
+      <c r="D228" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>6</v>
+      </c>
+      <c r="C229" t="n">
+        <v>25</v>
+      </c>
+      <c r="D229" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>9</v>
+      </c>
+      <c r="C230" t="n">
+        <v>50</v>
+      </c>
+      <c r="D230" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C231" t="n">
+        <v>15</v>
+      </c>
+      <c r="D231" t="n">
+        <v>14.99999999999994</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" t="n">
+        <v>25</v>
+      </c>
+      <c r="D232" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>4</v>
+      </c>
+      <c r="C233" t="n">
+        <v>50</v>
+      </c>
+      <c r="D233" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>6</v>
+      </c>
+      <c r="C234" t="n">
+        <v>15</v>
+      </c>
+      <c r="D234" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>9</v>
+      </c>
+      <c r="C235" t="n">
+        <v>25</v>
+      </c>
+      <c r="D235" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C236" t="n">
+        <v>50</v>
+      </c>
+      <c r="D236" t="n">
+        <v>49.9999999999998</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>15</v>
+      </c>
+      <c r="D237" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>4</v>
+      </c>
+      <c r="C238" t="n">
+        <v>25</v>
+      </c>
+      <c r="D238" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>6</v>
+      </c>
+      <c r="C239" t="n">
+        <v>50</v>
+      </c>
+      <c r="D239" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>9</v>
+      </c>
+      <c r="C240" t="n">
+        <v>15</v>
+      </c>
+      <c r="D240" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C241" t="n">
+        <v>25</v>
+      </c>
+      <c r="D241" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>50</v>
+      </c>
+      <c r="D242" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>4</v>
+      </c>
+      <c r="C243" t="n">
+        <v>15</v>
+      </c>
+      <c r="D243" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>6</v>
+      </c>
+      <c r="C244" t="n">
+        <v>25</v>
+      </c>
+      <c r="D244" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>9</v>
+      </c>
+      <c r="C245" t="n">
+        <v>50</v>
+      </c>
+      <c r="D245" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>7.00000000000001</v>
+      </c>
+      <c r="C246" t="n">
+        <v>33</v>
+      </c>
+      <c r="D246" t="n">
+        <v>231.0000000000003</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>7.50909090909091</v>
+      </c>
+      <c r="C247" t="n">
+        <v>33.1818181818182</v>
+      </c>
+      <c r="D247" t="n">
+        <v>249.1652892561985</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>8.018181818181819</v>
+      </c>
+      <c r="C248" t="n">
+        <v>33.3636363636364</v>
+      </c>
+      <c r="D248" t="n">
+        <v>267.5157024793392</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>8.527272727272729</v>
+      </c>
+      <c r="C249" t="n">
+        <v>33.5454545454545</v>
+      </c>
+      <c r="D249" t="n">
+        <v>286.0512396694211</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>9.036363636363641</v>
+      </c>
+      <c r="C250" t="n">
+        <v>33.7272727272727</v>
+      </c>
+      <c r="D250" t="n">
+        <v>304.7719008264461</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>9.54545454545455</v>
+      </c>
+      <c r="C251" t="n">
+        <v>33.9090909090909</v>
+      </c>
+      <c r="D251" t="n">
+        <v>323.6776859504133</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>10.0545454545455</v>
+      </c>
+      <c r="C252" t="n">
+        <v>34.0909090909091</v>
+      </c>
+      <c r="D252" t="n">
+        <v>342.768595041324</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>10.5636363636364</v>
+      </c>
+      <c r="C253" t="n">
+        <v>34.2727272727273</v>
+      </c>
+      <c r="D253" t="n">
+        <v>362.0446280991751</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>11.0727272727273</v>
+      </c>
+      <c r="C254" t="n">
+        <v>34.4545454545455</v>
+      </c>
+      <c r="D254" t="n">
+        <v>381.5057851239685</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>11.5818181818182</v>
+      </c>
+      <c r="C255" t="n">
+        <v>34.6363636363636</v>
+      </c>
+      <c r="D255" t="n">
+        <v>401.1520661157027</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>12.0909090909091</v>
+      </c>
+      <c r="C256" t="n">
+        <v>34.8181818181818</v>
+      </c>
+      <c r="D256" t="n">
+        <v>420.9834710743802</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C257" t="n">
+        <v>35</v>
+      </c>
+      <c r="D257" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>13.1090909090909</v>
+      </c>
+      <c r="C258" t="n">
+        <v>35.1818181818182</v>
+      </c>
+      <c r="D258" t="n">
+        <v>461.2016528925619</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+      <c r="C259" t="n">
+        <v>15</v>
+      </c>
+      <c r="D259" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>4</v>
+      </c>
+      <c r="C260" t="n">
+        <v>25</v>
+      </c>
+      <c r="D260" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>6</v>
+      </c>
+      <c r="C261" t="n">
+        <v>50</v>
+      </c>
+      <c r="D261" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>9</v>
+      </c>
+      <c r="C262" t="n">
+        <v>15</v>
+      </c>
+      <c r="D262" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C263" t="n">
+        <v>25</v>
+      </c>
+      <c r="D263" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" t="n">
+        <v>50</v>
+      </c>
+      <c r="D264" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>4</v>
+      </c>
+      <c r="C265" t="n">
+        <v>15</v>
+      </c>
+      <c r="D265" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>6</v>
+      </c>
+      <c r="C266" t="n">
+        <v>25</v>
+      </c>
+      <c r="D266" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>9</v>
+      </c>
+      <c r="C267" t="n">
+        <v>50</v>
+      </c>
+      <c r="D267" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C268" t="n">
+        <v>15</v>
+      </c>
+      <c r="D268" t="n">
+        <v>14.99999999999994</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>25</v>
+      </c>
+      <c r="D269" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>4</v>
+      </c>
+      <c r="C270" t="n">
+        <v>50</v>
+      </c>
+      <c r="D270" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>6</v>
+      </c>
+      <c r="C271" t="n">
+        <v>15</v>
+      </c>
+      <c r="D271" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>9</v>
+      </c>
+      <c r="C272" t="n">
+        <v>25</v>
+      </c>
+      <c r="D272" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C273" t="n">
+        <v>50</v>
+      </c>
+      <c r="D273" t="n">
+        <v>49.9999999999998</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+      <c r="C274" t="n">
+        <v>15</v>
+      </c>
+      <c r="D274" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>4</v>
+      </c>
+      <c r="C275" t="n">
+        <v>25</v>
+      </c>
+      <c r="D275" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>6</v>
+      </c>
+      <c r="C276" t="n">
+        <v>50</v>
+      </c>
+      <c r="D276" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>9</v>
+      </c>
+      <c r="C277" t="n">
+        <v>15</v>
+      </c>
+      <c r="D277" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C278" t="n">
+        <v>25</v>
+      </c>
+      <c r="D278" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+      <c r="C279" t="n">
+        <v>50</v>
+      </c>
+      <c r="D279" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>4</v>
+      </c>
+      <c r="C280" t="n">
+        <v>15</v>
+      </c>
+      <c r="D280" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>6</v>
+      </c>
+      <c r="C281" t="n">
+        <v>25</v>
+      </c>
+      <c r="D281" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>9</v>
+      </c>
+      <c r="C282" t="n">
+        <v>50</v>
+      </c>
+      <c r="D282" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>7.00000000000001</v>
+      </c>
+      <c r="C283" t="n">
+        <v>33</v>
+      </c>
+      <c r="D283" t="n">
+        <v>231.0000000000003</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>7.50909090909091</v>
+      </c>
+      <c r="C284" t="n">
+        <v>33.1818181818182</v>
+      </c>
+      <c r="D284" t="n">
+        <v>249.1652892561985</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>8.018181818181819</v>
+      </c>
+      <c r="C285" t="n">
+        <v>33.3636363636364</v>
+      </c>
+      <c r="D285" t="n">
+        <v>267.5157024793392</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>8.527272727272729</v>
+      </c>
+      <c r="C286" t="n">
+        <v>33.5454545454545</v>
+      </c>
+      <c r="D286" t="n">
+        <v>286.0512396694211</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>9.036363636363641</v>
+      </c>
+      <c r="C287" t="n">
+        <v>33.7272727272727</v>
+      </c>
+      <c r="D287" t="n">
+        <v>304.7719008264461</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>9.54545454545455</v>
+      </c>
+      <c r="C288" t="n">
+        <v>33.9090909090909</v>
+      </c>
+      <c r="D288" t="n">
+        <v>323.6776859504133</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>10.0545454545455</v>
+      </c>
+      <c r="C289" t="n">
+        <v>34.0909090909091</v>
+      </c>
+      <c r="D289" t="n">
+        <v>342.768595041324</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>10.5636363636364</v>
+      </c>
+      <c r="C290" t="n">
+        <v>34.2727272727273</v>
+      </c>
+      <c r="D290" t="n">
+        <v>362.0446280991751</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>11.0727272727273</v>
+      </c>
+      <c r="C291" t="n">
+        <v>34.4545454545455</v>
+      </c>
+      <c r="D291" t="n">
+        <v>381.5057851239685</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>11.5818181818182</v>
+      </c>
+      <c r="C292" t="n">
+        <v>34.6363636363636</v>
+      </c>
+      <c r="D292" t="n">
+        <v>401.1520661157027</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>12.0909090909091</v>
+      </c>
+      <c r="C293" t="n">
+        <v>34.8181818181818</v>
+      </c>
+      <c r="D293" t="n">
+        <v>420.9834710743802</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C294" t="n">
+        <v>35</v>
+      </c>
+      <c r="D294" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>13.1090909090909</v>
+      </c>
+      <c r="C295" t="n">
+        <v>35.1818181818182</v>
+      </c>
+      <c r="D295" t="n">
+        <v>461.2016528925619</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D295"/>
+  <dimension ref="A1:D406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5159,6 +5159,1782 @@
         <v>461.2016528925619</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+      <c r="C296" t="n">
+        <v>15</v>
+      </c>
+      <c r="D296" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>4</v>
+      </c>
+      <c r="C297" t="n">
+        <v>25</v>
+      </c>
+      <c r="D297" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>6</v>
+      </c>
+      <c r="C298" t="n">
+        <v>50</v>
+      </c>
+      <c r="D298" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>9</v>
+      </c>
+      <c r="C299" t="n">
+        <v>15</v>
+      </c>
+      <c r="D299" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C300" t="n">
+        <v>25</v>
+      </c>
+      <c r="D300" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+      <c r="C301" t="n">
+        <v>50</v>
+      </c>
+      <c r="D301" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>4</v>
+      </c>
+      <c r="C302" t="n">
+        <v>15</v>
+      </c>
+      <c r="D302" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>6</v>
+      </c>
+      <c r="C303" t="n">
+        <v>25</v>
+      </c>
+      <c r="D303" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>9</v>
+      </c>
+      <c r="C304" t="n">
+        <v>50</v>
+      </c>
+      <c r="D304" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C305" t="n">
+        <v>15</v>
+      </c>
+      <c r="D305" t="n">
+        <v>14.99999999999994</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+      <c r="C306" t="n">
+        <v>25</v>
+      </c>
+      <c r="D306" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>4</v>
+      </c>
+      <c r="C307" t="n">
+        <v>50</v>
+      </c>
+      <c r="D307" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>6</v>
+      </c>
+      <c r="C308" t="n">
+        <v>15</v>
+      </c>
+      <c r="D308" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>9</v>
+      </c>
+      <c r="C309" t="n">
+        <v>25</v>
+      </c>
+      <c r="D309" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C310" t="n">
+        <v>50</v>
+      </c>
+      <c r="D310" t="n">
+        <v>49.9999999999998</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+      <c r="C311" t="n">
+        <v>15</v>
+      </c>
+      <c r="D311" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>4</v>
+      </c>
+      <c r="C312" t="n">
+        <v>25</v>
+      </c>
+      <c r="D312" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>6</v>
+      </c>
+      <c r="C313" t="n">
+        <v>50</v>
+      </c>
+      <c r="D313" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>9</v>
+      </c>
+      <c r="C314" t="n">
+        <v>15</v>
+      </c>
+      <c r="D314" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C315" t="n">
+        <v>25</v>
+      </c>
+      <c r="D315" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+      <c r="C316" t="n">
+        <v>50</v>
+      </c>
+      <c r="D316" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>4</v>
+      </c>
+      <c r="C317" t="n">
+        <v>15</v>
+      </c>
+      <c r="D317" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>6</v>
+      </c>
+      <c r="C318" t="n">
+        <v>25</v>
+      </c>
+      <c r="D318" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>9</v>
+      </c>
+      <c r="C319" t="n">
+        <v>50</v>
+      </c>
+      <c r="D319" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>7.00000000000001</v>
+      </c>
+      <c r="C320" t="n">
+        <v>33</v>
+      </c>
+      <c r="D320" t="n">
+        <v>231.0000000000003</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>7.50909090909091</v>
+      </c>
+      <c r="C321" t="n">
+        <v>33.1818181818182</v>
+      </c>
+      <c r="D321" t="n">
+        <v>249.1652892561985</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>8.018181818181819</v>
+      </c>
+      <c r="C322" t="n">
+        <v>33.3636363636364</v>
+      </c>
+      <c r="D322" t="n">
+        <v>267.5157024793392</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>8.527272727272729</v>
+      </c>
+      <c r="C323" t="n">
+        <v>33.5454545454545</v>
+      </c>
+      <c r="D323" t="n">
+        <v>286.0512396694211</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>9.036363636363641</v>
+      </c>
+      <c r="C324" t="n">
+        <v>33.7272727272727</v>
+      </c>
+      <c r="D324" t="n">
+        <v>304.7719008264461</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>9.54545454545455</v>
+      </c>
+      <c r="C325" t="n">
+        <v>33.9090909090909</v>
+      </c>
+      <c r="D325" t="n">
+        <v>323.6776859504133</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>10.0545454545455</v>
+      </c>
+      <c r="C326" t="n">
+        <v>34.0909090909091</v>
+      </c>
+      <c r="D326" t="n">
+        <v>342.768595041324</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>10.5636363636364</v>
+      </c>
+      <c r="C327" t="n">
+        <v>34.2727272727273</v>
+      </c>
+      <c r="D327" t="n">
+        <v>362.0446280991751</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>11.0727272727273</v>
+      </c>
+      <c r="C328" t="n">
+        <v>34.4545454545455</v>
+      </c>
+      <c r="D328" t="n">
+        <v>381.5057851239685</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>11.5818181818182</v>
+      </c>
+      <c r="C329" t="n">
+        <v>34.6363636363636</v>
+      </c>
+      <c r="D329" t="n">
+        <v>401.1520661157027</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>12.0909090909091</v>
+      </c>
+      <c r="C330" t="n">
+        <v>34.8181818181818</v>
+      </c>
+      <c r="D330" t="n">
+        <v>420.9834710743802</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C331" t="n">
+        <v>35</v>
+      </c>
+      <c r="D331" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>13.1090909090909</v>
+      </c>
+      <c r="C332" t="n">
+        <v>35.1818181818182</v>
+      </c>
+      <c r="D332" t="n">
+        <v>461.2016528925619</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+      <c r="C333" t="n">
+        <v>15</v>
+      </c>
+      <c r="D333" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>4</v>
+      </c>
+      <c r="C334" t="n">
+        <v>25</v>
+      </c>
+      <c r="D334" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>6</v>
+      </c>
+      <c r="C335" t="n">
+        <v>50</v>
+      </c>
+      <c r="D335" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>9</v>
+      </c>
+      <c r="C336" t="n">
+        <v>15</v>
+      </c>
+      <c r="D336" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C337" t="n">
+        <v>25</v>
+      </c>
+      <c r="D337" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+      <c r="C338" t="n">
+        <v>50</v>
+      </c>
+      <c r="D338" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>4</v>
+      </c>
+      <c r="C339" t="n">
+        <v>15</v>
+      </c>
+      <c r="D339" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>6</v>
+      </c>
+      <c r="C340" t="n">
+        <v>25</v>
+      </c>
+      <c r="D340" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>9</v>
+      </c>
+      <c r="C341" t="n">
+        <v>50</v>
+      </c>
+      <c r="D341" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C342" t="n">
+        <v>15</v>
+      </c>
+      <c r="D342" t="n">
+        <v>14.99999999999994</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+      <c r="C343" t="n">
+        <v>25</v>
+      </c>
+      <c r="D343" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>4</v>
+      </c>
+      <c r="C344" t="n">
+        <v>50</v>
+      </c>
+      <c r="D344" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>6</v>
+      </c>
+      <c r="C345" t="n">
+        <v>15</v>
+      </c>
+      <c r="D345" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>9</v>
+      </c>
+      <c r="C346" t="n">
+        <v>25</v>
+      </c>
+      <c r="D346" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C347" t="n">
+        <v>50</v>
+      </c>
+      <c r="D347" t="n">
+        <v>49.9999999999998</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+      <c r="C348" t="n">
+        <v>15</v>
+      </c>
+      <c r="D348" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>4</v>
+      </c>
+      <c r="C349" t="n">
+        <v>25</v>
+      </c>
+      <c r="D349" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>6</v>
+      </c>
+      <c r="C350" t="n">
+        <v>50</v>
+      </c>
+      <c r="D350" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>9</v>
+      </c>
+      <c r="C351" t="n">
+        <v>15</v>
+      </c>
+      <c r="D351" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C352" t="n">
+        <v>25</v>
+      </c>
+      <c r="D352" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+      <c r="C353" t="n">
+        <v>50</v>
+      </c>
+      <c r="D353" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>4</v>
+      </c>
+      <c r="C354" t="n">
+        <v>15</v>
+      </c>
+      <c r="D354" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>6</v>
+      </c>
+      <c r="C355" t="n">
+        <v>25</v>
+      </c>
+      <c r="D355" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>9</v>
+      </c>
+      <c r="C356" t="n">
+        <v>50</v>
+      </c>
+      <c r="D356" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>7.00000000000001</v>
+      </c>
+      <c r="C357" t="n">
+        <v>33</v>
+      </c>
+      <c r="D357" t="n">
+        <v>231.0000000000003</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>7.50909090909091</v>
+      </c>
+      <c r="C358" t="n">
+        <v>33.1818181818182</v>
+      </c>
+      <c r="D358" t="n">
+        <v>249.1652892561985</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>8.018181818181819</v>
+      </c>
+      <c r="C359" t="n">
+        <v>33.3636363636364</v>
+      </c>
+      <c r="D359" t="n">
+        <v>267.5157024793392</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>8.527272727272729</v>
+      </c>
+      <c r="C360" t="n">
+        <v>33.5454545454545</v>
+      </c>
+      <c r="D360" t="n">
+        <v>286.0512396694211</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>9.036363636363641</v>
+      </c>
+      <c r="C361" t="n">
+        <v>33.7272727272727</v>
+      </c>
+      <c r="D361" t="n">
+        <v>304.7719008264461</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>9.54545454545455</v>
+      </c>
+      <c r="C362" t="n">
+        <v>33.9090909090909</v>
+      </c>
+      <c r="D362" t="n">
+        <v>323.6776859504133</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>10.0545454545455</v>
+      </c>
+      <c r="C363" t="n">
+        <v>34.0909090909091</v>
+      </c>
+      <c r="D363" t="n">
+        <v>342.768595041324</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>10.5636363636364</v>
+      </c>
+      <c r="C364" t="n">
+        <v>34.2727272727273</v>
+      </c>
+      <c r="D364" t="n">
+        <v>362.0446280991751</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>11.0727272727273</v>
+      </c>
+      <c r="C365" t="n">
+        <v>34.4545454545455</v>
+      </c>
+      <c r="D365" t="n">
+        <v>381.5057851239685</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>11.5818181818182</v>
+      </c>
+      <c r="C366" t="n">
+        <v>34.6363636363636</v>
+      </c>
+      <c r="D366" t="n">
+        <v>401.1520661157027</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>12.0909090909091</v>
+      </c>
+      <c r="C367" t="n">
+        <v>34.8181818181818</v>
+      </c>
+      <c r="D367" t="n">
+        <v>420.9834710743802</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C368" t="n">
+        <v>35</v>
+      </c>
+      <c r="D368" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>13.1090909090909</v>
+      </c>
+      <c r="C369" t="n">
+        <v>35.1818181818182</v>
+      </c>
+      <c r="D369" t="n">
+        <v>461.2016528925619</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+      <c r="C370" t="n">
+        <v>15</v>
+      </c>
+      <c r="D370" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>4</v>
+      </c>
+      <c r="C371" t="n">
+        <v>25</v>
+      </c>
+      <c r="D371" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>6</v>
+      </c>
+      <c r="C372" t="n">
+        <v>50</v>
+      </c>
+      <c r="D372" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>9</v>
+      </c>
+      <c r="C373" t="n">
+        <v>15</v>
+      </c>
+      <c r="D373" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C374" t="n">
+        <v>25</v>
+      </c>
+      <c r="D374" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+      <c r="C375" t="n">
+        <v>50</v>
+      </c>
+      <c r="D375" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>4</v>
+      </c>
+      <c r="C376" t="n">
+        <v>15</v>
+      </c>
+      <c r="D376" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>6</v>
+      </c>
+      <c r="C377" t="n">
+        <v>25</v>
+      </c>
+      <c r="D377" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>9</v>
+      </c>
+      <c r="C378" t="n">
+        <v>50</v>
+      </c>
+      <c r="D378" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C379" t="n">
+        <v>15</v>
+      </c>
+      <c r="D379" t="n">
+        <v>14.99999999999994</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+      <c r="C380" t="n">
+        <v>25</v>
+      </c>
+      <c r="D380" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>4</v>
+      </c>
+      <c r="C381" t="n">
+        <v>50</v>
+      </c>
+      <c r="D381" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>6</v>
+      </c>
+      <c r="C382" t="n">
+        <v>15</v>
+      </c>
+      <c r="D382" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>9</v>
+      </c>
+      <c r="C383" t="n">
+        <v>25</v>
+      </c>
+      <c r="D383" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C384" t="n">
+        <v>50</v>
+      </c>
+      <c r="D384" t="n">
+        <v>49.9999999999998</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+      <c r="C385" t="n">
+        <v>15</v>
+      </c>
+      <c r="D385" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>4</v>
+      </c>
+      <c r="C386" t="n">
+        <v>25</v>
+      </c>
+      <c r="D386" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>6</v>
+      </c>
+      <c r="C387" t="n">
+        <v>50</v>
+      </c>
+      <c r="D387" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>9</v>
+      </c>
+      <c r="C388" t="n">
+        <v>15</v>
+      </c>
+      <c r="D388" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="C389" t="n">
+        <v>25</v>
+      </c>
+      <c r="D389" t="n">
+        <v>24.9999999999999</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+      <c r="C390" t="n">
+        <v>50</v>
+      </c>
+      <c r="D390" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>4</v>
+      </c>
+      <c r="C391" t="n">
+        <v>15</v>
+      </c>
+      <c r="D391" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>6</v>
+      </c>
+      <c r="C392" t="n">
+        <v>25</v>
+      </c>
+      <c r="D392" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>9</v>
+      </c>
+      <c r="C393" t="n">
+        <v>50</v>
+      </c>
+      <c r="D393" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>7.00000000000001</v>
+      </c>
+      <c r="C394" t="n">
+        <v>33</v>
+      </c>
+      <c r="D394" t="n">
+        <v>231.0000000000003</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>7.50909090909091</v>
+      </c>
+      <c r="C395" t="n">
+        <v>33.1818181818182</v>
+      </c>
+      <c r="D395" t="n">
+        <v>249.1652892561985</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>8.018181818181819</v>
+      </c>
+      <c r="C396" t="n">
+        <v>33.3636363636364</v>
+      </c>
+      <c r="D396" t="n">
+        <v>267.5157024793392</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>8.527272727272729</v>
+      </c>
+      <c r="C397" t="n">
+        <v>33.5454545454545</v>
+      </c>
+      <c r="D397" t="n">
+        <v>286.0512396694211</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>9.036363636363641</v>
+      </c>
+      <c r="C398" t="n">
+        <v>33.7272727272727</v>
+      </c>
+      <c r="D398" t="n">
+        <v>304.7719008264461</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>9.54545454545455</v>
+      </c>
+      <c r="C399" t="n">
+        <v>33.9090909090909</v>
+      </c>
+      <c r="D399" t="n">
+        <v>323.6776859504133</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>10.0545454545455</v>
+      </c>
+      <c r="C400" t="n">
+        <v>34.0909090909091</v>
+      </c>
+      <c r="D400" t="n">
+        <v>342.768595041324</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>10.5636363636364</v>
+      </c>
+      <c r="C401" t="n">
+        <v>34.2727272727273</v>
+      </c>
+      <c r="D401" t="n">
+        <v>362.0446280991751</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>11.0727272727273</v>
+      </c>
+      <c r="C402" t="n">
+        <v>34.4545454545455</v>
+      </c>
+      <c r="D402" t="n">
+        <v>381.5057851239685</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>11.5818181818182</v>
+      </c>
+      <c r="C403" t="n">
+        <v>34.6363636363636</v>
+      </c>
+      <c r="D403" t="n">
+        <v>401.1520661157027</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>12.0909090909091</v>
+      </c>
+      <c r="C404" t="n">
+        <v>34.8181818181818</v>
+      </c>
+      <c r="D404" t="n">
+        <v>420.9834710743802</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C405" t="n">
+        <v>35</v>
+      </c>
+      <c r="D405" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>13.1090909090909</v>
+      </c>
+      <c r="C406" t="n">
+        <v>35.1818181818182</v>
+      </c>
+      <c r="D406" t="n">
+        <v>461.2016528925619</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D406"/>
+  <dimension ref="A1:D325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5162,1777 +5162,481 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Chaqueta</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C296" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D296" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Gorra</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C297" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D297" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Bufanda</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C298" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D298" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Guantes</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C299" t="n">
         <v>15</v>
       </c>
       <c r="D299" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Calcetines</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C300" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D300" t="n">
-        <v>24.9999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Vestido</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C301" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D301" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Falda</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C302" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Corbata</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C303" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D303" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Sudadera</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C304" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D304" t="n">
-        <v>450</v>
+        <v>315</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantuflas</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.999999999999996</v>
+        <v>20</v>
       </c>
       <c r="C305" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D305" t="n">
-        <v>14.99999999999994</v>
+        <v>200</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Bolso</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C306" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D306" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Sombrero</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C307" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D307" t="n">
-        <v>200</v>
+        <v>162</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Leggings</t>
         </is>
       </c>
       <c r="B308" t="n">
+        <v>25</v>
+      </c>
+      <c r="C308" t="n">
         <v>6</v>
       </c>
-      <c r="C308" t="n">
-        <v>15</v>
-      </c>
       <c r="D308" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Abrigo</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C309" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D309" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Traje de baño</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.999999999999996</v>
+        <v>40</v>
       </c>
       <c r="C310" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D310" t="n">
-        <v>49.9999999999998</v>
+        <v>200</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Chaqueta</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C311" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D311" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Gorra</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C312" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D312" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Bufanda</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C313" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D313" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Guantes</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C314" t="n">
         <v>15</v>
       </c>
       <c r="D314" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Calcetines</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C315" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D315" t="n">
-        <v>24.9999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Vestido</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C316" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D316" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Falda</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C317" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D317" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Corbata</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C318" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D318" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Sudadera</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C319" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D319" t="n">
-        <v>450</v>
+        <v>315</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantuflas</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>7.00000000000001</v>
+        <v>20</v>
       </c>
       <c r="C320" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D320" t="n">
-        <v>231.0000000000003</v>
+        <v>200</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Bolso</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>7.50909090909091</v>
+        <v>50</v>
       </c>
       <c r="C321" t="n">
-        <v>33.1818181818182</v>
+        <v>4</v>
       </c>
       <c r="D321" t="n">
-        <v>249.1652892561985</v>
+        <v>200</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Sombrero</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>8.018181818181819</v>
+        <v>18</v>
       </c>
       <c r="C322" t="n">
-        <v>33.3636363636364</v>
+        <v>9</v>
       </c>
       <c r="D322" t="n">
-        <v>267.5157024793392</v>
+        <v>162</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Leggings</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>8.527272727272729</v>
+        <v>25</v>
       </c>
       <c r="C323" t="n">
-        <v>33.5454545454545</v>
+        <v>6</v>
       </c>
       <c r="D323" t="n">
-        <v>286.0512396694211</v>
+        <v>150</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Abrigo</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>9.036363636363641</v>
+        <v>100</v>
       </c>
       <c r="C324" t="n">
-        <v>33.7272727272727</v>
+        <v>2</v>
       </c>
       <c r="D324" t="n">
-        <v>304.7719008264461</v>
+        <v>200</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Traje de baño</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>9.54545454545455</v>
+        <v>40</v>
       </c>
       <c r="C325" t="n">
-        <v>33.9090909090909</v>
+        <v>5</v>
       </c>
       <c r="D325" t="n">
-        <v>323.6776859504133</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>10.0545454545455</v>
-      </c>
-      <c r="C326" t="n">
-        <v>34.0909090909091</v>
-      </c>
-      <c r="D326" t="n">
-        <v>342.768595041324</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>10.5636363636364</v>
-      </c>
-      <c r="C327" t="n">
-        <v>34.2727272727273</v>
-      </c>
-      <c r="D327" t="n">
-        <v>362.0446280991751</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>11.0727272727273</v>
-      </c>
-      <c r="C328" t="n">
-        <v>34.4545454545455</v>
-      </c>
-      <c r="D328" t="n">
-        <v>381.5057851239685</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>11.5818181818182</v>
-      </c>
-      <c r="C329" t="n">
-        <v>34.6363636363636</v>
-      </c>
-      <c r="D329" t="n">
-        <v>401.1520661157027</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>12.0909090909091</v>
-      </c>
-      <c r="C330" t="n">
-        <v>34.8181818181818</v>
-      </c>
-      <c r="D330" t="n">
-        <v>420.9834710743802</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C331" t="n">
-        <v>35</v>
-      </c>
-      <c r="D331" t="n">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>13.1090909090909</v>
-      </c>
-      <c r="C332" t="n">
-        <v>35.1818181818182</v>
-      </c>
-      <c r="D332" t="n">
-        <v>461.2016528925619</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>1</v>
-      </c>
-      <c r="C333" t="n">
-        <v>15</v>
-      </c>
-      <c r="D333" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>4</v>
-      </c>
-      <c r="C334" t="n">
-        <v>25</v>
-      </c>
-      <c r="D334" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>6</v>
-      </c>
-      <c r="C335" t="n">
-        <v>50</v>
-      </c>
-      <c r="D335" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>9</v>
-      </c>
-      <c r="C336" t="n">
-        <v>15</v>
-      </c>
-      <c r="D336" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>0.999999999999996</v>
-      </c>
-      <c r="C337" t="n">
-        <v>25</v>
-      </c>
-      <c r="D337" t="n">
-        <v>24.9999999999999</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>1</v>
-      </c>
-      <c r="C338" t="n">
-        <v>50</v>
-      </c>
-      <c r="D338" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>4</v>
-      </c>
-      <c r="C339" t="n">
-        <v>15</v>
-      </c>
-      <c r="D339" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>6</v>
-      </c>
-      <c r="C340" t="n">
-        <v>25</v>
-      </c>
-      <c r="D340" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>9</v>
-      </c>
-      <c r="C341" t="n">
-        <v>50</v>
-      </c>
-      <c r="D341" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>0.999999999999996</v>
-      </c>
-      <c r="C342" t="n">
-        <v>15</v>
-      </c>
-      <c r="D342" t="n">
-        <v>14.99999999999994</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>1</v>
-      </c>
-      <c r="C343" t="n">
-        <v>25</v>
-      </c>
-      <c r="D343" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>4</v>
-      </c>
-      <c r="C344" t="n">
-        <v>50</v>
-      </c>
-      <c r="D344" t="n">
         <v>200</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>6</v>
-      </c>
-      <c r="C345" t="n">
-        <v>15</v>
-      </c>
-      <c r="D345" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B346" t="n">
-        <v>9</v>
-      </c>
-      <c r="C346" t="n">
-        <v>25</v>
-      </c>
-      <c r="D346" t="n">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B347" t="n">
-        <v>0.999999999999996</v>
-      </c>
-      <c r="C347" t="n">
-        <v>50</v>
-      </c>
-      <c r="D347" t="n">
-        <v>49.9999999999998</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>1</v>
-      </c>
-      <c r="C348" t="n">
-        <v>15</v>
-      </c>
-      <c r="D348" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>4</v>
-      </c>
-      <c r="C349" t="n">
-        <v>25</v>
-      </c>
-      <c r="D349" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>6</v>
-      </c>
-      <c r="C350" t="n">
-        <v>50</v>
-      </c>
-      <c r="D350" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>9</v>
-      </c>
-      <c r="C351" t="n">
-        <v>15</v>
-      </c>
-      <c r="D351" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>0.999999999999996</v>
-      </c>
-      <c r="C352" t="n">
-        <v>25</v>
-      </c>
-      <c r="D352" t="n">
-        <v>24.9999999999999</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>1</v>
-      </c>
-      <c r="C353" t="n">
-        <v>50</v>
-      </c>
-      <c r="D353" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>4</v>
-      </c>
-      <c r="C354" t="n">
-        <v>15</v>
-      </c>
-      <c r="D354" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>6</v>
-      </c>
-      <c r="C355" t="n">
-        <v>25</v>
-      </c>
-      <c r="D355" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>9</v>
-      </c>
-      <c r="C356" t="n">
-        <v>50</v>
-      </c>
-      <c r="D356" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>7.00000000000001</v>
-      </c>
-      <c r="C357" t="n">
-        <v>33</v>
-      </c>
-      <c r="D357" t="n">
-        <v>231.0000000000003</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>7.50909090909091</v>
-      </c>
-      <c r="C358" t="n">
-        <v>33.1818181818182</v>
-      </c>
-      <c r="D358" t="n">
-        <v>249.1652892561985</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>8.018181818181819</v>
-      </c>
-      <c r="C359" t="n">
-        <v>33.3636363636364</v>
-      </c>
-      <c r="D359" t="n">
-        <v>267.5157024793392</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>8.527272727272729</v>
-      </c>
-      <c r="C360" t="n">
-        <v>33.5454545454545</v>
-      </c>
-      <c r="D360" t="n">
-        <v>286.0512396694211</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>9.036363636363641</v>
-      </c>
-      <c r="C361" t="n">
-        <v>33.7272727272727</v>
-      </c>
-      <c r="D361" t="n">
-        <v>304.7719008264461</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>9.54545454545455</v>
-      </c>
-      <c r="C362" t="n">
-        <v>33.9090909090909</v>
-      </c>
-      <c r="D362" t="n">
-        <v>323.6776859504133</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>10.0545454545455</v>
-      </c>
-      <c r="C363" t="n">
-        <v>34.0909090909091</v>
-      </c>
-      <c r="D363" t="n">
-        <v>342.768595041324</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>10.5636363636364</v>
-      </c>
-      <c r="C364" t="n">
-        <v>34.2727272727273</v>
-      </c>
-      <c r="D364" t="n">
-        <v>362.0446280991751</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>11.0727272727273</v>
-      </c>
-      <c r="C365" t="n">
-        <v>34.4545454545455</v>
-      </c>
-      <c r="D365" t="n">
-        <v>381.5057851239685</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>11.5818181818182</v>
-      </c>
-      <c r="C366" t="n">
-        <v>34.6363636363636</v>
-      </c>
-      <c r="D366" t="n">
-        <v>401.1520661157027</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>12.0909090909091</v>
-      </c>
-      <c r="C367" t="n">
-        <v>34.8181818181818</v>
-      </c>
-      <c r="D367" t="n">
-        <v>420.9834710743802</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C368" t="n">
-        <v>35</v>
-      </c>
-      <c r="D368" t="n">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>13.1090909090909</v>
-      </c>
-      <c r="C369" t="n">
-        <v>35.1818181818182</v>
-      </c>
-      <c r="D369" t="n">
-        <v>461.2016528925619</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>1</v>
-      </c>
-      <c r="C370" t="n">
-        <v>15</v>
-      </c>
-      <c r="D370" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>4</v>
-      </c>
-      <c r="C371" t="n">
-        <v>25</v>
-      </c>
-      <c r="D371" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>6</v>
-      </c>
-      <c r="C372" t="n">
-        <v>50</v>
-      </c>
-      <c r="D372" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>9</v>
-      </c>
-      <c r="C373" t="n">
-        <v>15</v>
-      </c>
-      <c r="D373" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>0.999999999999996</v>
-      </c>
-      <c r="C374" t="n">
-        <v>25</v>
-      </c>
-      <c r="D374" t="n">
-        <v>24.9999999999999</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>1</v>
-      </c>
-      <c r="C375" t="n">
-        <v>50</v>
-      </c>
-      <c r="D375" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>4</v>
-      </c>
-      <c r="C376" t="n">
-        <v>15</v>
-      </c>
-      <c r="D376" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>6</v>
-      </c>
-      <c r="C377" t="n">
-        <v>25</v>
-      </c>
-      <c r="D377" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>9</v>
-      </c>
-      <c r="C378" t="n">
-        <v>50</v>
-      </c>
-      <c r="D378" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>0.999999999999996</v>
-      </c>
-      <c r="C379" t="n">
-        <v>15</v>
-      </c>
-      <c r="D379" t="n">
-        <v>14.99999999999994</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B380" t="n">
-        <v>1</v>
-      </c>
-      <c r="C380" t="n">
-        <v>25</v>
-      </c>
-      <c r="D380" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B381" t="n">
-        <v>4</v>
-      </c>
-      <c r="C381" t="n">
-        <v>50</v>
-      </c>
-      <c r="D381" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B382" t="n">
-        <v>6</v>
-      </c>
-      <c r="C382" t="n">
-        <v>15</v>
-      </c>
-      <c r="D382" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>9</v>
-      </c>
-      <c r="C383" t="n">
-        <v>25</v>
-      </c>
-      <c r="D383" t="n">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B384" t="n">
-        <v>0.999999999999996</v>
-      </c>
-      <c r="C384" t="n">
-        <v>50</v>
-      </c>
-      <c r="D384" t="n">
-        <v>49.9999999999998</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B385" t="n">
-        <v>1</v>
-      </c>
-      <c r="C385" t="n">
-        <v>15</v>
-      </c>
-      <c r="D385" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B386" t="n">
-        <v>4</v>
-      </c>
-      <c r="C386" t="n">
-        <v>25</v>
-      </c>
-      <c r="D386" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B387" t="n">
-        <v>6</v>
-      </c>
-      <c r="C387" t="n">
-        <v>50</v>
-      </c>
-      <c r="D387" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B388" t="n">
-        <v>9</v>
-      </c>
-      <c r="C388" t="n">
-        <v>15</v>
-      </c>
-      <c r="D388" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B389" t="n">
-        <v>0.999999999999996</v>
-      </c>
-      <c r="C389" t="n">
-        <v>25</v>
-      </c>
-      <c r="D389" t="n">
-        <v>24.9999999999999</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B390" t="n">
-        <v>1</v>
-      </c>
-      <c r="C390" t="n">
-        <v>50</v>
-      </c>
-      <c r="D390" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B391" t="n">
-        <v>4</v>
-      </c>
-      <c r="C391" t="n">
-        <v>15</v>
-      </c>
-      <c r="D391" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B392" t="n">
-        <v>6</v>
-      </c>
-      <c r="C392" t="n">
-        <v>25</v>
-      </c>
-      <c r="D392" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B393" t="n">
-        <v>9</v>
-      </c>
-      <c r="C393" t="n">
-        <v>50</v>
-      </c>
-      <c r="D393" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B394" t="n">
-        <v>7.00000000000001</v>
-      </c>
-      <c r="C394" t="n">
-        <v>33</v>
-      </c>
-      <c r="D394" t="n">
-        <v>231.0000000000003</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B395" t="n">
-        <v>7.50909090909091</v>
-      </c>
-      <c r="C395" t="n">
-        <v>33.1818181818182</v>
-      </c>
-      <c r="D395" t="n">
-        <v>249.1652892561985</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B396" t="n">
-        <v>8.018181818181819</v>
-      </c>
-      <c r="C396" t="n">
-        <v>33.3636363636364</v>
-      </c>
-      <c r="D396" t="n">
-        <v>267.5157024793392</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B397" t="n">
-        <v>8.527272727272729</v>
-      </c>
-      <c r="C397" t="n">
-        <v>33.5454545454545</v>
-      </c>
-      <c r="D397" t="n">
-        <v>286.0512396694211</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B398" t="n">
-        <v>9.036363636363641</v>
-      </c>
-      <c r="C398" t="n">
-        <v>33.7272727272727</v>
-      </c>
-      <c r="D398" t="n">
-        <v>304.7719008264461</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B399" t="n">
-        <v>9.54545454545455</v>
-      </c>
-      <c r="C399" t="n">
-        <v>33.9090909090909</v>
-      </c>
-      <c r="D399" t="n">
-        <v>323.6776859504133</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B400" t="n">
-        <v>10.0545454545455</v>
-      </c>
-      <c r="C400" t="n">
-        <v>34.0909090909091</v>
-      </c>
-      <c r="D400" t="n">
-        <v>342.768595041324</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B401" t="n">
-        <v>10.5636363636364</v>
-      </c>
-      <c r="C401" t="n">
-        <v>34.2727272727273</v>
-      </c>
-      <c r="D401" t="n">
-        <v>362.0446280991751</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B402" t="n">
-        <v>11.0727272727273</v>
-      </c>
-      <c r="C402" t="n">
-        <v>34.4545454545455</v>
-      </c>
-      <c r="D402" t="n">
-        <v>381.5057851239685</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B403" t="n">
-        <v>11.5818181818182</v>
-      </c>
-      <c r="C403" t="n">
-        <v>34.6363636363636</v>
-      </c>
-      <c r="D403" t="n">
-        <v>401.1520661157027</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B404" t="n">
-        <v>12.0909090909091</v>
-      </c>
-      <c r="C404" t="n">
-        <v>34.8181818181818</v>
-      </c>
-      <c r="D404" t="n">
-        <v>420.9834710743802</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B405" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C405" t="n">
-        <v>35</v>
-      </c>
-      <c r="D405" t="n">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B406" t="n">
-        <v>13.1090909090909</v>
-      </c>
-      <c r="C406" t="n">
-        <v>35.1818181818182</v>
-      </c>
-      <c r="D406" t="n">
-        <v>461.2016528925619</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D325"/>
+  <dimension ref="A1:D340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5402,222 +5402,222 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Chaqueta</t>
+          <t>Blusa</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C311" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D311" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Gorra</t>
+          <t>Pantalones cortos</t>
         </is>
       </c>
       <c r="B312" t="n">
         <v>20</v>
       </c>
       <c r="C312" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D312" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Bufanda</t>
+          <t>Sombrero de paja</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>15</v>
       </c>
       <c r="C313" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D313" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Guantes</t>
+          <t>Chaqueta de cuero</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="C314" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D314" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Calcetines</t>
+          <t>Mochila</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C315" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Vestido</t>
+          <t>Bufanda de lana</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C316" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D316" t="n">
-        <v>240</v>
+        <v>216</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Falda</t>
+          <t>Zapatos deportivos</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C317" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D317" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Corbata</t>
+          <t>Camisa de vestir</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C318" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D318" t="n">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Sudadera</t>
+          <t>Falda larga</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C319" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D319" t="n">
-        <v>315</v>
+        <v>200</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Pantuflas</t>
+          <t>Calcetines de compresión</t>
         </is>
       </c>
       <c r="B320" t="n">
+        <v>8</v>
+      </c>
+      <c r="C320" t="n">
         <v>20</v>
       </c>
-      <c r="C320" t="n">
-        <v>10</v>
-      </c>
       <c r="D320" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Bolso</t>
+          <t>Botas de montaña</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C321" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D321" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Sombrero</t>
+          <t>Bolso de mano</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C322" t="n">
         <v>9</v>
       </c>
       <c r="D322" t="n">
-        <v>162</v>
+        <v>270</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Leggings</t>
+          <t>Gorro de lana</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C323" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D323" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Abrigo</t>
+          <t>Leggings estampados</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C324" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D324" t="n">
         <v>200</v>
@@ -5626,16 +5626,256 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Traje de baño</t>
+          <t>Chaleco</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C325" t="n">
         <v>5</v>
       </c>
       <c r="D325" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Camiseta sin mangas</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>15</v>
+      </c>
+      <c r="C326" t="n">
+        <v>10</v>
+      </c>
+      <c r="D326" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Traje formal</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>200</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2</v>
+      </c>
+      <c r="D327" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Sandalias</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>25</v>
+      </c>
+      <c r="C328" t="n">
+        <v>7</v>
+      </c>
+      <c r="D328" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Jeans</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>40</v>
+      </c>
+      <c r="C329" t="n">
+        <v>6</v>
+      </c>
+      <c r="D329" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Top deportivo</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>30</v>
+      </c>
+      <c r="C330" t="n">
+        <v>8</v>
+      </c>
+      <c r="D330" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Abrigo de invierno</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>150</v>
+      </c>
+      <c r="C331" t="n">
+        <v>3</v>
+      </c>
+      <c r="D331" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Mallas</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>20</v>
+      </c>
+      <c r="C332" t="n">
+        <v>12</v>
+      </c>
+      <c r="D332" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Blazer</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>60</v>
+      </c>
+      <c r="C333" t="n">
+        <v>4</v>
+      </c>
+      <c r="D333" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Camiseta de tirantes</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>10</v>
+      </c>
+      <c r="C334" t="n">
+        <v>15</v>
+      </c>
+      <c r="D334" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Vestido formal</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>80</v>
+      </c>
+      <c r="C335" t="n">
+        <v>5</v>
+      </c>
+      <c r="D335" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Bufanda de seda</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>25</v>
+      </c>
+      <c r="C336" t="n">
+        <v>6</v>
+      </c>
+      <c r="D336" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Pantalones de yoga</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>35</v>
+      </c>
+      <c r="C337" t="n">
+        <v>9</v>
+      </c>
+      <c r="D337" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Gorra de béisbol</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>20</v>
+      </c>
+      <c r="C338" t="n">
+        <v>10</v>
+      </c>
+      <c r="D338" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Zapatos de tacón</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>85</v>
+      </c>
+      <c r="C339" t="n">
+        <v>4</v>
+      </c>
+      <c r="D339" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>25</v>
+      </c>
+      <c r="C340" t="n">
+        <v>8</v>
+      </c>
+      <c r="D340" t="n">
         <v>200</v>
       </c>
     </row>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D340"/>
+  <dimension ref="A1:D370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5879,6 +5879,486 @@
         <v>200</v>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Bufanda de algodón</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>12</v>
+      </c>
+      <c r="C341" t="n">
+        <v>10</v>
+      </c>
+      <c r="D341" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Guantes de cuero</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>30</v>
+      </c>
+      <c r="C342" t="n">
+        <v>6</v>
+      </c>
+      <c r="D342" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Cinturón de cuero</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>25</v>
+      </c>
+      <c r="C343" t="n">
+        <v>8</v>
+      </c>
+      <c r="D343" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Chaqueta de invierno</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>80</v>
+      </c>
+      <c r="C344" t="n">
+        <v>4</v>
+      </c>
+      <c r="D344" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Botines</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>60</v>
+      </c>
+      <c r="C345" t="n">
+        <v>5</v>
+      </c>
+      <c r="D345" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Vestido casual</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>45</v>
+      </c>
+      <c r="C346" t="n">
+        <v>7</v>
+      </c>
+      <c r="D346" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Chaqueta de punto</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>35</v>
+      </c>
+      <c r="C347" t="n">
+        <v>9</v>
+      </c>
+      <c r="D347" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Pañuelo de seda</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>18</v>
+      </c>
+      <c r="C348" t="n">
+        <v>12</v>
+      </c>
+      <c r="D348" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Camisa de manga corta</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>25</v>
+      </c>
+      <c r="C349" t="n">
+        <v>8</v>
+      </c>
+      <c r="D349" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Sandalias de cuero</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>40</v>
+      </c>
+      <c r="C350" t="n">
+        <v>6</v>
+      </c>
+      <c r="D350" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Pantalones de cuero</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>70</v>
+      </c>
+      <c r="C351" t="n">
+        <v>4</v>
+      </c>
+      <c r="D351" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Sombrero de fieltro</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>20</v>
+      </c>
+      <c r="C352" t="n">
+        <v>10</v>
+      </c>
+      <c r="D352" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Botas altas</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>90</v>
+      </c>
+      <c r="C353" t="n">
+        <v>3</v>
+      </c>
+      <c r="D353" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Poncho</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>55</v>
+      </c>
+      <c r="C354" t="n">
+        <v>5</v>
+      </c>
+      <c r="D354" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Chaqueta de mezclilla</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>50</v>
+      </c>
+      <c r="C355" t="n">
+        <v>6</v>
+      </c>
+      <c r="D355" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Camiseta de manga larga</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>20</v>
+      </c>
+      <c r="C356" t="n">
+        <v>9</v>
+      </c>
+      <c r="D356" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Traje de baile</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>120</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2</v>
+      </c>
+      <c r="D357" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Pashmina</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>25</v>
+      </c>
+      <c r="C358" t="n">
+        <v>7</v>
+      </c>
+      <c r="D358" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Falda plisada</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>30</v>
+      </c>
+      <c r="C359" t="n">
+        <v>8</v>
+      </c>
+      <c r="D359" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Traje sastre</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>180</v>
+      </c>
+      <c r="C360" t="n">
+        <v>3</v>
+      </c>
+      <c r="D360" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Leggings de yoga</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>35</v>
+      </c>
+      <c r="C361" t="n">
+        <v>6</v>
+      </c>
+      <c r="D361" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Pantalones cortos de mezclilla</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>25</v>
+      </c>
+      <c r="C362" t="n">
+        <v>10</v>
+      </c>
+      <c r="D362" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Camiseta básica</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>15</v>
+      </c>
+      <c r="C363" t="n">
+        <v>12</v>
+      </c>
+      <c r="D363" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Blusa sin hombros</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>40</v>
+      </c>
+      <c r="C364" t="n">
+        <v>5</v>
+      </c>
+      <c r="D364" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Chaqueta de lana</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>65</v>
+      </c>
+      <c r="C365" t="n">
+        <v>4</v>
+      </c>
+      <c r="D365" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Zapatos Oxford</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>55</v>
+      </c>
+      <c r="C366" t="n">
+        <v>7</v>
+      </c>
+      <c r="D366" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Vestido de cóctel</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>70</v>
+      </c>
+      <c r="C367" t="n">
+        <v>6</v>
+      </c>
+      <c r="D367" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Chaleco de lana</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>45</v>
+      </c>
+      <c r="C368" t="n">
+        <v>8</v>
+      </c>
+      <c r="D368" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Sombrero de ala ancha</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>30</v>
+      </c>
+      <c r="C369" t="n">
+        <v>9</v>
+      </c>
+      <c r="D369" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Sudadera con capucha</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>50</v>
+      </c>
+      <c r="C370" t="n">
+        <v>5</v>
+      </c>
+      <c r="D370" t="n">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D370"/>
+  <dimension ref="A1:E370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5926 +440,6348 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Nombre del Producto</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Cantidad Vendida</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Precio Unitario</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Total de Venta</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>20</v>
       </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
       <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>15</v>
+      <c r="A3" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
         <v>375</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
       <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>20</v>
       </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
       <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>15</v>
+      <c r="A6" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="n">
         <v>375</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
       <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="A8" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="C8" t="n">
-        <v>15</v>
-      </c>
       <c r="D8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>15</v>
+      <c r="A9" s="2" t="n">
+        <v>45207</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="n">
         <v>375</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="A10" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
       <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="A11" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>20</v>
       </c>
-      <c r="C11" t="n">
-        <v>15</v>
-      </c>
       <c r="D11" t="n">
+        <v>15</v>
+      </c>
+      <c r="E11" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15</v>
+      <c r="A12" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
+        <v>25</v>
+      </c>
+      <c r="E12" t="n">
         <v>375</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="A13" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>10</v>
       </c>
-      <c r="C13" t="n">
-        <v>50</v>
-      </c>
       <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="A14" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>20</v>
       </c>
-      <c r="C14" t="n">
-        <v>15</v>
-      </c>
       <c r="D14" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>15</v>
+      <c r="A15" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
+        <v>25</v>
+      </c>
+      <c r="E15" t="n">
         <v>375</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+      <c r="A16" s="2" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>10</v>
       </c>
-      <c r="C16" t="n">
-        <v>50</v>
-      </c>
       <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+      <c r="A17" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>20</v>
       </c>
-      <c r="C17" t="n">
-        <v>15</v>
-      </c>
       <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>15</v>
+      <c r="A18" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
+        <v>25</v>
+      </c>
+      <c r="E18" t="n">
         <v>375</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+      <c r="A19" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>10</v>
       </c>
-      <c r="C19" t="n">
-        <v>50</v>
-      </c>
       <c r="D19" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+      <c r="A20" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>20</v>
       </c>
-      <c r="C20" t="n">
-        <v>15</v>
-      </c>
       <c r="D20" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>15</v>
+      <c r="A21" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
+        <v>25</v>
+      </c>
+      <c r="E21" t="n">
         <v>375</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+      <c r="A22" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>10</v>
       </c>
-      <c r="C22" t="n">
-        <v>50</v>
-      </c>
       <c r="D22" t="n">
+        <v>50</v>
+      </c>
+      <c r="E22" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+      <c r="A23" s="2" t="n">
+        <v>45221</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>20</v>
       </c>
-      <c r="C23" t="n">
-        <v>15</v>
-      </c>
       <c r="D23" t="n">
+        <v>15</v>
+      </c>
+      <c r="E23" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>15</v>
+      <c r="A24" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
+        <v>25</v>
+      </c>
+      <c r="E24" t="n">
         <v>375</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+      <c r="A25" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>10</v>
       </c>
-      <c r="C25" t="n">
-        <v>50</v>
-      </c>
       <c r="D25" t="n">
+        <v>50</v>
+      </c>
+      <c r="E25" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>14</v>
       </c>
-      <c r="C26" t="n">
-        <v>15</v>
-      </c>
       <c r="D26" t="n">
+        <v>15</v>
+      </c>
+      <c r="E26" t="n">
         <v>210</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>15</v>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
         <v>375</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>10</v>
       </c>
-      <c r="C28" t="n">
-        <v>50</v>
-      </c>
       <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>3</v>
       </c>
-      <c r="C29" t="n">
-        <v>15</v>
-      </c>
       <c r="D29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C30" t="n">
-        <v>25</v>
-      </c>
       <c r="D30" t="n">
+        <v>25</v>
+      </c>
+      <c r="E30" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>14</v>
       </c>
-      <c r="C31" t="n">
-        <v>50</v>
-      </c>
       <c r="D31" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" t="n">
         <v>700</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>15</v>
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="n">
+        <v>15</v>
+      </c>
+      <c r="E32" t="n">
         <v>225</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>10</v>
       </c>
-      <c r="C33" t="n">
-        <v>25</v>
-      </c>
       <c r="D33" t="n">
+        <v>25</v>
+      </c>
+      <c r="E33" t="n">
         <v>250</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>3</v>
       </c>
-      <c r="C34" t="n">
-        <v>50</v>
-      </c>
       <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C35" t="n">
-        <v>15</v>
-      </c>
       <c r="D35" t="n">
+        <v>15</v>
+      </c>
+      <c r="E35" t="n">
         <v>14.99999999999994</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>14</v>
       </c>
-      <c r="C36" t="n">
-        <v>25</v>
-      </c>
       <c r="D36" t="n">
+        <v>25</v>
+      </c>
+      <c r="E36" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>15</v>
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>10</v>
       </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
       <c r="D38" t="n">
+        <v>15</v>
+      </c>
+      <c r="E38" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>3</v>
       </c>
-      <c r="C39" t="n">
-        <v>25</v>
-      </c>
       <c r="D39" t="n">
+        <v>25</v>
+      </c>
+      <c r="E39" t="n">
         <v>75</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C40" t="n">
-        <v>50</v>
-      </c>
       <c r="D40" t="n">
+        <v>50</v>
+      </c>
+      <c r="E40" t="n">
         <v>49.9999999999998</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>14</v>
       </c>
-      <c r="C41" t="n">
-        <v>15</v>
-      </c>
       <c r="D41" t="n">
+        <v>15</v>
+      </c>
+      <c r="E41" t="n">
         <v>210</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>15</v>
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
+        <v>25</v>
+      </c>
+      <c r="E42" t="n">
         <v>375</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>10</v>
       </c>
-      <c r="C43" t="n">
-        <v>50</v>
-      </c>
       <c r="D43" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>3</v>
       </c>
-      <c r="C44" t="n">
-        <v>15</v>
-      </c>
       <c r="D44" t="n">
+        <v>15</v>
+      </c>
+      <c r="E44" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C45" t="n">
-        <v>25</v>
-      </c>
       <c r="D45" t="n">
+        <v>25</v>
+      </c>
+      <c r="E45" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>14</v>
       </c>
-      <c r="C46" t="n">
-        <v>50</v>
-      </c>
       <c r="D46" t="n">
+        <v>50</v>
+      </c>
+      <c r="E46" t="n">
         <v>700</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>15</v>
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
       </c>
       <c r="C47" t="n">
         <v>15</v>
       </c>
       <c r="D47" t="n">
+        <v>15</v>
+      </c>
+      <c r="E47" t="n">
         <v>225</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>10</v>
       </c>
-      <c r="C48" t="n">
-        <v>25</v>
-      </c>
       <c r="D48" t="n">
+        <v>25</v>
+      </c>
+      <c r="E48" t="n">
         <v>250</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>3</v>
       </c>
-      <c r="C49" t="n">
-        <v>50</v>
-      </c>
       <c r="D49" t="n">
+        <v>50</v>
+      </c>
+      <c r="E49" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
         <v>1</v>
       </c>
-      <c r="C50" t="n">
-        <v>15</v>
-      </c>
       <c r="D50" t="n">
         <v>15</v>
       </c>
+      <c r="E50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
         <v>4</v>
       </c>
-      <c r="C51" t="n">
-        <v>25</v>
-      </c>
       <c r="D51" t="n">
+        <v>25</v>
+      </c>
+      <c r="E51" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
         <v>6</v>
       </c>
-      <c r="C52" t="n">
-        <v>50</v>
-      </c>
       <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
         <v>9</v>
       </c>
-      <c r="C53" t="n">
-        <v>15</v>
-      </c>
       <c r="D53" t="n">
+        <v>15</v>
+      </c>
+      <c r="E53" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C54" t="n">
-        <v>25</v>
-      </c>
       <c r="D54" t="n">
+        <v>25</v>
+      </c>
+      <c r="E54" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
         <v>1</v>
       </c>
-      <c r="C55" t="n">
-        <v>50</v>
-      </c>
       <c r="D55" t="n">
         <v>50</v>
       </c>
+      <c r="E55" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
         <v>4</v>
       </c>
-      <c r="C56" t="n">
-        <v>15</v>
-      </c>
       <c r="D56" t="n">
+        <v>15</v>
+      </c>
+      <c r="E56" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
         <v>6</v>
       </c>
-      <c r="C57" t="n">
-        <v>25</v>
-      </c>
       <c r="D57" t="n">
+        <v>25</v>
+      </c>
+      <c r="E57" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
         <v>9</v>
       </c>
-      <c r="C58" t="n">
-        <v>50</v>
-      </c>
       <c r="D58" t="n">
+        <v>50</v>
+      </c>
+      <c r="E58" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C59" t="n">
-        <v>15</v>
-      </c>
       <c r="D59" t="n">
+        <v>15</v>
+      </c>
+      <c r="E59" t="n">
         <v>14.99999999999994</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
         <v>1</v>
       </c>
-      <c r="C60" t="n">
-        <v>25</v>
-      </c>
       <c r="D60" t="n">
         <v>25</v>
       </c>
+      <c r="E60" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
         <v>4</v>
       </c>
-      <c r="C61" t="n">
-        <v>50</v>
-      </c>
       <c r="D61" t="n">
+        <v>50</v>
+      </c>
+      <c r="E61" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
         <v>6</v>
       </c>
-      <c r="C62" t="n">
-        <v>15</v>
-      </c>
       <c r="D62" t="n">
+        <v>15</v>
+      </c>
+      <c r="E62" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
         <v>9</v>
       </c>
-      <c r="C63" t="n">
-        <v>25</v>
-      </c>
       <c r="D63" t="n">
+        <v>25</v>
+      </c>
+      <c r="E63" t="n">
         <v>225</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C64" t="n">
-        <v>50</v>
-      </c>
       <c r="D64" t="n">
+        <v>50</v>
+      </c>
+      <c r="E64" t="n">
         <v>49.9999999999998</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
         <v>1</v>
       </c>
-      <c r="C65" t="n">
-        <v>15</v>
-      </c>
       <c r="D65" t="n">
         <v>15</v>
       </c>
+      <c r="E65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
         <v>4</v>
       </c>
-      <c r="C66" t="n">
-        <v>25</v>
-      </c>
       <c r="D66" t="n">
+        <v>25</v>
+      </c>
+      <c r="E66" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
         <v>6</v>
       </c>
-      <c r="C67" t="n">
-        <v>50</v>
-      </c>
       <c r="D67" t="n">
+        <v>50</v>
+      </c>
+      <c r="E67" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
         <v>9</v>
       </c>
-      <c r="C68" t="n">
-        <v>15</v>
-      </c>
       <c r="D68" t="n">
+        <v>15</v>
+      </c>
+      <c r="E68" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C69" t="n">
-        <v>25</v>
-      </c>
       <c r="D69" t="n">
+        <v>25</v>
+      </c>
+      <c r="E69" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
         <v>1</v>
       </c>
-      <c r="C70" t="n">
-        <v>50</v>
-      </c>
       <c r="D70" t="n">
         <v>50</v>
       </c>
+      <c r="E70" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
         <v>4</v>
       </c>
-      <c r="C71" t="n">
-        <v>15</v>
-      </c>
       <c r="D71" t="n">
+        <v>15</v>
+      </c>
+      <c r="E71" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
         <v>6</v>
       </c>
-      <c r="C72" t="n">
-        <v>25</v>
-      </c>
       <c r="D72" t="n">
+        <v>25</v>
+      </c>
+      <c r="E72" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
         <v>9</v>
       </c>
-      <c r="C73" t="n">
-        <v>50</v>
-      </c>
       <c r="D73" t="n">
+        <v>50</v>
+      </c>
+      <c r="E73" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
         <v>1</v>
       </c>
-      <c r="C74" t="n">
-        <v>15</v>
-      </c>
       <c r="D74" t="n">
         <v>15</v>
       </c>
+      <c r="E74" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
         <v>4</v>
       </c>
-      <c r="C75" t="n">
-        <v>25</v>
-      </c>
       <c r="D75" t="n">
+        <v>25</v>
+      </c>
+      <c r="E75" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
         <v>6</v>
       </c>
-      <c r="C76" t="n">
-        <v>50</v>
-      </c>
       <c r="D76" t="n">
+        <v>50</v>
+      </c>
+      <c r="E76" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
         <v>9</v>
       </c>
-      <c r="C77" t="n">
-        <v>15</v>
-      </c>
       <c r="D77" t="n">
+        <v>15</v>
+      </c>
+      <c r="E77" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C78" t="n">
-        <v>25</v>
-      </c>
       <c r="D78" t="n">
+        <v>25</v>
+      </c>
+      <c r="E78" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
         <v>1</v>
       </c>
-      <c r="C79" t="n">
-        <v>50</v>
-      </c>
       <c r="D79" t="n">
         <v>50</v>
       </c>
+      <c r="E79" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
         <v>4</v>
       </c>
-      <c r="C80" t="n">
-        <v>15</v>
-      </c>
       <c r="D80" t="n">
+        <v>15</v>
+      </c>
+      <c r="E80" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
         <v>6</v>
       </c>
-      <c r="C81" t="n">
-        <v>25</v>
-      </c>
       <c r="D81" t="n">
+        <v>25</v>
+      </c>
+      <c r="E81" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
         <v>9</v>
       </c>
-      <c r="C82" t="n">
-        <v>50</v>
-      </c>
       <c r="D82" t="n">
+        <v>50</v>
+      </c>
+      <c r="E82" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C83" t="n">
-        <v>15</v>
-      </c>
       <c r="D83" t="n">
+        <v>15</v>
+      </c>
+      <c r="E83" t="n">
         <v>14.99999999999994</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
         <v>1</v>
       </c>
-      <c r="C84" t="n">
-        <v>25</v>
-      </c>
       <c r="D84" t="n">
         <v>25</v>
       </c>
+      <c r="E84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
         <v>4</v>
       </c>
-      <c r="C85" t="n">
-        <v>50</v>
-      </c>
       <c r="D85" t="n">
+        <v>50</v>
+      </c>
+      <c r="E85" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
         <v>6</v>
       </c>
-      <c r="C86" t="n">
-        <v>15</v>
-      </c>
       <c r="D86" t="n">
+        <v>15</v>
+      </c>
+      <c r="E86" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
         <v>9</v>
       </c>
-      <c r="C87" t="n">
-        <v>25</v>
-      </c>
       <c r="D87" t="n">
+        <v>25</v>
+      </c>
+      <c r="E87" t="n">
         <v>225</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C88" t="n">
-        <v>50</v>
-      </c>
       <c r="D88" t="n">
+        <v>50</v>
+      </c>
+      <c r="E88" t="n">
         <v>49.9999999999998</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
         <v>1</v>
       </c>
-      <c r="C89" t="n">
-        <v>15</v>
-      </c>
       <c r="D89" t="n">
         <v>15</v>
       </c>
+      <c r="E89" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
         <v>4</v>
       </c>
-      <c r="C90" t="n">
-        <v>25</v>
-      </c>
       <c r="D90" t="n">
+        <v>25</v>
+      </c>
+      <c r="E90" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
         <v>6</v>
       </c>
-      <c r="C91" t="n">
-        <v>50</v>
-      </c>
       <c r="D91" t="n">
+        <v>50</v>
+      </c>
+      <c r="E91" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
         <v>9</v>
       </c>
-      <c r="C92" t="n">
-        <v>15</v>
-      </c>
       <c r="D92" t="n">
+        <v>15</v>
+      </c>
+      <c r="E92" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C93" t="n">
-        <v>25</v>
-      </c>
       <c r="D93" t="n">
+        <v>25</v>
+      </c>
+      <c r="E93" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
         <v>1</v>
       </c>
-      <c r="C94" t="n">
-        <v>50</v>
-      </c>
       <c r="D94" t="n">
         <v>50</v>
       </c>
+      <c r="E94" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
         <v>4</v>
       </c>
-      <c r="C95" t="n">
-        <v>15</v>
-      </c>
       <c r="D95" t="n">
+        <v>15</v>
+      </c>
+      <c r="E95" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
         <v>6</v>
       </c>
-      <c r="C96" t="n">
-        <v>25</v>
-      </c>
       <c r="D96" t="n">
+        <v>25</v>
+      </c>
+      <c r="E96" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
         <v>9</v>
       </c>
-      <c r="C97" t="n">
-        <v>50</v>
-      </c>
       <c r="D97" t="n">
+        <v>50</v>
+      </c>
+      <c r="E97" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
         <v>7.00000000000001</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>33</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>231.0000000000003</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
         <v>7.50909090909091</v>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>33.1818181818182</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>249.1652892561985</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
         <v>8.018181818181819</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>33.3636363636364</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>267.5157024793392</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
         <v>8.527272727272729</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>33.5454545454545</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>286.0512396694211</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
         <v>9.036363636363641</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>33.7272727272727</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>304.7719008264461</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
         <v>9.54545454545455</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>33.9090909090909</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>323.6776859504133</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
         <v>10.0545454545455</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>34.0909090909091</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>342.768595041324</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
         <v>10.5636363636364</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>34.2727272727273</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>362.0446280991751</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
         <v>11.0727272727273</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>34.4545454545455</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>381.5057851239685</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
         <v>11.5818181818182</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>34.6363636363636</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>401.1520661157027</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
         <v>12.0909090909091</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>34.8181818181818</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>420.9834710743802</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
         <v>12.6</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>35</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>441</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
         <v>13.1090909090909</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>35.1818181818182</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>461.2016528925619</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
         <v>1</v>
       </c>
-      <c r="C111" t="n">
-        <v>15</v>
-      </c>
       <c r="D111" t="n">
         <v>15</v>
       </c>
+      <c r="E111" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
         <v>4</v>
       </c>
-      <c r="C112" t="n">
-        <v>25</v>
-      </c>
       <c r="D112" t="n">
+        <v>25</v>
+      </c>
+      <c r="E112" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
         <v>6</v>
       </c>
-      <c r="C113" t="n">
-        <v>50</v>
-      </c>
       <c r="D113" t="n">
+        <v>50</v>
+      </c>
+      <c r="E113" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
         <v>9</v>
       </c>
-      <c r="C114" t="n">
-        <v>15</v>
-      </c>
       <c r="D114" t="n">
+        <v>15</v>
+      </c>
+      <c r="E114" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C115" t="n">
-        <v>25</v>
-      </c>
       <c r="D115" t="n">
+        <v>25</v>
+      </c>
+      <c r="E115" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
         <v>1</v>
       </c>
-      <c r="C116" t="n">
-        <v>50</v>
-      </c>
       <c r="D116" t="n">
         <v>50</v>
       </c>
+      <c r="E116" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
         <v>4</v>
       </c>
-      <c r="C117" t="n">
-        <v>15</v>
-      </c>
       <c r="D117" t="n">
+        <v>15</v>
+      </c>
+      <c r="E117" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
         <v>6</v>
       </c>
-      <c r="C118" t="n">
-        <v>25</v>
-      </c>
       <c r="D118" t="n">
+        <v>25</v>
+      </c>
+      <c r="E118" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
         <v>9</v>
       </c>
-      <c r="C119" t="n">
-        <v>50</v>
-      </c>
       <c r="D119" t="n">
+        <v>50</v>
+      </c>
+      <c r="E119" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C120" t="n">
-        <v>15</v>
-      </c>
       <c r="D120" t="n">
+        <v>15</v>
+      </c>
+      <c r="E120" t="n">
         <v>14.99999999999994</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
         <v>1</v>
       </c>
-      <c r="C121" t="n">
-        <v>25</v>
-      </c>
       <c r="D121" t="n">
         <v>25</v>
       </c>
+      <c r="E121" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
         <v>4</v>
       </c>
-      <c r="C122" t="n">
-        <v>50</v>
-      </c>
       <c r="D122" t="n">
+        <v>50</v>
+      </c>
+      <c r="E122" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
         <v>6</v>
       </c>
-      <c r="C123" t="n">
-        <v>15</v>
-      </c>
       <c r="D123" t="n">
+        <v>15</v>
+      </c>
+      <c r="E123" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
         <v>9</v>
       </c>
-      <c r="C124" t="n">
-        <v>25</v>
-      </c>
       <c r="D124" t="n">
+        <v>25</v>
+      </c>
+      <c r="E124" t="n">
         <v>225</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C125" t="n">
-        <v>50</v>
-      </c>
       <c r="D125" t="n">
+        <v>50</v>
+      </c>
+      <c r="E125" t="n">
         <v>49.9999999999998</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
         <v>1</v>
       </c>
-      <c r="C126" t="n">
-        <v>15</v>
-      </c>
       <c r="D126" t="n">
         <v>15</v>
       </c>
+      <c r="E126" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
         <v>4</v>
       </c>
-      <c r="C127" t="n">
-        <v>25</v>
-      </c>
       <c r="D127" t="n">
+        <v>25</v>
+      </c>
+      <c r="E127" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
         <v>6</v>
       </c>
-      <c r="C128" t="n">
-        <v>50</v>
-      </c>
       <c r="D128" t="n">
+        <v>50</v>
+      </c>
+      <c r="E128" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
         <v>9</v>
       </c>
-      <c r="C129" t="n">
-        <v>15</v>
-      </c>
       <c r="D129" t="n">
+        <v>15</v>
+      </c>
+      <c r="E129" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C130" t="n">
-        <v>25</v>
-      </c>
       <c r="D130" t="n">
+        <v>25</v>
+      </c>
+      <c r="E130" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
         <v>1</v>
       </c>
-      <c r="C131" t="n">
-        <v>50</v>
-      </c>
       <c r="D131" t="n">
         <v>50</v>
       </c>
+      <c r="E131" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
         <v>4</v>
       </c>
-      <c r="C132" t="n">
-        <v>15</v>
-      </c>
       <c r="D132" t="n">
+        <v>15</v>
+      </c>
+      <c r="E132" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
         <v>6</v>
       </c>
-      <c r="C133" t="n">
-        <v>25</v>
-      </c>
       <c r="D133" t="n">
+        <v>25</v>
+      </c>
+      <c r="E133" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
         <v>9</v>
       </c>
-      <c r="C134" t="n">
-        <v>50</v>
-      </c>
       <c r="D134" t="n">
+        <v>50</v>
+      </c>
+      <c r="E134" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
         <v>7.00000000000001</v>
       </c>
-      <c r="C135" t="n">
+      <c r="D135" t="n">
         <v>33</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>231.0000000000003</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
         <v>7.50909090909091</v>
       </c>
-      <c r="C136" t="n">
+      <c r="D136" t="n">
         <v>33.1818181818182</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>249.1652892561985</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
         <v>8.018181818181819</v>
       </c>
-      <c r="C137" t="n">
+      <c r="D137" t="n">
         <v>33.3636363636364</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>267.5157024793392</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
         <v>8.527272727272729</v>
       </c>
-      <c r="C138" t="n">
+      <c r="D138" t="n">
         <v>33.5454545454545</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>286.0512396694211</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
         <v>9.036363636363641</v>
       </c>
-      <c r="C139" t="n">
+      <c r="D139" t="n">
         <v>33.7272727272727</v>
       </c>
-      <c r="D139" t="n">
+      <c r="E139" t="n">
         <v>304.7719008264461</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
         <v>9.54545454545455</v>
       </c>
-      <c r="C140" t="n">
+      <c r="D140" t="n">
         <v>33.9090909090909</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>323.6776859504133</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
         <v>10.0545454545455</v>
       </c>
-      <c r="C141" t="n">
+      <c r="D141" t="n">
         <v>34.0909090909091</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>342.768595041324</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
         <v>10.5636363636364</v>
       </c>
-      <c r="C142" t="n">
+      <c r="D142" t="n">
         <v>34.2727272727273</v>
       </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
         <v>362.0446280991751</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
         <v>11.0727272727273</v>
       </c>
-      <c r="C143" t="n">
+      <c r="D143" t="n">
         <v>34.4545454545455</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>381.5057851239685</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
         <v>11.5818181818182</v>
       </c>
-      <c r="C144" t="n">
+      <c r="D144" t="n">
         <v>34.6363636363636</v>
       </c>
-      <c r="D144" t="n">
+      <c r="E144" t="n">
         <v>401.1520661157027</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
         <v>12.0909090909091</v>
       </c>
-      <c r="C145" t="n">
+      <c r="D145" t="n">
         <v>34.8181818181818</v>
       </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
         <v>420.9834710743802</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
         <v>12.6</v>
       </c>
-      <c r="C146" t="n">
+      <c r="D146" t="n">
         <v>35</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>441</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
         <v>13.1090909090909</v>
       </c>
-      <c r="C147" t="n">
+      <c r="D147" t="n">
         <v>35.1818181818182</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>461.2016528925619</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
         <v>1</v>
       </c>
-      <c r="C148" t="n">
-        <v>15</v>
-      </c>
       <c r="D148" t="n">
         <v>15</v>
       </c>
+      <c r="E148" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
         <v>4</v>
       </c>
-      <c r="C149" t="n">
-        <v>25</v>
-      </c>
       <c r="D149" t="n">
+        <v>25</v>
+      </c>
+      <c r="E149" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
         <v>6</v>
       </c>
-      <c r="C150" t="n">
-        <v>50</v>
-      </c>
       <c r="D150" t="n">
+        <v>50</v>
+      </c>
+      <c r="E150" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
         <v>9</v>
       </c>
-      <c r="C151" t="n">
-        <v>15</v>
-      </c>
       <c r="D151" t="n">
+        <v>15</v>
+      </c>
+      <c r="E151" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C152" t="n">
-        <v>25</v>
-      </c>
       <c r="D152" t="n">
+        <v>25</v>
+      </c>
+      <c r="E152" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
         <v>1</v>
       </c>
-      <c r="C153" t="n">
-        <v>50</v>
-      </c>
       <c r="D153" t="n">
         <v>50</v>
       </c>
+      <c r="E153" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
         <v>4</v>
       </c>
-      <c r="C154" t="n">
-        <v>15</v>
-      </c>
       <c r="D154" t="n">
+        <v>15</v>
+      </c>
+      <c r="E154" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
         <v>6</v>
       </c>
-      <c r="C155" t="n">
-        <v>25</v>
-      </c>
       <c r="D155" t="n">
+        <v>25</v>
+      </c>
+      <c r="E155" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
         <v>9</v>
       </c>
-      <c r="C156" t="n">
-        <v>50</v>
-      </c>
       <c r="D156" t="n">
+        <v>50</v>
+      </c>
+      <c r="E156" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C157" t="n">
-        <v>15</v>
-      </c>
       <c r="D157" t="n">
+        <v>15</v>
+      </c>
+      <c r="E157" t="n">
         <v>14.99999999999994</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
         <v>1</v>
       </c>
-      <c r="C158" t="n">
-        <v>25</v>
-      </c>
       <c r="D158" t="n">
         <v>25</v>
       </c>
+      <c r="E158" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
         <v>4</v>
       </c>
-      <c r="C159" t="n">
-        <v>50</v>
-      </c>
       <c r="D159" t="n">
+        <v>50</v>
+      </c>
+      <c r="E159" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
         <v>6</v>
       </c>
-      <c r="C160" t="n">
-        <v>15</v>
-      </c>
       <c r="D160" t="n">
+        <v>15</v>
+      </c>
+      <c r="E160" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
         <v>9</v>
       </c>
-      <c r="C161" t="n">
-        <v>25</v>
-      </c>
       <c r="D161" t="n">
+        <v>25</v>
+      </c>
+      <c r="E161" t="n">
         <v>225</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C162" t="n">
-        <v>50</v>
-      </c>
       <c r="D162" t="n">
+        <v>50</v>
+      </c>
+      <c r="E162" t="n">
         <v>49.9999999999998</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
         <v>1</v>
       </c>
-      <c r="C163" t="n">
-        <v>15</v>
-      </c>
       <c r="D163" t="n">
         <v>15</v>
       </c>
+      <c r="E163" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
         <v>4</v>
       </c>
-      <c r="C164" t="n">
-        <v>25</v>
-      </c>
       <c r="D164" t="n">
+        <v>25</v>
+      </c>
+      <c r="E164" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
         <v>6</v>
       </c>
-      <c r="C165" t="n">
-        <v>50</v>
-      </c>
       <c r="D165" t="n">
+        <v>50</v>
+      </c>
+      <c r="E165" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
         <v>9</v>
       </c>
-      <c r="C166" t="n">
-        <v>15</v>
-      </c>
       <c r="D166" t="n">
+        <v>15</v>
+      </c>
+      <c r="E166" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C167" t="n">
-        <v>25</v>
-      </c>
       <c r="D167" t="n">
+        <v>25</v>
+      </c>
+      <c r="E167" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
         <v>1</v>
       </c>
-      <c r="C168" t="n">
-        <v>50</v>
-      </c>
       <c r="D168" t="n">
         <v>50</v>
       </c>
+      <c r="E168" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
         <v>4</v>
       </c>
-      <c r="C169" t="n">
-        <v>15</v>
-      </c>
       <c r="D169" t="n">
+        <v>15</v>
+      </c>
+      <c r="E169" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
         <v>6</v>
       </c>
-      <c r="C170" t="n">
-        <v>25</v>
-      </c>
       <c r="D170" t="n">
+        <v>25</v>
+      </c>
+      <c r="E170" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
         <v>9</v>
       </c>
-      <c r="C171" t="n">
-        <v>50</v>
-      </c>
       <c r="D171" t="n">
+        <v>50</v>
+      </c>
+      <c r="E171" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
         <v>7.00000000000001</v>
       </c>
-      <c r="C172" t="n">
+      <c r="D172" t="n">
         <v>33</v>
       </c>
-      <c r="D172" t="n">
+      <c r="E172" t="n">
         <v>231.0000000000003</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
         <v>7.50909090909091</v>
       </c>
-      <c r="C173" t="n">
+      <c r="D173" t="n">
         <v>33.1818181818182</v>
       </c>
-      <c r="D173" t="n">
+      <c r="E173" t="n">
         <v>249.1652892561985</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
         <v>8.018181818181819</v>
       </c>
-      <c r="C174" t="n">
+      <c r="D174" t="n">
         <v>33.3636363636364</v>
       </c>
-      <c r="D174" t="n">
+      <c r="E174" t="n">
         <v>267.5157024793392</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
         <v>8.527272727272729</v>
       </c>
-      <c r="C175" t="n">
+      <c r="D175" t="n">
         <v>33.5454545454545</v>
       </c>
-      <c r="D175" t="n">
+      <c r="E175" t="n">
         <v>286.0512396694211</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
         <v>9.036363636363641</v>
       </c>
-      <c r="C176" t="n">
+      <c r="D176" t="n">
         <v>33.7272727272727</v>
       </c>
-      <c r="D176" t="n">
+      <c r="E176" t="n">
         <v>304.7719008264461</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
         <v>9.54545454545455</v>
       </c>
-      <c r="C177" t="n">
+      <c r="D177" t="n">
         <v>33.9090909090909</v>
       </c>
-      <c r="D177" t="n">
+      <c r="E177" t="n">
         <v>323.6776859504133</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
         <v>10.0545454545455</v>
       </c>
-      <c r="C178" t="n">
+      <c r="D178" t="n">
         <v>34.0909090909091</v>
       </c>
-      <c r="D178" t="n">
+      <c r="E178" t="n">
         <v>342.768595041324</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
         <v>10.5636363636364</v>
       </c>
-      <c r="C179" t="n">
+      <c r="D179" t="n">
         <v>34.2727272727273</v>
       </c>
-      <c r="D179" t="n">
+      <c r="E179" t="n">
         <v>362.0446280991751</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
         <v>11.0727272727273</v>
       </c>
-      <c r="C180" t="n">
+      <c r="D180" t="n">
         <v>34.4545454545455</v>
       </c>
-      <c r="D180" t="n">
+      <c r="E180" t="n">
         <v>381.5057851239685</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
         <v>11.5818181818182</v>
       </c>
-      <c r="C181" t="n">
+      <c r="D181" t="n">
         <v>34.6363636363636</v>
       </c>
-      <c r="D181" t="n">
+      <c r="E181" t="n">
         <v>401.1520661157027</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
         <v>12.0909090909091</v>
       </c>
-      <c r="C182" t="n">
+      <c r="D182" t="n">
         <v>34.8181818181818</v>
       </c>
-      <c r="D182" t="n">
+      <c r="E182" t="n">
         <v>420.9834710743802</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
         <v>12.6</v>
       </c>
-      <c r="C183" t="n">
+      <c r="D183" t="n">
         <v>35</v>
       </c>
-      <c r="D183" t="n">
+      <c r="E183" t="n">
         <v>441</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
         <v>13.1090909090909</v>
       </c>
-      <c r="C184" t="n">
+      <c r="D184" t="n">
         <v>35.1818181818182</v>
       </c>
-      <c r="D184" t="n">
+      <c r="E184" t="n">
         <v>461.2016528925619</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
         <v>1</v>
       </c>
-      <c r="C185" t="n">
-        <v>15</v>
-      </c>
       <c r="D185" t="n">
         <v>15</v>
       </c>
+      <c r="E185" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
         <v>4</v>
       </c>
-      <c r="C186" t="n">
-        <v>25</v>
-      </c>
       <c r="D186" t="n">
+        <v>25</v>
+      </c>
+      <c r="E186" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
         <v>6</v>
       </c>
-      <c r="C187" t="n">
-        <v>50</v>
-      </c>
       <c r="D187" t="n">
+        <v>50</v>
+      </c>
+      <c r="E187" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
         <v>9</v>
       </c>
-      <c r="C188" t="n">
-        <v>15</v>
-      </c>
       <c r="D188" t="n">
+        <v>15</v>
+      </c>
+      <c r="E188" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C189" t="n">
-        <v>25</v>
-      </c>
       <c r="D189" t="n">
+        <v>25</v>
+      </c>
+      <c r="E189" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
         <v>1</v>
       </c>
-      <c r="C190" t="n">
-        <v>50</v>
-      </c>
       <c r="D190" t="n">
         <v>50</v>
       </c>
+      <c r="E190" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
         <v>4</v>
       </c>
-      <c r="C191" t="n">
-        <v>15</v>
-      </c>
       <c r="D191" t="n">
+        <v>15</v>
+      </c>
+      <c r="E191" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
         <v>6</v>
       </c>
-      <c r="C192" t="n">
-        <v>25</v>
-      </c>
       <c r="D192" t="n">
+        <v>25</v>
+      </c>
+      <c r="E192" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
         <v>9</v>
       </c>
-      <c r="C193" t="n">
-        <v>50</v>
-      </c>
       <c r="D193" t="n">
+        <v>50</v>
+      </c>
+      <c r="E193" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C194" t="n">
-        <v>15</v>
-      </c>
       <c r="D194" t="n">
+        <v>15</v>
+      </c>
+      <c r="E194" t="n">
         <v>14.99999999999994</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
         <v>1</v>
       </c>
-      <c r="C195" t="n">
-        <v>25</v>
-      </c>
       <c r="D195" t="n">
         <v>25</v>
       </c>
+      <c r="E195" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
         <v>4</v>
       </c>
-      <c r="C196" t="n">
-        <v>50</v>
-      </c>
       <c r="D196" t="n">
+        <v>50</v>
+      </c>
+      <c r="E196" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
         <v>6</v>
       </c>
-      <c r="C197" t="n">
-        <v>15</v>
-      </c>
       <c r="D197" t="n">
+        <v>15</v>
+      </c>
+      <c r="E197" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
         <v>9</v>
       </c>
-      <c r="C198" t="n">
-        <v>25</v>
-      </c>
       <c r="D198" t="n">
+        <v>25</v>
+      </c>
+      <c r="E198" t="n">
         <v>225</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C199" t="n">
-        <v>50</v>
-      </c>
       <c r="D199" t="n">
+        <v>50</v>
+      </c>
+      <c r="E199" t="n">
         <v>49.9999999999998</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
+      <c r="A200" t="inlineStr"/>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
         <v>1</v>
       </c>
-      <c r="C200" t="n">
-        <v>15</v>
-      </c>
       <c r="D200" t="n">
         <v>15</v>
       </c>
+      <c r="E200" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
         <v>4</v>
       </c>
-      <c r="C201" t="n">
-        <v>25</v>
-      </c>
       <c r="D201" t="n">
+        <v>25</v>
+      </c>
+      <c r="E201" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
+      <c r="A202" t="inlineStr"/>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
         <v>6</v>
       </c>
-      <c r="C202" t="n">
-        <v>50</v>
-      </c>
       <c r="D202" t="n">
+        <v>50</v>
+      </c>
+      <c r="E202" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
+      <c r="A203" t="inlineStr"/>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
         <v>9</v>
       </c>
-      <c r="C203" t="n">
-        <v>15</v>
-      </c>
       <c r="D203" t="n">
+        <v>15</v>
+      </c>
+      <c r="E203" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
+      <c r="A204" t="inlineStr"/>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C204" t="n">
-        <v>25</v>
-      </c>
       <c r="D204" t="n">
+        <v>25</v>
+      </c>
+      <c r="E204" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
+      <c r="A205" t="inlineStr"/>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
         <v>1</v>
       </c>
-      <c r="C205" t="n">
-        <v>50</v>
-      </c>
       <c r="D205" t="n">
         <v>50</v>
       </c>
+      <c r="E205" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
         <v>4</v>
       </c>
-      <c r="C206" t="n">
-        <v>15</v>
-      </c>
       <c r="D206" t="n">
+        <v>15</v>
+      </c>
+      <c r="E206" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
+      <c r="A207" t="inlineStr"/>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
         <v>6</v>
       </c>
-      <c r="C207" t="n">
-        <v>25</v>
-      </c>
       <c r="D207" t="n">
+        <v>25</v>
+      </c>
+      <c r="E207" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
         <v>9</v>
       </c>
-      <c r="C208" t="n">
-        <v>50</v>
-      </c>
       <c r="D208" t="n">
+        <v>50</v>
+      </c>
+      <c r="E208" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
+      <c r="A209" t="inlineStr"/>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
         <v>7.00000000000001</v>
       </c>
-      <c r="C209" t="n">
+      <c r="D209" t="n">
         <v>33</v>
       </c>
-      <c r="D209" t="n">
+      <c r="E209" t="n">
         <v>231.0000000000003</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
+      <c r="A210" t="inlineStr"/>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
         <v>7.50909090909091</v>
       </c>
-      <c r="C210" t="n">
+      <c r="D210" t="n">
         <v>33.1818181818182</v>
       </c>
-      <c r="D210" t="n">
+      <c r="E210" t="n">
         <v>249.1652892561985</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
+      <c r="A211" t="inlineStr"/>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
         <v>8.018181818181819</v>
       </c>
-      <c r="C211" t="n">
+      <c r="D211" t="n">
         <v>33.3636363636364</v>
       </c>
-      <c r="D211" t="n">
+      <c r="E211" t="n">
         <v>267.5157024793392</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
+      <c r="A212" t="inlineStr"/>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
         <v>8.527272727272729</v>
       </c>
-      <c r="C212" t="n">
+      <c r="D212" t="n">
         <v>33.5454545454545</v>
       </c>
-      <c r="D212" t="n">
+      <c r="E212" t="n">
         <v>286.0512396694211</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
+      <c r="A213" t="inlineStr"/>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
         <v>9.036363636363641</v>
       </c>
-      <c r="C213" t="n">
+      <c r="D213" t="n">
         <v>33.7272727272727</v>
       </c>
-      <c r="D213" t="n">
+      <c r="E213" t="n">
         <v>304.7719008264461</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
+      <c r="A214" t="inlineStr"/>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
         <v>9.54545454545455</v>
       </c>
-      <c r="C214" t="n">
+      <c r="D214" t="n">
         <v>33.9090909090909</v>
       </c>
-      <c r="D214" t="n">
+      <c r="E214" t="n">
         <v>323.6776859504133</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
+      <c r="A215" t="inlineStr"/>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
         <v>10.0545454545455</v>
       </c>
-      <c r="C215" t="n">
+      <c r="D215" t="n">
         <v>34.0909090909091</v>
       </c>
-      <c r="D215" t="n">
+      <c r="E215" t="n">
         <v>342.768595041324</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
+      <c r="A216" t="inlineStr"/>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
         <v>10.5636363636364</v>
       </c>
-      <c r="C216" t="n">
+      <c r="D216" t="n">
         <v>34.2727272727273</v>
       </c>
-      <c r="D216" t="n">
+      <c r="E216" t="n">
         <v>362.0446280991751</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
+      <c r="A217" t="inlineStr"/>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
         <v>11.0727272727273</v>
       </c>
-      <c r="C217" t="n">
+      <c r="D217" t="n">
         <v>34.4545454545455</v>
       </c>
-      <c r="D217" t="n">
+      <c r="E217" t="n">
         <v>381.5057851239685</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
+      <c r="A218" t="inlineStr"/>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
         <v>11.5818181818182</v>
       </c>
-      <c r="C218" t="n">
+      <c r="D218" t="n">
         <v>34.6363636363636</v>
       </c>
-      <c r="D218" t="n">
+      <c r="E218" t="n">
         <v>401.1520661157027</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
+      <c r="A219" t="inlineStr"/>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
         <v>12.0909090909091</v>
       </c>
-      <c r="C219" t="n">
+      <c r="D219" t="n">
         <v>34.8181818181818</v>
       </c>
-      <c r="D219" t="n">
+      <c r="E219" t="n">
         <v>420.9834710743802</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
+      <c r="A220" t="inlineStr"/>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
         <v>12.6</v>
       </c>
-      <c r="C220" t="n">
+      <c r="D220" t="n">
         <v>35</v>
       </c>
-      <c r="D220" t="n">
+      <c r="E220" t="n">
         <v>441</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
+      <c r="A221" t="inlineStr"/>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
         <v>13.1090909090909</v>
       </c>
-      <c r="C221" t="n">
+      <c r="D221" t="n">
         <v>35.1818181818182</v>
       </c>
-      <c r="D221" t="n">
+      <c r="E221" t="n">
         <v>461.2016528925619</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
+      <c r="A222" t="inlineStr"/>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
         <v>1</v>
       </c>
-      <c r="C222" t="n">
-        <v>15</v>
-      </c>
       <c r="D222" t="n">
         <v>15</v>
       </c>
+      <c r="E222" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
+      <c r="A223" t="inlineStr"/>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
         <v>4</v>
       </c>
-      <c r="C223" t="n">
-        <v>25</v>
-      </c>
       <c r="D223" t="n">
+        <v>25</v>
+      </c>
+      <c r="E223" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
+      <c r="A224" t="inlineStr"/>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
         <v>6</v>
       </c>
-      <c r="C224" t="n">
-        <v>50</v>
-      </c>
       <c r="D224" t="n">
+        <v>50</v>
+      </c>
+      <c r="E224" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
+      <c r="A225" t="inlineStr"/>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
         <v>9</v>
       </c>
-      <c r="C225" t="n">
-        <v>15</v>
-      </c>
       <c r="D225" t="n">
+        <v>15</v>
+      </c>
+      <c r="E225" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
+      <c r="A226" t="inlineStr"/>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C226" t="n">
-        <v>25</v>
-      </c>
       <c r="D226" t="n">
+        <v>25</v>
+      </c>
+      <c r="E226" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
+      <c r="A227" t="inlineStr"/>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
         <v>1</v>
       </c>
-      <c r="C227" t="n">
-        <v>50</v>
-      </c>
       <c r="D227" t="n">
         <v>50</v>
       </c>
+      <c r="E227" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
+      <c r="A228" t="inlineStr"/>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
         <v>4</v>
       </c>
-      <c r="C228" t="n">
-        <v>15</v>
-      </c>
       <c r="D228" t="n">
+        <v>15</v>
+      </c>
+      <c r="E228" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
+      <c r="A229" t="inlineStr"/>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
         <v>6</v>
       </c>
-      <c r="C229" t="n">
-        <v>25</v>
-      </c>
       <c r="D229" t="n">
+        <v>25</v>
+      </c>
+      <c r="E229" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
+      <c r="A230" t="inlineStr"/>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
         <v>9</v>
       </c>
-      <c r="C230" t="n">
-        <v>50</v>
-      </c>
       <c r="D230" t="n">
+        <v>50</v>
+      </c>
+      <c r="E230" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
+      <c r="A231" t="inlineStr"/>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C231" t="n">
-        <v>15</v>
-      </c>
       <c r="D231" t="n">
+        <v>15</v>
+      </c>
+      <c r="E231" t="n">
         <v>14.99999999999994</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
+      <c r="A232" t="inlineStr"/>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
         <v>1</v>
       </c>
-      <c r="C232" t="n">
-        <v>25</v>
-      </c>
       <c r="D232" t="n">
         <v>25</v>
       </c>
+      <c r="E232" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
+      <c r="A233" t="inlineStr"/>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
         <v>4</v>
       </c>
-      <c r="C233" t="n">
-        <v>50</v>
-      </c>
       <c r="D233" t="n">
+        <v>50</v>
+      </c>
+      <c r="E233" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
+      <c r="A234" t="inlineStr"/>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
         <v>6</v>
       </c>
-      <c r="C234" t="n">
-        <v>15</v>
-      </c>
       <c r="D234" t="n">
+        <v>15</v>
+      </c>
+      <c r="E234" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
+      <c r="A235" t="inlineStr"/>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
         <v>9</v>
       </c>
-      <c r="C235" t="n">
-        <v>25</v>
-      </c>
       <c r="D235" t="n">
+        <v>25</v>
+      </c>
+      <c r="E235" t="n">
         <v>225</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
+      <c r="A236" t="inlineStr"/>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C236" t="n">
-        <v>50</v>
-      </c>
       <c r="D236" t="n">
+        <v>50</v>
+      </c>
+      <c r="E236" t="n">
         <v>49.9999999999998</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
+      <c r="A237" t="inlineStr"/>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
         <v>1</v>
       </c>
-      <c r="C237" t="n">
-        <v>15</v>
-      </c>
       <c r="D237" t="n">
         <v>15</v>
       </c>
+      <c r="E237" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
+      <c r="A238" t="inlineStr"/>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
         <v>4</v>
       </c>
-      <c r="C238" t="n">
-        <v>25</v>
-      </c>
       <c r="D238" t="n">
+        <v>25</v>
+      </c>
+      <c r="E238" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
+      <c r="A239" t="inlineStr"/>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
         <v>6</v>
       </c>
-      <c r="C239" t="n">
-        <v>50</v>
-      </c>
       <c r="D239" t="n">
+        <v>50</v>
+      </c>
+      <c r="E239" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
+      <c r="A240" t="inlineStr"/>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
         <v>9</v>
       </c>
-      <c r="C240" t="n">
-        <v>15</v>
-      </c>
       <c r="D240" t="n">
+        <v>15</v>
+      </c>
+      <c r="E240" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
+      <c r="A241" t="inlineStr"/>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C241" t="n">
-        <v>25</v>
-      </c>
       <c r="D241" t="n">
+        <v>25</v>
+      </c>
+      <c r="E241" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
+      <c r="A242" t="inlineStr"/>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
         <v>1</v>
       </c>
-      <c r="C242" t="n">
-        <v>50</v>
-      </c>
       <c r="D242" t="n">
         <v>50</v>
       </c>
+      <c r="E242" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
+      <c r="A243" t="inlineStr"/>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
         <v>4</v>
       </c>
-      <c r="C243" t="n">
-        <v>15</v>
-      </c>
       <c r="D243" t="n">
+        <v>15</v>
+      </c>
+      <c r="E243" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
+      <c r="A244" t="inlineStr"/>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
         <v>6</v>
       </c>
-      <c r="C244" t="n">
-        <v>25</v>
-      </c>
       <c r="D244" t="n">
+        <v>25</v>
+      </c>
+      <c r="E244" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
+      <c r="A245" t="inlineStr"/>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
         <v>9</v>
       </c>
-      <c r="C245" t="n">
-        <v>50</v>
-      </c>
       <c r="D245" t="n">
+        <v>50</v>
+      </c>
+      <c r="E245" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B246" t="n">
+      <c r="A246" t="inlineStr"/>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
         <v>7.00000000000001</v>
       </c>
-      <c r="C246" t="n">
+      <c r="D246" t="n">
         <v>33</v>
       </c>
-      <c r="D246" t="n">
+      <c r="E246" t="n">
         <v>231.0000000000003</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
+      <c r="A247" t="inlineStr"/>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
         <v>7.50909090909091</v>
       </c>
-      <c r="C247" t="n">
+      <c r="D247" t="n">
         <v>33.1818181818182</v>
       </c>
-      <c r="D247" t="n">
+      <c r="E247" t="n">
         <v>249.1652892561985</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
+      <c r="A248" t="inlineStr"/>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
         <v>8.018181818181819</v>
       </c>
-      <c r="C248" t="n">
+      <c r="D248" t="n">
         <v>33.3636363636364</v>
       </c>
-      <c r="D248" t="n">
+      <c r="E248" t="n">
         <v>267.5157024793392</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B249" t="n">
+      <c r="A249" t="inlineStr"/>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
         <v>8.527272727272729</v>
       </c>
-      <c r="C249" t="n">
+      <c r="D249" t="n">
         <v>33.5454545454545</v>
       </c>
-      <c r="D249" t="n">
+      <c r="E249" t="n">
         <v>286.0512396694211</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
+      <c r="A250" t="inlineStr"/>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
         <v>9.036363636363641</v>
       </c>
-      <c r="C250" t="n">
+      <c r="D250" t="n">
         <v>33.7272727272727</v>
       </c>
-      <c r="D250" t="n">
+      <c r="E250" t="n">
         <v>304.7719008264461</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
+      <c r="A251" t="inlineStr"/>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
         <v>9.54545454545455</v>
       </c>
-      <c r="C251" t="n">
+      <c r="D251" t="n">
         <v>33.9090909090909</v>
       </c>
-      <c r="D251" t="n">
+      <c r="E251" t="n">
         <v>323.6776859504133</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
+      <c r="A252" t="inlineStr"/>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
         <v>10.0545454545455</v>
       </c>
-      <c r="C252" t="n">
+      <c r="D252" t="n">
         <v>34.0909090909091</v>
       </c>
-      <c r="D252" t="n">
+      <c r="E252" t="n">
         <v>342.768595041324</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
+      <c r="A253" t="inlineStr"/>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
         <v>10.5636363636364</v>
       </c>
-      <c r="C253" t="n">
+      <c r="D253" t="n">
         <v>34.2727272727273</v>
       </c>
-      <c r="D253" t="n">
+      <c r="E253" t="n">
         <v>362.0446280991751</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
+      <c r="A254" t="inlineStr"/>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
         <v>11.0727272727273</v>
       </c>
-      <c r="C254" t="n">
+      <c r="D254" t="n">
         <v>34.4545454545455</v>
       </c>
-      <c r="D254" t="n">
+      <c r="E254" t="n">
         <v>381.5057851239685</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
+      <c r="A255" t="inlineStr"/>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
         <v>11.5818181818182</v>
       </c>
-      <c r="C255" t="n">
+      <c r="D255" t="n">
         <v>34.6363636363636</v>
       </c>
-      <c r="D255" t="n">
+      <c r="E255" t="n">
         <v>401.1520661157027</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
+      <c r="A256" t="inlineStr"/>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
         <v>12.0909090909091</v>
       </c>
-      <c r="C256" t="n">
+      <c r="D256" t="n">
         <v>34.8181818181818</v>
       </c>
-      <c r="D256" t="n">
+      <c r="E256" t="n">
         <v>420.9834710743802</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
+      <c r="A257" t="inlineStr"/>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
         <v>12.6</v>
       </c>
-      <c r="C257" t="n">
+      <c r="D257" t="n">
         <v>35</v>
       </c>
-      <c r="D257" t="n">
+      <c r="E257" t="n">
         <v>441</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
+      <c r="A258" t="inlineStr"/>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
         <v>13.1090909090909</v>
       </c>
-      <c r="C258" t="n">
+      <c r="D258" t="n">
         <v>35.1818181818182</v>
       </c>
-      <c r="D258" t="n">
+      <c r="E258" t="n">
         <v>461.2016528925619</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
+      <c r="A259" t="inlineStr"/>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
         <v>1</v>
       </c>
-      <c r="C259" t="n">
-        <v>15</v>
-      </c>
       <c r="D259" t="n">
         <v>15</v>
       </c>
+      <c r="E259" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
+      <c r="A260" t="inlineStr"/>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
         <v>4</v>
       </c>
-      <c r="C260" t="n">
-        <v>25</v>
-      </c>
       <c r="D260" t="n">
+        <v>25</v>
+      </c>
+      <c r="E260" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
+      <c r="A261" t="inlineStr"/>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
         <v>6</v>
       </c>
-      <c r="C261" t="n">
-        <v>50</v>
-      </c>
       <c r="D261" t="n">
+        <v>50</v>
+      </c>
+      <c r="E261" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
+      <c r="A262" t="inlineStr"/>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
         <v>9</v>
       </c>
-      <c r="C262" t="n">
-        <v>15</v>
-      </c>
       <c r="D262" t="n">
+        <v>15</v>
+      </c>
+      <c r="E262" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
+      <c r="A263" t="inlineStr"/>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C263" t="n">
-        <v>25</v>
-      </c>
       <c r="D263" t="n">
+        <v>25</v>
+      </c>
+      <c r="E263" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
+      <c r="A264" t="inlineStr"/>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
         <v>1</v>
       </c>
-      <c r="C264" t="n">
-        <v>50</v>
-      </c>
       <c r="D264" t="n">
         <v>50</v>
       </c>
+      <c r="E264" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
+      <c r="A265" t="inlineStr"/>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
         <v>4</v>
       </c>
-      <c r="C265" t="n">
-        <v>15</v>
-      </c>
       <c r="D265" t="n">
+        <v>15</v>
+      </c>
+      <c r="E265" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
+      <c r="A266" t="inlineStr"/>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
         <v>6</v>
       </c>
-      <c r="C266" t="n">
-        <v>25</v>
-      </c>
       <c r="D266" t="n">
+        <v>25</v>
+      </c>
+      <c r="E266" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
+      <c r="A267" t="inlineStr"/>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
         <v>9</v>
       </c>
-      <c r="C267" t="n">
-        <v>50</v>
-      </c>
       <c r="D267" t="n">
+        <v>50</v>
+      </c>
+      <c r="E267" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
+      <c r="A268" t="inlineStr"/>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C268" t="n">
-        <v>15</v>
-      </c>
       <c r="D268" t="n">
+        <v>15</v>
+      </c>
+      <c r="E268" t="n">
         <v>14.99999999999994</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
+      <c r="A269" t="inlineStr"/>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
         <v>1</v>
       </c>
-      <c r="C269" t="n">
-        <v>25</v>
-      </c>
       <c r="D269" t="n">
         <v>25</v>
       </c>
+      <c r="E269" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
+      <c r="A270" t="inlineStr"/>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
         <v>4</v>
       </c>
-      <c r="C270" t="n">
-        <v>50</v>
-      </c>
       <c r="D270" t="n">
+        <v>50</v>
+      </c>
+      <c r="E270" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
+      <c r="A271" t="inlineStr"/>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
         <v>6</v>
       </c>
-      <c r="C271" t="n">
-        <v>15</v>
-      </c>
       <c r="D271" t="n">
+        <v>15</v>
+      </c>
+      <c r="E271" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
+      <c r="A272" t="inlineStr"/>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
         <v>9</v>
       </c>
-      <c r="C272" t="n">
-        <v>25</v>
-      </c>
       <c r="D272" t="n">
+        <v>25</v>
+      </c>
+      <c r="E272" t="n">
         <v>225</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
+      <c r="A273" t="inlineStr"/>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C273" t="n">
-        <v>50</v>
-      </c>
       <c r="D273" t="n">
+        <v>50</v>
+      </c>
+      <c r="E273" t="n">
         <v>49.9999999999998</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
+      <c r="A274" t="inlineStr"/>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
         <v>1</v>
       </c>
-      <c r="C274" t="n">
-        <v>15</v>
-      </c>
       <c r="D274" t="n">
         <v>15</v>
       </c>
+      <c r="E274" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
+      <c r="A275" t="inlineStr"/>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
         <v>4</v>
       </c>
-      <c r="C275" t="n">
-        <v>25</v>
-      </c>
       <c r="D275" t="n">
+        <v>25</v>
+      </c>
+      <c r="E275" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
+      <c r="A276" t="inlineStr"/>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
         <v>6</v>
       </c>
-      <c r="C276" t="n">
-        <v>50</v>
-      </c>
       <c r="D276" t="n">
+        <v>50</v>
+      </c>
+      <c r="E276" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
+      <c r="A277" t="inlineStr"/>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
         <v>9</v>
       </c>
-      <c r="C277" t="n">
-        <v>15</v>
-      </c>
       <c r="D277" t="n">
+        <v>15</v>
+      </c>
+      <c r="E277" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
+      <c r="A278" t="inlineStr"/>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
         <v>0.999999999999996</v>
       </c>
-      <c r="C278" t="n">
-        <v>25</v>
-      </c>
       <c r="D278" t="n">
+        <v>25</v>
+      </c>
+      <c r="E278" t="n">
         <v>24.9999999999999</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
+      <c r="A279" t="inlineStr"/>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
         <v>1</v>
       </c>
-      <c r="C279" t="n">
-        <v>50</v>
-      </c>
       <c r="D279" t="n">
         <v>50</v>
       </c>
+      <c r="E279" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
+      <c r="A280" t="inlineStr"/>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
         <v>4</v>
       </c>
-      <c r="C280" t="n">
-        <v>15</v>
-      </c>
       <c r="D280" t="n">
+        <v>15</v>
+      </c>
+      <c r="E280" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
+      <c r="A281" t="inlineStr"/>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
         <v>6</v>
       </c>
-      <c r="C281" t="n">
-        <v>25</v>
-      </c>
       <c r="D281" t="n">
+        <v>25</v>
+      </c>
+      <c r="E281" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
+      <c r="A282" t="inlineStr"/>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
         <v>9</v>
       </c>
-      <c r="C282" t="n">
-        <v>50</v>
-      </c>
       <c r="D282" t="n">
+        <v>50</v>
+      </c>
+      <c r="E282" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
+      <c r="A283" t="inlineStr"/>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
         <v>7.00000000000001</v>
       </c>
-      <c r="C283" t="n">
+      <c r="D283" t="n">
         <v>33</v>
       </c>
-      <c r="D283" t="n">
+      <c r="E283" t="n">
         <v>231.0000000000003</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
+      <c r="A284" t="inlineStr"/>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
         <v>7.50909090909091</v>
       </c>
-      <c r="C284" t="n">
+      <c r="D284" t="n">
         <v>33.1818181818182</v>
       </c>
-      <c r="D284" t="n">
+      <c r="E284" t="n">
         <v>249.1652892561985</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
+      <c r="A285" t="inlineStr"/>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
         <v>8.018181818181819</v>
       </c>
-      <c r="C285" t="n">
+      <c r="D285" t="n">
         <v>33.3636363636364</v>
       </c>
-      <c r="D285" t="n">
+      <c r="E285" t="n">
         <v>267.5157024793392</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
+      <c r="A286" t="inlineStr"/>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
         <v>8.527272727272729</v>
       </c>
-      <c r="C286" t="n">
+      <c r="D286" t="n">
         <v>33.5454545454545</v>
       </c>
-      <c r="D286" t="n">
+      <c r="E286" t="n">
         <v>286.0512396694211</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
+      <c r="A287" t="inlineStr"/>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
         <v>9.036363636363641</v>
       </c>
-      <c r="C287" t="n">
+      <c r="D287" t="n">
         <v>33.7272727272727</v>
       </c>
-      <c r="D287" t="n">
+      <c r="E287" t="n">
         <v>304.7719008264461</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
+      <c r="A288" t="inlineStr"/>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
         <v>9.54545454545455</v>
       </c>
-      <c r="C288" t="n">
+      <c r="D288" t="n">
         <v>33.9090909090909</v>
       </c>
-      <c r="D288" t="n">
+      <c r="E288" t="n">
         <v>323.6776859504133</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
+      <c r="A289" t="inlineStr"/>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
         <v>10.0545454545455</v>
       </c>
-      <c r="C289" t="n">
+      <c r="D289" t="n">
         <v>34.0909090909091</v>
       </c>
-      <c r="D289" t="n">
+      <c r="E289" t="n">
         <v>342.768595041324</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
+      <c r="A290" t="inlineStr"/>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
         <v>10.5636363636364</v>
       </c>
-      <c r="C290" t="n">
+      <c r="D290" t="n">
         <v>34.2727272727273</v>
       </c>
-      <c r="D290" t="n">
+      <c r="E290" t="n">
         <v>362.0446280991751</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
+      <c r="A291" t="inlineStr"/>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
         <v>11.0727272727273</v>
       </c>
-      <c r="C291" t="n">
+      <c r="D291" t="n">
         <v>34.4545454545455</v>
       </c>
-      <c r="D291" t="n">
+      <c r="E291" t="n">
         <v>381.5057851239685</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
+      <c r="A292" t="inlineStr"/>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
         <v>11.5818181818182</v>
       </c>
-      <c r="C292" t="n">
+      <c r="D292" t="n">
         <v>34.6363636363636</v>
       </c>
-      <c r="D292" t="n">
+      <c r="E292" t="n">
         <v>401.1520661157027</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Zapatos</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
+      <c r="A293" t="inlineStr"/>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Zapatos</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
         <v>12.0909090909091</v>
       </c>
-      <c r="C293" t="n">
+      <c r="D293" t="n">
         <v>34.8181818181818</v>
       </c>
-      <c r="D293" t="n">
+      <c r="E293" t="n">
         <v>420.9834710743802</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
+      <c r="A294" t="inlineStr"/>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Camiseta</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
         <v>12.6</v>
       </c>
-      <c r="C294" t="n">
+      <c r="D294" t="n">
         <v>35</v>
       </c>
-      <c r="D294" t="n">
+      <c r="E294" t="n">
         <v>441</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Pantalón</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
+      <c r="A295" t="inlineStr"/>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Pantalón</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
         <v>13.1090909090909</v>
       </c>
-      <c r="C295" t="n">
+      <c r="D295" t="n">
         <v>35.1818181818182</v>
       </c>
-      <c r="D295" t="n">
+      <c r="E295" t="n">
         <v>461.2016528925619</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
+      <c r="A296" t="inlineStr"/>
+      <c r="B296" t="inlineStr">
         <is>
           <t>Chaqueta</t>
         </is>
       </c>
-      <c r="B296" t="n">
+      <c r="C296" t="n">
         <v>60</v>
       </c>
-      <c r="C296" t="n">
+      <c r="D296" t="n">
         <v>5</v>
       </c>
-      <c r="D296" t="n">
+      <c r="E296" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
+      <c r="A297" t="inlineStr"/>
+      <c r="B297" t="inlineStr">
         <is>
           <t>Gorra</t>
         </is>
       </c>
-      <c r="B297" t="n">
+      <c r="C297" t="n">
         <v>20</v>
       </c>
-      <c r="C297" t="n">
+      <c r="D297" t="n">
         <v>10</v>
       </c>
-      <c r="D297" t="n">
+      <c r="E297" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
+      <c r="A298" t="inlineStr"/>
+      <c r="B298" t="inlineStr">
         <is>
           <t>Bufanda</t>
         </is>
       </c>
-      <c r="B298" t="n">
-        <v>15</v>
-      </c>
       <c r="C298" t="n">
+        <v>15</v>
+      </c>
+      <c r="D298" t="n">
         <v>8</v>
       </c>
-      <c r="D298" t="n">
+      <c r="E298" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr">
+      <c r="A299" t="inlineStr"/>
+      <c r="B299" t="inlineStr">
         <is>
           <t>Guantes</t>
         </is>
       </c>
-      <c r="B299" t="n">
+      <c r="C299" t="n">
         <v>12</v>
       </c>
-      <c r="C299" t="n">
-        <v>15</v>
-      </c>
       <c r="D299" t="n">
+        <v>15</v>
+      </c>
+      <c r="E299" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
+      <c r="A300" t="inlineStr"/>
+      <c r="B300" t="inlineStr">
         <is>
           <t>Calcetines</t>
         </is>
       </c>
-      <c r="B300" t="n">
+      <c r="C300" t="n">
         <v>5</v>
       </c>
-      <c r="C300" t="n">
+      <c r="D300" t="n">
         <v>20</v>
       </c>
-      <c r="D300" t="n">
+      <c r="E300" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
+      <c r="A301" t="inlineStr"/>
+      <c r="B301" t="inlineStr">
         <is>
           <t>Vestido</t>
         </is>
       </c>
-      <c r="B301" t="n">
+      <c r="C301" t="n">
         <v>80</v>
       </c>
-      <c r="C301" t="n">
+      <c r="D301" t="n">
         <v>3</v>
       </c>
-      <c r="D301" t="n">
+      <c r="E301" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
+      <c r="A302" t="inlineStr"/>
+      <c r="B302" t="inlineStr">
         <is>
           <t>Falda</t>
         </is>
       </c>
-      <c r="B302" t="n">
+      <c r="C302" t="n">
         <v>30</v>
       </c>
-      <c r="C302" t="n">
+      <c r="D302" t="n">
         <v>6</v>
       </c>
-      <c r="D302" t="n">
+      <c r="E302" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
+      <c r="A303" t="inlineStr"/>
+      <c r="B303" t="inlineStr">
         <is>
           <t>Corbata</t>
         </is>
       </c>
-      <c r="B303" t="n">
-        <v>25</v>
-      </c>
       <c r="C303" t="n">
+        <v>25</v>
+      </c>
+      <c r="D303" t="n">
         <v>12</v>
       </c>
-      <c r="D303" t="n">
+      <c r="E303" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
+      <c r="A304" t="inlineStr"/>
+      <c r="B304" t="inlineStr">
         <is>
           <t>Sudadera</t>
         </is>
       </c>
-      <c r="B304" t="n">
+      <c r="C304" t="n">
         <v>45</v>
       </c>
-      <c r="C304" t="n">
+      <c r="D304" t="n">
         <v>7</v>
       </c>
-      <c r="D304" t="n">
+      <c r="E304" t="n">
         <v>315</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
+      <c r="A305" t="inlineStr"/>
+      <c r="B305" t="inlineStr">
         <is>
           <t>Pantuflas</t>
         </is>
       </c>
-      <c r="B305" t="n">
+      <c r="C305" t="n">
         <v>20</v>
       </c>
-      <c r="C305" t="n">
+      <c r="D305" t="n">
         <v>10</v>
       </c>
-      <c r="D305" t="n">
+      <c r="E305" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
+      <c r="A306" t="inlineStr"/>
+      <c r="B306" t="inlineStr">
         <is>
           <t>Bolso</t>
         </is>
       </c>
-      <c r="B306" t="n">
-        <v>50</v>
-      </c>
       <c r="C306" t="n">
+        <v>50</v>
+      </c>
+      <c r="D306" t="n">
         <v>4</v>
       </c>
-      <c r="D306" t="n">
+      <c r="E306" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
+      <c r="A307" t="inlineStr"/>
+      <c r="B307" t="inlineStr">
         <is>
           <t>Sombrero</t>
         </is>
       </c>
-      <c r="B307" t="n">
+      <c r="C307" t="n">
         <v>18</v>
       </c>
-      <c r="C307" t="n">
+      <c r="D307" t="n">
         <v>9</v>
       </c>
-      <c r="D307" t="n">
+      <c r="E307" t="n">
         <v>162</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
+      <c r="A308" t="inlineStr"/>
+      <c r="B308" t="inlineStr">
         <is>
           <t>Leggings</t>
         </is>
       </c>
-      <c r="B308" t="n">
-        <v>25</v>
-      </c>
       <c r="C308" t="n">
+        <v>25</v>
+      </c>
+      <c r="D308" t="n">
         <v>6</v>
       </c>
-      <c r="D308" t="n">
+      <c r="E308" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
+      <c r="A309" t="inlineStr"/>
+      <c r="B309" t="inlineStr">
         <is>
           <t>Abrigo</t>
         </is>
       </c>
-      <c r="B309" t="n">
+      <c r="C309" t="n">
         <v>100</v>
       </c>
-      <c r="C309" t="n">
+      <c r="D309" t="n">
         <v>2</v>
       </c>
-      <c r="D309" t="n">
+      <c r="E309" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
+      <c r="A310" t="inlineStr"/>
+      <c r="B310" t="inlineStr">
         <is>
           <t>Traje de baño</t>
         </is>
       </c>
-      <c r="B310" t="n">
+      <c r="C310" t="n">
         <v>40</v>
       </c>
-      <c r="C310" t="n">
+      <c r="D310" t="n">
         <v>5</v>
       </c>
-      <c r="D310" t="n">
+      <c r="E310" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
+      <c r="A311" t="inlineStr"/>
+      <c r="B311" t="inlineStr">
         <is>
           <t>Blusa</t>
         </is>
       </c>
-      <c r="B311" t="n">
+      <c r="C311" t="n">
         <v>35</v>
       </c>
-      <c r="C311" t="n">
+      <c r="D311" t="n">
         <v>8</v>
       </c>
-      <c r="D311" t="n">
+      <c r="E311" t="n">
         <v>280</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr">
+      <c r="A312" t="inlineStr"/>
+      <c r="B312" t="inlineStr">
         <is>
           <t>Pantalones cortos</t>
         </is>
       </c>
-      <c r="B312" t="n">
+      <c r="C312" t="n">
         <v>20</v>
       </c>
-      <c r="C312" t="n">
-        <v>15</v>
-      </c>
       <c r="D312" t="n">
+        <v>15</v>
+      </c>
+      <c r="E312" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
+      <c r="A313" t="inlineStr"/>
+      <c r="B313" t="inlineStr">
         <is>
           <t>Sombrero de paja</t>
         </is>
       </c>
-      <c r="B313" t="n">
-        <v>15</v>
-      </c>
       <c r="C313" t="n">
+        <v>15</v>
+      </c>
+      <c r="D313" t="n">
         <v>10</v>
       </c>
-      <c r="D313" t="n">
+      <c r="E313" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
+      <c r="A314" t="inlineStr"/>
+      <c r="B314" t="inlineStr">
         <is>
           <t>Chaqueta de cuero</t>
         </is>
       </c>
-      <c r="B314" t="n">
+      <c r="C314" t="n">
         <v>120</v>
       </c>
-      <c r="C314" t="n">
+      <c r="D314" t="n">
         <v>3</v>
       </c>
-      <c r="D314" t="n">
+      <c r="E314" t="n">
         <v>360</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
+      <c r="A315" t="inlineStr"/>
+      <c r="B315" t="inlineStr">
         <is>
           <t>Mochila</t>
         </is>
       </c>
-      <c r="B315" t="n">
+      <c r="C315" t="n">
         <v>40</v>
       </c>
-      <c r="C315" t="n">
+      <c r="D315" t="n">
         <v>6</v>
       </c>
-      <c r="D315" t="n">
+      <c r="E315" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr">
+      <c r="A316" t="inlineStr"/>
+      <c r="B316" t="inlineStr">
         <is>
           <t>Bufanda de lana</t>
         </is>
       </c>
-      <c r="B316" t="n">
+      <c r="C316" t="n">
         <v>18</v>
       </c>
-      <c r="C316" t="n">
+      <c r="D316" t="n">
         <v>12</v>
       </c>
-      <c r="D316" t="n">
+      <c r="E316" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
+      <c r="A317" t="inlineStr"/>
+      <c r="B317" t="inlineStr">
         <is>
           <t>Zapatos deportivos</t>
         </is>
       </c>
-      <c r="B317" t="n">
+      <c r="C317" t="n">
         <v>70</v>
       </c>
-      <c r="C317" t="n">
+      <c r="D317" t="n">
         <v>5</v>
       </c>
-      <c r="D317" t="n">
+      <c r="E317" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
+      <c r="A318" t="inlineStr"/>
+      <c r="B318" t="inlineStr">
         <is>
           <t>Camisa de vestir</t>
         </is>
       </c>
-      <c r="B318" t="n">
+      <c r="C318" t="n">
         <v>45</v>
       </c>
-      <c r="C318" t="n">
+      <c r="D318" t="n">
         <v>7</v>
       </c>
-      <c r="D318" t="n">
+      <c r="E318" t="n">
         <v>315</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr">
+      <c r="A319" t="inlineStr"/>
+      <c r="B319" t="inlineStr">
         <is>
           <t>Falda larga</t>
         </is>
       </c>
-      <c r="B319" t="n">
-        <v>50</v>
-      </c>
       <c r="C319" t="n">
+        <v>50</v>
+      </c>
+      <c r="D319" t="n">
         <v>4</v>
       </c>
-      <c r="D319" t="n">
+      <c r="E319" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
+      <c r="A320" t="inlineStr"/>
+      <c r="B320" t="inlineStr">
         <is>
           <t>Calcetines de compresión</t>
         </is>
       </c>
-      <c r="B320" t="n">
+      <c r="C320" t="n">
         <v>8</v>
       </c>
-      <c r="C320" t="n">
+      <c r="D320" t="n">
         <v>20</v>
       </c>
-      <c r="D320" t="n">
+      <c r="E320" t="n">
         <v>160</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
+      <c r="A321" t="inlineStr"/>
+      <c r="B321" t="inlineStr">
         <is>
           <t>Botas de montaña</t>
         </is>
       </c>
-      <c r="B321" t="n">
+      <c r="C321" t="n">
         <v>90</v>
       </c>
-      <c r="C321" t="n">
+      <c r="D321" t="n">
         <v>3</v>
       </c>
-      <c r="D321" t="n">
+      <c r="E321" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr">
+      <c r="A322" t="inlineStr"/>
+      <c r="B322" t="inlineStr">
         <is>
           <t>Bolso de mano</t>
         </is>
       </c>
-      <c r="B322" t="n">
+      <c r="C322" t="n">
         <v>30</v>
       </c>
-      <c r="C322" t="n">
+      <c r="D322" t="n">
         <v>9</v>
       </c>
-      <c r="D322" t="n">
+      <c r="E322" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
+      <c r="A323" t="inlineStr"/>
+      <c r="B323" t="inlineStr">
         <is>
           <t>Gorro de lana</t>
         </is>
       </c>
-      <c r="B323" t="n">
+      <c r="C323" t="n">
         <v>12</v>
       </c>
-      <c r="C323" t="n">
-        <v>15</v>
-      </c>
       <c r="D323" t="n">
+        <v>15</v>
+      </c>
+      <c r="E323" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
+      <c r="A324" t="inlineStr"/>
+      <c r="B324" t="inlineStr">
         <is>
           <t>Leggings estampados</t>
         </is>
       </c>
-      <c r="B324" t="n">
-        <v>25</v>
-      </c>
       <c r="C324" t="n">
+        <v>25</v>
+      </c>
+      <c r="D324" t="n">
         <v>8</v>
       </c>
-      <c r="D324" t="n">
+      <c r="E324" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
+      <c r="A325" t="inlineStr"/>
+      <c r="B325" t="inlineStr">
         <is>
           <t>Chaleco</t>
         </is>
       </c>
-      <c r="B325" t="n">
+      <c r="C325" t="n">
         <v>55</v>
       </c>
-      <c r="C325" t="n">
+      <c r="D325" t="n">
         <v>5</v>
       </c>
-      <c r="D325" t="n">
+      <c r="E325" t="n">
         <v>275</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
+      <c r="A326" t="inlineStr"/>
+      <c r="B326" t="inlineStr">
         <is>
           <t>Camiseta sin mangas</t>
         </is>
       </c>
-      <c r="B326" t="n">
-        <v>15</v>
-      </c>
       <c r="C326" t="n">
+        <v>15</v>
+      </c>
+      <c r="D326" t="n">
         <v>10</v>
       </c>
-      <c r="D326" t="n">
+      <c r="E326" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
+      <c r="A327" t="inlineStr"/>
+      <c r="B327" t="inlineStr">
         <is>
           <t>Traje formal</t>
         </is>
       </c>
-      <c r="B327" t="n">
+      <c r="C327" t="n">
         <v>200</v>
       </c>
-      <c r="C327" t="n">
+      <c r="D327" t="n">
         <v>2</v>
       </c>
-      <c r="D327" t="n">
+      <c r="E327" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
+      <c r="A328" t="inlineStr"/>
+      <c r="B328" t="inlineStr">
         <is>
           <t>Sandalias</t>
         </is>
       </c>
-      <c r="B328" t="n">
-        <v>25</v>
-      </c>
       <c r="C328" t="n">
+        <v>25</v>
+      </c>
+      <c r="D328" t="n">
         <v>7</v>
       </c>
-      <c r="D328" t="n">
+      <c r="E328" t="n">
         <v>175</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
+      <c r="A329" t="inlineStr"/>
+      <c r="B329" t="inlineStr">
         <is>
           <t>Jeans</t>
         </is>
       </c>
-      <c r="B329" t="n">
+      <c r="C329" t="n">
         <v>40</v>
       </c>
-      <c r="C329" t="n">
+      <c r="D329" t="n">
         <v>6</v>
       </c>
-      <c r="D329" t="n">
+      <c r="E329" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
+      <c r="A330" t="inlineStr"/>
+      <c r="B330" t="inlineStr">
         <is>
           <t>Top deportivo</t>
         </is>
       </c>
-      <c r="B330" t="n">
+      <c r="C330" t="n">
         <v>30</v>
       </c>
-      <c r="C330" t="n">
+      <c r="D330" t="n">
         <v>8</v>
       </c>
-      <c r="D330" t="n">
+      <c r="E330" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
+      <c r="A331" t="inlineStr"/>
+      <c r="B331" t="inlineStr">
         <is>
           <t>Abrigo de invierno</t>
         </is>
       </c>
-      <c r="B331" t="n">
+      <c r="C331" t="n">
         <v>150</v>
       </c>
-      <c r="C331" t="n">
+      <c r="D331" t="n">
         <v>3</v>
       </c>
-      <c r="D331" t="n">
+      <c r="E331" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
+      <c r="A332" t="inlineStr"/>
+      <c r="B332" t="inlineStr">
         <is>
           <t>Mallas</t>
         </is>
       </c>
-      <c r="B332" t="n">
+      <c r="C332" t="n">
         <v>20</v>
       </c>
-      <c r="C332" t="n">
+      <c r="D332" t="n">
         <v>12</v>
       </c>
-      <c r="D332" t="n">
+      <c r="E332" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
+      <c r="A333" t="inlineStr"/>
+      <c r="B333" t="inlineStr">
         <is>
           <t>Blazer</t>
         </is>
       </c>
-      <c r="B333" t="n">
+      <c r="C333" t="n">
         <v>60</v>
       </c>
-      <c r="C333" t="n">
+      <c r="D333" t="n">
         <v>4</v>
       </c>
-      <c r="D333" t="n">
+      <c r="E333" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
+      <c r="A334" t="inlineStr"/>
+      <c r="B334" t="inlineStr">
         <is>
           <t>Camiseta de tirantes</t>
         </is>
       </c>
-      <c r="B334" t="n">
+      <c r="C334" t="n">
         <v>10</v>
       </c>
-      <c r="C334" t="n">
-        <v>15</v>
-      </c>
       <c r="D334" t="n">
+        <v>15</v>
+      </c>
+      <c r="E334" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
+      <c r="A335" t="inlineStr"/>
+      <c r="B335" t="inlineStr">
         <is>
           <t>Vestido formal</t>
         </is>
       </c>
-      <c r="B335" t="n">
+      <c r="C335" t="n">
         <v>80</v>
       </c>
-      <c r="C335" t="n">
+      <c r="D335" t="n">
         <v>5</v>
       </c>
-      <c r="D335" t="n">
+      <c r="E335" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
+      <c r="A336" t="inlineStr"/>
+      <c r="B336" t="inlineStr">
         <is>
           <t>Bufanda de seda</t>
         </is>
       </c>
-      <c r="B336" t="n">
-        <v>25</v>
-      </c>
       <c r="C336" t="n">
+        <v>25</v>
+      </c>
+      <c r="D336" t="n">
         <v>6</v>
       </c>
-      <c r="D336" t="n">
+      <c r="E336" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
+      <c r="A337" t="inlineStr"/>
+      <c r="B337" t="inlineStr">
         <is>
           <t>Pantalones de yoga</t>
         </is>
       </c>
-      <c r="B337" t="n">
+      <c r="C337" t="n">
         <v>35</v>
       </c>
-      <c r="C337" t="n">
+      <c r="D337" t="n">
         <v>9</v>
       </c>
-      <c r="D337" t="n">
+      <c r="E337" t="n">
         <v>315</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
+      <c r="A338" t="inlineStr"/>
+      <c r="B338" t="inlineStr">
         <is>
           <t>Gorra de béisbol</t>
         </is>
       </c>
-      <c r="B338" t="n">
+      <c r="C338" t="n">
         <v>20</v>
       </c>
-      <c r="C338" t="n">
+      <c r="D338" t="n">
         <v>10</v>
       </c>
-      <c r="D338" t="n">
+      <c r="E338" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
+      <c r="A339" t="inlineStr"/>
+      <c r="B339" t="inlineStr">
         <is>
           <t>Zapatos de tacón</t>
         </is>
       </c>
-      <c r="B339" t="n">
+      <c r="C339" t="n">
         <v>85</v>
       </c>
-      <c r="C339" t="n">
+      <c r="D339" t="n">
         <v>4</v>
       </c>
-      <c r="D339" t="n">
+      <c r="E339" t="n">
         <v>340</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
+      <c r="A340" t="inlineStr"/>
+      <c r="B340" t="inlineStr">
         <is>
           <t>Polo</t>
         </is>
       </c>
-      <c r="B340" t="n">
-        <v>25</v>
-      </c>
       <c r="C340" t="n">
+        <v>25</v>
+      </c>
+      <c r="D340" t="n">
         <v>8</v>
       </c>
-      <c r="D340" t="n">
+      <c r="E340" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
+      <c r="A341" t="inlineStr"/>
+      <c r="B341" t="inlineStr">
         <is>
           <t>Bufanda de algodón</t>
         </is>
       </c>
-      <c r="B341" t="n">
+      <c r="C341" t="n">
         <v>12</v>
       </c>
-      <c r="C341" t="n">
+      <c r="D341" t="n">
         <v>10</v>
       </c>
-      <c r="D341" t="n">
+      <c r="E341" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
+      <c r="A342" t="inlineStr"/>
+      <c r="B342" t="inlineStr">
         <is>
           <t>Guantes de cuero</t>
         </is>
       </c>
-      <c r="B342" t="n">
+      <c r="C342" t="n">
         <v>30</v>
       </c>
-      <c r="C342" t="n">
+      <c r="D342" t="n">
         <v>6</v>
       </c>
-      <c r="D342" t="n">
+      <c r="E342" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
+      <c r="A343" t="inlineStr"/>
+      <c r="B343" t="inlineStr">
         <is>
           <t>Cinturón de cuero</t>
         </is>
       </c>
-      <c r="B343" t="n">
-        <v>25</v>
-      </c>
       <c r="C343" t="n">
+        <v>25</v>
+      </c>
+      <c r="D343" t="n">
         <v>8</v>
       </c>
-      <c r="D343" t="n">
+      <c r="E343" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
+      <c r="A344" t="inlineStr"/>
+      <c r="B344" t="inlineStr">
         <is>
           <t>Chaqueta de invierno</t>
         </is>
       </c>
-      <c r="B344" t="n">
+      <c r="C344" t="n">
         <v>80</v>
       </c>
-      <c r="C344" t="n">
+      <c r="D344" t="n">
         <v>4</v>
       </c>
-      <c r="D344" t="n">
+      <c r="E344" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
+      <c r="A345" t="inlineStr"/>
+      <c r="B345" t="inlineStr">
         <is>
           <t>Botines</t>
         </is>
       </c>
-      <c r="B345" t="n">
+      <c r="C345" t="n">
         <v>60</v>
       </c>
-      <c r="C345" t="n">
+      <c r="D345" t="n">
         <v>5</v>
       </c>
-      <c r="D345" t="n">
+      <c r="E345" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
+      <c r="A346" t="inlineStr"/>
+      <c r="B346" t="inlineStr">
         <is>
           <t>Vestido casual</t>
         </is>
       </c>
-      <c r="B346" t="n">
+      <c r="C346" t="n">
         <v>45</v>
       </c>
-      <c r="C346" t="n">
+      <c r="D346" t="n">
         <v>7</v>
       </c>
-      <c r="D346" t="n">
+      <c r="E346" t="n">
         <v>315</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
+      <c r="A347" t="inlineStr"/>
+      <c r="B347" t="inlineStr">
         <is>
           <t>Chaqueta de punto</t>
         </is>
       </c>
-      <c r="B347" t="n">
+      <c r="C347" t="n">
         <v>35</v>
       </c>
-      <c r="C347" t="n">
+      <c r="D347" t="n">
         <v>9</v>
       </c>
-      <c r="D347" t="n">
+      <c r="E347" t="n">
         <v>315</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
+      <c r="A348" t="inlineStr"/>
+      <c r="B348" t="inlineStr">
         <is>
           <t>Pañuelo de seda</t>
         </is>
       </c>
-      <c r="B348" t="n">
+      <c r="C348" t="n">
         <v>18</v>
       </c>
-      <c r="C348" t="n">
+      <c r="D348" t="n">
         <v>12</v>
       </c>
-      <c r="D348" t="n">
+      <c r="E348" t="n">
         <v>216</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
+      <c r="A349" t="inlineStr"/>
+      <c r="B349" t="inlineStr">
         <is>
           <t>Camisa de manga corta</t>
         </is>
       </c>
-      <c r="B349" t="n">
-        <v>25</v>
-      </c>
       <c r="C349" t="n">
+        <v>25</v>
+      </c>
+      <c r="D349" t="n">
         <v>8</v>
       </c>
-      <c r="D349" t="n">
+      <c r="E349" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
+      <c r="A350" t="inlineStr"/>
+      <c r="B350" t="inlineStr">
         <is>
           <t>Sandalias de cuero</t>
         </is>
       </c>
-      <c r="B350" t="n">
+      <c r="C350" t="n">
         <v>40</v>
       </c>
-      <c r="C350" t="n">
+      <c r="D350" t="n">
         <v>6</v>
       </c>
-      <c r="D350" t="n">
+      <c r="E350" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
+      <c r="A351" t="inlineStr"/>
+      <c r="B351" t="inlineStr">
         <is>
           <t>Pantalones de cuero</t>
         </is>
       </c>
-      <c r="B351" t="n">
+      <c r="C351" t="n">
         <v>70</v>
       </c>
-      <c r="C351" t="n">
+      <c r="D351" t="n">
         <v>4</v>
       </c>
-      <c r="D351" t="n">
+      <c r="E351" t="n">
         <v>280</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
+      <c r="A352" t="inlineStr"/>
+      <c r="B352" t="inlineStr">
         <is>
           <t>Sombrero de fieltro</t>
         </is>
       </c>
-      <c r="B352" t="n">
+      <c r="C352" t="n">
         <v>20</v>
       </c>
-      <c r="C352" t="n">
+      <c r="D352" t="n">
         <v>10</v>
       </c>
-      <c r="D352" t="n">
+      <c r="E352" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
+      <c r="A353" t="inlineStr"/>
+      <c r="B353" t="inlineStr">
         <is>
           <t>Botas altas</t>
         </is>
       </c>
-      <c r="B353" t="n">
+      <c r="C353" t="n">
         <v>90</v>
       </c>
-      <c r="C353" t="n">
+      <c r="D353" t="n">
         <v>3</v>
       </c>
-      <c r="D353" t="n">
+      <c r="E353" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
+      <c r="A354" t="inlineStr"/>
+      <c r="B354" t="inlineStr">
         <is>
           <t>Poncho</t>
         </is>
       </c>
-      <c r="B354" t="n">
+      <c r="C354" t="n">
         <v>55</v>
       </c>
-      <c r="C354" t="n">
+      <c r="D354" t="n">
         <v>5</v>
       </c>
-      <c r="D354" t="n">
+      <c r="E354" t="n">
         <v>275</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
+      <c r="A355" t="inlineStr"/>
+      <c r="B355" t="inlineStr">
         <is>
           <t>Chaqueta de mezclilla</t>
         </is>
       </c>
-      <c r="B355" t="n">
-        <v>50</v>
-      </c>
       <c r="C355" t="n">
+        <v>50</v>
+      </c>
+      <c r="D355" t="n">
         <v>6</v>
       </c>
-      <c r="D355" t="n">
+      <c r="E355" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr">
+      <c r="A356" t="inlineStr"/>
+      <c r="B356" t="inlineStr">
         <is>
           <t>Camiseta de manga larga</t>
         </is>
       </c>
-      <c r="B356" t="n">
+      <c r="C356" t="n">
         <v>20</v>
       </c>
-      <c r="C356" t="n">
+      <c r="D356" t="n">
         <v>9</v>
       </c>
-      <c r="D356" t="n">
+      <c r="E356" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
+      <c r="A357" t="inlineStr"/>
+      <c r="B357" t="inlineStr">
         <is>
           <t>Traje de baile</t>
         </is>
       </c>
-      <c r="B357" t="n">
+      <c r="C357" t="n">
         <v>120</v>
       </c>
-      <c r="C357" t="n">
+      <c r="D357" t="n">
         <v>2</v>
       </c>
-      <c r="D357" t="n">
+      <c r="E357" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr">
+      <c r="A358" t="inlineStr"/>
+      <c r="B358" t="inlineStr">
         <is>
           <t>Pashmina</t>
         </is>
       </c>
-      <c r="B358" t="n">
-        <v>25</v>
-      </c>
       <c r="C358" t="n">
+        <v>25</v>
+      </c>
+      <c r="D358" t="n">
         <v>7</v>
       </c>
-      <c r="D358" t="n">
+      <c r="E358" t="n">
         <v>175</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr">
+      <c r="A359" t="inlineStr"/>
+      <c r="B359" t="inlineStr">
         <is>
           <t>Falda plisada</t>
         </is>
       </c>
-      <c r="B359" t="n">
+      <c r="C359" t="n">
         <v>30</v>
       </c>
-      <c r="C359" t="n">
+      <c r="D359" t="n">
         <v>8</v>
       </c>
-      <c r="D359" t="n">
+      <c r="E359" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr">
+      <c r="A360" t="inlineStr"/>
+      <c r="B360" t="inlineStr">
         <is>
           <t>Traje sastre</t>
         </is>
       </c>
-      <c r="B360" t="n">
+      <c r="C360" t="n">
         <v>180</v>
       </c>
-      <c r="C360" t="n">
+      <c r="D360" t="n">
         <v>3</v>
       </c>
-      <c r="D360" t="n">
+      <c r="E360" t="n">
         <v>540</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
+      <c r="A361" t="inlineStr"/>
+      <c r="B361" t="inlineStr">
         <is>
           <t>Leggings de yoga</t>
         </is>
       </c>
-      <c r="B361" t="n">
+      <c r="C361" t="n">
         <v>35</v>
       </c>
-      <c r="C361" t="n">
+      <c r="D361" t="n">
         <v>6</v>
       </c>
-      <c r="D361" t="n">
+      <c r="E361" t="n">
         <v>210</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr">
+      <c r="A362" t="inlineStr"/>
+      <c r="B362" t="inlineStr">
         <is>
           <t>Pantalones cortos de mezclilla</t>
         </is>
       </c>
-      <c r="B362" t="n">
-        <v>25</v>
-      </c>
       <c r="C362" t="n">
+        <v>25</v>
+      </c>
+      <c r="D362" t="n">
         <v>10</v>
       </c>
-      <c r="D362" t="n">
+      <c r="E362" t="n">
         <v>250</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
+      <c r="A363" t="inlineStr"/>
+      <c r="B363" t="inlineStr">
         <is>
           <t>Camiseta básica</t>
         </is>
       </c>
-      <c r="B363" t="n">
-        <v>15</v>
-      </c>
       <c r="C363" t="n">
+        <v>15</v>
+      </c>
+      <c r="D363" t="n">
         <v>12</v>
       </c>
-      <c r="D363" t="n">
+      <c r="E363" t="n">
         <v>180</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr">
+      <c r="A364" t="inlineStr"/>
+      <c r="B364" t="inlineStr">
         <is>
           <t>Blusa sin hombros</t>
         </is>
       </c>
-      <c r="B364" t="n">
+      <c r="C364" t="n">
         <v>40</v>
       </c>
-      <c r="C364" t="n">
+      <c r="D364" t="n">
         <v>5</v>
       </c>
-      <c r="D364" t="n">
+      <c r="E364" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
+      <c r="A365" t="inlineStr"/>
+      <c r="B365" t="inlineStr">
         <is>
           <t>Chaqueta de lana</t>
         </is>
       </c>
-      <c r="B365" t="n">
+      <c r="C365" t="n">
         <v>65</v>
       </c>
-      <c r="C365" t="n">
+      <c r="D365" t="n">
         <v>4</v>
       </c>
-      <c r="D365" t="n">
+      <c r="E365" t="n">
         <v>260</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
+      <c r="A366" t="inlineStr"/>
+      <c r="B366" t="inlineStr">
         <is>
           <t>Zapatos Oxford</t>
         </is>
       </c>
-      <c r="B366" t="n">
+      <c r="C366" t="n">
         <v>55</v>
       </c>
-      <c r="C366" t="n">
+      <c r="D366" t="n">
         <v>7</v>
       </c>
-      <c r="D366" t="n">
+      <c r="E366" t="n">
         <v>385</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr">
+      <c r="A367" t="inlineStr"/>
+      <c r="B367" t="inlineStr">
         <is>
           <t>Vestido de cóctel</t>
         </is>
       </c>
-      <c r="B367" t="n">
+      <c r="C367" t="n">
         <v>70</v>
       </c>
-      <c r="C367" t="n">
+      <c r="D367" t="n">
         <v>6</v>
       </c>
-      <c r="D367" t="n">
+      <c r="E367" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
+      <c r="A368" t="inlineStr"/>
+      <c r="B368" t="inlineStr">
         <is>
           <t>Chaleco de lana</t>
         </is>
       </c>
-      <c r="B368" t="n">
+      <c r="C368" t="n">
         <v>45</v>
       </c>
-      <c r="C368" t="n">
+      <c r="D368" t="n">
         <v>8</v>
       </c>
-      <c r="D368" t="n">
+      <c r="E368" t="n">
         <v>360</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
+      <c r="A369" t="inlineStr"/>
+      <c r="B369" t="inlineStr">
         <is>
           <t>Sombrero de ala ancha</t>
         </is>
       </c>
-      <c r="B369" t="n">
+      <c r="C369" t="n">
         <v>30</v>
       </c>
-      <c r="C369" t="n">
+      <c r="D369" t="n">
         <v>9</v>
       </c>
-      <c r="D369" t="n">
+      <c r="E369" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
+      <c r="A370" t="inlineStr"/>
+      <c r="B370" t="inlineStr">
         <is>
           <t>Sudadera con capucha</t>
         </is>
       </c>
-      <c r="B370" t="n">
-        <v>50</v>
-      </c>
       <c r="C370" t="n">
+        <v>50</v>
+      </c>
+      <c r="D370" t="n">
         <v>5</v>
       </c>
-      <c r="D370" t="n">
+      <c r="E370" t="n">
         <v>250</v>
       </c>
     </row>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E370"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,11 @@
           <t>Total de Venta</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -482,6 +487,7 @@
       <c r="E2" t="n">
         <v>300</v>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -501,6 +507,7 @@
       <c r="E3" t="n">
         <v>375</v>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -520,6 +527,7 @@
       <c r="E4" t="n">
         <v>500</v>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -539,6 +547,7 @@
       <c r="E5" t="n">
         <v>300</v>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -558,6 +567,7 @@
       <c r="E6" t="n">
         <v>375</v>
       </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -577,6 +587,7 @@
       <c r="E7" t="n">
         <v>500</v>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -596,6 +607,7 @@
       <c r="E8" t="n">
         <v>300</v>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -615,6 +627,7 @@
       <c r="E9" t="n">
         <v>375</v>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -634,6 +647,7 @@
       <c r="E10" t="n">
         <v>500</v>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -653,6 +667,7 @@
       <c r="E11" t="n">
         <v>300</v>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -672,6 +687,7 @@
       <c r="E12" t="n">
         <v>375</v>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -691,6 +707,7 @@
       <c r="E13" t="n">
         <v>500</v>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -710,6 +727,7 @@
       <c r="E14" t="n">
         <v>300</v>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -729,6 +747,7 @@
       <c r="E15" t="n">
         <v>375</v>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -748,6 +767,7 @@
       <c r="E16" t="n">
         <v>500</v>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -767,6 +787,7 @@
       <c r="E17" t="n">
         <v>300</v>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -786,6 +807,7 @@
       <c r="E18" t="n">
         <v>375</v>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -805,6 +827,7 @@
       <c r="E19" t="n">
         <v>500</v>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -824,6 +847,7 @@
       <c r="E20" t="n">
         <v>300</v>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -843,6 +867,7 @@
       <c r="E21" t="n">
         <v>375</v>
       </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -862,6 +887,7 @@
       <c r="E22" t="n">
         <v>500</v>
       </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -881,6 +907,7 @@
       <c r="E23" t="n">
         <v>300</v>
       </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -900,6 +927,7 @@
       <c r="E24" t="n">
         <v>375</v>
       </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -919,6 +947,7 @@
       <c r="E25" t="n">
         <v>500</v>
       </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -936,6 +965,7 @@
       <c r="E26" t="n">
         <v>210</v>
       </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -953,6 +983,7 @@
       <c r="E27" t="n">
         <v>375</v>
       </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -970,6 +1001,7 @@
       <c r="E28" t="n">
         <v>500</v>
       </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -987,6 +1019,7 @@
       <c r="E29" t="n">
         <v>45</v>
       </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -1004,6 +1037,7 @@
       <c r="E30" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1021,6 +1055,7 @@
       <c r="E31" t="n">
         <v>700</v>
       </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -1038,6 +1073,7 @@
       <c r="E32" t="n">
         <v>225</v>
       </c>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -1055,6 +1091,7 @@
       <c r="E33" t="n">
         <v>250</v>
       </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -1072,6 +1109,7 @@
       <c r="E34" t="n">
         <v>150</v>
       </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -1089,6 +1127,7 @@
       <c r="E35" t="n">
         <v>14.99999999999994</v>
       </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -1106,6 +1145,7 @@
       <c r="E36" t="n">
         <v>350</v>
       </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -1123,6 +1163,7 @@
       <c r="E37" t="n">
         <v>750</v>
       </c>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -1140,6 +1181,7 @@
       <c r="E38" t="n">
         <v>150</v>
       </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -1157,6 +1199,7 @@
       <c r="E39" t="n">
         <v>75</v>
       </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -1174,6 +1217,7 @@
       <c r="E40" t="n">
         <v>49.9999999999998</v>
       </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -1191,6 +1235,7 @@
       <c r="E41" t="n">
         <v>210</v>
       </c>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -1208,6 +1253,7 @@
       <c r="E42" t="n">
         <v>375</v>
       </c>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -1225,6 +1271,7 @@
       <c r="E43" t="n">
         <v>500</v>
       </c>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -1242,6 +1289,7 @@
       <c r="E44" t="n">
         <v>45</v>
       </c>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -1259,6 +1307,7 @@
       <c r="E45" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -1276,6 +1325,7 @@
       <c r="E46" t="n">
         <v>700</v>
       </c>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -1293,6 +1343,7 @@
       <c r="E47" t="n">
         <v>225</v>
       </c>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -1310,6 +1361,7 @@
       <c r="E48" t="n">
         <v>250</v>
       </c>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -1327,6 +1379,7 @@
       <c r="E49" t="n">
         <v>150</v>
       </c>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -1344,6 +1397,7 @@
       <c r="E50" t="n">
         <v>15</v>
       </c>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -1361,6 +1415,7 @@
       <c r="E51" t="n">
         <v>100</v>
       </c>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -1378,6 +1433,7 @@
       <c r="E52" t="n">
         <v>300</v>
       </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -1395,6 +1451,7 @@
       <c r="E53" t="n">
         <v>135</v>
       </c>
+      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -1412,6 +1469,7 @@
       <c r="E54" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -1429,6 +1487,7 @@
       <c r="E55" t="n">
         <v>50</v>
       </c>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -1446,6 +1505,7 @@
       <c r="E56" t="n">
         <v>60</v>
       </c>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -1463,6 +1523,7 @@
       <c r="E57" t="n">
         <v>150</v>
       </c>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -1480,6 +1541,7 @@
       <c r="E58" t="n">
         <v>450</v>
       </c>
+      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -1497,6 +1559,7 @@
       <c r="E59" t="n">
         <v>14.99999999999994</v>
       </c>
+      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -1514,6 +1577,7 @@
       <c r="E60" t="n">
         <v>25</v>
       </c>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -1531,6 +1595,7 @@
       <c r="E61" t="n">
         <v>200</v>
       </c>
+      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -1548,6 +1613,7 @@
       <c r="E62" t="n">
         <v>90</v>
       </c>
+      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -1565,6 +1631,7 @@
       <c r="E63" t="n">
         <v>225</v>
       </c>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -1582,6 +1649,7 @@
       <c r="E64" t="n">
         <v>49.9999999999998</v>
       </c>
+      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -1599,6 +1667,7 @@
       <c r="E65" t="n">
         <v>15</v>
       </c>
+      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -1616,6 +1685,7 @@
       <c r="E66" t="n">
         <v>100</v>
       </c>
+      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -1633,6 +1703,7 @@
       <c r="E67" t="n">
         <v>300</v>
       </c>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -1650,6 +1721,7 @@
       <c r="E68" t="n">
         <v>135</v>
       </c>
+      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -1667,6 +1739,7 @@
       <c r="E69" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -1684,6 +1757,7 @@
       <c r="E70" t="n">
         <v>50</v>
       </c>
+      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -1701,6 +1775,7 @@
       <c r="E71" t="n">
         <v>60</v>
       </c>
+      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -1718,6 +1793,7 @@
       <c r="E72" t="n">
         <v>150</v>
       </c>
+      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -1735,6 +1811,7 @@
       <c r="E73" t="n">
         <v>450</v>
       </c>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -1752,6 +1829,7 @@
       <c r="E74" t="n">
         <v>15</v>
       </c>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -1769,6 +1847,7 @@
       <c r="E75" t="n">
         <v>100</v>
       </c>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -1786,6 +1865,7 @@
       <c r="E76" t="n">
         <v>300</v>
       </c>
+      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -1803,6 +1883,7 @@
       <c r="E77" t="n">
         <v>135</v>
       </c>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -1820,6 +1901,7 @@
       <c r="E78" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -1837,6 +1919,7 @@
       <c r="E79" t="n">
         <v>50</v>
       </c>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -1854,6 +1937,7 @@
       <c r="E80" t="n">
         <v>60</v>
       </c>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -1871,6 +1955,7 @@
       <c r="E81" t="n">
         <v>150</v>
       </c>
+      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -1888,6 +1973,7 @@
       <c r="E82" t="n">
         <v>450</v>
       </c>
+      <c r="F82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -1905,6 +1991,7 @@
       <c r="E83" t="n">
         <v>14.99999999999994</v>
       </c>
+      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -1922,6 +2009,7 @@
       <c r="E84" t="n">
         <v>25</v>
       </c>
+      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -1939,6 +2027,7 @@
       <c r="E85" t="n">
         <v>200</v>
       </c>
+      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -1956,6 +2045,7 @@
       <c r="E86" t="n">
         <v>90</v>
       </c>
+      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -1973,6 +2063,7 @@
       <c r="E87" t="n">
         <v>225</v>
       </c>
+      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -1990,6 +2081,7 @@
       <c r="E88" t="n">
         <v>49.9999999999998</v>
       </c>
+      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -2007,6 +2099,7 @@
       <c r="E89" t="n">
         <v>15</v>
       </c>
+      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -2024,6 +2117,7 @@
       <c r="E90" t="n">
         <v>100</v>
       </c>
+      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -2041,6 +2135,7 @@
       <c r="E91" t="n">
         <v>300</v>
       </c>
+      <c r="F91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -2058,6 +2153,7 @@
       <c r="E92" t="n">
         <v>135</v>
       </c>
+      <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -2075,6 +2171,7 @@
       <c r="E93" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -2092,6 +2189,7 @@
       <c r="E94" t="n">
         <v>50</v>
       </c>
+      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -2109,6 +2207,7 @@
       <c r="E95" t="n">
         <v>60</v>
       </c>
+      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -2126,6 +2225,7 @@
       <c r="E96" t="n">
         <v>150</v>
       </c>
+      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -2143,6 +2243,7 @@
       <c r="E97" t="n">
         <v>450</v>
       </c>
+      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -2160,6 +2261,7 @@
       <c r="E98" t="n">
         <v>231.0000000000003</v>
       </c>
+      <c r="F98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -2177,6 +2279,7 @@
       <c r="E99" t="n">
         <v>249.1652892561985</v>
       </c>
+      <c r="F99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -2194,6 +2297,7 @@
       <c r="E100" t="n">
         <v>267.5157024793392</v>
       </c>
+      <c r="F100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -2211,6 +2315,7 @@
       <c r="E101" t="n">
         <v>286.0512396694211</v>
       </c>
+      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -2228,6 +2333,7 @@
       <c r="E102" t="n">
         <v>304.7719008264461</v>
       </c>
+      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -2245,6 +2351,7 @@
       <c r="E103" t="n">
         <v>323.6776859504133</v>
       </c>
+      <c r="F103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -2262,6 +2369,7 @@
       <c r="E104" t="n">
         <v>342.768595041324</v>
       </c>
+      <c r="F104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -2279,6 +2387,7 @@
       <c r="E105" t="n">
         <v>362.0446280991751</v>
       </c>
+      <c r="F105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -2296,6 +2405,7 @@
       <c r="E106" t="n">
         <v>381.5057851239685</v>
       </c>
+      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -2313,6 +2423,7 @@
       <c r="E107" t="n">
         <v>401.1520661157027</v>
       </c>
+      <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -2330,6 +2441,7 @@
       <c r="E108" t="n">
         <v>420.9834710743802</v>
       </c>
+      <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -2347,6 +2459,7 @@
       <c r="E109" t="n">
         <v>441</v>
       </c>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -2364,6 +2477,7 @@
       <c r="E110" t="n">
         <v>461.2016528925619</v>
       </c>
+      <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -2381,6 +2495,7 @@
       <c r="E111" t="n">
         <v>15</v>
       </c>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -2398,6 +2513,7 @@
       <c r="E112" t="n">
         <v>100</v>
       </c>
+      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -2415,6 +2531,7 @@
       <c r="E113" t="n">
         <v>300</v>
       </c>
+      <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -2432,6 +2549,7 @@
       <c r="E114" t="n">
         <v>135</v>
       </c>
+      <c r="F114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -2449,6 +2567,7 @@
       <c r="E115" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -2466,6 +2585,7 @@
       <c r="E116" t="n">
         <v>50</v>
       </c>
+      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -2483,6 +2603,7 @@
       <c r="E117" t="n">
         <v>60</v>
       </c>
+      <c r="F117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -2500,6 +2621,7 @@
       <c r="E118" t="n">
         <v>150</v>
       </c>
+      <c r="F118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -2517,6 +2639,7 @@
       <c r="E119" t="n">
         <v>450</v>
       </c>
+      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -2534,6 +2657,7 @@
       <c r="E120" t="n">
         <v>14.99999999999994</v>
       </c>
+      <c r="F120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -2551,6 +2675,7 @@
       <c r="E121" t="n">
         <v>25</v>
       </c>
+      <c r="F121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -2568,6 +2693,7 @@
       <c r="E122" t="n">
         <v>200</v>
       </c>
+      <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -2585,6 +2711,7 @@
       <c r="E123" t="n">
         <v>90</v>
       </c>
+      <c r="F123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -2602,6 +2729,7 @@
       <c r="E124" t="n">
         <v>225</v>
       </c>
+      <c r="F124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
@@ -2619,6 +2747,7 @@
       <c r="E125" t="n">
         <v>49.9999999999998</v>
       </c>
+      <c r="F125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -2636,6 +2765,7 @@
       <c r="E126" t="n">
         <v>15</v>
       </c>
+      <c r="F126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -2653,6 +2783,7 @@
       <c r="E127" t="n">
         <v>100</v>
       </c>
+      <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -2670,6 +2801,7 @@
       <c r="E128" t="n">
         <v>300</v>
       </c>
+      <c r="F128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -2687,6 +2819,7 @@
       <c r="E129" t="n">
         <v>135</v>
       </c>
+      <c r="F129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -2704,6 +2837,7 @@
       <c r="E130" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -2721,6 +2855,7 @@
       <c r="E131" t="n">
         <v>50</v>
       </c>
+      <c r="F131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -2738,6 +2873,7 @@
       <c r="E132" t="n">
         <v>60</v>
       </c>
+      <c r="F132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -2755,6 +2891,7 @@
       <c r="E133" t="n">
         <v>150</v>
       </c>
+      <c r="F133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
@@ -2772,6 +2909,7 @@
       <c r="E134" t="n">
         <v>450</v>
       </c>
+      <c r="F134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -2789,6 +2927,7 @@
       <c r="E135" t="n">
         <v>231.0000000000003</v>
       </c>
+      <c r="F135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -2806,6 +2945,7 @@
       <c r="E136" t="n">
         <v>249.1652892561985</v>
       </c>
+      <c r="F136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -2823,6 +2963,7 @@
       <c r="E137" t="n">
         <v>267.5157024793392</v>
       </c>
+      <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -2840,6 +2981,7 @@
       <c r="E138" t="n">
         <v>286.0512396694211</v>
       </c>
+      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -2857,6 +2999,7 @@
       <c r="E139" t="n">
         <v>304.7719008264461</v>
       </c>
+      <c r="F139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -2874,6 +3017,7 @@
       <c r="E140" t="n">
         <v>323.6776859504133</v>
       </c>
+      <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -2891,6 +3035,7 @@
       <c r="E141" t="n">
         <v>342.768595041324</v>
       </c>
+      <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -2908,6 +3053,7 @@
       <c r="E142" t="n">
         <v>362.0446280991751</v>
       </c>
+      <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -2925,6 +3071,7 @@
       <c r="E143" t="n">
         <v>381.5057851239685</v>
       </c>
+      <c r="F143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -2942,6 +3089,7 @@
       <c r="E144" t="n">
         <v>401.1520661157027</v>
       </c>
+      <c r="F144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -2959,6 +3107,7 @@
       <c r="E145" t="n">
         <v>420.9834710743802</v>
       </c>
+      <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -2976,6 +3125,7 @@
       <c r="E146" t="n">
         <v>441</v>
       </c>
+      <c r="F146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -2993,6 +3143,7 @@
       <c r="E147" t="n">
         <v>461.2016528925619</v>
       </c>
+      <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -3010,6 +3161,7 @@
       <c r="E148" t="n">
         <v>15</v>
       </c>
+      <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -3027,6 +3179,7 @@
       <c r="E149" t="n">
         <v>100</v>
       </c>
+      <c r="F149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -3044,6 +3197,7 @@
       <c r="E150" t="n">
         <v>300</v>
       </c>
+      <c r="F150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -3061,6 +3215,7 @@
       <c r="E151" t="n">
         <v>135</v>
       </c>
+      <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -3078,6 +3233,7 @@
       <c r="E152" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -3095,6 +3251,7 @@
       <c r="E153" t="n">
         <v>50</v>
       </c>
+      <c r="F153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -3112,6 +3269,7 @@
       <c r="E154" t="n">
         <v>60</v>
       </c>
+      <c r="F154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -3129,6 +3287,7 @@
       <c r="E155" t="n">
         <v>150</v>
       </c>
+      <c r="F155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -3146,6 +3305,7 @@
       <c r="E156" t="n">
         <v>450</v>
       </c>
+      <c r="F156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
@@ -3163,6 +3323,7 @@
       <c r="E157" t="n">
         <v>14.99999999999994</v>
       </c>
+      <c r="F157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr"/>
@@ -3180,6 +3341,7 @@
       <c r="E158" t="n">
         <v>25</v>
       </c>
+      <c r="F158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr"/>
@@ -3197,6 +3359,7 @@
       <c r="E159" t="n">
         <v>200</v>
       </c>
+      <c r="F159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr"/>
@@ -3214,6 +3377,7 @@
       <c r="E160" t="n">
         <v>90</v>
       </c>
+      <c r="F160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr"/>
@@ -3231,6 +3395,7 @@
       <c r="E161" t="n">
         <v>225</v>
       </c>
+      <c r="F161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
@@ -3248,6 +3413,7 @@
       <c r="E162" t="n">
         <v>49.9999999999998</v>
       </c>
+      <c r="F162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -3265,6 +3431,7 @@
       <c r="E163" t="n">
         <v>15</v>
       </c>
+      <c r="F163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
@@ -3282,6 +3449,7 @@
       <c r="E164" t="n">
         <v>100</v>
       </c>
+      <c r="F164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -3299,6 +3467,7 @@
       <c r="E165" t="n">
         <v>300</v>
       </c>
+      <c r="F165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
@@ -3316,6 +3485,7 @@
       <c r="E166" t="n">
         <v>135</v>
       </c>
+      <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr"/>
@@ -3333,6 +3503,7 @@
       <c r="E167" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr"/>
@@ -3350,6 +3521,7 @@
       <c r="E168" t="n">
         <v>50</v>
       </c>
+      <c r="F168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
@@ -3367,6 +3539,7 @@
       <c r="E169" t="n">
         <v>60</v>
       </c>
+      <c r="F169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
@@ -3384,6 +3557,7 @@
       <c r="E170" t="n">
         <v>150</v>
       </c>
+      <c r="F170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
@@ -3401,6 +3575,7 @@
       <c r="E171" t="n">
         <v>450</v>
       </c>
+      <c r="F171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr"/>
@@ -3418,6 +3593,7 @@
       <c r="E172" t="n">
         <v>231.0000000000003</v>
       </c>
+      <c r="F172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr"/>
@@ -3435,6 +3611,7 @@
       <c r="E173" t="n">
         <v>249.1652892561985</v>
       </c>
+      <c r="F173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr"/>
@@ -3452,6 +3629,7 @@
       <c r="E174" t="n">
         <v>267.5157024793392</v>
       </c>
+      <c r="F174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr"/>
@@ -3469,6 +3647,7 @@
       <c r="E175" t="n">
         <v>286.0512396694211</v>
       </c>
+      <c r="F175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr"/>
@@ -3486,6 +3665,7 @@
       <c r="E176" t="n">
         <v>304.7719008264461</v>
       </c>
+      <c r="F176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
@@ -3503,6 +3683,7 @@
       <c r="E177" t="n">
         <v>323.6776859504133</v>
       </c>
+      <c r="F177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr"/>
@@ -3520,6 +3701,7 @@
       <c r="E178" t="n">
         <v>342.768595041324</v>
       </c>
+      <c r="F178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr"/>
@@ -3537,6 +3719,7 @@
       <c r="E179" t="n">
         <v>362.0446280991751</v>
       </c>
+      <c r="F179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
@@ -3554,6 +3737,7 @@
       <c r="E180" t="n">
         <v>381.5057851239685</v>
       </c>
+      <c r="F180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
@@ -3571,6 +3755,7 @@
       <c r="E181" t="n">
         <v>401.1520661157027</v>
       </c>
+      <c r="F181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr"/>
@@ -3588,6 +3773,7 @@
       <c r="E182" t="n">
         <v>420.9834710743802</v>
       </c>
+      <c r="F182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
@@ -3605,6 +3791,7 @@
       <c r="E183" t="n">
         <v>441</v>
       </c>
+      <c r="F183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr"/>
@@ -3622,6 +3809,7 @@
       <c r="E184" t="n">
         <v>461.2016528925619</v>
       </c>
+      <c r="F184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr"/>
@@ -3639,6 +3827,9 @@
       <c r="E185" t="n">
         <v>15</v>
       </c>
+      <c r="F185" s="2" t="n">
+        <v>45231</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
@@ -3656,6 +3847,9 @@
       <c r="E186" t="n">
         <v>100</v>
       </c>
+      <c r="F186" s="2" t="n">
+        <v>45232</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
@@ -3673,6 +3867,9 @@
       <c r="E187" t="n">
         <v>300</v>
       </c>
+      <c r="F187" s="2" t="n">
+        <v>45233</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr"/>
@@ -3690,6 +3887,9 @@
       <c r="E188" t="n">
         <v>135</v>
       </c>
+      <c r="F188" s="2" t="n">
+        <v>45234</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
@@ -3707,6 +3907,9 @@
       <c r="E189" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F189" s="2" t="n">
+        <v>45235</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr"/>
@@ -3724,6 +3927,9 @@
       <c r="E190" t="n">
         <v>50</v>
       </c>
+      <c r="F190" s="2" t="n">
+        <v>45236</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr"/>
@@ -3741,6 +3947,9 @@
       <c r="E191" t="n">
         <v>60</v>
       </c>
+      <c r="F191" s="2" t="n">
+        <v>45237</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr"/>
@@ -3758,6 +3967,9 @@
       <c r="E192" t="n">
         <v>150</v>
       </c>
+      <c r="F192" s="2" t="n">
+        <v>45238</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr"/>
@@ -3775,6 +3987,9 @@
       <c r="E193" t="n">
         <v>450</v>
       </c>
+      <c r="F193" s="2" t="n">
+        <v>45239</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
@@ -3792,6 +4007,9 @@
       <c r="E194" t="n">
         <v>14.99999999999994</v>
       </c>
+      <c r="F194" s="2" t="n">
+        <v>45240</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
@@ -3809,6 +4027,9 @@
       <c r="E195" t="n">
         <v>25</v>
       </c>
+      <c r="F195" s="2" t="n">
+        <v>45241</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr"/>
@@ -3826,6 +4047,9 @@
       <c r="E196" t="n">
         <v>200</v>
       </c>
+      <c r="F196" s="2" t="n">
+        <v>45242</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr"/>
@@ -3843,6 +4067,9 @@
       <c r="E197" t="n">
         <v>90</v>
       </c>
+      <c r="F197" s="2" t="n">
+        <v>45243</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr"/>
@@ -3860,6 +4087,9 @@
       <c r="E198" t="n">
         <v>225</v>
       </c>
+      <c r="F198" s="2" t="n">
+        <v>45244</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr"/>
@@ -3877,6 +4107,9 @@
       <c r="E199" t="n">
         <v>49.9999999999998</v>
       </c>
+      <c r="F199" s="2" t="n">
+        <v>45245</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr"/>
@@ -3894,6 +4127,9 @@
       <c r="E200" t="n">
         <v>15</v>
       </c>
+      <c r="F200" s="2" t="n">
+        <v>45246</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr"/>
@@ -3911,6 +4147,9 @@
       <c r="E201" t="n">
         <v>100</v>
       </c>
+      <c r="F201" s="2" t="n">
+        <v>45247</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr"/>
@@ -3928,6 +4167,9 @@
       <c r="E202" t="n">
         <v>300</v>
       </c>
+      <c r="F202" s="2" t="n">
+        <v>45248</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
@@ -3945,6 +4187,9 @@
       <c r="E203" t="n">
         <v>135</v>
       </c>
+      <c r="F203" s="2" t="n">
+        <v>45249</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -3962,6 +4207,9 @@
       <c r="E204" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F204" s="2" t="n">
+        <v>45250</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
@@ -3979,6 +4227,9 @@
       <c r="E205" t="n">
         <v>50</v>
       </c>
+      <c r="F205" s="2" t="n">
+        <v>45251</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -3996,6 +4247,9 @@
       <c r="E206" t="n">
         <v>60</v>
       </c>
+      <c r="F206" s="2" t="n">
+        <v>45252</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
@@ -4013,6 +4267,9 @@
       <c r="E207" t="n">
         <v>150</v>
       </c>
+      <c r="F207" s="2" t="n">
+        <v>45253</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr"/>
@@ -4030,6 +4287,9 @@
       <c r="E208" t="n">
         <v>450</v>
       </c>
+      <c r="F208" s="2" t="n">
+        <v>45254</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr"/>
@@ -4047,6 +4307,9 @@
       <c r="E209" t="n">
         <v>231.0000000000003</v>
       </c>
+      <c r="F209" s="2" t="n">
+        <v>45255</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr"/>
@@ -4064,6 +4327,9 @@
       <c r="E210" t="n">
         <v>249.1652892561985</v>
       </c>
+      <c r="F210" s="2" t="n">
+        <v>45256</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr"/>
@@ -4081,6 +4347,9 @@
       <c r="E211" t="n">
         <v>267.5157024793392</v>
       </c>
+      <c r="F211" s="2" t="n">
+        <v>45257</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr"/>
@@ -4098,6 +4367,9 @@
       <c r="E212" t="n">
         <v>286.0512396694211</v>
       </c>
+      <c r="F212" s="2" t="n">
+        <v>45258</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr"/>
@@ -4115,6 +4387,9 @@
       <c r="E213" t="n">
         <v>304.7719008264461</v>
       </c>
+      <c r="F213" s="2" t="n">
+        <v>45259</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr"/>
@@ -4132,6 +4407,9 @@
       <c r="E214" t="n">
         <v>323.6776859504133</v>
       </c>
+      <c r="F214" s="2" t="n">
+        <v>45260</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr"/>
@@ -4149,6 +4427,9 @@
       <c r="E215" t="n">
         <v>342.768595041324</v>
       </c>
+      <c r="F215" s="2" t="n">
+        <v>45247</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr"/>
@@ -4166,6 +4447,9 @@
       <c r="E216" t="n">
         <v>362.0446280991751</v>
       </c>
+      <c r="F216" s="2" t="n">
+        <v>45242</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr"/>
@@ -4183,6 +4467,9 @@
       <c r="E217" t="n">
         <v>381.5057851239685</v>
       </c>
+      <c r="F217" s="2" t="n">
+        <v>45239</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr"/>
@@ -4200,6 +4487,9 @@
       <c r="E218" t="n">
         <v>401.1520661157027</v>
       </c>
+      <c r="F218" s="2" t="n">
+        <v>45255</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr"/>
@@ -4217,6 +4507,9 @@
       <c r="E219" t="n">
         <v>420.9834710743802</v>
       </c>
+      <c r="F219" s="2" t="n">
+        <v>45234</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr"/>
@@ -4234,6 +4527,9 @@
       <c r="E220" t="n">
         <v>441</v>
       </c>
+      <c r="F220" s="2" t="n">
+        <v>45247</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr"/>
@@ -4251,6 +4547,9 @@
       <c r="E221" t="n">
         <v>461.2016528925619</v>
       </c>
+      <c r="F221" s="2" t="n">
+        <v>45256</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr"/>
@@ -4268,6 +4567,9 @@
       <c r="E222" t="n">
         <v>15</v>
       </c>
+      <c r="F222" s="2" t="n">
+        <v>45246</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr"/>
@@ -4285,6 +4587,9 @@
       <c r="E223" t="n">
         <v>100</v>
       </c>
+      <c r="F223" s="2" t="n">
+        <v>45250</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr"/>
@@ -4302,6 +4607,9 @@
       <c r="E224" t="n">
         <v>300</v>
       </c>
+      <c r="F224" s="2" t="n">
+        <v>45244</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr"/>
@@ -4319,6 +4627,9 @@
       <c r="E225" t="n">
         <v>135</v>
       </c>
+      <c r="F225" s="2" t="n">
+        <v>45245</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr"/>
@@ -4336,6 +4647,9 @@
       <c r="E226" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F226" s="2" t="n">
+        <v>45258</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr"/>
@@ -4353,6 +4667,9 @@
       <c r="E227" t="n">
         <v>50</v>
       </c>
+      <c r="F227" s="2" t="n">
+        <v>45257</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr"/>
@@ -4370,6 +4687,9 @@
       <c r="E228" t="n">
         <v>60</v>
       </c>
+      <c r="F228" s="2" t="n">
+        <v>45249</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr"/>
@@ -4387,6 +4707,9 @@
       <c r="E229" t="n">
         <v>150</v>
       </c>
+      <c r="F229" s="2" t="n">
+        <v>45235</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr"/>
@@ -4404,6 +4727,9 @@
       <c r="E230" t="n">
         <v>450</v>
       </c>
+      <c r="F230" s="2" t="n">
+        <v>45253</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr"/>
@@ -4421,6 +4747,9 @@
       <c r="E231" t="n">
         <v>14.99999999999994</v>
       </c>
+      <c r="F231" s="2" t="n">
+        <v>45260</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr"/>
@@ -4438,6 +4767,9 @@
       <c r="E232" t="n">
         <v>25</v>
       </c>
+      <c r="F232" s="2" t="n">
+        <v>45256</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr"/>
@@ -4455,6 +4787,9 @@
       <c r="E233" t="n">
         <v>200</v>
       </c>
+      <c r="F233" s="2" t="n">
+        <v>45235</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr"/>
@@ -4472,6 +4807,9 @@
       <c r="E234" t="n">
         <v>90</v>
       </c>
+      <c r="F234" s="2" t="n">
+        <v>45239</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr"/>
@@ -4489,6 +4827,9 @@
       <c r="E235" t="n">
         <v>225</v>
       </c>
+      <c r="F235" s="2" t="n">
+        <v>45237</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr"/>
@@ -4506,6 +4847,9 @@
       <c r="E236" t="n">
         <v>49.9999999999998</v>
       </c>
+      <c r="F236" s="2" t="n">
+        <v>45237</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr"/>
@@ -4523,6 +4867,9 @@
       <c r="E237" t="n">
         <v>15</v>
       </c>
+      <c r="F237" s="2" t="n">
+        <v>45254</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr"/>
@@ -4540,6 +4887,9 @@
       <c r="E238" t="n">
         <v>100</v>
       </c>
+      <c r="F238" s="2" t="n">
+        <v>45243</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr"/>
@@ -4557,6 +4907,9 @@
       <c r="E239" t="n">
         <v>300</v>
       </c>
+      <c r="F239" s="2" t="n">
+        <v>45258</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr"/>
@@ -4574,6 +4927,9 @@
       <c r="E240" t="n">
         <v>135</v>
       </c>
+      <c r="F240" s="2" t="n">
+        <v>45255</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr"/>
@@ -4591,6 +4947,9 @@
       <c r="E241" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F241" s="2" t="n">
+        <v>45237</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr"/>
@@ -4608,6 +4967,9 @@
       <c r="E242" t="n">
         <v>50</v>
       </c>
+      <c r="F242" s="2" t="n">
+        <v>45254</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr"/>
@@ -4625,6 +4987,9 @@
       <c r="E243" t="n">
         <v>60</v>
       </c>
+      <c r="F243" s="2" t="n">
+        <v>45246</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr"/>
@@ -4642,6 +5007,9 @@
       <c r="E244" t="n">
         <v>150</v>
       </c>
+      <c r="F244" s="2" t="n">
+        <v>45259</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr"/>
@@ -4659,6 +5027,9 @@
       <c r="E245" t="n">
         <v>450</v>
       </c>
+      <c r="F245" s="2" t="n">
+        <v>45254</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr"/>
@@ -4676,6 +5047,9 @@
       <c r="E246" t="n">
         <v>231.0000000000003</v>
       </c>
+      <c r="F246" s="2" t="n">
+        <v>45254</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr"/>
@@ -4693,6 +5067,9 @@
       <c r="E247" t="n">
         <v>249.1652892561985</v>
       </c>
+      <c r="F247" s="2" t="n">
+        <v>45259</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr"/>
@@ -4710,6 +5087,9 @@
       <c r="E248" t="n">
         <v>267.5157024793392</v>
       </c>
+      <c r="F248" s="2" t="n">
+        <v>45233</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr"/>
@@ -4727,6 +5107,9 @@
       <c r="E249" t="n">
         <v>286.0512396694211</v>
       </c>
+      <c r="F249" s="2" t="n">
+        <v>45252</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr"/>
@@ -4744,6 +5127,9 @@
       <c r="E250" t="n">
         <v>304.7719008264461</v>
       </c>
+      <c r="F250" s="2" t="n">
+        <v>45237</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr"/>
@@ -4761,6 +5147,9 @@
       <c r="E251" t="n">
         <v>323.6776859504133</v>
       </c>
+      <c r="F251" s="2" t="n">
+        <v>45259</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr"/>
@@ -4778,6 +5167,9 @@
       <c r="E252" t="n">
         <v>342.768595041324</v>
       </c>
+      <c r="F252" s="2" t="n">
+        <v>45232</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr"/>
@@ -4795,6 +5187,9 @@
       <c r="E253" t="n">
         <v>362.0446280991751</v>
       </c>
+      <c r="F253" s="2" t="n">
+        <v>45241</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr"/>
@@ -4812,6 +5207,9 @@
       <c r="E254" t="n">
         <v>381.5057851239685</v>
       </c>
+      <c r="F254" s="2" t="n">
+        <v>45248</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr"/>
@@ -4829,6 +5227,9 @@
       <c r="E255" t="n">
         <v>401.1520661157027</v>
       </c>
+      <c r="F255" s="2" t="n">
+        <v>45239</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr"/>
@@ -4846,6 +5247,9 @@
       <c r="E256" t="n">
         <v>420.9834710743802</v>
       </c>
+      <c r="F256" s="2" t="n">
+        <v>45237</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr"/>
@@ -4863,6 +5267,9 @@
       <c r="E257" t="n">
         <v>441</v>
       </c>
+      <c r="F257" s="2" t="n">
+        <v>45231</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr"/>
@@ -4880,6 +5287,9 @@
       <c r="E258" t="n">
         <v>461.2016528925619</v>
       </c>
+      <c r="F258" s="2" t="n">
+        <v>45257</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr"/>
@@ -4897,6 +5307,9 @@
       <c r="E259" t="n">
         <v>15</v>
       </c>
+      <c r="F259" s="2" t="n">
+        <v>45251</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr"/>
@@ -4914,6 +5327,9 @@
       <c r="E260" t="n">
         <v>100</v>
       </c>
+      <c r="F260" s="2" t="n">
+        <v>45255</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr"/>
@@ -4931,6 +5347,9 @@
       <c r="E261" t="n">
         <v>300</v>
       </c>
+      <c r="F261" s="2" t="n">
+        <v>45257</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr"/>
@@ -4948,6 +5367,9 @@
       <c r="E262" t="n">
         <v>135</v>
       </c>
+      <c r="F262" s="2" t="n">
+        <v>45233</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr"/>
@@ -4965,6 +5387,9 @@
       <c r="E263" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F263" s="2" t="n">
+        <v>45241</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr"/>
@@ -4982,6 +5407,9 @@
       <c r="E264" t="n">
         <v>50</v>
       </c>
+      <c r="F264" s="2" t="n">
+        <v>45255</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr"/>
@@ -4999,6 +5427,9 @@
       <c r="E265" t="n">
         <v>60</v>
       </c>
+      <c r="F265" s="2" t="n">
+        <v>45256</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr"/>
@@ -5016,6 +5447,9 @@
       <c r="E266" t="n">
         <v>150</v>
       </c>
+      <c r="F266" s="2" t="n">
+        <v>45237</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr"/>
@@ -5033,6 +5467,9 @@
       <c r="E267" t="n">
         <v>450</v>
       </c>
+      <c r="F267" s="2" t="n">
+        <v>45242</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr"/>
@@ -5050,6 +5487,9 @@
       <c r="E268" t="n">
         <v>14.99999999999994</v>
       </c>
+      <c r="F268" s="2" t="n">
+        <v>45235</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr"/>
@@ -5067,6 +5507,9 @@
       <c r="E269" t="n">
         <v>25</v>
       </c>
+      <c r="F269" s="2" t="n">
+        <v>45260</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr"/>
@@ -5084,6 +5527,9 @@
       <c r="E270" t="n">
         <v>200</v>
       </c>
+      <c r="F270" s="2" t="n">
+        <v>45236</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr"/>
@@ -5101,6 +5547,9 @@
       <c r="E271" t="n">
         <v>90</v>
       </c>
+      <c r="F271" s="2" t="n">
+        <v>45247</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr"/>
@@ -5118,6 +5567,9 @@
       <c r="E272" t="n">
         <v>225</v>
       </c>
+      <c r="F272" s="2" t="n">
+        <v>45241</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr"/>
@@ -5135,6 +5587,9 @@
       <c r="E273" t="n">
         <v>49.9999999999998</v>
       </c>
+      <c r="F273" s="2" t="n">
+        <v>45238</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr"/>
@@ -5152,6 +5607,9 @@
       <c r="E274" t="n">
         <v>15</v>
       </c>
+      <c r="F274" s="2" t="n">
+        <v>45243</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr"/>
@@ -5169,6 +5627,9 @@
       <c r="E275" t="n">
         <v>100</v>
       </c>
+      <c r="F275" s="2" t="n">
+        <v>45260</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr"/>
@@ -5186,6 +5647,9 @@
       <c r="E276" t="n">
         <v>300</v>
       </c>
+      <c r="F276" s="2" t="n">
+        <v>45241</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr"/>
@@ -5203,6 +5667,9 @@
       <c r="E277" t="n">
         <v>135</v>
       </c>
+      <c r="F277" s="2" t="n">
+        <v>45233</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr"/>
@@ -5220,6 +5687,9 @@
       <c r="E278" t="n">
         <v>24.9999999999999</v>
       </c>
+      <c r="F278" s="2" t="n">
+        <v>45259</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr"/>
@@ -5237,6 +5707,9 @@
       <c r="E279" t="n">
         <v>50</v>
       </c>
+      <c r="F279" s="2" t="n">
+        <v>45245</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr"/>
@@ -5254,6 +5727,9 @@
       <c r="E280" t="n">
         <v>60</v>
       </c>
+      <c r="F280" s="2" t="n">
+        <v>45243</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr"/>
@@ -5271,6 +5747,9 @@
       <c r="E281" t="n">
         <v>150</v>
       </c>
+      <c r="F281" s="2" t="n">
+        <v>45231</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr"/>
@@ -5288,6 +5767,9 @@
       <c r="E282" t="n">
         <v>450</v>
       </c>
+      <c r="F282" s="2" t="n">
+        <v>45255</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr"/>
@@ -5305,6 +5787,9 @@
       <c r="E283" t="n">
         <v>231.0000000000003</v>
       </c>
+      <c r="F283" s="2" t="n">
+        <v>45246</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr"/>
@@ -5322,6 +5807,9 @@
       <c r="E284" t="n">
         <v>249.1652892561985</v>
       </c>
+      <c r="F284" s="2" t="n">
+        <v>45242</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr"/>
@@ -5339,6 +5827,9 @@
       <c r="E285" t="n">
         <v>267.5157024793392</v>
       </c>
+      <c r="F285" s="2" t="n">
+        <v>45234</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr"/>
@@ -5356,6 +5847,9 @@
       <c r="E286" t="n">
         <v>286.0512396694211</v>
       </c>
+      <c r="F286" s="2" t="n">
+        <v>45247</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr"/>
@@ -5373,6 +5867,9 @@
       <c r="E287" t="n">
         <v>304.7719008264461</v>
       </c>
+      <c r="F287" s="2" t="n">
+        <v>45244</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr"/>
@@ -5390,6 +5887,9 @@
       <c r="E288" t="n">
         <v>323.6776859504133</v>
       </c>
+      <c r="F288" s="2" t="n">
+        <v>45239</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr"/>
@@ -5407,6 +5907,9 @@
       <c r="E289" t="n">
         <v>342.768595041324</v>
       </c>
+      <c r="F289" s="2" t="n">
+        <v>45253</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr"/>
@@ -5424,6 +5927,9 @@
       <c r="E290" t="n">
         <v>362.0446280991751</v>
       </c>
+      <c r="F290" s="2" t="n">
+        <v>45252</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr"/>
@@ -5441,6 +5947,9 @@
       <c r="E291" t="n">
         <v>381.5057851239685</v>
       </c>
+      <c r="F291" s="2" t="n">
+        <v>45254</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr"/>
@@ -5458,6 +5967,9 @@
       <c r="E292" t="n">
         <v>401.1520661157027</v>
       </c>
+      <c r="F292" s="2" t="n">
+        <v>45246</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr"/>
@@ -5475,6 +5987,9 @@
       <c r="E293" t="n">
         <v>420.9834710743802</v>
       </c>
+      <c r="F293" s="2" t="n">
+        <v>45255</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr"/>
@@ -5492,6 +6007,9 @@
       <c r="E294" t="n">
         <v>441</v>
       </c>
+      <c r="F294" s="2" t="n">
+        <v>45256</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr"/>
@@ -5509,6 +6027,9 @@
       <c r="E295" t="n">
         <v>461.2016528925619</v>
       </c>
+      <c r="F295" s="2" t="n">
+        <v>45236</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr"/>
@@ -5526,6 +6047,7 @@
       <c r="E296" t="n">
         <v>300</v>
       </c>
+      <c r="F296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr"/>
@@ -5543,6 +6065,7 @@
       <c r="E297" t="n">
         <v>200</v>
       </c>
+      <c r="F297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr"/>
@@ -5560,6 +6083,7 @@
       <c r="E298" t="n">
         <v>120</v>
       </c>
+      <c r="F298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr"/>
@@ -5577,6 +6101,7 @@
       <c r="E299" t="n">
         <v>180</v>
       </c>
+      <c r="F299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr"/>
@@ -5594,6 +6119,7 @@
       <c r="E300" t="n">
         <v>100</v>
       </c>
+      <c r="F300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr"/>
@@ -5611,6 +6137,7 @@
       <c r="E301" t="n">
         <v>240</v>
       </c>
+      <c r="F301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr"/>
@@ -5628,6 +6155,7 @@
       <c r="E302" t="n">
         <v>180</v>
       </c>
+      <c r="F302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr"/>
@@ -5645,6 +6173,7 @@
       <c r="E303" t="n">
         <v>300</v>
       </c>
+      <c r="F303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr"/>
@@ -5662,6 +6191,7 @@
       <c r="E304" t="n">
         <v>315</v>
       </c>
+      <c r="F304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr"/>
@@ -5679,6 +6209,7 @@
       <c r="E305" t="n">
         <v>200</v>
       </c>
+      <c r="F305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr"/>
@@ -5696,6 +6227,7 @@
       <c r="E306" t="n">
         <v>200</v>
       </c>
+      <c r="F306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr"/>
@@ -5713,6 +6245,7 @@
       <c r="E307" t="n">
         <v>162</v>
       </c>
+      <c r="F307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr"/>
@@ -5730,6 +6263,7 @@
       <c r="E308" t="n">
         <v>150</v>
       </c>
+      <c r="F308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr"/>
@@ -5747,6 +6281,7 @@
       <c r="E309" t="n">
         <v>200</v>
       </c>
+      <c r="F309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr"/>
@@ -5764,6 +6299,7 @@
       <c r="E310" t="n">
         <v>200</v>
       </c>
+      <c r="F310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr"/>
@@ -5781,6 +6317,7 @@
       <c r="E311" t="n">
         <v>280</v>
       </c>
+      <c r="F311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr"/>
@@ -5798,6 +6335,7 @@
       <c r="E312" t="n">
         <v>300</v>
       </c>
+      <c r="F312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr"/>
@@ -5815,6 +6353,7 @@
       <c r="E313" t="n">
         <v>150</v>
       </c>
+      <c r="F313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr"/>
@@ -5832,6 +6371,7 @@
       <c r="E314" t="n">
         <v>360</v>
       </c>
+      <c r="F314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr"/>
@@ -5849,6 +6389,7 @@
       <c r="E315" t="n">
         <v>240</v>
       </c>
+      <c r="F315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr"/>
@@ -5866,6 +6407,7 @@
       <c r="E316" t="n">
         <v>216</v>
       </c>
+      <c r="F316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr"/>
@@ -5883,6 +6425,7 @@
       <c r="E317" t="n">
         <v>350</v>
       </c>
+      <c r="F317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr"/>
@@ -5900,6 +6443,7 @@
       <c r="E318" t="n">
         <v>315</v>
       </c>
+      <c r="F318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr"/>
@@ -5917,6 +6461,7 @@
       <c r="E319" t="n">
         <v>200</v>
       </c>
+      <c r="F319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr"/>
@@ -5934,6 +6479,7 @@
       <c r="E320" t="n">
         <v>160</v>
       </c>
+      <c r="F320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr"/>
@@ -5951,6 +6497,7 @@
       <c r="E321" t="n">
         <v>270</v>
       </c>
+      <c r="F321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr"/>
@@ -5968,6 +6515,7 @@
       <c r="E322" t="n">
         <v>270</v>
       </c>
+      <c r="F322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr"/>
@@ -5985,6 +6533,7 @@
       <c r="E323" t="n">
         <v>180</v>
       </c>
+      <c r="F323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr"/>
@@ -6002,6 +6551,7 @@
       <c r="E324" t="n">
         <v>200</v>
       </c>
+      <c r="F324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr"/>
@@ -6019,6 +6569,7 @@
       <c r="E325" t="n">
         <v>275</v>
       </c>
+      <c r="F325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr"/>
@@ -6036,6 +6587,7 @@
       <c r="E326" t="n">
         <v>150</v>
       </c>
+      <c r="F326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr"/>
@@ -6053,6 +6605,7 @@
       <c r="E327" t="n">
         <v>400</v>
       </c>
+      <c r="F327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr"/>
@@ -6070,6 +6623,7 @@
       <c r="E328" t="n">
         <v>175</v>
       </c>
+      <c r="F328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr"/>
@@ -6087,6 +6641,7 @@
       <c r="E329" t="n">
         <v>240</v>
       </c>
+      <c r="F329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr"/>
@@ -6104,6 +6659,7 @@
       <c r="E330" t="n">
         <v>240</v>
       </c>
+      <c r="F330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr"/>
@@ -6121,6 +6677,7 @@
       <c r="E331" t="n">
         <v>450</v>
       </c>
+      <c r="F331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr"/>
@@ -6138,6 +6695,7 @@
       <c r="E332" t="n">
         <v>240</v>
       </c>
+      <c r="F332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr"/>
@@ -6155,6 +6713,7 @@
       <c r="E333" t="n">
         <v>240</v>
       </c>
+      <c r="F333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr"/>
@@ -6172,6 +6731,7 @@
       <c r="E334" t="n">
         <v>150</v>
       </c>
+      <c r="F334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr"/>
@@ -6189,6 +6749,7 @@
       <c r="E335" t="n">
         <v>400</v>
       </c>
+      <c r="F335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr"/>
@@ -6206,6 +6767,7 @@
       <c r="E336" t="n">
         <v>150</v>
       </c>
+      <c r="F336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr"/>
@@ -6223,6 +6785,7 @@
       <c r="E337" t="n">
         <v>315</v>
       </c>
+      <c r="F337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr"/>
@@ -6240,6 +6803,7 @@
       <c r="E338" t="n">
         <v>200</v>
       </c>
+      <c r="F338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr"/>
@@ -6257,6 +6821,7 @@
       <c r="E339" t="n">
         <v>340</v>
       </c>
+      <c r="F339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr"/>
@@ -6274,6 +6839,7 @@
       <c r="E340" t="n">
         <v>200</v>
       </c>
+      <c r="F340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr"/>
@@ -6291,6 +6857,7 @@
       <c r="E341" t="n">
         <v>120</v>
       </c>
+      <c r="F341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr"/>
@@ -6308,6 +6875,7 @@
       <c r="E342" t="n">
         <v>180</v>
       </c>
+      <c r="F342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr"/>
@@ -6325,6 +6893,7 @@
       <c r="E343" t="n">
         <v>200</v>
       </c>
+      <c r="F343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr"/>
@@ -6342,6 +6911,7 @@
       <c r="E344" t="n">
         <v>320</v>
       </c>
+      <c r="F344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr"/>
@@ -6359,6 +6929,7 @@
       <c r="E345" t="n">
         <v>300</v>
       </c>
+      <c r="F345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr"/>
@@ -6376,6 +6947,7 @@
       <c r="E346" t="n">
         <v>315</v>
       </c>
+      <c r="F346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr"/>
@@ -6393,6 +6965,7 @@
       <c r="E347" t="n">
         <v>315</v>
       </c>
+      <c r="F347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr"/>
@@ -6410,6 +6983,7 @@
       <c r="E348" t="n">
         <v>216</v>
       </c>
+      <c r="F348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr"/>
@@ -6427,6 +7001,7 @@
       <c r="E349" t="n">
         <v>200</v>
       </c>
+      <c r="F349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr"/>
@@ -6444,6 +7019,7 @@
       <c r="E350" t="n">
         <v>240</v>
       </c>
+      <c r="F350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr"/>
@@ -6461,6 +7037,7 @@
       <c r="E351" t="n">
         <v>280</v>
       </c>
+      <c r="F351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr"/>
@@ -6478,6 +7055,7 @@
       <c r="E352" t="n">
         <v>200</v>
       </c>
+      <c r="F352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr"/>
@@ -6495,6 +7073,7 @@
       <c r="E353" t="n">
         <v>270</v>
       </c>
+      <c r="F353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr"/>
@@ -6512,6 +7091,7 @@
       <c r="E354" t="n">
         <v>275</v>
       </c>
+      <c r="F354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr"/>
@@ -6529,6 +7109,7 @@
       <c r="E355" t="n">
         <v>300</v>
       </c>
+      <c r="F355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr"/>
@@ -6546,6 +7127,7 @@
       <c r="E356" t="n">
         <v>180</v>
       </c>
+      <c r="F356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr"/>
@@ -6563,6 +7145,7 @@
       <c r="E357" t="n">
         <v>240</v>
       </c>
+      <c r="F357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr"/>
@@ -6580,6 +7163,7 @@
       <c r="E358" t="n">
         <v>175</v>
       </c>
+      <c r="F358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr"/>
@@ -6597,6 +7181,7 @@
       <c r="E359" t="n">
         <v>240</v>
       </c>
+      <c r="F359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr"/>
@@ -6614,6 +7199,7 @@
       <c r="E360" t="n">
         <v>540</v>
       </c>
+      <c r="F360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr"/>
@@ -6631,6 +7217,7 @@
       <c r="E361" t="n">
         <v>210</v>
       </c>
+      <c r="F361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr"/>
@@ -6648,6 +7235,7 @@
       <c r="E362" t="n">
         <v>250</v>
       </c>
+      <c r="F362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr"/>
@@ -6665,6 +7253,7 @@
       <c r="E363" t="n">
         <v>180</v>
       </c>
+      <c r="F363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr"/>
@@ -6682,6 +7271,7 @@
       <c r="E364" t="n">
         <v>200</v>
       </c>
+      <c r="F364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr"/>
@@ -6699,6 +7289,7 @@
       <c r="E365" t="n">
         <v>260</v>
       </c>
+      <c r="F365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr"/>
@@ -6716,6 +7307,7 @@
       <c r="E366" t="n">
         <v>385</v>
       </c>
+      <c r="F366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr"/>
@@ -6733,6 +7325,7 @@
       <c r="E367" t="n">
         <v>420</v>
       </c>
+      <c r="F367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr"/>
@@ -6750,6 +7343,7 @@
       <c r="E368" t="n">
         <v>360</v>
       </c>
+      <c r="F368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr"/>
@@ -6767,6 +7361,7 @@
       <c r="E369" t="n">
         <v>270</v>
       </c>
+      <c r="F369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr"/>
@@ -6784,6 +7379,7 @@
       <c r="E370" t="n">
         <v>250</v>
       </c>
+      <c r="F370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F370"/>
+  <dimension ref="A1:H370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,16 @@
           <t>Fecha</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -488,6 +498,8 @@
         <v>300</v>
       </c>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -508,6 +520,8 @@
         <v>375</v>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -528,6 +542,8 @@
         <v>500</v>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -548,6 +564,8 @@
         <v>300</v>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -568,6 +586,8 @@
         <v>375</v>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -588,6 +608,8 @@
         <v>500</v>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -608,6 +630,8 @@
         <v>300</v>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -628,6 +652,8 @@
         <v>375</v>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -648,6 +674,8 @@
         <v>500</v>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -668,6 +696,8 @@
         <v>300</v>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -688,6 +718,8 @@
         <v>375</v>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -708,6 +740,8 @@
         <v>500</v>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -728,6 +762,8 @@
         <v>300</v>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -748,6 +784,8 @@
         <v>375</v>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -768,6 +806,8 @@
         <v>500</v>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -788,6 +828,8 @@
         <v>300</v>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -808,6 +850,8 @@
         <v>375</v>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -828,6 +872,8 @@
         <v>500</v>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -848,6 +894,8 @@
         <v>300</v>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -868,6 +916,8 @@
         <v>375</v>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -888,6 +938,8 @@
         <v>500</v>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -908,6 +960,8 @@
         <v>300</v>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -928,6 +982,8 @@
         <v>375</v>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -948,6 +1004,8 @@
         <v>500</v>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -966,6 +1024,8 @@
         <v>210</v>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -984,6 +1044,8 @@
         <v>375</v>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -1002,6 +1064,8 @@
         <v>500</v>
       </c>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -1020,6 +1084,8 @@
         <v>45</v>
       </c>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -1038,6 +1104,8 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1056,6 +1124,8 @@
         <v>700</v>
       </c>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -1074,6 +1144,8 @@
         <v>225</v>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -1092,6 +1164,8 @@
         <v>250</v>
       </c>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -1110,6 +1184,8 @@
         <v>150</v>
       </c>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -1128,6 +1204,8 @@
         <v>14.99999999999994</v>
       </c>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -1146,6 +1224,8 @@
         <v>350</v>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -1164,6 +1244,8 @@
         <v>750</v>
       </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -1182,6 +1264,8 @@
         <v>150</v>
       </c>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -1200,6 +1284,8 @@
         <v>75</v>
       </c>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -1218,6 +1304,8 @@
         <v>49.9999999999998</v>
       </c>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -1236,6 +1324,8 @@
         <v>210</v>
       </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -1254,6 +1344,8 @@
         <v>375</v>
       </c>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -1272,6 +1364,8 @@
         <v>500</v>
       </c>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -1290,6 +1384,8 @@
         <v>45</v>
       </c>
       <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -1308,6 +1404,8 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -1326,6 +1424,8 @@
         <v>700</v>
       </c>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -1344,6 +1444,8 @@
         <v>225</v>
       </c>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -1362,6 +1464,8 @@
         <v>250</v>
       </c>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -1380,6 +1484,8 @@
         <v>150</v>
       </c>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -1398,6 +1504,8 @@
         <v>15</v>
       </c>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -1416,6 +1524,8 @@
         <v>100</v>
       </c>
       <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -1434,6 +1544,8 @@
         <v>300</v>
       </c>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -1452,6 +1564,8 @@
         <v>135</v>
       </c>
       <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -1470,6 +1584,8 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -1488,6 +1604,8 @@
         <v>50</v>
       </c>
       <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -1506,6 +1624,8 @@
         <v>60</v>
       </c>
       <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -1524,6 +1644,8 @@
         <v>150</v>
       </c>
       <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -1542,6 +1664,8 @@
         <v>450</v>
       </c>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -1560,6 +1684,8 @@
         <v>14.99999999999994</v>
       </c>
       <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -1578,6 +1704,8 @@
         <v>25</v>
       </c>
       <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -1596,6 +1724,8 @@
         <v>200</v>
       </c>
       <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -1614,6 +1744,8 @@
         <v>90</v>
       </c>
       <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -1632,6 +1764,8 @@
         <v>225</v>
       </c>
       <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -1650,6 +1784,8 @@
         <v>49.9999999999998</v>
       </c>
       <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -1668,6 +1804,8 @@
         <v>15</v>
       </c>
       <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -1686,6 +1824,8 @@
         <v>100</v>
       </c>
       <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -1704,6 +1844,8 @@
         <v>300</v>
       </c>
       <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -1722,6 +1864,8 @@
         <v>135</v>
       </c>
       <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -1740,6 +1884,8 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -1758,6 +1904,8 @@
         <v>50</v>
       </c>
       <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -1776,6 +1924,8 @@
         <v>60</v>
       </c>
       <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -1794,6 +1944,8 @@
         <v>150</v>
       </c>
       <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -1812,6 +1964,8 @@
         <v>450</v>
       </c>
       <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -1829,7 +1983,13 @@
       <c r="E74" t="n">
         <v>15</v>
       </c>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" s="2" t="n">
+        <v>45150</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" s="2" t="n">
+        <v>44927</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -1847,7 +2007,13 @@
       <c r="E75" t="n">
         <v>100</v>
       </c>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" s="2" t="n">
+        <v>45427</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -1865,7 +2031,11 @@
       <c r="E76" t="n">
         <v>300</v>
       </c>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -1883,7 +2053,11 @@
       <c r="E77" t="n">
         <v>135</v>
       </c>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -1901,7 +2075,11 @@
       <c r="E78" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -1919,7 +2097,11 @@
       <c r="E79" t="n">
         <v>50</v>
       </c>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -1937,7 +2119,11 @@
       <c r="E80" t="n">
         <v>60</v>
       </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -1955,7 +2141,11 @@
       <c r="E81" t="n">
         <v>150</v>
       </c>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -1973,7 +2163,11 @@
       <c r="E82" t="n">
         <v>450</v>
       </c>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -1991,7 +2185,11 @@
       <c r="E83" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -2009,7 +2207,11 @@
       <c r="E84" t="n">
         <v>25</v>
       </c>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -2027,7 +2229,11 @@
       <c r="E85" t="n">
         <v>200</v>
       </c>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" s="2" t="n">
+        <v>45132</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -2045,7 +2251,11 @@
       <c r="E86" t="n">
         <v>90</v>
       </c>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -2063,7 +2273,11 @@
       <c r="E87" t="n">
         <v>225</v>
       </c>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -2081,7 +2295,11 @@
       <c r="E88" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F88" t="inlineStr"/>
+      <c r="F88" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -2099,7 +2317,11 @@
       <c r="E89" t="n">
         <v>15</v>
       </c>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -2117,7 +2339,11 @@
       <c r="E90" t="n">
         <v>100</v>
       </c>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -2135,7 +2361,11 @@
       <c r="E91" t="n">
         <v>300</v>
       </c>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -2153,7 +2383,11 @@
       <c r="E92" t="n">
         <v>135</v>
       </c>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -2171,7 +2405,11 @@
       <c r="E93" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" s="2" t="n">
+        <v>45087</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -2189,7 +2427,11 @@
       <c r="E94" t="n">
         <v>50</v>
       </c>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" s="2" t="n">
+        <v>45069</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -2207,7 +2449,11 @@
       <c r="E95" t="n">
         <v>60</v>
       </c>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -2225,7 +2471,11 @@
       <c r="E96" t="n">
         <v>150</v>
       </c>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -2243,7 +2493,11 @@
       <c r="E97" t="n">
         <v>450</v>
       </c>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -2261,7 +2515,11 @@
       <c r="E98" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F98" t="inlineStr"/>
+      <c r="F98" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -2279,7 +2537,11 @@
       <c r="E99" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -2297,7 +2559,11 @@
       <c r="E100" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -2315,7 +2581,11 @@
       <c r="E101" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -2333,7 +2603,11 @@
       <c r="E102" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F102" t="inlineStr"/>
+      <c r="F102" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -2351,7 +2625,11 @@
       <c r="E103" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F103" t="inlineStr"/>
+      <c r="F103" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -2369,7 +2647,11 @@
       <c r="E104" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -2387,7 +2669,11 @@
       <c r="E105" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F105" t="inlineStr"/>
+      <c r="F105" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -2405,7 +2691,11 @@
       <c r="E106" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -2423,7 +2713,11 @@
       <c r="E107" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" s="2" t="n">
+        <v>45109</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -2441,7 +2735,11 @@
       <c r="E108" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F108" t="inlineStr"/>
+      <c r="F108" s="2" t="n">
+        <v>45160</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -2459,7 +2757,11 @@
       <c r="E109" t="n">
         <v>441</v>
       </c>
-      <c r="F109" t="inlineStr"/>
+      <c r="F109" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -2477,7 +2779,11 @@
       <c r="E110" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -2495,7 +2801,11 @@
       <c r="E111" t="n">
         <v>15</v>
       </c>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -2513,7 +2823,11 @@
       <c r="E112" t="n">
         <v>100</v>
       </c>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -2531,7 +2845,11 @@
       <c r="E113" t="n">
         <v>300</v>
       </c>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" s="2" t="n">
+        <v>45111</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -2549,7 +2867,11 @@
       <c r="E114" t="n">
         <v>135</v>
       </c>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -2567,7 +2889,11 @@
       <c r="E115" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F115" t="inlineStr"/>
+      <c r="F115" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -2585,7 +2911,11 @@
       <c r="E116" t="n">
         <v>50</v>
       </c>
-      <c r="F116" t="inlineStr"/>
+      <c r="F116" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -2603,7 +2933,11 @@
       <c r="E117" t="n">
         <v>60</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -2621,7 +2955,11 @@
       <c r="E118" t="n">
         <v>150</v>
       </c>
-      <c r="F118" t="inlineStr"/>
+      <c r="F118" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -2639,7 +2977,11 @@
       <c r="E119" t="n">
         <v>450</v>
       </c>
-      <c r="F119" t="inlineStr"/>
+      <c r="F119" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -2657,7 +2999,11 @@
       <c r="E120" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" s="2" t="n">
+        <v>45112</v>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -2675,7 +3021,11 @@
       <c r="E121" t="n">
         <v>25</v>
       </c>
-      <c r="F121" t="inlineStr"/>
+      <c r="F121" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -2693,7 +3043,11 @@
       <c r="E122" t="n">
         <v>200</v>
       </c>
-      <c r="F122" t="inlineStr"/>
+      <c r="F122" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -2711,7 +3065,11 @@
       <c r="E123" t="n">
         <v>90</v>
       </c>
-      <c r="F123" t="inlineStr"/>
+      <c r="F123" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -2729,7 +3087,11 @@
       <c r="E124" t="n">
         <v>225</v>
       </c>
-      <c r="F124" t="inlineStr"/>
+      <c r="F124" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
@@ -2747,7 +3109,11 @@
       <c r="E125" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F125" t="inlineStr"/>
+      <c r="F125" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -2765,7 +3131,11 @@
       <c r="E126" t="n">
         <v>15</v>
       </c>
-      <c r="F126" t="inlineStr"/>
+      <c r="F126" s="2" t="n">
+        <v>45115</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -2783,7 +3153,11 @@
       <c r="E127" t="n">
         <v>100</v>
       </c>
-      <c r="F127" t="inlineStr"/>
+      <c r="F127" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -2801,7 +3175,11 @@
       <c r="E128" t="n">
         <v>300</v>
       </c>
-      <c r="F128" t="inlineStr"/>
+      <c r="F128" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -2819,7 +3197,11 @@
       <c r="E129" t="n">
         <v>135</v>
       </c>
-      <c r="F129" t="inlineStr"/>
+      <c r="F129" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -2837,7 +3219,11 @@
       <c r="E130" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F130" t="inlineStr"/>
+      <c r="F130" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -2855,7 +3241,11 @@
       <c r="E131" t="n">
         <v>50</v>
       </c>
-      <c r="F131" t="inlineStr"/>
+      <c r="F131" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -2873,7 +3263,11 @@
       <c r="E132" t="n">
         <v>60</v>
       </c>
-      <c r="F132" t="inlineStr"/>
+      <c r="F132" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -2891,7 +3285,11 @@
       <c r="E133" t="n">
         <v>150</v>
       </c>
-      <c r="F133" t="inlineStr"/>
+      <c r="F133" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
@@ -2909,7 +3307,11 @@
       <c r="E134" t="n">
         <v>450</v>
       </c>
-      <c r="F134" t="inlineStr"/>
+      <c r="F134" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -2927,7 +3329,11 @@
       <c r="E135" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F135" t="inlineStr"/>
+      <c r="F135" s="2" t="n">
+        <v>45113</v>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -2945,7 +3351,11 @@
       <c r="E136" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F136" t="inlineStr"/>
+      <c r="F136" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -2963,7 +3373,11 @@
       <c r="E137" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F137" t="inlineStr"/>
+      <c r="F137" s="2" t="n">
+        <v>45042</v>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -2981,7 +3395,11 @@
       <c r="E138" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F138" t="inlineStr"/>
+      <c r="F138" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -2999,7 +3417,11 @@
       <c r="E139" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -3017,7 +3439,11 @@
       <c r="E140" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -3035,7 +3461,11 @@
       <c r="E141" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -3053,7 +3483,11 @@
       <c r="E142" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F142" t="inlineStr"/>
+      <c r="F142" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -3071,7 +3505,11 @@
       <c r="E143" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -3089,7 +3527,11 @@
       <c r="E144" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -3107,7 +3549,11 @@
       <c r="E145" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -3125,7 +3571,11 @@
       <c r="E146" t="n">
         <v>441</v>
       </c>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" s="2" t="n">
+        <v>45087</v>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -3143,7 +3593,11 @@
       <c r="E147" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -3161,7 +3615,11 @@
       <c r="E148" t="n">
         <v>15</v>
       </c>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -3179,7 +3637,11 @@
       <c r="E149" t="n">
         <v>100</v>
       </c>
-      <c r="F149" t="inlineStr"/>
+      <c r="F149" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -3197,7 +3659,11 @@
       <c r="E150" t="n">
         <v>300</v>
       </c>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -3215,7 +3681,11 @@
       <c r="E151" t="n">
         <v>135</v>
       </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -3233,7 +3703,11 @@
       <c r="E152" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" s="2" t="n">
+        <v>45102</v>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -3251,7 +3725,11 @@
       <c r="E153" t="n">
         <v>50</v>
       </c>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -3269,7 +3747,11 @@
       <c r="E154" t="n">
         <v>60</v>
       </c>
-      <c r="F154" t="inlineStr"/>
+      <c r="F154" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -3287,7 +3769,11 @@
       <c r="E155" t="n">
         <v>150</v>
       </c>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -3305,7 +3791,11 @@
       <c r="E156" t="n">
         <v>450</v>
       </c>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
@@ -3323,7 +3813,11 @@
       <c r="E157" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F157" t="inlineStr"/>
+      <c r="F157" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr"/>
@@ -3341,7 +3835,11 @@
       <c r="E158" t="n">
         <v>25</v>
       </c>
-      <c r="F158" t="inlineStr"/>
+      <c r="F158" s="2" t="n">
+        <v>45150</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr"/>
@@ -3359,7 +3857,11 @@
       <c r="E159" t="n">
         <v>200</v>
       </c>
-      <c r="F159" t="inlineStr"/>
+      <c r="F159" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr"/>
@@ -3377,7 +3879,11 @@
       <c r="E160" t="n">
         <v>90</v>
       </c>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr"/>
@@ -3395,7 +3901,11 @@
       <c r="E161" t="n">
         <v>225</v>
       </c>
-      <c r="F161" t="inlineStr"/>
+      <c r="F161" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
@@ -3413,7 +3923,11 @@
       <c r="E162" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F162" t="inlineStr"/>
+      <c r="F162" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -3431,7 +3945,11 @@
       <c r="E163" t="n">
         <v>15</v>
       </c>
-      <c r="F163" t="inlineStr"/>
+      <c r="F163" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
@@ -3449,7 +3967,11 @@
       <c r="E164" t="n">
         <v>100</v>
       </c>
-      <c r="F164" t="inlineStr"/>
+      <c r="F164" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -3467,7 +3989,11 @@
       <c r="E165" t="n">
         <v>300</v>
       </c>
-      <c r="F165" t="inlineStr"/>
+      <c r="F165" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
@@ -3485,7 +4011,11 @@
       <c r="E166" t="n">
         <v>135</v>
       </c>
-      <c r="F166" t="inlineStr"/>
+      <c r="F166" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr"/>
@@ -3503,7 +4033,11 @@
       <c r="E167" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F167" t="inlineStr"/>
+      <c r="F167" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr"/>
@@ -3521,7 +4055,11 @@
       <c r="E168" t="n">
         <v>50</v>
       </c>
-      <c r="F168" t="inlineStr"/>
+      <c r="F168" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
@@ -3539,7 +4077,11 @@
       <c r="E169" t="n">
         <v>60</v>
       </c>
-      <c r="F169" t="inlineStr"/>
+      <c r="F169" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
@@ -3557,7 +4099,11 @@
       <c r="E170" t="n">
         <v>150</v>
       </c>
-      <c r="F170" t="inlineStr"/>
+      <c r="F170" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
@@ -3575,7 +4121,11 @@
       <c r="E171" t="n">
         <v>450</v>
       </c>
-      <c r="F171" t="inlineStr"/>
+      <c r="F171" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr"/>
@@ -3593,7 +4143,11 @@
       <c r="E172" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F172" t="inlineStr"/>
+      <c r="F172" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr"/>
@@ -3611,7 +4165,11 @@
       <c r="E173" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F173" t="inlineStr"/>
+      <c r="F173" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr"/>
@@ -3629,7 +4187,11 @@
       <c r="E174" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F174" t="inlineStr"/>
+      <c r="F174" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr"/>
@@ -3647,7 +4209,11 @@
       <c r="E175" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F175" t="inlineStr"/>
+      <c r="F175" s="2" t="n">
+        <v>45037</v>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr"/>
@@ -3665,7 +4231,11 @@
       <c r="E176" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F176" t="inlineStr"/>
+      <c r="F176" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
@@ -3683,7 +4253,11 @@
       <c r="E177" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F177" t="inlineStr"/>
+      <c r="F177" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr"/>
@@ -3701,7 +4275,11 @@
       <c r="E178" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F178" t="inlineStr"/>
+      <c r="F178" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr"/>
@@ -3719,7 +4297,11 @@
       <c r="E179" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F179" t="inlineStr"/>
+      <c r="F179" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
@@ -3737,7 +4319,11 @@
       <c r="E180" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
@@ -3755,7 +4341,11 @@
       <c r="E181" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F181" t="inlineStr"/>
+      <c r="F181" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr"/>
@@ -3773,7 +4363,11 @@
       <c r="E182" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F182" t="inlineStr"/>
+      <c r="F182" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
@@ -3791,7 +4385,11 @@
       <c r="E183" t="n">
         <v>441</v>
       </c>
-      <c r="F183" t="inlineStr"/>
+      <c r="F183" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr"/>
@@ -3809,7 +4407,11 @@
       <c r="E184" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F184" t="inlineStr"/>
+      <c r="F184" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr"/>
@@ -3830,6 +4432,8 @@
       <c r="F185" s="2" t="n">
         <v>45231</v>
       </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
@@ -3850,6 +4454,8 @@
       <c r="F186" s="2" t="n">
         <v>45232</v>
       </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
@@ -3870,6 +4476,8 @@
       <c r="F187" s="2" t="n">
         <v>45233</v>
       </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr"/>
@@ -3890,6 +4498,8 @@
       <c r="F188" s="2" t="n">
         <v>45234</v>
       </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
@@ -3910,6 +4520,8 @@
       <c r="F189" s="2" t="n">
         <v>45235</v>
       </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr"/>
@@ -3930,6 +4542,8 @@
       <c r="F190" s="2" t="n">
         <v>45236</v>
       </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr"/>
@@ -3950,6 +4564,8 @@
       <c r="F191" s="2" t="n">
         <v>45237</v>
       </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr"/>
@@ -3970,6 +4586,8 @@
       <c r="F192" s="2" t="n">
         <v>45238</v>
       </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr"/>
@@ -3990,6 +4608,8 @@
       <c r="F193" s="2" t="n">
         <v>45239</v>
       </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
@@ -4010,6 +4630,8 @@
       <c r="F194" s="2" t="n">
         <v>45240</v>
       </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
@@ -4030,6 +4652,8 @@
       <c r="F195" s="2" t="n">
         <v>45241</v>
       </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr"/>
@@ -4050,6 +4674,8 @@
       <c r="F196" s="2" t="n">
         <v>45242</v>
       </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr"/>
@@ -4070,6 +4696,8 @@
       <c r="F197" s="2" t="n">
         <v>45243</v>
       </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr"/>
@@ -4090,6 +4718,8 @@
       <c r="F198" s="2" t="n">
         <v>45244</v>
       </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr"/>
@@ -4110,6 +4740,8 @@
       <c r="F199" s="2" t="n">
         <v>45245</v>
       </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr"/>
@@ -4130,6 +4762,8 @@
       <c r="F200" s="2" t="n">
         <v>45246</v>
       </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr"/>
@@ -4150,6 +4784,8 @@
       <c r="F201" s="2" t="n">
         <v>45247</v>
       </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr"/>
@@ -4170,6 +4806,8 @@
       <c r="F202" s="2" t="n">
         <v>45248</v>
       </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
@@ -4190,6 +4828,8 @@
       <c r="F203" s="2" t="n">
         <v>45249</v>
       </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -4210,6 +4850,8 @@
       <c r="F204" s="2" t="n">
         <v>45250</v>
       </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
@@ -4230,6 +4872,8 @@
       <c r="F205" s="2" t="n">
         <v>45251</v>
       </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -4250,6 +4894,8 @@
       <c r="F206" s="2" t="n">
         <v>45252</v>
       </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
@@ -4270,6 +4916,8 @@
       <c r="F207" s="2" t="n">
         <v>45253</v>
       </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr"/>
@@ -4290,6 +4938,8 @@
       <c r="F208" s="2" t="n">
         <v>45254</v>
       </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr"/>
@@ -4310,6 +4960,8 @@
       <c r="F209" s="2" t="n">
         <v>45255</v>
       </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr"/>
@@ -4330,6 +4982,8 @@
       <c r="F210" s="2" t="n">
         <v>45256</v>
       </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr"/>
@@ -4350,6 +5004,8 @@
       <c r="F211" s="2" t="n">
         <v>45257</v>
       </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr"/>
@@ -4370,6 +5026,8 @@
       <c r="F212" s="2" t="n">
         <v>45258</v>
       </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr"/>
@@ -4390,6 +5048,8 @@
       <c r="F213" s="2" t="n">
         <v>45259</v>
       </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr"/>
@@ -4410,6 +5070,8 @@
       <c r="F214" s="2" t="n">
         <v>45260</v>
       </c>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr"/>
@@ -4430,6 +5092,8 @@
       <c r="F215" s="2" t="n">
         <v>45247</v>
       </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr"/>
@@ -4450,6 +5114,8 @@
       <c r="F216" s="2" t="n">
         <v>45242</v>
       </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr"/>
@@ -4470,6 +5136,8 @@
       <c r="F217" s="2" t="n">
         <v>45239</v>
       </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr"/>
@@ -4490,6 +5158,8 @@
       <c r="F218" s="2" t="n">
         <v>45255</v>
       </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr"/>
@@ -4510,6 +5180,8 @@
       <c r="F219" s="2" t="n">
         <v>45234</v>
       </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr"/>
@@ -4530,6 +5202,8 @@
       <c r="F220" s="2" t="n">
         <v>45247</v>
       </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr"/>
@@ -4550,6 +5224,8 @@
       <c r="F221" s="2" t="n">
         <v>45256</v>
       </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr"/>
@@ -4570,6 +5246,8 @@
       <c r="F222" s="2" t="n">
         <v>45246</v>
       </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr"/>
@@ -4590,6 +5268,8 @@
       <c r="F223" s="2" t="n">
         <v>45250</v>
       </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr"/>
@@ -4610,6 +5290,8 @@
       <c r="F224" s="2" t="n">
         <v>45244</v>
       </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr"/>
@@ -4630,6 +5312,8 @@
       <c r="F225" s="2" t="n">
         <v>45245</v>
       </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr"/>
@@ -4650,6 +5334,8 @@
       <c r="F226" s="2" t="n">
         <v>45258</v>
       </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr"/>
@@ -4670,6 +5356,8 @@
       <c r="F227" s="2" t="n">
         <v>45257</v>
       </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr"/>
@@ -4690,6 +5378,8 @@
       <c r="F228" s="2" t="n">
         <v>45249</v>
       </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr"/>
@@ -4710,6 +5400,8 @@
       <c r="F229" s="2" t="n">
         <v>45235</v>
       </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr"/>
@@ -4730,6 +5422,8 @@
       <c r="F230" s="2" t="n">
         <v>45253</v>
       </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr"/>
@@ -4750,6 +5444,8 @@
       <c r="F231" s="2" t="n">
         <v>45260</v>
       </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr"/>
@@ -4770,6 +5466,8 @@
       <c r="F232" s="2" t="n">
         <v>45256</v>
       </c>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr"/>
@@ -4790,6 +5488,8 @@
       <c r="F233" s="2" t="n">
         <v>45235</v>
       </c>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr"/>
@@ -4810,6 +5510,8 @@
       <c r="F234" s="2" t="n">
         <v>45239</v>
       </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr"/>
@@ -4830,6 +5532,8 @@
       <c r="F235" s="2" t="n">
         <v>45237</v>
       </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr"/>
@@ -4850,6 +5554,8 @@
       <c r="F236" s="2" t="n">
         <v>45237</v>
       </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr"/>
@@ -4870,6 +5576,8 @@
       <c r="F237" s="2" t="n">
         <v>45254</v>
       </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr"/>
@@ -4890,6 +5598,8 @@
       <c r="F238" s="2" t="n">
         <v>45243</v>
       </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr"/>
@@ -4910,6 +5620,8 @@
       <c r="F239" s="2" t="n">
         <v>45258</v>
       </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr"/>
@@ -4930,6 +5642,8 @@
       <c r="F240" s="2" t="n">
         <v>45255</v>
       </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr"/>
@@ -4950,6 +5664,8 @@
       <c r="F241" s="2" t="n">
         <v>45237</v>
       </c>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr"/>
@@ -4970,6 +5686,8 @@
       <c r="F242" s="2" t="n">
         <v>45254</v>
       </c>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr"/>
@@ -4990,6 +5708,8 @@
       <c r="F243" s="2" t="n">
         <v>45246</v>
       </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr"/>
@@ -5010,6 +5730,8 @@
       <c r="F244" s="2" t="n">
         <v>45259</v>
       </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr"/>
@@ -5030,6 +5752,8 @@
       <c r="F245" s="2" t="n">
         <v>45254</v>
       </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr"/>
@@ -5050,6 +5774,8 @@
       <c r="F246" s="2" t="n">
         <v>45254</v>
       </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr"/>
@@ -5070,6 +5796,8 @@
       <c r="F247" s="2" t="n">
         <v>45259</v>
       </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr"/>
@@ -5090,6 +5818,8 @@
       <c r="F248" s="2" t="n">
         <v>45233</v>
       </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr"/>
@@ -5110,6 +5840,8 @@
       <c r="F249" s="2" t="n">
         <v>45252</v>
       </c>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr"/>
@@ -5130,6 +5862,8 @@
       <c r="F250" s="2" t="n">
         <v>45237</v>
       </c>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr"/>
@@ -5150,6 +5884,8 @@
       <c r="F251" s="2" t="n">
         <v>45259</v>
       </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr"/>
@@ -5170,6 +5906,8 @@
       <c r="F252" s="2" t="n">
         <v>45232</v>
       </c>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr"/>
@@ -5190,6 +5928,8 @@
       <c r="F253" s="2" t="n">
         <v>45241</v>
       </c>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr"/>
@@ -5210,6 +5950,8 @@
       <c r="F254" s="2" t="n">
         <v>45248</v>
       </c>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr"/>
@@ -5230,6 +5972,8 @@
       <c r="F255" s="2" t="n">
         <v>45239</v>
       </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr"/>
@@ -5250,6 +5994,8 @@
       <c r="F256" s="2" t="n">
         <v>45237</v>
       </c>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr"/>
@@ -5270,6 +6016,8 @@
       <c r="F257" s="2" t="n">
         <v>45231</v>
       </c>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr"/>
@@ -5290,6 +6038,8 @@
       <c r="F258" s="2" t="n">
         <v>45257</v>
       </c>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr"/>
@@ -5310,6 +6060,8 @@
       <c r="F259" s="2" t="n">
         <v>45251</v>
       </c>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr"/>
@@ -5330,6 +6082,8 @@
       <c r="F260" s="2" t="n">
         <v>45255</v>
       </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr"/>
@@ -5350,6 +6104,8 @@
       <c r="F261" s="2" t="n">
         <v>45257</v>
       </c>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr"/>
@@ -5370,6 +6126,8 @@
       <c r="F262" s="2" t="n">
         <v>45233</v>
       </c>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr"/>
@@ -5390,6 +6148,8 @@
       <c r="F263" s="2" t="n">
         <v>45241</v>
       </c>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr"/>
@@ -5410,6 +6170,8 @@
       <c r="F264" s="2" t="n">
         <v>45255</v>
       </c>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr"/>
@@ -5430,6 +6192,8 @@
       <c r="F265" s="2" t="n">
         <v>45256</v>
       </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr"/>
@@ -5450,6 +6214,8 @@
       <c r="F266" s="2" t="n">
         <v>45237</v>
       </c>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr"/>
@@ -5470,6 +6236,8 @@
       <c r="F267" s="2" t="n">
         <v>45242</v>
       </c>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr"/>
@@ -5490,6 +6258,8 @@
       <c r="F268" s="2" t="n">
         <v>45235</v>
       </c>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr"/>
@@ -5510,6 +6280,8 @@
       <c r="F269" s="2" t="n">
         <v>45260</v>
       </c>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr"/>
@@ -5530,6 +6302,8 @@
       <c r="F270" s="2" t="n">
         <v>45236</v>
       </c>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr"/>
@@ -5550,6 +6324,8 @@
       <c r="F271" s="2" t="n">
         <v>45247</v>
       </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr"/>
@@ -5570,6 +6346,8 @@
       <c r="F272" s="2" t="n">
         <v>45241</v>
       </c>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr"/>
@@ -5590,6 +6368,8 @@
       <c r="F273" s="2" t="n">
         <v>45238</v>
       </c>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr"/>
@@ -5610,6 +6390,8 @@
       <c r="F274" s="2" t="n">
         <v>45243</v>
       </c>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr"/>
@@ -5630,6 +6412,8 @@
       <c r="F275" s="2" t="n">
         <v>45260</v>
       </c>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr"/>
@@ -5650,6 +6434,8 @@
       <c r="F276" s="2" t="n">
         <v>45241</v>
       </c>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr"/>
@@ -5670,6 +6456,8 @@
       <c r="F277" s="2" t="n">
         <v>45233</v>
       </c>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr"/>
@@ -5690,6 +6478,8 @@
       <c r="F278" s="2" t="n">
         <v>45259</v>
       </c>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr"/>
@@ -5710,6 +6500,8 @@
       <c r="F279" s="2" t="n">
         <v>45245</v>
       </c>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr"/>
@@ -5730,6 +6522,8 @@
       <c r="F280" s="2" t="n">
         <v>45243</v>
       </c>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr"/>
@@ -5750,6 +6544,8 @@
       <c r="F281" s="2" t="n">
         <v>45231</v>
       </c>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr"/>
@@ -5770,6 +6566,8 @@
       <c r="F282" s="2" t="n">
         <v>45255</v>
       </c>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr"/>
@@ -5790,6 +6588,8 @@
       <c r="F283" s="2" t="n">
         <v>45246</v>
       </c>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr"/>
@@ -5810,6 +6610,8 @@
       <c r="F284" s="2" t="n">
         <v>45242</v>
       </c>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr"/>
@@ -5830,6 +6632,8 @@
       <c r="F285" s="2" t="n">
         <v>45234</v>
       </c>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr"/>
@@ -5850,6 +6654,8 @@
       <c r="F286" s="2" t="n">
         <v>45247</v>
       </c>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr"/>
@@ -5870,6 +6676,8 @@
       <c r="F287" s="2" t="n">
         <v>45244</v>
       </c>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr"/>
@@ -5890,6 +6698,8 @@
       <c r="F288" s="2" t="n">
         <v>45239</v>
       </c>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr"/>
@@ -5910,6 +6720,8 @@
       <c r="F289" s="2" t="n">
         <v>45253</v>
       </c>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr"/>
@@ -5930,6 +6742,8 @@
       <c r="F290" s="2" t="n">
         <v>45252</v>
       </c>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr"/>
@@ -5950,6 +6764,8 @@
       <c r="F291" s="2" t="n">
         <v>45254</v>
       </c>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr"/>
@@ -5970,6 +6786,8 @@
       <c r="F292" s="2" t="n">
         <v>45246</v>
       </c>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr"/>
@@ -5990,6 +6808,8 @@
       <c r="F293" s="2" t="n">
         <v>45255</v>
       </c>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr"/>
@@ -6010,6 +6830,8 @@
       <c r="F294" s="2" t="n">
         <v>45256</v>
       </c>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr"/>
@@ -6030,6 +6852,8 @@
       <c r="F295" s="2" t="n">
         <v>45236</v>
       </c>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr"/>
@@ -6048,6 +6872,8 @@
         <v>300</v>
       </c>
       <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr"/>
@@ -6066,6 +6892,8 @@
         <v>200</v>
       </c>
       <c r="F297" t="inlineStr"/>
+      <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr"/>
@@ -6084,6 +6912,8 @@
         <v>120</v>
       </c>
       <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr"/>
@@ -6102,6 +6932,8 @@
         <v>180</v>
       </c>
       <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr"/>
@@ -6120,6 +6952,8 @@
         <v>100</v>
       </c>
       <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr"/>
@@ -6138,6 +6972,8 @@
         <v>240</v>
       </c>
       <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr"/>
@@ -6156,6 +6992,8 @@
         <v>180</v>
       </c>
       <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr"/>
@@ -6174,6 +7012,8 @@
         <v>300</v>
       </c>
       <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr"/>
@@ -6192,6 +7032,8 @@
         <v>315</v>
       </c>
       <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr"/>
@@ -6210,6 +7052,8 @@
         <v>200</v>
       </c>
       <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr"/>
@@ -6228,6 +7072,8 @@
         <v>200</v>
       </c>
       <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr"/>
@@ -6246,6 +7092,8 @@
         <v>162</v>
       </c>
       <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr"/>
@@ -6264,6 +7112,8 @@
         <v>150</v>
       </c>
       <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr"/>
@@ -6282,6 +7132,8 @@
         <v>200</v>
       </c>
       <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr"/>
@@ -6300,6 +7152,8 @@
         <v>200</v>
       </c>
       <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr"/>
@@ -6318,6 +7172,8 @@
         <v>280</v>
       </c>
       <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr"/>
@@ -6336,6 +7192,8 @@
         <v>300</v>
       </c>
       <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr"/>
@@ -6354,6 +7212,8 @@
         <v>150</v>
       </c>
       <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr"/>
@@ -6372,6 +7232,8 @@
         <v>360</v>
       </c>
       <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr"/>
@@ -6390,6 +7252,8 @@
         <v>240</v>
       </c>
       <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr"/>
@@ -6408,6 +7272,8 @@
         <v>216</v>
       </c>
       <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr"/>
@@ -6426,6 +7292,8 @@
         <v>350</v>
       </c>
       <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr"/>
@@ -6444,6 +7312,8 @@
         <v>315</v>
       </c>
       <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr"/>
@@ -6462,6 +7332,8 @@
         <v>200</v>
       </c>
       <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr"/>
@@ -6480,6 +7352,8 @@
         <v>160</v>
       </c>
       <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
+      <c r="H320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr"/>
@@ -6498,6 +7372,8 @@
         <v>270</v>
       </c>
       <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr"/>
@@ -6516,6 +7392,8 @@
         <v>270</v>
       </c>
       <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr"/>
@@ -6534,6 +7412,8 @@
         <v>180</v>
       </c>
       <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr"/>
@@ -6552,6 +7432,8 @@
         <v>200</v>
       </c>
       <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr"/>
@@ -6570,6 +7452,8 @@
         <v>275</v>
       </c>
       <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr"/>
@@ -6588,6 +7472,8 @@
         <v>150</v>
       </c>
       <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr"/>
@@ -6606,6 +7492,8 @@
         <v>400</v>
       </c>
       <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr"/>
@@ -6624,6 +7512,8 @@
         <v>175</v>
       </c>
       <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr"/>
@@ -6642,6 +7532,8 @@
         <v>240</v>
       </c>
       <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr"/>
@@ -6660,6 +7552,8 @@
         <v>240</v>
       </c>
       <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr"/>
@@ -6678,6 +7572,8 @@
         <v>450</v>
       </c>
       <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr"/>
@@ -6696,6 +7592,8 @@
         <v>240</v>
       </c>
       <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr"/>
@@ -6714,6 +7612,8 @@
         <v>240</v>
       </c>
       <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr"/>
@@ -6732,6 +7632,8 @@
         <v>150</v>
       </c>
       <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr"/>
@@ -6750,6 +7652,8 @@
         <v>400</v>
       </c>
       <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr"/>
@@ -6768,6 +7672,8 @@
         <v>150</v>
       </c>
       <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr"/>
@@ -6786,6 +7692,8 @@
         <v>315</v>
       </c>
       <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr"/>
@@ -6804,6 +7712,8 @@
         <v>200</v>
       </c>
       <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr"/>
@@ -6822,6 +7732,8 @@
         <v>340</v>
       </c>
       <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr"/>
@@ -6840,6 +7752,8 @@
         <v>200</v>
       </c>
       <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr"/>
@@ -6858,6 +7772,8 @@
         <v>120</v>
       </c>
       <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr"/>
@@ -6876,6 +7792,8 @@
         <v>180</v>
       </c>
       <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr"/>
@@ -6894,6 +7812,8 @@
         <v>200</v>
       </c>
       <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr"/>
@@ -6912,6 +7832,8 @@
         <v>320</v>
       </c>
       <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr"/>
@@ -6930,6 +7852,8 @@
         <v>300</v>
       </c>
       <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr"/>
@@ -6948,6 +7872,8 @@
         <v>315</v>
       </c>
       <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr"/>
@@ -6966,6 +7892,8 @@
         <v>315</v>
       </c>
       <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr"/>
@@ -6984,6 +7912,8 @@
         <v>216</v>
       </c>
       <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr"/>
@@ -7002,6 +7932,8 @@
         <v>200</v>
       </c>
       <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr"/>
@@ -7020,6 +7952,8 @@
         <v>240</v>
       </c>
       <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr"/>
@@ -7038,6 +7972,8 @@
         <v>280</v>
       </c>
       <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr"/>
@@ -7056,6 +7992,8 @@
         <v>200</v>
       </c>
       <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr"/>
@@ -7074,6 +8012,8 @@
         <v>270</v>
       </c>
       <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr"/>
@@ -7092,6 +8032,8 @@
         <v>275</v>
       </c>
       <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr"/>
@@ -7110,6 +8052,8 @@
         <v>300</v>
       </c>
       <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr"/>
@@ -7128,6 +8072,8 @@
         <v>180</v>
       </c>
       <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr"/>
@@ -7146,6 +8092,8 @@
         <v>240</v>
       </c>
       <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr"/>
@@ -7164,6 +8112,8 @@
         <v>175</v>
       </c>
       <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr"/>
@@ -7182,6 +8132,8 @@
         <v>240</v>
       </c>
       <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr"/>
@@ -7200,6 +8152,8 @@
         <v>540</v>
       </c>
       <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr"/>
@@ -7218,6 +8172,8 @@
         <v>210</v>
       </c>
       <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr"/>
@@ -7236,6 +8192,8 @@
         <v>250</v>
       </c>
       <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr"/>
@@ -7254,6 +8212,8 @@
         <v>180</v>
       </c>
       <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr"/>
@@ -7272,6 +8232,8 @@
         <v>200</v>
       </c>
       <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr"/>
@@ -7290,6 +8252,8 @@
         <v>260</v>
       </c>
       <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr"/>
@@ -7308,6 +8272,8 @@
         <v>385</v>
       </c>
       <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr"/>
@@ -7326,6 +8292,8 @@
         <v>420</v>
       </c>
       <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr"/>
@@ -7344,6 +8312,8 @@
         <v>360</v>
       </c>
       <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr"/>
@@ -7362,6 +8332,8 @@
         <v>270</v>
       </c>
       <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr"/>
@@ -7380,6 +8352,8 @@
         <v>250</v>
       </c>
       <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H370"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,16 +468,6 @@
           <t>Fecha</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 5</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 6</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -498,8 +488,6 @@
         <v>300</v>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -520,8 +508,6 @@
         <v>375</v>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -542,8 +528,6 @@
         <v>500</v>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -564,8 +548,6 @@
         <v>300</v>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -586,8 +568,6 @@
         <v>375</v>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -608,8 +588,6 @@
         <v>500</v>
       </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -630,8 +608,6 @@
         <v>300</v>
       </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -652,8 +628,6 @@
         <v>375</v>
       </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -674,8 +648,6 @@
         <v>500</v>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -696,8 +668,6 @@
         <v>300</v>
       </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -718,8 +688,6 @@
         <v>375</v>
       </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -740,8 +708,6 @@
         <v>500</v>
       </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -762,8 +728,6 @@
         <v>300</v>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -784,8 +748,6 @@
         <v>375</v>
       </c>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -806,8 +768,6 @@
         <v>500</v>
       </c>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -828,8 +788,6 @@
         <v>300</v>
       </c>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -850,8 +808,6 @@
         <v>375</v>
       </c>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -872,8 +828,6 @@
         <v>500</v>
       </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -894,8 +848,6 @@
         <v>300</v>
       </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -916,8 +868,6 @@
         <v>375</v>
       </c>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -938,8 +888,6 @@
         <v>500</v>
       </c>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -960,8 +908,6 @@
         <v>300</v>
       </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -982,8 +928,6 @@
         <v>375</v>
       </c>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1004,8 +948,6 @@
         <v>500</v>
       </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1024,8 +966,6 @@
         <v>210</v>
       </c>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -1044,8 +984,6 @@
         <v>375</v>
       </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -1064,8 +1002,6 @@
         <v>500</v>
       </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -1084,8 +1020,6 @@
         <v>45</v>
       </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -1104,8 +1038,6 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1124,8 +1056,6 @@
         <v>700</v>
       </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -1144,8 +1074,6 @@
         <v>225</v>
       </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -1164,8 +1092,6 @@
         <v>250</v>
       </c>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -1184,8 +1110,6 @@
         <v>150</v>
       </c>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -1204,8 +1128,6 @@
         <v>14.99999999999994</v>
       </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -1224,8 +1146,6 @@
         <v>350</v>
       </c>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -1244,8 +1164,6 @@
         <v>750</v>
       </c>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -1264,8 +1182,6 @@
         <v>150</v>
       </c>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -1284,8 +1200,6 @@
         <v>75</v>
       </c>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -1304,8 +1218,6 @@
         <v>49.9999999999998</v>
       </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -1324,8 +1236,6 @@
         <v>210</v>
       </c>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -1344,8 +1254,6 @@
         <v>375</v>
       </c>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -1364,8 +1272,6 @@
         <v>500</v>
       </c>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -1384,8 +1290,6 @@
         <v>45</v>
       </c>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -1404,8 +1308,6 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -1424,8 +1326,6 @@
         <v>700</v>
       </c>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -1444,8 +1344,6 @@
         <v>225</v>
       </c>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -1464,8 +1362,6 @@
         <v>250</v>
       </c>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -1484,8 +1380,6 @@
         <v>150</v>
       </c>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -1504,8 +1398,6 @@
         <v>15</v>
       </c>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -1524,8 +1416,6 @@
         <v>100</v>
       </c>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -1544,8 +1434,6 @@
         <v>300</v>
       </c>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -1564,8 +1452,6 @@
         <v>135</v>
       </c>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -1584,8 +1470,6 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -1604,8 +1488,6 @@
         <v>50</v>
       </c>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -1624,8 +1506,6 @@
         <v>60</v>
       </c>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -1644,8 +1524,6 @@
         <v>150</v>
       </c>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -1664,8 +1542,6 @@
         <v>450</v>
       </c>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -1684,8 +1560,6 @@
         <v>14.99999999999994</v>
       </c>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -1704,8 +1578,6 @@
         <v>25</v>
       </c>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -1724,8 +1596,6 @@
         <v>200</v>
       </c>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -1744,8 +1614,6 @@
         <v>90</v>
       </c>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -1764,8 +1632,6 @@
         <v>225</v>
       </c>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -1784,8 +1650,6 @@
         <v>49.9999999999998</v>
       </c>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -1804,8 +1668,6 @@
         <v>15</v>
       </c>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -1824,8 +1686,6 @@
         <v>100</v>
       </c>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -1844,8 +1704,6 @@
         <v>300</v>
       </c>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -1864,8 +1722,6 @@
         <v>135</v>
       </c>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -1884,8 +1740,6 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -1904,8 +1758,6 @@
         <v>50</v>
       </c>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -1924,8 +1776,6 @@
         <v>60</v>
       </c>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -1944,8 +1794,6 @@
         <v>150</v>
       </c>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -1964,8 +1812,6 @@
         <v>450</v>
       </c>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -1986,10 +1832,6 @@
       <c r="F74" s="2" t="n">
         <v>45150</v>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" s="2" t="n">
-        <v>44927</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -2010,10 +1852,6 @@
       <c r="F75" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" s="2" t="n">
-        <v>45427</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -2034,8 +1872,6 @@
       <c r="F76" s="2" t="n">
         <v>44945</v>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -2056,8 +1892,6 @@
       <c r="F77" s="2" t="n">
         <v>45341</v>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -2078,8 +1912,6 @@
       <c r="F78" s="2" t="n">
         <v>45241</v>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -2100,8 +1932,6 @@
       <c r="F79" s="2" t="n">
         <v>45391</v>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -2122,8 +1952,6 @@
       <c r="F80" s="2" t="n">
         <v>44931</v>
       </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -2144,8 +1972,6 @@
       <c r="F81" s="2" t="n">
         <v>44996</v>
       </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -2166,8 +1992,6 @@
       <c r="F82" s="2" t="n">
         <v>45253</v>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -2188,8 +2012,6 @@
       <c r="F83" s="2" t="n">
         <v>45312</v>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -2210,8 +2032,6 @@
       <c r="F84" s="2" t="n">
         <v>45073</v>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -2232,8 +2052,6 @@
       <c r="F85" s="2" t="n">
         <v>45132</v>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -2254,8 +2072,6 @@
       <c r="F86" s="2" t="n">
         <v>45358</v>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -2276,8 +2092,6 @@
       <c r="F87" s="2" t="n">
         <v>45056</v>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -2298,8 +2112,6 @@
       <c r="F88" s="2" t="n">
         <v>45233</v>
       </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -2320,8 +2132,6 @@
       <c r="F89" s="2" t="n">
         <v>45001</v>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -2342,8 +2152,6 @@
       <c r="F90" s="2" t="n">
         <v>45177</v>
       </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -2364,8 +2172,6 @@
       <c r="F91" s="2" t="n">
         <v>45389</v>
       </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -2386,8 +2192,6 @@
       <c r="F92" s="2" t="n">
         <v>44981</v>
       </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -2408,8 +2212,6 @@
       <c r="F93" s="2" t="n">
         <v>45087</v>
       </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -2430,8 +2232,6 @@
       <c r="F94" s="2" t="n">
         <v>45069</v>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -2452,8 +2252,6 @@
       <c r="F95" s="2" t="n">
         <v>45189</v>
       </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -2474,8 +2272,6 @@
       <c r="F96" s="2" t="n">
         <v>45289</v>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -2496,8 +2292,6 @@
       <c r="F97" s="2" t="n">
         <v>45145</v>
       </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -2518,8 +2312,6 @@
       <c r="F98" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -2540,8 +2332,6 @@
       <c r="F99" s="2" t="n">
         <v>45288</v>
       </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -2562,8 +2352,6 @@
       <c r="F100" s="2" t="n">
         <v>45358</v>
       </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -2584,8 +2372,6 @@
       <c r="F101" s="2" t="n">
         <v>45187</v>
       </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -2606,8 +2392,6 @@
       <c r="F102" s="2" t="n">
         <v>45326</v>
       </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -2628,8 +2412,6 @@
       <c r="F103" s="2" t="n">
         <v>45273</v>
       </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -2650,8 +2432,6 @@
       <c r="F104" s="2" t="n">
         <v>44934</v>
       </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -2672,8 +2452,6 @@
       <c r="F105" s="2" t="n">
         <v>45280</v>
       </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -2694,8 +2472,6 @@
       <c r="F106" s="2" t="n">
         <v>45247</v>
       </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -2716,8 +2492,6 @@
       <c r="F107" s="2" t="n">
         <v>45109</v>
       </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -2738,8 +2512,6 @@
       <c r="F108" s="2" t="n">
         <v>45160</v>
       </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -2760,8 +2532,6 @@
       <c r="F109" s="2" t="n">
         <v>45225</v>
       </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -2782,8 +2552,6 @@
       <c r="F110" s="2" t="n">
         <v>45188</v>
       </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -2804,8 +2572,6 @@
       <c r="F111" s="2" t="n">
         <v>45319</v>
       </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -2826,8 +2592,6 @@
       <c r="F112" s="2" t="n">
         <v>45218</v>
       </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -2848,8 +2612,6 @@
       <c r="F113" s="2" t="n">
         <v>45111</v>
       </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -2870,8 +2632,6 @@
       <c r="F114" s="2" t="n">
         <v>45180</v>
       </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -2892,8 +2652,6 @@
       <c r="F115" s="2" t="n">
         <v>45361</v>
       </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -2914,8 +2672,6 @@
       <c r="F116" s="2" t="n">
         <v>45285</v>
       </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -2936,8 +2692,6 @@
       <c r="F117" s="2" t="n">
         <v>44945</v>
       </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -2958,8 +2712,6 @@
       <c r="F118" s="2" t="n">
         <v>45346</v>
       </c>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -2980,8 +2732,6 @@
       <c r="F119" s="2" t="n">
         <v>44941</v>
       </c>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -3002,8 +2752,6 @@
       <c r="F120" s="2" t="n">
         <v>45112</v>
       </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -3024,8 +2772,6 @@
       <c r="F121" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -3046,8 +2792,6 @@
       <c r="F122" s="2" t="n">
         <v>45267</v>
       </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -3068,8 +2812,6 @@
       <c r="F123" s="2" t="n">
         <v>45169</v>
       </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -3090,8 +2832,6 @@
       <c r="F124" s="2" t="n">
         <v>45058</v>
       </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
@@ -3112,8 +2852,6 @@
       <c r="F125" s="2" t="n">
         <v>45411</v>
       </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -3134,8 +2872,6 @@
       <c r="F126" s="2" t="n">
         <v>45115</v>
       </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -3156,8 +2892,6 @@
       <c r="F127" s="2" t="n">
         <v>45302</v>
       </c>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -3178,8 +2912,6 @@
       <c r="F128" s="2" t="n">
         <v>45134</v>
       </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -3200,8 +2932,6 @@
       <c r="F129" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -3222,8 +2952,6 @@
       <c r="F130" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -3244,8 +2972,6 @@
       <c r="F131" s="2" t="n">
         <v>45100</v>
       </c>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -3266,8 +2992,6 @@
       <c r="F132" s="2" t="n">
         <v>44981</v>
       </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -3288,8 +3012,6 @@
       <c r="F133" s="2" t="n">
         <v>45285</v>
       </c>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
@@ -3310,8 +3032,6 @@
       <c r="F134" s="2" t="n">
         <v>45092</v>
       </c>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -3332,8 +3052,6 @@
       <c r="F135" s="2" t="n">
         <v>45113</v>
       </c>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -3354,8 +3072,6 @@
       <c r="F136" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -3376,8 +3092,6 @@
       <c r="F137" s="2" t="n">
         <v>45042</v>
       </c>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -3398,8 +3112,6 @@
       <c r="F138" s="2" t="n">
         <v>45210</v>
       </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -3420,8 +3132,6 @@
       <c r="F139" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -3442,8 +3152,6 @@
       <c r="F140" s="2" t="n">
         <v>45180</v>
       </c>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -3464,8 +3172,6 @@
       <c r="F141" s="2" t="n">
         <v>45181</v>
       </c>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -3486,8 +3192,6 @@
       <c r="F142" s="2" t="n">
         <v>44965</v>
       </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -3508,8 +3212,6 @@
       <c r="F143" s="2" t="n">
         <v>45271</v>
       </c>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -3530,8 +3232,6 @@
       <c r="F144" s="2" t="n">
         <v>45173</v>
       </c>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -3552,8 +3252,6 @@
       <c r="F145" s="2" t="n">
         <v>44962</v>
       </c>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -3574,8 +3272,6 @@
       <c r="F146" s="2" t="n">
         <v>45087</v>
       </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -3596,8 +3292,6 @@
       <c r="F147" s="2" t="n">
         <v>45006</v>
       </c>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -3618,8 +3312,6 @@
       <c r="F148" s="2" t="n">
         <v>45054</v>
       </c>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -3640,8 +3332,6 @@
       <c r="F149" s="2" t="n">
         <v>45068</v>
       </c>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -3662,8 +3352,6 @@
       <c r="F150" s="2" t="n">
         <v>45299</v>
       </c>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -3684,8 +3372,6 @@
       <c r="F151" s="2" t="n">
         <v>44960</v>
       </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -3706,8 +3392,6 @@
       <c r="F152" s="2" t="n">
         <v>45102</v>
       </c>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -3728,8 +3412,6 @@
       <c r="F153" s="2" t="n">
         <v>45256</v>
       </c>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -3750,8 +3432,6 @@
       <c r="F154" s="2" t="n">
         <v>44948</v>
       </c>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -3772,8 +3452,6 @@
       <c r="F155" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -3794,8 +3472,6 @@
       <c r="F156" s="2" t="n">
         <v>45398</v>
       </c>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
@@ -3816,8 +3492,6 @@
       <c r="F157" s="2" t="n">
         <v>45310</v>
       </c>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr"/>
@@ -3838,8 +3512,6 @@
       <c r="F158" s="2" t="n">
         <v>45150</v>
       </c>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr"/>
@@ -3860,8 +3532,6 @@
       <c r="F159" s="2" t="n">
         <v>45421</v>
       </c>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr"/>
@@ -3882,8 +3552,6 @@
       <c r="F160" s="2" t="n">
         <v>45375</v>
       </c>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr"/>
@@ -3904,8 +3572,6 @@
       <c r="F161" s="2" t="n">
         <v>44959</v>
       </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
@@ -3926,8 +3592,6 @@
       <c r="F162" s="2" t="n">
         <v>45169</v>
       </c>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -3948,8 +3612,6 @@
       <c r="F163" s="2" t="n">
         <v>44987</v>
       </c>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
@@ -3970,8 +3632,6 @@
       <c r="F164" s="2" t="n">
         <v>45082</v>
       </c>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -3992,8 +3652,6 @@
       <c r="F165" s="2" t="n">
         <v>45171</v>
       </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
@@ -4014,8 +3672,6 @@
       <c r="F166" s="2" t="n">
         <v>45301</v>
       </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr"/>
@@ -4036,8 +3692,6 @@
       <c r="F167" s="2" t="n">
         <v>45303</v>
       </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr"/>
@@ -4058,8 +3712,6 @@
       <c r="F168" s="2" t="n">
         <v>45138</v>
       </c>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
@@ -4080,8 +3732,6 @@
       <c r="F169" s="2" t="n">
         <v>45294</v>
       </c>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
@@ -4102,8 +3752,6 @@
       <c r="F170" s="2" t="n">
         <v>45269</v>
       </c>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
@@ -4124,8 +3772,6 @@
       <c r="F171" s="2" t="n">
         <v>44937</v>
       </c>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr"/>
@@ -4146,8 +3792,6 @@
       <c r="F172" s="2" t="n">
         <v>45159</v>
       </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr"/>
@@ -4168,8 +3812,6 @@
       <c r="F173" s="2" t="n">
         <v>45423</v>
       </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr"/>
@@ -4190,8 +3832,6 @@
       <c r="F174" s="2" t="n">
         <v>45058</v>
       </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr"/>
@@ -4212,8 +3852,6 @@
       <c r="F175" s="2" t="n">
         <v>45037</v>
       </c>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr"/>
@@ -4234,8 +3872,6 @@
       <c r="F176" s="2" t="n">
         <v>45134</v>
       </c>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
@@ -4256,8 +3892,6 @@
       <c r="F177" s="2" t="n">
         <v>44964</v>
       </c>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr"/>
@@ -4278,8 +3912,6 @@
       <c r="F178" s="2" t="n">
         <v>44985</v>
       </c>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr"/>
@@ -4300,8 +3932,6 @@
       <c r="F179" s="2" t="n">
         <v>45411</v>
       </c>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
@@ -4322,8 +3952,6 @@
       <c r="F180" s="2" t="n">
         <v>45145</v>
       </c>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
@@ -4344,8 +3972,6 @@
       <c r="F181" s="2" t="n">
         <v>45007</v>
       </c>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr"/>
@@ -4366,8 +3992,6 @@
       <c r="F182" s="2" t="n">
         <v>45418</v>
       </c>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
@@ -4388,8 +4012,6 @@
       <c r="F183" s="2" t="n">
         <v>44996</v>
       </c>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr"/>
@@ -4410,8 +4032,6 @@
       <c r="F184" s="2" t="n">
         <v>44968</v>
       </c>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr"/>
@@ -4432,8 +4052,6 @@
       <c r="F185" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
@@ -4454,8 +4072,6 @@
       <c r="F186" s="2" t="n">
         <v>45232</v>
       </c>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
@@ -4476,8 +4092,6 @@
       <c r="F187" s="2" t="n">
         <v>45233</v>
       </c>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr"/>
@@ -4498,8 +4112,6 @@
       <c r="F188" s="2" t="n">
         <v>45234</v>
       </c>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
@@ -4520,8 +4132,6 @@
       <c r="F189" s="2" t="n">
         <v>45235</v>
       </c>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr"/>
@@ -4542,8 +4152,6 @@
       <c r="F190" s="2" t="n">
         <v>45236</v>
       </c>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr"/>
@@ -4564,8 +4172,6 @@
       <c r="F191" s="2" t="n">
         <v>45237</v>
       </c>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr"/>
@@ -4586,8 +4192,6 @@
       <c r="F192" s="2" t="n">
         <v>45238</v>
       </c>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr"/>
@@ -4608,8 +4212,6 @@
       <c r="F193" s="2" t="n">
         <v>45239</v>
       </c>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
@@ -4630,8 +4232,6 @@
       <c r="F194" s="2" t="n">
         <v>45240</v>
       </c>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
@@ -4652,8 +4252,6 @@
       <c r="F195" s="2" t="n">
         <v>45241</v>
       </c>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr"/>
@@ -4674,8 +4272,6 @@
       <c r="F196" s="2" t="n">
         <v>45242</v>
       </c>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr"/>
@@ -4696,8 +4292,6 @@
       <c r="F197" s="2" t="n">
         <v>45243</v>
       </c>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr"/>
@@ -4718,8 +4312,6 @@
       <c r="F198" s="2" t="n">
         <v>45244</v>
       </c>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr"/>
@@ -4740,8 +4332,6 @@
       <c r="F199" s="2" t="n">
         <v>45245</v>
       </c>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr"/>
@@ -4762,8 +4352,6 @@
       <c r="F200" s="2" t="n">
         <v>45246</v>
       </c>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr"/>
@@ -4784,8 +4372,6 @@
       <c r="F201" s="2" t="n">
         <v>45247</v>
       </c>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr"/>
@@ -4806,8 +4392,6 @@
       <c r="F202" s="2" t="n">
         <v>45248</v>
       </c>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
@@ -4828,8 +4412,6 @@
       <c r="F203" s="2" t="n">
         <v>45249</v>
       </c>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -4850,8 +4432,6 @@
       <c r="F204" s="2" t="n">
         <v>45250</v>
       </c>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
@@ -4872,8 +4452,6 @@
       <c r="F205" s="2" t="n">
         <v>45251</v>
       </c>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -4894,8 +4472,6 @@
       <c r="F206" s="2" t="n">
         <v>45252</v>
       </c>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
@@ -4916,8 +4492,6 @@
       <c r="F207" s="2" t="n">
         <v>45253</v>
       </c>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr"/>
@@ -4938,8 +4512,6 @@
       <c r="F208" s="2" t="n">
         <v>45254</v>
       </c>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr"/>
@@ -4960,8 +4532,6 @@
       <c r="F209" s="2" t="n">
         <v>45255</v>
       </c>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr"/>
@@ -4982,8 +4552,6 @@
       <c r="F210" s="2" t="n">
         <v>45256</v>
       </c>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr"/>
@@ -5004,8 +4572,6 @@
       <c r="F211" s="2" t="n">
         <v>45257</v>
       </c>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr"/>
@@ -5026,8 +4592,6 @@
       <c r="F212" s="2" t="n">
         <v>45258</v>
       </c>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr"/>
@@ -5048,8 +4612,6 @@
       <c r="F213" s="2" t="n">
         <v>45259</v>
       </c>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr"/>
@@ -5070,8 +4632,6 @@
       <c r="F214" s="2" t="n">
         <v>45260</v>
       </c>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr"/>
@@ -5092,8 +4652,6 @@
       <c r="F215" s="2" t="n">
         <v>45247</v>
       </c>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr"/>
@@ -5114,8 +4672,6 @@
       <c r="F216" s="2" t="n">
         <v>45242</v>
       </c>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr"/>
@@ -5136,8 +4692,6 @@
       <c r="F217" s="2" t="n">
         <v>45239</v>
       </c>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr"/>
@@ -5158,8 +4712,6 @@
       <c r="F218" s="2" t="n">
         <v>45255</v>
       </c>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr"/>
@@ -5180,8 +4732,6 @@
       <c r="F219" s="2" t="n">
         <v>45234</v>
       </c>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr"/>
@@ -5202,8 +4752,6 @@
       <c r="F220" s="2" t="n">
         <v>45247</v>
       </c>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr"/>
@@ -5224,8 +4772,6 @@
       <c r="F221" s="2" t="n">
         <v>45256</v>
       </c>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr"/>
@@ -5246,8 +4792,6 @@
       <c r="F222" s="2" t="n">
         <v>45246</v>
       </c>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr"/>
@@ -5268,8 +4812,6 @@
       <c r="F223" s="2" t="n">
         <v>45250</v>
       </c>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr"/>
@@ -5290,8 +4832,6 @@
       <c r="F224" s="2" t="n">
         <v>45244</v>
       </c>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr"/>
@@ -5312,8 +4852,6 @@
       <c r="F225" s="2" t="n">
         <v>45245</v>
       </c>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr"/>
@@ -5334,8 +4872,6 @@
       <c r="F226" s="2" t="n">
         <v>45258</v>
       </c>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr"/>
@@ -5356,8 +4892,6 @@
       <c r="F227" s="2" t="n">
         <v>45257</v>
       </c>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr"/>
@@ -5378,8 +4912,6 @@
       <c r="F228" s="2" t="n">
         <v>45249</v>
       </c>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr"/>
@@ -5400,8 +4932,6 @@
       <c r="F229" s="2" t="n">
         <v>45235</v>
       </c>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr"/>
@@ -5422,8 +4952,6 @@
       <c r="F230" s="2" t="n">
         <v>45253</v>
       </c>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr"/>
@@ -5444,8 +4972,6 @@
       <c r="F231" s="2" t="n">
         <v>45260</v>
       </c>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr"/>
@@ -5466,8 +4992,6 @@
       <c r="F232" s="2" t="n">
         <v>45256</v>
       </c>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr"/>
@@ -5488,8 +5012,6 @@
       <c r="F233" s="2" t="n">
         <v>45235</v>
       </c>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr"/>
@@ -5510,8 +5032,6 @@
       <c r="F234" s="2" t="n">
         <v>45239</v>
       </c>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr"/>
@@ -5532,8 +5052,6 @@
       <c r="F235" s="2" t="n">
         <v>45237</v>
       </c>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr"/>
@@ -5554,8 +5072,6 @@
       <c r="F236" s="2" t="n">
         <v>45237</v>
       </c>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr"/>
@@ -5576,8 +5092,6 @@
       <c r="F237" s="2" t="n">
         <v>45254</v>
       </c>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr"/>
@@ -5598,8 +5112,6 @@
       <c r="F238" s="2" t="n">
         <v>45243</v>
       </c>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr"/>
@@ -5620,8 +5132,6 @@
       <c r="F239" s="2" t="n">
         <v>45258</v>
       </c>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr"/>
@@ -5642,8 +5152,6 @@
       <c r="F240" s="2" t="n">
         <v>45255</v>
       </c>
-      <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr"/>
@@ -5664,8 +5172,6 @@
       <c r="F241" s="2" t="n">
         <v>45237</v>
       </c>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr"/>
@@ -5686,8 +5192,6 @@
       <c r="F242" s="2" t="n">
         <v>45254</v>
       </c>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr"/>
@@ -5708,8 +5212,6 @@
       <c r="F243" s="2" t="n">
         <v>45246</v>
       </c>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr"/>
@@ -5730,8 +5232,6 @@
       <c r="F244" s="2" t="n">
         <v>45259</v>
       </c>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr"/>
@@ -5752,8 +5252,6 @@
       <c r="F245" s="2" t="n">
         <v>45254</v>
       </c>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr"/>
@@ -5774,8 +5272,6 @@
       <c r="F246" s="2" t="n">
         <v>45254</v>
       </c>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr"/>
@@ -5796,8 +5292,6 @@
       <c r="F247" s="2" t="n">
         <v>45259</v>
       </c>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr"/>
@@ -5818,8 +5312,6 @@
       <c r="F248" s="2" t="n">
         <v>45233</v>
       </c>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr"/>
@@ -5840,8 +5332,6 @@
       <c r="F249" s="2" t="n">
         <v>45252</v>
       </c>
-      <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr"/>
@@ -5862,8 +5352,6 @@
       <c r="F250" s="2" t="n">
         <v>45237</v>
       </c>
-      <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr"/>
@@ -5884,8 +5372,6 @@
       <c r="F251" s="2" t="n">
         <v>45259</v>
       </c>
-      <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr"/>
@@ -5906,8 +5392,6 @@
       <c r="F252" s="2" t="n">
         <v>45232</v>
       </c>
-      <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr"/>
@@ -5928,8 +5412,6 @@
       <c r="F253" s="2" t="n">
         <v>45241</v>
       </c>
-      <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr"/>
@@ -5950,8 +5432,6 @@
       <c r="F254" s="2" t="n">
         <v>45248</v>
       </c>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr"/>
@@ -5972,8 +5452,6 @@
       <c r="F255" s="2" t="n">
         <v>45239</v>
       </c>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr"/>
@@ -5994,8 +5472,6 @@
       <c r="F256" s="2" t="n">
         <v>45237</v>
       </c>
-      <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr"/>
@@ -6016,8 +5492,6 @@
       <c r="F257" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="G257" t="inlineStr"/>
-      <c r="H257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr"/>
@@ -6038,8 +5512,6 @@
       <c r="F258" s="2" t="n">
         <v>45257</v>
       </c>
-      <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr"/>
@@ -6060,8 +5532,6 @@
       <c r="F259" s="2" t="n">
         <v>45251</v>
       </c>
-      <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr"/>
@@ -6082,8 +5552,6 @@
       <c r="F260" s="2" t="n">
         <v>45255</v>
       </c>
-      <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr"/>
@@ -6104,8 +5572,6 @@
       <c r="F261" s="2" t="n">
         <v>45257</v>
       </c>
-      <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr"/>
@@ -6126,8 +5592,6 @@
       <c r="F262" s="2" t="n">
         <v>45233</v>
       </c>
-      <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr"/>
@@ -6148,8 +5612,6 @@
       <c r="F263" s="2" t="n">
         <v>45241</v>
       </c>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr"/>
@@ -6170,8 +5632,6 @@
       <c r="F264" s="2" t="n">
         <v>45255</v>
       </c>
-      <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr"/>
@@ -6192,8 +5652,6 @@
       <c r="F265" s="2" t="n">
         <v>45256</v>
       </c>
-      <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr"/>
@@ -6214,8 +5672,6 @@
       <c r="F266" s="2" t="n">
         <v>45237</v>
       </c>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr"/>
@@ -6236,8 +5692,6 @@
       <c r="F267" s="2" t="n">
         <v>45242</v>
       </c>
-      <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr"/>
@@ -6258,8 +5712,6 @@
       <c r="F268" s="2" t="n">
         <v>45235</v>
       </c>
-      <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr"/>
@@ -6280,8 +5732,6 @@
       <c r="F269" s="2" t="n">
         <v>45260</v>
       </c>
-      <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr"/>
@@ -6302,8 +5752,6 @@
       <c r="F270" s="2" t="n">
         <v>45236</v>
       </c>
-      <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr"/>
@@ -6324,8 +5772,6 @@
       <c r="F271" s="2" t="n">
         <v>45247</v>
       </c>
-      <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr"/>
@@ -6346,8 +5792,6 @@
       <c r="F272" s="2" t="n">
         <v>45241</v>
       </c>
-      <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr"/>
@@ -6368,8 +5812,6 @@
       <c r="F273" s="2" t="n">
         <v>45238</v>
       </c>
-      <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr"/>
@@ -6390,8 +5832,6 @@
       <c r="F274" s="2" t="n">
         <v>45243</v>
       </c>
-      <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr"/>
@@ -6412,8 +5852,6 @@
       <c r="F275" s="2" t="n">
         <v>45260</v>
       </c>
-      <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr"/>
@@ -6434,8 +5872,6 @@
       <c r="F276" s="2" t="n">
         <v>45241</v>
       </c>
-      <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr"/>
@@ -6456,8 +5892,6 @@
       <c r="F277" s="2" t="n">
         <v>45233</v>
       </c>
-      <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr"/>
@@ -6478,8 +5912,6 @@
       <c r="F278" s="2" t="n">
         <v>45259</v>
       </c>
-      <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr"/>
@@ -6500,8 +5932,6 @@
       <c r="F279" s="2" t="n">
         <v>45245</v>
       </c>
-      <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr"/>
@@ -6522,8 +5952,6 @@
       <c r="F280" s="2" t="n">
         <v>45243</v>
       </c>
-      <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr"/>
@@ -6544,8 +5972,6 @@
       <c r="F281" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr"/>
@@ -6566,8 +5992,6 @@
       <c r="F282" s="2" t="n">
         <v>45255</v>
       </c>
-      <c r="G282" t="inlineStr"/>
-      <c r="H282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr"/>
@@ -6588,8 +6012,6 @@
       <c r="F283" s="2" t="n">
         <v>45246</v>
       </c>
-      <c r="G283" t="inlineStr"/>
-      <c r="H283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr"/>
@@ -6610,8 +6032,6 @@
       <c r="F284" s="2" t="n">
         <v>45242</v>
       </c>
-      <c r="G284" t="inlineStr"/>
-      <c r="H284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr"/>
@@ -6632,8 +6052,6 @@
       <c r="F285" s="2" t="n">
         <v>45234</v>
       </c>
-      <c r="G285" t="inlineStr"/>
-      <c r="H285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr"/>
@@ -6654,8 +6072,6 @@
       <c r="F286" s="2" t="n">
         <v>45247</v>
       </c>
-      <c r="G286" t="inlineStr"/>
-      <c r="H286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr"/>
@@ -6676,8 +6092,6 @@
       <c r="F287" s="2" t="n">
         <v>45244</v>
       </c>
-      <c r="G287" t="inlineStr"/>
-      <c r="H287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr"/>
@@ -6698,8 +6112,6 @@
       <c r="F288" s="2" t="n">
         <v>45239</v>
       </c>
-      <c r="G288" t="inlineStr"/>
-      <c r="H288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr"/>
@@ -6720,8 +6132,6 @@
       <c r="F289" s="2" t="n">
         <v>45253</v>
       </c>
-      <c r="G289" t="inlineStr"/>
-      <c r="H289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr"/>
@@ -6742,8 +6152,6 @@
       <c r="F290" s="2" t="n">
         <v>45252</v>
       </c>
-      <c r="G290" t="inlineStr"/>
-      <c r="H290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr"/>
@@ -6764,8 +6172,6 @@
       <c r="F291" s="2" t="n">
         <v>45254</v>
       </c>
-      <c r="G291" t="inlineStr"/>
-      <c r="H291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr"/>
@@ -6786,8 +6192,6 @@
       <c r="F292" s="2" t="n">
         <v>45246</v>
       </c>
-      <c r="G292" t="inlineStr"/>
-      <c r="H292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr"/>
@@ -6808,8 +6212,6 @@
       <c r="F293" s="2" t="n">
         <v>45255</v>
       </c>
-      <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr"/>
@@ -6830,8 +6232,6 @@
       <c r="F294" s="2" t="n">
         <v>45256</v>
       </c>
-      <c r="G294" t="inlineStr"/>
-      <c r="H294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr"/>
@@ -6852,8 +6252,6 @@
       <c r="F295" s="2" t="n">
         <v>45236</v>
       </c>
-      <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr"/>
@@ -6872,8 +6270,6 @@
         <v>300</v>
       </c>
       <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-      <c r="H296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr"/>
@@ -6892,8 +6288,6 @@
         <v>200</v>
       </c>
       <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-      <c r="H297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr"/>
@@ -6912,8 +6306,6 @@
         <v>120</v>
       </c>
       <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-      <c r="H298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr"/>
@@ -6932,8 +6324,6 @@
         <v>180</v>
       </c>
       <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-      <c r="H299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr"/>
@@ -6952,8 +6342,6 @@
         <v>100</v>
       </c>
       <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-      <c r="H300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr"/>
@@ -6972,8 +6360,6 @@
         <v>240</v>
       </c>
       <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-      <c r="H301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr"/>
@@ -6992,8 +6378,6 @@
         <v>180</v>
       </c>
       <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-      <c r="H302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr"/>
@@ -7012,8 +6396,6 @@
         <v>300</v>
       </c>
       <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-      <c r="H303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr"/>
@@ -7032,8 +6414,6 @@
         <v>315</v>
       </c>
       <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
-      <c r="H304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr"/>
@@ -7052,8 +6432,6 @@
         <v>200</v>
       </c>
       <c r="F305" t="inlineStr"/>
-      <c r="G305" t="inlineStr"/>
-      <c r="H305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr"/>
@@ -7072,8 +6450,6 @@
         <v>200</v>
       </c>
       <c r="F306" t="inlineStr"/>
-      <c r="G306" t="inlineStr"/>
-      <c r="H306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr"/>
@@ -7092,8 +6468,6 @@
         <v>162</v>
       </c>
       <c r="F307" t="inlineStr"/>
-      <c r="G307" t="inlineStr"/>
-      <c r="H307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr"/>
@@ -7112,8 +6486,6 @@
         <v>150</v>
       </c>
       <c r="F308" t="inlineStr"/>
-      <c r="G308" t="inlineStr"/>
-      <c r="H308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr"/>
@@ -7132,8 +6504,6 @@
         <v>200</v>
       </c>
       <c r="F309" t="inlineStr"/>
-      <c r="G309" t="inlineStr"/>
-      <c r="H309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr"/>
@@ -7152,8 +6522,6 @@
         <v>200</v>
       </c>
       <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr"/>
-      <c r="H310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr"/>
@@ -7172,8 +6540,6 @@
         <v>280</v>
       </c>
       <c r="F311" t="inlineStr"/>
-      <c r="G311" t="inlineStr"/>
-      <c r="H311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr"/>
@@ -7192,8 +6558,6 @@
         <v>300</v>
       </c>
       <c r="F312" t="inlineStr"/>
-      <c r="G312" t="inlineStr"/>
-      <c r="H312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr"/>
@@ -7212,8 +6576,6 @@
         <v>150</v>
       </c>
       <c r="F313" t="inlineStr"/>
-      <c r="G313" t="inlineStr"/>
-      <c r="H313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr"/>
@@ -7232,8 +6594,6 @@
         <v>360</v>
       </c>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr"/>
-      <c r="H314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr"/>
@@ -7252,8 +6612,6 @@
         <v>240</v>
       </c>
       <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr"/>
-      <c r="H315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr"/>
@@ -7272,8 +6630,6 @@
         <v>216</v>
       </c>
       <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr"/>
-      <c r="H316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr"/>
@@ -7292,8 +6648,6 @@
         <v>350</v>
       </c>
       <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr"/>
-      <c r="H317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr"/>
@@ -7312,8 +6666,6 @@
         <v>315</v>
       </c>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr"/>
-      <c r="H318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr"/>
@@ -7332,8 +6684,6 @@
         <v>200</v>
       </c>
       <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr"/>
-      <c r="H319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr"/>
@@ -7352,8 +6702,6 @@
         <v>160</v>
       </c>
       <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr"/>
-      <c r="H320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr"/>
@@ -7372,8 +6720,6 @@
         <v>270</v>
       </c>
       <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr"/>
-      <c r="H321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr"/>
@@ -7392,8 +6738,6 @@
         <v>270</v>
       </c>
       <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr"/>
-      <c r="H322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr"/>
@@ -7412,8 +6756,6 @@
         <v>180</v>
       </c>
       <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr"/>
-      <c r="H323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr"/>
@@ -7432,8 +6774,6 @@
         <v>200</v>
       </c>
       <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr"/>
-      <c r="H324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr"/>
@@ -7452,8 +6792,6 @@
         <v>275</v>
       </c>
       <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr"/>
-      <c r="H325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr"/>
@@ -7472,8 +6810,6 @@
         <v>150</v>
       </c>
       <c r="F326" t="inlineStr"/>
-      <c r="G326" t="inlineStr"/>
-      <c r="H326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr"/>
@@ -7492,8 +6828,6 @@
         <v>400</v>
       </c>
       <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr"/>
@@ -7512,8 +6846,6 @@
         <v>175</v>
       </c>
       <c r="F328" t="inlineStr"/>
-      <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr"/>
@@ -7532,8 +6864,6 @@
         <v>240</v>
       </c>
       <c r="F329" t="inlineStr"/>
-      <c r="G329" t="inlineStr"/>
-      <c r="H329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr"/>
@@ -7552,8 +6882,6 @@
         <v>240</v>
       </c>
       <c r="F330" t="inlineStr"/>
-      <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr"/>
@@ -7572,8 +6900,6 @@
         <v>450</v>
       </c>
       <c r="F331" t="inlineStr"/>
-      <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr"/>
@@ -7592,8 +6918,6 @@
         <v>240</v>
       </c>
       <c r="F332" t="inlineStr"/>
-      <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr"/>
@@ -7612,8 +6936,6 @@
         <v>240</v>
       </c>
       <c r="F333" t="inlineStr"/>
-      <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr"/>
@@ -7632,8 +6954,6 @@
         <v>150</v>
       </c>
       <c r="F334" t="inlineStr"/>
-      <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr"/>
@@ -7652,8 +6972,6 @@
         <v>400</v>
       </c>
       <c r="F335" t="inlineStr"/>
-      <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr"/>
@@ -7672,8 +6990,6 @@
         <v>150</v>
       </c>
       <c r="F336" t="inlineStr"/>
-      <c r="G336" t="inlineStr"/>
-      <c r="H336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr"/>
@@ -7692,8 +7008,6 @@
         <v>315</v>
       </c>
       <c r="F337" t="inlineStr"/>
-      <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr"/>
@@ -7712,8 +7026,6 @@
         <v>200</v>
       </c>
       <c r="F338" t="inlineStr"/>
-      <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr"/>
@@ -7732,8 +7044,6 @@
         <v>340</v>
       </c>
       <c r="F339" t="inlineStr"/>
-      <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr"/>
@@ -7752,8 +7062,6 @@
         <v>200</v>
       </c>
       <c r="F340" t="inlineStr"/>
-      <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr"/>
@@ -7772,8 +7080,6 @@
         <v>120</v>
       </c>
       <c r="F341" t="inlineStr"/>
-      <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr"/>
@@ -7792,8 +7098,6 @@
         <v>180</v>
       </c>
       <c r="F342" t="inlineStr"/>
-      <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr"/>
@@ -7812,8 +7116,6 @@
         <v>200</v>
       </c>
       <c r="F343" t="inlineStr"/>
-      <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr"/>
@@ -7832,8 +7134,6 @@
         <v>320</v>
       </c>
       <c r="F344" t="inlineStr"/>
-      <c r="G344" t="inlineStr"/>
-      <c r="H344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr"/>
@@ -7852,8 +7152,6 @@
         <v>300</v>
       </c>
       <c r="F345" t="inlineStr"/>
-      <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr"/>
@@ -7872,8 +7170,6 @@
         <v>315</v>
       </c>
       <c r="F346" t="inlineStr"/>
-      <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr"/>
@@ -7892,8 +7188,6 @@
         <v>315</v>
       </c>
       <c r="F347" t="inlineStr"/>
-      <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr"/>
@@ -7912,8 +7206,6 @@
         <v>216</v>
       </c>
       <c r="F348" t="inlineStr"/>
-      <c r="G348" t="inlineStr"/>
-      <c r="H348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr"/>
@@ -7932,8 +7224,6 @@
         <v>200</v>
       </c>
       <c r="F349" t="inlineStr"/>
-      <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr"/>
@@ -7952,8 +7242,6 @@
         <v>240</v>
       </c>
       <c r="F350" t="inlineStr"/>
-      <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr"/>
@@ -7972,8 +7260,6 @@
         <v>280</v>
       </c>
       <c r="F351" t="inlineStr"/>
-      <c r="G351" t="inlineStr"/>
-      <c r="H351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr"/>
@@ -7992,8 +7278,6 @@
         <v>200</v>
       </c>
       <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr"/>
@@ -8012,8 +7296,6 @@
         <v>270</v>
       </c>
       <c r="F353" t="inlineStr"/>
-      <c r="G353" t="inlineStr"/>
-      <c r="H353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr"/>
@@ -8032,8 +7314,6 @@
         <v>275</v>
       </c>
       <c r="F354" t="inlineStr"/>
-      <c r="G354" t="inlineStr"/>
-      <c r="H354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr"/>
@@ -8052,8 +7332,6 @@
         <v>300</v>
       </c>
       <c r="F355" t="inlineStr"/>
-      <c r="G355" t="inlineStr"/>
-      <c r="H355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr"/>
@@ -8072,8 +7350,6 @@
         <v>180</v>
       </c>
       <c r="F356" t="inlineStr"/>
-      <c r="G356" t="inlineStr"/>
-      <c r="H356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr"/>
@@ -8092,8 +7368,6 @@
         <v>240</v>
       </c>
       <c r="F357" t="inlineStr"/>
-      <c r="G357" t="inlineStr"/>
-      <c r="H357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr"/>
@@ -8112,8 +7386,6 @@
         <v>175</v>
       </c>
       <c r="F358" t="inlineStr"/>
-      <c r="G358" t="inlineStr"/>
-      <c r="H358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr"/>
@@ -8132,8 +7404,6 @@
         <v>240</v>
       </c>
       <c r="F359" t="inlineStr"/>
-      <c r="G359" t="inlineStr"/>
-      <c r="H359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr"/>
@@ -8152,8 +7422,6 @@
         <v>540</v>
       </c>
       <c r="F360" t="inlineStr"/>
-      <c r="G360" t="inlineStr"/>
-      <c r="H360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr"/>
@@ -8172,8 +7440,6 @@
         <v>210</v>
       </c>
       <c r="F361" t="inlineStr"/>
-      <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr"/>
@@ -8192,8 +7458,6 @@
         <v>250</v>
       </c>
       <c r="F362" t="inlineStr"/>
-      <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr"/>
@@ -8212,8 +7476,6 @@
         <v>180</v>
       </c>
       <c r="F363" t="inlineStr"/>
-      <c r="G363" t="inlineStr"/>
-      <c r="H363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr"/>
@@ -8232,8 +7494,6 @@
         <v>200</v>
       </c>
       <c r="F364" t="inlineStr"/>
-      <c r="G364" t="inlineStr"/>
-      <c r="H364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr"/>
@@ -8252,8 +7512,6 @@
         <v>260</v>
       </c>
       <c r="F365" t="inlineStr"/>
-      <c r="G365" t="inlineStr"/>
-      <c r="H365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr"/>
@@ -8272,8 +7530,6 @@
         <v>385</v>
       </c>
       <c r="F366" t="inlineStr"/>
-      <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr"/>
@@ -8292,8 +7548,6 @@
         <v>420</v>
       </c>
       <c r="F367" t="inlineStr"/>
-      <c r="G367" t="inlineStr"/>
-      <c r="H367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr"/>
@@ -8312,8 +7566,6 @@
         <v>360</v>
       </c>
       <c r="F368" t="inlineStr"/>
-      <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr"/>
@@ -8332,8 +7584,6 @@
         <v>270</v>
       </c>
       <c r="F369" t="inlineStr"/>
-      <c r="G369" t="inlineStr"/>
-      <c r="H369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr"/>
@@ -8352,8 +7602,6 @@
         <v>250</v>
       </c>
       <c r="F370" t="inlineStr"/>
-      <c r="G370" t="inlineStr"/>
-      <c r="H370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -1397,7 +1397,9 @@
       <c r="E50" t="n">
         <v>15</v>
       </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" s="2" t="n">
+        <v>44965</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -1415,7 +1417,9 @@
       <c r="E51" t="n">
         <v>100</v>
       </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" s="2" t="n">
+        <v>45232</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -1433,7 +1437,9 @@
       <c r="E52" t="n">
         <v>300</v>
       </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" s="2" t="n">
+        <v>44946</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -1451,7 +1457,9 @@
       <c r="E53" t="n">
         <v>135</v>
       </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" s="2" t="n">
+        <v>44983</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -1469,7 +1477,9 @@
       <c r="E54" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" s="2" t="n">
+        <v>45163</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -1487,7 +1497,9 @@
       <c r="E55" t="n">
         <v>50</v>
       </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" s="2" t="n">
+        <v>45399</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -1505,7 +1517,9 @@
       <c r="E56" t="n">
         <v>60</v>
       </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" s="2" t="n">
+        <v>45385</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -1523,7 +1537,9 @@
       <c r="E57" t="n">
         <v>150</v>
       </c>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" s="2" t="n">
+        <v>44971</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -1541,7 +1557,9 @@
       <c r="E58" t="n">
         <v>450</v>
       </c>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" s="2" t="n">
+        <v>45291</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -1559,7 +1577,9 @@
       <c r="E59" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" s="2" t="n">
+        <v>45027</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -1577,7 +1597,9 @@
       <c r="E60" t="n">
         <v>25</v>
       </c>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" s="2" t="n">
+        <v>44993</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -1595,7 +1617,9 @@
       <c r="E61" t="n">
         <v>200</v>
       </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" s="2" t="n">
+        <v>45097</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -1613,7 +1637,9 @@
       <c r="E62" t="n">
         <v>90</v>
       </c>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" s="2" t="n">
+        <v>45304</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -1631,7 +1657,9 @@
       <c r="E63" t="n">
         <v>225</v>
       </c>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" s="2" t="n">
+        <v>45388</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -1649,7 +1677,9 @@
       <c r="E64" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" s="2" t="n">
+        <v>44951</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -1667,7 +1697,9 @@
       <c r="E65" t="n">
         <v>15</v>
       </c>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" s="2" t="n">
+        <v>45301</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -1685,7 +1717,9 @@
       <c r="E66" t="n">
         <v>100</v>
       </c>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" s="2" t="n">
+        <v>45127</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -1703,7 +1737,9 @@
       <c r="E67" t="n">
         <v>300</v>
       </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" s="2" t="n">
+        <v>45350</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -1721,7 +1757,9 @@
       <c r="E68" t="n">
         <v>135</v>
       </c>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" s="2" t="n">
+        <v>45350</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -1739,7 +1777,9 @@
       <c r="E69" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" s="2" t="n">
+        <v>45055</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -1757,7 +1797,9 @@
       <c r="E70" t="n">
         <v>50</v>
       </c>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" s="2" t="n">
+        <v>45052</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -1775,7 +1817,9 @@
       <c r="E71" t="n">
         <v>60</v>
       </c>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" s="2" t="n">
+        <v>44967</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -1793,7 +1837,9 @@
       <c r="E72" t="n">
         <v>150</v>
       </c>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" s="2" t="n">
+        <v>45298</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -1811,7 +1857,9 @@
       <c r="E73" t="n">
         <v>450</v>
       </c>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" s="2" t="n">
+        <v>45120</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F370"/>
+  <dimension ref="A1:G370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Fcha</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Fecha</t>
         </is>
       </c>
@@ -488,6 +493,7 @@
         <v>300</v>
       </c>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -508,6 +514,7 @@
         <v>375</v>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -528,6 +535,7 @@
         <v>500</v>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -548,6 +556,7 @@
         <v>300</v>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -568,6 +577,7 @@
         <v>375</v>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -588,6 +598,7 @@
         <v>500</v>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -608,6 +619,7 @@
         <v>300</v>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -628,6 +640,7 @@
         <v>375</v>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -648,6 +661,7 @@
         <v>500</v>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -668,6 +682,7 @@
         <v>300</v>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -688,6 +703,7 @@
         <v>375</v>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -708,6 +724,7 @@
         <v>500</v>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -728,6 +745,7 @@
         <v>300</v>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -748,6 +766,7 @@
         <v>375</v>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -768,6 +787,7 @@
         <v>500</v>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -788,6 +808,7 @@
         <v>300</v>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -808,6 +829,7 @@
         <v>375</v>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -828,6 +850,7 @@
         <v>500</v>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -848,6 +871,7 @@
         <v>300</v>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -868,6 +892,7 @@
         <v>375</v>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -888,6 +913,7 @@
         <v>500</v>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -908,6 +934,7 @@
         <v>300</v>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -928,6 +955,7 @@
         <v>375</v>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -948,6 +976,7 @@
         <v>500</v>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -965,7 +994,10 @@
       <c r="E26" t="n">
         <v>210</v>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -983,7 +1015,10 @@
       <c r="E27" t="n">
         <v>375</v>
       </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -1001,7 +1036,10 @@
       <c r="E28" t="n">
         <v>500</v>
       </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -1019,7 +1057,10 @@
       <c r="E29" t="n">
         <v>45</v>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -1037,7 +1078,10 @@
       <c r="E30" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1055,7 +1099,10 @@
       <c r="E31" t="n">
         <v>700</v>
       </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" s="2" t="n">
+        <v>45151</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -1073,7 +1120,10 @@
       <c r="E32" t="n">
         <v>225</v>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" s="2" t="n">
+        <v>45116</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -1091,7 +1141,10 @@
       <c r="E33" t="n">
         <v>250</v>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -1109,7 +1162,10 @@
       <c r="E34" t="n">
         <v>150</v>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -1127,7 +1183,10 @@
       <c r="E35" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" s="2" t="n">
+        <v>45073</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -1145,7 +1204,10 @@
       <c r="E36" t="n">
         <v>350</v>
       </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -1163,7 +1225,10 @@
       <c r="E37" t="n">
         <v>750</v>
       </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -1181,7 +1246,10 @@
       <c r="E38" t="n">
         <v>150</v>
       </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" s="2" t="n">
+        <v>45041</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -1199,7 +1267,10 @@
       <c r="E39" t="n">
         <v>75</v>
       </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -1217,7 +1288,10 @@
       <c r="E40" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -1235,7 +1309,10 @@
       <c r="E41" t="n">
         <v>210</v>
       </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" s="2" t="n">
+        <v>45179</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -1253,7 +1330,10 @@
       <c r="E42" t="n">
         <v>375</v>
       </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -1271,7 +1351,10 @@
       <c r="E43" t="n">
         <v>500</v>
       </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -1289,7 +1372,10 @@
       <c r="E44" t="n">
         <v>45</v>
       </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -1307,7 +1393,10 @@
       <c r="E45" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -1325,7 +1414,10 @@
       <c r="E46" t="n">
         <v>700</v>
       </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -1343,7 +1435,10 @@
       <c r="E47" t="n">
         <v>225</v>
       </c>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -1361,7 +1456,10 @@
       <c r="E48" t="n">
         <v>250</v>
       </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -1379,7 +1477,10 @@
       <c r="E49" t="n">
         <v>150</v>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -1397,7 +1498,8 @@
       <c r="E50" t="n">
         <v>15</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" s="2" t="n">
         <v>44965</v>
       </c>
     </row>
@@ -1417,7 +1519,8 @@
       <c r="E51" t="n">
         <v>100</v>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" s="2" t="n">
         <v>45232</v>
       </c>
     </row>
@@ -1437,7 +1540,8 @@
       <c r="E52" t="n">
         <v>300</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" s="2" t="n">
         <v>44946</v>
       </c>
     </row>
@@ -1457,7 +1561,8 @@
       <c r="E53" t="n">
         <v>135</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" s="2" t="n">
         <v>44983</v>
       </c>
     </row>
@@ -1477,7 +1582,8 @@
       <c r="E54" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" s="2" t="n">
         <v>45163</v>
       </c>
     </row>
@@ -1497,7 +1603,8 @@
       <c r="E55" t="n">
         <v>50</v>
       </c>
-      <c r="F55" s="2" t="n">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" s="2" t="n">
         <v>45399</v>
       </c>
     </row>
@@ -1517,7 +1624,8 @@
       <c r="E56" t="n">
         <v>60</v>
       </c>
-      <c r="F56" s="2" t="n">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" s="2" t="n">
         <v>45385</v>
       </c>
     </row>
@@ -1537,7 +1645,8 @@
       <c r="E57" t="n">
         <v>150</v>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" s="2" t="n">
         <v>44971</v>
       </c>
     </row>
@@ -1557,7 +1666,8 @@
       <c r="E58" t="n">
         <v>450</v>
       </c>
-      <c r="F58" s="2" t="n">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" s="2" t="n">
         <v>45291</v>
       </c>
     </row>
@@ -1577,7 +1687,8 @@
       <c r="E59" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F59" s="2" t="n">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" s="2" t="n">
         <v>45027</v>
       </c>
     </row>
@@ -1597,7 +1708,8 @@
       <c r="E60" t="n">
         <v>25</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" s="2" t="n">
         <v>44993</v>
       </c>
     </row>
@@ -1617,7 +1729,8 @@
       <c r="E61" t="n">
         <v>200</v>
       </c>
-      <c r="F61" s="2" t="n">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" s="2" t="n">
         <v>45097</v>
       </c>
     </row>
@@ -1637,7 +1750,8 @@
       <c r="E62" t="n">
         <v>90</v>
       </c>
-      <c r="F62" s="2" t="n">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" s="2" t="n">
         <v>45304</v>
       </c>
     </row>
@@ -1657,7 +1771,8 @@
       <c r="E63" t="n">
         <v>225</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" s="2" t="n">
         <v>45388</v>
       </c>
     </row>
@@ -1677,7 +1792,8 @@
       <c r="E64" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" s="2" t="n">
         <v>44951</v>
       </c>
     </row>
@@ -1697,7 +1813,8 @@
       <c r="E65" t="n">
         <v>15</v>
       </c>
-      <c r="F65" s="2" t="n">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" s="2" t="n">
         <v>45301</v>
       </c>
     </row>
@@ -1717,7 +1834,8 @@
       <c r="E66" t="n">
         <v>100</v>
       </c>
-      <c r="F66" s="2" t="n">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" s="2" t="n">
         <v>45127</v>
       </c>
     </row>
@@ -1737,7 +1855,8 @@
       <c r="E67" t="n">
         <v>300</v>
       </c>
-      <c r="F67" s="2" t="n">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" s="2" t="n">
         <v>45350</v>
       </c>
     </row>
@@ -1757,7 +1876,8 @@
       <c r="E68" t="n">
         <v>135</v>
       </c>
-      <c r="F68" s="2" t="n">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" s="2" t="n">
         <v>45350</v>
       </c>
     </row>
@@ -1777,7 +1897,8 @@
       <c r="E69" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1797,7 +1918,8 @@
       <c r="E70" t="n">
         <v>50</v>
       </c>
-      <c r="F70" s="2" t="n">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" s="2" t="n">
         <v>45052</v>
       </c>
     </row>
@@ -1817,7 +1939,8 @@
       <c r="E71" t="n">
         <v>60</v>
       </c>
-      <c r="F71" s="2" t="n">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" s="2" t="n">
         <v>44967</v>
       </c>
     </row>
@@ -1837,7 +1960,8 @@
       <c r="E72" t="n">
         <v>150</v>
       </c>
-      <c r="F72" s="2" t="n">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" s="2" t="n">
         <v>45298</v>
       </c>
     </row>
@@ -1857,7 +1981,8 @@
       <c r="E73" t="n">
         <v>450</v>
       </c>
-      <c r="F73" s="2" t="n">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" s="2" t="n">
         <v>45120</v>
       </c>
     </row>
@@ -1877,7 +2002,8 @@
       <c r="E74" t="n">
         <v>15</v>
       </c>
-      <c r="F74" s="2" t="n">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" s="2" t="n">
         <v>45150</v>
       </c>
     </row>
@@ -1897,7 +2023,8 @@
       <c r="E75" t="n">
         <v>100</v>
       </c>
-      <c r="F75" s="2" t="n">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" s="2" t="n">
         <v>45078</v>
       </c>
     </row>
@@ -1917,7 +2044,8 @@
       <c r="E76" t="n">
         <v>300</v>
       </c>
-      <c r="F76" s="2" t="n">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" s="2" t="n">
         <v>44945</v>
       </c>
     </row>
@@ -1937,7 +2065,8 @@
       <c r="E77" t="n">
         <v>135</v>
       </c>
-      <c r="F77" s="2" t="n">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" s="2" t="n">
         <v>45341</v>
       </c>
     </row>
@@ -1957,7 +2086,8 @@
       <c r="E78" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F78" s="2" t="n">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" s="2" t="n">
         <v>45241</v>
       </c>
     </row>
@@ -1977,7 +2107,8 @@
       <c r="E79" t="n">
         <v>50</v>
       </c>
-      <c r="F79" s="2" t="n">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" s="2" t="n">
         <v>45391</v>
       </c>
     </row>
@@ -1997,7 +2128,8 @@
       <c r="E80" t="n">
         <v>60</v>
       </c>
-      <c r="F80" s="2" t="n">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" s="2" t="n">
         <v>44931</v>
       </c>
     </row>
@@ -2017,7 +2149,8 @@
       <c r="E81" t="n">
         <v>150</v>
       </c>
-      <c r="F81" s="2" t="n">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" s="2" t="n">
         <v>44996</v>
       </c>
     </row>
@@ -2037,7 +2170,8 @@
       <c r="E82" t="n">
         <v>450</v>
       </c>
-      <c r="F82" s="2" t="n">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" s="2" t="n">
         <v>45253</v>
       </c>
     </row>
@@ -2057,7 +2191,8 @@
       <c r="E83" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F83" s="2" t="n">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" s="2" t="n">
         <v>45312</v>
       </c>
     </row>
@@ -2077,7 +2212,8 @@
       <c r="E84" t="n">
         <v>25</v>
       </c>
-      <c r="F84" s="2" t="n">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" s="2" t="n">
         <v>45073</v>
       </c>
     </row>
@@ -2097,7 +2233,8 @@
       <c r="E85" t="n">
         <v>200</v>
       </c>
-      <c r="F85" s="2" t="n">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" s="2" t="n">
         <v>45132</v>
       </c>
     </row>
@@ -2117,7 +2254,8 @@
       <c r="E86" t="n">
         <v>90</v>
       </c>
-      <c r="F86" s="2" t="n">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" s="2" t="n">
         <v>45358</v>
       </c>
     </row>
@@ -2137,7 +2275,8 @@
       <c r="E87" t="n">
         <v>225</v>
       </c>
-      <c r="F87" s="2" t="n">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" s="2" t="n">
         <v>45056</v>
       </c>
     </row>
@@ -2157,7 +2296,8 @@
       <c r="E88" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F88" s="2" t="n">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" s="2" t="n">
         <v>45233</v>
       </c>
     </row>
@@ -2177,7 +2317,8 @@
       <c r="E89" t="n">
         <v>15</v>
       </c>
-      <c r="F89" s="2" t="n">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" s="2" t="n">
         <v>45001</v>
       </c>
     </row>
@@ -2197,7 +2338,8 @@
       <c r="E90" t="n">
         <v>100</v>
       </c>
-      <c r="F90" s="2" t="n">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" s="2" t="n">
         <v>45177</v>
       </c>
     </row>
@@ -2217,7 +2359,8 @@
       <c r="E91" t="n">
         <v>300</v>
       </c>
-      <c r="F91" s="2" t="n">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" s="2" t="n">
         <v>45389</v>
       </c>
     </row>
@@ -2237,7 +2380,8 @@
       <c r="E92" t="n">
         <v>135</v>
       </c>
-      <c r="F92" s="2" t="n">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" s="2" t="n">
         <v>44981</v>
       </c>
     </row>
@@ -2257,7 +2401,8 @@
       <c r="E93" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F93" s="2" t="n">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" s="2" t="n">
         <v>45087</v>
       </c>
     </row>
@@ -2277,7 +2422,8 @@
       <c r="E94" t="n">
         <v>50</v>
       </c>
-      <c r="F94" s="2" t="n">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" s="2" t="n">
         <v>45069</v>
       </c>
     </row>
@@ -2297,7 +2443,8 @@
       <c r="E95" t="n">
         <v>60</v>
       </c>
-      <c r="F95" s="2" t="n">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" s="2" t="n">
         <v>45189</v>
       </c>
     </row>
@@ -2317,7 +2464,8 @@
       <c r="E96" t="n">
         <v>150</v>
       </c>
-      <c r="F96" s="2" t="n">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" s="2" t="n">
         <v>45289</v>
       </c>
     </row>
@@ -2337,7 +2485,8 @@
       <c r="E97" t="n">
         <v>450</v>
       </c>
-      <c r="F97" s="2" t="n">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" s="2" t="n">
         <v>45145</v>
       </c>
     </row>
@@ -2357,7 +2506,8 @@
       <c r="E98" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F98" s="2" t="n">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" s="2" t="n">
         <v>45170</v>
       </c>
     </row>
@@ -2377,7 +2527,8 @@
       <c r="E99" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F99" s="2" t="n">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" s="2" t="n">
         <v>45288</v>
       </c>
     </row>
@@ -2397,7 +2548,8 @@
       <c r="E100" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F100" s="2" t="n">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" s="2" t="n">
         <v>45358</v>
       </c>
     </row>
@@ -2417,7 +2569,8 @@
       <c r="E101" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F101" s="2" t="n">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" s="2" t="n">
         <v>45187</v>
       </c>
     </row>
@@ -2437,7 +2590,8 @@
       <c r="E102" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F102" s="2" t="n">
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" s="2" t="n">
         <v>45326</v>
       </c>
     </row>
@@ -2457,7 +2611,8 @@
       <c r="E103" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F103" s="2" t="n">
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" s="2" t="n">
         <v>45273</v>
       </c>
     </row>
@@ -2477,7 +2632,8 @@
       <c r="E104" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F104" s="2" t="n">
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" s="2" t="n">
         <v>44934</v>
       </c>
     </row>
@@ -2497,7 +2653,8 @@
       <c r="E105" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F105" s="2" t="n">
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" s="2" t="n">
         <v>45280</v>
       </c>
     </row>
@@ -2517,7 +2674,8 @@
       <c r="E106" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F106" s="2" t="n">
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" s="2" t="n">
         <v>45247</v>
       </c>
     </row>
@@ -2537,7 +2695,8 @@
       <c r="E107" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F107" s="2" t="n">
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" s="2" t="n">
         <v>45109</v>
       </c>
     </row>
@@ -2557,7 +2716,8 @@
       <c r="E108" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F108" s="2" t="n">
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" s="2" t="n">
         <v>45160</v>
       </c>
     </row>
@@ -2577,7 +2737,8 @@
       <c r="E109" t="n">
         <v>441</v>
       </c>
-      <c r="F109" s="2" t="n">
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" s="2" t="n">
         <v>45225</v>
       </c>
     </row>
@@ -2597,7 +2758,8 @@
       <c r="E110" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F110" s="2" t="n">
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" s="2" t="n">
         <v>45188</v>
       </c>
     </row>
@@ -2617,7 +2779,8 @@
       <c r="E111" t="n">
         <v>15</v>
       </c>
-      <c r="F111" s="2" t="n">
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" s="2" t="n">
         <v>45319</v>
       </c>
     </row>
@@ -2637,7 +2800,8 @@
       <c r="E112" t="n">
         <v>100</v>
       </c>
-      <c r="F112" s="2" t="n">
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" s="2" t="n">
         <v>45218</v>
       </c>
     </row>
@@ -2657,7 +2821,8 @@
       <c r="E113" t="n">
         <v>300</v>
       </c>
-      <c r="F113" s="2" t="n">
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" s="2" t="n">
         <v>45111</v>
       </c>
     </row>
@@ -2677,7 +2842,8 @@
       <c r="E114" t="n">
         <v>135</v>
       </c>
-      <c r="F114" s="2" t="n">
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" s="2" t="n">
         <v>45180</v>
       </c>
     </row>
@@ -2697,7 +2863,8 @@
       <c r="E115" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F115" s="2" t="n">
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" s="2" t="n">
         <v>45361</v>
       </c>
     </row>
@@ -2717,7 +2884,8 @@
       <c r="E116" t="n">
         <v>50</v>
       </c>
-      <c r="F116" s="2" t="n">
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" s="2" t="n">
         <v>45285</v>
       </c>
     </row>
@@ -2737,7 +2905,8 @@
       <c r="E117" t="n">
         <v>60</v>
       </c>
-      <c r="F117" s="2" t="n">
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" s="2" t="n">
         <v>44945</v>
       </c>
     </row>
@@ -2757,7 +2926,8 @@
       <c r="E118" t="n">
         <v>150</v>
       </c>
-      <c r="F118" s="2" t="n">
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" s="2" t="n">
         <v>45346</v>
       </c>
     </row>
@@ -2777,7 +2947,8 @@
       <c r="E119" t="n">
         <v>450</v>
       </c>
-      <c r="F119" s="2" t="n">
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" s="2" t="n">
         <v>44941</v>
       </c>
     </row>
@@ -2797,7 +2968,8 @@
       <c r="E120" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F120" s="2" t="n">
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" s="2" t="n">
         <v>45112</v>
       </c>
     </row>
@@ -2817,7 +2989,8 @@
       <c r="E121" t="n">
         <v>25</v>
       </c>
-      <c r="F121" s="2" t="n">
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" s="2" t="n">
         <v>45327</v>
       </c>
     </row>
@@ -2837,7 +3010,8 @@
       <c r="E122" t="n">
         <v>200</v>
       </c>
-      <c r="F122" s="2" t="n">
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" s="2" t="n">
         <v>45267</v>
       </c>
     </row>
@@ -2857,7 +3031,8 @@
       <c r="E123" t="n">
         <v>90</v>
       </c>
-      <c r="F123" s="2" t="n">
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" s="2" t="n">
         <v>45169</v>
       </c>
     </row>
@@ -2877,7 +3052,8 @@
       <c r="E124" t="n">
         <v>225</v>
       </c>
-      <c r="F124" s="2" t="n">
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" s="2" t="n">
         <v>45058</v>
       </c>
     </row>
@@ -2897,7 +3073,8 @@
       <c r="E125" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F125" s="2" t="n">
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" s="2" t="n">
         <v>45411</v>
       </c>
     </row>
@@ -2917,7 +3094,8 @@
       <c r="E126" t="n">
         <v>15</v>
       </c>
-      <c r="F126" s="2" t="n">
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" s="2" t="n">
         <v>45115</v>
       </c>
     </row>
@@ -2937,7 +3115,8 @@
       <c r="E127" t="n">
         <v>100</v>
       </c>
-      <c r="F127" s="2" t="n">
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" s="2" t="n">
         <v>45302</v>
       </c>
     </row>
@@ -2957,7 +3136,8 @@
       <c r="E128" t="n">
         <v>300</v>
       </c>
-      <c r="F128" s="2" t="n">
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" s="2" t="n">
         <v>45134</v>
       </c>
     </row>
@@ -2977,7 +3157,8 @@
       <c r="E129" t="n">
         <v>135</v>
       </c>
-      <c r="F129" s="2" t="n">
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" s="2" t="n">
         <v>45017</v>
       </c>
     </row>
@@ -2997,7 +3178,8 @@
       <c r="E130" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F130" s="2" t="n">
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" s="2" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -3017,7 +3199,8 @@
       <c r="E131" t="n">
         <v>50</v>
       </c>
-      <c r="F131" s="2" t="n">
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" s="2" t="n">
         <v>45100</v>
       </c>
     </row>
@@ -3037,7 +3220,8 @@
       <c r="E132" t="n">
         <v>60</v>
       </c>
-      <c r="F132" s="2" t="n">
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" s="2" t="n">
         <v>44981</v>
       </c>
     </row>
@@ -3057,7 +3241,8 @@
       <c r="E133" t="n">
         <v>150</v>
       </c>
-      <c r="F133" s="2" t="n">
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" s="2" t="n">
         <v>45285</v>
       </c>
     </row>
@@ -3077,7 +3262,8 @@
       <c r="E134" t="n">
         <v>450</v>
       </c>
-      <c r="F134" s="2" t="n">
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" s="2" t="n">
         <v>45092</v>
       </c>
     </row>
@@ -3097,7 +3283,8 @@
       <c r="E135" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F135" s="2" t="n">
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" s="2" t="n">
         <v>45113</v>
       </c>
     </row>
@@ -3117,7 +3304,8 @@
       <c r="E136" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F136" s="2" t="n">
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" s="2" t="n">
         <v>44959</v>
       </c>
     </row>
@@ -3137,7 +3325,8 @@
       <c r="E137" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F137" s="2" t="n">
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" s="2" t="n">
         <v>45042</v>
       </c>
     </row>
@@ -3157,7 +3346,8 @@
       <c r="E138" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F138" s="2" t="n">
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" s="2" t="n">
         <v>45210</v>
       </c>
     </row>
@@ -3177,7 +3367,8 @@
       <c r="E139" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F139" s="2" t="n">
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" s="2" t="n">
         <v>45029</v>
       </c>
     </row>
@@ -3197,7 +3388,8 @@
       <c r="E140" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F140" s="2" t="n">
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" s="2" t="n">
         <v>45180</v>
       </c>
     </row>
@@ -3217,7 +3409,8 @@
       <c r="E141" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F141" s="2" t="n">
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" s="2" t="n">
         <v>45181</v>
       </c>
     </row>
@@ -3237,7 +3430,8 @@
       <c r="E142" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F142" s="2" t="n">
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" s="2" t="n">
         <v>44965</v>
       </c>
     </row>
@@ -3257,7 +3451,8 @@
       <c r="E143" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F143" s="2" t="n">
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" s="2" t="n">
         <v>45271</v>
       </c>
     </row>
@@ -3277,7 +3472,8 @@
       <c r="E144" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F144" s="2" t="n">
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" s="2" t="n">
         <v>45173</v>
       </c>
     </row>
@@ -3297,7 +3493,8 @@
       <c r="E145" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F145" s="2" t="n">
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" s="2" t="n">
         <v>44962</v>
       </c>
     </row>
@@ -3317,7 +3514,8 @@
       <c r="E146" t="n">
         <v>441</v>
       </c>
-      <c r="F146" s="2" t="n">
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" s="2" t="n">
         <v>45087</v>
       </c>
     </row>
@@ -3337,7 +3535,8 @@
       <c r="E147" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F147" s="2" t="n">
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" s="2" t="n">
         <v>45006</v>
       </c>
     </row>
@@ -3357,7 +3556,8 @@
       <c r="E148" t="n">
         <v>15</v>
       </c>
-      <c r="F148" s="2" t="n">
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" s="2" t="n">
         <v>45054</v>
       </c>
     </row>
@@ -3377,7 +3577,8 @@
       <c r="E149" t="n">
         <v>100</v>
       </c>
-      <c r="F149" s="2" t="n">
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" s="2" t="n">
         <v>45068</v>
       </c>
     </row>
@@ -3397,7 +3598,8 @@
       <c r="E150" t="n">
         <v>300</v>
       </c>
-      <c r="F150" s="2" t="n">
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" s="2" t="n">
         <v>45299</v>
       </c>
     </row>
@@ -3417,7 +3619,8 @@
       <c r="E151" t="n">
         <v>135</v>
       </c>
-      <c r="F151" s="2" t="n">
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" s="2" t="n">
         <v>44960</v>
       </c>
     </row>
@@ -3437,7 +3640,8 @@
       <c r="E152" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F152" s="2" t="n">
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" s="2" t="n">
         <v>45102</v>
       </c>
     </row>
@@ -3457,7 +3661,8 @@
       <c r="E153" t="n">
         <v>50</v>
       </c>
-      <c r="F153" s="2" t="n">
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" s="2" t="n">
         <v>45256</v>
       </c>
     </row>
@@ -3477,7 +3682,8 @@
       <c r="E154" t="n">
         <v>60</v>
       </c>
-      <c r="F154" s="2" t="n">
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" s="2" t="n">
         <v>44948</v>
       </c>
     </row>
@@ -3497,7 +3703,8 @@
       <c r="E155" t="n">
         <v>150</v>
       </c>
-      <c r="F155" s="2" t="n">
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" s="2" t="n">
         <v>45327</v>
       </c>
     </row>
@@ -3517,7 +3724,8 @@
       <c r="E156" t="n">
         <v>450</v>
       </c>
-      <c r="F156" s="2" t="n">
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" s="2" t="n">
         <v>45398</v>
       </c>
     </row>
@@ -3537,7 +3745,8 @@
       <c r="E157" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F157" s="2" t="n">
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" s="2" t="n">
         <v>45310</v>
       </c>
     </row>
@@ -3557,7 +3766,8 @@
       <c r="E158" t="n">
         <v>25</v>
       </c>
-      <c r="F158" s="2" t="n">
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" s="2" t="n">
         <v>45150</v>
       </c>
     </row>
@@ -3577,7 +3787,8 @@
       <c r="E159" t="n">
         <v>200</v>
       </c>
-      <c r="F159" s="2" t="n">
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" s="2" t="n">
         <v>45421</v>
       </c>
     </row>
@@ -3597,7 +3808,8 @@
       <c r="E160" t="n">
         <v>90</v>
       </c>
-      <c r="F160" s="2" t="n">
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" s="2" t="n">
         <v>45375</v>
       </c>
     </row>
@@ -3617,7 +3829,8 @@
       <c r="E161" t="n">
         <v>225</v>
       </c>
-      <c r="F161" s="2" t="n">
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" s="2" t="n">
         <v>44959</v>
       </c>
     </row>
@@ -3637,7 +3850,8 @@
       <c r="E162" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F162" s="2" t="n">
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" s="2" t="n">
         <v>45169</v>
       </c>
     </row>
@@ -3657,7 +3871,8 @@
       <c r="E163" t="n">
         <v>15</v>
       </c>
-      <c r="F163" s="2" t="n">
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" s="2" t="n">
         <v>44987</v>
       </c>
     </row>
@@ -3677,7 +3892,8 @@
       <c r="E164" t="n">
         <v>100</v>
       </c>
-      <c r="F164" s="2" t="n">
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" s="2" t="n">
         <v>45082</v>
       </c>
     </row>
@@ -3697,7 +3913,8 @@
       <c r="E165" t="n">
         <v>300</v>
       </c>
-      <c r="F165" s="2" t="n">
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" s="2" t="n">
         <v>45171</v>
       </c>
     </row>
@@ -3717,7 +3934,8 @@
       <c r="E166" t="n">
         <v>135</v>
       </c>
-      <c r="F166" s="2" t="n">
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" s="2" t="n">
         <v>45301</v>
       </c>
     </row>
@@ -3737,7 +3955,8 @@
       <c r="E167" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F167" s="2" t="n">
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" s="2" t="n">
         <v>45303</v>
       </c>
     </row>
@@ -3757,7 +3976,8 @@
       <c r="E168" t="n">
         <v>50</v>
       </c>
-      <c r="F168" s="2" t="n">
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" s="2" t="n">
         <v>45138</v>
       </c>
     </row>
@@ -3777,7 +3997,8 @@
       <c r="E169" t="n">
         <v>60</v>
       </c>
-      <c r="F169" s="2" t="n">
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" s="2" t="n">
         <v>45294</v>
       </c>
     </row>
@@ -3797,7 +4018,8 @@
       <c r="E170" t="n">
         <v>150</v>
       </c>
-      <c r="F170" s="2" t="n">
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" s="2" t="n">
         <v>45269</v>
       </c>
     </row>
@@ -3817,7 +4039,8 @@
       <c r="E171" t="n">
         <v>450</v>
       </c>
-      <c r="F171" s="2" t="n">
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" s="2" t="n">
         <v>44937</v>
       </c>
     </row>
@@ -3837,7 +4060,8 @@
       <c r="E172" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F172" s="2" t="n">
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" s="2" t="n">
         <v>45159</v>
       </c>
     </row>
@@ -3857,7 +4081,8 @@
       <c r="E173" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F173" s="2" t="n">
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" s="2" t="n">
         <v>45423</v>
       </c>
     </row>
@@ -3877,7 +4102,8 @@
       <c r="E174" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F174" s="2" t="n">
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" s="2" t="n">
         <v>45058</v>
       </c>
     </row>
@@ -3897,7 +4123,8 @@
       <c r="E175" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F175" s="2" t="n">
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" s="2" t="n">
         <v>45037</v>
       </c>
     </row>
@@ -3917,7 +4144,8 @@
       <c r="E176" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F176" s="2" t="n">
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" s="2" t="n">
         <v>45134</v>
       </c>
     </row>
@@ -3937,7 +4165,8 @@
       <c r="E177" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F177" s="2" t="n">
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" s="2" t="n">
         <v>44964</v>
       </c>
     </row>
@@ -3957,7 +4186,8 @@
       <c r="E178" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F178" s="2" t="n">
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" s="2" t="n">
         <v>44985</v>
       </c>
     </row>
@@ -3977,7 +4207,8 @@
       <c r="E179" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F179" s="2" t="n">
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" s="2" t="n">
         <v>45411</v>
       </c>
     </row>
@@ -3997,7 +4228,8 @@
       <c r="E180" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F180" s="2" t="n">
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" s="2" t="n">
         <v>45145</v>
       </c>
     </row>
@@ -4017,7 +4249,8 @@
       <c r="E181" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F181" s="2" t="n">
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" s="2" t="n">
         <v>45007</v>
       </c>
     </row>
@@ -4037,7 +4270,8 @@
       <c r="E182" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F182" s="2" t="n">
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" s="2" t="n">
         <v>45418</v>
       </c>
     </row>
@@ -4057,7 +4291,8 @@
       <c r="E183" t="n">
         <v>441</v>
       </c>
-      <c r="F183" s="2" t="n">
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" s="2" t="n">
         <v>44996</v>
       </c>
     </row>
@@ -4077,7 +4312,8 @@
       <c r="E184" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F184" s="2" t="n">
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" s="2" t="n">
         <v>44968</v>
       </c>
     </row>
@@ -4097,7 +4333,8 @@
       <c r="E185" t="n">
         <v>15</v>
       </c>
-      <c r="F185" s="2" t="n">
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" s="2" t="n">
         <v>45231</v>
       </c>
     </row>
@@ -4117,7 +4354,8 @@
       <c r="E186" t="n">
         <v>100</v>
       </c>
-      <c r="F186" s="2" t="n">
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" s="2" t="n">
         <v>45232</v>
       </c>
     </row>
@@ -4137,7 +4375,8 @@
       <c r="E187" t="n">
         <v>300</v>
       </c>
-      <c r="F187" s="2" t="n">
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" s="2" t="n">
         <v>45233</v>
       </c>
     </row>
@@ -4157,7 +4396,8 @@
       <c r="E188" t="n">
         <v>135</v>
       </c>
-      <c r="F188" s="2" t="n">
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" s="2" t="n">
         <v>45234</v>
       </c>
     </row>
@@ -4177,7 +4417,8 @@
       <c r="E189" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F189" s="2" t="n">
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" s="2" t="n">
         <v>45235</v>
       </c>
     </row>
@@ -4197,7 +4438,8 @@
       <c r="E190" t="n">
         <v>50</v>
       </c>
-      <c r="F190" s="2" t="n">
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" s="2" t="n">
         <v>45236</v>
       </c>
     </row>
@@ -4217,7 +4459,8 @@
       <c r="E191" t="n">
         <v>60</v>
       </c>
-      <c r="F191" s="2" t="n">
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" s="2" t="n">
         <v>45237</v>
       </c>
     </row>
@@ -4237,7 +4480,8 @@
       <c r="E192" t="n">
         <v>150</v>
       </c>
-      <c r="F192" s="2" t="n">
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" s="2" t="n">
         <v>45238</v>
       </c>
     </row>
@@ -4257,7 +4501,8 @@
       <c r="E193" t="n">
         <v>450</v>
       </c>
-      <c r="F193" s="2" t="n">
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" s="2" t="n">
         <v>45239</v>
       </c>
     </row>
@@ -4277,7 +4522,8 @@
       <c r="E194" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F194" s="2" t="n">
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" s="2" t="n">
         <v>45240</v>
       </c>
     </row>
@@ -4297,7 +4543,8 @@
       <c r="E195" t="n">
         <v>25</v>
       </c>
-      <c r="F195" s="2" t="n">
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" s="2" t="n">
         <v>45241</v>
       </c>
     </row>
@@ -4317,7 +4564,8 @@
       <c r="E196" t="n">
         <v>200</v>
       </c>
-      <c r="F196" s="2" t="n">
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" s="2" t="n">
         <v>45242</v>
       </c>
     </row>
@@ -4337,7 +4585,8 @@
       <c r="E197" t="n">
         <v>90</v>
       </c>
-      <c r="F197" s="2" t="n">
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" s="2" t="n">
         <v>45243</v>
       </c>
     </row>
@@ -4357,7 +4606,8 @@
       <c r="E198" t="n">
         <v>225</v>
       </c>
-      <c r="F198" s="2" t="n">
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" s="2" t="n">
         <v>45244</v>
       </c>
     </row>
@@ -4377,7 +4627,8 @@
       <c r="E199" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F199" s="2" t="n">
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" s="2" t="n">
         <v>45245</v>
       </c>
     </row>
@@ -4397,7 +4648,8 @@
       <c r="E200" t="n">
         <v>15</v>
       </c>
-      <c r="F200" s="2" t="n">
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" s="2" t="n">
         <v>45246</v>
       </c>
     </row>
@@ -4417,7 +4669,8 @@
       <c r="E201" t="n">
         <v>100</v>
       </c>
-      <c r="F201" s="2" t="n">
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" s="2" t="n">
         <v>45247</v>
       </c>
     </row>
@@ -4437,7 +4690,8 @@
       <c r="E202" t="n">
         <v>300</v>
       </c>
-      <c r="F202" s="2" t="n">
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" s="2" t="n">
         <v>45248</v>
       </c>
     </row>
@@ -4457,7 +4711,8 @@
       <c r="E203" t="n">
         <v>135</v>
       </c>
-      <c r="F203" s="2" t="n">
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" s="2" t="n">
         <v>45249</v>
       </c>
     </row>
@@ -4477,7 +4732,8 @@
       <c r="E204" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F204" s="2" t="n">
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" s="2" t="n">
         <v>45250</v>
       </c>
     </row>
@@ -4497,7 +4753,8 @@
       <c r="E205" t="n">
         <v>50</v>
       </c>
-      <c r="F205" s="2" t="n">
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" s="2" t="n">
         <v>45251</v>
       </c>
     </row>
@@ -4517,7 +4774,8 @@
       <c r="E206" t="n">
         <v>60</v>
       </c>
-      <c r="F206" s="2" t="n">
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" s="2" t="n">
         <v>45252</v>
       </c>
     </row>
@@ -4537,7 +4795,8 @@
       <c r="E207" t="n">
         <v>150</v>
       </c>
-      <c r="F207" s="2" t="n">
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" s="2" t="n">
         <v>45253</v>
       </c>
     </row>
@@ -4557,7 +4816,8 @@
       <c r="E208" t="n">
         <v>450</v>
       </c>
-      <c r="F208" s="2" t="n">
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" s="2" t="n">
         <v>45254</v>
       </c>
     </row>
@@ -4577,7 +4837,8 @@
       <c r="E209" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F209" s="2" t="n">
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" s="2" t="n">
         <v>45255</v>
       </c>
     </row>
@@ -4597,7 +4858,8 @@
       <c r="E210" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F210" s="2" t="n">
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" s="2" t="n">
         <v>45256</v>
       </c>
     </row>
@@ -4617,7 +4879,8 @@
       <c r="E211" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F211" s="2" t="n">
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" s="2" t="n">
         <v>45257</v>
       </c>
     </row>
@@ -4637,7 +4900,8 @@
       <c r="E212" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F212" s="2" t="n">
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" s="2" t="n">
         <v>45258</v>
       </c>
     </row>
@@ -4657,7 +4921,8 @@
       <c r="E213" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F213" s="2" t="n">
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" s="2" t="n">
         <v>45259</v>
       </c>
     </row>
@@ -4677,7 +4942,8 @@
       <c r="E214" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F214" s="2" t="n">
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" s="2" t="n">
         <v>45260</v>
       </c>
     </row>
@@ -4697,7 +4963,8 @@
       <c r="E215" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F215" s="2" t="n">
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" s="2" t="n">
         <v>45247</v>
       </c>
     </row>
@@ -4717,7 +4984,8 @@
       <c r="E216" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F216" s="2" t="n">
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" s="2" t="n">
         <v>45242</v>
       </c>
     </row>
@@ -4737,7 +5005,8 @@
       <c r="E217" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F217" s="2" t="n">
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" s="2" t="n">
         <v>45239</v>
       </c>
     </row>
@@ -4757,7 +5026,8 @@
       <c r="E218" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F218" s="2" t="n">
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" s="2" t="n">
         <v>45255</v>
       </c>
     </row>
@@ -4777,7 +5047,8 @@
       <c r="E219" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F219" s="2" t="n">
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" s="2" t="n">
         <v>45234</v>
       </c>
     </row>
@@ -4797,7 +5068,8 @@
       <c r="E220" t="n">
         <v>441</v>
       </c>
-      <c r="F220" s="2" t="n">
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" s="2" t="n">
         <v>45247</v>
       </c>
     </row>
@@ -4817,7 +5089,8 @@
       <c r="E221" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F221" s="2" t="n">
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" s="2" t="n">
         <v>45256</v>
       </c>
     </row>
@@ -4837,7 +5110,8 @@
       <c r="E222" t="n">
         <v>15</v>
       </c>
-      <c r="F222" s="2" t="n">
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" s="2" t="n">
         <v>45246</v>
       </c>
     </row>
@@ -4857,7 +5131,8 @@
       <c r="E223" t="n">
         <v>100</v>
       </c>
-      <c r="F223" s="2" t="n">
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" s="2" t="n">
         <v>45250</v>
       </c>
     </row>
@@ -4877,7 +5152,8 @@
       <c r="E224" t="n">
         <v>300</v>
       </c>
-      <c r="F224" s="2" t="n">
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" s="2" t="n">
         <v>45244</v>
       </c>
     </row>
@@ -4897,7 +5173,8 @@
       <c r="E225" t="n">
         <v>135</v>
       </c>
-      <c r="F225" s="2" t="n">
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" s="2" t="n">
         <v>45245</v>
       </c>
     </row>
@@ -4917,7 +5194,8 @@
       <c r="E226" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F226" s="2" t="n">
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" s="2" t="n">
         <v>45258</v>
       </c>
     </row>
@@ -4937,7 +5215,8 @@
       <c r="E227" t="n">
         <v>50</v>
       </c>
-      <c r="F227" s="2" t="n">
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" s="2" t="n">
         <v>45257</v>
       </c>
     </row>
@@ -4957,7 +5236,8 @@
       <c r="E228" t="n">
         <v>60</v>
       </c>
-      <c r="F228" s="2" t="n">
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" s="2" t="n">
         <v>45249</v>
       </c>
     </row>
@@ -4977,7 +5257,8 @@
       <c r="E229" t="n">
         <v>150</v>
       </c>
-      <c r="F229" s="2" t="n">
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" s="2" t="n">
         <v>45235</v>
       </c>
     </row>
@@ -4997,7 +5278,8 @@
       <c r="E230" t="n">
         <v>450</v>
       </c>
-      <c r="F230" s="2" t="n">
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" s="2" t="n">
         <v>45253</v>
       </c>
     </row>
@@ -5017,7 +5299,8 @@
       <c r="E231" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F231" s="2" t="n">
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" s="2" t="n">
         <v>45260</v>
       </c>
     </row>
@@ -5037,7 +5320,8 @@
       <c r="E232" t="n">
         <v>25</v>
       </c>
-      <c r="F232" s="2" t="n">
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" s="2" t="n">
         <v>45256</v>
       </c>
     </row>
@@ -5057,7 +5341,8 @@
       <c r="E233" t="n">
         <v>200</v>
       </c>
-      <c r="F233" s="2" t="n">
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" s="2" t="n">
         <v>45235</v>
       </c>
     </row>
@@ -5077,7 +5362,8 @@
       <c r="E234" t="n">
         <v>90</v>
       </c>
-      <c r="F234" s="2" t="n">
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" s="2" t="n">
         <v>45239</v>
       </c>
     </row>
@@ -5097,7 +5383,8 @@
       <c r="E235" t="n">
         <v>225</v>
       </c>
-      <c r="F235" s="2" t="n">
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" s="2" t="n">
         <v>45237</v>
       </c>
     </row>
@@ -5117,7 +5404,8 @@
       <c r="E236" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F236" s="2" t="n">
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" s="2" t="n">
         <v>45237</v>
       </c>
     </row>
@@ -5137,7 +5425,8 @@
       <c r="E237" t="n">
         <v>15</v>
       </c>
-      <c r="F237" s="2" t="n">
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" s="2" t="n">
         <v>45254</v>
       </c>
     </row>
@@ -5157,7 +5446,8 @@
       <c r="E238" t="n">
         <v>100</v>
       </c>
-      <c r="F238" s="2" t="n">
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" s="2" t="n">
         <v>45243</v>
       </c>
     </row>
@@ -5177,7 +5467,8 @@
       <c r="E239" t="n">
         <v>300</v>
       </c>
-      <c r="F239" s="2" t="n">
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" s="2" t="n">
         <v>45258</v>
       </c>
     </row>
@@ -5197,7 +5488,8 @@
       <c r="E240" t="n">
         <v>135</v>
       </c>
-      <c r="F240" s="2" t="n">
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" s="2" t="n">
         <v>45255</v>
       </c>
     </row>
@@ -5217,7 +5509,8 @@
       <c r="E241" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F241" s="2" t="n">
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" s="2" t="n">
         <v>45237</v>
       </c>
     </row>
@@ -5237,7 +5530,8 @@
       <c r="E242" t="n">
         <v>50</v>
       </c>
-      <c r="F242" s="2" t="n">
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" s="2" t="n">
         <v>45254</v>
       </c>
     </row>
@@ -5257,7 +5551,8 @@
       <c r="E243" t="n">
         <v>60</v>
       </c>
-      <c r="F243" s="2" t="n">
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" s="2" t="n">
         <v>45246</v>
       </c>
     </row>
@@ -5277,7 +5572,8 @@
       <c r="E244" t="n">
         <v>150</v>
       </c>
-      <c r="F244" s="2" t="n">
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" s="2" t="n">
         <v>45259</v>
       </c>
     </row>
@@ -5297,7 +5593,8 @@
       <c r="E245" t="n">
         <v>450</v>
       </c>
-      <c r="F245" s="2" t="n">
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" s="2" t="n">
         <v>45254</v>
       </c>
     </row>
@@ -5317,7 +5614,8 @@
       <c r="E246" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F246" s="2" t="n">
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" s="2" t="n">
         <v>45254</v>
       </c>
     </row>
@@ -5337,7 +5635,8 @@
       <c r="E247" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F247" s="2" t="n">
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" s="2" t="n">
         <v>45259</v>
       </c>
     </row>
@@ -5357,7 +5656,8 @@
       <c r="E248" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F248" s="2" t="n">
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" s="2" t="n">
         <v>45233</v>
       </c>
     </row>
@@ -5377,7 +5677,8 @@
       <c r="E249" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F249" s="2" t="n">
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" s="2" t="n">
         <v>45252</v>
       </c>
     </row>
@@ -5397,7 +5698,8 @@
       <c r="E250" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F250" s="2" t="n">
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" s="2" t="n">
         <v>45237</v>
       </c>
     </row>
@@ -5417,7 +5719,8 @@
       <c r="E251" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F251" s="2" t="n">
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" s="2" t="n">
         <v>45259</v>
       </c>
     </row>
@@ -5437,7 +5740,8 @@
       <c r="E252" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F252" s="2" t="n">
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" s="2" t="n">
         <v>45232</v>
       </c>
     </row>
@@ -5457,7 +5761,8 @@
       <c r="E253" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F253" s="2" t="n">
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" s="2" t="n">
         <v>45241</v>
       </c>
     </row>
@@ -5477,7 +5782,8 @@
       <c r="E254" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F254" s="2" t="n">
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" s="2" t="n">
         <v>45248</v>
       </c>
     </row>
@@ -5497,7 +5803,8 @@
       <c r="E255" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F255" s="2" t="n">
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" s="2" t="n">
         <v>45239</v>
       </c>
     </row>
@@ -5517,7 +5824,8 @@
       <c r="E256" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F256" s="2" t="n">
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" s="2" t="n">
         <v>45237</v>
       </c>
     </row>
@@ -5537,7 +5845,8 @@
       <c r="E257" t="n">
         <v>441</v>
       </c>
-      <c r="F257" s="2" t="n">
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" s="2" t="n">
         <v>45231</v>
       </c>
     </row>
@@ -5557,7 +5866,8 @@
       <c r="E258" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F258" s="2" t="n">
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" s="2" t="n">
         <v>45257</v>
       </c>
     </row>
@@ -5577,7 +5887,8 @@
       <c r="E259" t="n">
         <v>15</v>
       </c>
-      <c r="F259" s="2" t="n">
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" s="2" t="n">
         <v>45251</v>
       </c>
     </row>
@@ -5597,7 +5908,8 @@
       <c r="E260" t="n">
         <v>100</v>
       </c>
-      <c r="F260" s="2" t="n">
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" s="2" t="n">
         <v>45255</v>
       </c>
     </row>
@@ -5617,7 +5929,8 @@
       <c r="E261" t="n">
         <v>300</v>
       </c>
-      <c r="F261" s="2" t="n">
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" s="2" t="n">
         <v>45257</v>
       </c>
     </row>
@@ -5637,7 +5950,8 @@
       <c r="E262" t="n">
         <v>135</v>
       </c>
-      <c r="F262" s="2" t="n">
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" s="2" t="n">
         <v>45233</v>
       </c>
     </row>
@@ -5657,7 +5971,8 @@
       <c r="E263" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F263" s="2" t="n">
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" s="2" t="n">
         <v>45241</v>
       </c>
     </row>
@@ -5677,7 +5992,8 @@
       <c r="E264" t="n">
         <v>50</v>
       </c>
-      <c r="F264" s="2" t="n">
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" s="2" t="n">
         <v>45255</v>
       </c>
     </row>
@@ -5697,7 +6013,8 @@
       <c r="E265" t="n">
         <v>60</v>
       </c>
-      <c r="F265" s="2" t="n">
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" s="2" t="n">
         <v>45256</v>
       </c>
     </row>
@@ -5717,7 +6034,8 @@
       <c r="E266" t="n">
         <v>150</v>
       </c>
-      <c r="F266" s="2" t="n">
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" s="2" t="n">
         <v>45237</v>
       </c>
     </row>
@@ -5737,7 +6055,8 @@
       <c r="E267" t="n">
         <v>450</v>
       </c>
-      <c r="F267" s="2" t="n">
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" s="2" t="n">
         <v>45242</v>
       </c>
     </row>
@@ -5757,7 +6076,8 @@
       <c r="E268" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F268" s="2" t="n">
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" s="2" t="n">
         <v>45235</v>
       </c>
     </row>
@@ -5777,7 +6097,8 @@
       <c r="E269" t="n">
         <v>25</v>
       </c>
-      <c r="F269" s="2" t="n">
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" s="2" t="n">
         <v>45260</v>
       </c>
     </row>
@@ -5797,7 +6118,8 @@
       <c r="E270" t="n">
         <v>200</v>
       </c>
-      <c r="F270" s="2" t="n">
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" s="2" t="n">
         <v>45236</v>
       </c>
     </row>
@@ -5817,7 +6139,8 @@
       <c r="E271" t="n">
         <v>90</v>
       </c>
-      <c r="F271" s="2" t="n">
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" s="2" t="n">
         <v>45247</v>
       </c>
     </row>
@@ -5837,7 +6160,8 @@
       <c r="E272" t="n">
         <v>225</v>
       </c>
-      <c r="F272" s="2" t="n">
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" s="2" t="n">
         <v>45241</v>
       </c>
     </row>
@@ -5857,7 +6181,8 @@
       <c r="E273" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F273" s="2" t="n">
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" s="2" t="n">
         <v>45238</v>
       </c>
     </row>
@@ -5877,7 +6202,8 @@
       <c r="E274" t="n">
         <v>15</v>
       </c>
-      <c r="F274" s="2" t="n">
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" s="2" t="n">
         <v>45243</v>
       </c>
     </row>
@@ -5897,7 +6223,8 @@
       <c r="E275" t="n">
         <v>100</v>
       </c>
-      <c r="F275" s="2" t="n">
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" s="2" t="n">
         <v>45260</v>
       </c>
     </row>
@@ -5917,7 +6244,8 @@
       <c r="E276" t="n">
         <v>300</v>
       </c>
-      <c r="F276" s="2" t="n">
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" s="2" t="n">
         <v>45241</v>
       </c>
     </row>
@@ -5937,7 +6265,8 @@
       <c r="E277" t="n">
         <v>135</v>
       </c>
-      <c r="F277" s="2" t="n">
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" s="2" t="n">
         <v>45233</v>
       </c>
     </row>
@@ -5957,7 +6286,8 @@
       <c r="E278" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F278" s="2" t="n">
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" s="2" t="n">
         <v>45259</v>
       </c>
     </row>
@@ -5977,7 +6307,8 @@
       <c r="E279" t="n">
         <v>50</v>
       </c>
-      <c r="F279" s="2" t="n">
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" s="2" t="n">
         <v>45245</v>
       </c>
     </row>
@@ -5997,7 +6328,8 @@
       <c r="E280" t="n">
         <v>60</v>
       </c>
-      <c r="F280" s="2" t="n">
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" s="2" t="n">
         <v>45243</v>
       </c>
     </row>
@@ -6017,7 +6349,8 @@
       <c r="E281" t="n">
         <v>150</v>
       </c>
-      <c r="F281" s="2" t="n">
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" s="2" t="n">
         <v>45231</v>
       </c>
     </row>
@@ -6037,7 +6370,8 @@
       <c r="E282" t="n">
         <v>450</v>
       </c>
-      <c r="F282" s="2" t="n">
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" s="2" t="n">
         <v>45255</v>
       </c>
     </row>
@@ -6057,7 +6391,8 @@
       <c r="E283" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F283" s="2" t="n">
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" s="2" t="n">
         <v>45246</v>
       </c>
     </row>
@@ -6077,7 +6412,8 @@
       <c r="E284" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F284" s="2" t="n">
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" s="2" t="n">
         <v>45242</v>
       </c>
     </row>
@@ -6097,7 +6433,8 @@
       <c r="E285" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F285" s="2" t="n">
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" s="2" t="n">
         <v>45234</v>
       </c>
     </row>
@@ -6117,7 +6454,8 @@
       <c r="E286" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F286" s="2" t="n">
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" s="2" t="n">
         <v>45247</v>
       </c>
     </row>
@@ -6137,7 +6475,8 @@
       <c r="E287" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F287" s="2" t="n">
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" s="2" t="n">
         <v>45244</v>
       </c>
     </row>
@@ -6157,7 +6496,8 @@
       <c r="E288" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F288" s="2" t="n">
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" s="2" t="n">
         <v>45239</v>
       </c>
     </row>
@@ -6177,7 +6517,8 @@
       <c r="E289" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F289" s="2" t="n">
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" s="2" t="n">
         <v>45253</v>
       </c>
     </row>
@@ -6197,7 +6538,8 @@
       <c r="E290" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F290" s="2" t="n">
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" s="2" t="n">
         <v>45252</v>
       </c>
     </row>
@@ -6217,7 +6559,8 @@
       <c r="E291" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F291" s="2" t="n">
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" s="2" t="n">
         <v>45254</v>
       </c>
     </row>
@@ -6237,7 +6580,8 @@
       <c r="E292" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F292" s="2" t="n">
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" s="2" t="n">
         <v>45246</v>
       </c>
     </row>
@@ -6257,7 +6601,8 @@
       <c r="E293" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F293" s="2" t="n">
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" s="2" t="n">
         <v>45255</v>
       </c>
     </row>
@@ -6277,7 +6622,8 @@
       <c r="E294" t="n">
         <v>441</v>
       </c>
-      <c r="F294" s="2" t="n">
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" s="2" t="n">
         <v>45256</v>
       </c>
     </row>
@@ -6297,7 +6643,8 @@
       <c r="E295" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F295" s="2" t="n">
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" s="2" t="n">
         <v>45236</v>
       </c>
     </row>
@@ -6318,6 +6665,9 @@
         <v>300</v>
       </c>
       <c r="F296" t="inlineStr"/>
+      <c r="G296" s="2" t="n">
+        <v>45358</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr"/>
@@ -6336,6 +6686,9 @@
         <v>200</v>
       </c>
       <c r="F297" t="inlineStr"/>
+      <c r="G297" s="2" t="n">
+        <v>45344</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr"/>
@@ -6354,6 +6707,9 @@
         <v>120</v>
       </c>
       <c r="F298" t="inlineStr"/>
+      <c r="G298" s="2" t="n">
+        <v>45283</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr"/>
@@ -6372,6 +6728,9 @@
         <v>180</v>
       </c>
       <c r="F299" t="inlineStr"/>
+      <c r="G299" s="2" t="n">
+        <v>45400</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr"/>
@@ -6390,6 +6749,9 @@
         <v>100</v>
       </c>
       <c r="F300" t="inlineStr"/>
+      <c r="G300" s="2" t="n">
+        <v>45123</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr"/>
@@ -6408,6 +6770,9 @@
         <v>240</v>
       </c>
       <c r="F301" t="inlineStr"/>
+      <c r="G301" s="2" t="n">
+        <v>45179</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr"/>
@@ -6426,6 +6791,9 @@
         <v>180</v>
       </c>
       <c r="F302" t="inlineStr"/>
+      <c r="G302" s="2" t="n">
+        <v>45342</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr"/>
@@ -6444,6 +6812,9 @@
         <v>300</v>
       </c>
       <c r="F303" t="inlineStr"/>
+      <c r="G303" s="2" t="n">
+        <v>45199</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr"/>
@@ -6462,6 +6833,9 @@
         <v>315</v>
       </c>
       <c r="F304" t="inlineStr"/>
+      <c r="G304" s="2" t="n">
+        <v>45101</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr"/>
@@ -6480,6 +6854,9 @@
         <v>200</v>
       </c>
       <c r="F305" t="inlineStr"/>
+      <c r="G305" s="2" t="n">
+        <v>45314</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr"/>
@@ -6498,6 +6875,9 @@
         <v>200</v>
       </c>
       <c r="F306" t="inlineStr"/>
+      <c r="G306" s="2" t="n">
+        <v>45035</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr"/>
@@ -6516,6 +6896,9 @@
         <v>162</v>
       </c>
       <c r="F307" t="inlineStr"/>
+      <c r="G307" s="2" t="n">
+        <v>45393</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr"/>
@@ -6534,6 +6917,9 @@
         <v>150</v>
       </c>
       <c r="F308" t="inlineStr"/>
+      <c r="G308" s="2" t="n">
+        <v>45414</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr"/>
@@ -6552,6 +6938,9 @@
         <v>200</v>
       </c>
       <c r="F309" t="inlineStr"/>
+      <c r="G309" s="2" t="n">
+        <v>45418</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr"/>
@@ -6570,6 +6959,9 @@
         <v>200</v>
       </c>
       <c r="F310" t="inlineStr"/>
+      <c r="G310" s="2" t="n">
+        <v>45356</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr"/>
@@ -6588,6 +6980,7 @@
         <v>280</v>
       </c>
       <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr"/>
@@ -6606,6 +6999,7 @@
         <v>300</v>
       </c>
       <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr"/>
@@ -6624,6 +7018,7 @@
         <v>150</v>
       </c>
       <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr"/>
@@ -6642,6 +7037,7 @@
         <v>360</v>
       </c>
       <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr"/>
@@ -6660,6 +7056,7 @@
         <v>240</v>
       </c>
       <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr"/>
@@ -6678,6 +7075,7 @@
         <v>216</v>
       </c>
       <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr"/>
@@ -6696,6 +7094,7 @@
         <v>350</v>
       </c>
       <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr"/>
@@ -6714,6 +7113,7 @@
         <v>315</v>
       </c>
       <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr"/>
@@ -6732,6 +7132,7 @@
         <v>200</v>
       </c>
       <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr"/>
@@ -6750,6 +7151,7 @@
         <v>160</v>
       </c>
       <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr"/>
@@ -6768,6 +7170,7 @@
         <v>270</v>
       </c>
       <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr"/>
@@ -6786,6 +7189,7 @@
         <v>270</v>
       </c>
       <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr"/>
@@ -6804,6 +7208,7 @@
         <v>180</v>
       </c>
       <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr"/>
@@ -6822,6 +7227,7 @@
         <v>200</v>
       </c>
       <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr"/>
@@ -6840,6 +7246,7 @@
         <v>275</v>
       </c>
       <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr"/>
@@ -6858,6 +7265,7 @@
         <v>150</v>
       </c>
       <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr"/>
@@ -6876,6 +7284,7 @@
         <v>400</v>
       </c>
       <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr"/>
@@ -6894,6 +7303,7 @@
         <v>175</v>
       </c>
       <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr"/>
@@ -6912,6 +7322,7 @@
         <v>240</v>
       </c>
       <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr"/>
@@ -6930,6 +7341,7 @@
         <v>240</v>
       </c>
       <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr"/>
@@ -6948,6 +7360,7 @@
         <v>450</v>
       </c>
       <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr"/>
@@ -6966,6 +7379,7 @@
         <v>240</v>
       </c>
       <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr"/>
@@ -6984,6 +7398,7 @@
         <v>240</v>
       </c>
       <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr"/>
@@ -7002,6 +7417,7 @@
         <v>150</v>
       </c>
       <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr"/>
@@ -7020,6 +7436,7 @@
         <v>400</v>
       </c>
       <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr"/>
@@ -7038,6 +7455,7 @@
         <v>150</v>
       </c>
       <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr"/>
@@ -7056,6 +7474,7 @@
         <v>315</v>
       </c>
       <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr"/>
@@ -7074,6 +7493,7 @@
         <v>200</v>
       </c>
       <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr"/>
@@ -7092,6 +7512,7 @@
         <v>340</v>
       </c>
       <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr"/>
@@ -7110,6 +7531,7 @@
         <v>200</v>
       </c>
       <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr"/>
@@ -7128,6 +7550,7 @@
         <v>120</v>
       </c>
       <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr"/>
@@ -7146,6 +7569,7 @@
         <v>180</v>
       </c>
       <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr"/>
@@ -7164,6 +7588,7 @@
         <v>200</v>
       </c>
       <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr"/>
@@ -7182,6 +7607,7 @@
         <v>320</v>
       </c>
       <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr"/>
@@ -7200,6 +7626,7 @@
         <v>300</v>
       </c>
       <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr"/>
@@ -7218,6 +7645,7 @@
         <v>315</v>
       </c>
       <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr"/>
@@ -7236,6 +7664,7 @@
         <v>315</v>
       </c>
       <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr"/>
@@ -7254,6 +7683,7 @@
         <v>216</v>
       </c>
       <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr"/>
@@ -7272,6 +7702,7 @@
         <v>200</v>
       </c>
       <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr"/>
@@ -7290,6 +7721,7 @@
         <v>240</v>
       </c>
       <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr"/>
@@ -7308,6 +7740,7 @@
         <v>280</v>
       </c>
       <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr"/>
@@ -7326,6 +7759,7 @@
         <v>200</v>
       </c>
       <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr"/>
@@ -7344,6 +7778,7 @@
         <v>270</v>
       </c>
       <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr"/>
@@ -7362,6 +7797,7 @@
         <v>275</v>
       </c>
       <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr"/>
@@ -7380,6 +7816,7 @@
         <v>300</v>
       </c>
       <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr"/>
@@ -7398,6 +7835,7 @@
         <v>180</v>
       </c>
       <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr"/>
@@ -7416,6 +7854,7 @@
         <v>240</v>
       </c>
       <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr"/>
@@ -7434,6 +7873,7 @@
         <v>175</v>
       </c>
       <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr"/>
@@ -7452,6 +7892,7 @@
         <v>240</v>
       </c>
       <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr"/>
@@ -7470,6 +7911,7 @@
         <v>540</v>
       </c>
       <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr"/>
@@ -7488,6 +7930,7 @@
         <v>210</v>
       </c>
       <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr"/>
@@ -7506,6 +7949,7 @@
         <v>250</v>
       </c>
       <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr"/>
@@ -7524,6 +7968,7 @@
         <v>180</v>
       </c>
       <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr"/>
@@ -7542,6 +7987,7 @@
         <v>200</v>
       </c>
       <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr"/>
@@ -7560,6 +8006,7 @@
         <v>260</v>
       </c>
       <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr"/>
@@ -7578,6 +8025,7 @@
         <v>385</v>
       </c>
       <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr"/>
@@ -7596,6 +8044,7 @@
         <v>420</v>
       </c>
       <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr"/>
@@ -7614,6 +8063,7 @@
         <v>360</v>
       </c>
       <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr"/>
@@ -7632,6 +8082,7 @@
         <v>270</v>
       </c>
       <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr"/>
@@ -7650,6 +8101,7 @@
         <v>250</v>
       </c>
       <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G370"/>
+  <dimension ref="A1:H370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,11 @@
           <t>Fecha</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>NombreProducto</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -494,6 +499,7 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -515,6 +521,7 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -536,6 +543,7 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -557,6 +565,7 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -578,6 +587,7 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -599,6 +609,7 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -620,6 +631,7 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -641,6 +653,7 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -662,6 +675,7 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -683,6 +697,7 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -704,6 +719,7 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -725,6 +741,7 @@
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -746,6 +763,7 @@
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -767,6 +785,7 @@
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -788,6 +807,7 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -809,6 +829,7 @@
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -830,6 +851,7 @@
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -851,6 +873,7 @@
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -872,6 +895,7 @@
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -893,6 +917,7 @@
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -914,6 +939,7 @@
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -935,6 +961,7 @@
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -956,6 +983,7 @@
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -977,6 +1005,7 @@
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -998,6 +1027,7 @@
         <v>45342</v>
       </c>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -1019,6 +1049,7 @@
         <v>45398</v>
       </c>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -1040,6 +1071,7 @@
         <v>45166</v>
       </c>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -1061,6 +1093,7 @@
         <v>45216</v>
       </c>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -1082,6 +1115,7 @@
         <v>45017</v>
       </c>
       <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1103,6 +1137,7 @@
         <v>45151</v>
       </c>
       <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -1124,6 +1159,7 @@
         <v>45116</v>
       </c>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -1145,6 +1181,7 @@
         <v>45281</v>
       </c>
       <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -1166,6 +1203,7 @@
         <v>45126</v>
       </c>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -1187,6 +1225,7 @@
         <v>45073</v>
       </c>
       <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -1208,6 +1247,7 @@
         <v>45331</v>
       </c>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -1229,6 +1269,7 @@
         <v>45323</v>
       </c>
       <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -1250,6 +1291,7 @@
         <v>45041</v>
       </c>
       <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -1271,6 +1313,7 @@
         <v>45141</v>
       </c>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -1292,6 +1335,7 @@
         <v>45331</v>
       </c>
       <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -1313,6 +1357,7 @@
         <v>45179</v>
       </c>
       <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -1334,6 +1379,7 @@
         <v>45133</v>
       </c>
       <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -1355,6 +1401,7 @@
         <v>45376</v>
       </c>
       <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -1376,6 +1423,7 @@
         <v>45280</v>
       </c>
       <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -1397,6 +1445,7 @@
         <v>45238</v>
       </c>
       <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -1418,6 +1467,7 @@
         <v>44937</v>
       </c>
       <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -1439,6 +1489,7 @@
         <v>45363</v>
       </c>
       <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -1460,6 +1511,7 @@
         <v>45315</v>
       </c>
       <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -1481,6 +1533,7 @@
         <v>45100</v>
       </c>
       <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -1502,6 +1555,7 @@
       <c r="G50" s="2" t="n">
         <v>44965</v>
       </c>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -1523,6 +1577,7 @@
       <c r="G51" s="2" t="n">
         <v>45232</v>
       </c>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -1544,6 +1599,7 @@
       <c r="G52" s="2" t="n">
         <v>44946</v>
       </c>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -1565,6 +1621,7 @@
       <c r="G53" s="2" t="n">
         <v>44983</v>
       </c>
+      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -1586,6 +1643,7 @@
       <c r="G54" s="2" t="n">
         <v>45163</v>
       </c>
+      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -1607,6 +1665,7 @@
       <c r="G55" s="2" t="n">
         <v>45399</v>
       </c>
+      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -1628,6 +1687,7 @@
       <c r="G56" s="2" t="n">
         <v>45385</v>
       </c>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -1649,6 +1709,7 @@
       <c r="G57" s="2" t="n">
         <v>44971</v>
       </c>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -1670,6 +1731,7 @@
       <c r="G58" s="2" t="n">
         <v>45291</v>
       </c>
+      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -1691,6 +1753,7 @@
       <c r="G59" s="2" t="n">
         <v>45027</v>
       </c>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -1712,6 +1775,7 @@
       <c r="G60" s="2" t="n">
         <v>44993</v>
       </c>
+      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -1733,6 +1797,7 @@
       <c r="G61" s="2" t="n">
         <v>45097</v>
       </c>
+      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -1754,6 +1819,7 @@
       <c r="G62" s="2" t="n">
         <v>45304</v>
       </c>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -1775,6 +1841,7 @@
       <c r="G63" s="2" t="n">
         <v>45388</v>
       </c>
+      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -1796,6 +1863,7 @@
       <c r="G64" s="2" t="n">
         <v>44951</v>
       </c>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -1817,6 +1885,7 @@
       <c r="G65" s="2" t="n">
         <v>45301</v>
       </c>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -1838,6 +1907,7 @@
       <c r="G66" s="2" t="n">
         <v>45127</v>
       </c>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -1859,6 +1929,7 @@
       <c r="G67" s="2" t="n">
         <v>45350</v>
       </c>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -1880,6 +1951,7 @@
       <c r="G68" s="2" t="n">
         <v>45350</v>
       </c>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -1901,6 +1973,7 @@
       <c r="G69" s="2" t="n">
         <v>45055</v>
       </c>
+      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -1922,6 +1995,7 @@
       <c r="G70" s="2" t="n">
         <v>45052</v>
       </c>
+      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -1943,6 +2017,7 @@
       <c r="G71" s="2" t="n">
         <v>44967</v>
       </c>
+      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -1964,6 +2039,7 @@
       <c r="G72" s="2" t="n">
         <v>45298</v>
       </c>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -1985,6 +2061,7 @@
       <c r="G73" s="2" t="n">
         <v>45120</v>
       </c>
+      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -2006,6 +2083,7 @@
       <c r="G74" s="2" t="n">
         <v>45150</v>
       </c>
+      <c r="H74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -2027,6 +2105,7 @@
       <c r="G75" s="2" t="n">
         <v>45078</v>
       </c>
+      <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -2048,6 +2127,7 @@
       <c r="G76" s="2" t="n">
         <v>44945</v>
       </c>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -2069,6 +2149,7 @@
       <c r="G77" s="2" t="n">
         <v>45341</v>
       </c>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -2090,6 +2171,7 @@
       <c r="G78" s="2" t="n">
         <v>45241</v>
       </c>
+      <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -2111,6 +2193,7 @@
       <c r="G79" s="2" t="n">
         <v>45391</v>
       </c>
+      <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -2132,6 +2215,7 @@
       <c r="G80" s="2" t="n">
         <v>44931</v>
       </c>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -2153,6 +2237,7 @@
       <c r="G81" s="2" t="n">
         <v>44996</v>
       </c>
+      <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -2174,6 +2259,7 @@
       <c r="G82" s="2" t="n">
         <v>45253</v>
       </c>
+      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -2195,6 +2281,7 @@
       <c r="G83" s="2" t="n">
         <v>45312</v>
       </c>
+      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -2216,6 +2303,7 @@
       <c r="G84" s="2" t="n">
         <v>45073</v>
       </c>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -2237,6 +2325,7 @@
       <c r="G85" s="2" t="n">
         <v>45132</v>
       </c>
+      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -2258,6 +2347,7 @@
       <c r="G86" s="2" t="n">
         <v>45358</v>
       </c>
+      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -2279,6 +2369,7 @@
       <c r="G87" s="2" t="n">
         <v>45056</v>
       </c>
+      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -2300,6 +2391,7 @@
       <c r="G88" s="2" t="n">
         <v>45233</v>
       </c>
+      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -2321,6 +2413,7 @@
       <c r="G89" s="2" t="n">
         <v>45001</v>
       </c>
+      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -2342,6 +2435,7 @@
       <c r="G90" s="2" t="n">
         <v>45177</v>
       </c>
+      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -2363,6 +2457,7 @@
       <c r="G91" s="2" t="n">
         <v>45389</v>
       </c>
+      <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -2384,6 +2479,7 @@
       <c r="G92" s="2" t="n">
         <v>44981</v>
       </c>
+      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -2405,6 +2501,7 @@
       <c r="G93" s="2" t="n">
         <v>45087</v>
       </c>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -2426,6 +2523,7 @@
       <c r="G94" s="2" t="n">
         <v>45069</v>
       </c>
+      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -2447,6 +2545,7 @@
       <c r="G95" s="2" t="n">
         <v>45189</v>
       </c>
+      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -2468,6 +2567,7 @@
       <c r="G96" s="2" t="n">
         <v>45289</v>
       </c>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -2489,6 +2589,7 @@
       <c r="G97" s="2" t="n">
         <v>45145</v>
       </c>
+      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -2510,6 +2611,7 @@
       <c r="G98" s="2" t="n">
         <v>45170</v>
       </c>
+      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -2531,6 +2633,7 @@
       <c r="G99" s="2" t="n">
         <v>45288</v>
       </c>
+      <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -2552,6 +2655,7 @@
       <c r="G100" s="2" t="n">
         <v>45358</v>
       </c>
+      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -2573,6 +2677,7 @@
       <c r="G101" s="2" t="n">
         <v>45187</v>
       </c>
+      <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -2594,6 +2699,7 @@
       <c r="G102" s="2" t="n">
         <v>45326</v>
       </c>
+      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -2615,6 +2721,7 @@
       <c r="G103" s="2" t="n">
         <v>45273</v>
       </c>
+      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -2636,6 +2743,7 @@
       <c r="G104" s="2" t="n">
         <v>44934</v>
       </c>
+      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -2657,6 +2765,7 @@
       <c r="G105" s="2" t="n">
         <v>45280</v>
       </c>
+      <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -2678,6 +2787,7 @@
       <c r="G106" s="2" t="n">
         <v>45247</v>
       </c>
+      <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -2699,6 +2809,7 @@
       <c r="G107" s="2" t="n">
         <v>45109</v>
       </c>
+      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -2720,6 +2831,7 @@
       <c r="G108" s="2" t="n">
         <v>45160</v>
       </c>
+      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -2741,6 +2853,7 @@
       <c r="G109" s="2" t="n">
         <v>45225</v>
       </c>
+      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -2762,6 +2875,7 @@
       <c r="G110" s="2" t="n">
         <v>45188</v>
       </c>
+      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -2783,6 +2897,7 @@
       <c r="G111" s="2" t="n">
         <v>45319</v>
       </c>
+      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -2804,6 +2919,7 @@
       <c r="G112" s="2" t="n">
         <v>45218</v>
       </c>
+      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -2825,6 +2941,7 @@
       <c r="G113" s="2" t="n">
         <v>45111</v>
       </c>
+      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -2846,6 +2963,7 @@
       <c r="G114" s="2" t="n">
         <v>45180</v>
       </c>
+      <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -2867,6 +2985,7 @@
       <c r="G115" s="2" t="n">
         <v>45361</v>
       </c>
+      <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -2888,6 +3007,7 @@
       <c r="G116" s="2" t="n">
         <v>45285</v>
       </c>
+      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -2909,6 +3029,7 @@
       <c r="G117" s="2" t="n">
         <v>44945</v>
       </c>
+      <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -2930,6 +3051,7 @@
       <c r="G118" s="2" t="n">
         <v>45346</v>
       </c>
+      <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -2951,6 +3073,7 @@
       <c r="G119" s="2" t="n">
         <v>44941</v>
       </c>
+      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -2972,6 +3095,7 @@
       <c r="G120" s="2" t="n">
         <v>45112</v>
       </c>
+      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -2993,6 +3117,7 @@
       <c r="G121" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="H121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -3014,6 +3139,7 @@
       <c r="G122" s="2" t="n">
         <v>45267</v>
       </c>
+      <c r="H122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -3035,6 +3161,7 @@
       <c r="G123" s="2" t="n">
         <v>45169</v>
       </c>
+      <c r="H123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -3056,6 +3183,7 @@
       <c r="G124" s="2" t="n">
         <v>45058</v>
       </c>
+      <c r="H124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
@@ -3077,6 +3205,7 @@
       <c r="G125" s="2" t="n">
         <v>45411</v>
       </c>
+      <c r="H125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -3098,6 +3227,7 @@
       <c r="G126" s="2" t="n">
         <v>45115</v>
       </c>
+      <c r="H126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -3119,6 +3249,7 @@
       <c r="G127" s="2" t="n">
         <v>45302</v>
       </c>
+      <c r="H127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -3140,6 +3271,7 @@
       <c r="G128" s="2" t="n">
         <v>45134</v>
       </c>
+      <c r="H128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -3161,6 +3293,7 @@
       <c r="G129" s="2" t="n">
         <v>45017</v>
       </c>
+      <c r="H129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -3182,6 +3315,7 @@
       <c r="G130" s="2" t="n">
         <v>45047</v>
       </c>
+      <c r="H130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -3203,6 +3337,7 @@
       <c r="G131" s="2" t="n">
         <v>45100</v>
       </c>
+      <c r="H131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -3224,6 +3359,7 @@
       <c r="G132" s="2" t="n">
         <v>44981</v>
       </c>
+      <c r="H132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -3245,6 +3381,7 @@
       <c r="G133" s="2" t="n">
         <v>45285</v>
       </c>
+      <c r="H133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
@@ -3266,6 +3403,7 @@
       <c r="G134" s="2" t="n">
         <v>45092</v>
       </c>
+      <c r="H134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -3287,6 +3425,7 @@
       <c r="G135" s="2" t="n">
         <v>45113</v>
       </c>
+      <c r="H135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -3308,6 +3447,7 @@
       <c r="G136" s="2" t="n">
         <v>44959</v>
       </c>
+      <c r="H136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -3329,6 +3469,7 @@
       <c r="G137" s="2" t="n">
         <v>45042</v>
       </c>
+      <c r="H137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -3350,6 +3491,7 @@
       <c r="G138" s="2" t="n">
         <v>45210</v>
       </c>
+      <c r="H138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -3371,6 +3513,7 @@
       <c r="G139" s="2" t="n">
         <v>45029</v>
       </c>
+      <c r="H139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -3392,6 +3535,7 @@
       <c r="G140" s="2" t="n">
         <v>45180</v>
       </c>
+      <c r="H140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -3413,6 +3557,7 @@
       <c r="G141" s="2" t="n">
         <v>45181</v>
       </c>
+      <c r="H141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -3434,6 +3579,7 @@
       <c r="G142" s="2" t="n">
         <v>44965</v>
       </c>
+      <c r="H142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -3455,6 +3601,7 @@
       <c r="G143" s="2" t="n">
         <v>45271</v>
       </c>
+      <c r="H143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -3476,6 +3623,7 @@
       <c r="G144" s="2" t="n">
         <v>45173</v>
       </c>
+      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -3497,6 +3645,7 @@
       <c r="G145" s="2" t="n">
         <v>44962</v>
       </c>
+      <c r="H145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -3518,6 +3667,7 @@
       <c r="G146" s="2" t="n">
         <v>45087</v>
       </c>
+      <c r="H146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -3539,6 +3689,7 @@
       <c r="G147" s="2" t="n">
         <v>45006</v>
       </c>
+      <c r="H147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -3560,6 +3711,7 @@
       <c r="G148" s="2" t="n">
         <v>45054</v>
       </c>
+      <c r="H148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -3581,6 +3733,7 @@
       <c r="G149" s="2" t="n">
         <v>45068</v>
       </c>
+      <c r="H149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -3602,6 +3755,7 @@
       <c r="G150" s="2" t="n">
         <v>45299</v>
       </c>
+      <c r="H150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -3623,6 +3777,7 @@
       <c r="G151" s="2" t="n">
         <v>44960</v>
       </c>
+      <c r="H151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -3644,6 +3799,7 @@
       <c r="G152" s="2" t="n">
         <v>45102</v>
       </c>
+      <c r="H152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -3665,6 +3821,7 @@
       <c r="G153" s="2" t="n">
         <v>45256</v>
       </c>
+      <c r="H153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -3686,6 +3843,7 @@
       <c r="G154" s="2" t="n">
         <v>44948</v>
       </c>
+      <c r="H154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -3707,6 +3865,7 @@
       <c r="G155" s="2" t="n">
         <v>45327</v>
       </c>
+      <c r="H155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -3728,6 +3887,7 @@
       <c r="G156" s="2" t="n">
         <v>45398</v>
       </c>
+      <c r="H156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
@@ -3749,6 +3909,7 @@
       <c r="G157" s="2" t="n">
         <v>45310</v>
       </c>
+      <c r="H157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr"/>
@@ -3770,6 +3931,7 @@
       <c r="G158" s="2" t="n">
         <v>45150</v>
       </c>
+      <c r="H158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr"/>
@@ -3791,6 +3953,7 @@
       <c r="G159" s="2" t="n">
         <v>45421</v>
       </c>
+      <c r="H159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr"/>
@@ -3812,6 +3975,7 @@
       <c r="G160" s="2" t="n">
         <v>45375</v>
       </c>
+      <c r="H160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr"/>
@@ -3833,6 +3997,7 @@
       <c r="G161" s="2" t="n">
         <v>44959</v>
       </c>
+      <c r="H161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
@@ -3854,6 +4019,7 @@
       <c r="G162" s="2" t="n">
         <v>45169</v>
       </c>
+      <c r="H162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -3875,6 +4041,7 @@
       <c r="G163" s="2" t="n">
         <v>44987</v>
       </c>
+      <c r="H163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
@@ -3896,6 +4063,7 @@
       <c r="G164" s="2" t="n">
         <v>45082</v>
       </c>
+      <c r="H164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -3917,6 +4085,7 @@
       <c r="G165" s="2" t="n">
         <v>45171</v>
       </c>
+      <c r="H165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
@@ -3938,6 +4107,7 @@
       <c r="G166" s="2" t="n">
         <v>45301</v>
       </c>
+      <c r="H166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr"/>
@@ -3959,6 +4129,7 @@
       <c r="G167" s="2" t="n">
         <v>45303</v>
       </c>
+      <c r="H167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr"/>
@@ -3980,6 +4151,7 @@
       <c r="G168" s="2" t="n">
         <v>45138</v>
       </c>
+      <c r="H168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
@@ -4001,6 +4173,7 @@
       <c r="G169" s="2" t="n">
         <v>45294</v>
       </c>
+      <c r="H169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
@@ -4022,6 +4195,7 @@
       <c r="G170" s="2" t="n">
         <v>45269</v>
       </c>
+      <c r="H170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
@@ -4043,6 +4217,7 @@
       <c r="G171" s="2" t="n">
         <v>44937</v>
       </c>
+      <c r="H171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr"/>
@@ -4064,6 +4239,7 @@
       <c r="G172" s="2" t="n">
         <v>45159</v>
       </c>
+      <c r="H172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr"/>
@@ -4085,6 +4261,7 @@
       <c r="G173" s="2" t="n">
         <v>45423</v>
       </c>
+      <c r="H173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr"/>
@@ -4106,6 +4283,7 @@
       <c r="G174" s="2" t="n">
         <v>45058</v>
       </c>
+      <c r="H174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr"/>
@@ -4127,6 +4305,7 @@
       <c r="G175" s="2" t="n">
         <v>45037</v>
       </c>
+      <c r="H175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr"/>
@@ -4148,6 +4327,7 @@
       <c r="G176" s="2" t="n">
         <v>45134</v>
       </c>
+      <c r="H176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
@@ -4169,6 +4349,7 @@
       <c r="G177" s="2" t="n">
         <v>44964</v>
       </c>
+      <c r="H177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr"/>
@@ -4190,6 +4371,7 @@
       <c r="G178" s="2" t="n">
         <v>44985</v>
       </c>
+      <c r="H178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr"/>
@@ -4211,6 +4393,7 @@
       <c r="G179" s="2" t="n">
         <v>45411</v>
       </c>
+      <c r="H179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
@@ -4232,6 +4415,7 @@
       <c r="G180" s="2" t="n">
         <v>45145</v>
       </c>
+      <c r="H180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
@@ -4253,6 +4437,7 @@
       <c r="G181" s="2" t="n">
         <v>45007</v>
       </c>
+      <c r="H181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr"/>
@@ -4274,6 +4459,7 @@
       <c r="G182" s="2" t="n">
         <v>45418</v>
       </c>
+      <c r="H182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
@@ -4295,6 +4481,7 @@
       <c r="G183" s="2" t="n">
         <v>44996</v>
       </c>
+      <c r="H183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr"/>
@@ -4316,6 +4503,7 @@
       <c r="G184" s="2" t="n">
         <v>44968</v>
       </c>
+      <c r="H184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr"/>
@@ -4337,6 +4525,7 @@
       <c r="G185" s="2" t="n">
         <v>45231</v>
       </c>
+      <c r="H185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
@@ -4358,6 +4547,7 @@
       <c r="G186" s="2" t="n">
         <v>45232</v>
       </c>
+      <c r="H186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
@@ -4379,6 +4569,7 @@
       <c r="G187" s="2" t="n">
         <v>45233</v>
       </c>
+      <c r="H187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr"/>
@@ -4400,6 +4591,7 @@
       <c r="G188" s="2" t="n">
         <v>45234</v>
       </c>
+      <c r="H188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
@@ -4421,6 +4613,7 @@
       <c r="G189" s="2" t="n">
         <v>45235</v>
       </c>
+      <c r="H189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr"/>
@@ -4442,6 +4635,7 @@
       <c r="G190" s="2" t="n">
         <v>45236</v>
       </c>
+      <c r="H190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr"/>
@@ -4463,6 +4657,7 @@
       <c r="G191" s="2" t="n">
         <v>45237</v>
       </c>
+      <c r="H191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr"/>
@@ -4484,6 +4679,7 @@
       <c r="G192" s="2" t="n">
         <v>45238</v>
       </c>
+      <c r="H192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr"/>
@@ -4505,6 +4701,7 @@
       <c r="G193" s="2" t="n">
         <v>45239</v>
       </c>
+      <c r="H193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
@@ -4526,6 +4723,7 @@
       <c r="G194" s="2" t="n">
         <v>45240</v>
       </c>
+      <c r="H194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
@@ -4547,6 +4745,7 @@
       <c r="G195" s="2" t="n">
         <v>45241</v>
       </c>
+      <c r="H195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr"/>
@@ -4568,6 +4767,7 @@
       <c r="G196" s="2" t="n">
         <v>45242</v>
       </c>
+      <c r="H196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr"/>
@@ -4589,6 +4789,7 @@
       <c r="G197" s="2" t="n">
         <v>45243</v>
       </c>
+      <c r="H197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr"/>
@@ -4610,6 +4811,7 @@
       <c r="G198" s="2" t="n">
         <v>45244</v>
       </c>
+      <c r="H198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr"/>
@@ -4631,6 +4833,7 @@
       <c r="G199" s="2" t="n">
         <v>45245</v>
       </c>
+      <c r="H199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr"/>
@@ -4652,6 +4855,7 @@
       <c r="G200" s="2" t="n">
         <v>45246</v>
       </c>
+      <c r="H200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr"/>
@@ -4673,6 +4877,7 @@
       <c r="G201" s="2" t="n">
         <v>45247</v>
       </c>
+      <c r="H201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr"/>
@@ -4694,6 +4899,7 @@
       <c r="G202" s="2" t="n">
         <v>45248</v>
       </c>
+      <c r="H202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
@@ -4715,6 +4921,7 @@
       <c r="G203" s="2" t="n">
         <v>45249</v>
       </c>
+      <c r="H203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -4736,6 +4943,7 @@
       <c r="G204" s="2" t="n">
         <v>45250</v>
       </c>
+      <c r="H204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
@@ -4757,6 +4965,7 @@
       <c r="G205" s="2" t="n">
         <v>45251</v>
       </c>
+      <c r="H205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -4778,6 +4987,7 @@
       <c r="G206" s="2" t="n">
         <v>45252</v>
       </c>
+      <c r="H206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
@@ -4799,6 +5009,7 @@
       <c r="G207" s="2" t="n">
         <v>45253</v>
       </c>
+      <c r="H207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr"/>
@@ -4820,6 +5031,7 @@
       <c r="G208" s="2" t="n">
         <v>45254</v>
       </c>
+      <c r="H208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr"/>
@@ -4841,6 +5053,7 @@
       <c r="G209" s="2" t="n">
         <v>45255</v>
       </c>
+      <c r="H209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr"/>
@@ -4862,6 +5075,7 @@
       <c r="G210" s="2" t="n">
         <v>45256</v>
       </c>
+      <c r="H210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr"/>
@@ -4883,6 +5097,7 @@
       <c r="G211" s="2" t="n">
         <v>45257</v>
       </c>
+      <c r="H211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr"/>
@@ -4904,6 +5119,7 @@
       <c r="G212" s="2" t="n">
         <v>45258</v>
       </c>
+      <c r="H212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr"/>
@@ -4925,6 +5141,7 @@
       <c r="G213" s="2" t="n">
         <v>45259</v>
       </c>
+      <c r="H213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr"/>
@@ -4946,6 +5163,7 @@
       <c r="G214" s="2" t="n">
         <v>45260</v>
       </c>
+      <c r="H214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr"/>
@@ -4967,6 +5185,7 @@
       <c r="G215" s="2" t="n">
         <v>45247</v>
       </c>
+      <c r="H215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr"/>
@@ -4988,6 +5207,7 @@
       <c r="G216" s="2" t="n">
         <v>45242</v>
       </c>
+      <c r="H216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr"/>
@@ -5009,6 +5229,7 @@
       <c r="G217" s="2" t="n">
         <v>45239</v>
       </c>
+      <c r="H217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr"/>
@@ -5030,6 +5251,7 @@
       <c r="G218" s="2" t="n">
         <v>45255</v>
       </c>
+      <c r="H218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr"/>
@@ -5051,6 +5273,7 @@
       <c r="G219" s="2" t="n">
         <v>45234</v>
       </c>
+      <c r="H219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr"/>
@@ -5072,6 +5295,7 @@
       <c r="G220" s="2" t="n">
         <v>45247</v>
       </c>
+      <c r="H220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr"/>
@@ -5093,6 +5317,7 @@
       <c r="G221" s="2" t="n">
         <v>45256</v>
       </c>
+      <c r="H221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr"/>
@@ -5114,6 +5339,7 @@
       <c r="G222" s="2" t="n">
         <v>45246</v>
       </c>
+      <c r="H222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr"/>
@@ -5135,6 +5361,7 @@
       <c r="G223" s="2" t="n">
         <v>45250</v>
       </c>
+      <c r="H223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr"/>
@@ -5156,6 +5383,7 @@
       <c r="G224" s="2" t="n">
         <v>45244</v>
       </c>
+      <c r="H224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr"/>
@@ -5177,6 +5405,7 @@
       <c r="G225" s="2" t="n">
         <v>45245</v>
       </c>
+      <c r="H225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr"/>
@@ -5198,6 +5427,7 @@
       <c r="G226" s="2" t="n">
         <v>45258</v>
       </c>
+      <c r="H226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr"/>
@@ -5219,6 +5449,7 @@
       <c r="G227" s="2" t="n">
         <v>45257</v>
       </c>
+      <c r="H227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr"/>
@@ -5240,6 +5471,7 @@
       <c r="G228" s="2" t="n">
         <v>45249</v>
       </c>
+      <c r="H228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr"/>
@@ -5261,6 +5493,7 @@
       <c r="G229" s="2" t="n">
         <v>45235</v>
       </c>
+      <c r="H229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr"/>
@@ -5282,6 +5515,7 @@
       <c r="G230" s="2" t="n">
         <v>45253</v>
       </c>
+      <c r="H230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr"/>
@@ -5303,6 +5537,7 @@
       <c r="G231" s="2" t="n">
         <v>45260</v>
       </c>
+      <c r="H231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr"/>
@@ -5324,6 +5559,7 @@
       <c r="G232" s="2" t="n">
         <v>45256</v>
       </c>
+      <c r="H232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr"/>
@@ -5345,6 +5581,7 @@
       <c r="G233" s="2" t="n">
         <v>45235</v>
       </c>
+      <c r="H233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr"/>
@@ -5366,6 +5603,7 @@
       <c r="G234" s="2" t="n">
         <v>45239</v>
       </c>
+      <c r="H234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr"/>
@@ -5387,6 +5625,7 @@
       <c r="G235" s="2" t="n">
         <v>45237</v>
       </c>
+      <c r="H235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr"/>
@@ -5408,6 +5647,7 @@
       <c r="G236" s="2" t="n">
         <v>45237</v>
       </c>
+      <c r="H236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr"/>
@@ -5429,6 +5669,7 @@
       <c r="G237" s="2" t="n">
         <v>45254</v>
       </c>
+      <c r="H237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr"/>
@@ -5450,6 +5691,7 @@
       <c r="G238" s="2" t="n">
         <v>45243</v>
       </c>
+      <c r="H238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr"/>
@@ -5471,6 +5713,7 @@
       <c r="G239" s="2" t="n">
         <v>45258</v>
       </c>
+      <c r="H239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr"/>
@@ -5492,6 +5735,7 @@
       <c r="G240" s="2" t="n">
         <v>45255</v>
       </c>
+      <c r="H240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr"/>
@@ -5513,6 +5757,7 @@
       <c r="G241" s="2" t="n">
         <v>45237</v>
       </c>
+      <c r="H241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr"/>
@@ -5534,6 +5779,7 @@
       <c r="G242" s="2" t="n">
         <v>45254</v>
       </c>
+      <c r="H242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr"/>
@@ -5555,6 +5801,7 @@
       <c r="G243" s="2" t="n">
         <v>45246</v>
       </c>
+      <c r="H243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr"/>
@@ -5576,6 +5823,7 @@
       <c r="G244" s="2" t="n">
         <v>45259</v>
       </c>
+      <c r="H244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr"/>
@@ -5597,6 +5845,7 @@
       <c r="G245" s="2" t="n">
         <v>45254</v>
       </c>
+      <c r="H245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr"/>
@@ -5618,6 +5867,7 @@
       <c r="G246" s="2" t="n">
         <v>45254</v>
       </c>
+      <c r="H246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr"/>
@@ -5639,6 +5889,7 @@
       <c r="G247" s="2" t="n">
         <v>45259</v>
       </c>
+      <c r="H247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr"/>
@@ -5660,6 +5911,7 @@
       <c r="G248" s="2" t="n">
         <v>45233</v>
       </c>
+      <c r="H248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr"/>
@@ -5681,6 +5933,7 @@
       <c r="G249" s="2" t="n">
         <v>45252</v>
       </c>
+      <c r="H249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr"/>
@@ -5702,6 +5955,7 @@
       <c r="G250" s="2" t="n">
         <v>45237</v>
       </c>
+      <c r="H250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr"/>
@@ -5723,6 +5977,7 @@
       <c r="G251" s="2" t="n">
         <v>45259</v>
       </c>
+      <c r="H251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr"/>
@@ -5744,6 +5999,7 @@
       <c r="G252" s="2" t="n">
         <v>45232</v>
       </c>
+      <c r="H252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr"/>
@@ -5765,6 +6021,7 @@
       <c r="G253" s="2" t="n">
         <v>45241</v>
       </c>
+      <c r="H253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr"/>
@@ -5786,6 +6043,7 @@
       <c r="G254" s="2" t="n">
         <v>45248</v>
       </c>
+      <c r="H254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr"/>
@@ -5807,6 +6065,7 @@
       <c r="G255" s="2" t="n">
         <v>45239</v>
       </c>
+      <c r="H255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr"/>
@@ -5828,6 +6087,7 @@
       <c r="G256" s="2" t="n">
         <v>45237</v>
       </c>
+      <c r="H256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr"/>
@@ -5849,6 +6109,7 @@
       <c r="G257" s="2" t="n">
         <v>45231</v>
       </c>
+      <c r="H257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr"/>
@@ -5870,6 +6131,7 @@
       <c r="G258" s="2" t="n">
         <v>45257</v>
       </c>
+      <c r="H258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr"/>
@@ -5891,6 +6153,7 @@
       <c r="G259" s="2" t="n">
         <v>45251</v>
       </c>
+      <c r="H259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr"/>
@@ -5912,6 +6175,7 @@
       <c r="G260" s="2" t="n">
         <v>45255</v>
       </c>
+      <c r="H260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr"/>
@@ -5933,6 +6197,7 @@
       <c r="G261" s="2" t="n">
         <v>45257</v>
       </c>
+      <c r="H261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr"/>
@@ -5954,6 +6219,7 @@
       <c r="G262" s="2" t="n">
         <v>45233</v>
       </c>
+      <c r="H262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr"/>
@@ -5975,6 +6241,7 @@
       <c r="G263" s="2" t="n">
         <v>45241</v>
       </c>
+      <c r="H263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr"/>
@@ -5996,6 +6263,7 @@
       <c r="G264" s="2" t="n">
         <v>45255</v>
       </c>
+      <c r="H264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr"/>
@@ -6017,6 +6285,7 @@
       <c r="G265" s="2" t="n">
         <v>45256</v>
       </c>
+      <c r="H265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr"/>
@@ -6038,6 +6307,7 @@
       <c r="G266" s="2" t="n">
         <v>45237</v>
       </c>
+      <c r="H266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr"/>
@@ -6059,6 +6329,7 @@
       <c r="G267" s="2" t="n">
         <v>45242</v>
       </c>
+      <c r="H267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr"/>
@@ -6080,6 +6351,7 @@
       <c r="G268" s="2" t="n">
         <v>45235</v>
       </c>
+      <c r="H268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr"/>
@@ -6101,6 +6373,7 @@
       <c r="G269" s="2" t="n">
         <v>45260</v>
       </c>
+      <c r="H269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr"/>
@@ -6122,6 +6395,7 @@
       <c r="G270" s="2" t="n">
         <v>45236</v>
       </c>
+      <c r="H270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr"/>
@@ -6143,6 +6417,7 @@
       <c r="G271" s="2" t="n">
         <v>45247</v>
       </c>
+      <c r="H271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr"/>
@@ -6164,6 +6439,7 @@
       <c r="G272" s="2" t="n">
         <v>45241</v>
       </c>
+      <c r="H272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr"/>
@@ -6185,6 +6461,7 @@
       <c r="G273" s="2" t="n">
         <v>45238</v>
       </c>
+      <c r="H273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr"/>
@@ -6206,6 +6483,7 @@
       <c r="G274" s="2" t="n">
         <v>45243</v>
       </c>
+      <c r="H274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr"/>
@@ -6227,6 +6505,7 @@
       <c r="G275" s="2" t="n">
         <v>45260</v>
       </c>
+      <c r="H275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr"/>
@@ -6248,6 +6527,7 @@
       <c r="G276" s="2" t="n">
         <v>45241</v>
       </c>
+      <c r="H276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr"/>
@@ -6269,6 +6549,7 @@
       <c r="G277" s="2" t="n">
         <v>45233</v>
       </c>
+      <c r="H277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr"/>
@@ -6290,6 +6571,7 @@
       <c r="G278" s="2" t="n">
         <v>45259</v>
       </c>
+      <c r="H278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr"/>
@@ -6311,6 +6593,7 @@
       <c r="G279" s="2" t="n">
         <v>45245</v>
       </c>
+      <c r="H279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr"/>
@@ -6332,6 +6615,7 @@
       <c r="G280" s="2" t="n">
         <v>45243</v>
       </c>
+      <c r="H280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr"/>
@@ -6353,6 +6637,7 @@
       <c r="G281" s="2" t="n">
         <v>45231</v>
       </c>
+      <c r="H281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr"/>
@@ -6374,6 +6659,7 @@
       <c r="G282" s="2" t="n">
         <v>45255</v>
       </c>
+      <c r="H282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr"/>
@@ -6395,6 +6681,7 @@
       <c r="G283" s="2" t="n">
         <v>45246</v>
       </c>
+      <c r="H283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr"/>
@@ -6416,6 +6703,7 @@
       <c r="G284" s="2" t="n">
         <v>45242</v>
       </c>
+      <c r="H284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr"/>
@@ -6437,6 +6725,7 @@
       <c r="G285" s="2" t="n">
         <v>45234</v>
       </c>
+      <c r="H285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr"/>
@@ -6458,6 +6747,7 @@
       <c r="G286" s="2" t="n">
         <v>45247</v>
       </c>
+      <c r="H286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr"/>
@@ -6479,6 +6769,7 @@
       <c r="G287" s="2" t="n">
         <v>45244</v>
       </c>
+      <c r="H287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr"/>
@@ -6500,6 +6791,7 @@
       <c r="G288" s="2" t="n">
         <v>45239</v>
       </c>
+      <c r="H288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr"/>
@@ -6521,6 +6813,7 @@
       <c r="G289" s="2" t="n">
         <v>45253</v>
       </c>
+      <c r="H289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr"/>
@@ -6542,6 +6835,7 @@
       <c r="G290" s="2" t="n">
         <v>45252</v>
       </c>
+      <c r="H290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr"/>
@@ -6563,6 +6857,7 @@
       <c r="G291" s="2" t="n">
         <v>45254</v>
       </c>
+      <c r="H291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr"/>
@@ -6584,6 +6879,7 @@
       <c r="G292" s="2" t="n">
         <v>45246</v>
       </c>
+      <c r="H292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr"/>
@@ -6605,6 +6901,7 @@
       <c r="G293" s="2" t="n">
         <v>45255</v>
       </c>
+      <c r="H293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr"/>
@@ -6626,6 +6923,7 @@
       <c r="G294" s="2" t="n">
         <v>45256</v>
       </c>
+      <c r="H294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr"/>
@@ -6647,6 +6945,7 @@
       <c r="G295" s="2" t="n">
         <v>45236</v>
       </c>
+      <c r="H295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr"/>
@@ -6668,6 +6967,7 @@
       <c r="G296" s="2" t="n">
         <v>45358</v>
       </c>
+      <c r="H296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr"/>
@@ -6689,6 +6989,7 @@
       <c r="G297" s="2" t="n">
         <v>45344</v>
       </c>
+      <c r="H297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr"/>
@@ -6710,6 +7011,7 @@
       <c r="G298" s="2" t="n">
         <v>45283</v>
       </c>
+      <c r="H298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr"/>
@@ -6731,6 +7033,7 @@
       <c r="G299" s="2" t="n">
         <v>45400</v>
       </c>
+      <c r="H299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr"/>
@@ -6752,6 +7055,7 @@
       <c r="G300" s="2" t="n">
         <v>45123</v>
       </c>
+      <c r="H300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr"/>
@@ -6773,6 +7077,7 @@
       <c r="G301" s="2" t="n">
         <v>45179</v>
       </c>
+      <c r="H301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr"/>
@@ -6794,6 +7099,7 @@
       <c r="G302" s="2" t="n">
         <v>45342</v>
       </c>
+      <c r="H302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr"/>
@@ -6815,6 +7121,7 @@
       <c r="G303" s="2" t="n">
         <v>45199</v>
       </c>
+      <c r="H303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr"/>
@@ -6836,6 +7143,7 @@
       <c r="G304" s="2" t="n">
         <v>45101</v>
       </c>
+      <c r="H304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr"/>
@@ -6857,6 +7165,7 @@
       <c r="G305" s="2" t="n">
         <v>45314</v>
       </c>
+      <c r="H305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr"/>
@@ -6878,6 +7187,7 @@
       <c r="G306" s="2" t="n">
         <v>45035</v>
       </c>
+      <c r="H306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr"/>
@@ -6899,6 +7209,7 @@
       <c r="G307" s="2" t="n">
         <v>45393</v>
       </c>
+      <c r="H307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr"/>
@@ -6920,6 +7231,7 @@
       <c r="G308" s="2" t="n">
         <v>45414</v>
       </c>
+      <c r="H308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr"/>
@@ -6941,6 +7253,7 @@
       <c r="G309" s="2" t="n">
         <v>45418</v>
       </c>
+      <c r="H309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr"/>
@@ -6962,14 +7275,11 @@
       <c r="G310" s="2" t="n">
         <v>45356</v>
       </c>
+      <c r="H310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr"/>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>Blusa</t>
-        </is>
-      </c>
+      <c r="B311" t="inlineStr"/>
       <c r="C311" t="n">
         <v>35</v>
       </c>
@@ -6980,15 +7290,18 @@
         <v>280</v>
       </c>
       <c r="F311" t="inlineStr"/>
-      <c r="G311" t="inlineStr"/>
+      <c r="G311" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Blusa</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr"/>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>Pantalones cortos</t>
-        </is>
-      </c>
+      <c r="B312" t="inlineStr"/>
       <c r="C312" t="n">
         <v>20</v>
       </c>
@@ -6999,15 +7312,18 @@
         <v>300</v>
       </c>
       <c r="F312" t="inlineStr"/>
-      <c r="G312" t="inlineStr"/>
+      <c r="G312" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Pantalones cortos</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr"/>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Sombrero de paja</t>
-        </is>
-      </c>
+      <c r="B313" t="inlineStr"/>
       <c r="C313" t="n">
         <v>15</v>
       </c>
@@ -7018,15 +7334,18 @@
         <v>150</v>
       </c>
       <c r="F313" t="inlineStr"/>
-      <c r="G313" t="inlineStr"/>
+      <c r="G313" s="2" t="n">
+        <v>45060</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Sombrero de paja</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr"/>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Chaqueta de cuero</t>
-        </is>
-      </c>
+      <c r="B314" t="inlineStr"/>
       <c r="C314" t="n">
         <v>120</v>
       </c>
@@ -7037,15 +7356,18 @@
         <v>360</v>
       </c>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr"/>
+      <c r="G314" s="2" t="n">
+        <v>45041</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Chaqueta de cuero</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr"/>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Mochila</t>
-        </is>
-      </c>
+      <c r="B315" t="inlineStr"/>
       <c r="C315" t="n">
         <v>40</v>
       </c>
@@ -7056,15 +7378,18 @@
         <v>240</v>
       </c>
       <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr"/>
+      <c r="G315" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Mochila</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr"/>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Bufanda de lana</t>
-        </is>
-      </c>
+      <c r="B316" t="inlineStr"/>
       <c r="C316" t="n">
         <v>18</v>
       </c>
@@ -7075,15 +7400,18 @@
         <v>216</v>
       </c>
       <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr"/>
+      <c r="G316" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Bufanda de lana</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr"/>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>Zapatos deportivos</t>
-        </is>
-      </c>
+      <c r="B317" t="inlineStr"/>
       <c r="C317" t="n">
         <v>70</v>
       </c>
@@ -7094,15 +7422,18 @@
         <v>350</v>
       </c>
       <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr"/>
+      <c r="G317" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Zapatos deportivos</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr"/>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>Camisa de vestir</t>
-        </is>
-      </c>
+      <c r="B318" t="inlineStr"/>
       <c r="C318" t="n">
         <v>45</v>
       </c>
@@ -7113,15 +7444,18 @@
         <v>315</v>
       </c>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr"/>
+      <c r="G318" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Camisa de vestir</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr"/>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>Falda larga</t>
-        </is>
-      </c>
+      <c r="B319" t="inlineStr"/>
       <c r="C319" t="n">
         <v>50</v>
       </c>
@@ -7132,15 +7466,18 @@
         <v>200</v>
       </c>
       <c r="F319" t="inlineStr"/>
-      <c r="G319" t="inlineStr"/>
+      <c r="G319" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Falda larga</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr"/>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>Calcetines de compresión</t>
-        </is>
-      </c>
+      <c r="B320" t="inlineStr"/>
       <c r="C320" t="n">
         <v>8</v>
       </c>
@@ -7151,15 +7488,18 @@
         <v>160</v>
       </c>
       <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr"/>
+      <c r="G320" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Calcetines de compresión</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr"/>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>Botas de montaña</t>
-        </is>
-      </c>
+      <c r="B321" t="inlineStr"/>
       <c r="C321" t="n">
         <v>90</v>
       </c>
@@ -7170,15 +7510,18 @@
         <v>270</v>
       </c>
       <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr"/>
+      <c r="G321" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Botas de montaña</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr"/>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>Bolso de mano</t>
-        </is>
-      </c>
+      <c r="B322" t="inlineStr"/>
       <c r="C322" t="n">
         <v>30</v>
       </c>
@@ -7189,15 +7532,18 @@
         <v>270</v>
       </c>
       <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr"/>
+      <c r="G322" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Bolso de mano</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr"/>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>Gorro de lana</t>
-        </is>
-      </c>
+      <c r="B323" t="inlineStr"/>
       <c r="C323" t="n">
         <v>12</v>
       </c>
@@ -7208,15 +7554,18 @@
         <v>180</v>
       </c>
       <c r="F323" t="inlineStr"/>
-      <c r="G323" t="inlineStr"/>
+      <c r="G323" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Gorro de lana</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr"/>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>Leggings estampados</t>
-        </is>
-      </c>
+      <c r="B324" t="inlineStr"/>
       <c r="C324" t="n">
         <v>25</v>
       </c>
@@ -7227,15 +7576,18 @@
         <v>200</v>
       </c>
       <c r="F324" t="inlineStr"/>
-      <c r="G324" t="inlineStr"/>
+      <c r="G324" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Leggings estampados</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr"/>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>Chaleco</t>
-        </is>
-      </c>
+      <c r="B325" t="inlineStr"/>
       <c r="C325" t="n">
         <v>55</v>
       </c>
@@ -7246,15 +7598,18 @@
         <v>275</v>
       </c>
       <c r="F325" t="inlineStr"/>
-      <c r="G325" t="inlineStr"/>
+      <c r="G325" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Chaleco</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr"/>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Camiseta sin mangas</t>
-        </is>
-      </c>
+      <c r="B326" t="inlineStr"/>
       <c r="C326" t="n">
         <v>15</v>
       </c>
@@ -7265,15 +7620,18 @@
         <v>150</v>
       </c>
       <c r="F326" t="inlineStr"/>
-      <c r="G326" t="inlineStr"/>
+      <c r="G326" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Camiseta sin mangas</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr"/>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>Traje formal</t>
-        </is>
-      </c>
+      <c r="B327" t="inlineStr"/>
       <c r="C327" t="n">
         <v>200</v>
       </c>
@@ -7284,15 +7642,18 @@
         <v>400</v>
       </c>
       <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr"/>
+      <c r="G327" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Traje formal</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr"/>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>Sandalias</t>
-        </is>
-      </c>
+      <c r="B328" t="inlineStr"/>
       <c r="C328" t="n">
         <v>25</v>
       </c>
@@ -7303,15 +7664,18 @@
         <v>175</v>
       </c>
       <c r="F328" t="inlineStr"/>
-      <c r="G328" t="inlineStr"/>
+      <c r="G328" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Sandalias</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr"/>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>Jeans</t>
-        </is>
-      </c>
+      <c r="B329" t="inlineStr"/>
       <c r="C329" t="n">
         <v>40</v>
       </c>
@@ -7322,15 +7686,18 @@
         <v>240</v>
       </c>
       <c r="F329" t="inlineStr"/>
-      <c r="G329" t="inlineStr"/>
+      <c r="G329" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Jeans</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr"/>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>Top deportivo</t>
-        </is>
-      </c>
+      <c r="B330" t="inlineStr"/>
       <c r="C330" t="n">
         <v>30</v>
       </c>
@@ -7341,15 +7708,18 @@
         <v>240</v>
       </c>
       <c r="F330" t="inlineStr"/>
-      <c r="G330" t="inlineStr"/>
+      <c r="G330" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Top deportivo</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr"/>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>Abrigo de invierno</t>
-        </is>
-      </c>
+      <c r="B331" t="inlineStr"/>
       <c r="C331" t="n">
         <v>150</v>
       </c>
@@ -7360,15 +7730,18 @@
         <v>450</v>
       </c>
       <c r="F331" t="inlineStr"/>
-      <c r="G331" t="inlineStr"/>
+      <c r="G331" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Abrigo de invierno</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr"/>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>Mallas</t>
-        </is>
-      </c>
+      <c r="B332" t="inlineStr"/>
       <c r="C332" t="n">
         <v>20</v>
       </c>
@@ -7379,15 +7752,18 @@
         <v>240</v>
       </c>
       <c r="F332" t="inlineStr"/>
-      <c r="G332" t="inlineStr"/>
+      <c r="G332" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Mallas</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr"/>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Blazer</t>
-        </is>
-      </c>
+      <c r="B333" t="inlineStr"/>
       <c r="C333" t="n">
         <v>60</v>
       </c>
@@ -7398,15 +7774,18 @@
         <v>240</v>
       </c>
       <c r="F333" t="inlineStr"/>
-      <c r="G333" t="inlineStr"/>
+      <c r="G333" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr"/>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>Camiseta de tirantes</t>
-        </is>
-      </c>
+      <c r="B334" t="inlineStr"/>
       <c r="C334" t="n">
         <v>10</v>
       </c>
@@ -7417,15 +7796,18 @@
         <v>150</v>
       </c>
       <c r="F334" t="inlineStr"/>
-      <c r="G334" t="inlineStr"/>
+      <c r="G334" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Camiseta de tirantes</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr"/>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>Vestido formal</t>
-        </is>
-      </c>
+      <c r="B335" t="inlineStr"/>
       <c r="C335" t="n">
         <v>80</v>
       </c>
@@ -7436,15 +7818,18 @@
         <v>400</v>
       </c>
       <c r="F335" t="inlineStr"/>
-      <c r="G335" t="inlineStr"/>
+      <c r="G335" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Vestido formal</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr"/>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>Bufanda de seda</t>
-        </is>
-      </c>
+      <c r="B336" t="inlineStr"/>
       <c r="C336" t="n">
         <v>25</v>
       </c>
@@ -7455,15 +7840,18 @@
         <v>150</v>
       </c>
       <c r="F336" t="inlineStr"/>
-      <c r="G336" t="inlineStr"/>
+      <c r="G336" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Bufanda de seda</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr"/>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Pantalones de yoga</t>
-        </is>
-      </c>
+      <c r="B337" t="inlineStr"/>
       <c r="C337" t="n">
         <v>35</v>
       </c>
@@ -7474,15 +7862,18 @@
         <v>315</v>
       </c>
       <c r="F337" t="inlineStr"/>
-      <c r="G337" t="inlineStr"/>
+      <c r="G337" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Pantalones de yoga</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr"/>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>Gorra de béisbol</t>
-        </is>
-      </c>
+      <c r="B338" t="inlineStr"/>
       <c r="C338" t="n">
         <v>20</v>
       </c>
@@ -7493,15 +7884,18 @@
         <v>200</v>
       </c>
       <c r="F338" t="inlineStr"/>
-      <c r="G338" t="inlineStr"/>
+      <c r="G338" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Gorra de béisbol</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr"/>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>Zapatos de tacón</t>
-        </is>
-      </c>
+      <c r="B339" t="inlineStr"/>
       <c r="C339" t="n">
         <v>85</v>
       </c>
@@ -7512,15 +7906,18 @@
         <v>340</v>
       </c>
       <c r="F339" t="inlineStr"/>
-      <c r="G339" t="inlineStr"/>
+      <c r="G339" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Zapatos de tacón</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr"/>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>Polo</t>
-        </is>
-      </c>
+      <c r="B340" t="inlineStr"/>
       <c r="C340" t="n">
         <v>25</v>
       </c>
@@ -7531,7 +7928,14 @@
         <v>200</v>
       </c>
       <c r="F340" t="inlineStr"/>
-      <c r="G340" t="inlineStr"/>
+      <c r="G340" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr"/>
@@ -7551,6 +7955,7 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr"/>
@@ -7570,6 +7975,7 @@
       </c>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr"/>
@@ -7589,6 +7995,7 @@
       </c>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr"/>
@@ -7608,6 +8015,7 @@
       </c>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr"/>
@@ -7627,6 +8035,7 @@
       </c>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr"/>
@@ -7646,6 +8055,7 @@
       </c>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr"/>
@@ -7665,6 +8075,7 @@
       </c>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr"/>
@@ -7684,6 +8095,7 @@
       </c>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr"/>
@@ -7703,6 +8115,7 @@
       </c>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr"/>
@@ -7722,6 +8135,7 @@
       </c>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr"/>
@@ -7741,6 +8155,7 @@
       </c>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr"/>
@@ -7760,6 +8175,7 @@
       </c>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr"/>
@@ -7779,6 +8195,7 @@
       </c>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr"/>
@@ -7798,6 +8215,7 @@
       </c>
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr"/>
@@ -7817,6 +8235,7 @@
       </c>
       <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr"/>
@@ -7836,6 +8255,7 @@
       </c>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr"/>
@@ -7855,6 +8275,7 @@
       </c>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr"/>
@@ -7874,6 +8295,7 @@
       </c>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr"/>
@@ -7893,6 +8315,7 @@
       </c>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr"/>
@@ -7912,6 +8335,7 @@
       </c>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr"/>
@@ -7931,6 +8355,7 @@
       </c>
       <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr"/>
@@ -7950,6 +8375,7 @@
       </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr"/>
@@ -7969,6 +8395,7 @@
       </c>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr"/>
@@ -7988,6 +8415,7 @@
       </c>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr"/>
@@ -8007,6 +8435,7 @@
       </c>
       <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr"/>
@@ -8026,6 +8455,7 @@
       </c>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr"/>
@@ -8045,6 +8475,7 @@
       </c>
       <c r="F367" t="inlineStr"/>
       <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr"/>
@@ -8064,6 +8495,7 @@
       </c>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr"/>
@@ -8083,6 +8515,7 @@
       </c>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr"/>
@@ -8102,6 +8535,7 @@
       </c>
       <c r="F370" t="inlineStr"/>
       <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -7954,7 +7954,9 @@
         <v>120</v>
       </c>
       <c r="F341" t="inlineStr"/>
-      <c r="G341" t="inlineStr"/>
+      <c r="G341" s="2" t="n">
+        <v>45306</v>
+      </c>
       <c r="H341" t="inlineStr"/>
     </row>
     <row r="342">
@@ -7974,7 +7976,9 @@
         <v>180</v>
       </c>
       <c r="F342" t="inlineStr"/>
-      <c r="G342" t="inlineStr"/>
+      <c r="G342" s="2" t="n">
+        <v>45410</v>
+      </c>
       <c r="H342" t="inlineStr"/>
     </row>
     <row r="343">
@@ -7994,7 +7998,9 @@
         <v>200</v>
       </c>
       <c r="F343" t="inlineStr"/>
-      <c r="G343" t="inlineStr"/>
+      <c r="G343" s="2" t="n">
+        <v>45060</v>
+      </c>
       <c r="H343" t="inlineStr"/>
     </row>
     <row r="344">
@@ -8014,7 +8020,9 @@
         <v>320</v>
       </c>
       <c r="F344" t="inlineStr"/>
-      <c r="G344" t="inlineStr"/>
+      <c r="G344" s="2" t="n">
+        <v>45041</v>
+      </c>
       <c r="H344" t="inlineStr"/>
     </row>
     <row r="345">
@@ -8034,7 +8042,9 @@
         <v>300</v>
       </c>
       <c r="F345" t="inlineStr"/>
-      <c r="G345" t="inlineStr"/>
+      <c r="G345" s="2" t="n">
+        <v>45124</v>
+      </c>
       <c r="H345" t="inlineStr"/>
     </row>
     <row r="346">
@@ -8054,7 +8064,9 @@
         <v>315</v>
       </c>
       <c r="F346" t="inlineStr"/>
-      <c r="G346" t="inlineStr"/>
+      <c r="G346" s="2" t="n">
+        <v>45366</v>
+      </c>
       <c r="H346" t="inlineStr"/>
     </row>
     <row r="347">
@@ -8074,7 +8086,9 @@
         <v>315</v>
       </c>
       <c r="F347" t="inlineStr"/>
-      <c r="G347" t="inlineStr"/>
+      <c r="G347" s="2" t="n">
+        <v>45410</v>
+      </c>
       <c r="H347" t="inlineStr"/>
     </row>
     <row r="348">
@@ -8094,7 +8108,9 @@
         <v>216</v>
       </c>
       <c r="F348" t="inlineStr"/>
-      <c r="G348" t="inlineStr"/>
+      <c r="G348" s="2" t="n">
+        <v>44983</v>
+      </c>
       <c r="H348" t="inlineStr"/>
     </row>
     <row r="349">
@@ -8114,7 +8130,9 @@
         <v>200</v>
       </c>
       <c r="F349" t="inlineStr"/>
-      <c r="G349" t="inlineStr"/>
+      <c r="G349" s="2" t="n">
+        <v>45402</v>
+      </c>
       <c r="H349" t="inlineStr"/>
     </row>
     <row r="350">
@@ -8134,7 +8152,9 @@
         <v>240</v>
       </c>
       <c r="F350" t="inlineStr"/>
-      <c r="G350" t="inlineStr"/>
+      <c r="G350" s="2" t="n">
+        <v>45202</v>
+      </c>
       <c r="H350" t="inlineStr"/>
     </row>
     <row r="351">
@@ -8154,7 +8174,9 @@
         <v>280</v>
       </c>
       <c r="F351" t="inlineStr"/>
-      <c r="G351" t="inlineStr"/>
+      <c r="G351" s="2" t="n">
+        <v>45352</v>
+      </c>
       <c r="H351" t="inlineStr"/>
     </row>
     <row r="352">
@@ -8174,7 +8196,9 @@
         <v>200</v>
       </c>
       <c r="F352" t="inlineStr"/>
-      <c r="G352" t="inlineStr"/>
+      <c r="G352" s="2" t="n">
+        <v>45192</v>
+      </c>
       <c r="H352" t="inlineStr"/>
     </row>
     <row r="353">
@@ -8194,7 +8218,9 @@
         <v>270</v>
       </c>
       <c r="F353" t="inlineStr"/>
-      <c r="G353" t="inlineStr"/>
+      <c r="G353" s="2" t="n">
+        <v>45324</v>
+      </c>
       <c r="H353" t="inlineStr"/>
     </row>
     <row r="354">
@@ -8214,7 +8240,9 @@
         <v>275</v>
       </c>
       <c r="F354" t="inlineStr"/>
-      <c r="G354" t="inlineStr"/>
+      <c r="G354" s="2" t="n">
+        <v>45394</v>
+      </c>
       <c r="H354" t="inlineStr"/>
     </row>
     <row r="355">
@@ -8234,7 +8262,9 @@
         <v>300</v>
       </c>
       <c r="F355" t="inlineStr"/>
-      <c r="G355" t="inlineStr"/>
+      <c r="G355" s="2" t="n">
+        <v>45162</v>
+      </c>
       <c r="H355" t="inlineStr"/>
     </row>
     <row r="356">
@@ -8254,7 +8284,9 @@
         <v>180</v>
       </c>
       <c r="F356" t="inlineStr"/>
-      <c r="G356" t="inlineStr"/>
+      <c r="G356" s="2" t="n">
+        <v>44986</v>
+      </c>
       <c r="H356" t="inlineStr"/>
     </row>
     <row r="357">
@@ -8274,7 +8306,9 @@
         <v>240</v>
       </c>
       <c r="F357" t="inlineStr"/>
-      <c r="G357" t="inlineStr"/>
+      <c r="G357" s="2" t="n">
+        <v>45134</v>
+      </c>
       <c r="H357" t="inlineStr"/>
     </row>
     <row r="358">
@@ -8294,7 +8328,9 @@
         <v>175</v>
       </c>
       <c r="F358" t="inlineStr"/>
-      <c r="G358" t="inlineStr"/>
+      <c r="G358" s="2" t="n">
+        <v>44939</v>
+      </c>
       <c r="H358" t="inlineStr"/>
     </row>
     <row r="359">
@@ -8314,7 +8350,9 @@
         <v>240</v>
       </c>
       <c r="F359" t="inlineStr"/>
-      <c r="G359" t="inlineStr"/>
+      <c r="G359" s="2" t="n">
+        <v>45313</v>
+      </c>
       <c r="H359" t="inlineStr"/>
     </row>
     <row r="360">
@@ -8334,7 +8372,9 @@
         <v>540</v>
       </c>
       <c r="F360" t="inlineStr"/>
-      <c r="G360" t="inlineStr"/>
+      <c r="G360" s="2" t="n">
+        <v>45184</v>
+      </c>
       <c r="H360" t="inlineStr"/>
     </row>
     <row r="361">
@@ -8354,7 +8394,9 @@
         <v>210</v>
       </c>
       <c r="F361" t="inlineStr"/>
-      <c r="G361" t="inlineStr"/>
+      <c r="G361" s="2" t="n">
+        <v>45296</v>
+      </c>
       <c r="H361" t="inlineStr"/>
     </row>
     <row r="362">
@@ -8374,7 +8416,9 @@
         <v>250</v>
       </c>
       <c r="F362" t="inlineStr"/>
-      <c r="G362" t="inlineStr"/>
+      <c r="G362" s="2" t="n">
+        <v>45147</v>
+      </c>
       <c r="H362" t="inlineStr"/>
     </row>
     <row r="363">
@@ -8394,7 +8438,9 @@
         <v>180</v>
       </c>
       <c r="F363" t="inlineStr"/>
-      <c r="G363" t="inlineStr"/>
+      <c r="G363" s="2" t="n">
+        <v>45142</v>
+      </c>
       <c r="H363" t="inlineStr"/>
     </row>
     <row r="364">
@@ -8414,7 +8460,9 @@
         <v>200</v>
       </c>
       <c r="F364" t="inlineStr"/>
-      <c r="G364" t="inlineStr"/>
+      <c r="G364" s="2" t="n">
+        <v>45321</v>
+      </c>
       <c r="H364" t="inlineStr"/>
     </row>
     <row r="365">
@@ -8434,7 +8482,9 @@
         <v>260</v>
       </c>
       <c r="F365" t="inlineStr"/>
-      <c r="G365" t="inlineStr"/>
+      <c r="G365" s="2" t="n">
+        <v>45414</v>
+      </c>
       <c r="H365" t="inlineStr"/>
     </row>
     <row r="366">
@@ -8454,7 +8504,9 @@
         <v>385</v>
       </c>
       <c r="F366" t="inlineStr"/>
-      <c r="G366" t="inlineStr"/>
+      <c r="G366" s="2" t="n">
+        <v>44969</v>
+      </c>
       <c r="H366" t="inlineStr"/>
     </row>
     <row r="367">
@@ -8474,7 +8526,9 @@
         <v>420</v>
       </c>
       <c r="F367" t="inlineStr"/>
-      <c r="G367" t="inlineStr"/>
+      <c r="G367" s="2" t="n">
+        <v>45048</v>
+      </c>
       <c r="H367" t="inlineStr"/>
     </row>
     <row r="368">
@@ -8494,7 +8548,9 @@
         <v>360</v>
       </c>
       <c r="F368" t="inlineStr"/>
-      <c r="G368" t="inlineStr"/>
+      <c r="G368" s="2" t="n">
+        <v>44978</v>
+      </c>
       <c r="H368" t="inlineStr"/>
     </row>
     <row r="369">
@@ -8514,7 +8570,9 @@
         <v>270</v>
       </c>
       <c r="F369" t="inlineStr"/>
-      <c r="G369" t="inlineStr"/>
+      <c r="G369" s="2" t="n">
+        <v>45286</v>
+      </c>
       <c r="H369" t="inlineStr"/>
     </row>
     <row r="370">
@@ -8534,7 +8592,9 @@
         <v>250</v>
       </c>
       <c r="F370" t="inlineStr"/>
-      <c r="G370" t="inlineStr"/>
+      <c r="G370" s="2" t="n">
+        <v>45327</v>
+      </c>
       <c r="H370" t="inlineStr"/>
     </row>
   </sheetData>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H370"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -464,16 +464,6 @@
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Fcha</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>NombreProducto</t>
         </is>
@@ -498,8 +488,6 @@
         <v>300</v>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -520,8 +508,6 @@
         <v>375</v>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -542,8 +528,6 @@
         <v>500</v>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -564,8 +548,6 @@
         <v>300</v>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -586,8 +568,6 @@
         <v>375</v>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -608,8 +588,6 @@
         <v>500</v>
       </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -630,8 +608,6 @@
         <v>300</v>
       </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -652,8 +628,6 @@
         <v>375</v>
       </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -674,8 +648,6 @@
         <v>500</v>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -696,8 +668,6 @@
         <v>300</v>
       </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -718,8 +688,6 @@
         <v>375</v>
       </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -740,8 +708,6 @@
         <v>500</v>
       </c>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -762,8 +728,6 @@
         <v>300</v>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -784,8 +748,6 @@
         <v>375</v>
       </c>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -806,8 +768,6 @@
         <v>500</v>
       </c>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -828,8 +788,6 @@
         <v>300</v>
       </c>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -850,8 +808,6 @@
         <v>375</v>
       </c>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -872,8 +828,6 @@
         <v>500</v>
       </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -894,8 +848,6 @@
         <v>300</v>
       </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -916,8 +868,6 @@
         <v>375</v>
       </c>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -938,8 +888,6 @@
         <v>500</v>
       </c>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -960,8 +908,6 @@
         <v>300</v>
       </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -982,8 +928,6 @@
         <v>375</v>
       </c>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1004,11 +948,11 @@
         <v>500</v>
       </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" s="2" t="n">
+        <v>45342</v>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1023,14 +967,12 @@
       <c r="E26" t="n">
         <v>210</v>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" s="2" t="n">
+        <v>45398</v>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1045,14 +987,12 @@
       <c r="E27" t="n">
         <v>375</v>
       </c>
-      <c r="F27" s="2" t="n">
-        <v>45398</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" s="2" t="n">
+        <v>45166</v>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1067,14 +1007,12 @@
       <c r="E28" t="n">
         <v>500</v>
       </c>
-      <c r="F28" s="2" t="n">
-        <v>45166</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" s="2" t="n">
+        <v>45216</v>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1089,14 +1027,12 @@
       <c r="E29" t="n">
         <v>45</v>
       </c>
-      <c r="F29" s="2" t="n">
-        <v>45216</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" s="2" t="n">
+        <v>45017</v>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1111,14 +1047,12 @@
       <c r="E30" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F30" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" s="2" t="n">
+        <v>45151</v>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1133,14 +1067,12 @@
       <c r="E31" t="n">
         <v>700</v>
       </c>
-      <c r="F31" s="2" t="n">
-        <v>45151</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" s="2" t="n">
+        <v>45116</v>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1155,14 +1087,12 @@
       <c r="E32" t="n">
         <v>225</v>
       </c>
-      <c r="F32" s="2" t="n">
-        <v>45116</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" s="2" t="n">
+        <v>45281</v>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1177,14 +1107,12 @@
       <c r="E33" t="n">
         <v>250</v>
       </c>
-      <c r="F33" s="2" t="n">
-        <v>45281</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" s="2" t="n">
+        <v>45126</v>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1199,14 +1127,12 @@
       <c r="E34" t="n">
         <v>150</v>
       </c>
-      <c r="F34" s="2" t="n">
-        <v>45126</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" s="2" t="n">
+        <v>45073</v>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1221,14 +1147,12 @@
       <c r="E35" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F35" s="2" t="n">
-        <v>45073</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" s="2" t="n">
+        <v>45331</v>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1243,14 +1167,12 @@
       <c r="E36" t="n">
         <v>350</v>
       </c>
-      <c r="F36" s="2" t="n">
-        <v>45331</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" s="2" t="n">
+        <v>45323</v>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1265,14 +1187,12 @@
       <c r="E37" t="n">
         <v>750</v>
       </c>
-      <c r="F37" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" s="2" t="n">
+        <v>45041</v>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1287,14 +1207,12 @@
       <c r="E38" t="n">
         <v>150</v>
       </c>
-      <c r="F38" s="2" t="n">
-        <v>45041</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" s="2" t="n">
+        <v>45141</v>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1309,14 +1227,12 @@
       <c r="E39" t="n">
         <v>75</v>
       </c>
-      <c r="F39" s="2" t="n">
-        <v>45141</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" s="2" t="n">
+        <v>45331</v>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1331,14 +1247,12 @@
       <c r="E40" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F40" s="2" t="n">
-        <v>45331</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" s="2" t="n">
+        <v>45179</v>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1353,14 +1267,12 @@
       <c r="E41" t="n">
         <v>210</v>
       </c>
-      <c r="F41" s="2" t="n">
-        <v>45179</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" s="2" t="n">
+        <v>45133</v>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1375,14 +1287,12 @@
       <c r="E42" t="n">
         <v>375</v>
       </c>
-      <c r="F42" s="2" t="n">
-        <v>45133</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" s="2" t="n">
+        <v>45376</v>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1397,14 +1307,12 @@
       <c r="E43" t="n">
         <v>500</v>
       </c>
-      <c r="F43" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
+      <c r="A44" s="2" t="n">
+        <v>45280</v>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1419,14 +1327,12 @@
       <c r="E44" t="n">
         <v>45</v>
       </c>
-      <c r="F44" s="2" t="n">
-        <v>45280</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" s="2" t="n">
+        <v>45238</v>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1441,14 +1347,12 @@
       <c r="E45" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F45" s="2" t="n">
-        <v>45238</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" s="2" t="n">
+        <v>44937</v>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1463,14 +1367,12 @@
       <c r="E46" t="n">
         <v>700</v>
       </c>
-      <c r="F46" s="2" t="n">
-        <v>44937</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" s="2" t="n">
+        <v>45363</v>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1485,14 +1387,12 @@
       <c r="E47" t="n">
         <v>225</v>
       </c>
-      <c r="F47" s="2" t="n">
-        <v>45363</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
+      <c r="A48" s="2" t="n">
+        <v>45315</v>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1507,14 +1407,12 @@
       <c r="E48" t="n">
         <v>250</v>
       </c>
-      <c r="F48" s="2" t="n">
-        <v>45315</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" s="2" t="n">
+        <v>45100</v>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1529,14 +1427,12 @@
       <c r="E49" t="n">
         <v>150</v>
       </c>
-      <c r="F49" s="2" t="n">
-        <v>45100</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" s="2" t="n">
+        <v>44965</v>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1552,13 +1448,11 @@
         <v>15</v>
       </c>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" s="2" t="n">
+        <v>45232</v>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1574,13 +1468,11 @@
         <v>100</v>
       </c>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" s="2" t="n">
-        <v>45232</v>
-      </c>
-      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" s="2" t="n">
+        <v>44946</v>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1596,13 +1488,11 @@
         <v>300</v>
       </c>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" s="2" t="n">
-        <v>44946</v>
-      </c>
-      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" s="2" t="n">
+        <v>44983</v>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1618,13 +1508,11 @@
         <v>135</v>
       </c>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" s="2" t="n">
-        <v>44983</v>
-      </c>
-      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" s="2" t="n">
+        <v>45163</v>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1640,13 +1528,11 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" s="2" t="n">
-        <v>45163</v>
-      </c>
-      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" s="2" t="n">
+        <v>45399</v>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1662,13 +1548,11 @@
         <v>50</v>
       </c>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" s="2" t="n">
-        <v>45399</v>
-      </c>
-      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" s="2" t="n">
+        <v>45385</v>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1684,13 +1568,11 @@
         <v>60</v>
       </c>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" s="2" t="n">
-        <v>45385</v>
-      </c>
-      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
+      <c r="A57" s="2" t="n">
+        <v>44971</v>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1706,13 +1588,11 @@
         <v>150</v>
       </c>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" s="2" t="n">
-        <v>44971</v>
-      </c>
-      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
+      <c r="A58" s="2" t="n">
+        <v>45291</v>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1728,13 +1608,11 @@
         <v>450</v>
       </c>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" s="2" t="n">
-        <v>45291</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
+      <c r="A59" s="2" t="n">
+        <v>45027</v>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1750,13 +1628,11 @@
         <v>14.99999999999994</v>
       </c>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
+      <c r="A60" s="2" t="n">
+        <v>44993</v>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1772,13 +1648,11 @@
         <v>25</v>
       </c>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" s="2" t="n">
-        <v>44993</v>
-      </c>
-      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
+      <c r="A61" s="2" t="n">
+        <v>45097</v>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1794,13 +1668,11 @@
         <v>200</v>
       </c>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" s="2" t="n">
-        <v>45097</v>
-      </c>
-      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
+      <c r="A62" s="2" t="n">
+        <v>45304</v>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1816,13 +1688,11 @@
         <v>90</v>
       </c>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" s="2" t="n">
-        <v>45304</v>
-      </c>
-      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
+      <c r="A63" s="2" t="n">
+        <v>45388</v>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1838,13 +1708,11 @@
         <v>225</v>
       </c>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" s="2" t="n">
-        <v>45388</v>
-      </c>
-      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
+      <c r="A64" s="2" t="n">
+        <v>44951</v>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1860,13 +1728,11 @@
         <v>49.9999999999998</v>
       </c>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" s="2" t="n">
-        <v>44951</v>
-      </c>
-      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
+      <c r="A65" s="2" t="n">
+        <v>45301</v>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1882,13 +1748,11 @@
         <v>15</v>
       </c>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
+      <c r="A66" s="2" t="n">
+        <v>45127</v>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1904,13 +1768,11 @@
         <v>100</v>
       </c>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" s="2" t="n">
-        <v>45127</v>
-      </c>
-      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
+      <c r="A67" s="2" t="n">
+        <v>45350</v>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1926,13 +1788,11 @@
         <v>300</v>
       </c>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" s="2" t="n">
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>45350</v>
       </c>
-      <c r="H67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -1948,13 +1808,11 @@
         <v>135</v>
       </c>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" s="2" t="n">
-        <v>45350</v>
-      </c>
-      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
+      <c r="A69" s="2" t="n">
+        <v>45055</v>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -1970,13 +1828,11 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" s="2" t="n">
-        <v>45055</v>
-      </c>
-      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
+      <c r="A70" s="2" t="n">
+        <v>45052</v>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -1992,13 +1848,11 @@
         <v>50</v>
       </c>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" s="2" t="n">
-        <v>45052</v>
-      </c>
-      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
+      <c r="A71" s="2" t="n">
+        <v>44967</v>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2014,13 +1868,11 @@
         <v>60</v>
       </c>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" s="2" t="n">
-        <v>44967</v>
-      </c>
-      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
+      <c r="A72" s="2" t="n">
+        <v>45298</v>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2036,13 +1888,11 @@
         <v>150</v>
       </c>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
+      <c r="A73" s="2" t="n">
+        <v>45120</v>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2058,13 +1908,11 @@
         <v>450</v>
       </c>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" s="2" t="n">
-        <v>45120</v>
-      </c>
-      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
+      <c r="A74" s="2" t="n">
+        <v>45150</v>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2080,13 +1928,11 @@
         <v>15</v>
       </c>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" s="2" t="n">
-        <v>45150</v>
-      </c>
-      <c r="H74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
+      <c r="A75" s="2" t="n">
+        <v>45078</v>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2102,13 +1948,11 @@
         <v>100</v>
       </c>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
+      <c r="A76" s="2" t="n">
+        <v>44945</v>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2124,13 +1968,11 @@
         <v>300</v>
       </c>
       <c r="F76" t="inlineStr"/>
-      <c r="G76" s="2" t="n">
-        <v>44945</v>
-      </c>
-      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr"/>
+      <c r="A77" s="2" t="n">
+        <v>45341</v>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2146,13 +1988,11 @@
         <v>135</v>
       </c>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
+      <c r="A78" s="2" t="n">
+        <v>45241</v>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2168,13 +2008,11 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" s="2" t="n">
-        <v>45241</v>
-      </c>
-      <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr"/>
+      <c r="A79" s="2" t="n">
+        <v>45391</v>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2190,13 +2028,11 @@
         <v>50</v>
       </c>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" s="2" t="n">
-        <v>45391</v>
-      </c>
-      <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr"/>
+      <c r="A80" s="2" t="n">
+        <v>44931</v>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2212,13 +2048,11 @@
         <v>60</v>
       </c>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" s="2" t="n">
-        <v>44931</v>
-      </c>
-      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
+      <c r="A81" s="2" t="n">
+        <v>44996</v>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2234,13 +2068,11 @@
         <v>150</v>
       </c>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr"/>
+      <c r="A82" s="2" t="n">
+        <v>45253</v>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2256,13 +2088,11 @@
         <v>450</v>
       </c>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" s="2" t="n">
-        <v>45253</v>
-      </c>
-      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
+      <c r="A83" s="2" t="n">
+        <v>45312</v>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2278,13 +2108,11 @@
         <v>14.99999999999994</v>
       </c>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" s="2" t="n">
-        <v>45312</v>
-      </c>
-      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
+      <c r="A84" s="2" t="n">
+        <v>45073</v>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2300,13 +2128,11 @@
         <v>25</v>
       </c>
       <c r="F84" t="inlineStr"/>
-      <c r="G84" s="2" t="n">
-        <v>45073</v>
-      </c>
-      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr"/>
+      <c r="A85" s="2" t="n">
+        <v>45132</v>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2322,13 +2148,11 @@
         <v>200</v>
       </c>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" s="2" t="n">
-        <v>45132</v>
-      </c>
-      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
+      <c r="A86" s="2" t="n">
+        <v>45358</v>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2344,13 +2168,11 @@
         <v>90</v>
       </c>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" s="2" t="n">
-        <v>45358</v>
-      </c>
-      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr"/>
+      <c r="A87" s="2" t="n">
+        <v>45056</v>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2366,13 +2188,11 @@
         <v>225</v>
       </c>
       <c r="F87" t="inlineStr"/>
-      <c r="G87" s="2" t="n">
-        <v>45056</v>
-      </c>
-      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr"/>
+      <c r="A88" s="2" t="n">
+        <v>45233</v>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2388,13 +2208,11 @@
         <v>49.9999999999998</v>
       </c>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" s="2" t="n">
-        <v>45233</v>
-      </c>
-      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
+      <c r="A89" s="2" t="n">
+        <v>45001</v>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2410,13 +2228,11 @@
         <v>15</v>
       </c>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" s="2" t="n">
-        <v>45001</v>
-      </c>
-      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
+      <c r="A90" s="2" t="n">
+        <v>45177</v>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2432,13 +2248,11 @@
         <v>100</v>
       </c>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" s="2" t="n">
-        <v>45177</v>
-      </c>
-      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
+      <c r="A91" s="2" t="n">
+        <v>45389</v>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2454,13 +2268,11 @@
         <v>300</v>
       </c>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" s="2" t="n">
-        <v>45389</v>
-      </c>
-      <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
+      <c r="A92" s="2" t="n">
+        <v>44981</v>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2476,13 +2288,11 @@
         <v>135</v>
       </c>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" s="2" t="n">
-        <v>44981</v>
-      </c>
-      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr"/>
+      <c r="A93" s="2" t="n">
+        <v>45087</v>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2498,13 +2308,11 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" s="2" t="n">
-        <v>45087</v>
-      </c>
-      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
+      <c r="A94" s="2" t="n">
+        <v>45069</v>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2520,13 +2328,11 @@
         <v>50</v>
       </c>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" s="2" t="n">
-        <v>45069</v>
-      </c>
-      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr"/>
+      <c r="A95" s="2" t="n">
+        <v>45189</v>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2542,13 +2348,11 @@
         <v>60</v>
       </c>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" s="2" t="n">
-        <v>45189</v>
-      </c>
-      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr"/>
+      <c r="A96" s="2" t="n">
+        <v>45289</v>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2564,13 +2368,11 @@
         <v>150</v>
       </c>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" s="2" t="n">
-        <v>45289</v>
-      </c>
-      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr"/>
+      <c r="A97" s="2" t="n">
+        <v>45145</v>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2586,13 +2388,11 @@
         <v>450</v>
       </c>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr"/>
+      <c r="A98" s="2" t="n">
+        <v>45170</v>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2608,13 +2408,11 @@
         <v>231.0000000000003</v>
       </c>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
+      <c r="A99" s="2" t="n">
+        <v>45288</v>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2630,13 +2428,11 @@
         <v>249.1652892561985</v>
       </c>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" s="2" t="n">
-        <v>45288</v>
-      </c>
-      <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr"/>
+      <c r="A100" s="2" t="n">
+        <v>45358</v>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2652,13 +2448,11 @@
         <v>267.5157024793392</v>
       </c>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" s="2" t="n">
-        <v>45358</v>
-      </c>
-      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr"/>
+      <c r="A101" s="2" t="n">
+        <v>45187</v>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2674,13 +2468,11 @@
         <v>286.0512396694211</v>
       </c>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr"/>
+      <c r="A102" s="2" t="n">
+        <v>45326</v>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2696,13 +2488,11 @@
         <v>304.7719008264461</v>
       </c>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" s="2" t="n">
-        <v>45326</v>
-      </c>
-      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr"/>
+      <c r="A103" s="2" t="n">
+        <v>45273</v>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2718,13 +2508,11 @@
         <v>323.6776859504133</v>
       </c>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" s="2" t="n">
-        <v>45273</v>
-      </c>
-      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr"/>
+      <c r="A104" s="2" t="n">
+        <v>44934</v>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2740,13 +2528,11 @@
         <v>342.768595041324</v>
       </c>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" s="2" t="n">
-        <v>44934</v>
-      </c>
-      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr"/>
+      <c r="A105" s="2" t="n">
+        <v>45280</v>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2762,13 +2548,11 @@
         <v>362.0446280991751</v>
       </c>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" s="2" t="n">
-        <v>45280</v>
-      </c>
-      <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr"/>
+      <c r="A106" s="2" t="n">
+        <v>45247</v>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2784,13 +2568,11 @@
         <v>381.5057851239685</v>
       </c>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" s="2" t="n">
-        <v>45247</v>
-      </c>
-      <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr"/>
+      <c r="A107" s="2" t="n">
+        <v>45109</v>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2806,13 +2588,11 @@
         <v>401.1520661157027</v>
       </c>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" s="2" t="n">
-        <v>45109</v>
-      </c>
-      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr"/>
+      <c r="A108" s="2" t="n">
+        <v>45160</v>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2828,13 +2608,11 @@
         <v>420.9834710743802</v>
       </c>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" s="2" t="n">
-        <v>45160</v>
-      </c>
-      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
+      <c r="A109" s="2" t="n">
+        <v>45225</v>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2850,13 +2628,11 @@
         <v>441</v>
       </c>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" s="2" t="n">
-        <v>45225</v>
-      </c>
-      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr"/>
+      <c r="A110" s="2" t="n">
+        <v>45188</v>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2872,13 +2648,11 @@
         <v>461.2016528925619</v>
       </c>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" s="2" t="n">
-        <v>45188</v>
-      </c>
-      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
+      <c r="A111" s="2" t="n">
+        <v>45319</v>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2894,13 +2668,11 @@
         <v>15</v>
       </c>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" s="2" t="n">
-        <v>45319</v>
-      </c>
-      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr"/>
+      <c r="A112" s="2" t="n">
+        <v>45218</v>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2916,13 +2688,11 @@
         <v>100</v>
       </c>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" s="2" t="n">
-        <v>45218</v>
-      </c>
-      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr"/>
+      <c r="A113" s="2" t="n">
+        <v>45111</v>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -2938,13 +2708,11 @@
         <v>300</v>
       </c>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" s="2" t="n">
-        <v>45111</v>
-      </c>
-      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr"/>
+      <c r="A114" s="2" t="n">
+        <v>45180</v>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -2960,13 +2728,11 @@
         <v>135</v>
       </c>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr"/>
+      <c r="A115" s="2" t="n">
+        <v>45361</v>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -2982,13 +2748,11 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" s="2" t="n">
-        <v>45361</v>
-      </c>
-      <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
+      <c r="A116" s="2" t="n">
+        <v>45285</v>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3004,13 +2768,11 @@
         <v>50</v>
       </c>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr"/>
+      <c r="A117" s="2" t="n">
+        <v>44945</v>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3026,13 +2788,11 @@
         <v>60</v>
       </c>
       <c r="F117" t="inlineStr"/>
-      <c r="G117" s="2" t="n">
-        <v>44945</v>
-      </c>
-      <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr"/>
+      <c r="A118" s="2" t="n">
+        <v>45346</v>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3048,13 +2808,11 @@
         <v>150</v>
       </c>
       <c r="F118" t="inlineStr"/>
-      <c r="G118" s="2" t="n">
-        <v>45346</v>
-      </c>
-      <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr"/>
+      <c r="A119" s="2" t="n">
+        <v>44941</v>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3070,13 +2828,11 @@
         <v>450</v>
       </c>
       <c r="F119" t="inlineStr"/>
-      <c r="G119" s="2" t="n">
-        <v>44941</v>
-      </c>
-      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr"/>
+      <c r="A120" s="2" t="n">
+        <v>45112</v>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3092,13 +2848,11 @@
         <v>14.99999999999994</v>
       </c>
       <c r="F120" t="inlineStr"/>
-      <c r="G120" s="2" t="n">
-        <v>45112</v>
-      </c>
-      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr"/>
+      <c r="A121" s="2" t="n">
+        <v>45327</v>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3114,13 +2868,11 @@
         <v>25</v>
       </c>
       <c r="F121" t="inlineStr"/>
-      <c r="G121" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="H121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr"/>
+      <c r="A122" s="2" t="n">
+        <v>45267</v>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3136,13 +2888,11 @@
         <v>200</v>
       </c>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" s="2" t="n">
-        <v>45267</v>
-      </c>
-      <c r="H122" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr"/>
+      <c r="A123" s="2" t="n">
+        <v>45169</v>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3158,13 +2908,11 @@
         <v>90</v>
       </c>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" s="2" t="n">
-        <v>45169</v>
-      </c>
-      <c r="H123" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr"/>
+      <c r="A124" s="2" t="n">
+        <v>45058</v>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3180,13 +2928,11 @@
         <v>225</v>
       </c>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" s="2" t="n">
-        <v>45058</v>
-      </c>
-      <c r="H124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr"/>
+      <c r="A125" s="2" t="n">
+        <v>45411</v>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3202,13 +2948,11 @@
         <v>49.9999999999998</v>
       </c>
       <c r="F125" t="inlineStr"/>
-      <c r="G125" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="H125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr"/>
+      <c r="A126" s="2" t="n">
+        <v>45115</v>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3224,13 +2968,11 @@
         <v>15</v>
       </c>
       <c r="F126" t="inlineStr"/>
-      <c r="G126" s="2" t="n">
-        <v>45115</v>
-      </c>
-      <c r="H126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr"/>
+      <c r="A127" s="2" t="n">
+        <v>45302</v>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3246,13 +2988,11 @@
         <v>100</v>
       </c>
       <c r="F127" t="inlineStr"/>
-      <c r="G127" s="2" t="n">
-        <v>45302</v>
-      </c>
-      <c r="H127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr"/>
+      <c r="A128" s="2" t="n">
+        <v>45134</v>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3268,13 +3008,11 @@
         <v>300</v>
       </c>
       <c r="F128" t="inlineStr"/>
-      <c r="G128" s="2" t="n">
-        <v>45134</v>
-      </c>
-      <c r="H128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr"/>
+      <c r="A129" s="2" t="n">
+        <v>45017</v>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3290,13 +3028,11 @@
         <v>135</v>
       </c>
       <c r="F129" t="inlineStr"/>
-      <c r="G129" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="H129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr"/>
+      <c r="A130" s="2" t="n">
+        <v>45047</v>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3312,13 +3048,11 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F130" t="inlineStr"/>
-      <c r="G130" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="H130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr"/>
+      <c r="A131" s="2" t="n">
+        <v>45100</v>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3334,13 +3068,11 @@
         <v>50</v>
       </c>
       <c r="F131" t="inlineStr"/>
-      <c r="G131" s="2" t="n">
-        <v>45100</v>
-      </c>
-      <c r="H131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr"/>
+      <c r="A132" s="2" t="n">
+        <v>44981</v>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3356,13 +3088,11 @@
         <v>60</v>
       </c>
       <c r="F132" t="inlineStr"/>
-      <c r="G132" s="2" t="n">
-        <v>44981</v>
-      </c>
-      <c r="H132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr"/>
+      <c r="A133" s="2" t="n">
+        <v>45285</v>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3378,13 +3108,11 @@
         <v>150</v>
       </c>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="H133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
+      <c r="A134" s="2" t="n">
+        <v>45092</v>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3400,13 +3128,11 @@
         <v>450</v>
       </c>
       <c r="F134" t="inlineStr"/>
-      <c r="G134" s="2" t="n">
-        <v>45092</v>
-      </c>
-      <c r="H134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr"/>
+      <c r="A135" s="2" t="n">
+        <v>45113</v>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3422,13 +3148,11 @@
         <v>231.0000000000003</v>
       </c>
       <c r="F135" t="inlineStr"/>
-      <c r="G135" s="2" t="n">
-        <v>45113</v>
-      </c>
-      <c r="H135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr"/>
+      <c r="A136" s="2" t="n">
+        <v>44959</v>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3444,13 +3168,11 @@
         <v>249.1652892561985</v>
       </c>
       <c r="F136" t="inlineStr"/>
-      <c r="G136" s="2" t="n">
-        <v>44959</v>
-      </c>
-      <c r="H136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr"/>
+      <c r="A137" s="2" t="n">
+        <v>45042</v>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3466,13 +3188,11 @@
         <v>267.5157024793392</v>
       </c>
       <c r="F137" t="inlineStr"/>
-      <c r="G137" s="2" t="n">
-        <v>45042</v>
-      </c>
-      <c r="H137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr"/>
+      <c r="A138" s="2" t="n">
+        <v>45210</v>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3488,13 +3208,11 @@
         <v>286.0512396694211</v>
       </c>
       <c r="F138" t="inlineStr"/>
-      <c r="G138" s="2" t="n">
-        <v>45210</v>
-      </c>
-      <c r="H138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr"/>
+      <c r="A139" s="2" t="n">
+        <v>45029</v>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3510,13 +3228,11 @@
         <v>304.7719008264461</v>
       </c>
       <c r="F139" t="inlineStr"/>
-      <c r="G139" s="2" t="n">
-        <v>45029</v>
-      </c>
-      <c r="H139" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr"/>
+      <c r="A140" s="2" t="n">
+        <v>45180</v>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3532,13 +3248,11 @@
         <v>323.6776859504133</v>
       </c>
       <c r="F140" t="inlineStr"/>
-      <c r="G140" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="H140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
+      <c r="A141" s="2" t="n">
+        <v>45181</v>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3554,13 +3268,11 @@
         <v>342.768595041324</v>
       </c>
       <c r="F141" t="inlineStr"/>
-      <c r="G141" s="2" t="n">
-        <v>45181</v>
-      </c>
-      <c r="H141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr"/>
+      <c r="A142" s="2" t="n">
+        <v>44965</v>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3576,13 +3288,11 @@
         <v>362.0446280991751</v>
       </c>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="H142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr"/>
+      <c r="A143" s="2" t="n">
+        <v>45271</v>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3598,13 +3308,11 @@
         <v>381.5057851239685</v>
       </c>
       <c r="F143" t="inlineStr"/>
-      <c r="G143" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="H143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr"/>
+      <c r="A144" s="2" t="n">
+        <v>45173</v>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3620,13 +3328,11 @@
         <v>401.1520661157027</v>
       </c>
       <c r="F144" t="inlineStr"/>
-      <c r="G144" s="2" t="n">
-        <v>45173</v>
-      </c>
-      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr"/>
+      <c r="A145" s="2" t="n">
+        <v>44962</v>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3642,13 +3348,11 @@
         <v>420.9834710743802</v>
       </c>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" s="2" t="n">
-        <v>44962</v>
-      </c>
-      <c r="H145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr"/>
+      <c r="A146" s="2" t="n">
+        <v>45087</v>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3664,13 +3368,11 @@
         <v>441</v>
       </c>
       <c r="F146" t="inlineStr"/>
-      <c r="G146" s="2" t="n">
-        <v>45087</v>
-      </c>
-      <c r="H146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr"/>
+      <c r="A147" s="2" t="n">
+        <v>45006</v>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3686,13 +3388,11 @@
         <v>461.2016528925619</v>
       </c>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" s="2" t="n">
-        <v>45006</v>
-      </c>
-      <c r="H147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr"/>
+      <c r="A148" s="2" t="n">
+        <v>45054</v>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3708,13 +3408,11 @@
         <v>15</v>
       </c>
       <c r="F148" t="inlineStr"/>
-      <c r="G148" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="H148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr"/>
+      <c r="A149" s="2" t="n">
+        <v>45068</v>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3730,13 +3428,11 @@
         <v>100</v>
       </c>
       <c r="F149" t="inlineStr"/>
-      <c r="G149" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="H149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr"/>
+      <c r="A150" s="2" t="n">
+        <v>45299</v>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3752,13 +3448,11 @@
         <v>300</v>
       </c>
       <c r="F150" t="inlineStr"/>
-      <c r="G150" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="H150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr"/>
+      <c r="A151" s="2" t="n">
+        <v>44960</v>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3774,13 +3468,11 @@
         <v>135</v>
       </c>
       <c r="F151" t="inlineStr"/>
-      <c r="G151" s="2" t="n">
-        <v>44960</v>
-      </c>
-      <c r="H151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr"/>
+      <c r="A152" s="2" t="n">
+        <v>45102</v>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3796,13 +3488,11 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F152" t="inlineStr"/>
-      <c r="G152" s="2" t="n">
-        <v>45102</v>
-      </c>
-      <c r="H152" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr"/>
+      <c r="A153" s="2" t="n">
+        <v>45256</v>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3818,13 +3508,11 @@
         <v>50</v>
       </c>
       <c r="F153" t="inlineStr"/>
-      <c r="G153" s="2" t="n">
-        <v>45256</v>
-      </c>
-      <c r="H153" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr"/>
+      <c r="A154" s="2" t="n">
+        <v>44948</v>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3840,13 +3528,11 @@
         <v>60</v>
       </c>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" s="2" t="n">
-        <v>44948</v>
-      </c>
-      <c r="H154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr"/>
+      <c r="A155" s="2" t="n">
+        <v>45327</v>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3862,13 +3548,11 @@
         <v>150</v>
       </c>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="H155" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr"/>
+      <c r="A156" s="2" t="n">
+        <v>45398</v>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3884,13 +3568,11 @@
         <v>450</v>
       </c>
       <c r="F156" t="inlineStr"/>
-      <c r="G156" s="2" t="n">
-        <v>45398</v>
-      </c>
-      <c r="H156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr"/>
+      <c r="A157" s="2" t="n">
+        <v>45310</v>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3906,13 +3588,11 @@
         <v>14.99999999999994</v>
       </c>
       <c r="F157" t="inlineStr"/>
-      <c r="G157" s="2" t="n">
-        <v>45310</v>
-      </c>
-      <c r="H157" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr"/>
+      <c r="A158" s="2" t="n">
+        <v>45150</v>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3928,13 +3608,11 @@
         <v>25</v>
       </c>
       <c r="F158" t="inlineStr"/>
-      <c r="G158" s="2" t="n">
-        <v>45150</v>
-      </c>
-      <c r="H158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr"/>
+      <c r="A159" s="2" t="n">
+        <v>45421</v>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -3950,13 +3628,11 @@
         <v>200</v>
       </c>
       <c r="F159" t="inlineStr"/>
-      <c r="G159" s="2" t="n">
-        <v>45421</v>
-      </c>
-      <c r="H159" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr"/>
+      <c r="A160" s="2" t="n">
+        <v>45375</v>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -3972,13 +3648,11 @@
         <v>90</v>
       </c>
       <c r="F160" t="inlineStr"/>
-      <c r="G160" s="2" t="n">
-        <v>45375</v>
-      </c>
-      <c r="H160" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr"/>
+      <c r="A161" s="2" t="n">
+        <v>44959</v>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -3994,13 +3668,11 @@
         <v>225</v>
       </c>
       <c r="F161" t="inlineStr"/>
-      <c r="G161" s="2" t="n">
-        <v>44959</v>
-      </c>
-      <c r="H161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr"/>
+      <c r="A162" s="2" t="n">
+        <v>45169</v>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4016,13 +3688,11 @@
         <v>49.9999999999998</v>
       </c>
       <c r="F162" t="inlineStr"/>
-      <c r="G162" s="2" t="n">
-        <v>45169</v>
-      </c>
-      <c r="H162" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr"/>
+      <c r="A163" s="2" t="n">
+        <v>44987</v>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4038,13 +3708,11 @@
         <v>15</v>
       </c>
       <c r="F163" t="inlineStr"/>
-      <c r="G163" s="2" t="n">
-        <v>44987</v>
-      </c>
-      <c r="H163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr"/>
+      <c r="A164" s="2" t="n">
+        <v>45082</v>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -4060,13 +3728,11 @@
         <v>100</v>
       </c>
       <c r="F164" t="inlineStr"/>
-      <c r="G164" s="2" t="n">
-        <v>45082</v>
-      </c>
-      <c r="H164" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr"/>
+      <c r="A165" s="2" t="n">
+        <v>45171</v>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4082,13 +3748,11 @@
         <v>300</v>
       </c>
       <c r="F165" t="inlineStr"/>
-      <c r="G165" s="2" t="n">
-        <v>45171</v>
-      </c>
-      <c r="H165" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr"/>
+      <c r="A166" s="2" t="n">
+        <v>45301</v>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4104,13 +3768,11 @@
         <v>135</v>
       </c>
       <c r="F166" t="inlineStr"/>
-      <c r="G166" s="2" t="n">
-        <v>45301</v>
-      </c>
-      <c r="H166" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr"/>
+      <c r="A167" s="2" t="n">
+        <v>45303</v>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -4126,13 +3788,11 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F167" t="inlineStr"/>
-      <c r="G167" s="2" t="n">
-        <v>45303</v>
-      </c>
-      <c r="H167" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr"/>
+      <c r="A168" s="2" t="n">
+        <v>45138</v>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4148,13 +3808,11 @@
         <v>50</v>
       </c>
       <c r="F168" t="inlineStr"/>
-      <c r="G168" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="H168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr"/>
+      <c r="A169" s="2" t="n">
+        <v>45294</v>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4170,13 +3828,11 @@
         <v>60</v>
       </c>
       <c r="F169" t="inlineStr"/>
-      <c r="G169" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="H169" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr"/>
+      <c r="A170" s="2" t="n">
+        <v>45269</v>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -4192,13 +3848,11 @@
         <v>150</v>
       </c>
       <c r="F170" t="inlineStr"/>
-      <c r="G170" s="2" t="n">
-        <v>45269</v>
-      </c>
-      <c r="H170" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr"/>
+      <c r="A171" s="2" t="n">
+        <v>44937</v>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4214,13 +3868,11 @@
         <v>450</v>
       </c>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" s="2" t="n">
-        <v>44937</v>
-      </c>
-      <c r="H171" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr"/>
+      <c r="A172" s="2" t="n">
+        <v>45159</v>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4236,13 +3888,11 @@
         <v>231.0000000000003</v>
       </c>
       <c r="F172" t="inlineStr"/>
-      <c r="G172" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="H172" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr"/>
+      <c r="A173" s="2" t="n">
+        <v>45423</v>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4258,13 +3908,11 @@
         <v>249.1652892561985</v>
       </c>
       <c r="F173" t="inlineStr"/>
-      <c r="G173" s="2" t="n">
-        <v>45423</v>
-      </c>
-      <c r="H173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr"/>
+      <c r="A174" s="2" t="n">
+        <v>45058</v>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -4280,13 +3928,11 @@
         <v>267.5157024793392</v>
       </c>
       <c r="F174" t="inlineStr"/>
-      <c r="G174" s="2" t="n">
-        <v>45058</v>
-      </c>
-      <c r="H174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr"/>
+      <c r="A175" s="2" t="n">
+        <v>45037</v>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4302,13 +3948,11 @@
         <v>286.0512396694211</v>
       </c>
       <c r="F175" t="inlineStr"/>
-      <c r="G175" s="2" t="n">
-        <v>45037</v>
-      </c>
-      <c r="H175" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr"/>
+      <c r="A176" s="2" t="n">
+        <v>45134</v>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4324,13 +3968,11 @@
         <v>304.7719008264461</v>
       </c>
       <c r="F176" t="inlineStr"/>
-      <c r="G176" s="2" t="n">
-        <v>45134</v>
-      </c>
-      <c r="H176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr"/>
+      <c r="A177" s="2" t="n">
+        <v>44964</v>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -4346,13 +3988,11 @@
         <v>323.6776859504133</v>
       </c>
       <c r="F177" t="inlineStr"/>
-      <c r="G177" s="2" t="n">
-        <v>44964</v>
-      </c>
-      <c r="H177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr"/>
+      <c r="A178" s="2" t="n">
+        <v>44985</v>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4368,13 +4008,11 @@
         <v>342.768595041324</v>
       </c>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="H178" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr"/>
+      <c r="A179" s="2" t="n">
+        <v>45411</v>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4390,13 +4028,11 @@
         <v>362.0446280991751</v>
       </c>
       <c r="F179" t="inlineStr"/>
-      <c r="G179" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="H179" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr"/>
+      <c r="A180" s="2" t="n">
+        <v>45145</v>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -4412,13 +4048,11 @@
         <v>381.5057851239685</v>
       </c>
       <c r="F180" t="inlineStr"/>
-      <c r="G180" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="H180" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr"/>
+      <c r="A181" s="2" t="n">
+        <v>45007</v>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4434,13 +4068,11 @@
         <v>401.1520661157027</v>
       </c>
       <c r="F181" t="inlineStr"/>
-      <c r="G181" s="2" t="n">
-        <v>45007</v>
-      </c>
-      <c r="H181" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr"/>
+      <c r="A182" s="2" t="n">
+        <v>45418</v>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4456,13 +4088,11 @@
         <v>420.9834710743802</v>
       </c>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="H182" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr"/>
+      <c r="A183" s="2" t="n">
+        <v>44996</v>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4478,13 +4108,11 @@
         <v>441</v>
       </c>
       <c r="F183" t="inlineStr"/>
-      <c r="G183" s="2" t="n">
-        <v>44996</v>
-      </c>
-      <c r="H183" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr"/>
+      <c r="A184" s="2" t="n">
+        <v>44968</v>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -4500,13 +4128,11 @@
         <v>461.2016528925619</v>
       </c>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" s="2" t="n">
-        <v>44968</v>
-      </c>
-      <c r="H184" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr"/>
+      <c r="A185" s="2" t="n">
+        <v>45231</v>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4522,13 +4148,11 @@
         <v>15</v>
       </c>
       <c r="F185" t="inlineStr"/>
-      <c r="G185" s="2" t="n">
-        <v>45231</v>
-      </c>
-      <c r="H185" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr"/>
+      <c r="A186" s="2" t="n">
+        <v>45232</v>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -4544,13 +4168,11 @@
         <v>100</v>
       </c>
       <c r="F186" t="inlineStr"/>
-      <c r="G186" s="2" t="n">
-        <v>45232</v>
-      </c>
-      <c r="H186" t="inlineStr"/>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr"/>
+      <c r="A187" s="2" t="n">
+        <v>45233</v>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4566,13 +4188,11 @@
         <v>300</v>
       </c>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" s="2" t="n">
-        <v>45233</v>
-      </c>
-      <c r="H187" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr"/>
+      <c r="A188" s="2" t="n">
+        <v>45234</v>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4588,13 +4208,11 @@
         <v>135</v>
       </c>
       <c r="F188" t="inlineStr"/>
-      <c r="G188" s="2" t="n">
-        <v>45234</v>
-      </c>
-      <c r="H188" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr"/>
+      <c r="A189" s="2" t="n">
+        <v>45235</v>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -4610,13 +4228,11 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F189" t="inlineStr"/>
-      <c r="G189" s="2" t="n">
-        <v>45235</v>
-      </c>
-      <c r="H189" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr"/>
+      <c r="A190" s="2" t="n">
+        <v>45236</v>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4632,13 +4248,11 @@
         <v>50</v>
       </c>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="H190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr"/>
+      <c r="A191" s="2" t="n">
+        <v>45237</v>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4654,13 +4268,11 @@
         <v>60</v>
       </c>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" s="2" t="n">
-        <v>45237</v>
-      </c>
-      <c r="H191" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr"/>
+      <c r="A192" s="2" t="n">
+        <v>45238</v>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -4676,13 +4288,11 @@
         <v>150</v>
       </c>
       <c r="F192" t="inlineStr"/>
-      <c r="G192" s="2" t="n">
-        <v>45238</v>
-      </c>
-      <c r="H192" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr"/>
+      <c r="A193" s="2" t="n">
+        <v>45239</v>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4698,13 +4308,11 @@
         <v>450</v>
       </c>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" s="2" t="n">
-        <v>45239</v>
-      </c>
-      <c r="H193" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr"/>
+      <c r="A194" s="2" t="n">
+        <v>45240</v>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4720,13 +4328,11 @@
         <v>14.99999999999994</v>
       </c>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" s="2" t="n">
-        <v>45240</v>
-      </c>
-      <c r="H194" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr"/>
+      <c r="A195" s="2" t="n">
+        <v>45241</v>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -4742,13 +4348,11 @@
         <v>25</v>
       </c>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" s="2" t="n">
-        <v>45241</v>
-      </c>
-      <c r="H195" t="inlineStr"/>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr"/>
+      <c r="A196" s="2" t="n">
+        <v>45242</v>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4764,13 +4368,11 @@
         <v>200</v>
       </c>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="H196" t="inlineStr"/>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr"/>
+      <c r="A197" s="2" t="n">
+        <v>45243</v>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4786,13 +4388,11 @@
         <v>90</v>
       </c>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="H197" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr"/>
+      <c r="A198" s="2" t="n">
+        <v>45244</v>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -4808,13 +4408,11 @@
         <v>225</v>
       </c>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" s="2" t="n">
-        <v>45244</v>
-      </c>
-      <c r="H198" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr"/>
+      <c r="A199" s="2" t="n">
+        <v>45245</v>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4830,13 +4428,11 @@
         <v>49.9999999999998</v>
       </c>
       <c r="F199" t="inlineStr"/>
-      <c r="G199" s="2" t="n">
-        <v>45245</v>
-      </c>
-      <c r="H199" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr"/>
+      <c r="A200" s="2" t="n">
+        <v>45246</v>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4852,13 +4448,11 @@
         <v>15</v>
       </c>
       <c r="F200" t="inlineStr"/>
-      <c r="G200" s="2" t="n">
-        <v>45246</v>
-      </c>
-      <c r="H200" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr"/>
+      <c r="A201" s="2" t="n">
+        <v>45247</v>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -4874,13 +4468,11 @@
         <v>100</v>
       </c>
       <c r="F201" t="inlineStr"/>
-      <c r="G201" s="2" t="n">
-        <v>45247</v>
-      </c>
-      <c r="H201" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr"/>
+      <c r="A202" s="2" t="n">
+        <v>45248</v>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4896,13 +4488,11 @@
         <v>300</v>
       </c>
       <c r="F202" t="inlineStr"/>
-      <c r="G202" s="2" t="n">
-        <v>45248</v>
-      </c>
-      <c r="H202" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr"/>
+      <c r="A203" s="2" t="n">
+        <v>45249</v>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4918,13 +4508,11 @@
         <v>135</v>
       </c>
       <c r="F203" t="inlineStr"/>
-      <c r="G203" s="2" t="n">
-        <v>45249</v>
-      </c>
-      <c r="H203" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr"/>
+      <c r="A204" s="2" t="n">
+        <v>45250</v>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -4940,13 +4528,11 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F204" t="inlineStr"/>
-      <c r="G204" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="H204" t="inlineStr"/>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr"/>
+      <c r="A205" s="2" t="n">
+        <v>45251</v>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -4962,13 +4548,11 @@
         <v>50</v>
       </c>
       <c r="F205" t="inlineStr"/>
-      <c r="G205" s="2" t="n">
-        <v>45251</v>
-      </c>
-      <c r="H205" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr"/>
+      <c r="A206" s="2" t="n">
+        <v>45252</v>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -4984,13 +4568,11 @@
         <v>60</v>
       </c>
       <c r="F206" t="inlineStr"/>
-      <c r="G206" s="2" t="n">
-        <v>45252</v>
-      </c>
-      <c r="H206" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr"/>
+      <c r="A207" s="2" t="n">
+        <v>45253</v>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5006,13 +4588,11 @@
         <v>150</v>
       </c>
       <c r="F207" t="inlineStr"/>
-      <c r="G207" s="2" t="n">
-        <v>45253</v>
-      </c>
-      <c r="H207" t="inlineStr"/>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr"/>
+      <c r="A208" s="2" t="n">
+        <v>45254</v>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5028,13 +4608,11 @@
         <v>450</v>
       </c>
       <c r="F208" t="inlineStr"/>
-      <c r="G208" s="2" t="n">
-        <v>45254</v>
-      </c>
-      <c r="H208" t="inlineStr"/>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr"/>
+      <c r="A209" s="2" t="n">
+        <v>45255</v>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5050,13 +4628,11 @@
         <v>231.0000000000003</v>
       </c>
       <c r="F209" t="inlineStr"/>
-      <c r="G209" s="2" t="n">
-        <v>45255</v>
-      </c>
-      <c r="H209" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr"/>
+      <c r="A210" s="2" t="n">
+        <v>45256</v>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -5072,13 +4648,11 @@
         <v>249.1652892561985</v>
       </c>
       <c r="F210" t="inlineStr"/>
-      <c r="G210" s="2" t="n">
-        <v>45256</v>
-      </c>
-      <c r="H210" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr"/>
+      <c r="A211" s="2" t="n">
+        <v>45257</v>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5094,13 +4668,11 @@
         <v>267.5157024793392</v>
       </c>
       <c r="F211" t="inlineStr"/>
-      <c r="G211" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="H211" t="inlineStr"/>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr"/>
+      <c r="A212" s="2" t="n">
+        <v>45258</v>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5116,13 +4688,11 @@
         <v>286.0512396694211</v>
       </c>
       <c r="F212" t="inlineStr"/>
-      <c r="G212" s="2" t="n">
-        <v>45258</v>
-      </c>
-      <c r="H212" t="inlineStr"/>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr"/>
+      <c r="A213" s="2" t="n">
+        <v>45259</v>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -5138,13 +4708,11 @@
         <v>304.7719008264461</v>
       </c>
       <c r="F213" t="inlineStr"/>
-      <c r="G213" s="2" t="n">
-        <v>45259</v>
-      </c>
-      <c r="H213" t="inlineStr"/>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr"/>
+      <c r="A214" s="2" t="n">
+        <v>45260</v>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5160,13 +4728,11 @@
         <v>323.6776859504133</v>
       </c>
       <c r="F214" t="inlineStr"/>
-      <c r="G214" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="H214" t="inlineStr"/>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr"/>
+      <c r="A215" s="2" t="n">
+        <v>45247</v>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5182,13 +4748,11 @@
         <v>342.768595041324</v>
       </c>
       <c r="F215" t="inlineStr"/>
-      <c r="G215" s="2" t="n">
-        <v>45247</v>
-      </c>
-      <c r="H215" t="inlineStr"/>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr"/>
+      <c r="A216" s="2" t="n">
+        <v>45242</v>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -5204,13 +4768,11 @@
         <v>362.0446280991751</v>
       </c>
       <c r="F216" t="inlineStr"/>
-      <c r="G216" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="H216" t="inlineStr"/>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr"/>
+      <c r="A217" s="2" t="n">
+        <v>45239</v>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5226,13 +4788,11 @@
         <v>381.5057851239685</v>
       </c>
       <c r="F217" t="inlineStr"/>
-      <c r="G217" s="2" t="n">
-        <v>45239</v>
-      </c>
-      <c r="H217" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr"/>
+      <c r="A218" s="2" t="n">
+        <v>45255</v>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5248,13 +4808,11 @@
         <v>401.1520661157027</v>
       </c>
       <c r="F218" t="inlineStr"/>
-      <c r="G218" s="2" t="n">
-        <v>45255</v>
-      </c>
-      <c r="H218" t="inlineStr"/>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr"/>
+      <c r="A219" s="2" t="n">
+        <v>45234</v>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5270,13 +4828,11 @@
         <v>420.9834710743802</v>
       </c>
       <c r="F219" t="inlineStr"/>
-      <c r="G219" s="2" t="n">
-        <v>45234</v>
-      </c>
-      <c r="H219" t="inlineStr"/>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr"/>
+      <c r="A220" s="2" t="n">
+        <v>45247</v>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -5292,13 +4848,11 @@
         <v>441</v>
       </c>
       <c r="F220" t="inlineStr"/>
-      <c r="G220" s="2" t="n">
-        <v>45247</v>
-      </c>
-      <c r="H220" t="inlineStr"/>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr"/>
+      <c r="A221" s="2" t="n">
+        <v>45256</v>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5314,13 +4868,11 @@
         <v>461.2016528925619</v>
       </c>
       <c r="F221" t="inlineStr"/>
-      <c r="G221" s="2" t="n">
-        <v>45256</v>
-      </c>
-      <c r="H221" t="inlineStr"/>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr"/>
+      <c r="A222" s="2" t="n">
+        <v>45246</v>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -5336,13 +4888,11 @@
         <v>15</v>
       </c>
       <c r="F222" t="inlineStr"/>
-      <c r="G222" s="2" t="n">
-        <v>45246</v>
-      </c>
-      <c r="H222" t="inlineStr"/>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr"/>
+      <c r="A223" s="2" t="n">
+        <v>45250</v>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5358,13 +4908,11 @@
         <v>100</v>
       </c>
       <c r="F223" t="inlineStr"/>
-      <c r="G223" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="H223" t="inlineStr"/>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr"/>
+      <c r="A224" s="2" t="n">
+        <v>45244</v>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5380,13 +4928,11 @@
         <v>300</v>
       </c>
       <c r="F224" t="inlineStr"/>
-      <c r="G224" s="2" t="n">
-        <v>45244</v>
-      </c>
-      <c r="H224" t="inlineStr"/>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr"/>
+      <c r="A225" s="2" t="n">
+        <v>45245</v>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -5402,13 +4948,11 @@
         <v>135</v>
       </c>
       <c r="F225" t="inlineStr"/>
-      <c r="G225" s="2" t="n">
-        <v>45245</v>
-      </c>
-      <c r="H225" t="inlineStr"/>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr"/>
+      <c r="A226" s="2" t="n">
+        <v>45258</v>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5424,13 +4968,11 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F226" t="inlineStr"/>
-      <c r="G226" s="2" t="n">
-        <v>45258</v>
-      </c>
-      <c r="H226" t="inlineStr"/>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr"/>
+      <c r="A227" s="2" t="n">
+        <v>45257</v>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5446,13 +4988,11 @@
         <v>50</v>
       </c>
       <c r="F227" t="inlineStr"/>
-      <c r="G227" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="H227" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr"/>
+      <c r="A228" s="2" t="n">
+        <v>45249</v>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -5468,13 +5008,11 @@
         <v>60</v>
       </c>
       <c r="F228" t="inlineStr"/>
-      <c r="G228" s="2" t="n">
-        <v>45249</v>
-      </c>
-      <c r="H228" t="inlineStr"/>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr"/>
+      <c r="A229" s="2" t="n">
+        <v>45235</v>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5490,13 +5028,11 @@
         <v>150</v>
       </c>
       <c r="F229" t="inlineStr"/>
-      <c r="G229" s="2" t="n">
-        <v>45235</v>
-      </c>
-      <c r="H229" t="inlineStr"/>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr"/>
+      <c r="A230" s="2" t="n">
+        <v>45253</v>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5512,13 +5048,11 @@
         <v>450</v>
       </c>
       <c r="F230" t="inlineStr"/>
-      <c r="G230" s="2" t="n">
-        <v>45253</v>
-      </c>
-      <c r="H230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr"/>
+      <c r="A231" s="2" t="n">
+        <v>45260</v>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -5534,13 +5068,11 @@
         <v>14.99999999999994</v>
       </c>
       <c r="F231" t="inlineStr"/>
-      <c r="G231" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="H231" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr"/>
+      <c r="A232" s="2" t="n">
+        <v>45256</v>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5556,13 +5088,11 @@
         <v>25</v>
       </c>
       <c r="F232" t="inlineStr"/>
-      <c r="G232" s="2" t="n">
-        <v>45256</v>
-      </c>
-      <c r="H232" t="inlineStr"/>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr"/>
+      <c r="A233" s="2" t="n">
+        <v>45235</v>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5578,13 +5108,11 @@
         <v>200</v>
       </c>
       <c r="F233" t="inlineStr"/>
-      <c r="G233" s="2" t="n">
-        <v>45235</v>
-      </c>
-      <c r="H233" t="inlineStr"/>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr"/>
+      <c r="A234" s="2" t="n">
+        <v>45239</v>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -5600,13 +5128,11 @@
         <v>90</v>
       </c>
       <c r="F234" t="inlineStr"/>
-      <c r="G234" s="2" t="n">
-        <v>45239</v>
-      </c>
-      <c r="H234" t="inlineStr"/>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr"/>
+      <c r="A235" s="2" t="n">
+        <v>45237</v>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5622,13 +5148,11 @@
         <v>225</v>
       </c>
       <c r="F235" t="inlineStr"/>
-      <c r="G235" s="2" t="n">
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>45237</v>
       </c>
-      <c r="H235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5644,13 +5168,11 @@
         <v>49.9999999999998</v>
       </c>
       <c r="F236" t="inlineStr"/>
-      <c r="G236" s="2" t="n">
-        <v>45237</v>
-      </c>
-      <c r="H236" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr"/>
+      <c r="A237" s="2" t="n">
+        <v>45254</v>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -5666,13 +5188,11 @@
         <v>15</v>
       </c>
       <c r="F237" t="inlineStr"/>
-      <c r="G237" s="2" t="n">
-        <v>45254</v>
-      </c>
-      <c r="H237" t="inlineStr"/>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr"/>
+      <c r="A238" s="2" t="n">
+        <v>45243</v>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5688,13 +5208,11 @@
         <v>100</v>
       </c>
       <c r="F238" t="inlineStr"/>
-      <c r="G238" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="H238" t="inlineStr"/>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr"/>
+      <c r="A239" s="2" t="n">
+        <v>45258</v>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5710,13 +5228,11 @@
         <v>300</v>
       </c>
       <c r="F239" t="inlineStr"/>
-      <c r="G239" s="2" t="n">
-        <v>45258</v>
-      </c>
-      <c r="H239" t="inlineStr"/>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr"/>
+      <c r="A240" s="2" t="n">
+        <v>45255</v>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -5732,13 +5248,11 @@
         <v>135</v>
       </c>
       <c r="F240" t="inlineStr"/>
-      <c r="G240" s="2" t="n">
-        <v>45255</v>
-      </c>
-      <c r="H240" t="inlineStr"/>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr"/>
+      <c r="A241" s="2" t="n">
+        <v>45237</v>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5754,13 +5268,11 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F241" t="inlineStr"/>
-      <c r="G241" s="2" t="n">
-        <v>45237</v>
-      </c>
-      <c r="H241" t="inlineStr"/>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr"/>
+      <c r="A242" s="2" t="n">
+        <v>45254</v>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5776,13 +5288,11 @@
         <v>50</v>
       </c>
       <c r="F242" t="inlineStr"/>
-      <c r="G242" s="2" t="n">
-        <v>45254</v>
-      </c>
-      <c r="H242" t="inlineStr"/>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr"/>
+      <c r="A243" s="2" t="n">
+        <v>45246</v>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -5798,13 +5308,11 @@
         <v>60</v>
       </c>
       <c r="F243" t="inlineStr"/>
-      <c r="G243" s="2" t="n">
-        <v>45246</v>
-      </c>
-      <c r="H243" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr"/>
+      <c r="A244" s="2" t="n">
+        <v>45259</v>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5820,13 +5328,11 @@
         <v>150</v>
       </c>
       <c r="F244" t="inlineStr"/>
-      <c r="G244" s="2" t="n">
-        <v>45259</v>
-      </c>
-      <c r="H244" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr"/>
+      <c r="A245" s="2" t="n">
+        <v>45254</v>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5842,13 +5348,11 @@
         <v>450</v>
       </c>
       <c r="F245" t="inlineStr"/>
-      <c r="G245" s="2" t="n">
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>45254</v>
       </c>
-      <c r="H245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr"/>
       <c r="B246" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5864,13 +5368,11 @@
         <v>231.0000000000003</v>
       </c>
       <c r="F246" t="inlineStr"/>
-      <c r="G246" s="2" t="n">
-        <v>45254</v>
-      </c>
-      <c r="H246" t="inlineStr"/>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr"/>
+      <c r="A247" s="2" t="n">
+        <v>45259</v>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -5886,13 +5388,11 @@
         <v>249.1652892561985</v>
       </c>
       <c r="F247" t="inlineStr"/>
-      <c r="G247" s="2" t="n">
-        <v>45259</v>
-      </c>
-      <c r="H247" t="inlineStr"/>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr"/>
+      <c r="A248" s="2" t="n">
+        <v>45233</v>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5908,13 +5408,11 @@
         <v>267.5157024793392</v>
       </c>
       <c r="F248" t="inlineStr"/>
-      <c r="G248" s="2" t="n">
-        <v>45233</v>
-      </c>
-      <c r="H248" t="inlineStr"/>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr"/>
+      <c r="A249" s="2" t="n">
+        <v>45252</v>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5930,13 +5428,11 @@
         <v>286.0512396694211</v>
       </c>
       <c r="F249" t="inlineStr"/>
-      <c r="G249" s="2" t="n">
-        <v>45252</v>
-      </c>
-      <c r="H249" t="inlineStr"/>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr"/>
+      <c r="A250" s="2" t="n">
+        <v>45237</v>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -5952,13 +5448,11 @@
         <v>304.7719008264461</v>
       </c>
       <c r="F250" t="inlineStr"/>
-      <c r="G250" s="2" t="n">
-        <v>45237</v>
-      </c>
-      <c r="H250" t="inlineStr"/>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr"/>
+      <c r="A251" s="2" t="n">
+        <v>45259</v>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -5974,13 +5468,11 @@
         <v>323.6776859504133</v>
       </c>
       <c r="F251" t="inlineStr"/>
-      <c r="G251" s="2" t="n">
-        <v>45259</v>
-      </c>
-      <c r="H251" t="inlineStr"/>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr"/>
+      <c r="A252" s="2" t="n">
+        <v>45232</v>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -5996,13 +5488,11 @@
         <v>342.768595041324</v>
       </c>
       <c r="F252" t="inlineStr"/>
-      <c r="G252" s="2" t="n">
-        <v>45232</v>
-      </c>
-      <c r="H252" t="inlineStr"/>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr"/>
+      <c r="A253" s="2" t="n">
+        <v>45241</v>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -6018,13 +5508,11 @@
         <v>362.0446280991751</v>
       </c>
       <c r="F253" t="inlineStr"/>
-      <c r="G253" s="2" t="n">
-        <v>45241</v>
-      </c>
-      <c r="H253" t="inlineStr"/>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr"/>
+      <c r="A254" s="2" t="n">
+        <v>45248</v>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -6040,13 +5528,11 @@
         <v>381.5057851239685</v>
       </c>
       <c r="F254" t="inlineStr"/>
-      <c r="G254" s="2" t="n">
-        <v>45248</v>
-      </c>
-      <c r="H254" t="inlineStr"/>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr"/>
+      <c r="A255" s="2" t="n">
+        <v>45239</v>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6062,13 +5548,11 @@
         <v>401.1520661157027</v>
       </c>
       <c r="F255" t="inlineStr"/>
-      <c r="G255" s="2" t="n">
-        <v>45239</v>
-      </c>
-      <c r="H255" t="inlineStr"/>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr"/>
+      <c r="A256" s="2" t="n">
+        <v>45237</v>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6084,13 +5568,11 @@
         <v>420.9834710743802</v>
       </c>
       <c r="F256" t="inlineStr"/>
-      <c r="G256" s="2" t="n">
-        <v>45237</v>
-      </c>
-      <c r="H256" t="inlineStr"/>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr"/>
+      <c r="A257" s="2" t="n">
+        <v>45231</v>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -6106,13 +5588,11 @@
         <v>441</v>
       </c>
       <c r="F257" t="inlineStr"/>
-      <c r="G257" s="2" t="n">
-        <v>45231</v>
-      </c>
-      <c r="H257" t="inlineStr"/>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr"/>
+      <c r="A258" s="2" t="n">
+        <v>45257</v>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -6128,13 +5608,11 @@
         <v>461.2016528925619</v>
       </c>
       <c r="F258" t="inlineStr"/>
-      <c r="G258" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="H258" t="inlineStr"/>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr"/>
+      <c r="A259" s="2" t="n">
+        <v>45251</v>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -6150,13 +5628,11 @@
         <v>15</v>
       </c>
       <c r="F259" t="inlineStr"/>
-      <c r="G259" s="2" t="n">
-        <v>45251</v>
-      </c>
-      <c r="H259" t="inlineStr"/>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr"/>
+      <c r="A260" s="2" t="n">
+        <v>45255</v>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -6172,13 +5648,11 @@
         <v>100</v>
       </c>
       <c r="F260" t="inlineStr"/>
-      <c r="G260" s="2" t="n">
-        <v>45255</v>
-      </c>
-      <c r="H260" t="inlineStr"/>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr"/>
+      <c r="A261" s="2" t="n">
+        <v>45257</v>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6194,13 +5668,11 @@
         <v>300</v>
       </c>
       <c r="F261" t="inlineStr"/>
-      <c r="G261" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="H261" t="inlineStr"/>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr"/>
+      <c r="A262" s="2" t="n">
+        <v>45233</v>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -6216,13 +5688,11 @@
         <v>135</v>
       </c>
       <c r="F262" t="inlineStr"/>
-      <c r="G262" s="2" t="n">
-        <v>45233</v>
-      </c>
-      <c r="H262" t="inlineStr"/>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr"/>
+      <c r="A263" s="2" t="n">
+        <v>45241</v>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -6238,13 +5708,11 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F263" t="inlineStr"/>
-      <c r="G263" s="2" t="n">
-        <v>45241</v>
-      </c>
-      <c r="H263" t="inlineStr"/>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr"/>
+      <c r="A264" s="2" t="n">
+        <v>45255</v>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6260,13 +5728,11 @@
         <v>50</v>
       </c>
       <c r="F264" t="inlineStr"/>
-      <c r="G264" s="2" t="n">
-        <v>45255</v>
-      </c>
-      <c r="H264" t="inlineStr"/>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr"/>
+      <c r="A265" s="2" t="n">
+        <v>45256</v>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -6282,13 +5748,11 @@
         <v>60</v>
       </c>
       <c r="F265" t="inlineStr"/>
-      <c r="G265" s="2" t="n">
-        <v>45256</v>
-      </c>
-      <c r="H265" t="inlineStr"/>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr"/>
+      <c r="A266" s="2" t="n">
+        <v>45237</v>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -6304,13 +5768,11 @@
         <v>150</v>
       </c>
       <c r="F266" t="inlineStr"/>
-      <c r="G266" s="2" t="n">
-        <v>45237</v>
-      </c>
-      <c r="H266" t="inlineStr"/>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr"/>
+      <c r="A267" s="2" t="n">
+        <v>45242</v>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6326,13 +5788,11 @@
         <v>450</v>
       </c>
       <c r="F267" t="inlineStr"/>
-      <c r="G267" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="H267" t="inlineStr"/>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr"/>
+      <c r="A268" s="2" t="n">
+        <v>45235</v>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -6348,13 +5808,11 @@
         <v>14.99999999999994</v>
       </c>
       <c r="F268" t="inlineStr"/>
-      <c r="G268" s="2" t="n">
-        <v>45235</v>
-      </c>
-      <c r="H268" t="inlineStr"/>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr"/>
+      <c r="A269" s="2" t="n">
+        <v>45260</v>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -6370,13 +5828,11 @@
         <v>25</v>
       </c>
       <c r="F269" t="inlineStr"/>
-      <c r="G269" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="H269" t="inlineStr"/>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr"/>
+      <c r="A270" s="2" t="n">
+        <v>45236</v>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6392,13 +5848,11 @@
         <v>200</v>
       </c>
       <c r="F270" t="inlineStr"/>
-      <c r="G270" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="H270" t="inlineStr"/>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr"/>
+      <c r="A271" s="2" t="n">
+        <v>45247</v>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -6414,13 +5868,11 @@
         <v>90</v>
       </c>
       <c r="F271" t="inlineStr"/>
-      <c r="G271" s="2" t="n">
-        <v>45247</v>
-      </c>
-      <c r="H271" t="inlineStr"/>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr"/>
+      <c r="A272" s="2" t="n">
+        <v>45241</v>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -6436,13 +5888,11 @@
         <v>225</v>
       </c>
       <c r="F272" t="inlineStr"/>
-      <c r="G272" s="2" t="n">
-        <v>45241</v>
-      </c>
-      <c r="H272" t="inlineStr"/>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr"/>
+      <c r="A273" s="2" t="n">
+        <v>45238</v>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6458,13 +5908,11 @@
         <v>49.9999999999998</v>
       </c>
       <c r="F273" t="inlineStr"/>
-      <c r="G273" s="2" t="n">
-        <v>45238</v>
-      </c>
-      <c r="H273" t="inlineStr"/>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr"/>
+      <c r="A274" s="2" t="n">
+        <v>45243</v>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -6480,13 +5928,11 @@
         <v>15</v>
       </c>
       <c r="F274" t="inlineStr"/>
-      <c r="G274" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="H274" t="inlineStr"/>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr"/>
+      <c r="A275" s="2" t="n">
+        <v>45260</v>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -6502,13 +5948,11 @@
         <v>100</v>
       </c>
       <c r="F275" t="inlineStr"/>
-      <c r="G275" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="H275" t="inlineStr"/>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr"/>
+      <c r="A276" s="2" t="n">
+        <v>45241</v>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6524,13 +5968,11 @@
         <v>300</v>
       </c>
       <c r="F276" t="inlineStr"/>
-      <c r="G276" s="2" t="n">
-        <v>45241</v>
-      </c>
-      <c r="H276" t="inlineStr"/>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr"/>
+      <c r="A277" s="2" t="n">
+        <v>45233</v>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -6546,13 +5988,11 @@
         <v>135</v>
       </c>
       <c r="F277" t="inlineStr"/>
-      <c r="G277" s="2" t="n">
-        <v>45233</v>
-      </c>
-      <c r="H277" t="inlineStr"/>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr"/>
+      <c r="A278" s="2" t="n">
+        <v>45259</v>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -6568,13 +6008,11 @@
         <v>24.9999999999999</v>
       </c>
       <c r="F278" t="inlineStr"/>
-      <c r="G278" s="2" t="n">
-        <v>45259</v>
-      </c>
-      <c r="H278" t="inlineStr"/>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr"/>
+      <c r="A279" s="2" t="n">
+        <v>45245</v>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6590,13 +6028,11 @@
         <v>50</v>
       </c>
       <c r="F279" t="inlineStr"/>
-      <c r="G279" s="2" t="n">
-        <v>45245</v>
-      </c>
-      <c r="H279" t="inlineStr"/>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr"/>
+      <c r="A280" s="2" t="n">
+        <v>45243</v>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -6612,13 +6048,11 @@
         <v>60</v>
       </c>
       <c r="F280" t="inlineStr"/>
-      <c r="G280" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="H280" t="inlineStr"/>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr"/>
+      <c r="A281" s="2" t="n">
+        <v>45231</v>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -6634,13 +6068,11 @@
         <v>150</v>
       </c>
       <c r="F281" t="inlineStr"/>
-      <c r="G281" s="2" t="n">
-        <v>45231</v>
-      </c>
-      <c r="H281" t="inlineStr"/>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr"/>
+      <c r="A282" s="2" t="n">
+        <v>45255</v>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6656,13 +6088,11 @@
         <v>450</v>
       </c>
       <c r="F282" t="inlineStr"/>
-      <c r="G282" s="2" t="n">
-        <v>45255</v>
-      </c>
-      <c r="H282" t="inlineStr"/>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr"/>
+      <c r="A283" s="2" t="n">
+        <v>45246</v>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6678,13 +6108,11 @@
         <v>231.0000000000003</v>
       </c>
       <c r="F283" t="inlineStr"/>
-      <c r="G283" s="2" t="n">
-        <v>45246</v>
-      </c>
-      <c r="H283" t="inlineStr"/>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr"/>
+      <c r="A284" s="2" t="n">
+        <v>45242</v>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -6700,13 +6128,11 @@
         <v>249.1652892561985</v>
       </c>
       <c r="F284" t="inlineStr"/>
-      <c r="G284" s="2" t="n">
-        <v>45242</v>
-      </c>
-      <c r="H284" t="inlineStr"/>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr"/>
+      <c r="A285" s="2" t="n">
+        <v>45234</v>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -6722,13 +6148,11 @@
         <v>267.5157024793392</v>
       </c>
       <c r="F285" t="inlineStr"/>
-      <c r="G285" s="2" t="n">
-        <v>45234</v>
-      </c>
-      <c r="H285" t="inlineStr"/>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr"/>
+      <c r="A286" s="2" t="n">
+        <v>45247</v>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6744,13 +6168,11 @@
         <v>286.0512396694211</v>
       </c>
       <c r="F286" t="inlineStr"/>
-      <c r="G286" s="2" t="n">
-        <v>45247</v>
-      </c>
-      <c r="H286" t="inlineStr"/>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr"/>
+      <c r="A287" s="2" t="n">
+        <v>45244</v>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -6766,13 +6188,11 @@
         <v>304.7719008264461</v>
       </c>
       <c r="F287" t="inlineStr"/>
-      <c r="G287" s="2" t="n">
-        <v>45244</v>
-      </c>
-      <c r="H287" t="inlineStr"/>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr"/>
+      <c r="A288" s="2" t="n">
+        <v>45239</v>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -6788,13 +6208,11 @@
         <v>323.6776859504133</v>
       </c>
       <c r="F288" t="inlineStr"/>
-      <c r="G288" s="2" t="n">
-        <v>45239</v>
-      </c>
-      <c r="H288" t="inlineStr"/>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr"/>
+      <c r="A289" s="2" t="n">
+        <v>45253</v>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6810,13 +6228,11 @@
         <v>342.768595041324</v>
       </c>
       <c r="F289" t="inlineStr"/>
-      <c r="G289" s="2" t="n">
-        <v>45253</v>
-      </c>
-      <c r="H289" t="inlineStr"/>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr"/>
+      <c r="A290" s="2" t="n">
+        <v>45252</v>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -6832,13 +6248,11 @@
         <v>362.0446280991751</v>
       </c>
       <c r="F290" t="inlineStr"/>
-      <c r="G290" s="2" t="n">
-        <v>45252</v>
-      </c>
-      <c r="H290" t="inlineStr"/>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr"/>
+      <c r="A291" s="2" t="n">
+        <v>45254</v>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -6854,13 +6268,11 @@
         <v>381.5057851239685</v>
       </c>
       <c r="F291" t="inlineStr"/>
-      <c r="G291" s="2" t="n">
-        <v>45254</v>
-      </c>
-      <c r="H291" t="inlineStr"/>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr"/>
+      <c r="A292" s="2" t="n">
+        <v>45246</v>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6876,13 +6288,11 @@
         <v>401.1520661157027</v>
       </c>
       <c r="F292" t="inlineStr"/>
-      <c r="G292" s="2" t="n">
-        <v>45246</v>
-      </c>
-      <c r="H292" t="inlineStr"/>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr"/>
+      <c r="A293" s="2" t="n">
+        <v>45255</v>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Zapatos</t>
@@ -6898,13 +6308,11 @@
         <v>420.9834710743802</v>
       </c>
       <c r="F293" t="inlineStr"/>
-      <c r="G293" s="2" t="n">
-        <v>45255</v>
-      </c>
-      <c r="H293" t="inlineStr"/>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr"/>
+      <c r="A294" s="2" t="n">
+        <v>45256</v>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Camiseta</t>
@@ -6920,13 +6328,11 @@
         <v>441</v>
       </c>
       <c r="F294" t="inlineStr"/>
-      <c r="G294" s="2" t="n">
-        <v>45256</v>
-      </c>
-      <c r="H294" t="inlineStr"/>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr"/>
+      <c r="A295" s="2" t="n">
+        <v>45236</v>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Pantalón</t>
@@ -6942,13 +6348,11 @@
         <v>461.2016528925619</v>
       </c>
       <c r="F295" t="inlineStr"/>
-      <c r="G295" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="H295" t="inlineStr"/>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr"/>
+      <c r="A296" s="2" t="n">
+        <v>45358</v>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Chaqueta</t>
@@ -6964,13 +6368,11 @@
         <v>300</v>
       </c>
       <c r="F296" t="inlineStr"/>
-      <c r="G296" s="2" t="n">
-        <v>45358</v>
-      </c>
-      <c r="H296" t="inlineStr"/>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr"/>
+      <c r="A297" s="2" t="n">
+        <v>45344</v>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Gorra</t>
@@ -6986,13 +6388,11 @@
         <v>200</v>
       </c>
       <c r="F297" t="inlineStr"/>
-      <c r="G297" s="2" t="n">
-        <v>45344</v>
-      </c>
-      <c r="H297" t="inlineStr"/>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr"/>
+      <c r="A298" s="2" t="n">
+        <v>45283</v>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Bufanda</t>
@@ -7008,13 +6408,11 @@
         <v>120</v>
       </c>
       <c r="F298" t="inlineStr"/>
-      <c r="G298" s="2" t="n">
-        <v>45283</v>
-      </c>
-      <c r="H298" t="inlineStr"/>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr"/>
+      <c r="A299" s="2" t="n">
+        <v>45400</v>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Guantes</t>
@@ -7030,13 +6428,11 @@
         <v>180</v>
       </c>
       <c r="F299" t="inlineStr"/>
-      <c r="G299" s="2" t="n">
-        <v>45400</v>
-      </c>
-      <c r="H299" t="inlineStr"/>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr"/>
+      <c r="A300" s="2" t="n">
+        <v>45123</v>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Calcetines</t>
@@ -7052,13 +6448,11 @@
         <v>100</v>
       </c>
       <c r="F300" t="inlineStr"/>
-      <c r="G300" s="2" t="n">
-        <v>45123</v>
-      </c>
-      <c r="H300" t="inlineStr"/>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr"/>
+      <c r="A301" s="2" t="n">
+        <v>45179</v>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Vestido</t>
@@ -7074,13 +6468,11 @@
         <v>240</v>
       </c>
       <c r="F301" t="inlineStr"/>
-      <c r="G301" s="2" t="n">
-        <v>45179</v>
-      </c>
-      <c r="H301" t="inlineStr"/>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr"/>
+      <c r="A302" s="2" t="n">
+        <v>45342</v>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Falda</t>
@@ -7096,13 +6488,11 @@
         <v>180</v>
       </c>
       <c r="F302" t="inlineStr"/>
-      <c r="G302" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="H302" t="inlineStr"/>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr"/>
+      <c r="A303" s="2" t="n">
+        <v>45199</v>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Corbata</t>
@@ -7118,13 +6508,11 @@
         <v>300</v>
       </c>
       <c r="F303" t="inlineStr"/>
-      <c r="G303" s="2" t="n">
-        <v>45199</v>
-      </c>
-      <c r="H303" t="inlineStr"/>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr"/>
+      <c r="A304" s="2" t="n">
+        <v>45101</v>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Sudadera</t>
@@ -7140,13 +6528,11 @@
         <v>315</v>
       </c>
       <c r="F304" t="inlineStr"/>
-      <c r="G304" s="2" t="n">
-        <v>45101</v>
-      </c>
-      <c r="H304" t="inlineStr"/>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr"/>
+      <c r="A305" s="2" t="n">
+        <v>45314</v>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Pantuflas</t>
@@ -7162,13 +6548,11 @@
         <v>200</v>
       </c>
       <c r="F305" t="inlineStr"/>
-      <c r="G305" s="2" t="n">
-        <v>45314</v>
-      </c>
-      <c r="H305" t="inlineStr"/>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr"/>
+      <c r="A306" s="2" t="n">
+        <v>45035</v>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Bolso</t>
@@ -7184,13 +6568,11 @@
         <v>200</v>
       </c>
       <c r="F306" t="inlineStr"/>
-      <c r="G306" s="2" t="n">
-        <v>45035</v>
-      </c>
-      <c r="H306" t="inlineStr"/>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr"/>
+      <c r="A307" s="2" t="n">
+        <v>45393</v>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Sombrero</t>
@@ -7206,13 +6588,11 @@
         <v>162</v>
       </c>
       <c r="F307" t="inlineStr"/>
-      <c r="G307" s="2" t="n">
-        <v>45393</v>
-      </c>
-      <c r="H307" t="inlineStr"/>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr"/>
+      <c r="A308" s="2" t="n">
+        <v>45414</v>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Leggings</t>
@@ -7228,13 +6608,11 @@
         <v>150</v>
       </c>
       <c r="F308" t="inlineStr"/>
-      <c r="G308" s="2" t="n">
-        <v>45414</v>
-      </c>
-      <c r="H308" t="inlineStr"/>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr"/>
+      <c r="A309" s="2" t="n">
+        <v>45418</v>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Abrigo</t>
@@ -7250,13 +6628,11 @@
         <v>200</v>
       </c>
       <c r="F309" t="inlineStr"/>
-      <c r="G309" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="H309" t="inlineStr"/>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr"/>
+      <c r="A310" s="2" t="n">
+        <v>45356</v>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Traje de baño</t>
@@ -7272,13 +6648,11 @@
         <v>200</v>
       </c>
       <c r="F310" t="inlineStr"/>
-      <c r="G310" s="2" t="n">
-        <v>45356</v>
-      </c>
-      <c r="H310" t="inlineStr"/>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr"/>
+      <c r="A311" s="2" t="n">
+        <v>45306</v>
+      </c>
       <c r="B311" t="inlineStr"/>
       <c r="C311" t="n">
         <v>35</v>
@@ -7289,18 +6663,16 @@
       <c r="E311" t="n">
         <v>280</v>
       </c>
-      <c r="F311" t="inlineStr"/>
-      <c r="G311" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="H311" t="inlineStr">
+      <c r="F311" t="inlineStr">
         <is>
           <t>Blusa</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr"/>
+      <c r="A312" s="2" t="n">
+        <v>45410</v>
+      </c>
       <c r="B312" t="inlineStr"/>
       <c r="C312" t="n">
         <v>20</v>
@@ -7311,18 +6683,16 @@
       <c r="E312" t="n">
         <v>300</v>
       </c>
-      <c r="F312" t="inlineStr"/>
-      <c r="G312" s="2" t="n">
-        <v>45410</v>
-      </c>
-      <c r="H312" t="inlineStr">
+      <c r="F312" t="inlineStr">
         <is>
           <t>Pantalones cortos</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr"/>
+      <c r="A313" s="2" t="n">
+        <v>45060</v>
+      </c>
       <c r="B313" t="inlineStr"/>
       <c r="C313" t="n">
         <v>15</v>
@@ -7333,18 +6703,16 @@
       <c r="E313" t="n">
         <v>150</v>
       </c>
-      <c r="F313" t="inlineStr"/>
-      <c r="G313" s="2" t="n">
-        <v>45060</v>
-      </c>
-      <c r="H313" t="inlineStr">
+      <c r="F313" t="inlineStr">
         <is>
           <t>Sombrero de paja</t>
         </is>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr"/>
+      <c r="A314" s="2" t="n">
+        <v>45041</v>
+      </c>
       <c r="B314" t="inlineStr"/>
       <c r="C314" t="n">
         <v>120</v>
@@ -7355,18 +6723,16 @@
       <c r="E314" t="n">
         <v>360</v>
       </c>
-      <c r="F314" t="inlineStr"/>
-      <c r="G314" s="2" t="n">
-        <v>45041</v>
-      </c>
-      <c r="H314" t="inlineStr">
+      <c r="F314" t="inlineStr">
         <is>
           <t>Chaqueta de cuero</t>
         </is>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr"/>
+      <c r="A315" s="2" t="n">
+        <v>45124</v>
+      </c>
       <c r="B315" t="inlineStr"/>
       <c r="C315" t="n">
         <v>40</v>
@@ -7377,18 +6743,16 @@
       <c r="E315" t="n">
         <v>240</v>
       </c>
-      <c r="F315" t="inlineStr"/>
-      <c r="G315" s="2" t="n">
-        <v>45124</v>
-      </c>
-      <c r="H315" t="inlineStr">
+      <c r="F315" t="inlineStr">
         <is>
           <t>Mochila</t>
         </is>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr"/>
+      <c r="A316" s="2" t="n">
+        <v>45366</v>
+      </c>
       <c r="B316" t="inlineStr"/>
       <c r="C316" t="n">
         <v>18</v>
@@ -7399,18 +6763,16 @@
       <c r="E316" t="n">
         <v>216</v>
       </c>
-      <c r="F316" t="inlineStr"/>
-      <c r="G316" s="2" t="n">
-        <v>45366</v>
-      </c>
-      <c r="H316" t="inlineStr">
+      <c r="F316" t="inlineStr">
         <is>
           <t>Bufanda de lana</t>
         </is>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr"/>
+      <c r="A317" s="2" t="n">
+        <v>45410</v>
+      </c>
       <c r="B317" t="inlineStr"/>
       <c r="C317" t="n">
         <v>70</v>
@@ -7421,18 +6783,16 @@
       <c r="E317" t="n">
         <v>350</v>
       </c>
-      <c r="F317" t="inlineStr"/>
-      <c r="G317" s="2" t="n">
-        <v>45410</v>
-      </c>
-      <c r="H317" t="inlineStr">
+      <c r="F317" t="inlineStr">
         <is>
           <t>Zapatos deportivos</t>
         </is>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr"/>
+      <c r="A318" s="2" t="n">
+        <v>44983</v>
+      </c>
       <c r="B318" t="inlineStr"/>
       <c r="C318" t="n">
         <v>45</v>
@@ -7443,18 +6803,16 @@
       <c r="E318" t="n">
         <v>315</v>
       </c>
-      <c r="F318" t="inlineStr"/>
-      <c r="G318" s="2" t="n">
-        <v>44983</v>
-      </c>
-      <c r="H318" t="inlineStr">
+      <c r="F318" t="inlineStr">
         <is>
           <t>Camisa de vestir</t>
         </is>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr"/>
+      <c r="A319" s="2" t="n">
+        <v>45402</v>
+      </c>
       <c r="B319" t="inlineStr"/>
       <c r="C319" t="n">
         <v>50</v>
@@ -7465,18 +6823,16 @@
       <c r="E319" t="n">
         <v>200</v>
       </c>
-      <c r="F319" t="inlineStr"/>
-      <c r="G319" s="2" t="n">
-        <v>45402</v>
-      </c>
-      <c r="H319" t="inlineStr">
+      <c r="F319" t="inlineStr">
         <is>
           <t>Falda larga</t>
         </is>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr"/>
+      <c r="A320" s="2" t="n">
+        <v>45202</v>
+      </c>
       <c r="B320" t="inlineStr"/>
       <c r="C320" t="n">
         <v>8</v>
@@ -7487,18 +6843,16 @@
       <c r="E320" t="n">
         <v>160</v>
       </c>
-      <c r="F320" t="inlineStr"/>
-      <c r="G320" s="2" t="n">
-        <v>45202</v>
-      </c>
-      <c r="H320" t="inlineStr">
+      <c r="F320" t="inlineStr">
         <is>
           <t>Calcetines de compresión</t>
         </is>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr"/>
+      <c r="A321" s="2" t="n">
+        <v>45352</v>
+      </c>
       <c r="B321" t="inlineStr"/>
       <c r="C321" t="n">
         <v>90</v>
@@ -7509,18 +6863,16 @@
       <c r="E321" t="n">
         <v>270</v>
       </c>
-      <c r="F321" t="inlineStr"/>
-      <c r="G321" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="H321" t="inlineStr">
+      <c r="F321" t="inlineStr">
         <is>
           <t>Botas de montaña</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr"/>
+      <c r="A322" s="2" t="n">
+        <v>45192</v>
+      </c>
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="n">
         <v>30</v>
@@ -7531,18 +6883,16 @@
       <c r="E322" t="n">
         <v>270</v>
       </c>
-      <c r="F322" t="inlineStr"/>
-      <c r="G322" s="2" t="n">
-        <v>45192</v>
-      </c>
-      <c r="H322" t="inlineStr">
+      <c r="F322" t="inlineStr">
         <is>
           <t>Bolso de mano</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr"/>
+      <c r="A323" s="2" t="n">
+        <v>45324</v>
+      </c>
       <c r="B323" t="inlineStr"/>
       <c r="C323" t="n">
         <v>12</v>
@@ -7553,18 +6903,16 @@
       <c r="E323" t="n">
         <v>180</v>
       </c>
-      <c r="F323" t="inlineStr"/>
-      <c r="G323" s="2" t="n">
-        <v>45324</v>
-      </c>
-      <c r="H323" t="inlineStr">
+      <c r="F323" t="inlineStr">
         <is>
           <t>Gorro de lana</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr"/>
+      <c r="A324" s="2" t="n">
+        <v>45394</v>
+      </c>
       <c r="B324" t="inlineStr"/>
       <c r="C324" t="n">
         <v>25</v>
@@ -7575,18 +6923,16 @@
       <c r="E324" t="n">
         <v>200</v>
       </c>
-      <c r="F324" t="inlineStr"/>
-      <c r="G324" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="H324" t="inlineStr">
+      <c r="F324" t="inlineStr">
         <is>
           <t>Leggings estampados</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr"/>
+      <c r="A325" s="2" t="n">
+        <v>45162</v>
+      </c>
       <c r="B325" t="inlineStr"/>
       <c r="C325" t="n">
         <v>55</v>
@@ -7597,18 +6943,16 @@
       <c r="E325" t="n">
         <v>275</v>
       </c>
-      <c r="F325" t="inlineStr"/>
-      <c r="G325" s="2" t="n">
-        <v>45162</v>
-      </c>
-      <c r="H325" t="inlineStr">
+      <c r="F325" t="inlineStr">
         <is>
           <t>Chaleco</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr"/>
+      <c r="A326" s="2" t="n">
+        <v>44986</v>
+      </c>
       <c r="B326" t="inlineStr"/>
       <c r="C326" t="n">
         <v>15</v>
@@ -7619,18 +6963,16 @@
       <c r="E326" t="n">
         <v>150</v>
       </c>
-      <c r="F326" t="inlineStr"/>
-      <c r="G326" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="H326" t="inlineStr">
+      <c r="F326" t="inlineStr">
         <is>
           <t>Camiseta sin mangas</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr"/>
+      <c r="A327" s="2" t="n">
+        <v>45134</v>
+      </c>
       <c r="B327" t="inlineStr"/>
       <c r="C327" t="n">
         <v>200</v>
@@ -7641,18 +6983,16 @@
       <c r="E327" t="n">
         <v>400</v>
       </c>
-      <c r="F327" t="inlineStr"/>
-      <c r="G327" s="2" t="n">
-        <v>45134</v>
-      </c>
-      <c r="H327" t="inlineStr">
+      <c r="F327" t="inlineStr">
         <is>
           <t>Traje formal</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr"/>
+      <c r="A328" s="2" t="n">
+        <v>44939</v>
+      </c>
       <c r="B328" t="inlineStr"/>
       <c r="C328" t="n">
         <v>25</v>
@@ -7663,18 +7003,16 @@
       <c r="E328" t="n">
         <v>175</v>
       </c>
-      <c r="F328" t="inlineStr"/>
-      <c r="G328" s="2" t="n">
-        <v>44939</v>
-      </c>
-      <c r="H328" t="inlineStr">
+      <c r="F328" t="inlineStr">
         <is>
           <t>Sandalias</t>
         </is>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr"/>
+      <c r="A329" s="2" t="n">
+        <v>45313</v>
+      </c>
       <c r="B329" t="inlineStr"/>
       <c r="C329" t="n">
         <v>40</v>
@@ -7685,18 +7023,16 @@
       <c r="E329" t="n">
         <v>240</v>
       </c>
-      <c r="F329" t="inlineStr"/>
-      <c r="G329" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="H329" t="inlineStr">
+      <c r="F329" t="inlineStr">
         <is>
           <t>Jeans</t>
         </is>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr"/>
+      <c r="A330" s="2" t="n">
+        <v>45184</v>
+      </c>
       <c r="B330" t="inlineStr"/>
       <c r="C330" t="n">
         <v>30</v>
@@ -7707,18 +7043,16 @@
       <c r="E330" t="n">
         <v>240</v>
       </c>
-      <c r="F330" t="inlineStr"/>
-      <c r="G330" s="2" t="n">
-        <v>45184</v>
-      </c>
-      <c r="H330" t="inlineStr">
+      <c r="F330" t="inlineStr">
         <is>
           <t>Top deportivo</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr"/>
+      <c r="A331" s="2" t="n">
+        <v>45296</v>
+      </c>
       <c r="B331" t="inlineStr"/>
       <c r="C331" t="n">
         <v>150</v>
@@ -7729,18 +7063,16 @@
       <c r="E331" t="n">
         <v>450</v>
       </c>
-      <c r="F331" t="inlineStr"/>
-      <c r="G331" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="H331" t="inlineStr">
+      <c r="F331" t="inlineStr">
         <is>
           <t>Abrigo de invierno</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr"/>
+      <c r="A332" s="2" t="n">
+        <v>45147</v>
+      </c>
       <c r="B332" t="inlineStr"/>
       <c r="C332" t="n">
         <v>20</v>
@@ -7751,18 +7083,16 @@
       <c r="E332" t="n">
         <v>240</v>
       </c>
-      <c r="F332" t="inlineStr"/>
-      <c r="G332" s="2" t="n">
-        <v>45147</v>
-      </c>
-      <c r="H332" t="inlineStr">
+      <c r="F332" t="inlineStr">
         <is>
           <t>Mallas</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr"/>
+      <c r="A333" s="2" t="n">
+        <v>45142</v>
+      </c>
       <c r="B333" t="inlineStr"/>
       <c r="C333" t="n">
         <v>60</v>
@@ -7773,18 +7103,16 @@
       <c r="E333" t="n">
         <v>240</v>
       </c>
-      <c r="F333" t="inlineStr"/>
-      <c r="G333" s="2" t="n">
-        <v>45142</v>
-      </c>
-      <c r="H333" t="inlineStr">
+      <c r="F333" t="inlineStr">
         <is>
           <t>Blazer</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr"/>
+      <c r="A334" s="2" t="n">
+        <v>45321</v>
+      </c>
       <c r="B334" t="inlineStr"/>
       <c r="C334" t="n">
         <v>10</v>
@@ -7795,18 +7123,16 @@
       <c r="E334" t="n">
         <v>150</v>
       </c>
-      <c r="F334" t="inlineStr"/>
-      <c r="G334" s="2" t="n">
-        <v>45321</v>
-      </c>
-      <c r="H334" t="inlineStr">
+      <c r="F334" t="inlineStr">
         <is>
           <t>Camiseta de tirantes</t>
         </is>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr"/>
+      <c r="A335" s="2" t="n">
+        <v>45414</v>
+      </c>
       <c r="B335" t="inlineStr"/>
       <c r="C335" t="n">
         <v>80</v>
@@ -7817,18 +7143,16 @@
       <c r="E335" t="n">
         <v>400</v>
       </c>
-      <c r="F335" t="inlineStr"/>
-      <c r="G335" s="2" t="n">
-        <v>45414</v>
-      </c>
-      <c r="H335" t="inlineStr">
+      <c r="F335" t="inlineStr">
         <is>
           <t>Vestido formal</t>
         </is>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr"/>
+      <c r="A336" s="2" t="n">
+        <v>44969</v>
+      </c>
       <c r="B336" t="inlineStr"/>
       <c r="C336" t="n">
         <v>25</v>
@@ -7839,18 +7163,16 @@
       <c r="E336" t="n">
         <v>150</v>
       </c>
-      <c r="F336" t="inlineStr"/>
-      <c r="G336" s="2" t="n">
-        <v>44969</v>
-      </c>
-      <c r="H336" t="inlineStr">
+      <c r="F336" t="inlineStr">
         <is>
           <t>Bufanda de seda</t>
         </is>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr"/>
+      <c r="A337" s="2" t="n">
+        <v>45048</v>
+      </c>
       <c r="B337" t="inlineStr"/>
       <c r="C337" t="n">
         <v>35</v>
@@ -7861,18 +7183,16 @@
       <c r="E337" t="n">
         <v>315</v>
       </c>
-      <c r="F337" t="inlineStr"/>
-      <c r="G337" s="2" t="n">
-        <v>45048</v>
-      </c>
-      <c r="H337" t="inlineStr">
+      <c r="F337" t="inlineStr">
         <is>
           <t>Pantalones de yoga</t>
         </is>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr"/>
+      <c r="A338" s="2" t="n">
+        <v>44978</v>
+      </c>
       <c r="B338" t="inlineStr"/>
       <c r="C338" t="n">
         <v>20</v>
@@ -7883,18 +7203,16 @@
       <c r="E338" t="n">
         <v>200</v>
       </c>
-      <c r="F338" t="inlineStr"/>
-      <c r="G338" s="2" t="n">
-        <v>44978</v>
-      </c>
-      <c r="H338" t="inlineStr">
+      <c r="F338" t="inlineStr">
         <is>
           <t>Gorra de béisbol</t>
         </is>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr"/>
+      <c r="A339" s="2" t="n">
+        <v>45286</v>
+      </c>
       <c r="B339" t="inlineStr"/>
       <c r="C339" t="n">
         <v>85</v>
@@ -7905,18 +7223,16 @@
       <c r="E339" t="n">
         <v>340</v>
       </c>
-      <c r="F339" t="inlineStr"/>
-      <c r="G339" s="2" t="n">
-        <v>45286</v>
-      </c>
-      <c r="H339" t="inlineStr">
+      <c r="F339" t="inlineStr">
         <is>
           <t>Zapatos de tacón</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr"/>
+      <c r="A340" s="2" t="n">
+        <v>45327</v>
+      </c>
       <c r="B340" t="inlineStr"/>
       <c r="C340" t="n">
         <v>25</v>
@@ -7927,18 +7243,16 @@
       <c r="E340" t="n">
         <v>200</v>
       </c>
-      <c r="F340" t="inlineStr"/>
-      <c r="G340" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="H340" t="inlineStr">
+      <c r="F340" t="inlineStr">
         <is>
           <t>Polo</t>
         </is>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr"/>
+      <c r="A341" s="2" t="n">
+        <v>45306</v>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Bufanda de algodón</t>
@@ -7954,13 +7268,11 @@
         <v>120</v>
       </c>
       <c r="F341" t="inlineStr"/>
-      <c r="G341" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="H341" t="inlineStr"/>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr"/>
+      <c r="A342" s="2" t="n">
+        <v>45410</v>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Guantes de cuero</t>
@@ -7976,13 +7288,11 @@
         <v>180</v>
       </c>
       <c r="F342" t="inlineStr"/>
-      <c r="G342" s="2" t="n">
-        <v>45410</v>
-      </c>
-      <c r="H342" t="inlineStr"/>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr"/>
+      <c r="A343" s="2" t="n">
+        <v>45060</v>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Cinturón de cuero</t>
@@ -7998,13 +7308,11 @@
         <v>200</v>
       </c>
       <c r="F343" t="inlineStr"/>
-      <c r="G343" s="2" t="n">
-        <v>45060</v>
-      </c>
-      <c r="H343" t="inlineStr"/>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr"/>
+      <c r="A344" s="2" t="n">
+        <v>45041</v>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Chaqueta de invierno</t>
@@ -8020,13 +7328,11 @@
         <v>320</v>
       </c>
       <c r="F344" t="inlineStr"/>
-      <c r="G344" s="2" t="n">
-        <v>45041</v>
-      </c>
-      <c r="H344" t="inlineStr"/>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr"/>
+      <c r="A345" s="2" t="n">
+        <v>45124</v>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Botines</t>
@@ -8042,13 +7348,11 @@
         <v>300</v>
       </c>
       <c r="F345" t="inlineStr"/>
-      <c r="G345" s="2" t="n">
-        <v>45124</v>
-      </c>
-      <c r="H345" t="inlineStr"/>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr"/>
+      <c r="A346" s="2" t="n">
+        <v>45366</v>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Vestido casual</t>
@@ -8064,13 +7368,11 @@
         <v>315</v>
       </c>
       <c r="F346" t="inlineStr"/>
-      <c r="G346" s="2" t="n">
-        <v>45366</v>
-      </c>
-      <c r="H346" t="inlineStr"/>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr"/>
+      <c r="A347" s="2" t="n">
+        <v>45410</v>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Chaqueta de punto</t>
@@ -8086,13 +7388,11 @@
         <v>315</v>
       </c>
       <c r="F347" t="inlineStr"/>
-      <c r="G347" s="2" t="n">
-        <v>45410</v>
-      </c>
-      <c r="H347" t="inlineStr"/>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr"/>
+      <c r="A348" s="2" t="n">
+        <v>44983</v>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Pañuelo de seda</t>
@@ -8108,13 +7408,11 @@
         <v>216</v>
       </c>
       <c r="F348" t="inlineStr"/>
-      <c r="G348" s="2" t="n">
-        <v>44983</v>
-      </c>
-      <c r="H348" t="inlineStr"/>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr"/>
+      <c r="A349" s="2" t="n">
+        <v>45402</v>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Camisa de manga corta</t>
@@ -8130,13 +7428,11 @@
         <v>200</v>
       </c>
       <c r="F349" t="inlineStr"/>
-      <c r="G349" s="2" t="n">
-        <v>45402</v>
-      </c>
-      <c r="H349" t="inlineStr"/>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr"/>
+      <c r="A350" s="2" t="n">
+        <v>45202</v>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Sandalias de cuero</t>
@@ -8152,13 +7448,11 @@
         <v>240</v>
       </c>
       <c r="F350" t="inlineStr"/>
-      <c r="G350" s="2" t="n">
-        <v>45202</v>
-      </c>
-      <c r="H350" t="inlineStr"/>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr"/>
+      <c r="A351" s="2" t="n">
+        <v>45352</v>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Pantalones de cuero</t>
@@ -8174,13 +7468,11 @@
         <v>280</v>
       </c>
       <c r="F351" t="inlineStr"/>
-      <c r="G351" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="H351" t="inlineStr"/>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr"/>
+      <c r="A352" s="2" t="n">
+        <v>45192</v>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Sombrero de fieltro</t>
@@ -8196,13 +7488,11 @@
         <v>200</v>
       </c>
       <c r="F352" t="inlineStr"/>
-      <c r="G352" s="2" t="n">
-        <v>45192</v>
-      </c>
-      <c r="H352" t="inlineStr"/>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr"/>
+      <c r="A353" s="2" t="n">
+        <v>45324</v>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Botas altas</t>
@@ -8218,13 +7508,11 @@
         <v>270</v>
       </c>
       <c r="F353" t="inlineStr"/>
-      <c r="G353" s="2" t="n">
-        <v>45324</v>
-      </c>
-      <c r="H353" t="inlineStr"/>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr"/>
+      <c r="A354" s="2" t="n">
+        <v>45394</v>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Poncho</t>
@@ -8240,13 +7528,11 @@
         <v>275</v>
       </c>
       <c r="F354" t="inlineStr"/>
-      <c r="G354" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="H354" t="inlineStr"/>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr"/>
+      <c r="A355" s="2" t="n">
+        <v>45162</v>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Chaqueta de mezclilla</t>
@@ -8262,13 +7548,11 @@
         <v>300</v>
       </c>
       <c r="F355" t="inlineStr"/>
-      <c r="G355" s="2" t="n">
-        <v>45162</v>
-      </c>
-      <c r="H355" t="inlineStr"/>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr"/>
+      <c r="A356" s="2" t="n">
+        <v>44986</v>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Camiseta de manga larga</t>
@@ -8284,13 +7568,11 @@
         <v>180</v>
       </c>
       <c r="F356" t="inlineStr"/>
-      <c r="G356" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="H356" t="inlineStr"/>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr"/>
+      <c r="A357" s="2" t="n">
+        <v>45134</v>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Traje de baile</t>
@@ -8306,13 +7588,11 @@
         <v>240</v>
       </c>
       <c r="F357" t="inlineStr"/>
-      <c r="G357" s="2" t="n">
-        <v>45134</v>
-      </c>
-      <c r="H357" t="inlineStr"/>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr"/>
+      <c r="A358" s="2" t="n">
+        <v>44939</v>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Pashmina</t>
@@ -8328,13 +7608,11 @@
         <v>175</v>
       </c>
       <c r="F358" t="inlineStr"/>
-      <c r="G358" s="2" t="n">
-        <v>44939</v>
-      </c>
-      <c r="H358" t="inlineStr"/>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr"/>
+      <c r="A359" s="2" t="n">
+        <v>45313</v>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Falda plisada</t>
@@ -8350,13 +7628,11 @@
         <v>240</v>
       </c>
       <c r="F359" t="inlineStr"/>
-      <c r="G359" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="H359" t="inlineStr"/>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr"/>
+      <c r="A360" s="2" t="n">
+        <v>45184</v>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Traje sastre</t>
@@ -8372,13 +7648,11 @@
         <v>540</v>
       </c>
       <c r="F360" t="inlineStr"/>
-      <c r="G360" s="2" t="n">
-        <v>45184</v>
-      </c>
-      <c r="H360" t="inlineStr"/>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr"/>
+      <c r="A361" s="2" t="n">
+        <v>45296</v>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Leggings de yoga</t>
@@ -8394,13 +7668,11 @@
         <v>210</v>
       </c>
       <c r="F361" t="inlineStr"/>
-      <c r="G361" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="H361" t="inlineStr"/>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr"/>
+      <c r="A362" s="2" t="n">
+        <v>45147</v>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Pantalones cortos de mezclilla</t>
@@ -8416,13 +7688,11 @@
         <v>250</v>
       </c>
       <c r="F362" t="inlineStr"/>
-      <c r="G362" s="2" t="n">
-        <v>45147</v>
-      </c>
-      <c r="H362" t="inlineStr"/>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr"/>
+      <c r="A363" s="2" t="n">
+        <v>45142</v>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Camiseta básica</t>
@@ -8438,13 +7708,11 @@
         <v>180</v>
       </c>
       <c r="F363" t="inlineStr"/>
-      <c r="G363" s="2" t="n">
-        <v>45142</v>
-      </c>
-      <c r="H363" t="inlineStr"/>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr"/>
+      <c r="A364" s="2" t="n">
+        <v>45321</v>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Blusa sin hombros</t>
@@ -8460,13 +7728,11 @@
         <v>200</v>
       </c>
       <c r="F364" t="inlineStr"/>
-      <c r="G364" s="2" t="n">
-        <v>45321</v>
-      </c>
-      <c r="H364" t="inlineStr"/>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr"/>
+      <c r="A365" s="2" t="n">
+        <v>45414</v>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Chaqueta de lana</t>
@@ -8482,13 +7748,11 @@
         <v>260</v>
       </c>
       <c r="F365" t="inlineStr"/>
-      <c r="G365" s="2" t="n">
-        <v>45414</v>
-      </c>
-      <c r="H365" t="inlineStr"/>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr"/>
+      <c r="A366" s="2" t="n">
+        <v>44969</v>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Zapatos Oxford</t>
@@ -8504,13 +7768,11 @@
         <v>385</v>
       </c>
       <c r="F366" t="inlineStr"/>
-      <c r="G366" s="2" t="n">
-        <v>44969</v>
-      </c>
-      <c r="H366" t="inlineStr"/>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr"/>
+      <c r="A367" s="2" t="n">
+        <v>45048</v>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Vestido de cóctel</t>
@@ -8526,13 +7788,11 @@
         <v>420</v>
       </c>
       <c r="F367" t="inlineStr"/>
-      <c r="G367" s="2" t="n">
-        <v>45048</v>
-      </c>
-      <c r="H367" t="inlineStr"/>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr"/>
+      <c r="A368" s="2" t="n">
+        <v>44978</v>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Chaleco de lana</t>
@@ -8548,13 +7808,11 @@
         <v>360</v>
       </c>
       <c r="F368" t="inlineStr"/>
-      <c r="G368" s="2" t="n">
-        <v>44978</v>
-      </c>
-      <c r="H368" t="inlineStr"/>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr"/>
+      <c r="A369" s="2" t="n">
+        <v>45286</v>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Sombrero de ala ancha</t>
@@ -8570,13 +7828,11 @@
         <v>270</v>
       </c>
       <c r="F369" t="inlineStr"/>
-      <c r="G369" s="2" t="n">
-        <v>45286</v>
-      </c>
-      <c r="H369" t="inlineStr"/>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr"/>
+      <c r="A370" s="2" t="n">
+        <v>45327</v>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Sudadera con capucha</t>
@@ -8592,10 +7848,6 @@
         <v>250</v>
       </c>
       <c r="F370" t="inlineStr"/>
-      <c r="G370" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="H370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F370"/>
+  <dimension ref="A1:E370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,11 +463,6 @@
           <t>Total de Venta</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>NombreProducto</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -487,7 +482,6 @@
       <c r="E2" t="n">
         <v>300</v>
       </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -507,7 +501,6 @@
       <c r="E3" t="n">
         <v>375</v>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -527,7 +520,6 @@
       <c r="E4" t="n">
         <v>500</v>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -547,7 +539,6 @@
       <c r="E5" t="n">
         <v>300</v>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -567,7 +558,6 @@
       <c r="E6" t="n">
         <v>375</v>
       </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -587,7 +577,6 @@
       <c r="E7" t="n">
         <v>500</v>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -607,7 +596,6 @@
       <c r="E8" t="n">
         <v>300</v>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -627,7 +615,6 @@
       <c r="E9" t="n">
         <v>375</v>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -647,7 +634,6 @@
       <c r="E10" t="n">
         <v>500</v>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -667,7 +653,6 @@
       <c r="E11" t="n">
         <v>300</v>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -687,7 +672,6 @@
       <c r="E12" t="n">
         <v>375</v>
       </c>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -707,7 +691,6 @@
       <c r="E13" t="n">
         <v>500</v>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -727,7 +710,6 @@
       <c r="E14" t="n">
         <v>300</v>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -747,7 +729,6 @@
       <c r="E15" t="n">
         <v>375</v>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -767,7 +748,6 @@
       <c r="E16" t="n">
         <v>500</v>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -787,7 +767,6 @@
       <c r="E17" t="n">
         <v>300</v>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -807,7 +786,6 @@
       <c r="E18" t="n">
         <v>375</v>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -827,7 +805,6 @@
       <c r="E19" t="n">
         <v>500</v>
       </c>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -847,7 +824,6 @@
       <c r="E20" t="n">
         <v>300</v>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -867,7 +843,6 @@
       <c r="E21" t="n">
         <v>375</v>
       </c>
-      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -887,7 +862,6 @@
       <c r="E22" t="n">
         <v>500</v>
       </c>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -907,7 +881,6 @@
       <c r="E23" t="n">
         <v>300</v>
       </c>
-      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -927,7 +900,6 @@
       <c r="E24" t="n">
         <v>375</v>
       </c>
-      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -947,7 +919,6 @@
       <c r="E25" t="n">
         <v>500</v>
       </c>
-      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -967,7 +938,6 @@
       <c r="E26" t="n">
         <v>210</v>
       </c>
-      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -987,7 +957,6 @@
       <c r="E27" t="n">
         <v>375</v>
       </c>
-      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1007,7 +976,6 @@
       <c r="E28" t="n">
         <v>500</v>
       </c>
-      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1027,7 +995,6 @@
       <c r="E29" t="n">
         <v>45</v>
       </c>
-      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1047,7 +1014,6 @@
       <c r="E30" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1067,7 +1033,6 @@
       <c r="E31" t="n">
         <v>700</v>
       </c>
-      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1087,7 +1052,6 @@
       <c r="E32" t="n">
         <v>225</v>
       </c>
-      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1107,7 +1071,6 @@
       <c r="E33" t="n">
         <v>250</v>
       </c>
-      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1127,7 +1090,6 @@
       <c r="E34" t="n">
         <v>150</v>
       </c>
-      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1147,7 +1109,6 @@
       <c r="E35" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1167,7 +1128,6 @@
       <c r="E36" t="n">
         <v>350</v>
       </c>
-      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1187,7 +1147,6 @@
       <c r="E37" t="n">
         <v>750</v>
       </c>
-      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1207,7 +1166,6 @@
       <c r="E38" t="n">
         <v>150</v>
       </c>
-      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1227,7 +1185,6 @@
       <c r="E39" t="n">
         <v>75</v>
       </c>
-      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1247,7 +1204,6 @@
       <c r="E40" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1267,7 +1223,6 @@
       <c r="E41" t="n">
         <v>210</v>
       </c>
-      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1287,7 +1242,6 @@
       <c r="E42" t="n">
         <v>375</v>
       </c>
-      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1307,7 +1261,6 @@
       <c r="E43" t="n">
         <v>500</v>
       </c>
-      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1327,7 +1280,6 @@
       <c r="E44" t="n">
         <v>45</v>
       </c>
-      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1347,7 +1299,6 @@
       <c r="E45" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1367,7 +1318,6 @@
       <c r="E46" t="n">
         <v>700</v>
       </c>
-      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1387,7 +1337,6 @@
       <c r="E47" t="n">
         <v>225</v>
       </c>
-      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1407,7 +1356,6 @@
       <c r="E48" t="n">
         <v>250</v>
       </c>
-      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1427,7 +1375,6 @@
       <c r="E49" t="n">
         <v>150</v>
       </c>
-      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1447,7 +1394,6 @@
       <c r="E50" t="n">
         <v>15</v>
       </c>
-      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1467,7 +1413,6 @@
       <c r="E51" t="n">
         <v>100</v>
       </c>
-      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1487,7 +1432,6 @@
       <c r="E52" t="n">
         <v>300</v>
       </c>
-      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1507,7 +1451,6 @@
       <c r="E53" t="n">
         <v>135</v>
       </c>
-      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1527,7 +1470,6 @@
       <c r="E54" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1547,7 +1489,6 @@
       <c r="E55" t="n">
         <v>50</v>
       </c>
-      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1567,7 +1508,6 @@
       <c r="E56" t="n">
         <v>60</v>
       </c>
-      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1587,7 +1527,6 @@
       <c r="E57" t="n">
         <v>150</v>
       </c>
-      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1607,7 +1546,6 @@
       <c r="E58" t="n">
         <v>450</v>
       </c>
-      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1627,7 +1565,6 @@
       <c r="E59" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1647,7 +1584,6 @@
       <c r="E60" t="n">
         <v>25</v>
       </c>
-      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1667,7 +1603,6 @@
       <c r="E61" t="n">
         <v>200</v>
       </c>
-      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1687,7 +1622,6 @@
       <c r="E62" t="n">
         <v>90</v>
       </c>
-      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -1707,7 +1641,6 @@
       <c r="E63" t="n">
         <v>225</v>
       </c>
-      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -1727,7 +1660,6 @@
       <c r="E64" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -1747,7 +1679,6 @@
       <c r="E65" t="n">
         <v>15</v>
       </c>
-      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -1767,7 +1698,6 @@
       <c r="E66" t="n">
         <v>100</v>
       </c>
-      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -1787,7 +1717,6 @@
       <c r="E67" t="n">
         <v>300</v>
       </c>
-      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -1807,7 +1736,6 @@
       <c r="E68" t="n">
         <v>135</v>
       </c>
-      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -1827,7 +1755,6 @@
       <c r="E69" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -1847,7 +1774,6 @@
       <c r="E70" t="n">
         <v>50</v>
       </c>
-      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -1867,7 +1793,6 @@
       <c r="E71" t="n">
         <v>60</v>
       </c>
-      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -1887,7 +1812,6 @@
       <c r="E72" t="n">
         <v>150</v>
       </c>
-      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -1907,7 +1831,6 @@
       <c r="E73" t="n">
         <v>450</v>
       </c>
-      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -1927,7 +1850,6 @@
       <c r="E74" t="n">
         <v>15</v>
       </c>
-      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -1947,7 +1869,6 @@
       <c r="E75" t="n">
         <v>100</v>
       </c>
-      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -1967,7 +1888,6 @@
       <c r="E76" t="n">
         <v>300</v>
       </c>
-      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -1987,7 +1907,6 @@
       <c r="E77" t="n">
         <v>135</v>
       </c>
-      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2007,7 +1926,6 @@
       <c r="E78" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -2027,7 +1945,6 @@
       <c r="E79" t="n">
         <v>50</v>
       </c>
-      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -2047,7 +1964,6 @@
       <c r="E80" t="n">
         <v>60</v>
       </c>
-      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -2067,7 +1983,6 @@
       <c r="E81" t="n">
         <v>150</v>
       </c>
-      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -2087,7 +2002,6 @@
       <c r="E82" t="n">
         <v>450</v>
       </c>
-      <c r="F82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -2107,7 +2021,6 @@
       <c r="E83" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -2127,7 +2040,6 @@
       <c r="E84" t="n">
         <v>25</v>
       </c>
-      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -2147,7 +2059,6 @@
       <c r="E85" t="n">
         <v>200</v>
       </c>
-      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -2167,7 +2078,6 @@
       <c r="E86" t="n">
         <v>90</v>
       </c>
-      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -2187,7 +2097,6 @@
       <c r="E87" t="n">
         <v>225</v>
       </c>
-      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -2207,7 +2116,6 @@
       <c r="E88" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -2227,7 +2135,6 @@
       <c r="E89" t="n">
         <v>15</v>
       </c>
-      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -2247,7 +2154,6 @@
       <c r="E90" t="n">
         <v>100</v>
       </c>
-      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -2267,7 +2173,6 @@
       <c r="E91" t="n">
         <v>300</v>
       </c>
-      <c r="F91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -2287,7 +2192,6 @@
       <c r="E92" t="n">
         <v>135</v>
       </c>
-      <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -2307,7 +2211,6 @@
       <c r="E93" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -2327,7 +2230,6 @@
       <c r="E94" t="n">
         <v>50</v>
       </c>
-      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -2347,7 +2249,6 @@
       <c r="E95" t="n">
         <v>60</v>
       </c>
-      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -2367,7 +2268,6 @@
       <c r="E96" t="n">
         <v>150</v>
       </c>
-      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -2387,7 +2287,6 @@
       <c r="E97" t="n">
         <v>450</v>
       </c>
-      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -2407,7 +2306,6 @@
       <c r="E98" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -2427,7 +2325,6 @@
       <c r="E99" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -2447,7 +2344,6 @@
       <c r="E100" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -2467,7 +2363,6 @@
       <c r="E101" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -2487,7 +2382,6 @@
       <c r="E102" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -2507,7 +2401,6 @@
       <c r="E103" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -2527,7 +2420,6 @@
       <c r="E104" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -2547,7 +2439,6 @@
       <c r="E105" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -2567,7 +2458,6 @@
       <c r="E106" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -2587,7 +2477,6 @@
       <c r="E107" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -2607,7 +2496,6 @@
       <c r="E108" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -2627,7 +2515,6 @@
       <c r="E109" t="n">
         <v>441</v>
       </c>
-      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -2647,7 +2534,6 @@
       <c r="E110" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -2667,7 +2553,6 @@
       <c r="E111" t="n">
         <v>15</v>
       </c>
-      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -2687,7 +2572,6 @@
       <c r="E112" t="n">
         <v>100</v>
       </c>
-      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -2707,7 +2591,6 @@
       <c r="E113" t="n">
         <v>300</v>
       </c>
-      <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -2727,7 +2610,6 @@
       <c r="E114" t="n">
         <v>135</v>
       </c>
-      <c r="F114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -2747,7 +2629,6 @@
       <c r="E115" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -2767,7 +2648,6 @@
       <c r="E116" t="n">
         <v>50</v>
       </c>
-      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -2787,7 +2667,6 @@
       <c r="E117" t="n">
         <v>60</v>
       </c>
-      <c r="F117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -2807,7 +2686,6 @@
       <c r="E118" t="n">
         <v>150</v>
       </c>
-      <c r="F118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -2827,7 +2705,6 @@
       <c r="E119" t="n">
         <v>450</v>
       </c>
-      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -2847,7 +2724,6 @@
       <c r="E120" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -2867,7 +2743,6 @@
       <c r="E121" t="n">
         <v>25</v>
       </c>
-      <c r="F121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -2887,7 +2762,6 @@
       <c r="E122" t="n">
         <v>200</v>
       </c>
-      <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -2907,7 +2781,6 @@
       <c r="E123" t="n">
         <v>90</v>
       </c>
-      <c r="F123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -2927,7 +2800,6 @@
       <c r="E124" t="n">
         <v>225</v>
       </c>
-      <c r="F124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -2947,7 +2819,6 @@
       <c r="E125" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -2967,7 +2838,6 @@
       <c r="E126" t="n">
         <v>15</v>
       </c>
-      <c r="F126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -2987,7 +2857,6 @@
       <c r="E127" t="n">
         <v>100</v>
       </c>
-      <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -3007,7 +2876,6 @@
       <c r="E128" t="n">
         <v>300</v>
       </c>
-      <c r="F128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -3027,7 +2895,6 @@
       <c r="E129" t="n">
         <v>135</v>
       </c>
-      <c r="F129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -3047,7 +2914,6 @@
       <c r="E130" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -3067,7 +2933,6 @@
       <c r="E131" t="n">
         <v>50</v>
       </c>
-      <c r="F131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -3087,7 +2952,6 @@
       <c r="E132" t="n">
         <v>60</v>
       </c>
-      <c r="F132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -3107,7 +2971,6 @@
       <c r="E133" t="n">
         <v>150</v>
       </c>
-      <c r="F133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -3127,7 +2990,6 @@
       <c r="E134" t="n">
         <v>450</v>
       </c>
-      <c r="F134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -3147,7 +3009,6 @@
       <c r="E135" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -3167,7 +3028,6 @@
       <c r="E136" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -3187,7 +3047,6 @@
       <c r="E137" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -3207,7 +3066,6 @@
       <c r="E138" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -3227,7 +3085,6 @@
       <c r="E139" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -3247,7 +3104,6 @@
       <c r="E140" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -3267,7 +3123,6 @@
       <c r="E141" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -3287,7 +3142,6 @@
       <c r="E142" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -3307,7 +3161,6 @@
       <c r="E143" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -3327,7 +3180,6 @@
       <c r="E144" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -3347,7 +3199,6 @@
       <c r="E145" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -3367,7 +3218,6 @@
       <c r="E146" t="n">
         <v>441</v>
       </c>
-      <c r="F146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -3387,7 +3237,6 @@
       <c r="E147" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -3407,7 +3256,6 @@
       <c r="E148" t="n">
         <v>15</v>
       </c>
-      <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -3427,7 +3275,6 @@
       <c r="E149" t="n">
         <v>100</v>
       </c>
-      <c r="F149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -3447,7 +3294,6 @@
       <c r="E150" t="n">
         <v>300</v>
       </c>
-      <c r="F150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -3467,7 +3313,6 @@
       <c r="E151" t="n">
         <v>135</v>
       </c>
-      <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -3487,7 +3332,6 @@
       <c r="E152" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -3507,7 +3351,6 @@
       <c r="E153" t="n">
         <v>50</v>
       </c>
-      <c r="F153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -3527,7 +3370,6 @@
       <c r="E154" t="n">
         <v>60</v>
       </c>
-      <c r="F154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -3547,7 +3389,6 @@
       <c r="E155" t="n">
         <v>150</v>
       </c>
-      <c r="F155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -3567,7 +3408,6 @@
       <c r="E156" t="n">
         <v>450</v>
       </c>
-      <c r="F156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -3587,7 +3427,6 @@
       <c r="E157" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -3607,7 +3446,6 @@
       <c r="E158" t="n">
         <v>25</v>
       </c>
-      <c r="F158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -3627,7 +3465,6 @@
       <c r="E159" t="n">
         <v>200</v>
       </c>
-      <c r="F159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -3647,7 +3484,6 @@
       <c r="E160" t="n">
         <v>90</v>
       </c>
-      <c r="F160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -3667,7 +3503,6 @@
       <c r="E161" t="n">
         <v>225</v>
       </c>
-      <c r="F161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -3687,7 +3522,6 @@
       <c r="E162" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -3707,7 +3541,6 @@
       <c r="E163" t="n">
         <v>15</v>
       </c>
-      <c r="F163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -3727,7 +3560,6 @@
       <c r="E164" t="n">
         <v>100</v>
       </c>
-      <c r="F164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -3747,7 +3579,6 @@
       <c r="E165" t="n">
         <v>300</v>
       </c>
-      <c r="F165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -3767,7 +3598,6 @@
       <c r="E166" t="n">
         <v>135</v>
       </c>
-      <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -3787,7 +3617,6 @@
       <c r="E167" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -3807,7 +3636,6 @@
       <c r="E168" t="n">
         <v>50</v>
       </c>
-      <c r="F168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -3827,7 +3655,6 @@
       <c r="E169" t="n">
         <v>60</v>
       </c>
-      <c r="F169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -3847,7 +3674,6 @@
       <c r="E170" t="n">
         <v>150</v>
       </c>
-      <c r="F170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -3867,7 +3693,6 @@
       <c r="E171" t="n">
         <v>450</v>
       </c>
-      <c r="F171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -3887,7 +3712,6 @@
       <c r="E172" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -3907,7 +3731,6 @@
       <c r="E173" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -3927,7 +3750,6 @@
       <c r="E174" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -3947,7 +3769,6 @@
       <c r="E175" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -3967,7 +3788,6 @@
       <c r="E176" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -3987,7 +3807,6 @@
       <c r="E177" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -4007,7 +3826,6 @@
       <c r="E178" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -4027,7 +3845,6 @@
       <c r="E179" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -4047,7 +3864,6 @@
       <c r="E180" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -4067,7 +3883,6 @@
       <c r="E181" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -4087,7 +3902,6 @@
       <c r="E182" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -4107,7 +3921,6 @@
       <c r="E183" t="n">
         <v>441</v>
       </c>
-      <c r="F183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -4127,7 +3940,6 @@
       <c r="E184" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -4147,7 +3959,6 @@
       <c r="E185" t="n">
         <v>15</v>
       </c>
-      <c r="F185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -4167,7 +3978,6 @@
       <c r="E186" t="n">
         <v>100</v>
       </c>
-      <c r="F186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -4187,7 +3997,6 @@
       <c r="E187" t="n">
         <v>300</v>
       </c>
-      <c r="F187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -4207,7 +4016,6 @@
       <c r="E188" t="n">
         <v>135</v>
       </c>
-      <c r="F188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -4227,7 +4035,6 @@
       <c r="E189" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -4247,7 +4054,6 @@
       <c r="E190" t="n">
         <v>50</v>
       </c>
-      <c r="F190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -4267,7 +4073,6 @@
       <c r="E191" t="n">
         <v>60</v>
       </c>
-      <c r="F191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -4287,7 +4092,6 @@
       <c r="E192" t="n">
         <v>150</v>
       </c>
-      <c r="F192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -4307,7 +4111,6 @@
       <c r="E193" t="n">
         <v>450</v>
       </c>
-      <c r="F193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -4327,7 +4130,6 @@
       <c r="E194" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -4347,7 +4149,6 @@
       <c r="E195" t="n">
         <v>25</v>
       </c>
-      <c r="F195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -4367,7 +4168,6 @@
       <c r="E196" t="n">
         <v>200</v>
       </c>
-      <c r="F196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -4387,7 +4187,6 @@
       <c r="E197" t="n">
         <v>90</v>
       </c>
-      <c r="F197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -4407,7 +4206,6 @@
       <c r="E198" t="n">
         <v>225</v>
       </c>
-      <c r="F198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -4427,7 +4225,6 @@
       <c r="E199" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -4447,7 +4244,6 @@
       <c r="E200" t="n">
         <v>15</v>
       </c>
-      <c r="F200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -4467,7 +4263,6 @@
       <c r="E201" t="n">
         <v>100</v>
       </c>
-      <c r="F201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -4487,7 +4282,6 @@
       <c r="E202" t="n">
         <v>300</v>
       </c>
-      <c r="F202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -4507,7 +4301,6 @@
       <c r="E203" t="n">
         <v>135</v>
       </c>
-      <c r="F203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -4527,7 +4320,6 @@
       <c r="E204" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -4547,7 +4339,6 @@
       <c r="E205" t="n">
         <v>50</v>
       </c>
-      <c r="F205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -4567,7 +4358,6 @@
       <c r="E206" t="n">
         <v>60</v>
       </c>
-      <c r="F206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -4587,7 +4377,6 @@
       <c r="E207" t="n">
         <v>150</v>
       </c>
-      <c r="F207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -4607,7 +4396,6 @@
       <c r="E208" t="n">
         <v>450</v>
       </c>
-      <c r="F208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -4627,7 +4415,6 @@
       <c r="E209" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -4647,7 +4434,6 @@
       <c r="E210" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -4667,7 +4453,6 @@
       <c r="E211" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -4687,7 +4472,6 @@
       <c r="E212" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -4707,7 +4491,6 @@
       <c r="E213" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -4727,7 +4510,6 @@
       <c r="E214" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -4747,7 +4529,6 @@
       <c r="E215" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -4767,7 +4548,6 @@
       <c r="E216" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -4787,7 +4567,6 @@
       <c r="E217" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -4807,7 +4586,6 @@
       <c r="E218" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -4827,7 +4605,6 @@
       <c r="E219" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -4847,7 +4624,6 @@
       <c r="E220" t="n">
         <v>441</v>
       </c>
-      <c r="F220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -4867,7 +4643,6 @@
       <c r="E221" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -4887,7 +4662,6 @@
       <c r="E222" t="n">
         <v>15</v>
       </c>
-      <c r="F222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -4907,7 +4681,6 @@
       <c r="E223" t="n">
         <v>100</v>
       </c>
-      <c r="F223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -4927,7 +4700,6 @@
       <c r="E224" t="n">
         <v>300</v>
       </c>
-      <c r="F224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -4947,7 +4719,6 @@
       <c r="E225" t="n">
         <v>135</v>
       </c>
-      <c r="F225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -4967,7 +4738,6 @@
       <c r="E226" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -4987,7 +4757,6 @@
       <c r="E227" t="n">
         <v>50</v>
       </c>
-      <c r="F227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -5007,7 +4776,6 @@
       <c r="E228" t="n">
         <v>60</v>
       </c>
-      <c r="F228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -5027,7 +4795,6 @@
       <c r="E229" t="n">
         <v>150</v>
       </c>
-      <c r="F229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -5047,7 +4814,6 @@
       <c r="E230" t="n">
         <v>450</v>
       </c>
-      <c r="F230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -5067,7 +4833,6 @@
       <c r="E231" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -5087,7 +4852,6 @@
       <c r="E232" t="n">
         <v>25</v>
       </c>
-      <c r="F232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -5107,7 +4871,6 @@
       <c r="E233" t="n">
         <v>200</v>
       </c>
-      <c r="F233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -5127,7 +4890,6 @@
       <c r="E234" t="n">
         <v>90</v>
       </c>
-      <c r="F234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -5147,7 +4909,6 @@
       <c r="E235" t="n">
         <v>225</v>
       </c>
-      <c r="F235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -5167,7 +4928,6 @@
       <c r="E236" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -5187,7 +4947,6 @@
       <c r="E237" t="n">
         <v>15</v>
       </c>
-      <c r="F237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -5207,7 +4966,6 @@
       <c r="E238" t="n">
         <v>100</v>
       </c>
-      <c r="F238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -5227,7 +4985,6 @@
       <c r="E239" t="n">
         <v>300</v>
       </c>
-      <c r="F239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -5247,7 +5004,6 @@
       <c r="E240" t="n">
         <v>135</v>
       </c>
-      <c r="F240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -5267,7 +5023,6 @@
       <c r="E241" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -5287,7 +5042,6 @@
       <c r="E242" t="n">
         <v>50</v>
       </c>
-      <c r="F242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -5307,7 +5061,6 @@
       <c r="E243" t="n">
         <v>60</v>
       </c>
-      <c r="F243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -5327,7 +5080,6 @@
       <c r="E244" t="n">
         <v>150</v>
       </c>
-      <c r="F244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -5347,7 +5099,6 @@
       <c r="E245" t="n">
         <v>450</v>
       </c>
-      <c r="F245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -5367,7 +5118,6 @@
       <c r="E246" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -5387,7 +5137,6 @@
       <c r="E247" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -5407,7 +5156,6 @@
       <c r="E248" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -5427,7 +5175,6 @@
       <c r="E249" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -5447,7 +5194,6 @@
       <c r="E250" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -5467,7 +5213,6 @@
       <c r="E251" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -5487,7 +5232,6 @@
       <c r="E252" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -5507,7 +5251,6 @@
       <c r="E253" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -5527,7 +5270,6 @@
       <c r="E254" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -5547,7 +5289,6 @@
       <c r="E255" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -5567,7 +5308,6 @@
       <c r="E256" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -5587,7 +5327,6 @@
       <c r="E257" t="n">
         <v>441</v>
       </c>
-      <c r="F257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -5607,7 +5346,6 @@
       <c r="E258" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -5627,7 +5365,6 @@
       <c r="E259" t="n">
         <v>15</v>
       </c>
-      <c r="F259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -5647,7 +5384,6 @@
       <c r="E260" t="n">
         <v>100</v>
       </c>
-      <c r="F260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -5667,7 +5403,6 @@
       <c r="E261" t="n">
         <v>300</v>
       </c>
-      <c r="F261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -5687,7 +5422,6 @@
       <c r="E262" t="n">
         <v>135</v>
       </c>
-      <c r="F262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -5707,7 +5441,6 @@
       <c r="E263" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -5727,7 +5460,6 @@
       <c r="E264" t="n">
         <v>50</v>
       </c>
-      <c r="F264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -5747,7 +5479,6 @@
       <c r="E265" t="n">
         <v>60</v>
       </c>
-      <c r="F265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -5767,7 +5498,6 @@
       <c r="E266" t="n">
         <v>150</v>
       </c>
-      <c r="F266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -5787,7 +5517,6 @@
       <c r="E267" t="n">
         <v>450</v>
       </c>
-      <c r="F267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -5807,7 +5536,6 @@
       <c r="E268" t="n">
         <v>14.99999999999994</v>
       </c>
-      <c r="F268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -5827,7 +5555,6 @@
       <c r="E269" t="n">
         <v>25</v>
       </c>
-      <c r="F269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -5847,7 +5574,6 @@
       <c r="E270" t="n">
         <v>200</v>
       </c>
-      <c r="F270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -5867,7 +5593,6 @@
       <c r="E271" t="n">
         <v>90</v>
       </c>
-      <c r="F271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -5887,7 +5612,6 @@
       <c r="E272" t="n">
         <v>225</v>
       </c>
-      <c r="F272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -5907,7 +5631,6 @@
       <c r="E273" t="n">
         <v>49.9999999999998</v>
       </c>
-      <c r="F273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -5927,7 +5650,6 @@
       <c r="E274" t="n">
         <v>15</v>
       </c>
-      <c r="F274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -5947,7 +5669,6 @@
       <c r="E275" t="n">
         <v>100</v>
       </c>
-      <c r="F275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -5967,7 +5688,6 @@
       <c r="E276" t="n">
         <v>300</v>
       </c>
-      <c r="F276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -5987,7 +5707,6 @@
       <c r="E277" t="n">
         <v>135</v>
       </c>
-      <c r="F277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -6007,7 +5726,6 @@
       <c r="E278" t="n">
         <v>24.9999999999999</v>
       </c>
-      <c r="F278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -6027,7 +5745,6 @@
       <c r="E279" t="n">
         <v>50</v>
       </c>
-      <c r="F279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -6047,7 +5764,6 @@
       <c r="E280" t="n">
         <v>60</v>
       </c>
-      <c r="F280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -6067,7 +5783,6 @@
       <c r="E281" t="n">
         <v>150</v>
       </c>
-      <c r="F281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -6087,7 +5802,6 @@
       <c r="E282" t="n">
         <v>450</v>
       </c>
-      <c r="F282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -6107,7 +5821,6 @@
       <c r="E283" t="n">
         <v>231.0000000000003</v>
       </c>
-      <c r="F283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -6127,7 +5840,6 @@
       <c r="E284" t="n">
         <v>249.1652892561985</v>
       </c>
-      <c r="F284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -6147,7 +5859,6 @@
       <c r="E285" t="n">
         <v>267.5157024793392</v>
       </c>
-      <c r="F285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -6167,7 +5878,6 @@
       <c r="E286" t="n">
         <v>286.0512396694211</v>
       </c>
-      <c r="F286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -6187,7 +5897,6 @@
       <c r="E287" t="n">
         <v>304.7719008264461</v>
       </c>
-      <c r="F287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -6207,7 +5916,6 @@
       <c r="E288" t="n">
         <v>323.6776859504133</v>
       </c>
-      <c r="F288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -6227,7 +5935,6 @@
       <c r="E289" t="n">
         <v>342.768595041324</v>
       </c>
-      <c r="F289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -6247,7 +5954,6 @@
       <c r="E290" t="n">
         <v>362.0446280991751</v>
       </c>
-      <c r="F290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -6267,7 +5973,6 @@
       <c r="E291" t="n">
         <v>381.5057851239685</v>
       </c>
-      <c r="F291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -6287,7 +5992,6 @@
       <c r="E292" t="n">
         <v>401.1520661157027</v>
       </c>
-      <c r="F292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -6307,7 +6011,6 @@
       <c r="E293" t="n">
         <v>420.9834710743802</v>
       </c>
-      <c r="F293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -6327,7 +6030,6 @@
       <c r="E294" t="n">
         <v>441</v>
       </c>
-      <c r="F294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -6347,7 +6049,6 @@
       <c r="E295" t="n">
         <v>461.2016528925619</v>
       </c>
-      <c r="F295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -6367,7 +6068,6 @@
       <c r="E296" t="n">
         <v>300</v>
       </c>
-      <c r="F296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -6387,7 +6087,6 @@
       <c r="E297" t="n">
         <v>200</v>
       </c>
-      <c r="F297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -6407,7 +6106,6 @@
       <c r="E298" t="n">
         <v>120</v>
       </c>
-      <c r="F298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -6427,7 +6125,6 @@
       <c r="E299" t="n">
         <v>180</v>
       </c>
-      <c r="F299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -6447,7 +6144,6 @@
       <c r="E300" t="n">
         <v>100</v>
       </c>
-      <c r="F300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -6467,7 +6163,6 @@
       <c r="E301" t="n">
         <v>240</v>
       </c>
-      <c r="F301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -6487,7 +6182,6 @@
       <c r="E302" t="n">
         <v>180</v>
       </c>
-      <c r="F302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -6507,7 +6201,6 @@
       <c r="E303" t="n">
         <v>300</v>
       </c>
-      <c r="F303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -6527,7 +6220,6 @@
       <c r="E304" t="n">
         <v>315</v>
       </c>
-      <c r="F304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -6547,7 +6239,6 @@
       <c r="E305" t="n">
         <v>200</v>
       </c>
-      <c r="F305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -6567,7 +6258,6 @@
       <c r="E306" t="n">
         <v>200</v>
       </c>
-      <c r="F306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -6587,7 +6277,6 @@
       <c r="E307" t="n">
         <v>162</v>
       </c>
-      <c r="F307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -6607,7 +6296,6 @@
       <c r="E308" t="n">
         <v>150</v>
       </c>
-      <c r="F308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -6627,7 +6315,6 @@
       <c r="E309" t="n">
         <v>200</v>
       </c>
-      <c r="F309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -6647,13 +6334,16 @@
       <c r="E310" t="n">
         <v>200</v>
       </c>
-      <c r="F310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
         <v>45306</v>
       </c>
-      <c r="B311" t="inlineStr"/>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Blusa</t>
+        </is>
+      </c>
       <c r="C311" t="n">
         <v>35</v>
       </c>
@@ -6662,18 +6352,17 @@
       </c>
       <c r="E311" t="n">
         <v>280</v>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>Blusa</t>
-        </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
         <v>45410</v>
       </c>
-      <c r="B312" t="inlineStr"/>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Pantalones cortos</t>
+        </is>
+      </c>
       <c r="C312" t="n">
         <v>20</v>
       </c>
@@ -6682,18 +6371,17 @@
       </c>
       <c r="E312" t="n">
         <v>300</v>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>Pantalones cortos</t>
-        </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
         <v>45060</v>
       </c>
-      <c r="B313" t="inlineStr"/>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Sombrero de paja</t>
+        </is>
+      </c>
       <c r="C313" t="n">
         <v>15</v>
       </c>
@@ -6702,18 +6390,17 @@
       </c>
       <c r="E313" t="n">
         <v>150</v>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>Sombrero de paja</t>
-        </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
         <v>45041</v>
       </c>
-      <c r="B314" t="inlineStr"/>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Chaqueta de cuero</t>
+        </is>
+      </c>
       <c r="C314" t="n">
         <v>120</v>
       </c>
@@ -6722,18 +6409,17 @@
       </c>
       <c r="E314" t="n">
         <v>360</v>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>Chaqueta de cuero</t>
-        </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
         <v>45124</v>
       </c>
-      <c r="B315" t="inlineStr"/>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Mochila</t>
+        </is>
+      </c>
       <c r="C315" t="n">
         <v>40</v>
       </c>
@@ -6742,18 +6428,17 @@
       </c>
       <c r="E315" t="n">
         <v>240</v>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>Mochila</t>
-        </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="B316" t="inlineStr"/>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Bufanda de lana</t>
+        </is>
+      </c>
       <c r="C316" t="n">
         <v>18</v>
       </c>
@@ -6762,18 +6447,17 @@
       </c>
       <c r="E316" t="n">
         <v>216</v>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>Bufanda de lana</t>
-        </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
         <v>45410</v>
       </c>
-      <c r="B317" t="inlineStr"/>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Zapatos deportivos</t>
+        </is>
+      </c>
       <c r="C317" t="n">
         <v>70</v>
       </c>
@@ -6782,18 +6466,17 @@
       </c>
       <c r="E317" t="n">
         <v>350</v>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>Zapatos deportivos</t>
-        </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
         <v>44983</v>
       </c>
-      <c r="B318" t="inlineStr"/>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Camisa de vestir</t>
+        </is>
+      </c>
       <c r="C318" t="n">
         <v>45</v>
       </c>
@@ -6802,18 +6485,17 @@
       </c>
       <c r="E318" t="n">
         <v>315</v>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>Camisa de vestir</t>
-        </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
         <v>45402</v>
       </c>
-      <c r="B319" t="inlineStr"/>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Falda larga</t>
+        </is>
+      </c>
       <c r="C319" t="n">
         <v>50</v>
       </c>
@@ -6822,18 +6504,17 @@
       </c>
       <c r="E319" t="n">
         <v>200</v>
-      </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>Falda larga</t>
-        </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
         <v>45202</v>
       </c>
-      <c r="B320" t="inlineStr"/>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Calcetines de compresión</t>
+        </is>
+      </c>
       <c r="C320" t="n">
         <v>8</v>
       </c>
@@ -6842,18 +6523,17 @@
       </c>
       <c r="E320" t="n">
         <v>160</v>
-      </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>Calcetines de compresión</t>
-        </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="B321" t="inlineStr"/>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Botas de montaña</t>
+        </is>
+      </c>
       <c r="C321" t="n">
         <v>90</v>
       </c>
@@ -6862,18 +6542,17 @@
       </c>
       <c r="E321" t="n">
         <v>270</v>
-      </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>Botas de montaña</t>
-        </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
         <v>45192</v>
       </c>
-      <c r="B322" t="inlineStr"/>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Bolso de mano</t>
+        </is>
+      </c>
       <c r="C322" t="n">
         <v>30</v>
       </c>
@@ -6882,18 +6561,17 @@
       </c>
       <c r="E322" t="n">
         <v>270</v>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>Bolso de mano</t>
-        </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
         <v>45324</v>
       </c>
-      <c r="B323" t="inlineStr"/>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Gorro de lana</t>
+        </is>
+      </c>
       <c r="C323" t="n">
         <v>12</v>
       </c>
@@ -6902,18 +6580,17 @@
       </c>
       <c r="E323" t="n">
         <v>180</v>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>Gorro de lana</t>
-        </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
         <v>45394</v>
       </c>
-      <c r="B324" t="inlineStr"/>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Leggings estampados</t>
+        </is>
+      </c>
       <c r="C324" t="n">
         <v>25</v>
       </c>
@@ -6922,18 +6599,17 @@
       </c>
       <c r="E324" t="n">
         <v>200</v>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>Leggings estampados</t>
-        </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
         <v>45162</v>
       </c>
-      <c r="B325" t="inlineStr"/>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Chaleco</t>
+        </is>
+      </c>
       <c r="C325" t="n">
         <v>55</v>
       </c>
@@ -6942,18 +6618,17 @@
       </c>
       <c r="E325" t="n">
         <v>275</v>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>Chaleco</t>
-        </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B326" t="inlineStr"/>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Camiseta sin mangas</t>
+        </is>
+      </c>
       <c r="C326" t="n">
         <v>15</v>
       </c>
@@ -6962,18 +6637,17 @@
       </c>
       <c r="E326" t="n">
         <v>150</v>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>Camiseta sin mangas</t>
-        </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
         <v>45134</v>
       </c>
-      <c r="B327" t="inlineStr"/>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Traje formal</t>
+        </is>
+      </c>
       <c r="C327" t="n">
         <v>200</v>
       </c>
@@ -6982,18 +6656,17 @@
       </c>
       <c r="E327" t="n">
         <v>400</v>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>Traje formal</t>
-        </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
         <v>44939</v>
       </c>
-      <c r="B328" t="inlineStr"/>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Sandalias</t>
+        </is>
+      </c>
       <c r="C328" t="n">
         <v>25</v>
       </c>
@@ -7002,18 +6675,17 @@
       </c>
       <c r="E328" t="n">
         <v>175</v>
-      </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>Sandalias</t>
-        </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
         <v>45313</v>
       </c>
-      <c r="B329" t="inlineStr"/>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Jeans</t>
+        </is>
+      </c>
       <c r="C329" t="n">
         <v>40</v>
       </c>
@@ -7022,18 +6694,17 @@
       </c>
       <c r="E329" t="n">
         <v>240</v>
-      </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>Jeans</t>
-        </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="B330" t="inlineStr"/>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Top deportivo</t>
+        </is>
+      </c>
       <c r="C330" t="n">
         <v>30</v>
       </c>
@@ -7042,18 +6713,17 @@
       </c>
       <c r="E330" t="n">
         <v>240</v>
-      </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>Top deportivo</t>
-        </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="B331" t="inlineStr"/>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Abrigo de invierno</t>
+        </is>
+      </c>
       <c r="C331" t="n">
         <v>150</v>
       </c>
@@ -7062,18 +6732,17 @@
       </c>
       <c r="E331" t="n">
         <v>450</v>
-      </c>
-      <c r="F331" t="inlineStr">
-        <is>
-          <t>Abrigo de invierno</t>
-        </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
         <v>45147</v>
       </c>
-      <c r="B332" t="inlineStr"/>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Mallas</t>
+        </is>
+      </c>
       <c r="C332" t="n">
         <v>20</v>
       </c>
@@ -7082,18 +6751,17 @@
       </c>
       <c r="E332" t="n">
         <v>240</v>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>Mallas</t>
-        </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
         <v>45142</v>
       </c>
-      <c r="B333" t="inlineStr"/>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Blazer</t>
+        </is>
+      </c>
       <c r="C333" t="n">
         <v>60</v>
       </c>
@@ -7102,18 +6770,17 @@
       </c>
       <c r="E333" t="n">
         <v>240</v>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>Blazer</t>
-        </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
         <v>45321</v>
       </c>
-      <c r="B334" t="inlineStr"/>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Camiseta de tirantes</t>
+        </is>
+      </c>
       <c r="C334" t="n">
         <v>10</v>
       </c>
@@ -7122,18 +6789,17 @@
       </c>
       <c r="E334" t="n">
         <v>150</v>
-      </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>Camiseta de tirantes</t>
-        </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
         <v>45414</v>
       </c>
-      <c r="B335" t="inlineStr"/>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Vestido formal</t>
+        </is>
+      </c>
       <c r="C335" t="n">
         <v>80</v>
       </c>
@@ -7142,18 +6808,17 @@
       </c>
       <c r="E335" t="n">
         <v>400</v>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>Vestido formal</t>
-        </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
         <v>44969</v>
       </c>
-      <c r="B336" t="inlineStr"/>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Bufanda de seda</t>
+        </is>
+      </c>
       <c r="C336" t="n">
         <v>25</v>
       </c>
@@ -7162,18 +6827,17 @@
       </c>
       <c r="E336" t="n">
         <v>150</v>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>Bufanda de seda</t>
-        </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
         <v>45048</v>
       </c>
-      <c r="B337" t="inlineStr"/>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Pantalones de yoga</t>
+        </is>
+      </c>
       <c r="C337" t="n">
         <v>35</v>
       </c>
@@ -7182,18 +6846,17 @@
       </c>
       <c r="E337" t="n">
         <v>315</v>
-      </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>Pantalones de yoga</t>
-        </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
         <v>44978</v>
       </c>
-      <c r="B338" t="inlineStr"/>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Gorra de béisbol</t>
+        </is>
+      </c>
       <c r="C338" t="n">
         <v>20</v>
       </c>
@@ -7202,18 +6865,17 @@
       </c>
       <c r="E338" t="n">
         <v>200</v>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>Gorra de béisbol</t>
-        </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
         <v>45286</v>
       </c>
-      <c r="B339" t="inlineStr"/>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Zapatos de tacón</t>
+        </is>
+      </c>
       <c r="C339" t="n">
         <v>85</v>
       </c>
@@ -7222,18 +6884,17 @@
       </c>
       <c r="E339" t="n">
         <v>340</v>
-      </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>Zapatos de tacón</t>
-        </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="B340" t="inlineStr"/>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
       <c r="C340" t="n">
         <v>25</v>
       </c>
@@ -7242,11 +6903,6 @@
       </c>
       <c r="E340" t="n">
         <v>200</v>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>Polo</t>
-        </is>
       </c>
     </row>
     <row r="341">
@@ -7267,7 +6923,6 @@
       <c r="E341" t="n">
         <v>120</v>
       </c>
-      <c r="F341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -7287,7 +6942,6 @@
       <c r="E342" t="n">
         <v>180</v>
       </c>
-      <c r="F342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -7307,7 +6961,6 @@
       <c r="E343" t="n">
         <v>200</v>
       </c>
-      <c r="F343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -7327,7 +6980,6 @@
       <c r="E344" t="n">
         <v>320</v>
       </c>
-      <c r="F344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -7347,7 +6999,6 @@
       <c r="E345" t="n">
         <v>300</v>
       </c>
-      <c r="F345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -7367,7 +7018,6 @@
       <c r="E346" t="n">
         <v>315</v>
       </c>
-      <c r="F346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -7387,7 +7037,6 @@
       <c r="E347" t="n">
         <v>315</v>
       </c>
-      <c r="F347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -7407,7 +7056,6 @@
       <c r="E348" t="n">
         <v>216</v>
       </c>
-      <c r="F348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -7427,7 +7075,6 @@
       <c r="E349" t="n">
         <v>200</v>
       </c>
-      <c r="F349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -7447,7 +7094,6 @@
       <c r="E350" t="n">
         <v>240</v>
       </c>
-      <c r="F350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -7467,7 +7113,6 @@
       <c r="E351" t="n">
         <v>280</v>
       </c>
-      <c r="F351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -7487,7 +7132,6 @@
       <c r="E352" t="n">
         <v>200</v>
       </c>
-      <c r="F352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -7507,7 +7151,6 @@
       <c r="E353" t="n">
         <v>270</v>
       </c>
-      <c r="F353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -7527,7 +7170,6 @@
       <c r="E354" t="n">
         <v>275</v>
       </c>
-      <c r="F354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -7547,7 +7189,6 @@
       <c r="E355" t="n">
         <v>300</v>
       </c>
-      <c r="F355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -7567,7 +7208,6 @@
       <c r="E356" t="n">
         <v>180</v>
       </c>
-      <c r="F356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -7587,7 +7227,6 @@
       <c r="E357" t="n">
         <v>240</v>
       </c>
-      <c r="F357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -7607,7 +7246,6 @@
       <c r="E358" t="n">
         <v>175</v>
       </c>
-      <c r="F358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -7627,7 +7265,6 @@
       <c r="E359" t="n">
         <v>240</v>
       </c>
-      <c r="F359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -7647,7 +7284,6 @@
       <c r="E360" t="n">
         <v>540</v>
       </c>
-      <c r="F360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -7667,7 +7303,6 @@
       <c r="E361" t="n">
         <v>210</v>
       </c>
-      <c r="F361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -7687,7 +7322,6 @@
       <c r="E362" t="n">
         <v>250</v>
       </c>
-      <c r="F362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -7707,7 +7341,6 @@
       <c r="E363" t="n">
         <v>180</v>
       </c>
-      <c r="F363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -7727,7 +7360,6 @@
       <c r="E364" t="n">
         <v>200</v>
       </c>
-      <c r="F364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -7747,7 +7379,6 @@
       <c r="E365" t="n">
         <v>260</v>
       </c>
-      <c r="F365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -7767,7 +7398,6 @@
       <c r="E366" t="n">
         <v>385</v>
       </c>
-      <c r="F366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -7787,7 +7417,6 @@
       <c r="E367" t="n">
         <v>420</v>
       </c>
-      <c r="F367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -7807,7 +7436,6 @@
       <c r="E368" t="n">
         <v>360</v>
       </c>
-      <c r="F368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -7827,7 +7455,6 @@
       <c r="E369" t="n">
         <v>270</v>
       </c>
-      <c r="F369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -7847,7 +7474,6 @@
       <c r="E370" t="n">
         <v>250</v>
       </c>
-      <c r="F370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E370"/>
+  <dimension ref="A1:E400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7475,6 +7475,576 @@
         <v>250</v>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Bufanda de algodón</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>12</v>
+      </c>
+      <c r="D371" t="n">
+        <v>10</v>
+      </c>
+      <c r="E371" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Guantes de cuero</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>30</v>
+      </c>
+      <c r="D372" t="n">
+        <v>6</v>
+      </c>
+      <c r="E372" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45060</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Cinturón de cuero</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>25</v>
+      </c>
+      <c r="D373" t="n">
+        <v>8</v>
+      </c>
+      <c r="E373" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Chaqueta de invierno</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>80</v>
+      </c>
+      <c r="D374" t="n">
+        <v>4</v>
+      </c>
+      <c r="E374" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Botines</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>60</v>
+      </c>
+      <c r="D375" t="n">
+        <v>5</v>
+      </c>
+      <c r="E375" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Vestido casual</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>45</v>
+      </c>
+      <c r="D376" t="n">
+        <v>7</v>
+      </c>
+      <c r="E376" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Chaqueta de punto</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>35</v>
+      </c>
+      <c r="D377" t="n">
+        <v>9</v>
+      </c>
+      <c r="E377" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Pañuelo de seda</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>18</v>
+      </c>
+      <c r="D378" t="n">
+        <v>12</v>
+      </c>
+      <c r="E378" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Camisa de manga corta</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>25</v>
+      </c>
+      <c r="D379" t="n">
+        <v>8</v>
+      </c>
+      <c r="E379" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Sandalias de cuero</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>40</v>
+      </c>
+      <c r="D380" t="n">
+        <v>6</v>
+      </c>
+      <c r="E380" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Pantalones de cuero</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>70</v>
+      </c>
+      <c r="D381" t="n">
+        <v>4</v>
+      </c>
+      <c r="E381" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Sombrero de fieltro</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>20</v>
+      </c>
+      <c r="D382" t="n">
+        <v>10</v>
+      </c>
+      <c r="E382" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Botas altas</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>90</v>
+      </c>
+      <c r="D383" t="n">
+        <v>3</v>
+      </c>
+      <c r="E383" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Poncho</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>55</v>
+      </c>
+      <c r="D384" t="n">
+        <v>5</v>
+      </c>
+      <c r="E384" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Chaqueta de mezclilla</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>50</v>
+      </c>
+      <c r="D385" t="n">
+        <v>6</v>
+      </c>
+      <c r="E385" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Camiseta de manga larga</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>20</v>
+      </c>
+      <c r="D386" t="n">
+        <v>9</v>
+      </c>
+      <c r="E386" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Traje de baile</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>120</v>
+      </c>
+      <c r="D387" t="n">
+        <v>2</v>
+      </c>
+      <c r="E387" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Pashmina</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>25</v>
+      </c>
+      <c r="D388" t="n">
+        <v>7</v>
+      </c>
+      <c r="E388" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Falda plisada</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>30</v>
+      </c>
+      <c r="D389" t="n">
+        <v>8</v>
+      </c>
+      <c r="E389" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Traje sastre</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>180</v>
+      </c>
+      <c r="D390" t="n">
+        <v>3</v>
+      </c>
+      <c r="E390" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Leggings de yoga</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>35</v>
+      </c>
+      <c r="D391" t="n">
+        <v>6</v>
+      </c>
+      <c r="E391" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Pantalones cortos de mezclilla</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>25</v>
+      </c>
+      <c r="D392" t="n">
+        <v>10</v>
+      </c>
+      <c r="E392" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Camiseta básica</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>15</v>
+      </c>
+      <c r="D393" t="n">
+        <v>12</v>
+      </c>
+      <c r="E393" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Blusa sin hombros</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>40</v>
+      </c>
+      <c r="D394" t="n">
+        <v>5</v>
+      </c>
+      <c r="E394" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Chaqueta de lana</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>65</v>
+      </c>
+      <c r="D395" t="n">
+        <v>4</v>
+      </c>
+      <c r="E395" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Zapatos Oxford</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>55</v>
+      </c>
+      <c r="D396" t="n">
+        <v>7</v>
+      </c>
+      <c r="E396" t="n">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Vestido de cóctel</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>70</v>
+      </c>
+      <c r="D397" t="n">
+        <v>6</v>
+      </c>
+      <c r="E397" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Chaleco de lana</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>45</v>
+      </c>
+      <c r="D398" t="n">
+        <v>8</v>
+      </c>
+      <c r="E398" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Sombrero de ala ancha</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>30</v>
+      </c>
+      <c r="D399" t="n">
+        <v>9</v>
+      </c>
+      <c r="E399" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Sudadera con capucha</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>50</v>
+      </c>
+      <c r="D400" t="n">
+        <v>5</v>
+      </c>
+      <c r="E400" t="n">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -7477,572 +7477,572 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45306</v>
+        <v>45453</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Bufanda de algodón</t>
+          <t>Abrigo de Lana</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D371" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E371" t="n">
-        <v>120</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45410</v>
+        <v>45127</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Guantes de cuero</t>
+          <t>Vestido de Noche</t>
         </is>
       </c>
       <c r="C372" t="n">
+        <v>50</v>
+      </c>
+      <c r="D372" t="n">
         <v>30</v>
       </c>
-      <c r="D372" t="n">
-        <v>6</v>
-      </c>
       <c r="E372" t="n">
-        <v>180</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45060</v>
+        <v>45153</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Cinturón de cuero</t>
+          <t>Pantalones de Cuero Negro</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D373" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E373" t="n">
-        <v>200</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45041</v>
+        <v>45563</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Chaqueta de invierno</t>
+          <t>Bufanda de Cachemira</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D374" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E374" t="n">
-        <v>320</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45124</v>
+        <v>45209</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Botines</t>
+          <t>Sombrero de Fieltro</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D375" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E375" t="n">
-        <v>300</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45366</v>
+        <v>45235</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Vestido casual</t>
+          <t>Abrigo de Piel</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D376" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E376" t="n">
-        <v>315</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45410</v>
+        <v>45275</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Chaqueta de punto</t>
+          <t>Vestido de Gala</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D377" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E377" t="n">
-        <v>315</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>44983</v>
+        <v>45311</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Pañuelo de seda</t>
+          <t>Pantalones de Mezclilla</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D378" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E378" t="n">
-        <v>216</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45402</v>
+        <v>45350</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Camisa de manga corta</t>
+          <t>Bufanda de Alpaca</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D379" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E379" t="n">
-        <v>200</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45202</v>
+        <v>44995</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Sandalias de cuero</t>
+          <t>Sombrero de Pescador</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D380" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E380" t="n">
-        <v>240</v>
+        <v>720</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45352</v>
+        <v>45387</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Pantalones de cuero</t>
+          <t>Abrigo Impermeable</t>
         </is>
       </c>
       <c r="C381" t="n">
         <v>70</v>
       </c>
       <c r="D381" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E381" t="n">
-        <v>280</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45192</v>
+        <v>45058</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Sombrero de fieltro</t>
+          <t>Vestido de Novia</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D382" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E382" t="n">
-        <v>200</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45324</v>
+        <v>45092</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Botas altas</t>
+          <t>Pantalones de Tela</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D383" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E383" t="n">
-        <v>270</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45394</v>
+        <v>45495</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Poncho</t>
+          <t>Bufanda de Seda</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D384" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E384" t="n">
-        <v>275</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45162</v>
+        <v>45168</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Chaqueta de mezclilla</t>
+          <t>Sombrero de Copa</t>
         </is>
       </c>
       <c r="C385" t="n">
         <v>50</v>
       </c>
       <c r="D385" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E385" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>44986</v>
+        <v>45540</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Camiseta de manga larga</t>
+          <t>Abrigo de Gamuza</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D386" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E386" t="n">
-        <v>180</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45134</v>
+        <v>45217</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Traje de baile</t>
+          <t>Vestido Casual</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D387" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E387" t="n">
-        <v>240</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>44939</v>
+        <v>45250</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Pashmina</t>
+          <t>Pantalones de Cuadros</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D388" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E388" t="n">
-        <v>175</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45313</v>
+        <v>45285</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Falda plisada</t>
+          <t>Bufanda de Punto</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D389" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E389" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45184</v>
+        <v>45294</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Traje sastre</t>
+          <t>Sombrero de Vaquero</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="D390" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E390" t="n">
-        <v>540</v>
+        <v>900</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45296</v>
+        <v>44965</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Leggings de yoga</t>
+          <t>Abrigo de Plumas</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D391" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E391" t="n">
-        <v>210</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45147</v>
+        <v>45369</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Pantalones cortos de mezclilla</t>
+          <t>Vestido Estampado</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D392" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E392" t="n">
-        <v>250</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45142</v>
+        <v>45026</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Camiseta básica</t>
+          <t>Pantalones de Cuero Marrón</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D393" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E393" t="n">
-        <v>180</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45321</v>
+        <v>45428</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Blusa sin hombros</t>
+          <t>Bufanda de Lana Merino</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D394" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E394" t="n">
-        <v>200</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45414</v>
+        <v>45102</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Chaqueta de lana</t>
+          <t>Sombrero de Playa</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D395" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E395" t="n">
-        <v>260</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>44969</v>
+        <v>45503</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Zapatos Oxford</t>
+          <t>Abrigo de Tweed</t>
         </is>
       </c>
       <c r="C396" t="n">
         <v>55</v>
       </c>
       <c r="D396" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E396" t="n">
-        <v>385</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45048</v>
+        <v>45143</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Vestido de cóctel</t>
+          <t>Vestido de Encaje</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D397" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E397" t="n">
-        <v>420</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>44978</v>
+        <v>45191</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Chaleco de lana</t>
+          <t>Pantalones de Chándal</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D398" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E398" t="n">
-        <v>360</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45286</v>
+        <v>45593</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Sombrero de ala ancha</t>
+          <t>Bufanda de Mohair</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D399" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E399" t="n">
-        <v>270</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45327</v>
+        <v>45242</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Sudadera con capucha</t>
+          <t>Sombrero de Copa Alta</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D400" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E400" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E400"/>
+  <dimension ref="A1:E405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8045,6 +8045,101 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Abrigo de Cuero</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>60</v>
+      </c>
+      <c r="D401" t="n">
+        <v>50</v>
+      </c>
+      <c r="E401" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Vestido de Fiesta</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>70</v>
+      </c>
+      <c r="D402" t="n">
+        <v>40</v>
+      </c>
+      <c r="E402" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Pantalones de Cuero</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>80</v>
+      </c>
+      <c r="D403" t="n">
+        <v>35</v>
+      </c>
+      <c r="E403" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Bufanda de Piel</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>90</v>
+      </c>
+      <c r="D404" t="n">
+        <v>30</v>
+      </c>
+      <c r="E404" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Sombrero de Lana</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>55</v>
+      </c>
+      <c r="D405" t="n">
+        <v>25</v>
+      </c>
+      <c r="E405" t="n">
+        <v>1375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E405"/>
+  <dimension ref="A1:E421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,800 +922,800 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45342</v>
+        <v>45437</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Lapiz Labial</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>345</v>
       </c>
       <c r="E26" t="n">
-        <v>210</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45398</v>
+        <v>45342</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>375</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45166</v>
+        <v>45398</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E28" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45216</v>
+        <v>45166</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
-        <v>45</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45017</v>
+        <v>45216</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.999999999999996</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>24.9999999999999</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45151</v>
+        <v>45017</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>14</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D31" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E31" t="n">
-        <v>700</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45116</v>
+        <v>45151</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E32" t="n">
-        <v>225</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45281</v>
+        <v>45116</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45126</v>
+        <v>45281</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E34" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45073</v>
+        <v>45126</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.999999999999996</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E35" t="n">
-        <v>14.99999999999994</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45331</v>
+        <v>45073</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>14</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D36" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>350</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45323</v>
+        <v>45331</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E37" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45041</v>
+        <v>45323</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E38" t="n">
-        <v>150</v>
+        <v>750</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45141</v>
+        <v>45041</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45331</v>
+        <v>45141</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.999999999999996</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E40" t="n">
-        <v>49.9999999999998</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45179</v>
+        <v>45331</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E41" t="n">
-        <v>210</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45133</v>
+        <v>45179</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
-        <v>375</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45376</v>
+        <v>45133</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E43" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45280</v>
+        <v>45376</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D44" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E44" t="n">
-        <v>45</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45238</v>
+        <v>45280</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.999999999999996</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>24.9999999999999</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44937</v>
+        <v>45238</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>14</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D46" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E46" t="n">
-        <v>700</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45363</v>
+        <v>44937</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E47" t="n">
-        <v>225</v>
+        <v>700</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45315</v>
+        <v>45363</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45100</v>
+        <v>45315</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E49" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44965</v>
+        <v>45100</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45232</v>
+        <v>44965</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44946</v>
+        <v>45232</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E52" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44983</v>
+        <v>44946</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E53" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45163</v>
+        <v>44983</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>24.9999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45399</v>
+        <v>45163</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D55" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E55" t="n">
-        <v>50</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45385</v>
+        <v>45399</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E56" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44971</v>
+        <v>45385</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45291</v>
+        <v>44971</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E58" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45027</v>
+        <v>45291</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E59" t="n">
-        <v>14.99999999999994</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44993</v>
+        <v>45027</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D60" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>25</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45097</v>
+        <v>44993</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E61" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45304</v>
+        <v>45097</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E62" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45388</v>
+        <v>45304</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44951</v>
+        <v>45388</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D64" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E64" t="n">
-        <v>49.9999999999998</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45301</v>
+        <v>44951</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D65" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E65" t="n">
-        <v>15</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45127</v>
+        <v>45301</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45350</v>
+        <v>45127</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E67" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
@@ -1724,573 +1724,573 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E68" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45055</v>
+        <v>45350</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>24.9999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45052</v>
+        <v>45055</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D70" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E70" t="n">
-        <v>50</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44967</v>
+        <v>45052</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E71" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45298</v>
+        <v>44967</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45120</v>
+        <v>45298</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E73" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45150</v>
+        <v>45120</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D74" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E74" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45078</v>
+        <v>45150</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44945</v>
+        <v>45078</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E76" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45341</v>
+        <v>44945</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E77" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45241</v>
+        <v>45341</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D78" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E78" t="n">
-        <v>24.9999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45391</v>
+        <v>45241</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D79" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E79" t="n">
-        <v>50</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44931</v>
+        <v>45391</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E80" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44996</v>
+        <v>44931</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E81" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45253</v>
+        <v>44996</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E82" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45312</v>
+        <v>45253</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E83" t="n">
-        <v>14.99999999999994</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45073</v>
+        <v>45312</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D84" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>25</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45132</v>
+        <v>45073</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E85" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45358</v>
+        <v>45132</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E86" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45056</v>
+        <v>45358</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E87" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45233</v>
+        <v>45056</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D88" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E88" t="n">
-        <v>49.9999999999998</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45001</v>
+        <v>45233</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D89" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45177</v>
+        <v>45001</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E90" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45389</v>
+        <v>45177</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E91" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44981</v>
+        <v>45389</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E92" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45087</v>
+        <v>44981</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E93" t="n">
-        <v>24.9999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45069</v>
+        <v>45087</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D94" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E94" t="n">
-        <v>50</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45189</v>
+        <v>45069</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E95" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45289</v>
+        <v>45189</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E96" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45145</v>
+        <v>45289</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E97" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45170</v>
+        <v>45145</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2298,189 +2298,189 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7.00000000000001</v>
+        <v>9</v>
       </c>
       <c r="D98" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E98" t="n">
-        <v>231.0000000000003</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45288</v>
+        <v>45170</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7.50909090909091</v>
+        <v>7.00000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>33.1818181818182</v>
+        <v>33</v>
       </c>
       <c r="E99" t="n">
-        <v>249.1652892561985</v>
+        <v>231.0000000000003</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45358</v>
+        <v>45288</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8.018181818181819</v>
+        <v>7.50909090909091</v>
       </c>
       <c r="D100" t="n">
-        <v>33.3636363636364</v>
+        <v>33.1818181818182</v>
       </c>
       <c r="E100" t="n">
-        <v>267.5157024793392</v>
+        <v>249.1652892561985</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45187</v>
+        <v>45358</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8.527272727272729</v>
+        <v>8.018181818181819</v>
       </c>
       <c r="D101" t="n">
-        <v>33.5454545454545</v>
+        <v>33.3636363636364</v>
       </c>
       <c r="E101" t="n">
-        <v>286.0512396694211</v>
+        <v>267.5157024793392</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45326</v>
+        <v>45187</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>9.036363636363641</v>
+        <v>8.527272727272729</v>
       </c>
       <c r="D102" t="n">
-        <v>33.7272727272727</v>
+        <v>33.5454545454545</v>
       </c>
       <c r="E102" t="n">
-        <v>304.7719008264461</v>
+        <v>286.0512396694211</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45273</v>
+        <v>45326</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9.54545454545455</v>
+        <v>9.036363636363641</v>
       </c>
       <c r="D103" t="n">
-        <v>33.9090909090909</v>
+        <v>33.7272727272727</v>
       </c>
       <c r="E103" t="n">
-        <v>323.6776859504133</v>
+        <v>304.7719008264461</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44934</v>
+        <v>45273</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>10.0545454545455</v>
+        <v>9.54545454545455</v>
       </c>
       <c r="D104" t="n">
-        <v>34.0909090909091</v>
+        <v>33.9090909090909</v>
       </c>
       <c r="E104" t="n">
-        <v>342.768595041324</v>
+        <v>323.6776859504133</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45280</v>
+        <v>44934</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>10.5636363636364</v>
+        <v>10.0545454545455</v>
       </c>
       <c r="D105" t="n">
-        <v>34.2727272727273</v>
+        <v>34.0909090909091</v>
       </c>
       <c r="E105" t="n">
-        <v>362.0446280991751</v>
+        <v>342.768595041324</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45247</v>
+        <v>45280</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>11.0727272727273</v>
+        <v>10.5636363636364</v>
       </c>
       <c r="D106" t="n">
-        <v>34.4545454545455</v>
+        <v>34.2727272727273</v>
       </c>
       <c r="E106" t="n">
-        <v>381.5057851239685</v>
+        <v>362.0446280991751</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45109</v>
+        <v>45247</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>11.5818181818182</v>
+        <v>11.0727272727273</v>
       </c>
       <c r="D107" t="n">
-        <v>34.6363636363636</v>
+        <v>34.4545454545455</v>
       </c>
       <c r="E107" t="n">
-        <v>401.1520661157027</v>
+        <v>381.5057851239685</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45160</v>
+        <v>45109</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2488,512 +2488,512 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>12.0909090909091</v>
+        <v>11.5818181818182</v>
       </c>
       <c r="D108" t="n">
-        <v>34.8181818181818</v>
+        <v>34.6363636363636</v>
       </c>
       <c r="E108" t="n">
-        <v>420.9834710743802</v>
+        <v>401.1520661157027</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45225</v>
+        <v>45160</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>12.6</v>
+        <v>12.0909090909091</v>
       </c>
       <c r="D109" t="n">
-        <v>35</v>
+        <v>34.8181818181818</v>
       </c>
       <c r="E109" t="n">
-        <v>441</v>
+        <v>420.9834710743802</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45188</v>
+        <v>45225</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>13.1090909090909</v>
+        <v>12.6</v>
       </c>
       <c r="D110" t="n">
-        <v>35.1818181818182</v>
+        <v>35</v>
       </c>
       <c r="E110" t="n">
-        <v>461.2016528925619</v>
+        <v>441</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45319</v>
+        <v>45188</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>13.1090909090909</v>
       </c>
       <c r="D111" t="n">
-        <v>15</v>
+        <v>35.1818181818182</v>
       </c>
       <c r="E111" t="n">
-        <v>15</v>
+        <v>461.2016528925619</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45218</v>
+        <v>45319</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E112" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45111</v>
+        <v>45218</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D113" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E113" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45180</v>
+        <v>45111</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E114" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45361</v>
+        <v>45180</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D115" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E115" t="n">
-        <v>24.9999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45285</v>
+        <v>45361</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D116" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E116" t="n">
-        <v>50</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44945</v>
+        <v>45285</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E117" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45346</v>
+        <v>44945</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D118" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E118" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44941</v>
+        <v>45346</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E119" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45112</v>
+        <v>44941</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D120" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E120" t="n">
-        <v>14.99999999999994</v>
+        <v>450</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45327</v>
+        <v>45112</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D121" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E121" t="n">
-        <v>25</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45267</v>
+        <v>45327</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E122" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45169</v>
+        <v>45267</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D123" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E123" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45058</v>
+        <v>45169</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E124" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45411</v>
+        <v>45058</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D125" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E125" t="n">
-        <v>49.9999999999998</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45115</v>
+        <v>45411</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D126" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E126" t="n">
-        <v>15</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45302</v>
+        <v>45115</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E127" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45134</v>
+        <v>45302</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D128" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E128" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45017</v>
+        <v>45134</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E129" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D130" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E130" t="n">
-        <v>24.9999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45100</v>
+        <v>45047</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D131" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E131" t="n">
-        <v>50</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44981</v>
+        <v>45100</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E132" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45285</v>
+        <v>44981</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D133" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E133" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45092</v>
+        <v>45285</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E134" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45113</v>
+        <v>45092</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3001,189 +3001,189 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>7.00000000000001</v>
+        <v>9</v>
       </c>
       <c r="D135" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E135" t="n">
-        <v>231.0000000000003</v>
+        <v>450</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44959</v>
+        <v>45113</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>7.50909090909091</v>
+        <v>7.00000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>33.1818181818182</v>
+        <v>33</v>
       </c>
       <c r="E136" t="n">
-        <v>249.1652892561985</v>
+        <v>231.0000000000003</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45042</v>
+        <v>44959</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>8.018181818181819</v>
+        <v>7.50909090909091</v>
       </c>
       <c r="D137" t="n">
-        <v>33.3636363636364</v>
+        <v>33.1818181818182</v>
       </c>
       <c r="E137" t="n">
-        <v>267.5157024793392</v>
+        <v>249.1652892561985</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45210</v>
+        <v>45042</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>8.527272727272729</v>
+        <v>8.018181818181819</v>
       </c>
       <c r="D138" t="n">
-        <v>33.5454545454545</v>
+        <v>33.3636363636364</v>
       </c>
       <c r="E138" t="n">
-        <v>286.0512396694211</v>
+        <v>267.5157024793392</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45029</v>
+        <v>45210</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>9.036363636363641</v>
+        <v>8.527272727272729</v>
       </c>
       <c r="D139" t="n">
-        <v>33.7272727272727</v>
+        <v>33.5454545454545</v>
       </c>
       <c r="E139" t="n">
-        <v>304.7719008264461</v>
+        <v>286.0512396694211</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45180</v>
+        <v>45029</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>9.54545454545455</v>
+        <v>9.036363636363641</v>
       </c>
       <c r="D140" t="n">
-        <v>33.9090909090909</v>
+        <v>33.7272727272727</v>
       </c>
       <c r="E140" t="n">
-        <v>323.6776859504133</v>
+        <v>304.7719008264461</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45181</v>
+        <v>45180</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>10.0545454545455</v>
+        <v>9.54545454545455</v>
       </c>
       <c r="D141" t="n">
-        <v>34.0909090909091</v>
+        <v>33.9090909090909</v>
       </c>
       <c r="E141" t="n">
-        <v>342.768595041324</v>
+        <v>323.6776859504133</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44965</v>
+        <v>45181</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>10.5636363636364</v>
+        <v>10.0545454545455</v>
       </c>
       <c r="D142" t="n">
-        <v>34.2727272727273</v>
+        <v>34.0909090909091</v>
       </c>
       <c r="E142" t="n">
-        <v>362.0446280991751</v>
+        <v>342.768595041324</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45271</v>
+        <v>44965</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>11.0727272727273</v>
+        <v>10.5636363636364</v>
       </c>
       <c r="D143" t="n">
-        <v>34.4545454545455</v>
+        <v>34.2727272727273</v>
       </c>
       <c r="E143" t="n">
-        <v>381.5057851239685</v>
+        <v>362.0446280991751</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45173</v>
+        <v>45271</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>11.5818181818182</v>
+        <v>11.0727272727273</v>
       </c>
       <c r="D144" t="n">
-        <v>34.6363636363636</v>
+        <v>34.4545454545455</v>
       </c>
       <c r="E144" t="n">
-        <v>401.1520661157027</v>
+        <v>381.5057851239685</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44962</v>
+        <v>45173</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -3191,512 +3191,512 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>12.0909090909091</v>
+        <v>11.5818181818182</v>
       </c>
       <c r="D145" t="n">
-        <v>34.8181818181818</v>
+        <v>34.6363636363636</v>
       </c>
       <c r="E145" t="n">
-        <v>420.9834710743802</v>
+        <v>401.1520661157027</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45087</v>
+        <v>44962</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>12.6</v>
+        <v>12.0909090909091</v>
       </c>
       <c r="D146" t="n">
-        <v>35</v>
+        <v>34.8181818181818</v>
       </c>
       <c r="E146" t="n">
-        <v>441</v>
+        <v>420.9834710743802</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45006</v>
+        <v>45087</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>13.1090909090909</v>
+        <v>12.6</v>
       </c>
       <c r="D147" t="n">
-        <v>35.1818181818182</v>
+        <v>35</v>
       </c>
       <c r="E147" t="n">
-        <v>461.2016528925619</v>
+        <v>441</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45054</v>
+        <v>45006</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>13.1090909090909</v>
       </c>
       <c r="D148" t="n">
-        <v>15</v>
+        <v>35.1818181818182</v>
       </c>
       <c r="E148" t="n">
-        <v>15</v>
+        <v>461.2016528925619</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45068</v>
+        <v>45054</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E149" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45299</v>
+        <v>45068</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D150" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E150" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44960</v>
+        <v>45299</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E151" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45102</v>
+        <v>44960</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D152" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E152" t="n">
-        <v>24.9999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45256</v>
+        <v>45102</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D153" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E153" t="n">
-        <v>50</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44948</v>
+        <v>45256</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E154" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45327</v>
+        <v>44948</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D155" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E155" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45398</v>
+        <v>45327</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E156" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45310</v>
+        <v>45398</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D157" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E157" t="n">
-        <v>14.99999999999994</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45150</v>
+        <v>45310</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D158" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E158" t="n">
-        <v>25</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45421</v>
+        <v>45150</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E159" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45375</v>
+        <v>45421</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D160" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E160" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44959</v>
+        <v>45375</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E161" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45169</v>
+        <v>44959</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D162" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E162" t="n">
-        <v>49.9999999999998</v>
+        <v>225</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44987</v>
+        <v>45169</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D163" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E163" t="n">
-        <v>15</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45082</v>
+        <v>44987</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E164" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45171</v>
+        <v>45082</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D165" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E165" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45301</v>
+        <v>45171</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E166" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45303</v>
+        <v>45301</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D167" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E167" t="n">
-        <v>24.9999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45138</v>
+        <v>45303</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D168" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E168" t="n">
-        <v>50</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45294</v>
+        <v>45138</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E169" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45269</v>
+        <v>45294</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D170" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E170" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44937</v>
+        <v>45269</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E171" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45159</v>
+        <v>44937</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3704,189 +3704,189 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>7.00000000000001</v>
+        <v>9</v>
       </c>
       <c r="D172" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E172" t="n">
-        <v>231.0000000000003</v>
+        <v>450</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45423</v>
+        <v>45159</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>7.50909090909091</v>
+        <v>7.00000000000001</v>
       </c>
       <c r="D173" t="n">
-        <v>33.1818181818182</v>
+        <v>33</v>
       </c>
       <c r="E173" t="n">
-        <v>249.1652892561985</v>
+        <v>231.0000000000003</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45058</v>
+        <v>45423</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>8.018181818181819</v>
+        <v>7.50909090909091</v>
       </c>
       <c r="D174" t="n">
-        <v>33.3636363636364</v>
+        <v>33.1818181818182</v>
       </c>
       <c r="E174" t="n">
-        <v>267.5157024793392</v>
+        <v>249.1652892561985</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45037</v>
+        <v>45058</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>8.527272727272729</v>
+        <v>8.018181818181819</v>
       </c>
       <c r="D175" t="n">
-        <v>33.5454545454545</v>
+        <v>33.3636363636364</v>
       </c>
       <c r="E175" t="n">
-        <v>286.0512396694211</v>
+        <v>267.5157024793392</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45134</v>
+        <v>45037</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>9.036363636363641</v>
+        <v>8.527272727272729</v>
       </c>
       <c r="D176" t="n">
-        <v>33.7272727272727</v>
+        <v>33.5454545454545</v>
       </c>
       <c r="E176" t="n">
-        <v>304.7719008264461</v>
+        <v>286.0512396694211</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44964</v>
+        <v>45134</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>9.54545454545455</v>
+        <v>9.036363636363641</v>
       </c>
       <c r="D177" t="n">
-        <v>33.9090909090909</v>
+        <v>33.7272727272727</v>
       </c>
       <c r="E177" t="n">
-        <v>323.6776859504133</v>
+        <v>304.7719008264461</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44985</v>
+        <v>44964</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>10.0545454545455</v>
+        <v>9.54545454545455</v>
       </c>
       <c r="D178" t="n">
-        <v>34.0909090909091</v>
+        <v>33.9090909090909</v>
       </c>
       <c r="E178" t="n">
-        <v>342.768595041324</v>
+        <v>323.6776859504133</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45411</v>
+        <v>44985</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>10.5636363636364</v>
+        <v>10.0545454545455</v>
       </c>
       <c r="D179" t="n">
-        <v>34.2727272727273</v>
+        <v>34.0909090909091</v>
       </c>
       <c r="E179" t="n">
-        <v>362.0446280991751</v>
+        <v>342.768595041324</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45145</v>
+        <v>45411</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>11.0727272727273</v>
+        <v>10.5636363636364</v>
       </c>
       <c r="D180" t="n">
-        <v>34.4545454545455</v>
+        <v>34.2727272727273</v>
       </c>
       <c r="E180" t="n">
-        <v>381.5057851239685</v>
+        <v>362.0446280991751</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45007</v>
+        <v>45145</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>11.5818181818182</v>
+        <v>11.0727272727273</v>
       </c>
       <c r="D181" t="n">
-        <v>34.6363636363636</v>
+        <v>34.4545454545455</v>
       </c>
       <c r="E181" t="n">
-        <v>401.1520661157027</v>
+        <v>381.5057851239685</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45418</v>
+        <v>45007</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3894,512 +3894,512 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>12.0909090909091</v>
+        <v>11.5818181818182</v>
       </c>
       <c r="D182" t="n">
-        <v>34.8181818181818</v>
+        <v>34.6363636363636</v>
       </c>
       <c r="E182" t="n">
-        <v>420.9834710743802</v>
+        <v>401.1520661157027</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44996</v>
+        <v>45418</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>12.6</v>
+        <v>12.0909090909091</v>
       </c>
       <c r="D183" t="n">
-        <v>35</v>
+        <v>34.8181818181818</v>
       </c>
       <c r="E183" t="n">
-        <v>441</v>
+        <v>420.9834710743802</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44968</v>
+        <v>44996</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>13.1090909090909</v>
+        <v>12.6</v>
       </c>
       <c r="D184" t="n">
-        <v>35.1818181818182</v>
+        <v>35</v>
       </c>
       <c r="E184" t="n">
-        <v>461.2016528925619</v>
+        <v>441</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45231</v>
+        <v>44968</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>13.1090909090909</v>
       </c>
       <c r="D185" t="n">
-        <v>15</v>
+        <v>35.1818181818182</v>
       </c>
       <c r="E185" t="n">
-        <v>15</v>
+        <v>461.2016528925619</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45232</v>
+        <v>45231</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E186" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45233</v>
+        <v>45232</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D187" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E187" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45234</v>
+        <v>45233</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E188" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45235</v>
+        <v>45234</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D189" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E189" t="n">
-        <v>24.9999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45236</v>
+        <v>45235</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D190" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E190" t="n">
-        <v>50</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45237</v>
+        <v>45236</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E191" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45238</v>
+        <v>45237</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D192" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E192" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45239</v>
+        <v>45238</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E193" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45240</v>
+        <v>45239</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D194" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E194" t="n">
-        <v>14.99999999999994</v>
+        <v>450</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45241</v>
+        <v>45240</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D195" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E195" t="n">
-        <v>25</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45242</v>
+        <v>45241</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E196" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45243</v>
+        <v>45242</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D197" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E197" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45244</v>
+        <v>45243</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E198" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45245</v>
+        <v>45244</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D199" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E199" t="n">
-        <v>49.9999999999998</v>
+        <v>225</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45246</v>
+        <v>45245</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D200" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E200" t="n">
-        <v>15</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45247</v>
+        <v>45246</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E201" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45248</v>
+        <v>45247</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D202" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E202" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45249</v>
+        <v>45248</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E203" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45250</v>
+        <v>45249</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D204" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E204" t="n">
-        <v>24.9999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45251</v>
+        <v>45250</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D205" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E205" t="n">
-        <v>50</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45252</v>
+        <v>45251</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E206" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D207" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E207" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45254</v>
+        <v>45253</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E208" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45255</v>
+        <v>45254</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -4407,189 +4407,189 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>7.00000000000001</v>
+        <v>9</v>
       </c>
       <c r="D209" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E209" t="n">
-        <v>231.0000000000003</v>
+        <v>450</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45256</v>
+        <v>45255</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>7.50909090909091</v>
+        <v>7.00000000000001</v>
       </c>
       <c r="D210" t="n">
-        <v>33.1818181818182</v>
+        <v>33</v>
       </c>
       <c r="E210" t="n">
-        <v>249.1652892561985</v>
+        <v>231.0000000000003</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45257</v>
+        <v>45256</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>8.018181818181819</v>
+        <v>7.50909090909091</v>
       </c>
       <c r="D211" t="n">
-        <v>33.3636363636364</v>
+        <v>33.1818181818182</v>
       </c>
       <c r="E211" t="n">
-        <v>267.5157024793392</v>
+        <v>249.1652892561985</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45258</v>
+        <v>45257</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>8.527272727272729</v>
+        <v>8.018181818181819</v>
       </c>
       <c r="D212" t="n">
-        <v>33.5454545454545</v>
+        <v>33.3636363636364</v>
       </c>
       <c r="E212" t="n">
-        <v>286.0512396694211</v>
+        <v>267.5157024793392</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45259</v>
+        <v>45258</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>9.036363636363641</v>
+        <v>8.527272727272729</v>
       </c>
       <c r="D213" t="n">
-        <v>33.7272727272727</v>
+        <v>33.5454545454545</v>
       </c>
       <c r="E213" t="n">
-        <v>304.7719008264461</v>
+        <v>286.0512396694211</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45260</v>
+        <v>45259</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>9.54545454545455</v>
+        <v>9.036363636363641</v>
       </c>
       <c r="D214" t="n">
-        <v>33.9090909090909</v>
+        <v>33.7272727272727</v>
       </c>
       <c r="E214" t="n">
-        <v>323.6776859504133</v>
+        <v>304.7719008264461</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45247</v>
+        <v>45260</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>10.0545454545455</v>
+        <v>9.54545454545455</v>
       </c>
       <c r="D215" t="n">
-        <v>34.0909090909091</v>
+        <v>33.9090909090909</v>
       </c>
       <c r="E215" t="n">
-        <v>342.768595041324</v>
+        <v>323.6776859504133</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45242</v>
+        <v>45247</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>10.5636363636364</v>
+        <v>10.0545454545455</v>
       </c>
       <c r="D216" t="n">
-        <v>34.2727272727273</v>
+        <v>34.0909090909091</v>
       </c>
       <c r="E216" t="n">
-        <v>362.0446280991751</v>
+        <v>342.768595041324</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45239</v>
+        <v>45242</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>11.0727272727273</v>
+        <v>10.5636363636364</v>
       </c>
       <c r="D217" t="n">
-        <v>34.4545454545455</v>
+        <v>34.2727272727273</v>
       </c>
       <c r="E217" t="n">
-        <v>381.5057851239685</v>
+        <v>362.0446280991751</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45255</v>
+        <v>45239</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>11.5818181818182</v>
+        <v>11.0727272727273</v>
       </c>
       <c r="D218" t="n">
-        <v>34.6363636363636</v>
+        <v>34.4545454545455</v>
       </c>
       <c r="E218" t="n">
-        <v>401.1520661157027</v>
+        <v>381.5057851239685</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45234</v>
+        <v>45255</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -4597,317 +4597,317 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>12.0909090909091</v>
+        <v>11.5818181818182</v>
       </c>
       <c r="D219" t="n">
-        <v>34.8181818181818</v>
+        <v>34.6363636363636</v>
       </c>
       <c r="E219" t="n">
-        <v>420.9834710743802</v>
+        <v>401.1520661157027</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45247</v>
+        <v>45234</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>12.6</v>
+        <v>12.0909090909091</v>
       </c>
       <c r="D220" t="n">
-        <v>35</v>
+        <v>34.8181818181818</v>
       </c>
       <c r="E220" t="n">
-        <v>441</v>
+        <v>420.9834710743802</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45256</v>
+        <v>45247</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>13.1090909090909</v>
+        <v>12.6</v>
       </c>
       <c r="D221" t="n">
-        <v>35.1818181818182</v>
+        <v>35</v>
       </c>
       <c r="E221" t="n">
-        <v>461.2016528925619</v>
+        <v>441</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45246</v>
+        <v>45256</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>13.1090909090909</v>
       </c>
       <c r="D222" t="n">
-        <v>15</v>
+        <v>35.1818181818182</v>
       </c>
       <c r="E222" t="n">
-        <v>15</v>
+        <v>461.2016528925619</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45250</v>
+        <v>45246</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D223" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E223" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45244</v>
+        <v>45250</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D224" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E224" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45245</v>
+        <v>45244</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E225" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45258</v>
+        <v>45245</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D226" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E226" t="n">
-        <v>24.9999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D227" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E227" t="n">
-        <v>50</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45249</v>
+        <v>45257</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E228" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45235</v>
+        <v>45249</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D229" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E229" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45253</v>
+        <v>45235</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E230" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45260</v>
+        <v>45253</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D231" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E231" t="n">
-        <v>14.99999999999994</v>
+        <v>450</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D232" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E232" t="n">
-        <v>25</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45235</v>
+        <v>45256</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E233" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45239</v>
+        <v>45235</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D234" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E234" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E235" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="236">
@@ -4916,188 +4916,188 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D236" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E236" t="n">
-        <v>49.9999999999998</v>
+        <v>225</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45254</v>
+        <v>45237</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D237" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E237" t="n">
-        <v>15</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45243</v>
+        <v>45254</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E238" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45258</v>
+        <v>45243</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D239" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E239" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45255</v>
+        <v>45258</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E240" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45237</v>
+        <v>45255</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D241" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E241" t="n">
-        <v>24.9999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45254</v>
+        <v>45237</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D242" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E242" t="n">
-        <v>50</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45246</v>
+        <v>45254</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D243" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E243" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45259</v>
+        <v>45246</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D244" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E244" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45254</v>
+        <v>45259</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E245" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="246">
@@ -5110,189 +5110,189 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>7.00000000000001</v>
+        <v>9</v>
       </c>
       <c r="D246" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E246" t="n">
-        <v>231.0000000000003</v>
+        <v>450</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45259</v>
+        <v>45254</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>7.50909090909091</v>
+        <v>7.00000000000001</v>
       </c>
       <c r="D247" t="n">
-        <v>33.1818181818182</v>
+        <v>33</v>
       </c>
       <c r="E247" t="n">
-        <v>249.1652892561985</v>
+        <v>231.0000000000003</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45233</v>
+        <v>45259</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>8.018181818181819</v>
+        <v>7.50909090909091</v>
       </c>
       <c r="D248" t="n">
-        <v>33.3636363636364</v>
+        <v>33.1818181818182</v>
       </c>
       <c r="E248" t="n">
-        <v>267.5157024793392</v>
+        <v>249.1652892561985</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45252</v>
+        <v>45233</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>8.527272727272729</v>
+        <v>8.018181818181819</v>
       </c>
       <c r="D249" t="n">
-        <v>33.5454545454545</v>
+        <v>33.3636363636364</v>
       </c>
       <c r="E249" t="n">
-        <v>286.0512396694211</v>
+        <v>267.5157024793392</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45237</v>
+        <v>45252</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>9.036363636363641</v>
+        <v>8.527272727272729</v>
       </c>
       <c r="D250" t="n">
-        <v>33.7272727272727</v>
+        <v>33.5454545454545</v>
       </c>
       <c r="E250" t="n">
-        <v>304.7719008264461</v>
+        <v>286.0512396694211</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45259</v>
+        <v>45237</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>9.54545454545455</v>
+        <v>9.036363636363641</v>
       </c>
       <c r="D251" t="n">
-        <v>33.9090909090909</v>
+        <v>33.7272727272727</v>
       </c>
       <c r="E251" t="n">
-        <v>323.6776859504133</v>
+        <v>304.7719008264461</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45232</v>
+        <v>45259</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>10.0545454545455</v>
+        <v>9.54545454545455</v>
       </c>
       <c r="D252" t="n">
-        <v>34.0909090909091</v>
+        <v>33.9090909090909</v>
       </c>
       <c r="E252" t="n">
-        <v>342.768595041324</v>
+        <v>323.6776859504133</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45241</v>
+        <v>45232</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>10.5636363636364</v>
+        <v>10.0545454545455</v>
       </c>
       <c r="D253" t="n">
-        <v>34.2727272727273</v>
+        <v>34.0909090909091</v>
       </c>
       <c r="E253" t="n">
-        <v>362.0446280991751</v>
+        <v>342.768595041324</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45248</v>
+        <v>45241</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>11.0727272727273</v>
+        <v>10.5636363636364</v>
       </c>
       <c r="D254" t="n">
-        <v>34.4545454545455</v>
+        <v>34.2727272727273</v>
       </c>
       <c r="E254" t="n">
-        <v>381.5057851239685</v>
+        <v>362.0446280991751</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45239</v>
+        <v>45248</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>11.5818181818182</v>
+        <v>11.0727272727273</v>
       </c>
       <c r="D255" t="n">
-        <v>34.6363636363636</v>
+        <v>34.4545454545455</v>
       </c>
       <c r="E255" t="n">
-        <v>401.1520661157027</v>
+        <v>381.5057851239685</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -5300,512 +5300,512 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>12.0909090909091</v>
+        <v>11.5818181818182</v>
       </c>
       <c r="D256" t="n">
-        <v>34.8181818181818</v>
+        <v>34.6363636363636</v>
       </c>
       <c r="E256" t="n">
-        <v>420.9834710743802</v>
+        <v>401.1520661157027</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45231</v>
+        <v>45237</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>12.6</v>
+        <v>12.0909090909091</v>
       </c>
       <c r="D257" t="n">
-        <v>35</v>
+        <v>34.8181818181818</v>
       </c>
       <c r="E257" t="n">
-        <v>441</v>
+        <v>420.9834710743802</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45257</v>
+        <v>45231</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>13.1090909090909</v>
+        <v>12.6</v>
       </c>
       <c r="D258" t="n">
-        <v>35.1818181818182</v>
+        <v>35</v>
       </c>
       <c r="E258" t="n">
-        <v>461.2016528925619</v>
+        <v>441</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45251</v>
+        <v>45257</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>13.1090909090909</v>
       </c>
       <c r="D259" t="n">
-        <v>15</v>
+        <v>35.1818181818182</v>
       </c>
       <c r="E259" t="n">
-        <v>15</v>
+        <v>461.2016528925619</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45255</v>
+        <v>45251</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D260" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E260" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45257</v>
+        <v>45255</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D261" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E261" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45233</v>
+        <v>45257</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E262" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45241</v>
+        <v>45233</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D263" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E263" t="n">
-        <v>24.9999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45255</v>
+        <v>45241</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D264" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E264" t="n">
-        <v>50</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45256</v>
+        <v>45255</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D265" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E265" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45237</v>
+        <v>45256</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D266" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E266" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45242</v>
+        <v>45237</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E267" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D268" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E268" t="n">
-        <v>14.99999999999994</v>
+        <v>450</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45260</v>
+        <v>45235</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D269" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E269" t="n">
-        <v>25</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45236</v>
+        <v>45260</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D270" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E270" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45247</v>
+        <v>45236</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D271" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E271" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45241</v>
+        <v>45247</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E272" t="n">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45238</v>
+        <v>45241</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D273" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E273" t="n">
-        <v>49.9999999999998</v>
+        <v>225</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45243</v>
+        <v>45238</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D274" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E274" t="n">
-        <v>15</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45260</v>
+        <v>45243</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D275" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E275" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45241</v>
+        <v>45260</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D276" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E276" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45233</v>
+        <v>45241</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D277" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E277" t="n">
-        <v>135</v>
+        <v>300</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45259</v>
+        <v>45233</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="D278" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E278" t="n">
-        <v>24.9999999999999</v>
+        <v>135</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45245</v>
+        <v>45259</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D279" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E279" t="n">
-        <v>50</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D280" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E280" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45231</v>
+        <v>45243</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D281" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E281" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45255</v>
+        <v>45231</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E282" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45246</v>
+        <v>45255</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -5813,189 +5813,189 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>7.00000000000001</v>
+        <v>9</v>
       </c>
       <c r="D283" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E283" t="n">
-        <v>231.0000000000003</v>
+        <v>450</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45242</v>
+        <v>45246</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>7.50909090909091</v>
+        <v>7.00000000000001</v>
       </c>
       <c r="D284" t="n">
-        <v>33.1818181818182</v>
+        <v>33</v>
       </c>
       <c r="E284" t="n">
-        <v>249.1652892561985</v>
+        <v>231.0000000000003</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45234</v>
+        <v>45242</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>8.018181818181819</v>
+        <v>7.50909090909091</v>
       </c>
       <c r="D285" t="n">
-        <v>33.3636363636364</v>
+        <v>33.1818181818182</v>
       </c>
       <c r="E285" t="n">
-        <v>267.5157024793392</v>
+        <v>249.1652892561985</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45247</v>
+        <v>45234</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>8.527272727272729</v>
+        <v>8.018181818181819</v>
       </c>
       <c r="D286" t="n">
-        <v>33.5454545454545</v>
+        <v>33.3636363636364</v>
       </c>
       <c r="E286" t="n">
-        <v>286.0512396694211</v>
+        <v>267.5157024793392</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45244</v>
+        <v>45247</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>9.036363636363641</v>
+        <v>8.527272727272729</v>
       </c>
       <c r="D287" t="n">
-        <v>33.7272727272727</v>
+        <v>33.5454545454545</v>
       </c>
       <c r="E287" t="n">
-        <v>304.7719008264461</v>
+        <v>286.0512396694211</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45239</v>
+        <v>45244</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>9.54545454545455</v>
+        <v>9.036363636363641</v>
       </c>
       <c r="D288" t="n">
-        <v>33.9090909090909</v>
+        <v>33.7272727272727</v>
       </c>
       <c r="E288" t="n">
-        <v>323.6776859504133</v>
+        <v>304.7719008264461</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45253</v>
+        <v>45239</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>10.0545454545455</v>
+        <v>9.54545454545455</v>
       </c>
       <c r="D289" t="n">
-        <v>34.0909090909091</v>
+        <v>33.9090909090909</v>
       </c>
       <c r="E289" t="n">
-        <v>342.768595041324</v>
+        <v>323.6776859504133</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>10.5636363636364</v>
+        <v>10.0545454545455</v>
       </c>
       <c r="D290" t="n">
-        <v>34.2727272727273</v>
+        <v>34.0909090909091</v>
       </c>
       <c r="E290" t="n">
-        <v>362.0446280991751</v>
+        <v>342.768595041324</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45254</v>
+        <v>45252</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>11.0727272727273</v>
+        <v>10.5636363636364</v>
       </c>
       <c r="D291" t="n">
-        <v>34.4545454545455</v>
+        <v>34.2727272727273</v>
       </c>
       <c r="E291" t="n">
-        <v>381.5057851239685</v>
+        <v>362.0446280991751</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45246</v>
+        <v>45254</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>11.5818181818182</v>
+        <v>11.0727272727273</v>
       </c>
       <c r="D292" t="n">
-        <v>34.6363636363636</v>
+        <v>34.4545454545455</v>
       </c>
       <c r="E292" t="n">
-        <v>401.1520661157027</v>
+        <v>381.5057851239685</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45255</v>
+        <v>45246</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -6003,257 +6003,257 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>12.0909090909091</v>
+        <v>11.5818181818182</v>
       </c>
       <c r="D293" t="n">
-        <v>34.8181818181818</v>
+        <v>34.6363636363636</v>
       </c>
       <c r="E293" t="n">
-        <v>420.9834710743802</v>
+        <v>401.1520661157027</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45256</v>
+        <v>45255</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>12.6</v>
+        <v>12.0909090909091</v>
       </c>
       <c r="D294" t="n">
-        <v>35</v>
+        <v>34.8181818181818</v>
       </c>
       <c r="E294" t="n">
-        <v>441</v>
+        <v>420.9834710743802</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45236</v>
+        <v>45256</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>13.1090909090909</v>
+        <v>12.6</v>
       </c>
       <c r="D295" t="n">
-        <v>35.1818181818182</v>
+        <v>35</v>
       </c>
       <c r="E295" t="n">
-        <v>461.2016528925619</v>
+        <v>441</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45358</v>
+        <v>45236</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Chaqueta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>60</v>
+        <v>13.1090909090909</v>
       </c>
       <c r="D296" t="n">
-        <v>5</v>
+        <v>35.1818181818182</v>
       </c>
       <c r="E296" t="n">
-        <v>300</v>
+        <v>461.2016528925619</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45344</v>
+        <v>45358</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Gorra</t>
+          <t>Chaqueta</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D297" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E297" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45283</v>
+        <v>45344</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Bufanda</t>
+          <t>Gorra</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D298" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E298" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45400</v>
+        <v>45283</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Guantes</t>
+          <t>Bufanda</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D299" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E299" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45123</v>
+        <v>45400</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Calcetines</t>
+          <t>Guantes</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D300" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E300" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45179</v>
+        <v>45123</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Vestido</t>
+          <t>Calcetines</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D301" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E301" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45342</v>
+        <v>45179</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Falda</t>
+          <t>Vestido</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D302" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E302" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45199</v>
+        <v>45342</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Corbata</t>
+          <t>Falda</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D303" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E303" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45101</v>
+        <v>45199</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Sudadera</t>
+          <t>Corbata</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D304" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E304" t="n">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45314</v>
+        <v>45101</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Pantuflas</t>
+          <t>Sudadera</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D305" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E305" t="n">
-        <v>200</v>
+        <v>315</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45035</v>
+        <v>45314</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Bolso</t>
+          <t>Pantuflas</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D306" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E306" t="n">
         <v>200</v>
@@ -6261,75 +6261,75 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45393</v>
+        <v>45035</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Sombrero</t>
+          <t>Bolso</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D307" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E307" t="n">
-        <v>162</v>
+        <v>200</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45414</v>
+        <v>45393</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Leggings</t>
+          <t>Sombrero</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D308" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E308" t="n">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45418</v>
+        <v>45414</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Abrigo</t>
+          <t>Leggings</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D309" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E309" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45356</v>
+        <v>45418</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Traje de baño</t>
+          <t>Abrigo</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D310" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E310" t="n">
         <v>200</v>
@@ -6337,227 +6337,227 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45306</v>
+        <v>45356</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Blusa</t>
+          <t>Traje de baño</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D311" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E311" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45410</v>
+        <v>45306</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Pantalones cortos</t>
+          <t>Blusa</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D312" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E312" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45060</v>
+        <v>45410</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sombrero de paja</t>
+          <t>Pantalones cortos</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D313" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E313" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45041</v>
+        <v>45060</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Chaqueta de cuero</t>
+          <t>Sombrero de paja</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D314" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E314" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45124</v>
+        <v>45041</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Mochila</t>
+          <t>Chaqueta de cuero</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D315" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E315" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45366</v>
+        <v>45124</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Bufanda de lana</t>
+          <t>Mochila</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D316" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E316" t="n">
-        <v>216</v>
+        <v>240</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45410</v>
+        <v>45366</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Zapatos deportivos</t>
+          <t>Bufanda de lana</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D317" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E317" t="n">
-        <v>350</v>
+        <v>216</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44983</v>
+        <v>45410</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Camisa de vestir</t>
+          <t>Zapatos deportivos</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D318" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E318" t="n">
-        <v>315</v>
+        <v>350</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45402</v>
+        <v>44983</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Falda larga</t>
+          <t>Camisa de vestir</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D319" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E319" t="n">
-        <v>200</v>
+        <v>315</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45202</v>
+        <v>45402</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Calcetines de compresión</t>
+          <t>Falda larga</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D320" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E320" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45352</v>
+        <v>45202</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Botas de montaña</t>
+          <t>Calcetines de compresión</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D321" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E321" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45192</v>
+        <v>45352</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Bolso de mano</t>
+          <t>Botas de montaña</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D322" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E322" t="n">
         <v>270</v>
@@ -6565,151 +6565,151 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45324</v>
+        <v>45192</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Gorro de lana</t>
+          <t>Bolso de mano</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D323" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E323" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45394</v>
+        <v>45324</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Leggings estampados</t>
+          <t>Gorro de lana</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D324" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E324" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45162</v>
+        <v>45394</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Chaleco</t>
+          <t>Leggings estampados</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D325" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E325" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44986</v>
+        <v>45162</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Camiseta sin mangas</t>
+          <t>Chaleco</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D326" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E326" t="n">
-        <v>150</v>
+        <v>275</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45134</v>
+        <v>44986</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Traje formal</t>
+          <t>Camiseta sin mangas</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="D327" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E327" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44939</v>
+        <v>45134</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Sandalias</t>
+          <t>Traje formal</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="D328" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E328" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45313</v>
+        <v>44939</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Jeans</t>
+          <t>Sandalias</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D329" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E329" t="n">
-        <v>240</v>
+        <v>175</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45184</v>
+        <v>45313</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Top deportivo</t>
+          <t>Jeans</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D330" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E330" t="n">
         <v>240</v>
@@ -6717,56 +6717,56 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45296</v>
+        <v>45184</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Abrigo de invierno</t>
+          <t>Top deportivo</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D331" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E331" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45147</v>
+        <v>45296</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Mallas</t>
+          <t>Abrigo de invierno</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D332" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E332" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45142</v>
+        <v>45147</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Blazer</t>
+          <t>Mallas</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D333" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E333" t="n">
         <v>240</v>
@@ -6774,265 +6774,265 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45321</v>
+        <v>45142</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Camiseta de tirantes</t>
+          <t>Blazer</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D334" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E334" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45414</v>
+        <v>45321</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Vestido formal</t>
+          <t>Camiseta de tirantes</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D335" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E335" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44969</v>
+        <v>45414</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Bufanda de seda</t>
+          <t>Vestido formal</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D336" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E336" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45048</v>
+        <v>44969</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Pantalones de yoga</t>
+          <t>Bufanda de seda</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D337" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E337" t="n">
-        <v>315</v>
+        <v>150</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44978</v>
+        <v>45048</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Gorra de béisbol</t>
+          <t>Pantalones de yoga</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D338" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E338" t="n">
-        <v>200</v>
+        <v>315</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45286</v>
+        <v>44978</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Zapatos de tacón</t>
+          <t>Gorra de béisbol</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="D339" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E339" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45327</v>
+        <v>45286</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Zapatos de tacón</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D340" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E340" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45306</v>
+        <v>45327</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Bufanda de algodón</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D341" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E341" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45410</v>
+        <v>45306</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Guantes de cuero</t>
+          <t>Bufanda de algodón</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D342" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E342" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45060</v>
+        <v>45410</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cinturón de cuero</t>
+          <t>Guantes de cuero</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D343" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E343" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45041</v>
+        <v>45060</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Chaqueta de invierno</t>
+          <t>Cinturón de cuero</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D344" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E344" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45124</v>
+        <v>45041</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Botines</t>
+          <t>Chaqueta de invierno</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D345" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E345" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45366</v>
+        <v>45124</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Vestido casual</t>
+          <t>Botines</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D346" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E346" t="n">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45410</v>
+        <v>45366</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Chaqueta de punto</t>
+          <t>Vestido casual</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D347" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E347" t="n">
         <v>315</v>
@@ -7040,1063 +7040,1063 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44983</v>
+        <v>45410</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Pañuelo de seda</t>
+          <t>Chaqueta de punto</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D348" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E348" t="n">
-        <v>216</v>
+        <v>315</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45402</v>
+        <v>44983</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Camisa de manga corta</t>
+          <t>Pañuelo de seda</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D349" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E349" t="n">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45202</v>
+        <v>45402</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Sandalias de cuero</t>
+          <t>Camisa de manga corta</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D350" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E350" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45352</v>
+        <v>45202</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Pantalones de cuero</t>
+          <t>Sandalias de cuero</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D351" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E351" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45192</v>
+        <v>45352</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Sombrero de fieltro</t>
+          <t>Pantalones de cuero</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D352" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E352" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45324</v>
+        <v>45192</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Botas altas</t>
+          <t>Sombrero de fieltro</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D353" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E353" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45394</v>
+        <v>45324</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Poncho</t>
+          <t>Botas altas</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D354" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E354" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45162</v>
+        <v>45394</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Chaqueta de mezclilla</t>
+          <t>Poncho</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D355" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E355" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>44986</v>
+        <v>45162</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Camiseta de manga larga</t>
+          <t>Chaqueta de mezclilla</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D356" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E356" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45134</v>
+        <v>44986</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Traje de baile</t>
+          <t>Camiseta de manga larga</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D357" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E357" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>44939</v>
+        <v>45134</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Pashmina</t>
+          <t>Traje de baile</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D358" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E358" t="n">
-        <v>175</v>
+        <v>240</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45313</v>
+        <v>44939</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Falda plisada</t>
+          <t>Pashmina</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D359" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E359" t="n">
-        <v>240</v>
+        <v>175</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45184</v>
+        <v>45313</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Traje sastre</t>
+          <t>Falda plisada</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="D360" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E360" t="n">
-        <v>540</v>
+        <v>240</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45296</v>
+        <v>45184</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Leggings de yoga</t>
+          <t>Traje sastre</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="D361" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E361" t="n">
-        <v>210</v>
+        <v>540</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45147</v>
+        <v>45296</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Pantalones cortos de mezclilla</t>
+          <t>Leggings de yoga</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D362" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E362" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45142</v>
+        <v>45147</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Camiseta básica</t>
+          <t>Pantalones cortos de mezclilla</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D363" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E363" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45321</v>
+        <v>45142</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Blusa sin hombros</t>
+          <t>Camiseta básica</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D364" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E364" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45414</v>
+        <v>45321</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Chaqueta de lana</t>
+          <t>Blusa sin hombros</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D365" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E365" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>44969</v>
+        <v>45414</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Zapatos Oxford</t>
+          <t>Chaqueta de lana</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D366" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E366" t="n">
-        <v>385</v>
+        <v>260</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45048</v>
+        <v>44969</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Vestido de cóctel</t>
+          <t>Zapatos Oxford</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D367" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E367" t="n">
-        <v>420</v>
+        <v>385</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>44978</v>
+        <v>45048</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Chaleco de lana</t>
+          <t>Vestido de cóctel</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D368" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E368" t="n">
-        <v>360</v>
+        <v>420</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45286</v>
+        <v>44978</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Sombrero de ala ancha</t>
+          <t>Chaleco de lana</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D369" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E369" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45327</v>
+        <v>45286</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Sudadera con capucha</t>
+          <t>Sombrero de ala ancha</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D370" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E370" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45453</v>
+        <v>45327</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Abrigo de Lana</t>
+          <t>Sudadera con capucha</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D371" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E371" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45127</v>
+        <v>45453</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Vestido de Noche</t>
+          <t>Abrigo de Lana</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D372" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E372" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45153</v>
+        <v>45127</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Pantalones de Cuero Negro</t>
+          <t>Vestido de Noche</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D373" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E373" t="n">
-        <v>2450</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45563</v>
+        <v>45153</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Bufanda de Cachemira</t>
+          <t>Pantalones de Cuero Negro</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D374" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E374" t="n">
-        <v>1800</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45209</v>
+        <v>45563</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Sombrero de Fieltro</t>
+          <t>Bufanda de Cachemira</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D375" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E375" t="n">
-        <v>1170</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45235</v>
+        <v>45209</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Abrigo de Piel</t>
+          <t>Sombrero de Fieltro</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D376" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E376" t="n">
-        <v>1600</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45275</v>
+        <v>45235</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Vestido de Gala</t>
+          <t>Abrigo de Piel</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D377" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E377" t="n">
-        <v>2475</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45311</v>
+        <v>45275</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Pantalones de Mezclilla</t>
+          <t>Vestido de Gala</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D378" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E378" t="n">
-        <v>1875</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45350</v>
+        <v>45311</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Bufanda de Alpaca</t>
+          <t>Pantalones de Mezclilla</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D379" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E379" t="n">
-        <v>1275</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>44995</v>
+        <v>45350</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Sombrero de Pescador</t>
+          <t>Bufanda de Alpaca</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D380" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E380" t="n">
-        <v>720</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45387</v>
+        <v>44995</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Abrigo Impermeable</t>
+          <t>Sombrero de Pescador</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D381" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E381" t="n">
-        <v>2100</v>
+        <v>720</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45058</v>
+        <v>45387</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Vestido de Novia</t>
+          <t>Abrigo Impermeable</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D382" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E382" t="n">
-        <v>2250</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45092</v>
+        <v>45058</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Pantalones de Tela</t>
+          <t>Vestido de Novia</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D383" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E383" t="n">
-        <v>1300</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45495</v>
+        <v>45092</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Bufanda de Seda</t>
+          <t>Pantalones de Tela</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D384" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E384" t="n">
-        <v>2375</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45168</v>
+        <v>45495</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Sombrero de Copa</t>
+          <t>Bufanda de Seda</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D385" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E385" t="n">
-        <v>1100</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45540</v>
+        <v>45168</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Abrigo de Gamuza</t>
+          <t>Sombrero de Copa</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D386" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E386" t="n">
-        <v>1925</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45217</v>
+        <v>45540</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Vestido Casual</t>
+          <t>Abrigo de Gamuza</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D387" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E387" t="n">
-        <v>1440</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45250</v>
+        <v>45217</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Pantalones de Cuadros</t>
+          <t>Vestido Casual</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D388" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E388" t="n">
-        <v>1960</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45285</v>
+        <v>45250</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Bufanda de Punto</t>
+          <t>Pantalones de Cuadros</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D389" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E389" t="n">
-        <v>1000</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45294</v>
+        <v>45285</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Sombrero de Vaquero</t>
+          <t>Bufanda de Punto</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D390" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E390" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>44965</v>
+        <v>45294</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Abrigo de Plumas</t>
+          <t>Sombrero de Vaquero</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D391" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E391" t="n">
-        <v>2280</v>
+        <v>900</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45369</v>
+        <v>44965</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Vestido Estampado</t>
+          <t>Abrigo de Plumas</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D392" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E392" t="n">
-        <v>1650</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45026</v>
+        <v>45369</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Pantalones de Cuero Marrón</t>
+          <t>Vestido Estampado</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D393" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E393" t="n">
-        <v>2080</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45428</v>
+        <v>45026</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Bufanda de Lana Merino</t>
+          <t>Pantalones de Cuero Marrón</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D394" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E394" t="n">
-        <v>1620</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45102</v>
+        <v>45428</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Sombrero de Playa</t>
+          <t>Bufanda de Lana Merino</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D395" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E395" t="n">
-        <v>1050</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45503</v>
+        <v>45102</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Abrigo de Tweed</t>
+          <t>Sombrero de Playa</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D396" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E396" t="n">
-        <v>2310</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45143</v>
+        <v>45503</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Vestido de Encaje</t>
+          <t>Abrigo de Tweed</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D397" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E397" t="n">
-        <v>1820</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45191</v>
+        <v>45143</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Pantalones de Chándal</t>
+          <t>Vestido de Encaje</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D398" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E398" t="n">
-        <v>1600</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45593</v>
+        <v>45191</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Bufanda de Mohair</t>
+          <t>Pantalones de Chándal</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D399" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E399" t="n">
-        <v>2125</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45242</v>
+        <v>45593</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Sombrero de Copa Alta</t>
+          <t>Bufanda de Mohair</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D400" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E400" t="n">
-        <v>1200</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45255</v>
+        <v>45242</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Abrigo de Cuero</t>
+          <t>Sombrero de Copa Alta</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D401" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E401" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45270</v>
+        <v>45255</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Vestido de Fiesta</t>
+          <t>Abrigo de Cuero</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D402" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E402" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45306</v>
+        <v>45270</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Pantalones de Cuero</t>
+          <t>Vestido de Fiesta</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D403" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E403" t="n">
         <v>2800</v>
@@ -8104,40 +8104,346 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45342</v>
+        <v>45306</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Bufanda de Piel</t>
+          <t>Pantalones de Cuero</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D404" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E404" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Bufanda de Piel</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>90</v>
+      </c>
+      <c r="D405" t="n">
+        <v>30</v>
+      </c>
+      <c r="E405" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
         <v>44990</v>
       </c>
-      <c r="B405" t="inlineStr">
+      <c r="B406" t="inlineStr">
         <is>
           <t>Sombrero de Lana</t>
         </is>
       </c>
-      <c r="C405" t="n">
+      <c r="C406" t="n">
         <v>55</v>
       </c>
-      <c r="D405" t="n">
-        <v>25</v>
-      </c>
-      <c r="E405" t="n">
+      <c r="D406" t="n">
+        <v>25</v>
+      </c>
+      <c r="E406" t="n">
         <v>1375</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>5/20/2024</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Crema Facial Hidratante</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>100</v>
+      </c>
+      <c r="D407" t="n">
+        <v>15</v>
+      </c>
+      <c r="E407" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Mascarilla de Arcilla</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>80</v>
+      </c>
+      <c r="D408" t="n">
+        <v>20</v>
+      </c>
+      <c r="E408" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Perfume Floral</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>120</v>
+      </c>
+      <c r="D409" t="n">
+        <v>25</v>
+      </c>
+      <c r="E409" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Paleta de Sombras</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>70</v>
+      </c>
+      <c r="D410" t="n">
+        <v>30</v>
+      </c>
+      <c r="E410" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Labial Mate</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>90</v>
+      </c>
+      <c r="D411" t="n">
+        <v>18</v>
+      </c>
+      <c r="E411" t="n">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Mascarilla de Pestañas</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>60</v>
+      </c>
+      <c r="D412" t="n">
+        <v>25</v>
+      </c>
+      <c r="E412" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Crema de Manos</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>110</v>
+      </c>
+      <c r="D413" t="n">
+        <v>12</v>
+      </c>
+      <c r="E413" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Loción Corporal de Vainilla</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>85</v>
+      </c>
+      <c r="D414" t="n">
+        <v>22</v>
+      </c>
+      <c r="E414" t="n">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Delineador de Ojos</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>75</v>
+      </c>
+      <c r="D415" t="n">
+        <v>10</v>
+      </c>
+      <c r="E415" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Aceite de Cutícula</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>95</v>
+      </c>
+      <c r="D416" t="n">
+        <v>8</v>
+      </c>
+      <c r="E416" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Esmalte de Uñas</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>105</v>
+      </c>
+      <c r="D417" t="n">
+        <v>5</v>
+      </c>
+      <c r="E417" t="n">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Cepillo Facial de Silicona</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>65</v>
+      </c>
+      <c r="D418" t="n">
+        <v>15</v>
+      </c>
+      <c r="E418" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Brillo Labial Transparente</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>85</v>
+      </c>
+      <c r="D419" t="n">
+        <v>10</v>
+      </c>
+      <c r="E419" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Tónico Facial Revitalizante</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>120</v>
+      </c>
+      <c r="D420" t="n">
+        <v>18</v>
+      </c>
+      <c r="E420" t="n">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Maquillaje en Polvo SPF 30</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>100</v>
+      </c>
+      <c r="D421" t="n">
+        <v>20</v>
+      </c>
+      <c r="E421" t="n">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E421"/>
+  <dimension ref="A1:E423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,1622 +941,1622 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45342</v>
+        <v>45438</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>jsjshs</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>345</v>
       </c>
       <c r="E27" t="n">
-        <v>210</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45398</v>
+        <v>45439</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>hshshs</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>25</v>
+        <v>345</v>
       </c>
       <c r="E28" t="n">
-        <v>375</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45166</v>
+        <v>45342</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D29" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45216</v>
+        <v>45398</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E30" t="n">
-        <v>45</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45017</v>
+        <v>45166</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.999999999999996</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E31" t="n">
-        <v>24.9999999999999</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45151</v>
+        <v>45216</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
-        <v>700</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45116</v>
+        <v>45017</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E33" t="n">
-        <v>225</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45281</v>
+        <v>45151</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D34" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E34" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45126</v>
+        <v>45116</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45073</v>
+        <v>45281</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.999999999999996</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E36" t="n">
-        <v>14.99999999999994</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45331</v>
+        <v>45126</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E37" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45323</v>
+        <v>45073</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D38" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>750</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45041</v>
+        <v>45331</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E39" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45141</v>
+        <v>45323</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E40" t="n">
-        <v>75</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45331</v>
+        <v>45041</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.999999999999996</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>49.9999999999998</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45179</v>
+        <v>45141</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E42" t="n">
-        <v>210</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45133</v>
+        <v>45331</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>15</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D43" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E43" t="n">
-        <v>375</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45376</v>
+        <v>45179</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45280</v>
+        <v>45133</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E45" t="n">
-        <v>45</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45238</v>
+        <v>45376</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.999999999999996</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E46" t="n">
-        <v>24.9999999999999</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44937</v>
+        <v>45280</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>700</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45363</v>
+        <v>45238</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E48" t="n">
-        <v>225</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45315</v>
+        <v>44937</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D49" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E49" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45100</v>
+        <v>45363</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44965</v>
+        <v>45315</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45232</v>
+        <v>45100</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E52" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44946</v>
+        <v>44965</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44983</v>
+        <v>45232</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E54" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45163</v>
+        <v>44946</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E55" t="n">
-        <v>24.9999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45399</v>
+        <v>44983</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D56" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45385</v>
+        <v>45163</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E57" t="n">
-        <v>60</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44971</v>
+        <v>45399</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E58" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45291</v>
+        <v>45385</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45027</v>
+        <v>44971</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E60" t="n">
-        <v>14.99999999999994</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44993</v>
+        <v>45291</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E61" t="n">
-        <v>25</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45097</v>
+        <v>45027</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D62" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>200</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45304</v>
+        <v>44993</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E63" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45388</v>
+        <v>45097</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E64" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44951</v>
+        <v>45304</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>49.9999999999998</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45301</v>
+        <v>45388</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D66" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E66" t="n">
-        <v>15</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45127</v>
+        <v>44951</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D67" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E67" t="n">
-        <v>100</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45350</v>
+        <v>45301</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45350</v>
+        <v>45127</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E69" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45055</v>
+        <v>45350</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E70" t="n">
-        <v>24.9999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45052</v>
+        <v>45350</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D71" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44967</v>
+        <v>45055</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D72" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E72" t="n">
-        <v>60</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45298</v>
+        <v>45052</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E73" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45120</v>
+        <v>44967</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45150</v>
+        <v>45298</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E75" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45078</v>
+        <v>45120</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D76" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E76" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44945</v>
+        <v>45150</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E77" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45341</v>
+        <v>45078</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E78" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45241</v>
+        <v>44945</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E79" t="n">
-        <v>24.9999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45391</v>
+        <v>45341</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D80" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E80" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44931</v>
+        <v>45241</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D81" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E81" t="n">
-        <v>60</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44996</v>
+        <v>45391</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E82" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45253</v>
+        <v>44931</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E83" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45312</v>
+        <v>44996</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E84" t="n">
-        <v>14.99999999999994</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45073</v>
+        <v>45253</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D85" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E85" t="n">
-        <v>25</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45132</v>
+        <v>45312</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D86" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E86" t="n">
-        <v>200</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45358</v>
+        <v>45073</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E87" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45056</v>
+        <v>45132</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E88" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45233</v>
+        <v>45358</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>49.9999999999998</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45001</v>
+        <v>45056</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D90" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E90" t="n">
-        <v>15</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45177</v>
+        <v>45233</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D91" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E91" t="n">
-        <v>100</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45389</v>
+        <v>45001</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E92" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44981</v>
+        <v>45177</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E93" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45087</v>
+        <v>45389</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E94" t="n">
-        <v>24.9999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45069</v>
+        <v>44981</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D95" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E95" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45189</v>
+        <v>45087</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D96" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E96" t="n">
-        <v>60</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45289</v>
+        <v>45069</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E97" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45145</v>
+        <v>45189</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E98" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45170</v>
+        <v>45289</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7.00000000000001</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E99" t="n">
-        <v>231.0000000000003</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45288</v>
+        <v>45145</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7.50909090909091</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
-        <v>33.1818181818182</v>
+        <v>50</v>
       </c>
       <c r="E100" t="n">
-        <v>249.1652892561985</v>
+        <v>450</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45358</v>
+        <v>45170</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8.018181818181819</v>
+        <v>7.00000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>33.3636363636364</v>
+        <v>33</v>
       </c>
       <c r="E101" t="n">
-        <v>267.5157024793392</v>
+        <v>231.0000000000003</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45187</v>
+        <v>45288</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>8.527272727272729</v>
+        <v>7.50909090909091</v>
       </c>
       <c r="D102" t="n">
-        <v>33.5454545454545</v>
+        <v>33.1818181818182</v>
       </c>
       <c r="E102" t="n">
-        <v>286.0512396694211</v>
+        <v>249.1652892561985</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45326</v>
+        <v>45358</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9.036363636363641</v>
+        <v>8.018181818181819</v>
       </c>
       <c r="D103" t="n">
-        <v>33.7272727272727</v>
+        <v>33.3636363636364</v>
       </c>
       <c r="E103" t="n">
-        <v>304.7719008264461</v>
+        <v>267.5157024793392</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45273</v>
+        <v>45187</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>9.54545454545455</v>
+        <v>8.527272727272729</v>
       </c>
       <c r="D104" t="n">
-        <v>33.9090909090909</v>
+        <v>33.5454545454545</v>
       </c>
       <c r="E104" t="n">
-        <v>323.6776859504133</v>
+        <v>286.0512396694211</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44934</v>
+        <v>45326</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>10.0545454545455</v>
+        <v>9.036363636363641</v>
       </c>
       <c r="D105" t="n">
-        <v>34.0909090909091</v>
+        <v>33.7272727272727</v>
       </c>
       <c r="E105" t="n">
-        <v>342.768595041324</v>
+        <v>304.7719008264461</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45280</v>
+        <v>45273</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>10.5636363636364</v>
+        <v>9.54545454545455</v>
       </c>
       <c r="D106" t="n">
-        <v>34.2727272727273</v>
+        <v>33.9090909090909</v>
       </c>
       <c r="E106" t="n">
-        <v>362.0446280991751</v>
+        <v>323.6776859504133</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45247</v>
+        <v>44934</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>11.0727272727273</v>
+        <v>10.0545454545455</v>
       </c>
       <c r="D107" t="n">
-        <v>34.4545454545455</v>
+        <v>34.0909090909091</v>
       </c>
       <c r="E107" t="n">
-        <v>381.5057851239685</v>
+        <v>342.768595041324</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45109</v>
+        <v>45280</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>11.5818181818182</v>
+        <v>10.5636363636364</v>
       </c>
       <c r="D108" t="n">
-        <v>34.6363636363636</v>
+        <v>34.2727272727273</v>
       </c>
       <c r="E108" t="n">
-        <v>401.1520661157027</v>
+        <v>362.0446280991751</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45160</v>
+        <v>45247</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>12.0909090909091</v>
+        <v>11.0727272727273</v>
       </c>
       <c r="D109" t="n">
-        <v>34.8181818181818</v>
+        <v>34.4545454545455</v>
       </c>
       <c r="E109" t="n">
-        <v>420.9834710743802</v>
+        <v>381.5057851239685</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45225</v>
+        <v>45109</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>12.6</v>
+        <v>11.5818181818182</v>
       </c>
       <c r="D110" t="n">
-        <v>35</v>
+        <v>34.6363636363636</v>
       </c>
       <c r="E110" t="n">
-        <v>441</v>
+        <v>401.1520661157027</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45188</v>
+        <v>45160</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>13.1090909090909</v>
+        <v>12.0909090909091</v>
       </c>
       <c r="D111" t="n">
-        <v>35.1818181818182</v>
+        <v>34.8181818181818</v>
       </c>
       <c r="E111" t="n">
-        <v>461.2016528925619</v>
+        <v>420.9834710743802</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45319</v>
+        <v>45225</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2564,18 +2564,18 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>12.6</v>
       </c>
       <c r="D112" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E112" t="n">
-        <v>15</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45218</v>
+        <v>45188</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2583,683 +2583,683 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>13.1090909090909</v>
       </c>
       <c r="D113" t="n">
-        <v>25</v>
+        <v>35.1818181818182</v>
       </c>
       <c r="E113" t="n">
-        <v>100</v>
+        <v>461.2016528925619</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45111</v>
+        <v>45319</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E114" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45180</v>
+        <v>45218</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D115" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E115" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45361</v>
+        <v>45111</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E116" t="n">
-        <v>24.9999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45285</v>
+        <v>45180</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D117" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E117" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44945</v>
+        <v>45361</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D118" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E118" t="n">
-        <v>60</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45346</v>
+        <v>45285</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E119" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44941</v>
+        <v>44945</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D120" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E120" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45112</v>
+        <v>45346</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E121" t="n">
-        <v>14.99999999999994</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45327</v>
+        <v>44941</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D122" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E122" t="n">
-        <v>25</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45267</v>
+        <v>45112</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D123" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E123" t="n">
-        <v>200</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45169</v>
+        <v>45327</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E124" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45058</v>
+        <v>45267</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D125" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E125" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45411</v>
+        <v>45169</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E126" t="n">
-        <v>49.9999999999998</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45115</v>
+        <v>45058</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D127" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E127" t="n">
-        <v>15</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45302</v>
+        <v>45411</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D128" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E128" t="n">
-        <v>100</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45134</v>
+        <v>45115</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E129" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45017</v>
+        <v>45302</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D130" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E130" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45047</v>
+        <v>45134</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E131" t="n">
-        <v>24.9999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45100</v>
+        <v>45017</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D132" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E132" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44981</v>
+        <v>45047</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D133" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E133" t="n">
-        <v>60</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45285</v>
+        <v>45100</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E134" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45092</v>
+        <v>44981</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D135" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E135" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45113</v>
+        <v>45285</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>7.00000000000001</v>
+        <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E136" t="n">
-        <v>231.0000000000003</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44959</v>
+        <v>45092</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>7.50909090909091</v>
+        <v>9</v>
       </c>
       <c r="D137" t="n">
-        <v>33.1818181818182</v>
+        <v>50</v>
       </c>
       <c r="E137" t="n">
-        <v>249.1652892561985</v>
+        <v>450</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45042</v>
+        <v>45113</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>8.018181818181819</v>
+        <v>7.00000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>33.3636363636364</v>
+        <v>33</v>
       </c>
       <c r="E138" t="n">
-        <v>267.5157024793392</v>
+        <v>231.0000000000003</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45210</v>
+        <v>44959</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>8.527272727272729</v>
+        <v>7.50909090909091</v>
       </c>
       <c r="D139" t="n">
-        <v>33.5454545454545</v>
+        <v>33.1818181818182</v>
       </c>
       <c r="E139" t="n">
-        <v>286.0512396694211</v>
+        <v>249.1652892561985</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45029</v>
+        <v>45042</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>9.036363636363641</v>
+        <v>8.018181818181819</v>
       </c>
       <c r="D140" t="n">
-        <v>33.7272727272727</v>
+        <v>33.3636363636364</v>
       </c>
       <c r="E140" t="n">
-        <v>304.7719008264461</v>
+        <v>267.5157024793392</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45180</v>
+        <v>45210</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>9.54545454545455</v>
+        <v>8.527272727272729</v>
       </c>
       <c r="D141" t="n">
-        <v>33.9090909090909</v>
+        <v>33.5454545454545</v>
       </c>
       <c r="E141" t="n">
-        <v>323.6776859504133</v>
+        <v>286.0512396694211</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45181</v>
+        <v>45029</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>10.0545454545455</v>
+        <v>9.036363636363641</v>
       </c>
       <c r="D142" t="n">
-        <v>34.0909090909091</v>
+        <v>33.7272727272727</v>
       </c>
       <c r="E142" t="n">
-        <v>342.768595041324</v>
+        <v>304.7719008264461</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44965</v>
+        <v>45180</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>10.5636363636364</v>
+        <v>9.54545454545455</v>
       </c>
       <c r="D143" t="n">
-        <v>34.2727272727273</v>
+        <v>33.9090909090909</v>
       </c>
       <c r="E143" t="n">
-        <v>362.0446280991751</v>
+        <v>323.6776859504133</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45271</v>
+        <v>45181</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>11.0727272727273</v>
+        <v>10.0545454545455</v>
       </c>
       <c r="D144" t="n">
-        <v>34.4545454545455</v>
+        <v>34.0909090909091</v>
       </c>
       <c r="E144" t="n">
-        <v>381.5057851239685</v>
+        <v>342.768595041324</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45173</v>
+        <v>44965</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>11.5818181818182</v>
+        <v>10.5636363636364</v>
       </c>
       <c r="D145" t="n">
-        <v>34.6363636363636</v>
+        <v>34.2727272727273</v>
       </c>
       <c r="E145" t="n">
-        <v>401.1520661157027</v>
+        <v>362.0446280991751</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44962</v>
+        <v>45271</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>12.0909090909091</v>
+        <v>11.0727272727273</v>
       </c>
       <c r="D146" t="n">
-        <v>34.8181818181818</v>
+        <v>34.4545454545455</v>
       </c>
       <c r="E146" t="n">
-        <v>420.9834710743802</v>
+        <v>381.5057851239685</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45087</v>
+        <v>45173</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>12.6</v>
+        <v>11.5818181818182</v>
       </c>
       <c r="D147" t="n">
-        <v>35</v>
+        <v>34.6363636363636</v>
       </c>
       <c r="E147" t="n">
-        <v>441</v>
+        <v>401.1520661157027</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45006</v>
+        <v>44962</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>13.1090909090909</v>
+        <v>12.0909090909091</v>
       </c>
       <c r="D148" t="n">
-        <v>35.1818181818182</v>
+        <v>34.8181818181818</v>
       </c>
       <c r="E148" t="n">
-        <v>461.2016528925619</v>
+        <v>420.9834710743802</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45054</v>
+        <v>45087</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -3267,18 +3267,18 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>12.6</v>
       </c>
       <c r="D149" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E149" t="n">
-        <v>15</v>
+        <v>441</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45068</v>
+        <v>45006</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -3286,683 +3286,683 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>4</v>
+        <v>13.1090909090909</v>
       </c>
       <c r="D150" t="n">
-        <v>25</v>
+        <v>35.1818181818182</v>
       </c>
       <c r="E150" t="n">
-        <v>100</v>
+        <v>461.2016528925619</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45299</v>
+        <v>45054</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E151" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44960</v>
+        <v>45068</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D152" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E152" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45102</v>
+        <v>45299</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E153" t="n">
-        <v>24.9999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45256</v>
+        <v>44960</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D154" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E154" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44948</v>
+        <v>45102</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D155" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E155" t="n">
-        <v>60</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45327</v>
+        <v>45256</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E156" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45398</v>
+        <v>44948</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D157" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E157" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45310</v>
+        <v>45327</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E158" t="n">
-        <v>14.99999999999994</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45150</v>
+        <v>45398</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D159" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E159" t="n">
-        <v>25</v>
+        <v>450</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45421</v>
+        <v>45310</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D160" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E160" t="n">
-        <v>200</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45375</v>
+        <v>45150</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E161" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44959</v>
+        <v>45421</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D162" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E162" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45169</v>
+        <v>45375</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E163" t="n">
-        <v>49.9999999999998</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44987</v>
+        <v>44959</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D164" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E164" t="n">
-        <v>15</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45082</v>
+        <v>45169</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D165" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E165" t="n">
-        <v>100</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45171</v>
+        <v>44987</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E166" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45301</v>
+        <v>45082</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D167" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E167" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45303</v>
+        <v>45171</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E168" t="n">
-        <v>24.9999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45138</v>
+        <v>45301</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D169" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E169" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45294</v>
+        <v>45303</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D170" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E170" t="n">
-        <v>60</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45269</v>
+        <v>45138</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E171" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44937</v>
+        <v>45294</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D172" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E172" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45159</v>
+        <v>45269</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>7.00000000000001</v>
+        <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E173" t="n">
-        <v>231.0000000000003</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45423</v>
+        <v>44937</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>7.50909090909091</v>
+        <v>9</v>
       </c>
       <c r="D174" t="n">
-        <v>33.1818181818182</v>
+        <v>50</v>
       </c>
       <c r="E174" t="n">
-        <v>249.1652892561985</v>
+        <v>450</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45058</v>
+        <v>45159</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>8.018181818181819</v>
+        <v>7.00000000000001</v>
       </c>
       <c r="D175" t="n">
-        <v>33.3636363636364</v>
+        <v>33</v>
       </c>
       <c r="E175" t="n">
-        <v>267.5157024793392</v>
+        <v>231.0000000000003</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45037</v>
+        <v>45423</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>8.527272727272729</v>
+        <v>7.50909090909091</v>
       </c>
       <c r="D176" t="n">
-        <v>33.5454545454545</v>
+        <v>33.1818181818182</v>
       </c>
       <c r="E176" t="n">
-        <v>286.0512396694211</v>
+        <v>249.1652892561985</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45134</v>
+        <v>45058</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>9.036363636363641</v>
+        <v>8.018181818181819</v>
       </c>
       <c r="D177" t="n">
-        <v>33.7272727272727</v>
+        <v>33.3636363636364</v>
       </c>
       <c r="E177" t="n">
-        <v>304.7719008264461</v>
+        <v>267.5157024793392</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44964</v>
+        <v>45037</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>9.54545454545455</v>
+        <v>8.527272727272729</v>
       </c>
       <c r="D178" t="n">
-        <v>33.9090909090909</v>
+        <v>33.5454545454545</v>
       </c>
       <c r="E178" t="n">
-        <v>323.6776859504133</v>
+        <v>286.0512396694211</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44985</v>
+        <v>45134</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>10.0545454545455</v>
+        <v>9.036363636363641</v>
       </c>
       <c r="D179" t="n">
-        <v>34.0909090909091</v>
+        <v>33.7272727272727</v>
       </c>
       <c r="E179" t="n">
-        <v>342.768595041324</v>
+        <v>304.7719008264461</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45411</v>
+        <v>44964</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>10.5636363636364</v>
+        <v>9.54545454545455</v>
       </c>
       <c r="D180" t="n">
-        <v>34.2727272727273</v>
+        <v>33.9090909090909</v>
       </c>
       <c r="E180" t="n">
-        <v>362.0446280991751</v>
+        <v>323.6776859504133</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45145</v>
+        <v>44985</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>11.0727272727273</v>
+        <v>10.0545454545455</v>
       </c>
       <c r="D181" t="n">
-        <v>34.4545454545455</v>
+        <v>34.0909090909091</v>
       </c>
       <c r="E181" t="n">
-        <v>381.5057851239685</v>
+        <v>342.768595041324</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45007</v>
+        <v>45411</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>11.5818181818182</v>
+        <v>10.5636363636364</v>
       </c>
       <c r="D182" t="n">
-        <v>34.6363636363636</v>
+        <v>34.2727272727273</v>
       </c>
       <c r="E182" t="n">
-        <v>401.1520661157027</v>
+        <v>362.0446280991751</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45418</v>
+        <v>45145</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>12.0909090909091</v>
+        <v>11.0727272727273</v>
       </c>
       <c r="D183" t="n">
-        <v>34.8181818181818</v>
+        <v>34.4545454545455</v>
       </c>
       <c r="E183" t="n">
-        <v>420.9834710743802</v>
+        <v>381.5057851239685</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44996</v>
+        <v>45007</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>12.6</v>
+        <v>11.5818181818182</v>
       </c>
       <c r="D184" t="n">
-        <v>35</v>
+        <v>34.6363636363636</v>
       </c>
       <c r="E184" t="n">
-        <v>441</v>
+        <v>401.1520661157027</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44968</v>
+        <v>45418</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>13.1090909090909</v>
+        <v>12.0909090909091</v>
       </c>
       <c r="D185" t="n">
-        <v>35.1818181818182</v>
+        <v>34.8181818181818</v>
       </c>
       <c r="E185" t="n">
-        <v>461.2016528925619</v>
+        <v>420.9834710743802</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45231</v>
+        <v>44996</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3970,18 +3970,18 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>12.6</v>
       </c>
       <c r="D186" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E186" t="n">
-        <v>15</v>
+        <v>441</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45232</v>
+        <v>44968</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3989,683 +3989,683 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>4</v>
+        <v>13.1090909090909</v>
       </c>
       <c r="D187" t="n">
-        <v>25</v>
+        <v>35.1818181818182</v>
       </c>
       <c r="E187" t="n">
-        <v>100</v>
+        <v>461.2016528925619</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45233</v>
+        <v>45231</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E188" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45234</v>
+        <v>45232</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D189" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E189" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45235</v>
+        <v>45233</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E190" t="n">
-        <v>24.9999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45236</v>
+        <v>45234</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D191" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E191" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45237</v>
+        <v>45235</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D192" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E192" t="n">
-        <v>60</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45238</v>
+        <v>45236</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E193" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45239</v>
+        <v>45237</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D194" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E194" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45240</v>
+        <v>45238</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E195" t="n">
-        <v>14.99999999999994</v>
+        <v>150</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45241</v>
+        <v>45239</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D196" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E196" t="n">
-        <v>25</v>
+        <v>450</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45242</v>
+        <v>45240</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D197" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E197" t="n">
-        <v>200</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45243</v>
+        <v>45241</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E198" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45244</v>
+        <v>45242</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D199" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E199" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45245</v>
+        <v>45243</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E200" t="n">
-        <v>49.9999999999998</v>
+        <v>90</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45246</v>
+        <v>45244</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D201" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E201" t="n">
-        <v>15</v>
+        <v>225</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D202" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E202" t="n">
-        <v>100</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45248</v>
+        <v>45246</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E203" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45249</v>
+        <v>45247</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D204" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E204" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45250</v>
+        <v>45248</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E205" t="n">
-        <v>24.9999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45251</v>
+        <v>45249</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D206" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E206" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45252</v>
+        <v>45250</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D207" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E207" t="n">
-        <v>60</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45253</v>
+        <v>45251</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E208" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45254</v>
+        <v>45252</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D209" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E209" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45255</v>
+        <v>45253</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>7.00000000000001</v>
+        <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E210" t="n">
-        <v>231.0000000000003</v>
+        <v>150</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45256</v>
+        <v>45254</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>7.50909090909091</v>
+        <v>9</v>
       </c>
       <c r="D211" t="n">
-        <v>33.1818181818182</v>
+        <v>50</v>
       </c>
       <c r="E211" t="n">
-        <v>249.1652892561985</v>
+        <v>450</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45257</v>
+        <v>45255</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>8.018181818181819</v>
+        <v>7.00000000000001</v>
       </c>
       <c r="D212" t="n">
-        <v>33.3636363636364</v>
+        <v>33</v>
       </c>
       <c r="E212" t="n">
-        <v>267.5157024793392</v>
+        <v>231.0000000000003</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45258</v>
+        <v>45256</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>8.527272727272729</v>
+        <v>7.50909090909091</v>
       </c>
       <c r="D213" t="n">
-        <v>33.5454545454545</v>
+        <v>33.1818181818182</v>
       </c>
       <c r="E213" t="n">
-        <v>286.0512396694211</v>
+        <v>249.1652892561985</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45259</v>
+        <v>45257</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>9.036363636363641</v>
+        <v>8.018181818181819</v>
       </c>
       <c r="D214" t="n">
-        <v>33.7272727272727</v>
+        <v>33.3636363636364</v>
       </c>
       <c r="E214" t="n">
-        <v>304.7719008264461</v>
+        <v>267.5157024793392</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45260</v>
+        <v>45258</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>9.54545454545455</v>
+        <v>8.527272727272729</v>
       </c>
       <c r="D215" t="n">
-        <v>33.9090909090909</v>
+        <v>33.5454545454545</v>
       </c>
       <c r="E215" t="n">
-        <v>323.6776859504133</v>
+        <v>286.0512396694211</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45247</v>
+        <v>45259</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>10.0545454545455</v>
+        <v>9.036363636363641</v>
       </c>
       <c r="D216" t="n">
-        <v>34.0909090909091</v>
+        <v>33.7272727272727</v>
       </c>
       <c r="E216" t="n">
-        <v>342.768595041324</v>
+        <v>304.7719008264461</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45242</v>
+        <v>45260</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>10.5636363636364</v>
+        <v>9.54545454545455</v>
       </c>
       <c r="D217" t="n">
-        <v>34.2727272727273</v>
+        <v>33.9090909090909</v>
       </c>
       <c r="E217" t="n">
-        <v>362.0446280991751</v>
+        <v>323.6776859504133</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45239</v>
+        <v>45247</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>11.0727272727273</v>
+        <v>10.0545454545455</v>
       </c>
       <c r="D218" t="n">
-        <v>34.4545454545455</v>
+        <v>34.0909090909091</v>
       </c>
       <c r="E218" t="n">
-        <v>381.5057851239685</v>
+        <v>342.768595041324</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45255</v>
+        <v>45242</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>11.5818181818182</v>
+        <v>10.5636363636364</v>
       </c>
       <c r="D219" t="n">
-        <v>34.6363636363636</v>
+        <v>34.2727272727273</v>
       </c>
       <c r="E219" t="n">
-        <v>401.1520661157027</v>
+        <v>362.0446280991751</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45234</v>
+        <v>45239</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>12.0909090909091</v>
+        <v>11.0727272727273</v>
       </c>
       <c r="D220" t="n">
-        <v>34.8181818181818</v>
+        <v>34.4545454545455</v>
       </c>
       <c r="E220" t="n">
-        <v>420.9834710743802</v>
+        <v>381.5057851239685</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45247</v>
+        <v>45255</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>12.6</v>
+        <v>11.5818181818182</v>
       </c>
       <c r="D221" t="n">
-        <v>35</v>
+        <v>34.6363636363636</v>
       </c>
       <c r="E221" t="n">
-        <v>441</v>
+        <v>401.1520661157027</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45256</v>
+        <v>45234</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>13.1090909090909</v>
+        <v>12.0909090909091</v>
       </c>
       <c r="D222" t="n">
-        <v>35.1818181818182</v>
+        <v>34.8181818181818</v>
       </c>
       <c r="E222" t="n">
-        <v>461.2016528925619</v>
+        <v>420.9834710743802</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -4673,18 +4673,18 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>12.6</v>
       </c>
       <c r="D223" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E223" t="n">
-        <v>15</v>
+        <v>441</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45250</v>
+        <v>45256</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -4692,683 +4692,683 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>4</v>
+        <v>13.1090909090909</v>
       </c>
       <c r="D224" t="n">
-        <v>25</v>
+        <v>35.1818181818182</v>
       </c>
       <c r="E224" t="n">
-        <v>100</v>
+        <v>461.2016528925619</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E225" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45245</v>
+        <v>45250</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D226" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E226" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45258</v>
+        <v>45244</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E227" t="n">
-        <v>24.9999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45257</v>
+        <v>45245</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D228" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E228" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45249</v>
+        <v>45258</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D229" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E229" t="n">
-        <v>60</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45235</v>
+        <v>45257</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E230" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45253</v>
+        <v>45249</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D231" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E231" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45260</v>
+        <v>45235</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D232" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E232" t="n">
-        <v>14.99999999999994</v>
+        <v>150</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45256</v>
+        <v>45253</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D233" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E233" t="n">
-        <v>25</v>
+        <v>450</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45235</v>
+        <v>45260</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D234" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E234" t="n">
-        <v>200</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45239</v>
+        <v>45256</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E235" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45237</v>
+        <v>45235</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D236" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E236" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E237" t="n">
-        <v>49.9999999999998</v>
+        <v>90</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45254</v>
+        <v>45237</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D238" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E238" t="n">
-        <v>15</v>
+        <v>225</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45243</v>
+        <v>45237</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D239" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E239" t="n">
-        <v>100</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45258</v>
+        <v>45254</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E240" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45255</v>
+        <v>45243</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D241" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E241" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45237</v>
+        <v>45258</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E242" t="n">
-        <v>24.9999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45254</v>
+        <v>45255</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D243" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E243" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45246</v>
+        <v>45237</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D244" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E244" t="n">
-        <v>60</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45259</v>
+        <v>45254</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E245" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45254</v>
+        <v>45246</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D246" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E246" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45254</v>
+        <v>45259</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>7.00000000000001</v>
+        <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E247" t="n">
-        <v>231.0000000000003</v>
+        <v>150</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45259</v>
+        <v>45254</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>7.50909090909091</v>
+        <v>9</v>
       </c>
       <c r="D248" t="n">
-        <v>33.1818181818182</v>
+        <v>50</v>
       </c>
       <c r="E248" t="n">
-        <v>249.1652892561985</v>
+        <v>450</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45233</v>
+        <v>45254</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>8.018181818181819</v>
+        <v>7.00000000000001</v>
       </c>
       <c r="D249" t="n">
-        <v>33.3636363636364</v>
+        <v>33</v>
       </c>
       <c r="E249" t="n">
-        <v>267.5157024793392</v>
+        <v>231.0000000000003</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45252</v>
+        <v>45259</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>8.527272727272729</v>
+        <v>7.50909090909091</v>
       </c>
       <c r="D250" t="n">
-        <v>33.5454545454545</v>
+        <v>33.1818181818182</v>
       </c>
       <c r="E250" t="n">
-        <v>286.0512396694211</v>
+        <v>249.1652892561985</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45237</v>
+        <v>45233</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>9.036363636363641</v>
+        <v>8.018181818181819</v>
       </c>
       <c r="D251" t="n">
-        <v>33.7272727272727</v>
+        <v>33.3636363636364</v>
       </c>
       <c r="E251" t="n">
-        <v>304.7719008264461</v>
+        <v>267.5157024793392</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45259</v>
+        <v>45252</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>9.54545454545455</v>
+        <v>8.527272727272729</v>
       </c>
       <c r="D252" t="n">
-        <v>33.9090909090909</v>
+        <v>33.5454545454545</v>
       </c>
       <c r="E252" t="n">
-        <v>323.6776859504133</v>
+        <v>286.0512396694211</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45232</v>
+        <v>45237</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>10.0545454545455</v>
+        <v>9.036363636363641</v>
       </c>
       <c r="D253" t="n">
-        <v>34.0909090909091</v>
+        <v>33.7272727272727</v>
       </c>
       <c r="E253" t="n">
-        <v>342.768595041324</v>
+        <v>304.7719008264461</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45241</v>
+        <v>45259</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>10.5636363636364</v>
+        <v>9.54545454545455</v>
       </c>
       <c r="D254" t="n">
-        <v>34.2727272727273</v>
+        <v>33.9090909090909</v>
       </c>
       <c r="E254" t="n">
-        <v>362.0446280991751</v>
+        <v>323.6776859504133</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45248</v>
+        <v>45232</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>11.0727272727273</v>
+        <v>10.0545454545455</v>
       </c>
       <c r="D255" t="n">
-        <v>34.4545454545455</v>
+        <v>34.0909090909091</v>
       </c>
       <c r="E255" t="n">
-        <v>381.5057851239685</v>
+        <v>342.768595041324</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45239</v>
+        <v>45241</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>11.5818181818182</v>
+        <v>10.5636363636364</v>
       </c>
       <c r="D256" t="n">
-        <v>34.6363636363636</v>
+        <v>34.2727272727273</v>
       </c>
       <c r="E256" t="n">
-        <v>401.1520661157027</v>
+        <v>362.0446280991751</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45237</v>
+        <v>45248</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>12.0909090909091</v>
+        <v>11.0727272727273</v>
       </c>
       <c r="D257" t="n">
-        <v>34.8181818181818</v>
+        <v>34.4545454545455</v>
       </c>
       <c r="E257" t="n">
-        <v>420.9834710743802</v>
+        <v>381.5057851239685</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45231</v>
+        <v>45239</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>12.6</v>
+        <v>11.5818181818182</v>
       </c>
       <c r="D258" t="n">
-        <v>35</v>
+        <v>34.6363636363636</v>
       </c>
       <c r="E258" t="n">
-        <v>441</v>
+        <v>401.1520661157027</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45257</v>
+        <v>45237</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>13.1090909090909</v>
+        <v>12.0909090909091</v>
       </c>
       <c r="D259" t="n">
-        <v>35.1818181818182</v>
+        <v>34.8181818181818</v>
       </c>
       <c r="E259" t="n">
-        <v>461.2016528925619</v>
+        <v>420.9834710743802</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45251</v>
+        <v>45231</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -5376,18 +5376,18 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>12.6</v>
       </c>
       <c r="D260" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E260" t="n">
-        <v>15</v>
+        <v>441</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45255</v>
+        <v>45257</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -5395,1378 +5395,1378 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>4</v>
+        <v>13.1090909090909</v>
       </c>
       <c r="D261" t="n">
-        <v>25</v>
+        <v>35.1818181818182</v>
       </c>
       <c r="E261" t="n">
-        <v>100</v>
+        <v>461.2016528925619</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45257</v>
+        <v>45251</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D262" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E262" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45233</v>
+        <v>45255</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D263" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E263" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45241</v>
+        <v>45257</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E264" t="n">
-        <v>24.9999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45255</v>
+        <v>45233</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D265" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E265" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45256</v>
+        <v>45241</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D266" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E266" t="n">
-        <v>60</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45237</v>
+        <v>45255</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D267" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E267" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45242</v>
+        <v>45256</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D268" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E268" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45235</v>
+        <v>45237</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E269" t="n">
-        <v>14.99999999999994</v>
+        <v>150</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45260</v>
+        <v>45242</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D270" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E270" t="n">
-        <v>25</v>
+        <v>450</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45236</v>
+        <v>45235</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D271" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E271" t="n">
-        <v>200</v>
+        <v>14.99999999999994</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45247</v>
+        <v>45260</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D272" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E272" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45241</v>
+        <v>45236</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D273" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E273" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45238</v>
+        <v>45247</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D274" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E274" t="n">
-        <v>49.9999999999998</v>
+        <v>90</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45243</v>
+        <v>45241</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D275" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E275" t="n">
-        <v>15</v>
+        <v>225</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45260</v>
+        <v>45238</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D276" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E276" t="n">
-        <v>100</v>
+        <v>49.9999999999998</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45241</v>
+        <v>45243</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D277" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E277" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45233</v>
+        <v>45260</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D278" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E278" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45259</v>
+        <v>45241</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.999999999999996</v>
+        <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E279" t="n">
-        <v>24.9999999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45245</v>
+        <v>45233</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D280" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E280" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45243</v>
+        <v>45259</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>4</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="D281" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E281" t="n">
-        <v>60</v>
+        <v>24.9999999999999</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45231</v>
+        <v>45245</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D282" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E282" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45255</v>
+        <v>45243</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D283" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E283" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45246</v>
+        <v>45231</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>7.00000000000001</v>
+        <v>6</v>
       </c>
       <c r="D284" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E284" t="n">
-        <v>231.0000000000003</v>
+        <v>150</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45242</v>
+        <v>45255</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>7.50909090909091</v>
+        <v>9</v>
       </c>
       <c r="D285" t="n">
-        <v>33.1818181818182</v>
+        <v>50</v>
       </c>
       <c r="E285" t="n">
-        <v>249.1652892561985</v>
+        <v>450</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45234</v>
+        <v>45246</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>8.018181818181819</v>
+        <v>7.00000000000001</v>
       </c>
       <c r="D286" t="n">
-        <v>33.3636363636364</v>
+        <v>33</v>
       </c>
       <c r="E286" t="n">
-        <v>267.5157024793392</v>
+        <v>231.0000000000003</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45247</v>
+        <v>45242</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>8.527272727272729</v>
+        <v>7.50909090909091</v>
       </c>
       <c r="D287" t="n">
-        <v>33.5454545454545</v>
+        <v>33.1818181818182</v>
       </c>
       <c r="E287" t="n">
-        <v>286.0512396694211</v>
+        <v>249.1652892561985</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45244</v>
+        <v>45234</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>9.036363636363641</v>
+        <v>8.018181818181819</v>
       </c>
       <c r="D288" t="n">
-        <v>33.7272727272727</v>
+        <v>33.3636363636364</v>
       </c>
       <c r="E288" t="n">
-        <v>304.7719008264461</v>
+        <v>267.5157024793392</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45239</v>
+        <v>45247</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>9.54545454545455</v>
+        <v>8.527272727272729</v>
       </c>
       <c r="D289" t="n">
-        <v>33.9090909090909</v>
+        <v>33.5454545454545</v>
       </c>
       <c r="E289" t="n">
-        <v>323.6776859504133</v>
+        <v>286.0512396694211</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45253</v>
+        <v>45244</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>10.0545454545455</v>
+        <v>9.036363636363641</v>
       </c>
       <c r="D290" t="n">
-        <v>34.0909090909091</v>
+        <v>33.7272727272727</v>
       </c>
       <c r="E290" t="n">
-        <v>342.768595041324</v>
+        <v>304.7719008264461</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45252</v>
+        <v>45239</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>10.5636363636364</v>
+        <v>9.54545454545455</v>
       </c>
       <c r="D291" t="n">
-        <v>34.2727272727273</v>
+        <v>33.9090909090909</v>
       </c>
       <c r="E291" t="n">
-        <v>362.0446280991751</v>
+        <v>323.6776859504133</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45254</v>
+        <v>45253</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>11.0727272727273</v>
+        <v>10.0545454545455</v>
       </c>
       <c r="D292" t="n">
-        <v>34.4545454545455</v>
+        <v>34.0909090909091</v>
       </c>
       <c r="E292" t="n">
-        <v>381.5057851239685</v>
+        <v>342.768595041324</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45246</v>
+        <v>45252</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>11.5818181818182</v>
+        <v>10.5636363636364</v>
       </c>
       <c r="D293" t="n">
-        <v>34.6363636363636</v>
+        <v>34.2727272727273</v>
       </c>
       <c r="E293" t="n">
-        <v>401.1520661157027</v>
+        <v>362.0446280991751</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45255</v>
+        <v>45254</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Zapatos</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>12.0909090909091</v>
+        <v>11.0727272727273</v>
       </c>
       <c r="D294" t="n">
-        <v>34.8181818181818</v>
+        <v>34.4545454545455</v>
       </c>
       <c r="E294" t="n">
-        <v>420.9834710743802</v>
+        <v>381.5057851239685</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45256</v>
+        <v>45246</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Camiseta</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>12.6</v>
+        <v>11.5818181818182</v>
       </c>
       <c r="D295" t="n">
-        <v>35</v>
+        <v>34.6363636363636</v>
       </c>
       <c r="E295" t="n">
-        <v>441</v>
+        <v>401.1520661157027</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45236</v>
+        <v>45255</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Pantalón</t>
+          <t>Zapatos</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>13.1090909090909</v>
+        <v>12.0909090909091</v>
       </c>
       <c r="D296" t="n">
-        <v>35.1818181818182</v>
+        <v>34.8181818181818</v>
       </c>
       <c r="E296" t="n">
-        <v>461.2016528925619</v>
+        <v>420.9834710743802</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45358</v>
+        <v>45256</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Chaqueta</t>
+          <t>Camiseta</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>60</v>
+        <v>12.6</v>
       </c>
       <c r="D297" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E297" t="n">
-        <v>300</v>
+        <v>441</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45344</v>
+        <v>45236</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Gorra</t>
+          <t>Pantalón</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>20</v>
+        <v>13.1090909090909</v>
       </c>
       <c r="D298" t="n">
-        <v>10</v>
+        <v>35.1818181818182</v>
       </c>
       <c r="E298" t="n">
-        <v>200</v>
+        <v>461.2016528925619</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45283</v>
+        <v>45358</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Bufanda</t>
+          <t>Chaqueta</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D299" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E299" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45400</v>
+        <v>45344</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Guantes</t>
+          <t>Gorra</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D300" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E300" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45123</v>
+        <v>45283</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Calcetines</t>
+          <t>Bufanda</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D301" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E301" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45179</v>
+        <v>45400</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Vestido</t>
+          <t>Guantes</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D302" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E302" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45342</v>
+        <v>45123</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Falda</t>
+          <t>Calcetines</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D303" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E303" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45199</v>
+        <v>45179</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Corbata</t>
+          <t>Vestido</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D304" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E304" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45101</v>
+        <v>45342</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Sudadera</t>
+          <t>Falda</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D305" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E305" t="n">
-        <v>315</v>
+        <v>180</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45314</v>
+        <v>45199</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Pantuflas</t>
+          <t>Corbata</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D306" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E306" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45035</v>
+        <v>45101</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Bolso</t>
+          <t>Sudadera</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D307" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E307" t="n">
-        <v>200</v>
+        <v>315</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45393</v>
+        <v>45314</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Sombrero</t>
+          <t>Pantuflas</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D308" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E308" t="n">
-        <v>162</v>
+        <v>200</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45414</v>
+        <v>45035</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Leggings</t>
+          <t>Bolso</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D309" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E309" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45418</v>
+        <v>45393</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Abrigo</t>
+          <t>Sombrero</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D310" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E310" t="n">
-        <v>200</v>
+        <v>162</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45356</v>
+        <v>45414</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Traje de baño</t>
+          <t>Leggings</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D311" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E311" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45306</v>
+        <v>45418</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Blusa</t>
+          <t>Abrigo</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D312" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E312" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45410</v>
+        <v>45356</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Pantalones cortos</t>
+          <t>Traje de baño</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D313" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E313" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45060</v>
+        <v>45306</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Sombrero de paja</t>
+          <t>Blusa</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D314" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E314" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45041</v>
+        <v>45410</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Chaqueta de cuero</t>
+          <t>Pantalones cortos</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D315" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E315" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45124</v>
+        <v>45060</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Mochila</t>
+          <t>Sombrero de paja</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D316" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E316" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45366</v>
+        <v>45041</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Bufanda de lana</t>
+          <t>Chaqueta de cuero</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="D317" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E317" t="n">
-        <v>216</v>
+        <v>360</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45410</v>
+        <v>45124</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Zapatos deportivos</t>
+          <t>Mochila</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D318" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E318" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44983</v>
+        <v>45366</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Camisa de vestir</t>
+          <t>Bufanda de lana</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D319" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E319" t="n">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45402</v>
+        <v>45410</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Falda larga</t>
+          <t>Zapatos deportivos</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D320" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E320" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45202</v>
+        <v>44983</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Calcetines de compresión</t>
+          <t>Camisa de vestir</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D321" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E321" t="n">
-        <v>160</v>
+        <v>315</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45352</v>
+        <v>45402</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Botas de montaña</t>
+          <t>Falda larga</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D322" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E322" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Bolso de mano</t>
+          <t>Calcetines de compresión</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D323" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E323" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45324</v>
+        <v>45352</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Gorro de lana</t>
+          <t>Botas de montaña</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D324" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E324" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45394</v>
+        <v>45192</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Leggings estampados</t>
+          <t>Bolso de mano</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D325" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E325" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45162</v>
+        <v>45324</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Chaleco</t>
+          <t>Gorro de lana</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D326" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E326" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44986</v>
+        <v>45394</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Camiseta sin mangas</t>
+          <t>Leggings estampados</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D327" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E327" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45134</v>
+        <v>45162</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Traje formal</t>
+          <t>Chaleco</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="D328" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E328" t="n">
-        <v>400</v>
+        <v>275</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>44939</v>
+        <v>44986</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Sandalias</t>
+          <t>Camiseta sin mangas</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D329" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E329" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45313</v>
+        <v>45134</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Jeans</t>
+          <t>Traje formal</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D330" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E330" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45184</v>
+        <v>44939</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Top deportivo</t>
+          <t>Sandalias</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D331" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E331" t="n">
-        <v>240</v>
+        <v>175</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45296</v>
+        <v>45313</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Abrigo de invierno</t>
+          <t>Jeans</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D332" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E332" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45147</v>
+        <v>45184</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Mallas</t>
+          <t>Top deportivo</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D333" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E333" t="n">
         <v>240</v>
@@ -6774,75 +6774,75 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45142</v>
+        <v>45296</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Blazer</t>
+          <t>Abrigo de invierno</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D334" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E334" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45321</v>
+        <v>45147</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Camiseta de tirantes</t>
+          <t>Mallas</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D335" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E335" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45414</v>
+        <v>45142</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Vestido formal</t>
+          <t>Blazer</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D336" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E336" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44969</v>
+        <v>45321</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Bufanda de seda</t>
+          <t>Camiseta de tirantes</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D337" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E337" t="n">
         <v>150</v>
@@ -6850,75 +6850,75 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45048</v>
+        <v>45414</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Pantalones de yoga</t>
+          <t>Vestido formal</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D338" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E338" t="n">
-        <v>315</v>
+        <v>400</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44978</v>
+        <v>44969</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Gorra de béisbol</t>
+          <t>Bufanda de seda</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D339" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E339" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45286</v>
+        <v>45048</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Zapatos de tacón</t>
+          <t>Pantalones de yoga</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D340" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E340" t="n">
-        <v>340</v>
+        <v>315</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45327</v>
+        <v>44978</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Gorra de béisbol</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D341" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E341" t="n">
         <v>200</v>
@@ -6926,360 +6926,360 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45306</v>
+        <v>45286</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Bufanda de algodón</t>
+          <t>Zapatos de tacón</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="D342" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E342" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45410</v>
+        <v>45327</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Guantes de cuero</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D343" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E343" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45060</v>
+        <v>45306</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Cinturón de cuero</t>
+          <t>Bufanda de algodón</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D344" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E344" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45041</v>
+        <v>45410</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Chaqueta de invierno</t>
+          <t>Guantes de cuero</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D345" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E345" t="n">
-        <v>320</v>
+        <v>180</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45124</v>
+        <v>45060</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Botines</t>
+          <t>Cinturón de cuero</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D346" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E346" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45366</v>
+        <v>45041</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Vestido casual</t>
+          <t>Chaqueta de invierno</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D347" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E347" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45410</v>
+        <v>45124</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Chaqueta de punto</t>
+          <t>Botines</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D348" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E348" t="n">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44983</v>
+        <v>45366</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Pañuelo de seda</t>
+          <t>Vestido casual</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D349" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E349" t="n">
-        <v>216</v>
+        <v>315</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45402</v>
+        <v>45410</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Camisa de manga corta</t>
+          <t>Chaqueta de punto</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D350" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E350" t="n">
-        <v>200</v>
+        <v>315</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45202</v>
+        <v>44983</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Sandalias de cuero</t>
+          <t>Pañuelo de seda</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D351" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E351" t="n">
-        <v>240</v>
+        <v>216</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45352</v>
+        <v>45402</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Pantalones de cuero</t>
+          <t>Camisa de manga corta</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D352" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E352" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Sombrero de fieltro</t>
+          <t>Sandalias de cuero</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D353" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E353" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45324</v>
+        <v>45352</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Botas altas</t>
+          <t>Pantalones de cuero</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D354" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E354" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45394</v>
+        <v>45192</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Poncho</t>
+          <t>Sombrero de fieltro</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D355" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E355" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45162</v>
+        <v>45324</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Chaqueta de mezclilla</t>
+          <t>Botas altas</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D356" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E356" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>44986</v>
+        <v>45394</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Camiseta de manga larga</t>
+          <t>Poncho</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D357" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E357" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45134</v>
+        <v>45162</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Traje de baile</t>
+          <t>Chaqueta de mezclilla</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D358" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E358" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>44939</v>
+        <v>44986</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Pashmina</t>
+          <t>Camiseta de manga larga</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D359" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E359" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45313</v>
+        <v>45134</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Falda plisada</t>
+          <t>Traje de baile</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D360" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E360" t="n">
         <v>240</v>
@@ -7287,1162 +7287,1200 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45184</v>
+        <v>44939</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Traje sastre</t>
+          <t>Pashmina</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="D361" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E361" t="n">
-        <v>540</v>
+        <v>175</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45296</v>
+        <v>45313</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Leggings de yoga</t>
+          <t>Falda plisada</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D362" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E362" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45147</v>
+        <v>45184</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Pantalones cortos de mezclilla</t>
+          <t>Traje sastre</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="D363" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E363" t="n">
-        <v>250</v>
+        <v>540</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45142</v>
+        <v>45296</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Camiseta básica</t>
+          <t>Leggings de yoga</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D364" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E364" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45321</v>
+        <v>45147</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Blusa sin hombros</t>
+          <t>Pantalones cortos de mezclilla</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D365" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E365" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45414</v>
+        <v>45142</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Chaqueta de lana</t>
+          <t>Camiseta básica</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D366" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E366" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>44969</v>
+        <v>45321</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Zapatos Oxford</t>
+          <t>Blusa sin hombros</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D367" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E367" t="n">
-        <v>385</v>
+        <v>200</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45048</v>
+        <v>45414</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Vestido de cóctel</t>
+          <t>Chaqueta de lana</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D368" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E368" t="n">
-        <v>420</v>
+        <v>260</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44978</v>
+        <v>44969</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Chaleco de lana</t>
+          <t>Zapatos Oxford</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D369" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E369" t="n">
-        <v>360</v>
+        <v>385</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45286</v>
+        <v>45048</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Sombrero de ala ancha</t>
+          <t>Vestido de cóctel</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D370" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E370" t="n">
-        <v>270</v>
+        <v>420</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45327</v>
+        <v>44978</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Sudadera con capucha</t>
+          <t>Chaleco de lana</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D371" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E371" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45453</v>
+        <v>45286</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Abrigo de Lana</t>
+          <t>Sombrero de ala ancha</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D372" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E372" t="n">
-        <v>2000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45127</v>
+        <v>45327</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Vestido de Noche</t>
+          <t>Sudadera con capucha</t>
         </is>
       </c>
       <c r="C373" t="n">
         <v>50</v>
       </c>
       <c r="D373" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E373" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45153</v>
+        <v>45453</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Pantalones de Cuero Negro</t>
+          <t>Abrigo de Lana</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D374" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E374" t="n">
-        <v>2450</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45563</v>
+        <v>45127</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Bufanda de Cachemira</t>
+          <t>Vestido de Noche</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D375" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E375" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45209</v>
+        <v>45153</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Sombrero de Fieltro</t>
+          <t>Pantalones de Cuero Negro</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D376" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E376" t="n">
-        <v>1170</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45235</v>
+        <v>45563</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Abrigo de Piel</t>
+          <t>Bufanda de Cachemira</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D377" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E377" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45275</v>
+        <v>45209</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Vestido de Gala</t>
+          <t>Sombrero de Fieltro</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D378" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E378" t="n">
-        <v>2475</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45311</v>
+        <v>45235</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Pantalones de Mezclilla</t>
+          <t>Abrigo de Piel</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D379" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E379" t="n">
-        <v>1875</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45350</v>
+        <v>45275</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Bufanda de Alpaca</t>
+          <t>Vestido de Gala</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D380" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E380" t="n">
-        <v>1275</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>44995</v>
+        <v>45311</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Sombrero de Pescador</t>
+          <t>Pantalones de Mezclilla</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D381" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E381" t="n">
-        <v>720</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45387</v>
+        <v>45350</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Abrigo Impermeable</t>
+          <t>Bufanda de Alpaca</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D382" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E382" t="n">
-        <v>2100</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45058</v>
+        <v>44995</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Vestido de Novia</t>
+          <t>Sombrero de Pescador</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D383" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E383" t="n">
-        <v>2250</v>
+        <v>720</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45092</v>
+        <v>45387</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Pantalones de Tela</t>
+          <t>Abrigo Impermeable</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D384" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E384" t="n">
-        <v>1300</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45495</v>
+        <v>45058</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Bufanda de Seda</t>
+          <t>Vestido de Novia</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D385" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E385" t="n">
-        <v>2375</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45168</v>
+        <v>45092</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Sombrero de Copa</t>
+          <t>Pantalones de Tela</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D386" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E386" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45540</v>
+        <v>45495</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Abrigo de Gamuza</t>
+          <t>Bufanda de Seda</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D387" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E387" t="n">
-        <v>1925</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45217</v>
+        <v>45168</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Vestido Casual</t>
+          <t>Sombrero de Copa</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D388" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E388" t="n">
-        <v>1440</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45250</v>
+        <v>45540</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Pantalones de Cuadros</t>
+          <t>Abrigo de Gamuza</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D389" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E389" t="n">
-        <v>1960</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45285</v>
+        <v>45217</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Bufanda de Punto</t>
+          <t>Vestido Casual</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D390" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E390" t="n">
-        <v>1000</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45294</v>
+        <v>45250</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Sombrero de Vaquero</t>
+          <t>Pantalones de Cuadros</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D391" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E391" t="n">
-        <v>900</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>44965</v>
+        <v>45285</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Abrigo de Plumas</t>
+          <t>Bufanda de Punto</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D392" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E392" t="n">
-        <v>2280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45369</v>
+        <v>45294</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Vestido Estampado</t>
+          <t>Sombrero de Vaquero</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D393" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E393" t="n">
-        <v>1650</v>
+        <v>900</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45026</v>
+        <v>44965</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Pantalones de Cuero Marrón</t>
+          <t>Abrigo de Plumas</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D394" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E394" t="n">
-        <v>2080</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45428</v>
+        <v>45369</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Bufanda de Lana Merino</t>
+          <t>Vestido Estampado</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D395" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E395" t="n">
-        <v>1620</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45102</v>
+        <v>45026</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Sombrero de Playa</t>
+          <t>Pantalones de Cuero Marrón</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D396" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E396" t="n">
-        <v>1050</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45503</v>
+        <v>45428</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Abrigo de Tweed</t>
+          <t>Bufanda de Lana Merino</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D397" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E397" t="n">
-        <v>2310</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45143</v>
+        <v>45102</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Vestido de Encaje</t>
+          <t>Sombrero de Playa</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D398" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E398" t="n">
-        <v>1820</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45191</v>
+        <v>45503</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Pantalones de Chándal</t>
+          <t>Abrigo de Tweed</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D399" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E399" t="n">
-        <v>1600</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45593</v>
+        <v>45143</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Bufanda de Mohair</t>
+          <t>Vestido de Encaje</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D400" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E400" t="n">
-        <v>2125</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45242</v>
+        <v>45191</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Sombrero de Copa Alta</t>
+          <t>Pantalones de Chándal</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D401" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E401" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45255</v>
+        <v>45593</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Abrigo de Cuero</t>
+          <t>Bufanda de Mohair</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D402" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E402" t="n">
-        <v>3000</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45270</v>
+        <v>45242</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Vestido de Fiesta</t>
+          <t>Sombrero de Copa Alta</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D403" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E403" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45306</v>
+        <v>45255</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Pantalones de Cuero</t>
+          <t>Abrigo de Cuero</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D404" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E404" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45342</v>
+        <v>45270</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Bufanda de Piel</t>
+          <t>Vestido de Fiesta</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D405" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E405" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>44990</v>
+        <v>45306</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Sombrero de Lana</t>
+          <t>Pantalones de Cuero</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D406" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E406" t="n">
-        <v>1375</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>5/20/2024</t>
-        </is>
+      <c r="A407" s="2" t="n">
+        <v>45342</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Crema Facial Hidratante</t>
+          <t>Bufanda de Piel</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D407" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E407" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45453</v>
+        <v>44990</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Mascarilla de Arcilla</t>
+          <t>Sombrero de Lana</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D408" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E408" t="n">
-        <v>1600</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="2" t="n">
-        <v>45488</v>
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>5/20/2024</t>
+        </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Perfume Floral</t>
+          <t>Crema Facial Hidratante</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D409" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E409" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45509</v>
+        <v>45453</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Paleta de Sombras</t>
+          <t>Mascarilla de Arcilla</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D410" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E410" t="n">
-        <v>2100</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45555</v>
+        <v>45488</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Labial Mate</t>
+          <t>Perfume Floral</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D411" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E411" t="n">
-        <v>1620</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45575</v>
+        <v>45509</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Mascarilla de Pestañas</t>
+          <t>Paleta de Sombras</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D412" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E412" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45611</v>
+        <v>45555</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Crema de Manos</t>
+          <t>Labial Mate</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D413" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E413" t="n">
-        <v>1320</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45646</v>
+        <v>45575</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Loción Corporal de Vainilla</t>
+          <t>Mascarilla de Pestañas</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D414" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E414" t="n">
-        <v>1870</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45667</v>
+        <v>45611</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Delineador de Ojos</t>
+          <t>Crema de Manos</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D415" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E415" t="n">
-        <v>750</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45713</v>
+        <v>45646</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Aceite de Cutícula</t>
+          <t>Loción Corporal de Vainilla</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D416" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E416" t="n">
-        <v>760</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45736</v>
+        <v>45667</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Esmalte de Uñas</t>
+          <t>Delineador de Ojos</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D417" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E417" t="n">
-        <v>525</v>
+        <v>750</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45752</v>
+        <v>45713</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Cepillo Facial de Silicona</t>
+          <t>Aceite de Cutícula</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D418" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E418" t="n">
-        <v>975</v>
+        <v>760</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45792</v>
+        <v>45736</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Brillo Labial Transparente</t>
+          <t>Esmalte de Uñas</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D419" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E419" t="n">
-        <v>850</v>
+        <v>525</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45818</v>
+        <v>45752</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tónico Facial Revitalizante</t>
+          <t>Cepillo Facial de Silicona</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D420" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E420" t="n">
-        <v>2160</v>
+        <v>975</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Brillo Labial Transparente</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>85</v>
+      </c>
+      <c r="D421" t="n">
+        <v>10</v>
+      </c>
+      <c r="E421" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Tónico Facial Revitalizante</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>120</v>
+      </c>
+      <c r="D422" t="n">
+        <v>18</v>
+      </c>
+      <c r="E422" t="n">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
         <v>45858</v>
       </c>
-      <c r="B421" t="inlineStr">
+      <c r="B423" t="inlineStr">
         <is>
           <t>Maquillaje en Polvo SPF 30</t>
         </is>
       </c>
-      <c r="C421" t="n">
+      <c r="C423" t="n">
         <v>100</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D423" t="n">
         <v>20</v>
       </c>
-      <c r="E421" t="n">
+      <c r="E423" t="n">
         <v>2000</v>
       </c>
     </row>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E423"/>
+  <dimension ref="A1:E433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8484,6 +8484,196 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Champú fortalecedor anticaída</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="D424" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E424" t="n">
+        <v>2542.5</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Acondicionador hidratante para cabello seco</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>113</v>
+      </c>
+      <c r="D425" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E425" t="n">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Aceite para barba y rostro</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="D426" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E426" t="n">
+        <v>3369.5</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Crema facial antiarrugas para hombres</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>122</v>
+      </c>
+      <c r="D427" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E427" t="n">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Gel de ducha refrescante</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="D428" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E428" t="n">
+        <v>4196.5</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Crema hidratante para manos y cuerpo</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>131</v>
+      </c>
+      <c r="D429" t="n">
+        <v>40</v>
+      </c>
+      <c r="E429" t="n">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Bálsamo after-shave calmante</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="D430" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E430" t="n">
+        <v>5023.5</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Serum reparador para puntas abiertas</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>140</v>
+      </c>
+      <c r="D431" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="E431" t="n">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Exfoliante facial revitalizante</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="D432" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E432" t="n">
+        <v>5850.5</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Crema para contorno de ojos anti-fatiga</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>149</v>
+      </c>
+      <c r="D433" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="E433" t="n">
+        <v>6264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E433"/>
+  <dimension ref="A1:E438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8674,6 +8674,101 @@
         <v>6264</v>
       </c>
     </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Enjuague bucal antibacteriano</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="D434" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E434" t="n">
+        <v>3369.5</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Hilo dental con sabor a menta</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>122</v>
+      </c>
+      <c r="D435" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="E435" t="n">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Pasta dental blanqueadora</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="D436" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E436" t="n">
+        <v>4196.5</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Cepillo de dientes eléctrico recargable</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>131</v>
+      </c>
+      <c r="D437" t="n">
+        <v>40</v>
+      </c>
+      <c r="E437" t="n">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Protector bucal para deportes de contacto</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="D438" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="E438" t="n">
+        <v>5023.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E438"/>
+  <dimension ref="A1:E448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8769,6 +8769,196 @@
         <v>5023.5</v>
       </c>
     </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Gotas Lubricantes para Ojos</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>90</v>
+      </c>
+      <c r="D439" t="n">
+        <v>12</v>
+      </c>
+      <c r="E439" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Gafas de Lectura</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>75</v>
+      </c>
+      <c r="D440" t="n">
+        <v>18</v>
+      </c>
+      <c r="E440" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Solución para Lentes de Contacto</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>110</v>
+      </c>
+      <c r="D441" t="n">
+        <v>15</v>
+      </c>
+      <c r="E441" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Limpiador de Lentes</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>80</v>
+      </c>
+      <c r="D442" t="n">
+        <v>10</v>
+      </c>
+      <c r="E442" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Lentes de Sol Polarizados</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>100</v>
+      </c>
+      <c r="D443" t="n">
+        <v>25</v>
+      </c>
+      <c r="E443" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Toallitas Limpiadoras para Lentes</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>70</v>
+      </c>
+      <c r="D444" t="n">
+        <v>8</v>
+      </c>
+      <c r="E444" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Estuche para Lentes de Contacto</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>85</v>
+      </c>
+      <c r="D445" t="n">
+        <v>5</v>
+      </c>
+      <c r="E445" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Antifaz para Dormir</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>95</v>
+      </c>
+      <c r="D446" t="n">
+        <v>7</v>
+      </c>
+      <c r="E446" t="n">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Suplemento Vitamínico para la Visión</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>120</v>
+      </c>
+      <c r="D447" t="n">
+        <v>20</v>
+      </c>
+      <c r="E447" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Antiparras de Natación con Corrección</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>80</v>
+      </c>
+      <c r="D448" t="n">
+        <v>30</v>
+      </c>
+      <c r="E448" t="n">
+        <v>2400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1501"/>
+  <dimension ref="A1:G1751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49970,6 +49970,8256 @@
         </is>
       </c>
     </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>03/26/2007</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>Gorro (M, Gris, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1502" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>$100.00</t>
+        </is>
+      </c>
+      <c r="F1502" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>03/20/2012</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>Sudadera (L, Roja, Under Armour)</t>
+        </is>
+      </c>
+      <c r="C1503" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1503" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1503" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>07/13/2022</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>Reloj (Único, Plata, Casio)</t>
+        </is>
+      </c>
+      <c r="C1504" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1504" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1504" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>03/17/2018</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>Mochila (M, Negra, North Face)</t>
+        </is>
+      </c>
+      <c r="C1505" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>80</v>
+      </c>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>$320.00</t>
+        </is>
+      </c>
+      <c r="F1505" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1505" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>03/11/2004</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>Gorra (Único, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1506" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>$105.00</t>
+        </is>
+      </c>
+      <c r="F1506" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1506" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>01/19/2023</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>Chaqueta (M, Negra, Columbia)</t>
+        </is>
+      </c>
+      <c r="C1507" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1507" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1507" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>07/28/2004</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>Calcetines (L, Blanco, Puma)</t>
+        </is>
+      </c>
+      <c r="C1508" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1508" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1508" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1508" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>06/09/2019</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>Bufanda (Única, Roja, Gucci)</t>
+        </is>
+      </c>
+      <c r="C1509" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1509" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1509" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>06/10/2011</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>Botas (43, Marrón, Dr. Martens)</t>
+        </is>
+      </c>
+      <c r="C1510" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1510" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1510" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1510" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>12/07/2005</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>Traje (M, Azul, Armani)</t>
+        </is>
+      </c>
+      <c r="C1511" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1511" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1511" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1511" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>02/27/2011</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>Vestido (L, Verde, Zara)</t>
+        </is>
+      </c>
+      <c r="C1512" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1512" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
+      </c>
+      <c r="F1512" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1512" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>02/08/2010</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>Sandalias (38, Negro, Birkenstock)</t>
+        </is>
+      </c>
+      <c r="C1513" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1513" t="inlineStr">
+        <is>
+          <t>$210.00</t>
+        </is>
+      </c>
+      <c r="F1513" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1513" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>05/18/2024</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>Gafas de Sol (Único, Negro, Ray-Ban)</t>
+        </is>
+      </c>
+      <c r="C1514" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1514" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1514" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1514" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>06/04/2011</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>Guantes (M, Negro, Reebok)</t>
+        </is>
+      </c>
+      <c r="C1515" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1515" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1515" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1515" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>06/24/2006</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>Corbata (Única, Roja, Hugo Boss)</t>
+        </is>
+      </c>
+      <c r="C1516" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1516" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1516" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1516" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>01/18/2011</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>Falda (S, Negra, H&amp;M)</t>
+        </is>
+      </c>
+      <c r="C1517" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1517" t="inlineStr">
+        <is>
+          <t>$140.00</t>
+        </is>
+      </c>
+      <c r="F1517" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1517" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>08/16/2013</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>Chaqueta (L, Verde, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1518" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1518" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1518" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1518" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>10/06/2011</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>Maleta (M, Azul, Samsonite)</t>
+        </is>
+      </c>
+      <c r="C1519" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1519" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1519" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1519" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>08/17/2012</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>Zapatos de Deporte (40, Blanco, New Balance)</t>
+        </is>
+      </c>
+      <c r="C1520" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>70</v>
+      </c>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>$350.00</t>
+        </is>
+      </c>
+      <c r="F1520" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1520" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>06/20/2024</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>Paraguas (Único, Negro, Totes)</t>
+        </is>
+      </c>
+      <c r="C1521" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1521" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>03/06/2017</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>Zapatos (41, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1522" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1522" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1522" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>12/03/2010</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>Camiseta (S, Negra, Adidas)</t>
+        </is>
+      </c>
+      <c r="C1523" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1523" t="inlineStr">
+        <is>
+          <t>$15.00</t>
+        </is>
+      </c>
+      <c r="F1523" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1523" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>06/07/2023</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>Camiseta (M, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1524" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>$60.00</t>
+        </is>
+      </c>
+      <c r="F1524" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1524" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>12/19/2012</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>Pantalón (L, Gris, Levi's)</t>
+        </is>
+      </c>
+      <c r="C1525" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1525" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1525" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>07/09/2008</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>Zapatos (42, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1526" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>$450.00</t>
+        </is>
+      </c>
+      <c r="F1526" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1526" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>03/05/2011</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>Gorro (M, Gris, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1527" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>$100.00</t>
+        </is>
+      </c>
+      <c r="F1527" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1527" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>04/08/2008</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>Sudadera (L, Roja, Under Armour)</t>
+        </is>
+      </c>
+      <c r="C1528" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1528" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1528" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>06/22/2024</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>Reloj (Único, Plata, Casio)</t>
+        </is>
+      </c>
+      <c r="C1529" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1529" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1529" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1529" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>03/06/2024</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>Mochila (M, Negra, North Face)</t>
+        </is>
+      </c>
+      <c r="C1530" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>80</v>
+      </c>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>$320.00</t>
+        </is>
+      </c>
+      <c r="F1530" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1530" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>02/01/2006</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>Gorra (Único, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1531" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>$105.00</t>
+        </is>
+      </c>
+      <c r="F1531" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1531" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>01/24/2018</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>Chaqueta (M, Negra, Columbia)</t>
+        </is>
+      </c>
+      <c r="C1532" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1532" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1532" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1532" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>01/08/2016</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>Calcetines (L, Blanco, Puma)</t>
+        </is>
+      </c>
+      <c r="C1533" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1533" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1533" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1533" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>08/19/2008</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>Bufanda (Única, Roja, Gucci)</t>
+        </is>
+      </c>
+      <c r="C1534" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1534" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1534" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>06/06/2019</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>Botas (43, Marrón, Dr. Martens)</t>
+        </is>
+      </c>
+      <c r="C1535" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1535" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1535" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1535" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>01/13/2014</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>Traje (M, Azul, Armani)</t>
+        </is>
+      </c>
+      <c r="C1536" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1536" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1536" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1536" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>01/21/2003</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>Vestido (L, Verde, Zara)</t>
+        </is>
+      </c>
+      <c r="C1537" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1537" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
+      </c>
+      <c r="F1537" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1537" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>03/24/2002</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>Sandalias (38, Negro, Birkenstock)</t>
+        </is>
+      </c>
+      <c r="C1538" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>$210.00</t>
+        </is>
+      </c>
+      <c r="F1538" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1538" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>04/27/2023</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>Gafas de Sol (Único, Negro, Ray-Ban)</t>
+        </is>
+      </c>
+      <c r="C1539" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1539" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1539" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1539" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>03/09/2009</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>Guantes (M, Negro, Reebok)</t>
+        </is>
+      </c>
+      <c r="C1540" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1540" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1540" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1540" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>12/27/2006</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>Corbata (Única, Roja, Hugo Boss)</t>
+        </is>
+      </c>
+      <c r="C1541" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1541" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1541" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1541" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>11/06/2021</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>Falda (S, Negra, H&amp;M)</t>
+        </is>
+      </c>
+      <c r="C1542" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1542" t="inlineStr">
+        <is>
+          <t>$140.00</t>
+        </is>
+      </c>
+      <c r="F1542" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1542" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>12/02/2021</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>Chaqueta (L, Verde, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1543" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1543" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1543" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>04/06/2014</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>Maleta (M, Azul, Samsonite)</t>
+        </is>
+      </c>
+      <c r="C1544" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1544" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1544" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1544" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>03/15/2020</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>Zapatos de Deporte (40, Blanco, New Balance)</t>
+        </is>
+      </c>
+      <c r="C1545" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>70</v>
+      </c>
+      <c r="E1545" t="inlineStr">
+        <is>
+          <t>$350.00</t>
+        </is>
+      </c>
+      <c r="F1545" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1545" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>03/24/2024</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>Paraguas (Único, Negro, Totes)</t>
+        </is>
+      </c>
+      <c r="C1546" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1546" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1546" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1546" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>07/25/2009</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>Zapatos (41, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1547" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1547" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1547" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1547" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>09/30/2010</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>Camiseta (S, Negra, Adidas)</t>
+        </is>
+      </c>
+      <c r="C1548" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1548" t="inlineStr">
+        <is>
+          <t>$15.00</t>
+        </is>
+      </c>
+      <c r="F1548" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1548" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>05/01/2009</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>Camiseta (M, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1549" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1549" t="inlineStr">
+        <is>
+          <t>$60.00</t>
+        </is>
+      </c>
+      <c r="F1549" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1549" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>02/27/2023</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>Pantalón (L, Gris, Levi's)</t>
+        </is>
+      </c>
+      <c r="C1550" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1550" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1550" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1550" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>03/12/2014</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>Zapatos (42, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1551" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1551" t="inlineStr">
+        <is>
+          <t>$450.00</t>
+        </is>
+      </c>
+      <c r="F1551" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1551" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>04/11/2008</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>Gorro (M, Gris, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1552" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1552" t="inlineStr">
+        <is>
+          <t>$100.00</t>
+        </is>
+      </c>
+      <c r="F1552" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1552" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>05/24/2017</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>Sudadera (L, Roja, Under Armour)</t>
+        </is>
+      </c>
+      <c r="C1553" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1553" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1553" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1553" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>12/17/2011</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>Reloj (Único, Plata, Casio)</t>
+        </is>
+      </c>
+      <c r="C1554" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1554" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1554" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1554" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>06/02/2015</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>Mochila (M, Negra, North Face)</t>
+        </is>
+      </c>
+      <c r="C1555" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>80</v>
+      </c>
+      <c r="E1555" t="inlineStr">
+        <is>
+          <t>$320.00</t>
+        </is>
+      </c>
+      <c r="F1555" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1555" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>01/10/2012</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>Gorra (Único, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1556" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>$105.00</t>
+        </is>
+      </c>
+      <c r="F1556" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1556" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>10/26/2019</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>Chaqueta (M, Negra, Columbia)</t>
+        </is>
+      </c>
+      <c r="C1557" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1557" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1557" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1557" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>02/02/2022</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>Calcetines (L, Blanco, Puma)</t>
+        </is>
+      </c>
+      <c r="C1558" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1558" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1558" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1558" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>11/10/2001</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>Bufanda (Única, Roja, Gucci)</t>
+        </is>
+      </c>
+      <c r="C1559" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1559" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1559" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1559" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>08/30/2013</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>Botas (43, Marrón, Dr. Martens)</t>
+        </is>
+      </c>
+      <c r="C1560" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1560" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1560" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1560" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>09/16/2004</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>Traje (M, Azul, Armani)</t>
+        </is>
+      </c>
+      <c r="C1561" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1561" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1561" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1561" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>05/31/2007</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>Vestido (L, Verde, Zara)</t>
+        </is>
+      </c>
+      <c r="C1562" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1562" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
+      </c>
+      <c r="F1562" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1562" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>03/19/2010</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>Sandalias (38, Negro, Birkenstock)</t>
+        </is>
+      </c>
+      <c r="C1563" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1563" t="inlineStr">
+        <is>
+          <t>$210.00</t>
+        </is>
+      </c>
+      <c r="F1563" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1563" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>04/11/2015</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>Gafas de Sol (Único, Negro, Ray-Ban)</t>
+        </is>
+      </c>
+      <c r="C1564" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1564" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1564" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>10/29/2023</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>Guantes (M, Negro, Reebok)</t>
+        </is>
+      </c>
+      <c r="C1565" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1565" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1565" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1565" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>06/10/2006</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>Corbata (Única, Roja, Hugo Boss)</t>
+        </is>
+      </c>
+      <c r="C1566" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1566" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>02/27/2010</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>Falda (S, Negra, H&amp;M)</t>
+        </is>
+      </c>
+      <c r="C1567" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>$140.00</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1567" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>05/01/2007</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>Chaqueta (L, Verde, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1568" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1568" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1568" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>08/22/2001</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>Maleta (M, Azul, Samsonite)</t>
+        </is>
+      </c>
+      <c r="C1569" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1569" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1569" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1569" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>09/02/2014</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>Zapatos de Deporte (40, Blanco, New Balance)</t>
+        </is>
+      </c>
+      <c r="C1570" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>70</v>
+      </c>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>$350.00</t>
+        </is>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1570" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>01/04/2002</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>Paraguas (Único, Negro, Totes)</t>
+        </is>
+      </c>
+      <c r="C1571" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1571" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1571" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1571" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>08/07/2007</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>Zapatos (41, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1572" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1572" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1572" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>05/20/2021</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>Camiseta (S, Negra, Adidas)</t>
+        </is>
+      </c>
+      <c r="C1573" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>$15.00</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1573" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>01/07/2006</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>Camiseta (M, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1574" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1574" t="inlineStr">
+        <is>
+          <t>$60.00</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1574" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>10/28/2014</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>Pantalón (L, Gris, Levi's)</t>
+        </is>
+      </c>
+      <c r="C1575" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1575" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1575" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1575" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>11/11/2017</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>Zapatos (42, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1576" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>$450.00</t>
+        </is>
+      </c>
+      <c r="F1576" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1576" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>04/18/2009</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>Gorro (M, Gris, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1577" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1577" t="inlineStr">
+        <is>
+          <t>$100.00</t>
+        </is>
+      </c>
+      <c r="F1577" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1577" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>11/12/2016</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>Sudadera (L, Roja, Under Armour)</t>
+        </is>
+      </c>
+      <c r="C1578" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1578" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1578" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>02/18/2004</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>Reloj (Único, Plata, Casio)</t>
+        </is>
+      </c>
+      <c r="C1579" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1579" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1579" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1579" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>02/14/2004</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>Mochila (M, Negra, North Face)</t>
+        </is>
+      </c>
+      <c r="C1580" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>80</v>
+      </c>
+      <c r="E1580" t="inlineStr">
+        <is>
+          <t>$320.00</t>
+        </is>
+      </c>
+      <c r="F1580" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1580" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>04/23/2021</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>Gorra (Único, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1581" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1581" t="inlineStr">
+        <is>
+          <t>$105.00</t>
+        </is>
+      </c>
+      <c r="F1581" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1581" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>09/11/2022</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>Chaqueta (M, Negra, Columbia)</t>
+        </is>
+      </c>
+      <c r="C1582" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1582" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1582" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1582" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>11/01/2017</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>Calcetines (L, Blanco, Puma)</t>
+        </is>
+      </c>
+      <c r="C1583" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1583" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1583" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1583" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>11/01/2010</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>Bufanda (Única, Roja, Gucci)</t>
+        </is>
+      </c>
+      <c r="C1584" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1584" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1584" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1584" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>05/02/2023</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>Botas (43, Marrón, Dr. Martens)</t>
+        </is>
+      </c>
+      <c r="C1585" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1585" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1585" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1585" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>11/03/2014</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>Traje (M, Azul, Armani)</t>
+        </is>
+      </c>
+      <c r="C1586" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1586" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1586" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1586" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>06/27/2003</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>Vestido (L, Verde, Zara)</t>
+        </is>
+      </c>
+      <c r="C1587" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1587" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
+      </c>
+      <c r="F1587" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1587" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>09/06/2001</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>Sandalias (38, Negro, Birkenstock)</t>
+        </is>
+      </c>
+      <c r="C1588" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1588" t="inlineStr">
+        <is>
+          <t>$210.00</t>
+        </is>
+      </c>
+      <c r="F1588" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1588" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>09/06/2020</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>Gafas de Sol (Único, Negro, Ray-Ban)</t>
+        </is>
+      </c>
+      <c r="C1589" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1589" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1589" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1589" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>11/23/2013</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>Guantes (M, Negro, Reebok)</t>
+        </is>
+      </c>
+      <c r="C1590" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1590" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1590" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>10/09/2004</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>Corbata (Única, Roja, Hugo Boss)</t>
+        </is>
+      </c>
+      <c r="C1591" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1591" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1591" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1591" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>02/24/2015</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>Falda (S, Negra, H&amp;M)</t>
+        </is>
+      </c>
+      <c r="C1592" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1592" t="inlineStr">
+        <is>
+          <t>$140.00</t>
+        </is>
+      </c>
+      <c r="F1592" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1592" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>09/26/2016</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>Chaqueta (L, Verde, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1593" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1593" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1593" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1593" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>10/21/2017</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>Maleta (M, Azul, Samsonite)</t>
+        </is>
+      </c>
+      <c r="C1594" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1594" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1594" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1594" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>06/06/2015</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>Zapatos de Deporte (40, Blanco, New Balance)</t>
+        </is>
+      </c>
+      <c r="C1595" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>70</v>
+      </c>
+      <c r="E1595" t="inlineStr">
+        <is>
+          <t>$350.00</t>
+        </is>
+      </c>
+      <c r="F1595" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1595" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>02/19/2016</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>Paraguas (Único, Negro, Totes)</t>
+        </is>
+      </c>
+      <c r="C1596" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1596" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1596" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1596" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>03/27/2017</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>Zapatos (41, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1597" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1597" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1597" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1597" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>01/09/2011</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>Camiseta (S, Negra, Adidas)</t>
+        </is>
+      </c>
+      <c r="C1598" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1598" t="inlineStr">
+        <is>
+          <t>$15.00</t>
+        </is>
+      </c>
+      <c r="F1598" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1598" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>08/12/2023</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>Camiseta (M, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1599" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1599" t="inlineStr">
+        <is>
+          <t>$60.00</t>
+        </is>
+      </c>
+      <c r="F1599" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1599" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>11/16/2020</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>Pantalón (L, Gris, Levi's)</t>
+        </is>
+      </c>
+      <c r="C1600" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1600" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1600" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>08/10/2016</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>Zapatos (42, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1601" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1601" t="inlineStr">
+        <is>
+          <t>$450.00</t>
+        </is>
+      </c>
+      <c r="F1601" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1601" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>05/11/2001</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>Gorro (M, Gris, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1602" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1602" t="inlineStr">
+        <is>
+          <t>$100.00</t>
+        </is>
+      </c>
+      <c r="F1602" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1602" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>04/02/2012</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>Sudadera (L, Roja, Under Armour)</t>
+        </is>
+      </c>
+      <c r="C1603" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1603" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1603" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>11/10/2022</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>Reloj (Único, Plata, Casio)</t>
+        </is>
+      </c>
+      <c r="C1604" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1604" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1604" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1604" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>07/11/2013</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>Mochila (M, Negra, North Face)</t>
+        </is>
+      </c>
+      <c r="C1605" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>80</v>
+      </c>
+      <c r="E1605" t="inlineStr">
+        <is>
+          <t>$320.00</t>
+        </is>
+      </c>
+      <c r="F1605" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1605" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>11/05/2017</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>Gorra (Único, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1606" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1606" t="inlineStr">
+        <is>
+          <t>$105.00</t>
+        </is>
+      </c>
+      <c r="F1606" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1606" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>06/23/2021</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>Chaqueta (M, Negra, Columbia)</t>
+        </is>
+      </c>
+      <c r="C1607" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1607" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1607" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1607" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>06/18/2014</t>
+        </is>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>Calcetines (L, Blanco, Puma)</t>
+        </is>
+      </c>
+      <c r="C1608" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1608" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1608" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1608" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>11/06/2021</t>
+        </is>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>Bufanda (Única, Roja, Gucci)</t>
+        </is>
+      </c>
+      <c r="C1609" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1609" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1609" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1609" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>05/26/2022</t>
+        </is>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>Botas (43, Marrón, Dr. Martens)</t>
+        </is>
+      </c>
+      <c r="C1610" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1610" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1610" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1610" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>08/24/2017</t>
+        </is>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>Traje (M, Azul, Armani)</t>
+        </is>
+      </c>
+      <c r="C1611" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1611" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1611" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1611" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>07/05/2017</t>
+        </is>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>Vestido (L, Verde, Zara)</t>
+        </is>
+      </c>
+      <c r="C1612" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1612" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
+      </c>
+      <c r="F1612" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1612" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>12/27/2006</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>Sandalias (38, Negro, Birkenstock)</t>
+        </is>
+      </c>
+      <c r="C1613" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1613" t="inlineStr">
+        <is>
+          <t>$210.00</t>
+        </is>
+      </c>
+      <c r="F1613" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1613" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>10/17/2021</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>Gafas de Sol (Único, Negro, Ray-Ban)</t>
+        </is>
+      </c>
+      <c r="C1614" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1614" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1614" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>10/22/2016</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>Guantes (M, Negro, Reebok)</t>
+        </is>
+      </c>
+      <c r="C1615" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1615" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1615" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1615" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>07/10/2013</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>Corbata (Única, Roja, Hugo Boss)</t>
+        </is>
+      </c>
+      <c r="C1616" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1616" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1616" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1616" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>05/02/2006</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>Falda (S, Negra, H&amp;M)</t>
+        </is>
+      </c>
+      <c r="C1617" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t>$140.00</t>
+        </is>
+      </c>
+      <c r="F1617" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1617" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>06/08/2013</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>Chaqueta (L, Verde, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1618" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1618" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1618" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>07/24/2006</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>Maleta (M, Azul, Samsonite)</t>
+        </is>
+      </c>
+      <c r="C1619" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>08/10/2013</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>Zapatos de Deporte (40, Blanco, New Balance)</t>
+        </is>
+      </c>
+      <c r="C1620" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>70</v>
+      </c>
+      <c r="E1620" t="inlineStr">
+        <is>
+          <t>$350.00</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1620" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>03/31/2006</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>Paraguas (Único, Negro, Totes)</t>
+        </is>
+      </c>
+      <c r="C1621" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1621" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1621" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>Zapatos (41, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1622" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1622" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1622" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>07/04/2019</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>Camiseta (S, Negra, Adidas)</t>
+        </is>
+      </c>
+      <c r="C1623" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t>$15.00</t>
+        </is>
+      </c>
+      <c r="F1623" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>03/26/2018</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>Camiseta (M, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1624" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>$60.00</t>
+        </is>
+      </c>
+      <c r="F1624" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1624" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>06/28/2003</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>Pantalón (L, Gris, Levi's)</t>
+        </is>
+      </c>
+      <c r="C1625" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1625" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>04/26/2024</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>Zapatos (42, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1626" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>$450.00</t>
+        </is>
+      </c>
+      <c r="F1626" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1626" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>01/05/2015</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>Gorro (M, Gris, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1627" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>$100.00</t>
+        </is>
+      </c>
+      <c r="F1627" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1627" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>06/11/2016</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>Sudadera (L, Roja, Under Armour)</t>
+        </is>
+      </c>
+      <c r="C1628" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1628" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>11/29/2010</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>Reloj (Único, Plata, Casio)</t>
+        </is>
+      </c>
+      <c r="C1629" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1629" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>09/29/2011</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>Mochila (M, Negra, North Face)</t>
+        </is>
+      </c>
+      <c r="C1630" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>80</v>
+      </c>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>$320.00</t>
+        </is>
+      </c>
+      <c r="F1630" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>02/12/2019</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>Gorra (Único, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1631" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>$105.00</t>
+        </is>
+      </c>
+      <c r="F1631" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1631" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>10/13/2013</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>Chaqueta (M, Negra, Columbia)</t>
+        </is>
+      </c>
+      <c r="C1632" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1632" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1632" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>05/09/2022</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>Calcetines (L, Blanco, Puma)</t>
+        </is>
+      </c>
+      <c r="C1633" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1633" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1633" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>07/06/2003</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>Bufanda (Única, Roja, Gucci)</t>
+        </is>
+      </c>
+      <c r="C1634" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1634" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>08/20/2009</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>Botas (43, Marrón, Dr. Martens)</t>
+        </is>
+      </c>
+      <c r="C1635" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1635" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1635" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>10/27/2006</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>Traje (M, Azul, Armani)</t>
+        </is>
+      </c>
+      <c r="C1636" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1636" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1636" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>04/21/2021</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>Vestido (L, Verde, Zara)</t>
+        </is>
+      </c>
+      <c r="C1637" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
+      </c>
+      <c r="F1637" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>08/07/2006</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>Sandalias (38, Negro, Birkenstock)</t>
+        </is>
+      </c>
+      <c r="C1638" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>$210.00</t>
+        </is>
+      </c>
+      <c r="F1638" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1638" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>02/07/2015</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>Gafas de Sol (Único, Negro, Ray-Ban)</t>
+        </is>
+      </c>
+      <c r="C1639" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1639" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>06/06/2022</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>Guantes (M, Negro, Reebok)</t>
+        </is>
+      </c>
+      <c r="C1640" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1640" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1640" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>10/10/2022</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>Corbata (Única, Roja, Hugo Boss)</t>
+        </is>
+      </c>
+      <c r="C1641" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1641" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>08/24/2007</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>Falda (S, Negra, H&amp;M)</t>
+        </is>
+      </c>
+      <c r="C1642" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>$140.00</t>
+        </is>
+      </c>
+      <c r="F1642" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>01/12/2020</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>Chaqueta (L, Verde, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1643" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1643" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>02/06/2016</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>Maleta (M, Azul, Samsonite)</t>
+        </is>
+      </c>
+      <c r="C1644" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1644" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>10/21/2013</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>Zapatos de Deporte (40, Blanco, New Balance)</t>
+        </is>
+      </c>
+      <c r="C1645" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>70</v>
+      </c>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>$350.00</t>
+        </is>
+      </c>
+      <c r="F1645" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1645" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>08/01/2006</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>Paraguas (Único, Negro, Totes)</t>
+        </is>
+      </c>
+      <c r="C1646" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1646" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1646" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>03/15/2016</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>Zapatos (41, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1647" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1647" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1647" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>12/02/2021</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>Camiseta (S, Negra, Adidas)</t>
+        </is>
+      </c>
+      <c r="C1648" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>$15.00</t>
+        </is>
+      </c>
+      <c r="F1648" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1648" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>02/27/2010</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>Camiseta (M, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1649" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>$60.00</t>
+        </is>
+      </c>
+      <c r="F1649" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1649" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>03/04/2004</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>Pantalón (L, Gris, Levi's)</t>
+        </is>
+      </c>
+      <c r="C1650" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1650" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1650" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>05/03/2007</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>Zapatos (42, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1651" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>$450.00</t>
+        </is>
+      </c>
+      <c r="F1651" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1651" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>12/02/2021</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>Gorro (M, Gris, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1652" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>$100.00</t>
+        </is>
+      </c>
+      <c r="F1652" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>03/13/2020</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>Sudadera (L, Roja, Under Armour)</t>
+        </is>
+      </c>
+      <c r="C1653" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1653" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>05/28/2016</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>Reloj (Único, Plata, Casio)</t>
+        </is>
+      </c>
+      <c r="C1654" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1654" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>01/20/2005</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>Mochila (M, Negra, North Face)</t>
+        </is>
+      </c>
+      <c r="C1655" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>80</v>
+      </c>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>$320.00</t>
+        </is>
+      </c>
+      <c r="F1655" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1655" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>03/07/2004</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>Gorra (Único, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1656" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>$105.00</t>
+        </is>
+      </c>
+      <c r="F1656" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1656" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>05/01/2009</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>Chaqueta (M, Negra, Columbia)</t>
+        </is>
+      </c>
+      <c r="C1657" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1657" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1657" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>12/25/2016</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>Calcetines (L, Blanco, Puma)</t>
+        </is>
+      </c>
+      <c r="C1658" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1658" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1658" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>07/04/2001</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>Bufanda (Única, Roja, Gucci)</t>
+        </is>
+      </c>
+      <c r="C1659" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1659" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1659" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>03/18/2010</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>Botas (43, Marrón, Dr. Martens)</t>
+        </is>
+      </c>
+      <c r="C1660" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1660" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1660" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>08/03/2009</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>Traje (M, Azul, Armani)</t>
+        </is>
+      </c>
+      <c r="C1661" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1661" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1661" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>04/25/2007</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>Vestido (L, Verde, Zara)</t>
+        </is>
+      </c>
+      <c r="C1662" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
+      </c>
+      <c r="F1662" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1662" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>12/29/2002</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>Sandalias (38, Negro, Birkenstock)</t>
+        </is>
+      </c>
+      <c r="C1663" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>$210.00</t>
+        </is>
+      </c>
+      <c r="F1663" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1663" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>07/27/2009</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>Gafas de Sol (Único, Negro, Ray-Ban)</t>
+        </is>
+      </c>
+      <c r="C1664" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1664" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1664" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1664" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>12/02/2015</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>Guantes (M, Negro, Reebok)</t>
+        </is>
+      </c>
+      <c r="C1665" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1665" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1665" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>09/26/2004</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>Corbata (Única, Roja, Hugo Boss)</t>
+        </is>
+      </c>
+      <c r="C1666" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1666" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1666" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>05/17/2005</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>Falda (S, Negra, H&amp;M)</t>
+        </is>
+      </c>
+      <c r="C1667" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1667" t="inlineStr">
+        <is>
+          <t>$140.00</t>
+        </is>
+      </c>
+      <c r="F1667" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1667" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>04/03/2012</t>
+        </is>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>Chaqueta (L, Verde, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1668" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1668" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1668" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>05/09/2006</t>
+        </is>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>Maleta (M, Azul, Samsonite)</t>
+        </is>
+      </c>
+      <c r="C1669" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1669" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1669" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1669" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>02/25/2006</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>Zapatos de Deporte (40, Blanco, New Balance)</t>
+        </is>
+      </c>
+      <c r="C1670" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>70</v>
+      </c>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>$350.00</t>
+        </is>
+      </c>
+      <c r="F1670" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1670" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>06/12/2010</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>Paraguas (Único, Negro, Totes)</t>
+        </is>
+      </c>
+      <c r="C1671" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1671" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1671" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>06/18/2022</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>Zapatos (41, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1672" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1672" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1672" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>11/10/2008</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>Camiseta (S, Negra, Adidas)</t>
+        </is>
+      </c>
+      <c r="C1673" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>$15.00</t>
+        </is>
+      </c>
+      <c r="F1673" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1673" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>10/31/2004</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>Camiseta (M, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1674" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>$60.00</t>
+        </is>
+      </c>
+      <c r="F1674" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1674" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>05/29/2010</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>Pantalón (L, Gris, Levi's)</t>
+        </is>
+      </c>
+      <c r="C1675" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1675" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1675" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1675" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>01/20/2024</t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>Zapatos (42, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1676" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1676" t="inlineStr">
+        <is>
+          <t>$450.00</t>
+        </is>
+      </c>
+      <c r="F1676" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1676" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>07/18/2003</t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>Gorro (M, Gris, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1677" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1677" t="inlineStr">
+        <is>
+          <t>$100.00</t>
+        </is>
+      </c>
+      <c r="F1677" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1677" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>06/13/2003</t>
+        </is>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>Sudadera (L, Roja, Under Armour)</t>
+        </is>
+      </c>
+      <c r="C1678" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1678" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1678" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>01/08/2015</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>Reloj (Único, Plata, Casio)</t>
+        </is>
+      </c>
+      <c r="C1679" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1679" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1679" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1679" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>05/26/2019</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>Mochila (M, Negra, North Face)</t>
+        </is>
+      </c>
+      <c r="C1680" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>80</v>
+      </c>
+      <c r="E1680" t="inlineStr">
+        <is>
+          <t>$320.00</t>
+        </is>
+      </c>
+      <c r="F1680" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1680" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>Gorra (Único, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1681" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1681" t="inlineStr">
+        <is>
+          <t>$105.00</t>
+        </is>
+      </c>
+      <c r="F1681" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1681" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>01/22/2021</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>Chaqueta (M, Negra, Columbia)</t>
+        </is>
+      </c>
+      <c r="C1682" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1682" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1682" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1682" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>12/03/2016</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>Calcetines (L, Blanco, Puma)</t>
+        </is>
+      </c>
+      <c r="C1683" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1683" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1683" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1683" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>12/20/2013</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>Bufanda (Única, Roja, Gucci)</t>
+        </is>
+      </c>
+      <c r="C1684" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1684" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1684" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1684" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>07/26/2010</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>Botas (43, Marrón, Dr. Martens)</t>
+        </is>
+      </c>
+      <c r="C1685" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1685" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1685" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1685" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>09/30/2009</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>Traje (M, Azul, Armani)</t>
+        </is>
+      </c>
+      <c r="C1686" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1686" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1686" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>01/06/2017</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>Vestido (L, Verde, Zara)</t>
+        </is>
+      </c>
+      <c r="C1687" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
+      </c>
+      <c r="F1687" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1687" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>06/15/2016</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>Sandalias (38, Negro, Birkenstock)</t>
+        </is>
+      </c>
+      <c r="C1688" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>$210.00</t>
+        </is>
+      </c>
+      <c r="F1688" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1688" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>02/08/2014</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>Gafas de Sol (Único, Negro, Ray-Ban)</t>
+        </is>
+      </c>
+      <c r="C1689" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1689" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1689" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1689" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>05/30/2021</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>Guantes (M, Negro, Reebok)</t>
+        </is>
+      </c>
+      <c r="C1690" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1690" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1690" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1690" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>10/17/2010</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>Corbata (Única, Roja, Hugo Boss)</t>
+        </is>
+      </c>
+      <c r="C1691" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1691" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1691" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1691" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>06/02/2003</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>Falda (S, Negra, H&amp;M)</t>
+        </is>
+      </c>
+      <c r="C1692" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1692" t="inlineStr">
+        <is>
+          <t>$140.00</t>
+        </is>
+      </c>
+      <c r="F1692" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1692" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>01/10/2008</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>Chaqueta (L, Verde, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1693" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1693" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1693" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1693" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>Maleta (M, Azul, Samsonite)</t>
+        </is>
+      </c>
+      <c r="C1694" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1694" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1694" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1694" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>01/27/2002</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>Zapatos de Deporte (40, Blanco, New Balance)</t>
+        </is>
+      </c>
+      <c r="C1695" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>70</v>
+      </c>
+      <c r="E1695" t="inlineStr">
+        <is>
+          <t>$350.00</t>
+        </is>
+      </c>
+      <c r="F1695" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1695" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>12/24/2005</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>Paraguas (Único, Negro, Totes)</t>
+        </is>
+      </c>
+      <c r="C1696" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1696" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1696" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1696" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>11/06/2010</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>Zapatos (41, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1697" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1697" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1697" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1697" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>11/20/2001</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>Camiseta (S, Negra, Adidas)</t>
+        </is>
+      </c>
+      <c r="C1698" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1698" t="inlineStr">
+        <is>
+          <t>$15.00</t>
+        </is>
+      </c>
+      <c r="F1698" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1698" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>07/16/2007</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>Camiseta (M, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1699" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1699" t="inlineStr">
+        <is>
+          <t>$60.00</t>
+        </is>
+      </c>
+      <c r="F1699" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1699" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>02/23/2010</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>Pantalón (L, Gris, Levi's)</t>
+        </is>
+      </c>
+      <c r="C1700" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1700" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1700" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1700" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>12/02/2004</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>Zapatos (42, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1701" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1701" t="inlineStr">
+        <is>
+          <t>$450.00</t>
+        </is>
+      </c>
+      <c r="F1701" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1701" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>07/15/2023</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>Gorro (M, Gris, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1702" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1702" t="inlineStr">
+        <is>
+          <t>$100.00</t>
+        </is>
+      </c>
+      <c r="F1702" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1702" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>12/10/2021</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>Sudadera (L, Roja, Under Armour)</t>
+        </is>
+      </c>
+      <c r="C1703" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1703" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1703" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1703" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>04/07/2020</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>Reloj (Único, Plata, Casio)</t>
+        </is>
+      </c>
+      <c r="C1704" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1704" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1704" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1704" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>11/24/2012</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>Mochila (M, Negra, North Face)</t>
+        </is>
+      </c>
+      <c r="C1705" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>80</v>
+      </c>
+      <c r="E1705" t="inlineStr">
+        <is>
+          <t>$320.00</t>
+        </is>
+      </c>
+      <c r="F1705" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1705" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>06/19/2012</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>Gorra (Único, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1706" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1706" t="inlineStr">
+        <is>
+          <t>$105.00</t>
+        </is>
+      </c>
+      <c r="F1706" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1706" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>02/09/2019</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>Chaqueta (M, Negra, Columbia)</t>
+        </is>
+      </c>
+      <c r="C1707" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1707" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1707" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1707" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>06/18/2019</t>
+        </is>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>Calcetines (L, Blanco, Puma)</t>
+        </is>
+      </c>
+      <c r="C1708" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1708" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1708" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1708" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>01/22/2015</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>Bufanda (Única, Roja, Gucci)</t>
+        </is>
+      </c>
+      <c r="C1709" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1709" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1709" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1709" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>12/22/2015</t>
+        </is>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>Botas (43, Marrón, Dr. Martens)</t>
+        </is>
+      </c>
+      <c r="C1710" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1710" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1710" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1710" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>05/17/2004</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>Traje (M, Azul, Armani)</t>
+        </is>
+      </c>
+      <c r="C1711" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1711" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1711" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1711" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>07/07/2011</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>Vestido (L, Verde, Zara)</t>
+        </is>
+      </c>
+      <c r="C1712" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1712" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
+      </c>
+      <c r="F1712" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1712" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>11/05/2001</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>Sandalias (38, Negro, Birkenstock)</t>
+        </is>
+      </c>
+      <c r="C1713" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1713" t="inlineStr">
+        <is>
+          <t>$210.00</t>
+        </is>
+      </c>
+      <c r="F1713" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1713" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>11/25/2005</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>Gafas de Sol (Único, Negro, Ray-Ban)</t>
+        </is>
+      </c>
+      <c r="C1714" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1714" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1714" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1714" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>10/25/2011</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>Guantes (M, Negro, Reebok)</t>
+        </is>
+      </c>
+      <c r="C1715" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1715" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1715" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1715" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>08/07/2012</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>Corbata (Única, Roja, Hugo Boss)</t>
+        </is>
+      </c>
+      <c r="C1716" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1716" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1716" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1716" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>08/19/2019</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>Falda (S, Negra, H&amp;M)</t>
+        </is>
+      </c>
+      <c r="C1717" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1717" t="inlineStr">
+        <is>
+          <t>$140.00</t>
+        </is>
+      </c>
+      <c r="F1717" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1717" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>05/30/2004</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>Chaqueta (L, Verde, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1718" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1718" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1718" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1718" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>09/17/2001</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>Maleta (M, Azul, Samsonite)</t>
+        </is>
+      </c>
+      <c r="C1719" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1719" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1719" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1719" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>04/25/2017</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>Zapatos de Deporte (40, Blanco, New Balance)</t>
+        </is>
+      </c>
+      <c r="C1720" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>70</v>
+      </c>
+      <c r="E1720" t="inlineStr">
+        <is>
+          <t>$350.00</t>
+        </is>
+      </c>
+      <c r="F1720" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1720" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>02/10/2018</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>Paraguas (Único, Negro, Totes)</t>
+        </is>
+      </c>
+      <c r="C1721" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1721" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1721" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1721" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>02/24/2008</t>
+        </is>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>Zapatos (41, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1722" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1722" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1722" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1722" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>08/28/2014</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>Camiseta (S, Negra, Adidas)</t>
+        </is>
+      </c>
+      <c r="C1723" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1723" t="inlineStr">
+        <is>
+          <t>$15.00</t>
+        </is>
+      </c>
+      <c r="F1723" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1723" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>08/01/2019</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>Camiseta (M, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1724" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1724" t="inlineStr">
+        <is>
+          <t>$60.00</t>
+        </is>
+      </c>
+      <c r="F1724" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1724" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>11/18/2010</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>Pantalón (L, Gris, Levi's)</t>
+        </is>
+      </c>
+      <c r="C1725" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1725" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1725" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1725" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>05/02/2021</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>Zapatos (42, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1726" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1726" t="inlineStr">
+        <is>
+          <t>$450.00</t>
+        </is>
+      </c>
+      <c r="F1726" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1726" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>07/26/2006</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>Gorro (M, Gris, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1727" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1727" t="inlineStr">
+        <is>
+          <t>$100.00</t>
+        </is>
+      </c>
+      <c r="F1727" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1727" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>07/21/2018</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>Sudadera (L, Roja, Under Armour)</t>
+        </is>
+      </c>
+      <c r="C1728" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1728" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1728" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1728" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>09/25/2014</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>Reloj (Único, Plata, Casio)</t>
+        </is>
+      </c>
+      <c r="C1729" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1729" t="inlineStr">
+        <is>
+          <t>$120.00</t>
+        </is>
+      </c>
+      <c r="F1729" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1729" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>11/13/2015</t>
+        </is>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>Mochila (M, Negra, North Face)</t>
+        </is>
+      </c>
+      <c r="C1730" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>80</v>
+      </c>
+      <c r="E1730" t="inlineStr">
+        <is>
+          <t>$320.00</t>
+        </is>
+      </c>
+      <c r="F1730" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1730" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>05/17/2004</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>Gorra (Único, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1731" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1731" t="inlineStr">
+        <is>
+          <t>$105.00</t>
+        </is>
+      </c>
+      <c r="F1731" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1731" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>06/21/2007</t>
+        </is>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>Chaqueta (M, Negra, Columbia)</t>
+        </is>
+      </c>
+      <c r="C1732" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1732" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1732" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1732" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>02/26/2012</t>
+        </is>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>Calcetines (L, Blanco, Puma)</t>
+        </is>
+      </c>
+      <c r="C1733" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1733" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1733" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1733" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>04/15/2019</t>
+        </is>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>Bufanda (Única, Roja, Gucci)</t>
+        </is>
+      </c>
+      <c r="C1734" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1734" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1734" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1734" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>06/05/2006</t>
+        </is>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>Botas (43, Marrón, Dr. Martens)</t>
+        </is>
+      </c>
+      <c r="C1735" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1735" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1735" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1735" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>11/28/2005</t>
+        </is>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>Traje (M, Azul, Armani)</t>
+        </is>
+      </c>
+      <c r="C1736" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1736" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1736" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1736" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>03/23/2009</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>Vestido (L, Verde, Zara)</t>
+        </is>
+      </c>
+      <c r="C1737" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1737" t="inlineStr">
+        <is>
+          <t>$90.00</t>
+        </is>
+      </c>
+      <c r="F1737" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1737" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>01/10/2011</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>Sandalias (38, Negro, Birkenstock)</t>
+        </is>
+      </c>
+      <c r="C1738" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1738" t="inlineStr">
+        <is>
+          <t>$210.00</t>
+        </is>
+      </c>
+      <c r="F1738" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1738" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>03/11/2007</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>Gafas de Sol (Único, Negro, Ray-Ban)</t>
+        </is>
+      </c>
+      <c r="C1739" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1739" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="F1739" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1739" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>12/24/2018</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>Guantes (M, Negro, Reebok)</t>
+        </is>
+      </c>
+      <c r="C1740" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1740" t="inlineStr">
+        <is>
+          <t>$200.00</t>
+        </is>
+      </c>
+      <c r="F1740" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1740" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>04/14/2011</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>Corbata (Única, Roja, Hugo Boss)</t>
+        </is>
+      </c>
+      <c r="C1741" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1741" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1741" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1741" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>04/29/2006</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>Falda (S, Negra, H&amp;M)</t>
+        </is>
+      </c>
+      <c r="C1742" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1742" t="inlineStr">
+        <is>
+          <t>$140.00</t>
+        </is>
+      </c>
+      <c r="F1742" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1742" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>Chaqueta (L, Verde, Patagonia)</t>
+        </is>
+      </c>
+      <c r="C1743" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1743" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1743" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1743" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>03/26/2007</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>Maleta (M, Azul, Samsonite)</t>
+        </is>
+      </c>
+      <c r="C1744" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1744" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="F1744" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1744" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>08/13/2013</t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>Zapatos de Deporte (40, Blanco, New Balance)</t>
+        </is>
+      </c>
+      <c r="C1745" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>70</v>
+      </c>
+      <c r="E1745" t="inlineStr">
+        <is>
+          <t>$350.00</t>
+        </is>
+      </c>
+      <c r="F1745" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1745" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>08/31/2021</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>Paraguas (Único, Negro, Totes)</t>
+        </is>
+      </c>
+      <c r="C1746" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1746" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1746" t="inlineStr">
+        <is>
+          <t>Accesorios</t>
+        </is>
+      </c>
+      <c r="G1746" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>02/20/2007</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>Zapatos (41, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1747" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1747" t="inlineStr">
+        <is>
+          <t>$50.00</t>
+        </is>
+      </c>
+      <c r="F1747" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1747" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>04/14/2019</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>Camiseta (S, Negra, Adidas)</t>
+        </is>
+      </c>
+      <c r="C1748" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1748" t="inlineStr">
+        <is>
+          <t>$15.00</t>
+        </is>
+      </c>
+      <c r="F1748" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1748" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>11/09/2021</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>Camiseta (M, Azul, Nike)</t>
+        </is>
+      </c>
+      <c r="C1749" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1749" t="inlineStr">
+        <is>
+          <t>$60.00</t>
+        </is>
+      </c>
+      <c r="F1749" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1749" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>05/07/2024</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>Pantalón (L, Gris, Levi's)</t>
+        </is>
+      </c>
+      <c r="C1750" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1750" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+      <c r="F1750" t="inlineStr">
+        <is>
+          <t>Ropa</t>
+        </is>
+      </c>
+      <c r="G1750" t="inlineStr">
+        <is>
+          <t>Este</t>
+        </is>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>04/07/2024</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>Zapatos (42, Negro, Nike)</t>
+        </is>
+      </c>
+      <c r="C1751" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1751" t="inlineStr">
+        <is>
+          <t>$450.00</t>
+        </is>
+      </c>
+      <c r="F1751" t="inlineStr">
+        <is>
+          <t>Calzado</t>
+        </is>
+      </c>
+      <c r="G1751" t="inlineStr">
+        <is>
+          <t>Norte</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/consolidado.xlsx
+++ b/consolidado.xlsx
@@ -49973,7 +49973,7 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>03/26/2007</t>
+          <t>12/21/2017</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -49982,7 +49982,7 @@
         </is>
       </c>
       <c r="C1502" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1502" t="n">
         <v>20</v>
@@ -50006,7 +50006,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>03/20/2012</t>
+          <t>04/22/2002</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -50015,7 +50015,7 @@
         </is>
       </c>
       <c r="C1503" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1503" t="n">
         <v>40</v>
@@ -50039,7 +50039,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>07/13/2022</t>
+          <t>11/30/2014</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -50048,7 +50048,7 @@
         </is>
       </c>
       <c r="C1504" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1504" t="n">
         <v>60</v>
@@ -50072,7 +50072,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>03/17/2018</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -50081,7 +50081,7 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D1505" t="n">
         <v>80</v>
@@ -50105,7 +50105,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>03/11/2004</t>
+          <t>07/28/2018</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -50138,7 +50138,7 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>01/19/2023</t>
+          <t>09/03/2010</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -50147,7 +50147,7 @@
         </is>
       </c>
       <c r="C1507" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1507" t="n">
         <v>100</v>
@@ -50171,7 +50171,7 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>07/28/2004</t>
+          <t>05/19/2003</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
@@ -50180,7 +50180,7 @@
         </is>
       </c>
       <c r="C1508" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1508" t="n">
         <v>5</v>
@@ -50204,7 +50204,7 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>06/09/2019</t>
+          <t>04/16/2001</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
@@ -50213,7 +50213,7 @@
         </is>
       </c>
       <c r="C1509" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1509" t="n">
         <v>150</v>
@@ -50237,7 +50237,7 @@
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>06/10/2011</t>
+          <t>04/04/2019</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
@@ -50246,7 +50246,7 @@
         </is>
       </c>
       <c r="C1510" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1510" t="n">
         <v>120</v>
@@ -50270,7 +50270,7 @@
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>12/07/2005</t>
+          <t>11/29/2002</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
@@ -50279,7 +50279,7 @@
         </is>
       </c>
       <c r="C1511" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1511" t="n">
         <v>300</v>
@@ -50303,7 +50303,7 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>02/27/2011</t>
+          <t>10/18/2018</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
@@ -50312,7 +50312,7 @@
         </is>
       </c>
       <c r="C1512" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1512" t="n">
         <v>45</v>
@@ -50336,7 +50336,7 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>09/02/2009</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
@@ -50345,7 +50345,7 @@
         </is>
       </c>
       <c r="C1513" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1513" t="n">
         <v>35</v>
@@ -50369,7 +50369,7 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>05/18/2024</t>
+          <t>04/06/2023</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
@@ -50378,7 +50378,7 @@
         </is>
       </c>
       <c r="C1514" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D1514" t="n">
         <v>120</v>
@@ -50402,7 +50402,7 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>06/04/2011</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
@@ -50411,7 +50411,7 @@
         </is>
       </c>
       <c r="C1515" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D1515" t="n">
         <v>25</v>
@@ -50435,7 +50435,7 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>06/24/2006</t>
+          <t>08/07/2002</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
@@ -50444,7 +50444,7 @@
         </is>
       </c>
       <c r="C1516" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1516" t="n">
         <v>30</v>
@@ -50468,7 +50468,7 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>01/18/2011</t>
+          <t>08/08/2007</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
@@ -50477,7 +50477,7 @@
         </is>
       </c>
       <c r="C1517" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1517" t="n">
         <v>35</v>
@@ -50501,7 +50501,7 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>08/16/2013</t>
+          <t>10/08/2021</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
@@ -50510,7 +50510,7 @@
         </is>
       </c>
       <c r="C1518" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1518" t="n">
         <v>150</v>
@@ -50534,7 +50534,7 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>10/06/2011</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
@@ -50543,7 +50543,7 @@
         </is>
       </c>
       <c r="C1519" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1519" t="n">
         <v>100</v>
@@ -50567,7 +50567,7 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>08/17/2012</t>
+          <t>06/09/2016</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
@@ -50576,7 +50576,7 @@
         </is>
       </c>
       <c r="C1520" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1520" t="n">
         <v>70</v>
@@ -50600,7 +50600,7 @@
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>06/20/2024</t>
+          <t>10/20/2010</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
@@ -50633,7 +50633,7 @@
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>03/06/2017</t>
+          <t>02/02/2014</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
@@ -50666,7 +50666,7 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>12/03/2010</t>
+          <t>06/06/2010</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
@@ -50675,7 +50675,7 @@
         </is>
       </c>
       <c r="C1523" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1523" t="n">
         <v>15</v>
@@ -50699,7 +50699,7 @@
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>06/07/2023</t>
+          <t>09/12/2006</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
@@ -50732,7 +50732,7 @@
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>12/19/2012</t>
+          <t>04/25/2023</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
@@ -50741,7 +50741,7 @@
         </is>
       </c>
       <c r="C1525" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1525" t="n">
         <v>25</v>
@@ -50765,7 +50765,7 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>07/09/2008</t>
+          <t>08/31/2003</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
@@ -50774,7 +50774,7 @@
         </is>
       </c>
       <c r="C1526" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1526" t="n">
         <v>50</v>
@@ -50798,7 +50798,7 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>03/05/2011</t>
+          <t>11/02/2014</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="C1527" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1527" t="n">
         <v>20</v>
@@ -50831,7 +50831,7 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>04/08/2008</t>
+          <t>10/26/2008</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
@@ -50840,7 +50840,7 @@
         </is>
       </c>
       <c r="C1528" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1528" t="n">
         <v>40</v>
@@ -50864,7 +50864,7 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>06/22/2024</t>
+          <t>09/21/2005</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
@@ -50873,7 +50873,7 @@
         </is>
       </c>
       <c r="C1529" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1529" t="n">
         <v>60</v>
@@ -50897,7 +50897,7 @@
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>03/06/2024</t>
+          <t>12/28/2022</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
@@ -50930,7 +50930,7 @@
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>02/01/2006</t>
+          <t>07/28/2012</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
@@ -50939,7 +50939,7 @@
         </is>
       </c>
       <c r="C1531" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1531" t="n">
         <v>15</v>
@@ -50963,7 +50963,7 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>01/24/2018</t>
+          <t>09/05/2003</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
@@ -50972,7 +50972,7 @@
         </is>
       </c>
       <c r="C1532" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1532" t="n">
         <v>100</v>
@@ -50996,7 +50996,7 @@
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>02/27/2008</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
@@ -51005,7 +51005,7 @@
         </is>
       </c>
       <c r="C1533" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1533" t="n">
         <v>5</v>
@@ -51029,7 +51029,7 @@
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>08/19/2008</t>
+          <t>05/16/2006</t>
         </is>
       </c>
       <c r="B1534" t="inlineStr">
@@ -51038,7 +51038,7 @@
         </is>
       </c>
       <c r="C1534" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1534" t="n">
         <v>150</v>
@@ -51062,7 +51062,7 @@
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>06/06/2019</t>
+          <t>06/02/2011</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
@@ -51071,7 +51071,7 @@
         </is>
       </c>
       <c r="C1535" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1535" t="n">
         <v>120</v>
@@ -51095,7 +51095,7 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>01/13/2014</t>
+          <t>11/20/2016</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
@@ -51104,7 +51104,7 @@
         </is>
       </c>
       <c r="C1536" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D1536" t="n">
         <v>300</v>
@@ -51128,7 +51128,7 @@
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>01/21/2003</t>
+          <t>06/30/2015</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
@@ -51137,7 +51137,7 @@
         </is>
       </c>
       <c r="C1537" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D1537" t="n">
         <v>45</v>
@@ -51161,7 +51161,7 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>03/24/2002</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
@@ -51170,7 +51170,7 @@
         </is>
       </c>
       <c r="C1538" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1538" t="n">
         <v>35</v>
@@ -51194,7 +51194,7 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>04/27/2023</t>
+          <t>10/31/2007</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
@@ -51203,7 +51203,7 @@
         </is>
       </c>
       <c r="C1539" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1539" t="n">
         <v>120</v>
@@ -51227,7 +51227,7 @@
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>03/09/2009</t>
+          <t>04/25/2010</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
@@ -51236,7 +51236,7 @@
         </is>
       </c>
       <c r="C1540" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1540" t="n">
         <v>25</v>
@@ -51260,7 +51260,7 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>12/27/2006</t>
+          <t>04/14/2021</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
@@ -51293,7 +51293,7 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>11/06/2021</t>
+          <t>12/09/2019</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
@@ -51302,7 +51302,7 @@
         </is>
       </c>
       <c r="C1542" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1542" t="n">
         <v>35</v>
@@ -51326,7 +51326,7 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>12/02/2021</t>
+          <t>06/19/2001</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
@@ -51335,7 +51335,7 @@
         </is>
       </c>
       <c r="C1543" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1543" t="n">
         <v>150</v>
@@ -51359,7 +51359,7 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>04/06/2014</t>
+          <t>05/21/2015</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
@@ -51392,7 +51392,7 @@
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>03/15/2020</t>
+          <t>02/13/2005</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
@@ -51401,7 +51401,7 @@
         </is>
       </c>
       <c r="C1545" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1545" t="n">
         <v>70</v>
@@ -51425,7 +51425,7 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>03/24/2024</t>
+          <t>06/08/2012</t>
         </is>
       </c>
       <c r="B1546" t="inlineStr">
@@ -51434,7 +51434,7 @@
         </is>
       </c>
       <c r="C1546" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1546" t="n">
         <v>25</v>
@@ -51458,7 +51458,7 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>07/25/2009</t>
+          <t>12/05/2003</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
@@ -51467,7 +51467,7 @@
         </is>
       </c>
       <c r="C1547" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1547" t="n">
         <v>50</v>
@@ -51491,7 +51491,7 @@
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>09/30/2010</t>
+          <t>06/04/2015</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
@@ -51500,7 +51500,7 @@
         </is>
       </c>
       <c r="C1548" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1548" t="n">
         <v>15</v>
@@ -51524,7 +51524,7 @@
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>05/01/2009</t>
+          <t>06/10/2012</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
@@ -51533,7 +51533,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1549" t="n">
         <v>15</v>
@@ -51557,7 +51557,7 @@
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>02/27/2023</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
@@ -51566,7 +51566,7 @@
         </is>
       </c>
       <c r="C1550" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1550" t="n">
         <v>25</v>
@@ -51590,7 +51590,7 @@
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>03/12/2014</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
@@ -51599,7 +51599,7 @@
         </is>
       </c>
       <c r="C1551" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1551" t="n">
         <v>50</v>
@@ -51623,7 +51623,7 @@
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>04/11/2008</t>
+          <t>12/28/2017</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
@@ -51632,7 +51632,7 @@
         </is>
       </c>
       <c r="C1552" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1552" t="n">
         <v>20</v>
@@ -51656,7 +51656,7 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>05/24/2017</t>
+          <t>04/04/2017</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
@@ -51665,7 +51665,7 @@
         </is>
       </c>
       <c r="C1553" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1553" t="n">
         <v>40</v>
@@ -51689,7 +51689,7 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>12/17/2011</t>
+          <t>01/25/2007</t>
         </is>
       </c>
       <c r="B1554" t="inlineStr">
@@ -51698,7 +51698,7 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1554" t="n">
         <v>60</v>
@@ -51722,7 +51722,7 @@
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>06/02/2015</t>
+          <t>06/21/2015</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
@@ -51731,7 +51731,7 @@
         </is>
       </c>
       <c r="C1555" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1555" t="n">
         <v>80</v>
@@ -51755,7 +51755,7 @@
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>04/09/2018</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
@@ -51764,7 +51764,7 @@
         </is>
       </c>
       <c r="C1556" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1556" t="n">
         <v>15</v>
@@ -51788,7 +51788,7 @@
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>10/26/2019</t>
+          <t>02/28/2024</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
@@ -51797,7 +51797,7 @@
         </is>
       </c>
       <c r="C1557" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D1557" t="n">
         <v>100</v>
@@ -51821,7 +51821,7 @@
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>02/02/2022</t>
+          <t>01/22/2013</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
@@ -51830,7 +51830,7 @@
         </is>
       </c>
       <c r="C1558" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D1558" t="n">
         <v>5</v>
@@ -51854,7 +51854,7 @@
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>11/10/2001</t>
+          <t>10/20/2006</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
@@ -51863,7 +51863,7 @@
         </is>
       </c>
       <c r="C1559" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1559" t="n">
         <v>150</v>
@@ -51887,7 +51887,7 @@
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>08/30/2013</t>
+          <t>11/16/2022</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
@@ -51896,7 +51896,7 @@
         </is>
       </c>
       <c r="C1560" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1560" t="n">
         <v>120</v>
@@ -51920,7 +51920,7 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>09/16/2004</t>
+          <t>04/16/2014</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
@@ -51929,7 +51929,7 @@
         </is>
       </c>
       <c r="C1561" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1561" t="n">
         <v>300</v>
@@ -51953,7 +51953,7 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>05/31/2007</t>
+          <t>04/09/2015</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
@@ -51962,7 +51962,7 @@
         </is>
       </c>
       <c r="C1562" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1562" t="n">
         <v>45</v>
@@ -51986,7 +51986,7 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>03/19/2010</t>
+          <t>10/11/2001</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
@@ -52019,7 +52019,7 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>04/11/2015</t>
+          <t>12/07/2023</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
@@ -52028,7 +52028,7 @@
         </is>
       </c>
       <c r="C1564" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D1564" t="n">
         <v>120</v>
@@ -52052,7 +52052,7 @@
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>10/29/2023</t>
+          <t>12/22/2007</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
@@ -52061,7 +52061,7 @@
         </is>
       </c>
       <c r="C1565" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1565" t="n">
         <v>25</v>
@@ -52085,7 +52085,7 @@
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>06/10/2006</t>
+          <t>08/02/2022</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
@@ -52094,7 +52094,7 @@
         </is>
       </c>
       <c r="C1566" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D1566" t="n">
         <v>30</v>
@@ -52118,7 +52118,7 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>02/27/2010</t>
+          <t>08/14/2014</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
@@ -52127,7 +52127,7 @@
         </is>
       </c>
       <c r="C1567" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1567" t="n">
         <v>35</v>
@@ -52151,7 +52151,7 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>05/01/2007</t>
+          <t>03/16/2018</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
@@ -52160,7 +52160,7 @@
         </is>
       </c>
       <c r="C1568" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1568" t="n">
         <v>150</v>
@@ -52184,7 +52184,7 @@
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>08/22/2001</t>
+          <t>04/10/2008</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
@@ -52193,7 +52193,7 @@
         </is>
       </c>
       <c r="C1569" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1569" t="n">
         <v>100</v>
@@ -52217,7 +52217,7 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>09/02/2014</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="C1570" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D1570" t="n">
         <v>70</v>
@@ -52250,7 +52250,7 @@
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>10/10/2009</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
@@ -52283,7 +52283,7 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>08/07/2007</t>
+          <t>02/14/2017</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
@@ -52316,7 +52316,7 @@
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>05/20/2021</t>
+          <t>07/11/2010</t>
         </is>
       </c>
       <c r="B1573" t="inlineStr">
@@ -52325,7 +52325,7 @@
         </is>
       </c>
       <c r="C1573" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1573" t="n">
         <v>15</v>
@@ -52349,7 +52349,7 @@
     <row r="1574">
       <c r="A1574" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>06/14/2001</t>
         </is>
       </c>
       <c r="B1574" t="inlineStr">
@@ -52358,7 +52358,7 @@
         </is>
       </c>
       <c r="C1574" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1574" t="n">
         <v>15</v>
@@ -52382,7 +52382,7 @@
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>10/28/2014</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="B1575" t="inlineStr">
@@ -52415,7 +52415,7 @@
     <row r="1576">
       <c r="A1576" t="inlineStr">
         <is>
-          <t>11/11/2017</t>
+          <t>11/20/2013</t>
         </is>
       </c>
       <c r="B1576" t="inlineStr">
@@ -52424,7 +52424,7 @@
         </is>
       </c>
       <c r="C1576" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1576" t="n">
         <v>50</v>
@@ -52448,7 +52448,7 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>04/18/2009</t>
+          <t>10/19/2001</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
@@ -52457,7 +52457,7 @@
         </is>
       </c>
       <c r="C1577" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1577" t="n">
         <v>20</v>
@@ -52481,7 +52481,7 @@
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>11/12/2016</t>
+          <t>01/15/2012</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
@@ -52490,7 +52490,7 @@
         </is>
       </c>
       <c r="C1578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1578" t="n">
         <v>40</v>
@@ -52514,7 +52514,7 @@
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>02/18/2004</t>
+          <t>11/11/2004</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
@@ -52523,7 +52523,7 @@
         </is>
       </c>
       <c r="C1579" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1579" t="n">
         <v>60</v>
@@ -52547,7 +52547,7 @@
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>02/14/2004</t>
+          <t>04/01/2010</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
@@ -52556,7 +52556,7 @@
         </is>
       </c>
       <c r="C1580" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1580" t="n">
         <v>80</v>
@@ -52580,7 +52580,7 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>04/23/2021</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
@@ -52613,7 +52613,7 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>09/11/2022</t>
+          <t>10/14/2022</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
@@ -52622,7 +52622,7 @@
         </is>
       </c>
       <c r="C1582" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1582" t="n">
         <v>100</v>
@@ -52646,7 +52646,7 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>11/01/2017</t>
+          <t>11/23/2020</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
@@ -52655,7 +52655,7 @@
         </is>
       </c>
       <c r="C1583" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1583" t="n">
         <v>5</v>
@@ -52679,7 +52679,7 @@
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>11/01/2010</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
@@ -52688,7 +52688,7 @@
         </is>
       </c>
       <c r="C1584" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1584" t="n">
         <v>150</v>
@@ -52712,7 +52712,7 @@
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>05/02/2023</t>
+          <t>02/12/2022</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
@@ -52721,7 +52721,7 @@
         </is>
       </c>
       <c r="C1585" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1585" t="n">
         <v>120</v>
@@ -52745,7 +52745,7 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>11/03/2014</t>
+          <t>12/17/2003</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
@@ -52754,7 +52754,7 @@
         </is>
       </c>
       <c r="C1586" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1586" t="n">
         <v>300</v>
@@ -52778,7 +52778,7 @@
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>06/27/2003</t>
+          <t>01/19/2004</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
@@ -52787,7 +52787,7 @@
         </is>
       </c>
       <c r="C1587" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1587" t="n">
         <v>45</v>
@@ -52811,7 +52811,7 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>09/06/2001</t>
+          <t>08/28/2017</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
@@ -52820,7 +52820,7 @@
         </is>
       </c>
       <c r="C1588" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1588" t="n">
         <v>35</v>
@@ -52844,7 +52844,7 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>09/06/2020</t>
+          <t>05/04/2021</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
@@ -52853,7 +52853,7 @@
         </is>
       </c>
       <c r="C1589" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D1589" t="n">
         <v>120</v>
@@ -52877,7 +52877,7 @@
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>11/23/2013</t>
+          <t>10/25/2020</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
@@ -52886,7 +52886,7 @@
         </is>
       </c>
       <c r="C1590" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D1590" t="n">
         <v>25</v>
@@ -52910,7 +52910,7 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>10/09/2004</t>
+          <t>10/09/2001</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
@@ -52919,7 +52919,7 @@
         </is>
       </c>
       <c r="C1591" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1591" t="n">
         <v>30</v>
@@ -52943,7 +52943,7 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>02/24/2015</t>
+          <t>12/29/2021</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
@@ -52952,7 +52952,7 @@
         </is>
       </c>
       <c r="C1592" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D1592" t="n">
         <v>35</v>
@@ -52976,7 +52976,7 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>09/26/2016</t>
+          <t>12/28/2010</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
@@ -52985,7 +52985,7 @@
         </is>
       </c>
       <c r="C1593" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1593" t="n">
         <v>150</v>
@@ -53009,7 +53009,7 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>10/21/2017</t>
+          <t>06/12/2005</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
@@ -53018,7 +53018,7 @@
         </is>
       </c>
       <c r="C1594" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1594" t="n">
         <v>100</v>
@@ -53042,7 +53042,7 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>06/06/2015</t>
+          <t>04/27/2016</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
@@ -53051,7 +53051,7 @@
         </is>
       </c>
       <c r="C1595" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1595" t="n">
         <v>70</v>
@@ -53075,7 +53075,7 @@
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>02/19/2016</t>
+          <t>08/24/2009</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
@@ -53084,7 +53084,7 @@
         </is>
       </c>
       <c r="C1596" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1596" t="n">
         <v>25</v>
@@ -53108,7 +53108,7 @@
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>03/27/2017</t>
+          <t>02/28/2022</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
@@ -53117,7 +53117,7 @@
         </is>
       </c>
       <c r="C1597" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1597" t="n">
         <v>50</v>
@@ -53141,7 +53141,7 @@
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>02/09/2011</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
@@ -53150,7 +53150,7 @@
         </is>
       </c>
       <c r="C1598" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1598" t="n">
         <v>15</v>
@@ -53174,7 +53174,7 @@
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>08/12/2023</t>
+          <t>08/10/2006</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
@@ -53183,7 +53183,7 @@
         </is>
       </c>
       <c r="C1599" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1599" t="n">
         <v>15</v>
@@ -53207,7 +53207,7 @@
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>11/16/2020</t>
+          <t>05/05/2019</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
@@ -53216,7 +53216,7 @@
         </is>
       </c>
       <c r="C1600" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1600" t="n">
         <v>25</v>
@@ -53240,7 +53240,7 @@
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>08/10/2016</t>
+          <t>03/16/2016</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
@@ -53249,7 +53249,7 @@
         </is>
       </c>
       <c r="C1601" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1601" t="n">
         <v>50</v>
@@ -53273,7 +53273,7 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>02/04/2003</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
@@ -53282,7 +53282,7 @@
         </is>
       </c>
       <c r="C1602" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1602" t="n">
         <v>20</v>
@@ -53306,7 +53306,7 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>04/02/2012</t>
+          <t>03/24/2022</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
@@ -53315,7 +53315,7 @@
         </is>
       </c>
       <c r="C1603" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D1603" t="n">
         <v>40</v>
@@ -53339,7 +53339,7 @@
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>11/10/2022</t>
+          <t>07/07/2023</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
@@ -53348,7 +53348,7 @@
         </is>
       </c>
       <c r="C1604" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D1604" t="n">
         <v>60</v>
@@ -53372,7 +53372,7 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>07/11/2013</t>
+          <t>07/21/2023</t>
         </is>
       </c>
       <c r="B1605" t="inlineStr">
@@ -53381,7 +53381,7 @@
         </is>
       </c>
       <c r="C1605" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1605" t="n">
         <v>80</v>
@@ -53405,7 +53405,7 @@
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>11/05/2017</t>
+          <t>02/14/2002</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
@@ -53414,7 +53414,7 @@
         </is>
       </c>
       <c r="C1606" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1606" t="n">
         <v>15</v>
@@ -53438,7 +53438,7 @@
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>06/23/2021</t>
+          <t>07/28/2004</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="C1607" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1607" t="n">
         <v>100</v>
@@ -53471,7 +53471,7 @@
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>06/18/2014</t>
+          <t>05/02/2014</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
@@ -53480,7 +53480,7 @@
         </is>
       </c>
       <c r="C1608" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1608" t="n">
         <v>5</v>
@@ -53504,7 +53504,7 @@
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>11/06/2021</t>
+          <t>11/29/2015</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
@@ -53513,7 +53513,7 @@
         </is>
       </c>
       <c r="C1609" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D1609" t="n">
         <v>150</v>
@@ -53537,7 +53537,7 @@
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>05/26/2022</t>
+          <t>05/08/2024</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
@@ -53546,7 +53546,7 @@
         </is>
       </c>
       <c r="C1610" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1610" t="n">
         <v>120</v>
@@ -53570,7 +53570,7 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>08/24/2017</t>
+          <t>05/15/2008</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
@@ -53579,7 +53579,7 @@
         </is>
       </c>
       <c r="C1611" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1611" t="n">
         <v>300</v>
@@ -53603,7 +53603,7 @@
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>07/05/2017</t>
+          <t>02/23/2006</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
@@ -53612,7 +53612,7 @@
         </is>
       </c>
       <c r="C1612" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1612" t="n">
         <v>45</v>
@@ -53636,7 +53636,7 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>12/27/2006</t>
+          <t>10/17/2012</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
@@ -53645,7 +53645,7 @@
         </is>
       </c>
       <c r="C1613" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1613" t="n">
         <v>35</v>
@@ -53669,7 +53669,7 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>10/17/2021</t>
+          <t>08/09/2014</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
@@ -53678,7 +53678,7 @@
         </is>
       </c>
       <c r="C1614" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1614" t="n">
         <v>120</v>
@@ -53702,7 +53702,7 @@
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>10/22/2016</t>
+          <t>01/13/2009</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
@@ -53711,7 +53711,7 @@
         </is>
       </c>
       <c r="C1615" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1615" t="n">
         <v>25</v>
@@ -53735,7 +53735,7 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>07/10/2013</t>
+          <t>06/05/2015</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
@@ -53744,7 +53744,7 @@
         </is>
       </c>
       <c r="C1616" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1616" t="n">
         <v>30</v>
@@ -53768,7 +53768,7 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>05/02/2006</t>
+          <t>12/29/2023</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
@@ -53777,7 +53777,7 @@
         </is>
       </c>
       <c r="C1617" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1617" t="n">
         <v>35</v>
@@ -53801,7 +53801,7 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>06/08/2013</t>
+          <t>02/11/2011</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
@@ -53810,7 +53810,7 @@
         </is>
       </c>
       <c r="C1618" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1618" t="n">
         <v>150</v>
@@ -53834,7 +53834,7 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>07/24/2006</t>
+          <t>08/06/2023</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
@@ -53843,7 +53843,7 @@
         </is>
       </c>
       <c r="C1619" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1619" t="n">
         <v>100</v>
@@ -53867,7 +53867,7 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>09/24/2017</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
@@ -53876,7 +53876,7 @@
         </is>
       </c>
       <c r="C1620" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1620" t="n">
         <v>70</v>
@@ -53900,7 +53900,7 @@
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>03/31/2006</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
@@ -53909,7 +53909,7 @@
         </is>
       </c>
       <c r="C1621" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1621" t="n">
         <v>25</v>
@@ -53933,7 +53933,7 @@
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>11/11/2023</t>
+          <t>10/08/2022</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
@@ -53942,7 +53942,7 @@
         </is>
       </c>
       <c r="C1622" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1622" t="n">
         <v>50</v>
@@ -53966,7 +53966,7 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>07/04/2019</t>
+          <t>10/07/2003</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
@@ -53975,7 +53975,7 @@
         </is>
       </c>
       <c r="C1623" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1623" t="n">
         <v>15</v>
@@ -53999,7 +53999,7 @@
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>03/26/2018</t>
+          <t>06/27/2009</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
@@ -54008,7 +54008,7 @@
         </is>
       </c>
       <c r="C1624" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1624" t="n">
         <v>15</v>
@@ -54032,7 +54032,7 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>06/28/2003</t>
+          <t>08/03/2001</t>
         </is>
       </c>
       <c r="B1625" t="inlineStr">
@@ -54041,7 +54041,7 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D1625" t="n">
         <v>25</v>
@@ -54065,7 +54065,7 @@
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>04/26/2024</t>
+          <t>04/06/2012</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
@@ -54074,7 +54074,7 @@
         </is>
       </c>
       <c r="C1626" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1626" t="n">
         <v>50</v>
@@ -54098,7 +54098,7 @@
     <row r="1627">
       <c r="A1627" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>02/24/2009</t>
         </is>
       </c>
       <c r="B1627" t="inlineStr">
@@ -54107,7 +54107,7 @@
         </is>
       </c>
       <c r="C1627" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1627" t="n">
         <v>20</v>
@@ -54131,7 +54131,7 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>06/11/2016</t>
+          <t>01/25/2005</t>
         </is>
       </c>
       <c r="B1628" t="inlineStr">
@@ -54140,7 +54140,7 @@
         </is>
       </c>
       <c r="C1628" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D1628" t="n">
         <v>40</v>
@@ -54164,7 +54164,7 @@
     <row r="1629">
       <c r="A1629" t="inlineStr">
         <is>
-          <t>11/29/2010</t>
+          <t>12/12/2002</t>
         </is>
       </c>
       <c r="B1629" t="inlineStr">
@@ -54173,7 +54173,7 @@
         </is>
       </c>
       <c r="C1629" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1629" t="n">
         <v>60</v>
@@ -54197,7 +54197,7 @@
     <row r="1630">
       <c r="A1630" t="inlineStr">
         <is>
-          <t>09/29/2011</t>
+          <t>05/01/2023</t>
         </is>
       </c>
       <c r="B1630" t="inlineStr">
@@ -54206,7 +54206,7 @@
         </is>
       </c>
       <c r="C1630" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1630" t="n">
         <v>80</v>
@@ -54230,7 +54230,7 @@
     <row r="1631">
       <c r="A1631" t="inlineStr">
         <is>
-          <t>02/12/2019</t>
+          <t>05/31/2020</t>
         </is>
       </c>
       <c r="B1631" t="inlineStr">
@@ -54239,7 +54239,7 @@
         </is>
       </c>
       <c r="C1631" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1631" t="n">
         <v>15</v>
@@ -54263,7 +54263,7 @@
     <row r="1632">
       <c r="A1632" t="inlineStr">
         <is>
-          <t>10/13/2013</t>
+          <t>03/03/2001</t>
         </is>
       </c>
       <c r="B1632" t="inlineStr">
@@ -54272,7 +54272,7 @@
         </is>
       </c>
       <c r="C1632" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1632" t="n">
         <v>100</v>
@@ -54296,7 +54296,7 @@
     <row r="1633">
       <c r="A1633" t="inlineStr">
         <is>
-          <t>05/09/2022</t>
+          <t>07/20/2018</t>
         </is>
       </c>
       <c r="B1633" t="inlineStr">
@@ -54305,7 +54305,7 @@
         </is>
       </c>
       <c r="C1633" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D1633" t="n">
         <v>5</v>
@@ -54329,7 +54329,7 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>07/06/2003</t>
+          <t>03/06/2014</t>
         </is>
       </c>
       <c r="B1634" t="inlineStr">
@@ -54338,7 +54338,7 @@
         </is>
       </c>
       <c r="C1634" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1634" t="n">
         <v>150</v>
@@ -54362,7 +54362,7 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>08/20/2009</t>
+          <t>07/29/2007</t>
         </is>
       </c>
       <c r="B1635" t="inlineStr">
@@ -54371,7 +54371,7 @@
         </is>
       </c>
       <c r="C1635" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1635" t="n">
         <v>120</v>
@@ -54395,7 +54395,7 @@
     <row r="1636">
       <c r="A1636" t="inlineStr">
         <is>
-          <t>10/27/2006</t>
+          <t>01/31/2002</t>
         </is>
       </c>
       <c r="B1636" t="inlineStr">
@@ -54404,7 +54404,7 @@
         </is>
       </c>
       <c r="C1636" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1636" t="n">
         <v>300</v>
@@ -54428,7 +54428,7 @@
     <row r="1637">
       <c r="A1637" t="inlineStr">
         <is>
-          <t>04/21/2021</t>
+          <t>09/20/2007</t>
         </is>
       </c>
       <c r="B1637" t="inlineStr">
@@ -54437,7 +54437,7 @@
         </is>
       </c>
       <c r="C1637" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1637" t="n">
         <v>45</v>
@@ -54461,7 +54461,7 @@
     <row r="1638">
       <c r="A1638" t="inlineStr">
         <is>
-          <t>08/07/2006</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B1638" t="inlineStr">
@@ -54470,7 +54470,7 @@
         </is>
       </c>
       <c r="C1638" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1638" t="n">
         <v>35</v>
@@ -54494,7 +54494,7 @@
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>02/07/2015</t>
+          <t>11/26/2011</t>
         </is>
       </c>
       <c r="B1639" t="inlineStr">
@@ -54503,7 +54503,7 @@
         </is>
       </c>
       <c r="C1639" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1639" t="n">
         <v>120</v>
@@ -54527,7 +54527,7 @@
     <row r="1640">
       <c r="A1640" t="inlineStr">
         <is>
-          <t>06/06/2022</t>
+          <t>11/14/2021</t>
         </is>
       </c>
       <c r="B1640" t="inlineStr">
@@ -54536,7 +54536,7 @@
         </is>
       </c>
       <c r="C1640" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1640" t="n">
         <v>25</v>
@@ -54560,7 +54560,7 @@
     <row r="1641">
       <c r="A1641" t="inlineStr">
         <is>
-          <t>10/10/2022</t>
+          <t>03/26/2003</t>
         </is>
       </c>
       <c r="B1641" t="inlineStr">
@@ -54569,7 +54569,7 @@
         </is>
       </c>
       <c r="C1641" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1641" t="n">
         <v>30</v>
@@ -54593,7 +54593,7 @@
     <row r="1642">
       <c r="A1642" t="inlineStr">
         <is>
-          <t>08/24/2007</t>
+          <t>01/16/2005</t>
         </is>
       </c>
       <c r="B1642" t="inlineStr">
@@ -54602,7 +54602,7 @@
         </is>
       </c>
       <c r="C1642" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1642" t="n">
         <v>35</v>
@@ -54626,7 +54626,7 @@
     <row r="1643">
       <c r="A1643" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>07/29/2014</t>
         </is>
       </c>
       <c r="B1643" t="inlineStr">
@@ -54635,7 +54635,7 @@
         </is>
       </c>
       <c r="C1643" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1643" t="n">
         <v>150</v>
@@ -54659,7 +54659,7 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>02/06/2016</t>
+          <t>07/05/2017</t>
         </is>
       </c>
       <c r="B1644" t="inlineStr">
@@ -54668,7 +54668,7 @@
         </is>
       </c>
       <c r="C1644" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1644" t="n">
         <v>100</v>
@@ -54692,7 +54692,7 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>10/21/2013</t>
+          <t>04/02/2004</t>
         </is>
       </c>
       <c r="B1645" t="inlineStr">
@@ -54701,7 +54701,7 @@
         </is>
       </c>
       <c r="C1645" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1645" t="n">
         <v>70</v>
@@ -54725,7 +54725,7 @@
     <row r="1646">
       <c r="A1646" t="inlineStr">
         <is>
-          <t>08/01/2006</t>
+          <t>12/31/2017</t>
         </is>
       </c>
       <c r="B1646" t="inlineStr">
@@ -54734,7 +54734,7 @@
         </is>
       </c>
       <c r="C1646" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1646" t="n">
         <v>25</v>
@@ -54758,7 +54758,7 @@
     <row r="1647">
       <c r="A1647" t="inlineStr">
         <is>
-          <t>03/15/2016</t>
+          <t>05/05/2013</t>
         </is>
       </c>
       <c r="B1647" t="inlineStr">
@@ -54767,7 +54767,7 @@
         </is>
       </c>
       <c r="C1647" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1647" t="n">
         <v>50</v>
@@ -54791,7 +54791,7 @@
     <row r="1648">
       <c r="A1648" t="inlineStr">
         <is>
-          <t>12/02/2021</t>
+          <t>11/28/2007</t>
         </is>
       </c>
       <c r="B1648" t="inlineStr">
@@ -54800,7 +54800,7 @@
         </is>
       </c>
       <c r="C1648" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1648" t="n">
         <v>15</v>
@@ -54824,7 +54824,7 @@
     <row r="1649">
       <c r="A1649" t="inlineStr">
         <is>
-          <t>02/27/2010</t>
+          <t>03/06/2014</t>
         </is>
       </c>
       <c r="B1649" t="inlineStr">
@@ -54833,7 +54833,7 @@
         </is>
       </c>
       <c r="C1649" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1649" t="n">
         <v>15</v>
@@ -54857,7 +54857,7 @@
     <row r="1650">
       <c r="A1650" t="inlineStr">
         <is>
-          <t>03/04/2004</t>
+          <t>09/13/2011</t>
         </is>
       </c>
       <c r="B1650" t="inlineStr">
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="C1650" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1650" t="n">
         <v>25</v>
@@ -54890,7 +54890,7 @@
     <row r="1651">
       <c r="A1651" t="inlineStr">
         <is>
-          <t>05/03/2007</t>
+          <t>02/07/2021</t>
         </is>
       </c>
       <c r="B1651" t="inlineStr">
@@ -54899,7 +54899,7 @@
         </is>
       </c>
       <c r="C1651" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D1651" t="n">
         <v>50</v>
@@ -54923,7 +54923,7 @@
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>12/02/2021</t>
+          <t>03/12/2013</t>
         </is>
       </c>
       <c r="B1652" t="inlineStr">
@@ -54932,7 +54932,7 @@
         </is>
       </c>
       <c r="C1652" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1652" t="n">
         <v>20</v>
@@ -54956,7 +54956,7 @@
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>03/13/2020</t>
+          <t>07/16/2007</t>
         </is>
       </c>
       <c r="B1653" t="inlineStr">
@@ -54965,7 +54965,7 @@
         </is>
       </c>
       <c r="C1653" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1653" t="n">
         <v>40</v>
@@ -54989,7 +54989,7 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>05/28/2016</t>
+          <t>10/06/2021</t>
         </is>
       </c>
       <c r="B1654" t="inlineStr">
@@ -54998,7 +54998,7 @@
         </is>
       </c>
       <c r="C1654" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1654" t="n">
         <v>60</v>
@@ -55022,7 +55022,7 @@
     <row r="1655">
       <c r="A1655" t="inlineStr">
         <is>
-          <t>01/20/2005</t>
+          <t>08/01/2018</t>
         </is>
       </c>
       <c r="B1655" t="inlineStr">
@@ -55031,7 +55031,7 @@
         </is>
       </c>
       <c r="C1655" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1655" t="n">
         <v>80</v>
@@ -55055,7 +55055,7 @@
     <row r="1656">
       <c r="A1656" t="inlineStr">
         <is>
-          <t>03/07/2004</t>
+          <t>06/29/2020</t>
         </is>
       </c>
       <c r="B1656" t="inlineStr">
@@ -55064,7 +55064,7 @@
         </is>
       </c>
       <c r="C1656" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1656" t="n">
         <v>15</v>
@@ -55088,7 +55088,7 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>05/01/2009</t>
+          <t>11/10/2005</t>
         </is>
       </c>
       <c r="B1657" t="inlineStr">
@@ -55097,7 +55097,7 @@
         </is>
       </c>
       <c r="C1657" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1657" t="n">
         <v>100</v>
@@ -55121,7 +55121,7 @@
     <row r="1658">
       <c r="A1658" t="inlineStr">
         <is>
-          <t>12/25/2016</t>
+          <t>09/01/2002</t>
         </is>
       </c>
       <c r="B1658" t="inlineStr">
@@ -55130,7 +55130,7 @@
         </is>
       </c>
       <c r="C1658" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1658" t="n">
         <v>5</v>
@@ -55154,7 +55154,7 @@
     <row r="1659">
       <c r="A1659" t="inlineStr">
         <is>
-          <t>07/04/2001</t>
+          <t>12/16/2016</t>
         </is>
       </c>
       <c r="B1659" t="inlineStr">
@@ -55163,7 +55163,7 @@
         </is>
       </c>
       <c r="C1659" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1659" t="n">
         <v>150</v>
@@ -55187,7 +55187,7 @@
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>03/18/2010</t>
+          <t>10/24/2020</t>
         </is>
       </c>
       <c r="B1660" t="inlineStr">
@@ -55196,7 +55196,7 @@
         </is>
       </c>
       <c r="C1660" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1660" t="n">
         <v>120</v>
@@ -55220,7 +55220,7 @@
     <row r="1661">
       <c r="A1661" t="inlineStr">
         <is>
-          <t>08/03/2009</t>
+          <t>10/15/2019</t>
         </is>
       </c>
       <c r="B1661" t="inlineStr">
@@ -55229,7 +55229,7 @@
         </is>
       </c>
       <c r="C1661" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1661" t="n">
         <v>300</v>
@@ -55253,7 +55253,7 @@
     <row r="1662">
       <c r="A1662" t="inlineStr">
         <is>
-          <t>04/25/2007</t>
+          <t>12/29/2005</t>
         </is>
       </c>
       <c r="B1662" t="inlineStr">
@@ -55262,7 +55262,7 @@
         </is>
       </c>
       <c r="C1662" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1662" t="n">
         <v>45</v>
@@ -55286,7 +55286,7 @@
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>12/29/2002</t>
+          <t>10/11/2023</t>
         </is>
       </c>
       <c r="B1663" t="inlineStr">
@@ -55295,7 +55295,7 @@
         </is>
       </c>
       <c r="C1663" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1663" t="n">
         <v>35</v>
@@ -55319,7 +55319,7 @@
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>07/27/2009</t>
+          <t>03/26/2008</t>
         </is>
       </c>
       <c r="B1664" t="inlineStr">
@@ -55328,7 +55328,7 @@
         </is>
       </c>
       <c r="C1664" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1664" t="n">
         <v>120</v>
@@ -55352,7 +55352,7 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>12/02/2015</t>
+          <t>11/18/2007</t>
         </is>
       </c>
       <c r="B1665" t="inlineStr">
@@ -55361,7 +55361,7 @@
         </is>
       </c>
       <c r="C1665" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1665" t="n">
         <v>25</v>
@@ -55385,7 +55385,7 @@
     <row r="1666">
       <c r="A1666" t="inlineStr">
         <is>
-          <t>09/26/2004</t>
+          <t>07/12/2004</t>
         </is>
       </c>
       <c r="B1666" t="inlineStr">
@@ -55394,7 +55394,7 @@
         </is>
       </c>
       <c r="C1666" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1666" t="n">
         <v>30</v>
@@ -55418,7 +55418,7 @@
     <row r="1667">
       <c r="A1667" t="inlineStr">
         <is>
-          <t>05/17/2005</t>
+          <t>04/11/2022</t>
         </is>
       </c>
       <c r="B1667" t="inlineStr">
@@ -55427,7 +55427,7 @@
         </is>
       </c>
       <c r="C1667" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1667" t="n">
         <v>35</v>
@@ -55451,7 +55451,7 @@
     <row r="1668">
       <c r="A1668" t="inlineStr">
         <is>
-          <t>04/03/2012</t>
+          <t>11/13/2007</t>
         </is>
       </c>
       <c r="B1668" t="inlineStr">
@@ -55460,7 +55460,7 @@
         </is>
       </c>
       <c r="C1668" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1668" t="n">
         <v>150</v>
@@ -55484,7 +55484,7 @@
     <row r="1669">
       <c r="A1669" t="inlineStr">
         <is>
-          <t>05/09/2006</t>
+          <t>03/20/2016</t>
         </is>
       </c>
       <c r="B1669" t="inlineStr">
@@ -55493,7 +55493,7 @@
         </is>
       </c>
       <c r="C1669" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1669" t="n">
         <v>100</v>
@@ -55517,7 +55517,7 @@
     <row r="1670">
       <c r="A1670" t="inlineStr">
         <is>
-          <t>02/25/2006</t>
+          <t>01/18/2004</t>
         </is>
       </c>
       <c r="B1670" t="inlineStr">
@@ -55526,7 +55526,7 @@
         </is>
       </c>
       <c r="C1670" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1670" t="n">
         <v>70</v>
@@ -55550,7 +55550,7 @@
     <row r="1671">
       <c r="A1671" t="inlineStr">
         <is>
-          <t>06/12/2010</t>
+          <t>09/28/2019</t>
         </is>
       </c>
       <c r="B1671" t="inlineStr">
@@ -55559,7 +55559,7 @@
         </is>
       </c>
       <c r="C1671" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1671" t="n">
         <v>25</v>
@@ -55583,7 +55583,7 @@
     <row r="1672">
       <c r="A1672" t="inlineStr">
         <is>
-          <t>06/18/2022</t>
+          <t>09/17/2014</t>
         </is>
       </c>
       <c r="B1672" t="inlineStr">
@@ -55592,7 +55592,7 @@
         </is>
       </c>
       <c r="C1672" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1672" t="n">
         <v>50</v>
@@ -55616,7 +55616,7 @@
     <row r="1673">
       <c r="A1673" t="inlineStr">
         <is>
-          <t>11/10/2008</t>
+          <t>04/23/2012</t>
         </is>
       </c>
       <c r="B1673" t="inlineStr">
@@ -55625,7 +55625,7 @@
         </is>
       </c>
       <c r="C1673" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1673" t="n">
         <v>15</v>
@@ -55649,7 +55649,7 @@
     <row r="1674">
       <c r="A1674" t="inlineStr">
         <is>
-          <t>10/31/2004</t>
+          <t>07/03/2012</t>
         </is>
       </c>
       <c r="B1674" t="inlineStr">
@@ -55658,7 +55658,7 @@
         </is>
       </c>
       <c r="C1674" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1674" t="n">
         <v>15</v>
@@ -55682,7 +55682,7 @@
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>05/29/2010</t>
+          <t>10/08/2013</t>
         </is>
       </c>
       <c r="B1675" t="inlineStr">
@@ -55691,7 +55691,7 @@
         </is>
       </c>
       <c r="C1675" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1675" t="n">
         <v>25</v>
@@ -55715,7 +55715,7 @@
     <row r="1676">
       <c r="A1676" t="inlineStr">
         <is>
-          <t>01/20/2024</t>
+          <t>01/23/2011</t>
         </is>
       </c>
       <c r="B1676" t="inlineStr">
@@ -55748,7 +55748,7 @@
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>07/18/2003</t>
+          <t>10/26/2010</t>
         </is>
       </c>
       <c r="B1677" t="inlineStr">
@@ -55757,7 +55757,7 @@
         </is>
       </c>
       <c r="C1677" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1677" t="n">
         <v>20</v>
@@ -55781,7 +55781,7 @@
     <row r="1678">
       <c r="A1678" t="inlineStr">
         <is>
-          <t>06/13/2003</t>
+          <t>11/23/2018</t>
         </is>
       </c>
       <c r="B1678" t="inlineStr">
@@ -55814,7 +55814,7 @@
     <row r="1679">
       <c r="A1679" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>09/18/2007</t>
         </is>
       </c>
       <c r="B1679" t="inlineStr">
@@ -55823,7 +55823,7 @@
         </is>
       </c>
       <c r="C1679" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1679" t="n">
         <v>60</v>
@@ -55847,7 +55847,7 @@
     <row r="1680">
       <c r="A1680" t="inlineStr">
         <is>
-          <t>05/26/2019</t>
+          <t>07/16/2010</t>
         </is>
       </c>
       <c r="B1680" t="inlineStr">
@@ -55856,7 +55856,7 @@
         </is>
       </c>
       <c r="C1680" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1680" t="n">
         <v>80</v>
@@ -55880,7 +55880,7 @@
     <row r="1681">
       <c r="A1681" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>02/13/2003</t>
         </is>
       </c>
       <c r="B1681" t="inlineStr">
@@ -55889,7 +55889,7 @@
         </is>
       </c>
       <c r="C1681" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1681" t="n">
         <v>15</v>
@@ -55913,7 +55913,7 @@
     <row r="1682">
       <c r="A1682" t="inlineStr">
         <is>
-          <t>01/22/2021</t>
+          <t>12/26/2022</t>
         </is>
       </c>
       <c r="B1682" t="inlineStr">
@@ -55922,7 +55922,7 @@
         </is>
       </c>
       <c r="C1682" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1682" t="n">
         <v>100</v>
@@ -55946,7 +55946,7 @@
     <row r="1683">
       <c r="A1683" t="inlineStr">
         <is>
-          <t>12/03/2016</t>
+          <t>02/10/2014</t>
         </is>
       </c>
       <c r="B1683" t="inlineStr">
@@ -55955,7 +55955,7 @@
         </is>
       </c>
       <c r="C1683" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1683" t="n">
         <v>5</v>
@@ -55979,7 +55979,7 @@
     <row r="1684">
       <c r="A1684" t="inlineStr">
         <is>
-          <t>12/20/2013</t>
+          <t>12/24/2022</t>
         </is>
       </c>
       <c r="B1684" t="inlineStr">
@@ -55988,7 +55988,7 @@
         </is>
       </c>
       <c r="C1684" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1684" t="n">
         <v>150</v>
@@ -56012,7 +56012,7 @@
     <row r="1685">
       <c r="A1685" t="inlineStr">
         <is>
-          <t>07/26/2010</t>
+          <t>11/23/2008</t>
         </is>
       </c>
       <c r="B1685" t="inlineStr">
@@ -56021,7 +56021,7 @@
         </is>
       </c>
       <c r="C1685" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1685" t="n">
         <v>120</v>
@@ -56045,7 +56045,7 @@
     <row r="1686">
       <c r="A1686" t="inlineStr">
         <is>
-          <t>09/30/2009</t>
+          <t>09/01/2013</t>
         </is>
       </c>
       <c r="B1686" t="inlineStr">
@@ -56054,7 +56054,7 @@
         </is>
       </c>
       <c r="C1686" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D1686" t="n">
         <v>300</v>
@@ -56078,7 +56078,7 @@
     <row r="1687">
       <c r="A1687" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>08/19/2002</t>
         </is>
       </c>
       <c r="B1687" t="inlineStr">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="C1687" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1687" t="n">
         <v>45</v>
@@ -56111,7 +56111,7 @@
     <row r="1688">
       <c r="A1688" t="inlineStr">
         <is>
-          <t>06/15/2016</t>
+          <t>11/04/2008</t>
         </is>
       </c>
       <c r="B1688" t="inlineStr">
@@ -56120,7 +56120,7 @@
         </is>
       </c>
       <c r="C1688" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D1688" t="n">
         <v>35</v>
@@ -56144,7 +56144,7 @@
     <row r="1689">
       <c r="A1689" t="inlineStr">
         <is>
-          <t>02/08/2014</t>
+          <t>05/03/2016</t>
         </is>
       </c>
       <c r="B1689" t="inlineStr">
@@ -56153,7 +56153,7 @@
         </is>
       </c>
       <c r="C1689" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1689" t="n">
         <v>120</v>
@@ -56177,7 +56177,7 @@
     <row r="1690">
       <c r="A1690" t="inlineStr">
         <is>
-          <t>05/30/2021</t>
+          <t>10/08/2012</t>
         </is>
       </c>
       <c r="B1690" t="inlineStr">
@@ -56186,7 +56186,7 @@
         </is>
       </c>
       <c r="C1690" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D1690" t="n">
         <v>25</v>
@@ -56210,7 +56210,7 @@
     <row r="1691">
       <c r="A1691" t="inlineStr">
         <is>
-          <t>10/17/2010</t>
+          <t>12/04/2009</t>
         </is>
       </c>
       <c r="B1691" t="inlineStr">
@@ -56219,7 +56219,7 @@
         </is>
       </c>
       <c r="C1691" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1691" t="n">
         <v>30</v>
@@ -56243,7 +56243,7 @@
     <row r="1692">
       <c r="A1692" t="inlineStr">
         <is>
-          <t>06/02/2003</t>
+          <t>10/31/2022</t>
         </is>
       </c>
       <c r="B1692" t="inlineStr">
@@ -56252,7 +56252,7 @@
         </is>
       </c>
       <c r="C1692" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1692" t="n">
         <v>35</v>
@@ -56276,7 +56276,7 @@
     <row r="1693">
       <c r="A1693" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>08/26/2014</t>
         </is>
       </c>
       <c r="B1693" t="inlineStr">
@@ -56285,7 +56285,7 @@
         </is>
       </c>
       <c r="C1693" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D1693" t="n">
         <v>150</v>
@@ -56309,7 +56309,7 @@
     <row r="1694">
       <c r="A1694" t="inlineStr">
         <is>
-          <t>06/10/2023</t>
+          <t>01/23/2017</t>
         </is>
       </c>
       <c r="B1694" t="inlineStr">
@@ -56318,7 +56318,7 @@
         </is>
       </c>
       <c r="C1694" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1694" t="n">
         <v>100</v>
@@ -56342,7 +56342,7 @@
     <row r="1695">
       <c r="A1695" t="inlineStr">
         <is>
-          <t>01/27/2002</t>
+          <t>07/31/2016</t>
         </is>
       </c>
       <c r="B1695" t="inlineStr">
@@ -56351,7 +56351,7 @@
         </is>
       </c>
       <c r="C1695" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1695" t="n">
         <v>70</v>
@@ -56375,7 +56375,7 @@
     <row r="1696">
       <c r="A1696" t="inlineStr">
         <is>
-          <t>12/24/2005</t>
+          <t>08/06/2002</t>
         </is>
       </c>
       <c r="B1696" t="inlineStr">
@@ -56384,7 +56384,7 @@
         </is>
       </c>
       <c r="C1696" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D1696" t="n">
         <v>25</v>
@@ -56408,7 +56408,7 @@
     <row r="1697">
       <c r="A1697" t="inlineStr">
         <is>
-          <t>11/06/2010</t>
+          <t>03/21/2022</t>
         </is>
       </c>
       <c r="B1697" t="inlineStr">
@@ -56417,7 +56417,7 @@
         </is>
       </c>
       <c r="C1697" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1697" t="n">
         <v>50</v>
@@ -56441,7 +56441,7 @@
     <row r="1698">
       <c r="A1698" t="inlineStr">
         <is>
-          <t>11/20/2001</t>
+          <t>03/18/2008</t>
         </is>
       </c>
       <c r="B1698" t="inlineStr">
@@ -56450,7 +56450,7 @@
         </is>
       </c>
       <c r="C1698" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D1698" t="n">
         <v>15</v>
@@ -56474,7 +56474,7 @@
     <row r="1699">
       <c r="A1699" t="inlineStr">
         <is>
-          <t>07/16/2007</t>
+          <t>03/23/2010</t>
         </is>
       </c>
       <c r="B1699" t="inlineStr">
@@ -56483,7 +56483,7 @@
         </is>
       </c>
       <c r="C1699" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1699" t="n">
         <v>15</v>
@@ -56507,7 +56507,7 @@
     <row r="1700">
       <c r="A1700" t="inlineStr">
         <is>
-          <t>02/23/2010</t>
+          <t>07/11/2018</t>
         </is>
       </c>
       <c r="B1700" t="inlineStr">
@@ -56516,7 +56516,7 @@
         </is>
       </c>
       <c r="C1700" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1700" t="n">
         <v>25</v>
@@ -56540,7 +56540,7 @@
     <row r="1701">
       <c r="A1701" t="inlineStr">
         <is>
-          <t>12/02/2004</t>
+          <t>05/01/2013</t>
         </is>
       </c>
       <c r="B1701" t="inlineStr">
@@ -56549,7 +56549,7 @@
         </is>
       </c>
       <c r="C1701" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1701" t="n">
         <v>50</v>
@@ -56573,7 +56573,7 @@
     <row r="1702">
       <c r="A1702" t="inlineStr">
         <is>
-          <t>07/15/2023</t>
+          <t>01/26/2006</t>
         </is>
       </c>
       <c r="B1702" t="inlineStr">
@@ -56582,7 +56582,7 @@
         </is>
       </c>
       <c r="C1702" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1702" t="n">
         <v>20</v>
@@ -56606,7 +56606,7 @@
     <row r="1703">
       <c r="A1703" t="inlineStr">
         <is>
-          <t>12/10/2021</t>
+          <t>12/19/2011</t>
         </is>
       </c>
       <c r="B1703" t="inlineStr">
@@ -56615,7 +56615,7 @@
         </is>
       </c>
       <c r="C1703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1703" t="n">
         <v>40</v>
@@ -56639,7 +56639,7 @@
     <row r="1704">
       <c r="A1704" t="inlineStr">
         <is>
-          <t>04/07/2020</t>
+          <t>08/07/2013</t>
         </is>
       </c>
       <c r="B1704" t="inlineStr">
@@ -56648,7 +56648,7 @@
         </is>
       </c>
       <c r="C1704" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1704" t="n">
         <v>60</v>
@@ -56672,7 +56672,7 @@
     <row r="1705">
       <c r="A1705" t="inlineStr">
         <is>
-          <t>11/24/2012</t>
+          <t>02/05/2009</t>
         </is>
       </c>
       <c r="B1705" t="inlineStr">
@@ -56681,7 +56681,7 @@
         </is>
       </c>
       <c r="C1705" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1705" t="n">
         <v>80</v>
@@ -56705,7 +56705,7 @@
     <row r="1706">
       <c r="A1706" t="inlineStr">
         <is>
-          <t>06/19/2012</t>
+          <t>05/03/2004</t>
         </is>
       </c>
       <c r="B1706" t="inlineStr">
@@ -56714,7 +56714,7 @@
         </is>
       </c>
       <c r="C1706" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D1706" t="n">
         <v>15</v>
@@ -56738,7 +56738,7 @@
     <row r="1707">
       <c r="A1707" t="inlineStr">
         <is>
-          <t>02/09/2019</t>
+          <t>05/08/2003</t>
         </is>
       </c>
       <c r="B1707" t="inlineStr">
@@ -56747,7 +56747,7 @@
         </is>
       </c>
       <c r="C1707" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1707" t="n">
         <v>100</v>
@@ -56771,7 +56771,7 @@
     <row r="1708">
       <c r="A1708" t="inlineStr">
         <is>
-          <t>06/18/2019</t>
+          <t>10/31/2005</t>
         </is>
       </c>
       <c r="B1708" t="inlineStr">
@@ -56780,7 +56780,7 @@
         </is>
       </c>
       <c r="C1708" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1708" t="n">
         <v>5</v>
@@ -56804,7 +56804,7 @@
     <row r="1709">
       <c r="A1709" t="inlineStr">
         <is>
-          <t>01/22/2015</t>
+          <t>09/27/2003</t>
         </is>
       </c>
       <c r="B1709" t="inlineStr">
@@ -56813,7 +56813,7 @@
         </is>
       </c>
       <c r="C1709" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1709" t="n">
         <v>150</v>
@@ -56837,7 +56837,7 @@
     <row r="1710">
       <c r="A1710" t="inlineStr">
         <is>
-          <t>12/22/2015</t>
+          <t>03/05/2014</t>
         </is>
       </c>
       <c r="B1710" t="inlineStr">
@@ -56846,7 +56846,7 @@
         </is>
       </c>
       <c r="C1710" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1710" t="n">
         <v>120</v>
@@ -56870,7 +56870,7 @@
     <row r="1711">
       <c r="A1711" t="inlineStr">
         <is>
-          <t>05/17/2004</t>
+          <t>07/14/2021</t>
         </is>
       </c>
       <c r="B1711" t="inlineStr">
@@ -56879,7 +56879,7 @@
         </is>
       </c>
       <c r="C1711" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1711" t="n">
         <v>300</v>
@@ -56903,7 +56903,7 @@
     <row r="1712">
       <c r="A1712" t="inlineStr">
         <is>
-          <t>07/07/2011</t>
+          <t>08/03/2005</t>
         </is>
       </c>
       <c r="B1712" t="inlineStr">
@@ -56912,7 +56912,7 @@
         </is>
       </c>
       <c r="C1712" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1712" t="n">
         <v>45</v>
@@ -56936,7 +56936,7 @@
     <row r="1713">
       <c r="A1713" t="inlineStr">
         <is>
-          <t>11/05/2001</t>
+          <t>07/08/2007</t>
         </is>
       </c>
       <c r="B1713" t="inlineStr">
@@ -56945,7 +56945,7 @@
         </is>
       </c>
       <c r="C1713" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1713" t="n">
         <v>35</v>
@@ -56969,7 +56969,7 @@
     <row r="1714">
       <c r="A1714" t="inlineStr">
         <is>
-          <t>11/25/2005</t>
+          <t>11/08/2006</t>
         </is>
       </c>
       <c r="B1714" t="inlineStr">
@@ -56978,7 +56978,7 @@
         </is>
       </c>
       <c r="C1714" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1714" t="n">
         <v>120</v>
@@ -57002,7 +57002,7 @@
     <row r="1715">
       <c r="A1715" t="inlineStr">
         <is>
-          <t>10/25/2011</t>
+          <t>01/22/2006</t>
         </is>
       </c>
       <c r="B1715" t="inlineStr">
@@ -57011,7 +57011,7 @@
         </is>
       </c>
       <c r="C1715" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1715" t="n">
         <v>25</v>
@@ -57035,7 +57035,7 @@
     <row r="1716">
       <c r="A1716" t="inlineStr">
         <is>
-          <t>08/07/2012</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B1716" t="inlineStr">
@@ -57044,7 +57044,7 @@
         </is>
       </c>
       <c r="C1716" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1716" t="n">
         <v>30</v>
@@ -57068,7 +57068,7 @@
     <row r="1717">
       <c r="A1717" t="inlineStr">
         <is>
-          <t>08/19/2019</t>
+          <t>02/20/2016</t>
         </is>
       </c>
       <c r="B1717" t="inlineStr">
@@ -57077,7 +57077,7 @@
         </is>
       </c>
       <c r="C1717" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1717" t="n">
         <v>35</v>
@@ -57101,7 +57101,7 @@
     <row r="1718">
       <c r="A1718" t="inlineStr">
         <is>
-          <t>05/30/2004</t>
+          <t>09/14/2011</t>
         </is>
       </c>
       <c r="B1718" t="inlineStr">
@@ -57110,7 +57110,7 @@
         </is>
       </c>
       <c r="C1718" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1718" t="n">
         <v>150</v>
@@ -57134,7 +57134,7 @@
     <row r="1719">
       <c r="A1719" t="inlineStr">
         <is>
-          <t>09/17/2001</t>
+          <t>02/19/2019</t>
         </is>
       </c>
       <c r="B1719" t="inlineStr">
@@ -57143,7 +57143,7 @@
         </is>
       </c>
       <c r="C1719" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1719" t="n">
         <v>100</v>
@@ -57167,7 +57167,7 @@
     <row r="1720">
       <c r="A1720" t="inlineStr">
         <is>
-          <t>04/25/2017</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B1720" t="inlineStr">
@@ -57176,7 +57176,7 @@
         </is>
       </c>
       <c r="C1720" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1720" t="n">
         <v>70</v>
@@ -57200,7 +57200,7 @@
     <row r="1721">
       <c r="A1721" t="inlineStr">
         <is>
-          <t>02/10/2018</t>
+          <t>03/22/2019</t>
         </is>
       </c>
       <c r="B1721" t="inlineStr">
@@ -57209,7 +57209,7 @@
         </is>
       </c>
       <c r="C1721" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1721" t="n">
         <v>25</v>
@@ -57233,7 +57233,7 @@
     <row r="1722">
       <c r="A1722" t="inlineStr">
         <is>
-          <t>02/24/2008</t>
+          <t>09/02/2021</t>
         </is>
       </c>
       <c r="B1722" t="inlineStr">
@@ -57242,7 +57242,7 @@
         </is>
       </c>
       <c r="C1722" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1722" t="n">
         <v>50</v>
@@ -57266,7 +57266,7 @@
     <row r="1723">
       <c r="A1723" t="inlineStr">
         <is>
-          <t>08/28/2014</t>
+          <t>11/17/2013</t>
         </is>
       </c>
       <c r="B1723" t="inlineStr">
@@ -57275,7 +57275,7 @@
         </is>
       </c>
       <c r="C1723" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1723" t="n">
         <v>15</v>
@@ -57299,7 +57299,7 @@
     <row r="1724">
       <c r="A1724" t="inlineStr">
         <is>
-          <t>08/01/2019</t>
+          <t>05/24/2013</t>
         </is>
       </c>
       <c r="B1724" t="inlineStr">
@@ -57332,7 +57332,7 @@
     <row r="1725">
       <c r="A1725" t="inlineStr">
         <is>
-          <t>11/18/2010</t>
+          <t>01/13/2015</t>
         </is>
       </c>
       <c r="B1725" t="inlineStr">
@@ -57341,7 +57341,7 @@
         </is>
       </c>
       <c r="C1725" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1725" t="n">
         <v>25</v>
@@ -57365,7 +57365,7 @@
     <row r="1726">
       <c r="A1726" t="inlineStr">
         <is>
-          <t>05/02/2021</t>
+          <t>03/20/2003</t>
         </is>
       </c>
       <c r="B1726" t="inlineStr">
@@ -57374,7 +57374,7 @@
         </is>
       </c>
       <c r="C1726" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1726" t="n">
         <v>50</v>
@@ -57398,7 +57398,7 @@
     <row r="1727">
       <c r="A1727" t="inlineStr">
         <is>
-          <t>07/26/2006</t>
+          <t>09/04/2007</t>
         </is>
       </c>
       <c r="B1727" t="inlineStr">
@@ -57431,7 +57431,7 @@
     <row r="1728">
       <c r="A1728" t="inlineStr">
         <is>
-          <t>07/21/2018</t>
+          <t>03/15/2009</t>
         </is>
       </c>
       <c r="B1728" t="inlineStr">
@@ -57440,7 +57440,7 @@
         </is>
       </c>
       <c r="C1728" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1728" t="n">
         <v>40</v>
@@ -57464,7 +57464,7 @@
     <row r="1729">
       <c r="A1729" t="inlineStr">
         <is>
-          <t>09/25/2014</t>
+          <t>03/23/2017</t>
         </is>
       </c>
       <c r="B1729" t="inlineStr">
@@ -57473,7 +57473,7 @@
         </is>
       </c>
       <c r="C1729" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1729" t="n">
         <v>60</v>
@@ -57497,7 +57497,7 @@
     <row r="1730">
       <c r="A1730" t="inlineStr">
         <is>
-          <t>11/13/2015</t>
+          <t>09/10/2015</t>
         </is>
       </c>
       <c r="B1730" t="inlineStr">
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="C1730" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1730" t="n">
         <v>80</v>
@@ -57530,7 +57530,7 @@
     <row r="1731">
       <c r="A1731" t="inlineStr">
         <is>
-          <t>05/17/2004</t>
+          <t>05/18/2021</t>
         </is>
       </c>
       <c r="B1731" t="inlineStr">
@@ -57539,7 +57539,7 @@
         </is>
       </c>
       <c r="C1731" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1731" t="n">
         <v>15</v>
@@ -57563,7 +57563,7 @@
     <row r="1732">
       <c r="A1732" t="inlineStr">
         <is>
-          <t>06/21/2007</t>
+          <t>03/14/2009</t>
         </is>
       </c>
       <c r="B1732" t="inlineStr">
@@ -57572,7 +57572,7 @@
         </is>
       </c>
       <c r="C1732" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D1732" t="n">
         <v>100</v>
@@ -57596,7 +57596,7 @@
     <row r="1733">
       <c r="A1733" t="inlineStr">
         <is>
-          <t>02/26/2012</t>
+          <t>10/20/2010</t>
         </is>
       </c>
       <c r="B1733" t="inlineStr">
@@ -57605,7 +57605,7 @@
         </is>
       </c>
       <c r="C1733" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D1733" t="n">
         <v>5</v>
@@ -57629,7 +57629,7 @@
     <row r="1734">
       <c r="A1734" t="inlineStr">
         <is>
-          <t>04/15/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B1734" t="inlineStr">
@@ -57638,7 +57638,7 @@
         </is>
       </c>
       <c r="C1734" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1734" t="n">
         <v>150</v>
@@ -57662,7 +57662,7 @@
     <row r="1735">
       <c r="A1735" t="inlineStr">
         <is>
-          <t>06/05/2006</t>
+          <t>11/14/2019</t>
         </is>
       </c>
       <c r="B1735" t="inlineStr">
@@ -57671,7 +57671,7 @@
         </is>
       </c>
       <c r="C1735" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1735" t="n">
         <v>120</v>
@@ -57695,7 +57695,7 @@
     <row r="1736">
       <c r="A1736" t="inlineStr">
         <is>
-          <t>11/28/2005</t>
+          <t>08/17/2016</t>
         </is>
       </c>
       <c r="B1736" t="inlineStr">
@@ -57704,7 +57704,7 @@
         </is>
       </c>
       <c r="C1736" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1736" t="n">
         <v>300</v>
@@ -57728,7 +57728,7 @@
     <row r="1737">
       <c r="A1737" t="inlineStr">
         <is>
-          <t>03/23/2009</t>
+          <t>11/18/2009</t>
         </is>
       </c>
       <c r="B1737" t="inlineStr">
@@ -57737,7 +57737,7 @@
         </is>
       </c>
       <c r="C1737" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1737" t="n">
         <v>45</v>
@@ -57761,7 +57761,7 @@
     <row r="1738">
       <c r="A1738" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>10/03/2006</t>
         </is>
       </c>
       <c r="B1738" t="inlineStr">
@@ -57770,7 +57770,7 @@
         </is>
       </c>
       <c r="C1738" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D1738" t="n">
         <v>35</v>
@@ -57794,7 +57794,7 @@
     <row r="1739">
       <c r="A1739" t="inlineStr">
         <is>
-          <t>03/11/2007</t>
+          <t>10/02/2012</t>
         </is>
       </c>
       <c r="B1739" t="inlineStr">
@@ -57803,7 +57803,7 @@
         </is>
       </c>
       <c r="C1739" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D1739" t="n">
         <v>120</v>
@@ -57827,7 +57827,7 @@
     <row r="1740">
       <c r="A1740" t="inlineStr">
         <is>
-          <t>12/24/2018</t>
+          <t>12/13/2023</t>
         </is>
       </c>
       <c r="B1740" t="inlineStr">
@@ -57836,7 +57836,7 @@
         </is>
       </c>
       <c r="C1740" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1740" t="n">
         <v>25</v>
@@ -57860,7 +57860,7 @@
     <row r="1741">
       <c r="A1741" t="inlineStr">
         <is>
-          <t>04/14/2011</t>
+          <t>08/31/2012</t>
         </is>
       </c>
       <c r="B1741" t="inlineStr">
@@ -57869,7 +57869,7 @@
         </is>
       </c>
       <c r="C1741" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1741" t="n">
         <v>30</v>
@@ -57893,7 +57893,7 @@
     <row r="1742">
       <c r="A1742" t="inlineStr">
         <is>
-          <t>04/29/2006</t>
+          <t>05/12/2012</t>
         </is>
       </c>
       <c r="B1742" t="inlineStr">
@@ -57902,7 +57902,7 @@
         </is>
       </c>
       <c r="C1742" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1742" t="n">
         <v>35</v>
@@ -57926,7 +57926,7 @@
     <row r="1743">
       <c r="A1743" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>09/18/2023</t>
         </is>
       </c>
       <c r="B1743" t="inlineStr">
@@ -57935,7 +57935,7 @@
         </is>
       </c>
       <c r="C1743" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1743" t="n">
         <v>150</v>
@@ -57959,7 +57959,7 @@
     <row r="1744">
       <c r="A1744" t="inlineStr">
         <is>
-          <t>03/26/2007</t>
+          <t>03/28/2015</t>
         </is>
       </c>
       <c r="B1744" t="inlineStr">
@@ -57968,7 +57968,7 @@
         </is>
       </c>
       <c r="C1744" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1744" t="n">
         <v>100</v>
@@ -57992,7 +57992,7 @@
     <row r="1745">
       <c r="A1745" t="inlineStr">
         <is>
-          <t>08/13/2013</t>
+          <t>08/30/2017</t>
         </is>
       </c>
       <c r="B1745" t="inlineStr">
@@ -58001,7 +58001,7 @@
         </is>
       </c>
       <c r="C1745" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1745" t="n">
         <v>70</v>
@@ -58025,7 +58025,7 @@
     <row r="1746">
       <c r="A1746" t="inlineStr">
         <is>
-          <t>08/31/2021</t>
+          <t>06/07/2006</t>
         </is>
       </c>
       <c r="B1746" t="inlineStr">
@@ -58034,7 +58034,7 @@
         </is>
       </c>
       <c r="C1746" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D1746" t="n">
         <v>25</v>
@@ -58058,7 +58058,7 @@
     <row r="1747">
       <c r="A1747" t="inlineStr">
         <is>
-          <t>02/20/2007</t>
+          <t>05/10/2012</t>
         </is>
       </c>
       <c r="B1747" t="inlineStr">
@@ -58067,7 +58067,7 @@
         </is>
       </c>
       <c r="C1747" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1747" t="n">
         <v>50</v>
@@ -58091,7 +58091,7 @@
     <row r="1748">
       <c r="A1748" t="inlineStr">
         <is>
-          <t>04/14/2019</t>
+          <t>08/29/2019</t>
         </is>
       </c>
       <c r="B1748" t="inlineStr">
@@ -58100,7 +58100,7 @@
         </is>
       </c>
       <c r="C1748" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1748" t="n">
         <v>15</v>
@@ -58124,7 +58124,7 @@
     <row r="1749">
       <c r="A1749" t="inlineStr">
         <is>
-          <t>11/09/2021</t>
+          <t>09/16/2021</t>
         </is>
       </c>
       <c r="B1749" t="inlineStr">
@@ -58133,7 +58133,7 @@
         </is>
       </c>
       <c r="C1749" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1749" t="n">
         <v>15</v>
@@ -58157,7 +58157,7 @@
     <row r="1750">
       <c r="A1750" t="inlineStr">
         <is>
-          <t>05/07/2024</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="B1750" t="inlineStr">
@@ -58166,7 +58166,7 @@
         </is>
       </c>
       <c r="C1750" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1750" t="n">
         <v>25</v>
@@ -58190,7 +58190,7 @@
     <row r="1751">
       <c r="A1751" t="inlineStr">
         <is>
-          <t>04/07/2024</t>
+          <t>09/30/2008</t>
         </is>
       </c>
       <c r="B1751" t="inlineStr">
@@ -58199,7 +58199,7 @@
         </is>
       </c>
       <c r="C1751" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1751" t="n">
         <v>50</v>
